--- a/影视剧.xlsx
+++ b/影视剧.xlsx
@@ -11,7 +11,7 @@
     <sheet name="影视剧(3)" sheetId="3" state="veryHidden" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">影视剧!$A$1:$C$1284</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">影视剧!$A$1:$C$1334</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7871" uniqueCount="3686">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8087" uniqueCount="3792">
   <si>
     <t>注意：不要相信视频或者文件内的广告和二维码！谨防诈骗！谨防诈骗！谨防诈骗！</t>
   </si>
@@ -9026,6 +9026,9 @@
     <t>潜伏-2008</t>
   </si>
   <si>
+    <t>https://pan.baidu.com/s/17vFwF-glmiuSVH1VwQNFAQ?pwd=ktu8</t>
+  </si>
+  <si>
     <t>https://pan.quark.cn/s/77ddcc38fae7</t>
   </si>
   <si>
@@ -11103,6 +11106,321 @@
   </si>
   <si>
     <t>https://pan.quark.cn/s/8e20acaae874</t>
+  </si>
+  <si>
+    <t>世界尽头（2013）英国</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1i3IbPoN1xh6PzDdgqifM4A?pwd=jt2v</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/a9a663678023</t>
+  </si>
+  <si>
+    <t>天行健</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/12U_zZoBY00Suj-kmx-_Txw?pwd=5xqy</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/8b784022a37e</t>
+  </si>
+  <si>
+    <t>五十度飞（2018）美国</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1ARb2KwdhT69gzoD3oy8GzA?pwd=6n7n</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/15d774f56033</t>
+  </si>
+  <si>
+    <t>五十度黑（2017）美国</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1xpWA5RLehrOgG_XIOA9DZw?pwd=2i27</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/4c934e08237b</t>
+  </si>
+  <si>
+    <t>五十度灰（2015）美国</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1YQGuUauRpGpSmK574nkIcA?pwd=pqjh</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/e32a0610bc40</t>
+  </si>
+  <si>
+    <t>50度/五十度 1-3部</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1f-iC1CxxzBnt8t2zbmeJdw?pwd=nutk</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/c6344cf1b358</t>
+  </si>
+  <si>
+    <t>撒旦探戈（1994）</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1PsmNWjtzmjwNWbE2PyDY1g?pwd=8hv8</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/76453290a798</t>
+  </si>
+  <si>
+    <t>小姐（2016）韩国</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1qh08MQka3Pa_-Zn20M0L-g?pwd=6kqj</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/9bc2112a99d8</t>
+  </si>
+  <si>
+    <t>在失落之地. In the Lost Lands（2025）</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1e7Qju70wWI9FX0vNdsxEgQ?pwd=6pb6</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/c2a5fbbe18f8</t>
+  </si>
+  <si>
+    <t>多哥（2019）</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1hLWUND-ZfSoDLInwdAfTiQ?pwd=3i3c</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/21a8debea1d9</t>
+  </si>
+  <si>
+    <t>三天（2024）韩国</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1bdxlYTq9ZjcfEioxW9gygg?pwd=ehm2</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/551e572f5b94</t>
+  </si>
+  <si>
+    <t>第一械（2008）</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/4c5e3e133bc5</t>
+  </si>
+  <si>
+    <t>三更（2002）</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1w3d6zKgDLfuHImaxqvKczw?pwd=e1yq</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/67b9843c4e0a</t>
+  </si>
+  <si>
+    <t>三更2（2004）</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/17PLPBNs1uQNKWg6HuZypCQ?pwd=cc8u</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/462bd1563b5f</t>
+  </si>
+  <si>
+    <t>林中小屋（2012）</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1pYdkAVXmuZOhQ9Bw0BJivw?pwd=kqy4</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/18704311058f</t>
+  </si>
+  <si>
+    <t>巴里公主（2024）</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1Oc_RKT85npFFwOB-ibQLmg?pwd=482f</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/91bca0b5a4c4</t>
+  </si>
+  <si>
+    <t>大坏狐狸的故事（2017）</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1Lg1jzJRgAPldkd5mtNVCkA?pwd=f6yd</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/9b8cfe3e8661</t>
+  </si>
+  <si>
+    <t>泰国洞穴救援（2021）</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/14SaDo5J6C7rR6QP4FZ6J-A?pwd=cnqx</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/d02f52c54d34</t>
+  </si>
+  <si>
+    <t>隐形人（2020）</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/11-DkFzZDYn8nBhOHSpWnRA?pwd=uq17</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/3e99fec51fc7</t>
+  </si>
+  <si>
+    <t>小偷家族（2018）</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/179ymxM9a-B8TuYgJRx1hbQ?pwd=33vj</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/cdfa7c03d147</t>
+  </si>
+  <si>
+    <t>牯岭街少年杀人事件（1991）</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1t6UVOIsQQdVRSt2ZtmiwyQ?pwd=nqmh</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/813d961918d0</t>
+  </si>
+  <si>
+    <t>帅哥们（2024）</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1OdnDigMnBe5k2P3_PYo6fw?pwd=4ani</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/d652ed9ca160</t>
+  </si>
+  <si>
+    <t>卢旺达饭店（2004）</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1BfQyPzYvUZgPTtcd2Fjd4Q?pwd=pxdt</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/cb73c40b6437</t>
+  </si>
+  <si>
+    <t>走出非洲（1985）</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1LM9KBg38KRNyzzXH-ll-0A?pwd=q69m</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/c803eaa3f0b3</t>
+  </si>
+  <si>
+    <t>再见，朱莉娅（2023）</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1m7wDfB8l3hJJaGoGIZr_NQ?pwd=upp4</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/3ea5dd182781</t>
+  </si>
+  <si>
+    <t>奥丽芙基特里奇（2014）1-4集</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/5d79735e7e26</t>
+  </si>
+  <si>
+    <t>天气之子（2019）</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/12ytA18kWIj4MRN6cBEhzWw?pwd=huu7</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/e5d6542c658b</t>
+  </si>
+  <si>
+    <t>学校风云（1988）</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1pG012P7_1uzcWc2i5fWKEg?pwd=qmqu</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/77f6b5a78cbd</t>
+  </si>
+  <si>
+    <t>料理鼠王/美食总动员（2007）美国</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1K_W41DEsv8UfWE2j2M5hZw?pwd=vqdv</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/e60ba738a08d</t>
+  </si>
+  <si>
+    <t>追逐繁星的孩子（2011）日本</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1nKBVg71Lql8h8_kkA46xsQ?pwd=cyje</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/964e32aaac90</t>
+  </si>
+  <si>
+    <t>回忆中的玛妮（2014）日本</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1j7laaNtDSW_GtMtC-34tdA?pwd=ccca</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/f369c00a5396</t>
+  </si>
+  <si>
+    <t>千钧一发（1997）美国</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1GuBQkjt1GFlaq-_AzrG5WQ?pwd=wi9y</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/b1a659bf15cd</t>
+  </si>
+  <si>
+    <t>夏日幽灵（2021）日本</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1m_EiSlGMEg19XLFCttX_Hg?pwd=26xy</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/856410a8f9b8</t>
+  </si>
+  <si>
+    <t>花落花开 Séraphine（2008）法国</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1kS_gGfs6K-GFJrOjtBqyBw?pwd=nrnc</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/c09544bff080</t>
+  </si>
+  <si>
+    <t>夜半一点钟（1995）中国香港</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/7a40756083e3</t>
+  </si>
+  <si>
+    <t>王牌特工 1-3部</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1C079EHXk20F5cAns8qJnIg?pwd=4wix</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/97d7ce3f0218</t>
   </si>
   <si>
     <t>文本</t>
@@ -11745,7 +12063,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -11791,9 +12109,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyFont="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center"/>
@@ -12081,12 +12396,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="影视剧_3" displayName="影视剧_3" ref="A1:D1311" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="影视剧_3" displayName="影视剧_3" ref="A1:D1347" totalsRowShown="0">
   <tableColumns count="4">
-    <tableColumn id="1" name="来自谁的启示（2025）"/>
-    <tableColumn id="2" name="https://pan.baidu.com/s/1zyOX27hl-nCvtBsRMR_44w?pwd=a5yc"/>
-    <tableColumn id="3" name="https://pan.quark.cn/s/886de0c54424"/>
-    <tableColumn id="4" name="列1"/>
+    <tableColumn id="1" name="资源名称"/>
+    <tableColumn id="2" name="百度网盘"/>
+    <tableColumn id="3" name="夸克网盘"/>
+    <tableColumn id="4" name="文本"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -12350,10 +12665,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D1315"/>
+  <dimension ref="A1:D1351"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+    <sheetView tabSelected="1" zoomScale="61" zoomScaleNormal="61" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.3333333333333" defaultRowHeight="19.5" outlineLevelCol="3"/>
@@ -19149,7 +19464,7 @@
       </c>
     </row>
     <row r="619" spans="1:3">
-      <c r="A619" s="16" t="s">
+      <c r="A619" s="15" t="s">
         <v>1770</v>
       </c>
       <c r="B619" s="12" t="s">
@@ -24047,525 +24362,525 @@
       <c r="A1064" s="10" t="s">
         <v>2991</v>
       </c>
-      <c r="B1064" s="10" t="s">
-        <v>266</v>
+      <c r="B1064" s="12" t="s">
+        <v>2992</v>
       </c>
       <c r="C1064" s="12" t="s">
-        <v>2992</v>
+        <v>2993</v>
       </c>
     </row>
     <row r="1065" spans="1:3">
       <c r="A1065" s="10" t="s">
-        <v>2993</v>
+        <v>2994</v>
       </c>
       <c r="B1065" s="10" t="s">
         <v>266</v>
       </c>
       <c r="C1065" s="12" t="s">
-        <v>2994</v>
+        <v>2995</v>
       </c>
     </row>
     <row r="1066" spans="1:3">
       <c r="A1066" s="10" t="s">
-        <v>2995</v>
+        <v>2996</v>
       </c>
       <c r="B1066" s="10" t="s">
         <v>266</v>
       </c>
       <c r="C1066" s="12" t="s">
-        <v>2996</v>
+        <v>2997</v>
       </c>
     </row>
     <row r="1067" spans="1:3">
       <c r="A1067" s="10" t="s">
-        <v>2997</v>
+        <v>2998</v>
       </c>
       <c r="B1067" s="10" t="s">
         <v>266</v>
       </c>
       <c r="C1067" s="12" t="s">
-        <v>2998</v>
+        <v>2999</v>
       </c>
     </row>
     <row r="1068" spans="1:3">
       <c r="A1068" s="10" t="s">
-        <v>2999</v>
+        <v>3000</v>
       </c>
       <c r="B1068" s="10" t="s">
         <v>266</v>
       </c>
       <c r="C1068" s="12" t="s">
-        <v>3000</v>
+        <v>3001</v>
       </c>
     </row>
     <row r="1069" spans="1:3">
       <c r="A1069" s="10" t="s">
-        <v>3001</v>
+        <v>3002</v>
       </c>
       <c r="B1069" s="10" t="s">
         <v>266</v>
       </c>
       <c r="C1069" s="12" t="s">
-        <v>3002</v>
+        <v>3003</v>
       </c>
     </row>
     <row r="1070" spans="1:3">
       <c r="A1070" s="10" t="s">
-        <v>3003</v>
+        <v>3004</v>
       </c>
       <c r="B1070" s="10" t="s">
         <v>266</v>
       </c>
       <c r="C1070" s="12" t="s">
-        <v>3004</v>
+        <v>3005</v>
       </c>
     </row>
     <row r="1071" spans="1:3">
       <c r="A1071" s="10" t="s">
-        <v>3005</v>
+        <v>3006</v>
       </c>
       <c r="B1071" s="10" t="s">
         <v>266</v>
       </c>
       <c r="C1071" s="12" t="s">
-        <v>3006</v>
+        <v>3007</v>
       </c>
     </row>
     <row r="1072" spans="1:3">
       <c r="A1072" s="10" t="s">
-        <v>3007</v>
+        <v>3008</v>
       </c>
       <c r="B1072" s="10" t="s">
         <v>266</v>
       </c>
       <c r="C1072" s="12" t="s">
-        <v>3008</v>
+        <v>3009</v>
       </c>
     </row>
     <row r="1073" spans="1:3">
       <c r="A1073" s="10" t="s">
-        <v>3009</v>
+        <v>3010</v>
       </c>
       <c r="B1073" s="12" t="s">
-        <v>3010</v>
+        <v>3011</v>
       </c>
       <c r="C1073" s="12" t="s">
-        <v>3011</v>
+        <v>3012</v>
       </c>
     </row>
     <row r="1074" spans="1:3">
       <c r="A1074" s="10" t="s">
-        <v>3012</v>
+        <v>3013</v>
       </c>
       <c r="B1074" s="12" t="s">
-        <v>3013</v>
+        <v>3014</v>
       </c>
       <c r="C1074" s="12" t="s">
-        <v>3014</v>
+        <v>3015</v>
       </c>
     </row>
     <row r="1075" spans="1:3">
       <c r="A1075" s="10" t="s">
-        <v>3015</v>
+        <v>3016</v>
       </c>
       <c r="B1075" s="10" t="s">
         <v>266</v>
       </c>
       <c r="C1075" s="12" t="s">
-        <v>3016</v>
+        <v>3017</v>
       </c>
     </row>
     <row r="1076" spans="1:3">
       <c r="A1076" s="10" t="s">
-        <v>3017</v>
+        <v>3018</v>
       </c>
       <c r="B1076" s="12" t="s">
-        <v>3018</v>
+        <v>3019</v>
       </c>
       <c r="C1076" s="12" t="s">
-        <v>3019</v>
+        <v>3020</v>
       </c>
     </row>
     <row r="1077" spans="1:3">
       <c r="A1077" s="10" t="s">
-        <v>3020</v>
+        <v>3021</v>
       </c>
       <c r="B1077" s="10" t="s">
         <v>266</v>
       </c>
       <c r="C1077" s="12" t="s">
-        <v>3021</v>
+        <v>3022</v>
       </c>
     </row>
     <row r="1078" spans="1:3">
       <c r="A1078" s="10" t="s">
-        <v>3022</v>
+        <v>3023</v>
       </c>
       <c r="B1078" s="12" t="s">
-        <v>3023</v>
+        <v>3024</v>
       </c>
       <c r="C1078" s="12" t="s">
-        <v>3024</v>
+        <v>3025</v>
       </c>
     </row>
     <row r="1079" spans="1:3">
       <c r="A1079" s="10" t="s">
-        <v>3025</v>
+        <v>3026</v>
       </c>
       <c r="B1079" s="12" t="s">
-        <v>3026</v>
+        <v>3027</v>
       </c>
       <c r="C1079" s="12" t="s">
-        <v>3027</v>
+        <v>3028</v>
       </c>
     </row>
     <row r="1080" spans="1:3">
       <c r="A1080" s="10" t="s">
-        <v>3028</v>
+        <v>3029</v>
       </c>
       <c r="B1080" s="10" t="s">
         <v>266</v>
       </c>
       <c r="C1080" s="12" t="s">
-        <v>3029</v>
+        <v>3030</v>
       </c>
     </row>
     <row r="1081" spans="1:3">
       <c r="A1081" s="10" t="s">
-        <v>3030</v>
+        <v>3031</v>
       </c>
       <c r="B1081" s="10" t="s">
         <v>266</v>
       </c>
       <c r="C1081" s="12" t="s">
-        <v>3031</v>
+        <v>3032</v>
       </c>
     </row>
     <row r="1082" spans="1:3">
       <c r="A1082" s="10" t="s">
-        <v>3032</v>
+        <v>3033</v>
       </c>
       <c r="B1082" s="10" t="s">
         <v>266</v>
       </c>
       <c r="C1082" s="12" t="s">
-        <v>3033</v>
+        <v>3034</v>
       </c>
     </row>
     <row r="1083" spans="1:3">
       <c r="A1083" s="10" t="s">
-        <v>3034</v>
+        <v>3035</v>
       </c>
       <c r="B1083" s="12" t="s">
-        <v>3035</v>
+        <v>3036</v>
       </c>
       <c r="C1083" s="12" t="s">
-        <v>3036</v>
+        <v>3037</v>
       </c>
     </row>
     <row r="1084" spans="1:3">
       <c r="A1084" s="10" t="s">
-        <v>3037</v>
+        <v>3038</v>
       </c>
       <c r="B1084" s="12" t="s">
-        <v>3038</v>
+        <v>3039</v>
       </c>
       <c r="C1084" s="12" t="s">
-        <v>3039</v>
+        <v>3040</v>
       </c>
     </row>
     <row r="1085" spans="1:3">
       <c r="A1085" s="10" t="s">
-        <v>3040</v>
+        <v>3041</v>
       </c>
       <c r="B1085" s="12" t="s">
-        <v>3041</v>
+        <v>3042</v>
       </c>
       <c r="C1085" s="12" t="s">
-        <v>3042</v>
+        <v>3043</v>
       </c>
     </row>
     <row r="1086" spans="1:3">
       <c r="A1086" s="10" t="s">
-        <v>3043</v>
+        <v>3044</v>
       </c>
       <c r="B1086" s="12" t="s">
-        <v>3044</v>
+        <v>3045</v>
       </c>
       <c r="C1086" s="12" t="s">
-        <v>3045</v>
+        <v>3046</v>
       </c>
     </row>
     <row r="1087" spans="1:3">
       <c r="A1087" s="10" t="s">
-        <v>3046</v>
+        <v>3047</v>
       </c>
       <c r="B1087" s="12" t="s">
-        <v>3047</v>
+        <v>3048</v>
       </c>
       <c r="C1087" s="12" t="s">
-        <v>3048</v>
+        <v>3049</v>
       </c>
     </row>
     <row r="1088" spans="1:3">
       <c r="A1088" s="10" t="s">
-        <v>3049</v>
+        <v>3050</v>
       </c>
       <c r="B1088" s="12" t="s">
-        <v>3050</v>
+        <v>3051</v>
       </c>
       <c r="C1088" s="12" t="s">
-        <v>3051</v>
+        <v>3052</v>
       </c>
     </row>
     <row r="1089" spans="1:3">
       <c r="A1089" s="10" t="s">
-        <v>3052</v>
+        <v>3053</v>
       </c>
       <c r="B1089" s="12" t="s">
-        <v>3053</v>
+        <v>3054</v>
       </c>
       <c r="C1089" s="12" t="s">
-        <v>3054</v>
+        <v>3055</v>
       </c>
     </row>
     <row r="1090" spans="1:3">
       <c r="A1090" s="10" t="s">
-        <v>3055</v>
+        <v>3056</v>
       </c>
       <c r="B1090" s="10" t="s">
         <v>266</v>
       </c>
       <c r="C1090" s="12" t="s">
-        <v>3056</v>
+        <v>3057</v>
       </c>
     </row>
     <row r="1091" spans="1:3">
       <c r="A1091" s="10" t="s">
-        <v>3057</v>
+        <v>3058</v>
       </c>
       <c r="B1091" s="12" t="s">
-        <v>3058</v>
+        <v>3059</v>
       </c>
       <c r="C1091" s="12" t="s">
-        <v>3059</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="1092" spans="1:3">
       <c r="A1092" s="10" t="s">
-        <v>3060</v>
+        <v>3061</v>
       </c>
       <c r="B1092" s="12" t="s">
-        <v>3061</v>
+        <v>3062</v>
       </c>
       <c r="C1092" s="12" t="s">
-        <v>3062</v>
+        <v>3063</v>
       </c>
     </row>
     <row r="1093" spans="1:3">
       <c r="A1093" s="10" t="s">
-        <v>3063</v>
+        <v>3064</v>
       </c>
       <c r="B1093" s="10" t="s">
         <v>266</v>
       </c>
       <c r="C1093" s="12" t="s">
-        <v>3064</v>
+        <v>3065</v>
       </c>
     </row>
     <row r="1094" spans="1:3">
       <c r="A1094" s="10" t="s">
-        <v>3065</v>
+        <v>3066</v>
       </c>
       <c r="B1094" s="12" t="s">
-        <v>3066</v>
+        <v>3067</v>
       </c>
       <c r="C1094" s="12" t="s">
-        <v>3067</v>
+        <v>3068</v>
       </c>
     </row>
     <row r="1095" spans="1:3">
       <c r="A1095" s="10" t="s">
-        <v>3068</v>
+        <v>3069</v>
       </c>
       <c r="B1095" s="10" t="s">
         <v>266</v>
       </c>
       <c r="C1095" s="12" t="s">
-        <v>3069</v>
+        <v>3070</v>
       </c>
     </row>
     <row r="1096" spans="1:3">
       <c r="A1096" s="10" t="s">
-        <v>3070</v>
+        <v>3071</v>
       </c>
       <c r="B1096" s="10" t="s">
         <v>266</v>
       </c>
       <c r="C1096" s="12" t="s">
-        <v>3071</v>
+        <v>3072</v>
       </c>
     </row>
     <row r="1097" spans="1:3">
       <c r="A1097" s="10" t="s">
-        <v>3072</v>
+        <v>3073</v>
       </c>
       <c r="B1097" s="10" t="s">
         <v>266</v>
       </c>
       <c r="C1097" s="12" t="s">
-        <v>3073</v>
+        <v>3074</v>
       </c>
     </row>
     <row r="1098" spans="1:3">
       <c r="A1098" s="10" t="s">
-        <v>3074</v>
+        <v>3075</v>
       </c>
       <c r="B1098" s="10" t="s">
         <v>266</v>
       </c>
       <c r="C1098" s="12" t="s">
-        <v>3075</v>
+        <v>3076</v>
       </c>
     </row>
     <row r="1099" spans="1:3">
       <c r="A1099" s="10" t="s">
-        <v>3076</v>
+        <v>3077</v>
       </c>
       <c r="B1099" s="12" t="s">
-        <v>3077</v>
+        <v>3078</v>
       </c>
       <c r="C1099" s="12" t="s">
-        <v>3078</v>
+        <v>3079</v>
       </c>
     </row>
     <row r="1100" spans="1:3">
       <c r="A1100" s="10" t="s">
-        <v>3079</v>
+        <v>3080</v>
       </c>
       <c r="B1100" s="12" t="s">
-        <v>3080</v>
+        <v>3081</v>
       </c>
       <c r="C1100" s="12" t="s">
-        <v>3081</v>
+        <v>3082</v>
       </c>
     </row>
     <row r="1101" spans="1:3">
       <c r="A1101" s="10" t="s">
-        <v>3082</v>
+        <v>3083</v>
       </c>
       <c r="B1101" s="12" t="s">
-        <v>3083</v>
+        <v>3084</v>
       </c>
       <c r="C1101" s="12" t="s">
-        <v>3084</v>
+        <v>3085</v>
       </c>
     </row>
     <row r="1102" spans="1:3">
       <c r="A1102" s="10" t="s">
-        <v>3085</v>
+        <v>3086</v>
       </c>
       <c r="B1102" s="10" t="s">
         <v>266</v>
       </c>
       <c r="C1102" s="12" t="s">
-        <v>3086</v>
+        <v>3087</v>
       </c>
     </row>
     <row r="1103" spans="1:3">
       <c r="A1103" s="10" t="s">
-        <v>3087</v>
+        <v>3088</v>
       </c>
       <c r="B1103" s="12" t="s">
-        <v>3088</v>
+        <v>3089</v>
       </c>
       <c r="C1103" s="12" t="s">
-        <v>3089</v>
+        <v>3090</v>
       </c>
     </row>
     <row r="1104" spans="1:3">
       <c r="A1104" s="10" t="s">
-        <v>3090</v>
+        <v>3091</v>
       </c>
       <c r="B1104" s="10" t="s">
         <v>266</v>
       </c>
       <c r="C1104" s="12" t="s">
-        <v>3091</v>
+        <v>3092</v>
       </c>
     </row>
     <row r="1105" spans="1:3">
       <c r="A1105" s="10" t="s">
-        <v>3092</v>
+        <v>3093</v>
       </c>
       <c r="B1105" s="12" t="s">
-        <v>3093</v>
+        <v>3094</v>
       </c>
       <c r="C1105" s="12" t="s">
-        <v>3094</v>
+        <v>3095</v>
       </c>
     </row>
     <row r="1106" spans="1:3">
       <c r="A1106" s="10" t="s">
-        <v>3095</v>
+        <v>3096</v>
       </c>
       <c r="B1106" s="12" t="s">
-        <v>3096</v>
+        <v>3097</v>
       </c>
       <c r="C1106" s="12" t="s">
-        <v>3097</v>
+        <v>3098</v>
       </c>
     </row>
     <row r="1107" spans="1:3">
       <c r="A1107" s="10" t="s">
-        <v>3098</v>
+        <v>3099</v>
       </c>
       <c r="B1107" s="12" t="s">
-        <v>3099</v>
+        <v>3100</v>
       </c>
       <c r="C1107" s="12" t="s">
-        <v>3100</v>
+        <v>3101</v>
       </c>
     </row>
     <row r="1108" spans="1:3">
       <c r="A1108" s="10" t="s">
-        <v>3101</v>
+        <v>3102</v>
       </c>
       <c r="B1108" s="12" t="s">
-        <v>3102</v>
+        <v>3103</v>
       </c>
       <c r="C1108" s="12" t="s">
-        <v>3103</v>
+        <v>3104</v>
       </c>
     </row>
     <row r="1109" spans="1:3">
       <c r="A1109" s="10" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="B1109" s="12" t="s">
-        <v>3105</v>
+        <v>3106</v>
       </c>
       <c r="C1109" s="12" t="s">
-        <v>3106</v>
+        <v>3107</v>
       </c>
     </row>
     <row r="1110" spans="1:3">
       <c r="A1110" s="10" t="s">
-        <v>3107</v>
+        <v>3108</v>
       </c>
       <c r="B1110" s="10" t="s">
         <v>266</v>
       </c>
       <c r="C1110" s="12" t="s">
-        <v>3108</v>
+        <v>3109</v>
       </c>
     </row>
     <row r="1111" spans="1:3">
       <c r="A1111" s="10" t="s">
-        <v>3109</v>
+        <v>3110</v>
       </c>
       <c r="B1111" s="12" t="s">
-        <v>3110</v>
+        <v>3111</v>
       </c>
       <c r="C1111" s="10" t="s">
         <v>266</v>
@@ -24573,175 +24888,175 @@
     </row>
     <row r="1112" spans="1:3">
       <c r="A1112" s="10" t="s">
-        <v>3111</v>
+        <v>3112</v>
       </c>
       <c r="B1112" s="12" t="s">
-        <v>3112</v>
+        <v>3113</v>
       </c>
       <c r="C1112" s="12" t="s">
-        <v>3113</v>
+        <v>3114</v>
       </c>
     </row>
     <row r="1113" spans="1:3">
       <c r="A1113" s="10" t="s">
-        <v>3114</v>
+        <v>3115</v>
       </c>
       <c r="B1113" s="12" t="s">
-        <v>3115</v>
+        <v>3116</v>
       </c>
       <c r="C1113" s="12" t="s">
-        <v>3116</v>
+        <v>3117</v>
       </c>
     </row>
     <row r="1114" spans="1:3">
       <c r="A1114" s="10" t="s">
-        <v>3117</v>
+        <v>3118</v>
       </c>
       <c r="B1114" s="12" t="s">
-        <v>3118</v>
+        <v>3119</v>
       </c>
       <c r="C1114" s="12" t="s">
-        <v>3119</v>
+        <v>3120</v>
       </c>
     </row>
     <row r="1115" spans="1:3">
       <c r="A1115" s="10" t="s">
-        <v>3120</v>
+        <v>3121</v>
       </c>
       <c r="B1115" s="12" t="s">
-        <v>3121</v>
+        <v>3122</v>
       </c>
       <c r="C1115" s="12" t="s">
-        <v>3122</v>
+        <v>3123</v>
       </c>
     </row>
     <row r="1116" spans="1:3">
       <c r="A1116" s="10" t="s">
-        <v>3123</v>
+        <v>3124</v>
       </c>
       <c r="B1116" s="12" t="s">
-        <v>3124</v>
+        <v>3125</v>
       </c>
       <c r="C1116" s="12" t="s">
-        <v>3125</v>
+        <v>3126</v>
       </c>
     </row>
     <row r="1117" spans="1:3">
       <c r="A1117" s="10" t="s">
-        <v>3126</v>
+        <v>3127</v>
       </c>
       <c r="B1117" s="12" t="s">
-        <v>3127</v>
+        <v>3128</v>
       </c>
       <c r="C1117" s="12" t="s">
-        <v>3128</v>
+        <v>3129</v>
       </c>
     </row>
     <row r="1118" spans="1:3">
       <c r="A1118" s="10" t="s">
-        <v>3129</v>
+        <v>3130</v>
       </c>
       <c r="B1118" s="12" t="s">
-        <v>3130</v>
+        <v>3131</v>
       </c>
       <c r="C1118" s="12" t="s">
-        <v>3131</v>
+        <v>3132</v>
       </c>
     </row>
     <row r="1119" spans="1:3">
       <c r="A1119" s="10" t="s">
-        <v>3132</v>
+        <v>3133</v>
       </c>
       <c r="B1119" s="12" t="s">
-        <v>3133</v>
+        <v>3134</v>
       </c>
       <c r="C1119" s="12" t="s">
-        <v>3134</v>
+        <v>3135</v>
       </c>
     </row>
     <row r="1120" spans="1:3">
       <c r="A1120" s="10" t="s">
-        <v>3135</v>
+        <v>3136</v>
       </c>
       <c r="B1120" s="12" t="s">
-        <v>3136</v>
+        <v>3137</v>
       </c>
       <c r="C1120" s="12" t="s">
-        <v>3137</v>
+        <v>3138</v>
       </c>
     </row>
     <row r="1121" spans="1:3">
       <c r="A1121" s="10" t="s">
-        <v>3138</v>
+        <v>3139</v>
       </c>
       <c r="B1121" s="12" t="s">
-        <v>3139</v>
+        <v>3140</v>
       </c>
       <c r="C1121" s="12" t="s">
-        <v>3140</v>
+        <v>3141</v>
       </c>
     </row>
     <row r="1122" spans="1:3">
       <c r="A1122" s="10" t="s">
-        <v>3141</v>
+        <v>3142</v>
       </c>
       <c r="B1122" s="12" t="s">
-        <v>3142</v>
+        <v>3143</v>
       </c>
       <c r="C1122" s="12" t="s">
-        <v>3143</v>
+        <v>3144</v>
       </c>
     </row>
     <row r="1123" spans="1:3">
       <c r="A1123" s="10" t="s">
-        <v>3144</v>
+        <v>3145</v>
       </c>
       <c r="B1123" s="12" t="s">
-        <v>3145</v>
+        <v>3146</v>
       </c>
       <c r="C1123" s="12" t="s">
-        <v>3146</v>
+        <v>3147</v>
       </c>
     </row>
     <row r="1124" spans="1:3">
       <c r="A1124" s="10" t="s">
-        <v>3147</v>
+        <v>3148</v>
       </c>
       <c r="B1124" s="12" t="s">
-        <v>3148</v>
+        <v>3149</v>
       </c>
       <c r="C1124" s="12" t="s">
-        <v>3149</v>
+        <v>3150</v>
       </c>
     </row>
     <row r="1125" spans="1:3">
       <c r="A1125" s="10" t="s">
-        <v>3150</v>
+        <v>3151</v>
       </c>
       <c r="B1125" s="12" t="s">
-        <v>3151</v>
+        <v>3152</v>
       </c>
       <c r="C1125" s="12" t="s">
-        <v>3152</v>
+        <v>3153</v>
       </c>
     </row>
     <row r="1126" spans="1:3">
       <c r="A1126" s="10" t="s">
-        <v>3153</v>
+        <v>3154</v>
       </c>
       <c r="B1126" s="10" t="s">
         <v>266</v>
       </c>
       <c r="C1126" s="12" t="s">
-        <v>3154</v>
+        <v>3155</v>
       </c>
     </row>
     <row r="1127" spans="1:3">
       <c r="A1127" s="10" t="s">
-        <v>3155</v>
+        <v>3156</v>
       </c>
       <c r="B1127" s="12" t="s">
-        <v>3156</v>
+        <v>3157</v>
       </c>
       <c r="C1127" s="10" t="s">
         <v>266</v>
@@ -24749,43 +25064,43 @@
     </row>
     <row r="1128" spans="1:3">
       <c r="A1128" s="10" t="s">
-        <v>3157</v>
+        <v>3158</v>
       </c>
       <c r="B1128" s="10" t="s">
         <v>266</v>
       </c>
       <c r="C1128" s="12" t="s">
-        <v>3158</v>
+        <v>3159</v>
       </c>
     </row>
     <row r="1129" spans="1:3">
       <c r="A1129" s="10" t="s">
-        <v>3159</v>
+        <v>3160</v>
       </c>
       <c r="B1129" s="12" t="s">
-        <v>3160</v>
+        <v>3161</v>
       </c>
       <c r="C1129" s="12" t="s">
-        <v>3161</v>
+        <v>3162</v>
       </c>
     </row>
     <row r="1130" spans="1:3">
       <c r="A1130" s="10" t="s">
-        <v>3162</v>
+        <v>3163</v>
       </c>
       <c r="B1130" s="12" t="s">
-        <v>3163</v>
+        <v>3164</v>
       </c>
       <c r="C1130" s="12" t="s">
-        <v>3164</v>
+        <v>3165</v>
       </c>
     </row>
     <row r="1131" spans="1:3">
       <c r="A1131" s="10" t="s">
-        <v>3165</v>
+        <v>3166</v>
       </c>
       <c r="B1131" s="12" t="s">
-        <v>3166</v>
+        <v>3167</v>
       </c>
       <c r="C1131" s="10" t="s">
         <v>266</v>
@@ -24793,417 +25108,417 @@
     </row>
     <row r="1132" spans="1:3">
       <c r="A1132" s="10" t="s">
-        <v>3167</v>
+        <v>3168</v>
       </c>
       <c r="B1132" s="10" t="s">
         <v>266</v>
       </c>
       <c r="C1132" s="12" t="s">
-        <v>3168</v>
+        <v>3169</v>
       </c>
     </row>
     <row r="1133" spans="1:3">
       <c r="A1133" s="10" t="s">
-        <v>3169</v>
+        <v>3170</v>
       </c>
       <c r="B1133" s="10" t="s">
         <v>266</v>
       </c>
       <c r="C1133" s="12" t="s">
-        <v>3170</v>
+        <v>3171</v>
       </c>
     </row>
     <row r="1134" spans="1:3">
       <c r="A1134" s="10" t="s">
-        <v>3171</v>
+        <v>3172</v>
       </c>
       <c r="B1134" s="12" t="s">
-        <v>3172</v>
+        <v>3173</v>
       </c>
       <c r="C1134" s="12" t="s">
-        <v>3173</v>
+        <v>3174</v>
       </c>
     </row>
     <row r="1135" spans="1:3">
       <c r="A1135" s="10" t="s">
-        <v>3174</v>
+        <v>3175</v>
       </c>
       <c r="B1135" s="12" t="s">
-        <v>3175</v>
+        <v>3176</v>
       </c>
       <c r="C1135" s="12" t="s">
-        <v>3176</v>
+        <v>3177</v>
       </c>
     </row>
     <row r="1136" spans="1:3">
       <c r="A1136" s="10" t="s">
-        <v>3177</v>
+        <v>3178</v>
       </c>
       <c r="B1136" s="12" t="s">
-        <v>3178</v>
+        <v>3179</v>
       </c>
       <c r="C1136" s="12" t="s">
-        <v>3179</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="1137" spans="1:3">
       <c r="A1137" s="10" t="s">
-        <v>3180</v>
+        <v>3181</v>
       </c>
       <c r="B1137" s="12" t="s">
-        <v>3181</v>
+        <v>3182</v>
       </c>
       <c r="C1137" s="12" t="s">
-        <v>3182</v>
+        <v>3183</v>
       </c>
     </row>
     <row r="1138" spans="1:3">
       <c r="A1138" s="10" t="s">
-        <v>3183</v>
+        <v>3184</v>
       </c>
       <c r="B1138" s="12" t="s">
-        <v>3184</v>
+        <v>3185</v>
       </c>
       <c r="C1138" s="12" t="s">
-        <v>3185</v>
+        <v>3186</v>
       </c>
     </row>
     <row r="1139" spans="1:3">
       <c r="A1139" s="10" t="s">
-        <v>3186</v>
+        <v>3187</v>
       </c>
       <c r="B1139" s="12" t="s">
-        <v>3187</v>
+        <v>3188</v>
       </c>
       <c r="C1139" s="12" t="s">
-        <v>3188</v>
+        <v>3189</v>
       </c>
     </row>
     <row r="1140" spans="1:3">
       <c r="A1140" s="10" t="s">
-        <v>3189</v>
+        <v>3190</v>
       </c>
       <c r="B1140" s="12" t="s">
-        <v>3190</v>
+        <v>3191</v>
       </c>
       <c r="C1140" s="12" t="s">
-        <v>3191</v>
+        <v>3192</v>
       </c>
     </row>
     <row r="1141" spans="1:3">
       <c r="A1141" s="10" t="s">
-        <v>3192</v>
+        <v>3193</v>
       </c>
       <c r="B1141" s="12" t="s">
-        <v>3193</v>
+        <v>3194</v>
       </c>
       <c r="C1141" s="12" t="s">
-        <v>3194</v>
+        <v>3195</v>
       </c>
     </row>
     <row r="1142" spans="1:3">
       <c r="A1142" s="10" t="s">
-        <v>3195</v>
+        <v>3196</v>
       </c>
       <c r="B1142" s="12" t="s">
-        <v>3196</v>
+        <v>3197</v>
       </c>
       <c r="C1142" s="12" t="s">
-        <v>3197</v>
+        <v>3198</v>
       </c>
     </row>
     <row r="1143" spans="1:3">
       <c r="A1143" s="10" t="s">
-        <v>3198</v>
+        <v>3199</v>
       </c>
       <c r="B1143" s="12" t="s">
-        <v>3199</v>
+        <v>3200</v>
       </c>
       <c r="C1143" s="12" t="s">
-        <v>3200</v>
+        <v>3201</v>
       </c>
     </row>
     <row r="1144" spans="1:3">
       <c r="A1144" s="10" t="s">
-        <v>3201</v>
+        <v>3202</v>
       </c>
       <c r="B1144" s="12" t="s">
-        <v>3202</v>
+        <v>3203</v>
       </c>
       <c r="C1144" s="12" t="s">
-        <v>3203</v>
+        <v>3204</v>
       </c>
     </row>
     <row r="1145" spans="1:3">
       <c r="A1145" s="10" t="s">
-        <v>3204</v>
+        <v>3205</v>
       </c>
       <c r="B1145" s="12" t="s">
-        <v>3205</v>
+        <v>3206</v>
       </c>
       <c r="C1145" s="12" t="s">
-        <v>3206</v>
+        <v>3207</v>
       </c>
     </row>
     <row r="1146" spans="1:3">
       <c r="A1146" s="10" t="s">
-        <v>3207</v>
+        <v>3208</v>
       </c>
       <c r="B1146" s="12" t="s">
-        <v>3208</v>
+        <v>3209</v>
       </c>
       <c r="C1146" s="12" t="s">
-        <v>3209</v>
+        <v>3210</v>
       </c>
     </row>
     <row r="1147" spans="1:3">
       <c r="A1147" s="10" t="s">
-        <v>3210</v>
+        <v>3211</v>
       </c>
       <c r="B1147" s="10" t="s">
         <v>266</v>
       </c>
       <c r="C1147" s="12" t="s">
-        <v>3211</v>
+        <v>3212</v>
       </c>
     </row>
     <row r="1148" spans="1:3">
       <c r="A1148" s="10" t="s">
-        <v>3212</v>
+        <v>3213</v>
       </c>
       <c r="B1148" s="12" t="s">
-        <v>3213</v>
+        <v>3214</v>
       </c>
       <c r="C1148" s="12" t="s">
-        <v>3214</v>
+        <v>3215</v>
       </c>
     </row>
     <row r="1149" spans="1:3">
       <c r="A1149" s="10" t="s">
-        <v>3215</v>
+        <v>3216</v>
       </c>
       <c r="B1149" s="12" t="s">
-        <v>3216</v>
+        <v>3217</v>
       </c>
       <c r="C1149" s="12" t="s">
-        <v>3217</v>
+        <v>3218</v>
       </c>
     </row>
     <row r="1150" spans="1:3">
       <c r="A1150" s="10" t="s">
-        <v>3218</v>
+        <v>3219</v>
       </c>
       <c r="B1150" s="12" t="s">
-        <v>3219</v>
+        <v>3220</v>
       </c>
       <c r="C1150" s="12" t="s">
-        <v>3220</v>
+        <v>3221</v>
       </c>
     </row>
     <row r="1151" spans="1:3">
       <c r="A1151" s="10" t="s">
-        <v>3221</v>
+        <v>3222</v>
       </c>
       <c r="B1151" s="12" t="s">
-        <v>3222</v>
+        <v>3223</v>
       </c>
       <c r="C1151" s="12" t="s">
-        <v>3223</v>
+        <v>3224</v>
       </c>
     </row>
     <row r="1152" spans="1:3">
       <c r="A1152" s="10" t="s">
-        <v>3224</v>
+        <v>3225</v>
       </c>
       <c r="B1152" s="12" t="s">
-        <v>3225</v>
+        <v>3226</v>
       </c>
       <c r="C1152" s="12" t="s">
-        <v>3226</v>
+        <v>3227</v>
       </c>
     </row>
     <row r="1153" spans="1:3">
       <c r="A1153" s="10" t="s">
-        <v>3227</v>
+        <v>3228</v>
       </c>
       <c r="B1153" s="12" t="s">
-        <v>3228</v>
+        <v>3229</v>
       </c>
       <c r="C1153" s="12" t="s">
-        <v>3229</v>
+        <v>3230</v>
       </c>
     </row>
     <row r="1154" spans="1:3">
       <c r="A1154" s="10" t="s">
-        <v>3230</v>
+        <v>3231</v>
       </c>
       <c r="B1154" s="12" t="s">
-        <v>3231</v>
+        <v>3232</v>
       </c>
       <c r="C1154" s="12" t="s">
-        <v>3232</v>
+        <v>3233</v>
       </c>
     </row>
     <row r="1155" spans="1:3">
       <c r="A1155" s="10" t="s">
-        <v>3233</v>
+        <v>3234</v>
       </c>
       <c r="B1155" s="12" t="s">
-        <v>3234</v>
+        <v>3235</v>
       </c>
       <c r="C1155" s="12" t="s">
-        <v>3235</v>
+        <v>3236</v>
       </c>
     </row>
     <row r="1156" spans="1:3">
       <c r="A1156" s="10" t="s">
-        <v>3236</v>
+        <v>3237</v>
       </c>
       <c r="B1156" s="12" t="s">
-        <v>3237</v>
+        <v>3238</v>
       </c>
       <c r="C1156" s="12" t="s">
-        <v>3238</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="1157" spans="1:3">
       <c r="A1157" s="10" t="s">
-        <v>3239</v>
+        <v>3240</v>
       </c>
       <c r="B1157" s="12" t="s">
-        <v>3240</v>
+        <v>3241</v>
       </c>
       <c r="C1157" s="12" t="s">
-        <v>3241</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="1158" spans="1:3">
       <c r="A1158" s="10" t="s">
-        <v>3242</v>
+        <v>3243</v>
       </c>
       <c r="B1158" s="12" t="s">
-        <v>3243</v>
+        <v>3244</v>
       </c>
       <c r="C1158" s="12" t="s">
-        <v>3244</v>
+        <v>3245</v>
       </c>
     </row>
     <row r="1159" spans="1:3">
       <c r="A1159" s="10" t="s">
-        <v>3245</v>
+        <v>3246</v>
       </c>
       <c r="B1159" s="12" t="s">
-        <v>3246</v>
+        <v>3247</v>
       </c>
       <c r="C1159" s="12" t="s">
-        <v>3247</v>
+        <v>3248</v>
       </c>
     </row>
     <row r="1160" spans="1:3">
       <c r="A1160" s="10" t="s">
-        <v>3248</v>
+        <v>3249</v>
       </c>
       <c r="B1160" s="12" t="s">
-        <v>3249</v>
+        <v>3250</v>
       </c>
       <c r="C1160" s="12" t="s">
-        <v>3250</v>
+        <v>3251</v>
       </c>
     </row>
     <row r="1161" spans="1:3">
       <c r="A1161" s="10" t="s">
-        <v>3251</v>
+        <v>3252</v>
       </c>
       <c r="B1161" s="12" t="s">
-        <v>3252</v>
+        <v>3253</v>
       </c>
       <c r="C1161" s="12" t="s">
-        <v>3253</v>
+        <v>3254</v>
       </c>
     </row>
     <row r="1162" spans="1:3">
       <c r="A1162" s="10" t="s">
-        <v>3254</v>
+        <v>3255</v>
       </c>
       <c r="B1162" s="12" t="s">
-        <v>3255</v>
+        <v>3256</v>
       </c>
       <c r="C1162" s="12" t="s">
-        <v>3256</v>
+        <v>3257</v>
       </c>
     </row>
     <row r="1163" spans="1:3">
       <c r="A1163" s="10" t="s">
-        <v>3257</v>
+        <v>3258</v>
       </c>
       <c r="B1163" s="12" t="s">
-        <v>3258</v>
+        <v>3259</v>
       </c>
       <c r="C1163" s="12" t="s">
-        <v>3259</v>
+        <v>3260</v>
       </c>
     </row>
     <row r="1164" spans="1:3">
       <c r="A1164" s="10" t="s">
-        <v>3260</v>
+        <v>3261</v>
       </c>
       <c r="B1164" s="12" t="s">
-        <v>3261</v>
+        <v>3262</v>
       </c>
       <c r="C1164" s="12" t="s">
-        <v>3262</v>
+        <v>3263</v>
       </c>
     </row>
     <row r="1165" spans="1:3">
       <c r="A1165" s="10" t="s">
-        <v>3263</v>
+        <v>3264</v>
       </c>
       <c r="B1165" s="12" t="s">
-        <v>3264</v>
+        <v>3265</v>
       </c>
       <c r="C1165" s="12" t="s">
-        <v>3265</v>
+        <v>3266</v>
       </c>
     </row>
     <row r="1166" spans="1:3">
       <c r="A1166" s="10" t="s">
-        <v>3266</v>
+        <v>3267</v>
       </c>
       <c r="B1166" s="12" t="s">
-        <v>3267</v>
+        <v>3268</v>
       </c>
       <c r="C1166" s="12" t="s">
-        <v>3268</v>
+        <v>3269</v>
       </c>
     </row>
     <row r="1167" spans="1:3">
       <c r="A1167" s="10" t="s">
-        <v>3269</v>
+        <v>3270</v>
       </c>
       <c r="B1167" s="12" t="s">
-        <v>3270</v>
+        <v>3271</v>
       </c>
       <c r="C1167" s="12" t="s">
-        <v>3271</v>
+        <v>3272</v>
       </c>
     </row>
     <row r="1168" spans="1:3">
       <c r="A1168" s="10" t="s">
-        <v>3272</v>
+        <v>3273</v>
       </c>
       <c r="B1168" s="12" t="s">
-        <v>3273</v>
+        <v>3274</v>
       </c>
       <c r="C1168" s="12" t="s">
-        <v>3274</v>
+        <v>3275</v>
       </c>
     </row>
     <row r="1169" spans="1:3">
       <c r="A1169" s="10" t="s">
-        <v>3275</v>
+        <v>3276</v>
       </c>
       <c r="B1169" s="12" t="s">
-        <v>3276</v>
+        <v>3277</v>
       </c>
       <c r="C1169" s="10" t="s">
         <v>266</v>
@@ -25211,109 +25526,109 @@
     </row>
     <row r="1170" spans="1:3">
       <c r="A1170" s="10" t="s">
-        <v>3277</v>
+        <v>3278</v>
       </c>
       <c r="B1170" s="10" t="s">
         <v>266</v>
       </c>
       <c r="C1170" s="12" t="s">
-        <v>3278</v>
+        <v>3279</v>
       </c>
     </row>
     <row r="1171" spans="1:3">
       <c r="A1171" s="10" t="s">
-        <v>3279</v>
+        <v>3280</v>
       </c>
       <c r="B1171" s="12" t="s">
-        <v>3280</v>
+        <v>3281</v>
       </c>
       <c r="C1171" s="12" t="s">
-        <v>3281</v>
+        <v>3282</v>
       </c>
     </row>
     <row r="1172" spans="1:3">
       <c r="A1172" s="10" t="s">
-        <v>3282</v>
+        <v>3283</v>
       </c>
       <c r="B1172" s="10" t="s">
         <v>266</v>
       </c>
       <c r="C1172" s="12" t="s">
-        <v>3283</v>
+        <v>3284</v>
       </c>
     </row>
     <row r="1173" spans="1:3">
       <c r="A1173" s="10" t="s">
-        <v>3284</v>
+        <v>3285</v>
       </c>
       <c r="B1173" s="12" t="s">
-        <v>3285</v>
+        <v>3286</v>
       </c>
       <c r="C1173" s="12" t="s">
-        <v>3286</v>
+        <v>3287</v>
       </c>
     </row>
     <row r="1174" spans="1:3">
       <c r="A1174" s="10" t="s">
-        <v>3287</v>
+        <v>3288</v>
       </c>
       <c r="B1174" s="12" t="s">
-        <v>3288</v>
+        <v>3289</v>
       </c>
       <c r="C1174" s="12" t="s">
-        <v>3289</v>
+        <v>3290</v>
       </c>
     </row>
     <row r="1175" spans="1:3">
       <c r="A1175" s="10" t="s">
-        <v>3290</v>
+        <v>3291</v>
       </c>
       <c r="B1175" s="12" t="s">
-        <v>3291</v>
+        <v>3292</v>
       </c>
       <c r="C1175" s="12" t="s">
-        <v>3292</v>
+        <v>3293</v>
       </c>
     </row>
     <row r="1176" spans="1:3">
       <c r="A1176" s="10" t="s">
-        <v>3293</v>
+        <v>3294</v>
       </c>
       <c r="B1176" s="12" t="s">
-        <v>3294</v>
+        <v>3295</v>
       </c>
       <c r="C1176" s="12" t="s">
-        <v>3295</v>
+        <v>3296</v>
       </c>
     </row>
     <row r="1177" spans="1:3">
       <c r="A1177" s="10" t="s">
-        <v>3296</v>
+        <v>3297</v>
       </c>
       <c r="B1177" s="12" t="s">
-        <v>3297</v>
+        <v>3298</v>
       </c>
       <c r="C1177" s="12" t="s">
-        <v>3298</v>
+        <v>3299</v>
       </c>
     </row>
     <row r="1178" spans="1:3">
       <c r="A1178" s="10" t="s">
-        <v>3299</v>
+        <v>3300</v>
       </c>
       <c r="B1178" s="10" t="s">
         <v>266</v>
       </c>
       <c r="C1178" s="12" t="s">
-        <v>3300</v>
+        <v>3301</v>
       </c>
     </row>
     <row r="1179" spans="1:3">
       <c r="A1179" s="10" t="s">
-        <v>3301</v>
+        <v>3302</v>
       </c>
       <c r="B1179" s="12" t="s">
-        <v>3302</v>
+        <v>3303</v>
       </c>
       <c r="C1179" s="10" t="s">
         <v>266</v>
@@ -25321,142 +25636,142 @@
     </row>
     <row r="1180" spans="1:3">
       <c r="A1180" s="10" t="s">
-        <v>3303</v>
+        <v>3304</v>
       </c>
       <c r="B1180" s="12" t="s">
-        <v>3304</v>
+        <v>3305</v>
       </c>
       <c r="C1180" s="12" t="s">
-        <v>3305</v>
+        <v>3306</v>
       </c>
     </row>
     <row r="1181" spans="1:3">
       <c r="A1181" s="10" t="s">
-        <v>3306</v>
+        <v>3307</v>
       </c>
       <c r="B1181" s="12" t="s">
-        <v>3307</v>
+        <v>3308</v>
       </c>
       <c r="C1181" s="12" t="s">
-        <v>3308</v>
+        <v>3309</v>
       </c>
     </row>
     <row r="1182" spans="1:3">
       <c r="A1182" s="10" t="s">
-        <v>3309</v>
+        <v>3310</v>
       </c>
       <c r="B1182" s="12" t="s">
-        <v>3310</v>
+        <v>3311</v>
       </c>
       <c r="C1182" s="12" t="s">
-        <v>3311</v>
+        <v>3312</v>
       </c>
     </row>
     <row r="1183" spans="1:3">
       <c r="A1183" s="10" t="s">
-        <v>3312</v>
+        <v>3313</v>
       </c>
       <c r="B1183" s="12" t="s">
-        <v>3313</v>
+        <v>3314</v>
       </c>
       <c r="C1183" s="12" t="s">
-        <v>3314</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="1184" spans="1:3">
       <c r="A1184" s="10" t="s">
-        <v>3315</v>
+        <v>3316</v>
       </c>
       <c r="B1184" s="12" t="s">
-        <v>3316</v>
+        <v>3317</v>
       </c>
       <c r="C1184" s="12" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1185" spans="1:3">
       <c r="A1185" s="10" t="s">
-        <v>3318</v>
+        <v>3319</v>
       </c>
       <c r="B1185" s="12" t="s">
-        <v>3319</v>
+        <v>3320</v>
       </c>
       <c r="C1185" s="12" t="s">
-        <v>3320</v>
+        <v>3321</v>
       </c>
     </row>
     <row r="1186" spans="1:3">
       <c r="A1186" s="10" t="s">
-        <v>3321</v>
+        <v>3322</v>
       </c>
       <c r="B1186" s="12" t="s">
-        <v>3322</v>
+        <v>3323</v>
       </c>
       <c r="C1186" s="12" t="s">
-        <v>3323</v>
+        <v>3324</v>
       </c>
     </row>
     <row r="1187" spans="1:3">
       <c r="A1187" s="10" t="s">
-        <v>3324</v>
+        <v>3325</v>
       </c>
       <c r="B1187" s="12" t="s">
-        <v>3325</v>
+        <v>3326</v>
       </c>
       <c r="C1187" s="12" t="s">
-        <v>3326</v>
+        <v>3327</v>
       </c>
     </row>
     <row r="1188" spans="1:3">
       <c r="A1188" s="10" t="s">
-        <v>3327</v>
+        <v>3328</v>
       </c>
       <c r="B1188" s="12" t="s">
-        <v>3328</v>
+        <v>3329</v>
       </c>
       <c r="C1188" s="12" t="s">
-        <v>3329</v>
+        <v>3330</v>
       </c>
     </row>
     <row r="1189" spans="1:3">
       <c r="A1189" s="10" t="s">
-        <v>3330</v>
+        <v>3331</v>
       </c>
       <c r="B1189" s="12" t="s">
-        <v>3331</v>
+        <v>3332</v>
       </c>
       <c r="C1189" s="12" t="s">
-        <v>3332</v>
+        <v>3333</v>
       </c>
     </row>
     <row r="1190" spans="1:3">
       <c r="A1190" s="10" t="s">
-        <v>3333</v>
+        <v>3334</v>
       </c>
       <c r="B1190" s="12" t="s">
-        <v>3334</v>
+        <v>3335</v>
       </c>
       <c r="C1190" s="12" t="s">
-        <v>3335</v>
+        <v>3336</v>
       </c>
     </row>
     <row r="1191" spans="1:3">
       <c r="A1191" s="10" t="s">
-        <v>3336</v>
+        <v>3337</v>
       </c>
       <c r="B1191" s="12" t="s">
-        <v>3337</v>
+        <v>3338</v>
       </c>
       <c r="C1191" s="12" t="s">
-        <v>3338</v>
+        <v>3339</v>
       </c>
     </row>
     <row r="1192" spans="1:3">
       <c r="A1192" s="10" t="s">
-        <v>3339</v>
+        <v>3340</v>
       </c>
       <c r="B1192" s="12" t="s">
-        <v>3340</v>
+        <v>3341</v>
       </c>
       <c r="C1192" s="10" t="s">
         <v>266</v>
@@ -25464,307 +25779,307 @@
     </row>
     <row r="1193" spans="1:3">
       <c r="A1193" s="10" t="s">
-        <v>3341</v>
+        <v>3342</v>
       </c>
       <c r="B1193" s="12" t="s">
-        <v>3342</v>
+        <v>3343</v>
       </c>
       <c r="C1193" s="12" t="s">
-        <v>3343</v>
+        <v>3344</v>
       </c>
     </row>
     <row r="1194" spans="1:3">
       <c r="A1194" s="10" t="s">
-        <v>3344</v>
+        <v>3345</v>
       </c>
       <c r="B1194" s="12" t="s">
-        <v>3345</v>
+        <v>3346</v>
       </c>
       <c r="C1194" s="12" t="s">
-        <v>3346</v>
+        <v>3347</v>
       </c>
     </row>
     <row r="1195" spans="1:3">
       <c r="A1195" s="10" t="s">
-        <v>3347</v>
+        <v>3348</v>
       </c>
       <c r="B1195" s="12" t="s">
-        <v>3348</v>
+        <v>3349</v>
       </c>
       <c r="C1195" s="12" t="s">
-        <v>3349</v>
+        <v>3350</v>
       </c>
     </row>
     <row r="1196" spans="1:3">
       <c r="A1196" s="10" t="s">
-        <v>3350</v>
+        <v>3351</v>
       </c>
       <c r="B1196" s="12" t="s">
-        <v>3351</v>
+        <v>3352</v>
       </c>
       <c r="C1196" s="12" t="s">
-        <v>3352</v>
+        <v>3353</v>
       </c>
     </row>
     <row r="1197" spans="1:3">
       <c r="A1197" s="10" t="s">
-        <v>3353</v>
+        <v>3354</v>
       </c>
       <c r="B1197" s="12" t="s">
-        <v>3354</v>
+        <v>3355</v>
       </c>
       <c r="C1197" s="12" t="s">
-        <v>3355</v>
+        <v>3356</v>
       </c>
     </row>
     <row r="1198" spans="1:3">
       <c r="A1198" s="10" t="s">
-        <v>3356</v>
+        <v>3357</v>
       </c>
       <c r="B1198" s="12" t="s">
-        <v>3357</v>
+        <v>3358</v>
       </c>
       <c r="C1198" s="12" t="s">
-        <v>3358</v>
+        <v>3359</v>
       </c>
     </row>
     <row r="1199" spans="1:3">
       <c r="A1199" s="10" t="s">
-        <v>3359</v>
+        <v>3360</v>
       </c>
       <c r="B1199" s="12" t="s">
-        <v>3360</v>
+        <v>3361</v>
       </c>
       <c r="C1199" s="12" t="s">
-        <v>3361</v>
+        <v>3362</v>
       </c>
     </row>
     <row r="1200" spans="1:3">
       <c r="A1200" s="10" t="s">
-        <v>3362</v>
+        <v>3363</v>
       </c>
       <c r="B1200" s="12" t="s">
-        <v>3363</v>
+        <v>3364</v>
       </c>
       <c r="C1200" s="12" t="s">
-        <v>3364</v>
+        <v>3365</v>
       </c>
     </row>
     <row r="1201" spans="1:3">
       <c r="A1201" s="10" t="s">
-        <v>3365</v>
+        <v>3366</v>
       </c>
       <c r="B1201" s="12" t="s">
-        <v>3366</v>
+        <v>3367</v>
       </c>
       <c r="C1201" s="12" t="s">
-        <v>3367</v>
+        <v>3368</v>
       </c>
     </row>
     <row r="1202" spans="1:3">
       <c r="A1202" s="10" t="s">
-        <v>3368</v>
+        <v>3369</v>
       </c>
       <c r="B1202" s="12" t="s">
-        <v>3369</v>
+        <v>3370</v>
       </c>
       <c r="C1202" s="12" t="s">
-        <v>3370</v>
+        <v>3371</v>
       </c>
     </row>
     <row r="1203" spans="1:3">
       <c r="A1203" s="10" t="s">
-        <v>3371</v>
+        <v>3372</v>
       </c>
       <c r="B1203" s="12" t="s">
-        <v>3372</v>
+        <v>3373</v>
       </c>
       <c r="C1203" s="12" t="s">
-        <v>3373</v>
+        <v>3374</v>
       </c>
     </row>
     <row r="1204" spans="1:3">
       <c r="A1204" s="10" t="s">
-        <v>3374</v>
+        <v>3375</v>
       </c>
       <c r="B1204" s="12" t="s">
-        <v>3375</v>
+        <v>3376</v>
       </c>
       <c r="C1204" s="12" t="s">
-        <v>3376</v>
+        <v>3377</v>
       </c>
     </row>
     <row r="1205" spans="1:3">
       <c r="A1205" s="10" t="s">
-        <v>3377</v>
+        <v>3378</v>
       </c>
       <c r="B1205" s="12" t="s">
-        <v>3378</v>
+        <v>3379</v>
       </c>
       <c r="C1205" s="12" t="s">
-        <v>3379</v>
+        <v>3380</v>
       </c>
     </row>
     <row r="1206" spans="1:3">
       <c r="A1206" s="10" t="s">
-        <v>3380</v>
+        <v>3381</v>
       </c>
       <c r="B1206" s="12" t="s">
-        <v>3381</v>
+        <v>3382</v>
       </c>
       <c r="C1206" s="12" t="s">
-        <v>3382</v>
+        <v>3383</v>
       </c>
     </row>
     <row r="1207" spans="1:3">
       <c r="A1207" s="10" t="s">
-        <v>3383</v>
+        <v>3384</v>
       </c>
       <c r="B1207" s="12" t="s">
-        <v>3384</v>
+        <v>3385</v>
       </c>
       <c r="C1207" s="12" t="s">
-        <v>3385</v>
+        <v>3386</v>
       </c>
     </row>
     <row r="1208" spans="1:3">
       <c r="A1208" s="10" t="s">
-        <v>3386</v>
+        <v>3387</v>
       </c>
       <c r="B1208" s="12" t="s">
-        <v>3387</v>
+        <v>3388</v>
       </c>
       <c r="C1208" s="12" t="s">
-        <v>3388</v>
+        <v>3389</v>
       </c>
     </row>
     <row r="1209" spans="1:3">
       <c r="A1209" s="10" t="s">
-        <v>3389</v>
+        <v>3390</v>
       </c>
       <c r="B1209" s="12" t="s">
-        <v>3390</v>
+        <v>3391</v>
       </c>
       <c r="C1209" s="12" t="s">
-        <v>3391</v>
+        <v>3392</v>
       </c>
     </row>
     <row r="1210" spans="1:3">
       <c r="A1210" s="10" t="s">
-        <v>3392</v>
+        <v>3393</v>
       </c>
       <c r="B1210" s="12" t="s">
-        <v>3393</v>
+        <v>3394</v>
       </c>
       <c r="C1210" s="12" t="s">
-        <v>3394</v>
+        <v>3395</v>
       </c>
     </row>
     <row r="1211" spans="1:3">
       <c r="A1211" s="10" t="s">
-        <v>3395</v>
+        <v>3396</v>
       </c>
       <c r="B1211" s="12" t="s">
-        <v>3396</v>
+        <v>3397</v>
       </c>
       <c r="C1211" s="12" t="s">
-        <v>3397</v>
+        <v>3398</v>
       </c>
     </row>
     <row r="1212" spans="1:3">
       <c r="A1212" s="10" t="s">
-        <v>3398</v>
+        <v>3399</v>
       </c>
       <c r="B1212" s="12" t="s">
-        <v>3399</v>
+        <v>3400</v>
       </c>
       <c r="C1212" s="12" t="s">
-        <v>3400</v>
+        <v>3401</v>
       </c>
     </row>
     <row r="1213" spans="1:3">
       <c r="A1213" s="10" t="s">
-        <v>3401</v>
+        <v>3402</v>
       </c>
       <c r="B1213" s="12" t="s">
-        <v>3402</v>
+        <v>3403</v>
       </c>
       <c r="C1213" s="12" t="s">
-        <v>3403</v>
+        <v>3404</v>
       </c>
     </row>
     <row r="1214" spans="1:3">
       <c r="A1214" s="10" t="s">
-        <v>3404</v>
+        <v>3405</v>
       </c>
       <c r="B1214" s="12" t="s">
-        <v>3405</v>
+        <v>3406</v>
       </c>
       <c r="C1214" s="12" t="s">
-        <v>3406</v>
+        <v>3407</v>
       </c>
     </row>
     <row r="1215" spans="1:3">
       <c r="A1215" s="10" t="s">
-        <v>3407</v>
+        <v>3408</v>
       </c>
       <c r="B1215" s="12" t="s">
-        <v>3408</v>
+        <v>3409</v>
       </c>
       <c r="C1215" s="12" t="s">
-        <v>3409</v>
+        <v>3410</v>
       </c>
     </row>
     <row r="1216" spans="1:3">
       <c r="A1216" s="10" t="s">
-        <v>3410</v>
+        <v>3411</v>
       </c>
       <c r="B1216" s="12" t="s">
-        <v>3411</v>
+        <v>3412</v>
       </c>
       <c r="C1216" s="12" t="s">
-        <v>3412</v>
+        <v>3413</v>
       </c>
     </row>
     <row r="1217" spans="1:3">
       <c r="A1217" s="10" t="s">
-        <v>3413</v>
+        <v>3414</v>
       </c>
       <c r="B1217" s="12" t="s">
-        <v>3414</v>
+        <v>3415</v>
       </c>
       <c r="C1217" s="12" t="s">
-        <v>3415</v>
+        <v>3416</v>
       </c>
     </row>
     <row r="1218" spans="1:3">
       <c r="A1218" s="10" t="s">
-        <v>3416</v>
+        <v>3417</v>
       </c>
       <c r="B1218" s="12" t="s">
-        <v>3417</v>
+        <v>3418</v>
       </c>
       <c r="C1218" s="12" t="s">
-        <v>3418</v>
+        <v>3419</v>
       </c>
     </row>
     <row r="1219" spans="1:3">
       <c r="A1219" s="10" t="s">
-        <v>3419</v>
+        <v>3420</v>
       </c>
       <c r="B1219" s="12" t="s">
-        <v>3420</v>
+        <v>3421</v>
       </c>
       <c r="C1219" s="12" t="s">
-        <v>3421</v>
+        <v>3422</v>
       </c>
     </row>
     <row r="1220" spans="1:3">
       <c r="A1220" s="10" t="s">
-        <v>3422</v>
+        <v>3423</v>
       </c>
       <c r="B1220" s="12" t="s">
-        <v>3423</v>
+        <v>3424</v>
       </c>
       <c r="C1220" s="10" t="s">
         <v>266</v>
@@ -25772,142 +26087,142 @@
     </row>
     <row r="1221" spans="1:3">
       <c r="A1221" s="10" t="s">
-        <v>3424</v>
+        <v>3425</v>
       </c>
       <c r="B1221" s="12" t="s">
-        <v>3425</v>
+        <v>3426</v>
       </c>
       <c r="C1221" s="12" t="s">
-        <v>3426</v>
+        <v>3427</v>
       </c>
     </row>
     <row r="1222" spans="1:3">
       <c r="A1222" s="10" t="s">
-        <v>3427</v>
+        <v>3428</v>
       </c>
       <c r="B1222" s="12" t="s">
-        <v>3428</v>
+        <v>3429</v>
       </c>
       <c r="C1222" s="12" t="s">
-        <v>3429</v>
+        <v>3430</v>
       </c>
     </row>
     <row r="1223" spans="1:3">
       <c r="A1223" s="10" t="s">
-        <v>3430</v>
+        <v>3431</v>
       </c>
       <c r="B1223" s="12" t="s">
-        <v>3431</v>
+        <v>3432</v>
       </c>
       <c r="C1223" s="12" t="s">
-        <v>3432</v>
+        <v>3433</v>
       </c>
     </row>
     <row r="1224" spans="1:3">
       <c r="A1224" s="10" t="s">
-        <v>3433</v>
+        <v>3434</v>
       </c>
       <c r="B1224" s="12" t="s">
-        <v>3434</v>
+        <v>3435</v>
       </c>
       <c r="C1224" s="12" t="s">
-        <v>3435</v>
+        <v>3436</v>
       </c>
     </row>
     <row r="1225" spans="1:3">
       <c r="A1225" s="10" t="s">
-        <v>3436</v>
+        <v>3437</v>
       </c>
       <c r="B1225" s="12" t="s">
-        <v>3437</v>
+        <v>3438</v>
       </c>
       <c r="C1225" s="12" t="s">
-        <v>3438</v>
+        <v>3439</v>
       </c>
     </row>
     <row r="1226" spans="1:3">
       <c r="A1226" s="10" t="s">
-        <v>3439</v>
+        <v>3440</v>
       </c>
       <c r="B1226" s="12" t="s">
-        <v>3440</v>
+        <v>3441</v>
       </c>
       <c r="C1226" s="12" t="s">
-        <v>3441</v>
+        <v>3442</v>
       </c>
     </row>
     <row r="1227" spans="1:3">
       <c r="A1227" s="10" t="s">
-        <v>3442</v>
+        <v>3443</v>
       </c>
       <c r="B1227" s="12" t="s">
-        <v>3443</v>
+        <v>3444</v>
       </c>
       <c r="C1227" s="12" t="s">
-        <v>3444</v>
+        <v>3445</v>
       </c>
     </row>
     <row r="1228" spans="1:3">
       <c r="A1228" s="10" t="s">
-        <v>3445</v>
+        <v>3446</v>
       </c>
       <c r="B1228" s="12" t="s">
-        <v>3446</v>
+        <v>3447</v>
       </c>
       <c r="C1228" s="12" t="s">
-        <v>3447</v>
+        <v>3448</v>
       </c>
     </row>
     <row r="1229" spans="1:3">
       <c r="A1229" s="10" t="s">
-        <v>3448</v>
+        <v>3449</v>
       </c>
       <c r="B1229" s="12" t="s">
-        <v>3449</v>
+        <v>3450</v>
       </c>
       <c r="C1229" s="12" t="s">
-        <v>3450</v>
+        <v>3451</v>
       </c>
     </row>
     <row r="1230" spans="1:3">
       <c r="A1230" s="10" t="s">
-        <v>3451</v>
+        <v>3452</v>
       </c>
       <c r="B1230" s="12" t="s">
-        <v>3452</v>
+        <v>3453</v>
       </c>
       <c r="C1230" s="12" t="s">
-        <v>3453</v>
+        <v>3454</v>
       </c>
     </row>
     <row r="1231" spans="1:3">
       <c r="A1231" s="10" t="s">
-        <v>3454</v>
+        <v>3455</v>
       </c>
       <c r="B1231" s="12" t="s">
-        <v>3455</v>
+        <v>3456</v>
       </c>
       <c r="C1231" s="12" t="s">
-        <v>3456</v>
+        <v>3457</v>
       </c>
     </row>
     <row r="1232" spans="1:3">
       <c r="A1232" s="10" t="s">
-        <v>3457</v>
+        <v>3458</v>
       </c>
       <c r="B1232" s="10" t="s">
         <v>266</v>
       </c>
       <c r="C1232" s="12" t="s">
-        <v>3458</v>
+        <v>3459</v>
       </c>
     </row>
     <row r="1233" spans="1:3">
       <c r="A1233" s="10" t="s">
-        <v>3459</v>
+        <v>3460</v>
       </c>
       <c r="B1233" s="12" t="s">
-        <v>3460</v>
+        <v>3461</v>
       </c>
       <c r="C1233" s="10" t="s">
         <v>266</v>
@@ -25915,10 +26230,10 @@
     </row>
     <row r="1234" spans="1:3">
       <c r="A1234" s="10" t="s">
-        <v>3461</v>
+        <v>3462</v>
       </c>
       <c r="B1234" s="12" t="s">
-        <v>3462</v>
+        <v>3463</v>
       </c>
       <c r="C1234" s="10" t="s">
         <v>266</v>
@@ -25926,219 +26241,219 @@
     </row>
     <row r="1235" spans="1:3">
       <c r="A1235" s="10" t="s">
-        <v>3463</v>
+        <v>3464</v>
       </c>
       <c r="B1235" s="12" t="s">
-        <v>3464</v>
+        <v>3465</v>
       </c>
       <c r="C1235" s="12" t="s">
-        <v>3465</v>
+        <v>3466</v>
       </c>
     </row>
     <row r="1236" spans="1:3">
       <c r="A1236" s="10" t="s">
-        <v>3466</v>
+        <v>3467</v>
       </c>
       <c r="B1236" s="12" t="s">
-        <v>3467</v>
+        <v>3468</v>
       </c>
       <c r="C1236" s="12" t="s">
-        <v>3468</v>
+        <v>3469</v>
       </c>
     </row>
     <row r="1237" spans="1:3">
       <c r="A1237" s="10" t="s">
-        <v>3469</v>
+        <v>3470</v>
       </c>
       <c r="B1237" s="12" t="s">
-        <v>3470</v>
+        <v>3471</v>
       </c>
       <c r="C1237" s="12" t="s">
-        <v>3471</v>
+        <v>3472</v>
       </c>
     </row>
     <row r="1238" spans="1:3">
       <c r="A1238" s="10" t="s">
-        <v>3472</v>
+        <v>3473</v>
       </c>
       <c r="B1238" s="12" t="s">
-        <v>3473</v>
+        <v>3474</v>
       </c>
       <c r="C1238" s="12" t="s">
-        <v>3474</v>
+        <v>3475</v>
       </c>
     </row>
     <row r="1239" spans="1:3">
       <c r="A1239" s="10" t="s">
-        <v>3475</v>
+        <v>3476</v>
       </c>
       <c r="B1239" s="10" t="s">
         <v>266</v>
       </c>
       <c r="C1239" s="12" t="s">
-        <v>3476</v>
+        <v>3477</v>
       </c>
     </row>
     <row r="1240" spans="1:3">
       <c r="A1240" s="10" t="s">
-        <v>3477</v>
+        <v>3478</v>
       </c>
       <c r="B1240" s="12" t="s">
-        <v>3478</v>
+        <v>3479</v>
       </c>
       <c r="C1240" s="12" t="s">
-        <v>3479</v>
+        <v>3480</v>
       </c>
     </row>
     <row r="1241" spans="1:3">
       <c r="A1241" s="10" t="s">
-        <v>3480</v>
+        <v>3481</v>
       </c>
       <c r="B1241" s="12" t="s">
-        <v>3481</v>
+        <v>3482</v>
       </c>
       <c r="C1241" s="12" t="s">
-        <v>3482</v>
+        <v>3483</v>
       </c>
     </row>
     <row r="1242" spans="1:3">
       <c r="A1242" s="10" t="s">
-        <v>3483</v>
+        <v>3484</v>
       </c>
       <c r="B1242" s="12" t="s">
-        <v>3484</v>
+        <v>3485</v>
       </c>
       <c r="C1242" s="12" t="s">
-        <v>3485</v>
+        <v>3486</v>
       </c>
     </row>
     <row r="1243" spans="1:3">
       <c r="A1243" s="10" t="s">
-        <v>3486</v>
+        <v>3487</v>
       </c>
       <c r="B1243" s="12" t="s">
-        <v>3487</v>
+        <v>3488</v>
       </c>
       <c r="C1243" s="12" t="s">
-        <v>3488</v>
+        <v>3489</v>
       </c>
     </row>
     <row r="1244" spans="1:3">
       <c r="A1244" s="10" t="s">
-        <v>3489</v>
+        <v>3490</v>
       </c>
       <c r="B1244" s="12" t="s">
-        <v>3490</v>
+        <v>3491</v>
       </c>
       <c r="C1244" s="12" t="s">
-        <v>3491</v>
+        <v>3492</v>
       </c>
     </row>
     <row r="1245" spans="1:3">
       <c r="A1245" s="10" t="s">
-        <v>3492</v>
+        <v>3493</v>
       </c>
       <c r="B1245" s="10" t="s">
         <v>266</v>
       </c>
       <c r="C1245" s="12" t="s">
-        <v>3493</v>
+        <v>3494</v>
       </c>
     </row>
     <row r="1246" spans="1:3">
       <c r="A1246" s="10" t="s">
-        <v>3494</v>
+        <v>3495</v>
       </c>
       <c r="B1246" s="10" t="s">
         <v>266</v>
       </c>
       <c r="C1246" s="12" t="s">
-        <v>3495</v>
+        <v>3496</v>
       </c>
     </row>
     <row r="1247" spans="1:3">
       <c r="A1247" s="10" t="s">
-        <v>3496</v>
+        <v>3497</v>
       </c>
       <c r="B1247" s="10" t="s">
         <v>266</v>
       </c>
       <c r="C1247" s="12" t="s">
-        <v>3497</v>
+        <v>3498</v>
       </c>
     </row>
     <row r="1248" spans="1:3">
       <c r="A1248" s="10" t="s">
-        <v>3498</v>
+        <v>3499</v>
       </c>
       <c r="B1248" s="10" t="s">
         <v>266</v>
       </c>
       <c r="C1248" s="12" t="s">
-        <v>3499</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="1249" spans="1:3">
       <c r="A1249" s="10" t="s">
-        <v>3500</v>
+        <v>3501</v>
       </c>
       <c r="B1249" s="10" t="s">
         <v>266</v>
       </c>
       <c r="C1249" s="12" t="s">
-        <v>3501</v>
+        <v>3502</v>
       </c>
     </row>
     <row r="1250" spans="1:3">
       <c r="A1250" s="10" t="s">
-        <v>3502</v>
+        <v>3503</v>
       </c>
       <c r="B1250" s="10" t="s">
         <v>266</v>
       </c>
       <c r="C1250" s="12" t="s">
-        <v>3503</v>
+        <v>3504</v>
       </c>
     </row>
     <row r="1251" spans="1:3">
       <c r="A1251" s="10" t="s">
-        <v>3504</v>
+        <v>3505</v>
       </c>
       <c r="B1251" s="10" t="s">
         <v>266</v>
       </c>
       <c r="C1251" s="12" t="s">
-        <v>3505</v>
+        <v>3506</v>
       </c>
     </row>
     <row r="1252" spans="1:3">
       <c r="A1252" s="10" t="s">
-        <v>3506</v>
+        <v>3507</v>
       </c>
       <c r="B1252" s="10" t="s">
         <v>266</v>
       </c>
       <c r="C1252" s="12" t="s">
-        <v>3507</v>
+        <v>3508</v>
       </c>
     </row>
     <row r="1253" spans="1:3">
       <c r="A1253" s="10" t="s">
-        <v>3508</v>
+        <v>3509</v>
       </c>
       <c r="B1253" s="12" t="s">
-        <v>3509</v>
+        <v>3510</v>
       </c>
       <c r="C1253" s="12" t="s">
-        <v>3510</v>
+        <v>3511</v>
       </c>
     </row>
     <row r="1254" spans="1:3">
       <c r="A1254" s="10" t="s">
-        <v>3511</v>
+        <v>3512</v>
       </c>
       <c r="B1254" s="12" t="s">
-        <v>3512</v>
+        <v>3513</v>
       </c>
       <c r="C1254" s="10" t="s">
         <v>266</v>
@@ -26146,98 +26461,98 @@
     </row>
     <row r="1255" spans="1:3">
       <c r="A1255" s="10" t="s">
-        <v>3513</v>
+        <v>3514</v>
       </c>
       <c r="B1255" s="12" t="s">
-        <v>3514</v>
+        <v>3515</v>
       </c>
       <c r="C1255" s="12" t="s">
-        <v>3515</v>
+        <v>3516</v>
       </c>
     </row>
     <row r="1256" spans="1:3">
       <c r="A1256" s="10" t="s">
-        <v>3516</v>
+        <v>3517</v>
       </c>
       <c r="B1256" s="12" t="s">
-        <v>3517</v>
+        <v>3518</v>
       </c>
       <c r="C1256" s="12" t="s">
-        <v>3518</v>
+        <v>3519</v>
       </c>
     </row>
     <row r="1257" spans="1:3">
       <c r="A1257" s="10" t="s">
-        <v>3519</v>
+        <v>3520</v>
       </c>
       <c r="B1257" s="12" t="s">
-        <v>3520</v>
+        <v>3521</v>
       </c>
       <c r="C1257" s="12" t="s">
-        <v>3521</v>
+        <v>3522</v>
       </c>
     </row>
     <row r="1258" spans="1:3">
       <c r="A1258" s="10" t="s">
-        <v>3522</v>
+        <v>3523</v>
       </c>
       <c r="B1258" s="12" t="s">
-        <v>3523</v>
+        <v>3524</v>
       </c>
       <c r="C1258" s="12" t="s">
-        <v>3524</v>
+        <v>3525</v>
       </c>
     </row>
     <row r="1259" spans="1:3">
       <c r="A1259" s="10" t="s">
-        <v>3525</v>
+        <v>3526</v>
       </c>
       <c r="B1259" s="12" t="s">
-        <v>3526</v>
+        <v>3527</v>
       </c>
       <c r="C1259" s="12" t="s">
-        <v>3527</v>
+        <v>3528</v>
       </c>
     </row>
     <row r="1260" spans="1:3">
       <c r="A1260" s="10" t="s">
-        <v>3528</v>
+        <v>3529</v>
       </c>
       <c r="B1260" s="12" t="s">
-        <v>3529</v>
+        <v>3530</v>
       </c>
       <c r="C1260" s="12" t="s">
-        <v>3530</v>
+        <v>3531</v>
       </c>
     </row>
     <row r="1261" spans="1:3">
       <c r="A1261" s="10" t="s">
-        <v>3531</v>
+        <v>3532</v>
       </c>
       <c r="B1261" s="12" t="s">
-        <v>3532</v>
+        <v>3533</v>
       </c>
       <c r="C1261" s="12" t="s">
-        <v>3533</v>
+        <v>3534</v>
       </c>
     </row>
     <row r="1262" spans="1:3">
       <c r="A1262" s="10" t="s">
-        <v>3534</v>
+        <v>3535</v>
       </c>
       <c r="B1262" s="12" t="s">
-        <v>3535</v>
+        <v>3536</v>
       </c>
       <c r="C1262" s="12" t="s">
-        <v>3536</v>
+        <v>3537</v>
       </c>
     </row>
     <row r="1263" spans="1:3">
       <c r="A1263" s="10" t="s">
-        <v>3537</v>
+        <v>3538</v>
       </c>
       <c r="B1263" s="12" t="s">
-        <v>3538</v>
+        <v>3539</v>
       </c>
       <c r="C1263" s="10" t="s">
         <v>266</v>
@@ -26245,230 +26560,230 @@
     </row>
     <row r="1264" spans="1:3">
       <c r="A1264" s="10" t="s">
-        <v>3539</v>
+        <v>3540</v>
       </c>
       <c r="B1264" s="12" t="s">
-        <v>3540</v>
+        <v>3541</v>
       </c>
       <c r="C1264" s="12" t="s">
-        <v>3541</v>
+        <v>3542</v>
       </c>
     </row>
     <row r="1265" spans="1:3">
       <c r="A1265" s="10" t="s">
-        <v>3542</v>
+        <v>3543</v>
       </c>
       <c r="B1265" s="12" t="s">
-        <v>3543</v>
+        <v>3544</v>
       </c>
       <c r="C1265" s="12" t="s">
-        <v>3544</v>
+        <v>3545</v>
       </c>
     </row>
     <row r="1266" spans="1:3">
       <c r="A1266" s="10" t="s">
-        <v>3545</v>
+        <v>3546</v>
       </c>
       <c r="B1266" s="12" t="s">
-        <v>3546</v>
+        <v>3547</v>
       </c>
       <c r="C1266" s="12" t="s">
-        <v>3547</v>
+        <v>3548</v>
       </c>
     </row>
     <row r="1267" spans="1:3">
       <c r="A1267" s="10" t="s">
-        <v>3548</v>
+        <v>3549</v>
       </c>
       <c r="B1267" s="12" t="s">
-        <v>3549</v>
+        <v>3550</v>
       </c>
       <c r="C1267" s="12" t="s">
-        <v>3550</v>
+        <v>3551</v>
       </c>
     </row>
     <row r="1268" spans="1:3">
       <c r="A1268" s="10" t="s">
-        <v>3551</v>
+        <v>3552</v>
       </c>
       <c r="B1268" s="12" t="s">
-        <v>3552</v>
+        <v>3553</v>
       </c>
       <c r="C1268" s="12" t="s">
-        <v>3553</v>
+        <v>3554</v>
       </c>
     </row>
     <row r="1269" spans="1:3">
       <c r="A1269" s="10" t="s">
-        <v>3554</v>
+        <v>3555</v>
       </c>
       <c r="B1269" s="12" t="s">
-        <v>3555</v>
+        <v>3556</v>
       </c>
       <c r="C1269" s="12" t="s">
-        <v>3556</v>
+        <v>3557</v>
       </c>
     </row>
     <row r="1270" spans="1:3">
       <c r="A1270" s="10" t="s">
-        <v>3557</v>
+        <v>3558</v>
       </c>
       <c r="B1270" s="12" t="s">
-        <v>3558</v>
+        <v>3559</v>
       </c>
       <c r="C1270" s="12" t="s">
-        <v>3559</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="1271" spans="1:3">
       <c r="A1271" s="10" t="s">
-        <v>3560</v>
+        <v>3561</v>
       </c>
       <c r="B1271" s="12" t="s">
-        <v>3561</v>
+        <v>3562</v>
       </c>
       <c r="C1271" s="12" t="s">
-        <v>3562</v>
+        <v>3563</v>
       </c>
     </row>
     <row r="1272" spans="1:3">
       <c r="A1272" s="10" t="s">
-        <v>3563</v>
+        <v>3564</v>
       </c>
       <c r="B1272" s="10" t="s">
         <v>266</v>
       </c>
       <c r="C1272" s="12" t="s">
-        <v>3564</v>
+        <v>3565</v>
       </c>
     </row>
     <row r="1273" spans="1:3">
       <c r="A1273" s="10" t="s">
-        <v>3565</v>
+        <v>3566</v>
       </c>
       <c r="B1273" s="10" t="s">
         <v>266</v>
       </c>
       <c r="C1273" s="12" t="s">
-        <v>3566</v>
+        <v>3567</v>
       </c>
     </row>
     <row r="1274" spans="1:3">
       <c r="A1274" s="10" t="s">
-        <v>3567</v>
+        <v>3568</v>
       </c>
       <c r="B1274" s="12" t="s">
-        <v>3568</v>
+        <v>3569</v>
       </c>
       <c r="C1274" s="12" t="s">
-        <v>3569</v>
+        <v>3570</v>
       </c>
     </row>
     <row r="1275" spans="1:3">
       <c r="A1275" s="10" t="s">
-        <v>3570</v>
+        <v>3571</v>
       </c>
       <c r="B1275" s="12" t="s">
-        <v>3571</v>
+        <v>3572</v>
       </c>
       <c r="C1275" s="12" t="s">
-        <v>3572</v>
+        <v>3573</v>
       </c>
     </row>
     <row r="1276" spans="1:3">
       <c r="A1276" s="10" t="s">
-        <v>3573</v>
+        <v>3574</v>
       </c>
       <c r="B1276" s="12" t="s">
-        <v>3574</v>
+        <v>3575</v>
       </c>
       <c r="C1276" s="12" t="s">
-        <v>3575</v>
+        <v>3576</v>
       </c>
     </row>
     <row r="1277" spans="1:3">
       <c r="A1277" s="10" t="s">
-        <v>3576</v>
+        <v>3577</v>
       </c>
       <c r="B1277" s="12" t="s">
-        <v>3577</v>
+        <v>3578</v>
       </c>
       <c r="C1277" s="12" t="s">
-        <v>3578</v>
+        <v>3579</v>
       </c>
     </row>
     <row r="1278" spans="1:3">
       <c r="A1278" s="10" t="s">
-        <v>3579</v>
+        <v>3580</v>
       </c>
       <c r="B1278" s="12" t="s">
-        <v>3580</v>
+        <v>3581</v>
       </c>
       <c r="C1278" s="12" t="s">
-        <v>3581</v>
+        <v>3582</v>
       </c>
     </row>
     <row r="1279" spans="1:3">
       <c r="A1279" s="10" t="s">
-        <v>3582</v>
+        <v>3583</v>
       </c>
       <c r="B1279" s="12" t="s">
-        <v>3583</v>
+        <v>3584</v>
       </c>
       <c r="C1279" s="12" t="s">
-        <v>3584</v>
+        <v>3585</v>
       </c>
     </row>
     <row r="1280" spans="1:3">
       <c r="A1280" s="10" t="s">
-        <v>3585</v>
+        <v>3586</v>
       </c>
       <c r="B1280" s="12" t="s">
-        <v>3586</v>
+        <v>3587</v>
       </c>
       <c r="C1280" s="12" t="s">
-        <v>3587</v>
+        <v>3588</v>
       </c>
     </row>
     <row r="1281" spans="1:3">
       <c r="A1281" s="10" t="s">
-        <v>3588</v>
+        <v>3589</v>
       </c>
       <c r="B1281" s="12" t="s">
-        <v>3589</v>
+        <v>3590</v>
       </c>
       <c r="C1281" s="12" t="s">
-        <v>3590</v>
+        <v>3591</v>
       </c>
     </row>
     <row r="1282" spans="1:3">
       <c r="A1282" s="10" t="s">
-        <v>3591</v>
+        <v>3592</v>
       </c>
       <c r="B1282" s="12" t="s">
-        <v>3592</v>
+        <v>3593</v>
       </c>
       <c r="C1282" s="12" t="s">
-        <v>3593</v>
+        <v>3594</v>
       </c>
     </row>
     <row r="1283" spans="1:3">
       <c r="A1283" s="10" t="s">
-        <v>3594</v>
+        <v>3595</v>
       </c>
       <c r="B1283" s="12" t="s">
-        <v>3595</v>
+        <v>3596</v>
       </c>
       <c r="C1283" s="12" t="s">
-        <v>3596</v>
+        <v>3597</v>
       </c>
     </row>
     <row r="1284" spans="1:3">
       <c r="A1284" s="10" t="s">
-        <v>3597</v>
+        <v>3598</v>
       </c>
       <c r="B1284" s="12" t="s">
-        <v>3598</v>
+        <v>3599</v>
       </c>
       <c r="C1284" s="10" t="s">
         <v>266</v>
@@ -26476,65 +26791,65 @@
     </row>
     <row r="1285" spans="1:3">
       <c r="A1285" s="10" t="s">
-        <v>3599</v>
+        <v>3600</v>
       </c>
       <c r="B1285" s="12" t="s">
-        <v>3600</v>
+        <v>3601</v>
       </c>
       <c r="C1285" s="12" t="s">
-        <v>3601</v>
+        <v>3602</v>
       </c>
     </row>
     <row r="1286" spans="1:3">
       <c r="A1286" s="10" t="s">
-        <v>3602</v>
+        <v>3603</v>
       </c>
       <c r="B1286" s="12" t="s">
-        <v>3603</v>
+        <v>3604</v>
       </c>
       <c r="C1286" s="12" t="s">
-        <v>3604</v>
+        <v>3605</v>
       </c>
     </row>
     <row r="1287" spans="1:3">
       <c r="A1287" s="10" t="s">
-        <v>3605</v>
+        <v>3606</v>
       </c>
       <c r="B1287" s="12" t="s">
-        <v>3606</v>
+        <v>3607</v>
       </c>
       <c r="C1287" s="12" t="s">
-        <v>3607</v>
+        <v>3608</v>
       </c>
     </row>
     <row r="1288" spans="1:3">
       <c r="A1288" s="10" t="s">
-        <v>3608</v>
+        <v>3609</v>
       </c>
       <c r="B1288" s="10" t="s">
         <v>266</v>
       </c>
       <c r="C1288" s="12" t="s">
-        <v>3609</v>
+        <v>3610</v>
       </c>
     </row>
     <row r="1289" spans="1:3">
       <c r="A1289" s="10" t="s">
-        <v>3610</v>
+        <v>3611</v>
       </c>
       <c r="B1289" s="12" t="s">
-        <v>3611</v>
+        <v>3612</v>
       </c>
       <c r="C1289" s="12" t="s">
-        <v>3612</v>
+        <v>3613</v>
       </c>
     </row>
     <row r="1290" spans="1:3">
       <c r="A1290" s="10" t="s">
-        <v>3613</v>
+        <v>3614</v>
       </c>
       <c r="B1290" s="12" t="s">
-        <v>3614</v>
+        <v>3615</v>
       </c>
       <c r="C1290" s="10" t="s">
         <v>266</v>
@@ -26542,241 +26857,241 @@
     </row>
     <row r="1291" spans="1:3">
       <c r="A1291" s="10" t="s">
-        <v>3615</v>
+        <v>3616</v>
       </c>
       <c r="B1291" s="12" t="s">
-        <v>3616</v>
+        <v>3617</v>
       </c>
       <c r="C1291" s="12" t="s">
-        <v>3617</v>
+        <v>3618</v>
       </c>
     </row>
     <row r="1292" spans="1:3">
       <c r="A1292" s="10" t="s">
-        <v>3618</v>
+        <v>3619</v>
       </c>
       <c r="B1292" s="12" t="s">
-        <v>3619</v>
+        <v>3620</v>
       </c>
       <c r="C1292" s="12" t="s">
-        <v>3620</v>
+        <v>3621</v>
       </c>
     </row>
     <row r="1293" spans="1:3">
       <c r="A1293" s="10" t="s">
-        <v>3621</v>
+        <v>3622</v>
       </c>
       <c r="B1293" s="12" t="s">
-        <v>3622</v>
+        <v>3623</v>
       </c>
       <c r="C1293" s="12" t="s">
-        <v>3623</v>
+        <v>3624</v>
       </c>
     </row>
     <row r="1294" spans="1:3">
       <c r="A1294" s="10" t="s">
-        <v>3624</v>
+        <v>3625</v>
       </c>
       <c r="B1294" s="12" t="s">
-        <v>3625</v>
+        <v>3626</v>
       </c>
       <c r="C1294" s="12" t="s">
-        <v>3626</v>
+        <v>3627</v>
       </c>
     </row>
     <row r="1295" spans="1:3">
       <c r="A1295" s="10" t="s">
-        <v>3627</v>
+        <v>3628</v>
       </c>
       <c r="B1295" s="12" t="s">
-        <v>3628</v>
+        <v>3629</v>
       </c>
       <c r="C1295" s="12" t="s">
-        <v>3629</v>
+        <v>3630</v>
       </c>
     </row>
     <row r="1296" spans="1:3">
       <c r="A1296" s="10" t="s">
-        <v>3630</v>
+        <v>3631</v>
       </c>
       <c r="B1296" s="12" t="s">
-        <v>3631</v>
+        <v>3632</v>
       </c>
       <c r="C1296" s="12" t="s">
-        <v>3632</v>
+        <v>3633</v>
       </c>
     </row>
     <row r="1297" spans="1:3">
       <c r="A1297" s="10" t="s">
-        <v>3633</v>
+        <v>3634</v>
       </c>
       <c r="B1297" s="12" t="s">
-        <v>3634</v>
+        <v>3635</v>
       </c>
       <c r="C1297" s="12" t="s">
-        <v>3635</v>
+        <v>3636</v>
       </c>
     </row>
     <row r="1298" spans="1:3">
       <c r="A1298" s="10" t="s">
-        <v>3636</v>
+        <v>3637</v>
       </c>
       <c r="B1298" s="10" t="s">
         <v>266</v>
       </c>
       <c r="C1298" s="12" t="s">
-        <v>3637</v>
+        <v>3638</v>
       </c>
     </row>
     <row r="1299" spans="1:3">
       <c r="A1299" s="10" t="s">
-        <v>3638</v>
+        <v>3639</v>
       </c>
       <c r="B1299" s="12" t="s">
-        <v>3639</v>
+        <v>3640</v>
       </c>
       <c r="C1299" s="12" t="s">
-        <v>3640</v>
+        <v>3641</v>
       </c>
     </row>
     <row r="1300" spans="1:3">
       <c r="A1300" s="10" t="s">
-        <v>3641</v>
+        <v>3642</v>
       </c>
       <c r="B1300" s="12" t="s">
-        <v>3642</v>
+        <v>3643</v>
       </c>
       <c r="C1300" s="12" t="s">
-        <v>3643</v>
+        <v>3644</v>
       </c>
     </row>
     <row r="1301" spans="1:3">
       <c r="A1301" s="10" t="s">
-        <v>3644</v>
+        <v>3645</v>
       </c>
       <c r="B1301" s="12" t="s">
-        <v>3645</v>
+        <v>3646</v>
       </c>
       <c r="C1301" s="12" t="s">
-        <v>3646</v>
+        <v>3647</v>
       </c>
     </row>
     <row r="1302" spans="1:3">
       <c r="A1302" s="10" t="s">
-        <v>3647</v>
+        <v>3648</v>
       </c>
       <c r="B1302" s="12" t="s">
-        <v>3648</v>
+        <v>3649</v>
       </c>
       <c r="C1302" s="12" t="s">
-        <v>3649</v>
+        <v>3650</v>
       </c>
     </row>
     <row r="1303" spans="1:3">
       <c r="A1303" s="10" t="s">
-        <v>3650</v>
+        <v>3651</v>
       </c>
       <c r="B1303" s="12" t="s">
-        <v>3651</v>
+        <v>3652</v>
       </c>
       <c r="C1303" s="12" t="s">
-        <v>3652</v>
+        <v>3653</v>
       </c>
     </row>
     <row r="1304" spans="1:3">
       <c r="A1304" s="10" t="s">
-        <v>3653</v>
+        <v>3654</v>
       </c>
       <c r="B1304" s="12" t="s">
-        <v>3654</v>
+        <v>3655</v>
       </c>
       <c r="C1304" s="12" t="s">
-        <v>3655</v>
+        <v>3656</v>
       </c>
     </row>
     <row r="1305" spans="1:3">
       <c r="A1305" s="10" t="s">
-        <v>3656</v>
+        <v>3657</v>
       </c>
       <c r="B1305" s="12" t="s">
-        <v>3657</v>
+        <v>3658</v>
       </c>
       <c r="C1305" s="12" t="s">
-        <v>3658</v>
+        <v>3659</v>
       </c>
     </row>
     <row r="1306" spans="1:3">
       <c r="A1306" s="10" t="s">
-        <v>3659</v>
+        <v>3660</v>
       </c>
       <c r="B1306" s="10" t="s">
         <v>266</v>
       </c>
       <c r="C1306" s="12" t="s">
-        <v>3660</v>
+        <v>3661</v>
       </c>
     </row>
     <row r="1307" spans="1:3">
       <c r="A1307" s="10" t="s">
-        <v>3661</v>
+        <v>3662</v>
       </c>
       <c r="B1307" s="12" t="s">
-        <v>3662</v>
+        <v>3663</v>
       </c>
       <c r="C1307" s="12" t="s">
-        <v>3663</v>
+        <v>3664</v>
       </c>
     </row>
     <row r="1308" spans="1:3">
       <c r="A1308" s="10" t="s">
-        <v>3664</v>
-      </c>
-      <c r="B1308" s="15" t="s">
         <v>3665</v>
       </c>
-      <c r="C1308" s="15" t="s">
+      <c r="B1308" s="12" t="s">
         <v>3666</v>
+      </c>
+      <c r="C1308" s="12" t="s">
+        <v>3667</v>
       </c>
     </row>
     <row r="1309" spans="1:3">
       <c r="A1309" s="10" t="s">
-        <v>3667</v>
+        <v>3668</v>
       </c>
       <c r="B1309" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="C1309" s="15" t="s">
-        <v>3668</v>
+      <c r="C1309" s="12" t="s">
+        <v>3669</v>
       </c>
     </row>
     <row r="1310" spans="1:3">
       <c r="A1310" s="10" t="s">
-        <v>3669</v>
-      </c>
-      <c r="B1310" s="15" t="s">
         <v>3670</v>
       </c>
-      <c r="C1310" s="15" t="s">
+      <c r="B1310" s="12" t="s">
         <v>3671</v>
+      </c>
+      <c r="C1310" s="12" t="s">
+        <v>3672</v>
       </c>
     </row>
     <row r="1311" spans="1:3">
       <c r="A1311" s="10" t="s">
-        <v>3672</v>
-      </c>
-      <c r="B1311" s="15" t="s">
         <v>3673</v>
       </c>
-      <c r="C1311" s="15" t="s">
+      <c r="B1311" s="12" t="s">
         <v>3674</v>
+      </c>
+      <c r="C1311" s="12" t="s">
+        <v>3675</v>
       </c>
     </row>
     <row r="1312" spans="1:3">
       <c r="A1312" s="10" t="s">
-        <v>3675</v>
-      </c>
-      <c r="B1312" s="15" t="s">
         <v>3676</v>
+      </c>
+      <c r="B1312" s="12" t="s">
+        <v>3677</v>
       </c>
       <c r="C1312" s="10" t="s">
         <v>266</v>
@@ -26784,10 +27099,10 @@
     </row>
     <row r="1313" spans="1:3">
       <c r="A1313" s="10" t="s">
-        <v>3677</v>
-      </c>
-      <c r="B1313" s="15" t="s">
         <v>3678</v>
+      </c>
+      <c r="B1313" s="12" t="s">
+        <v>3679</v>
       </c>
       <c r="C1313" s="10" t="s">
         <v>266</v>
@@ -26795,24 +27110,420 @@
     </row>
     <row r="1314" spans="1:3">
       <c r="A1314" s="10" t="s">
-        <v>3679</v>
-      </c>
-      <c r="B1314" s="15" t="s">
         <v>3680</v>
       </c>
-      <c r="C1314" s="15" t="s">
+      <c r="B1314" s="12" t="s">
         <v>3681</v>
+      </c>
+      <c r="C1314" s="12" t="s">
+        <v>3682</v>
       </c>
     </row>
     <row r="1315" spans="1:3">
       <c r="A1315" s="10" t="s">
-        <v>3682</v>
-      </c>
-      <c r="B1315" s="15" t="s">
         <v>3683</v>
       </c>
-      <c r="C1315" s="15" t="s">
+      <c r="B1315" s="12" t="s">
         <v>3684</v>
+      </c>
+      <c r="C1315" s="12" t="s">
+        <v>3685</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:3">
+      <c r="A1316" s="10" t="s">
+        <v>3686</v>
+      </c>
+      <c r="B1316" s="12" t="s">
+        <v>3687</v>
+      </c>
+      <c r="C1316" s="12" t="s">
+        <v>3688</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:3">
+      <c r="A1317" s="10" t="s">
+        <v>3689</v>
+      </c>
+      <c r="B1317" s="12" t="s">
+        <v>3690</v>
+      </c>
+      <c r="C1317" s="12" t="s">
+        <v>3691</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:3">
+      <c r="A1318" s="10" t="s">
+        <v>3692</v>
+      </c>
+      <c r="B1318" s="12" t="s">
+        <v>3693</v>
+      </c>
+      <c r="C1318" s="12" t="s">
+        <v>3694</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:3">
+      <c r="A1319" s="10" t="s">
+        <v>3695</v>
+      </c>
+      <c r="B1319" s="12" t="s">
+        <v>3696</v>
+      </c>
+      <c r="C1319" s="12" t="s">
+        <v>3697</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:3">
+      <c r="A1320" s="10" t="s">
+        <v>3698</v>
+      </c>
+      <c r="B1320" s="12" t="s">
+        <v>3699</v>
+      </c>
+      <c r="C1320" s="12" t="s">
+        <v>3700</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:3">
+      <c r="A1321" s="10" t="s">
+        <v>3701</v>
+      </c>
+      <c r="B1321" s="12" t="s">
+        <v>3702</v>
+      </c>
+      <c r="C1321" s="12" t="s">
+        <v>3703</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:3">
+      <c r="A1322" s="10" t="s">
+        <v>3704</v>
+      </c>
+      <c r="B1322" s="12" t="s">
+        <v>3705</v>
+      </c>
+      <c r="C1322" s="12" t="s">
+        <v>3706</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:3">
+      <c r="A1323" s="10" t="s">
+        <v>3707</v>
+      </c>
+      <c r="B1323" s="12" t="s">
+        <v>3708</v>
+      </c>
+      <c r="C1323" s="12" t="s">
+        <v>3709</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:3">
+      <c r="A1324" s="10" t="s">
+        <v>3710</v>
+      </c>
+      <c r="B1324" s="12" t="s">
+        <v>3711</v>
+      </c>
+      <c r="C1324" s="12" t="s">
+        <v>3712</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:3">
+      <c r="A1325" s="10" t="s">
+        <v>3713</v>
+      </c>
+      <c r="B1325" s="12" t="s">
+        <v>3714</v>
+      </c>
+      <c r="C1325" s="12" t="s">
+        <v>3715</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:3">
+      <c r="A1326" s="10" t="s">
+        <v>3716</v>
+      </c>
+      <c r="B1326" s="12" t="s">
+        <v>3717</v>
+      </c>
+      <c r="C1326" s="12" t="s">
+        <v>3718</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:3">
+      <c r="A1327" s="10" t="s">
+        <v>3719</v>
+      </c>
+      <c r="B1327" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="C1327" s="12" t="s">
+        <v>3720</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:3">
+      <c r="A1328" s="10" t="s">
+        <v>3721</v>
+      </c>
+      <c r="B1328" s="12" t="s">
+        <v>3722</v>
+      </c>
+      <c r="C1328" s="12" t="s">
+        <v>3723</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:3">
+      <c r="A1329" s="10" t="s">
+        <v>3724</v>
+      </c>
+      <c r="B1329" s="12" t="s">
+        <v>3725</v>
+      </c>
+      <c r="C1329" s="12" t="s">
+        <v>3726</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:3">
+      <c r="A1330" s="10" t="s">
+        <v>3727</v>
+      </c>
+      <c r="B1330" s="12" t="s">
+        <v>3728</v>
+      </c>
+      <c r="C1330" s="12" t="s">
+        <v>3729</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:3">
+      <c r="A1331" s="10" t="s">
+        <v>3730</v>
+      </c>
+      <c r="B1331" s="12" t="s">
+        <v>3731</v>
+      </c>
+      <c r="C1331" s="12" t="s">
+        <v>3732</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:3">
+      <c r="A1332" s="10" t="s">
+        <v>3733</v>
+      </c>
+      <c r="B1332" s="12" t="s">
+        <v>3734</v>
+      </c>
+      <c r="C1332" s="12" t="s">
+        <v>3735</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:3">
+      <c r="A1333" s="10" t="s">
+        <v>3736</v>
+      </c>
+      <c r="B1333" s="12" t="s">
+        <v>3737</v>
+      </c>
+      <c r="C1333" s="12" t="s">
+        <v>3738</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:3">
+      <c r="A1334" s="10" t="s">
+        <v>3739</v>
+      </c>
+      <c r="B1334" s="12" t="s">
+        <v>3740</v>
+      </c>
+      <c r="C1334" s="12" t="s">
+        <v>3741</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:3">
+      <c r="A1335" s="10" t="s">
+        <v>3742</v>
+      </c>
+      <c r="B1335" s="12" t="s">
+        <v>3743</v>
+      </c>
+      <c r="C1335" s="12" t="s">
+        <v>3744</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:3">
+      <c r="A1336" s="10" t="s">
+        <v>3745</v>
+      </c>
+      <c r="B1336" s="12" t="s">
+        <v>3746</v>
+      </c>
+      <c r="C1336" s="12" t="s">
+        <v>3747</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:3">
+      <c r="A1337" s="10" t="s">
+        <v>3748</v>
+      </c>
+      <c r="B1337" s="12" t="s">
+        <v>3749</v>
+      </c>
+      <c r="C1337" s="12" t="s">
+        <v>3750</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:3">
+      <c r="A1338" s="10" t="s">
+        <v>3751</v>
+      </c>
+      <c r="B1338" s="12" t="s">
+        <v>3752</v>
+      </c>
+      <c r="C1338" s="12" t="s">
+        <v>3753</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:3">
+      <c r="A1339" s="10" t="s">
+        <v>3754</v>
+      </c>
+      <c r="B1339" s="12" t="s">
+        <v>3755</v>
+      </c>
+      <c r="C1339" s="12" t="s">
+        <v>3756</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:3">
+      <c r="A1340" s="10" t="s">
+        <v>3757</v>
+      </c>
+      <c r="B1340" s="12" t="s">
+        <v>3758</v>
+      </c>
+      <c r="C1340" s="12" t="s">
+        <v>3759</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:3">
+      <c r="A1341" s="10" t="s">
+        <v>3760</v>
+      </c>
+      <c r="B1341" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="C1341" s="12" t="s">
+        <v>3761</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:3">
+      <c r="A1342" s="10" t="s">
+        <v>3762</v>
+      </c>
+      <c r="B1342" s="12" t="s">
+        <v>3763</v>
+      </c>
+      <c r="C1342" s="12" t="s">
+        <v>3764</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:3">
+      <c r="A1343" s="10" t="s">
+        <v>3765</v>
+      </c>
+      <c r="B1343" s="12" t="s">
+        <v>3766</v>
+      </c>
+      <c r="C1343" s="12" t="s">
+        <v>3767</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:3">
+      <c r="A1344" s="10" t="s">
+        <v>3768</v>
+      </c>
+      <c r="B1344" s="12" t="s">
+        <v>3769</v>
+      </c>
+      <c r="C1344" s="12" t="s">
+        <v>3770</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:3">
+      <c r="A1345" s="10" t="s">
+        <v>3771</v>
+      </c>
+      <c r="B1345" s="12" t="s">
+        <v>3772</v>
+      </c>
+      <c r="C1345" s="12" t="s">
+        <v>3773</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:3">
+      <c r="A1346" s="10" t="s">
+        <v>3774</v>
+      </c>
+      <c r="B1346" s="12" t="s">
+        <v>3775</v>
+      </c>
+      <c r="C1346" s="12" t="s">
+        <v>3776</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:3">
+      <c r="A1347" s="10" t="s">
+        <v>3777</v>
+      </c>
+      <c r="B1347" s="12" t="s">
+        <v>3778</v>
+      </c>
+      <c r="C1347" s="12" t="s">
+        <v>3779</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:3">
+      <c r="A1348" s="10" t="s">
+        <v>3780</v>
+      </c>
+      <c r="B1348" s="12" t="s">
+        <v>3781</v>
+      </c>
+      <c r="C1348" s="12" t="s">
+        <v>3782</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:3">
+      <c r="A1349" s="10" t="s">
+        <v>3783</v>
+      </c>
+      <c r="B1349" s="12" t="s">
+        <v>3784</v>
+      </c>
+      <c r="C1349" s="12" t="s">
+        <v>3785</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:3">
+      <c r="A1350" s="10" t="s">
+        <v>3786</v>
+      </c>
+      <c r="B1350" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="C1350" s="12" t="s">
+        <v>3787</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:3">
+      <c r="A1351" s="10" t="s">
+        <v>3788</v>
+      </c>
+      <c r="B1351" s="12" t="s">
+        <v>3789</v>
+      </c>
+      <c r="C1351" s="12" t="s">
+        <v>3790</v>
       </c>
     </row>
   </sheetData>
@@ -29183,6 +29894,76 @@
     <hyperlink ref="C1314" r:id="rId2354" display="https://pan.quark.cn/s/1db3b9267257"/>
     <hyperlink ref="C1315" r:id="rId2355" display="https://pan.quark.cn/s/8e20acaae874"/>
     <hyperlink ref="B1315" r:id="rId2356" display="https://pan.baidu.com/s/1sga5B5BtyBTviwVQOxjgvg?pwd=7gu9"/>
+    <hyperlink ref="C1316" r:id="rId2357" display="https://pan.quark.cn/s/a9a663678023"/>
+    <hyperlink ref="B1316" r:id="rId2358" display="https://pan.baidu.com/s/1i3IbPoN1xh6PzDdgqifM4A?pwd=jt2v"/>
+    <hyperlink ref="C1317" r:id="rId2359" display="https://pan.quark.cn/s/8b784022a37e"/>
+    <hyperlink ref="B1317" r:id="rId2360" display="https://pan.baidu.com/s/12U_zZoBY00Suj-kmx-_Txw?pwd=5xqy"/>
+    <hyperlink ref="C1320" r:id="rId2361" display="https://pan.quark.cn/s/e32a0610bc40"/>
+    <hyperlink ref="C1321" r:id="rId2362" display="https://pan.quark.cn/s/c6344cf1b358"/>
+    <hyperlink ref="B1322" r:id="rId2363" display="https://pan.baidu.com/s/1PsmNWjtzmjwNWbE2PyDY1g?pwd=8hv8"/>
+    <hyperlink ref="C1322" r:id="rId2364" display="https://pan.quark.cn/s/76453290a798"/>
+    <hyperlink ref="B1064" r:id="rId2365" display="https://pan.baidu.com/s/17vFwF-glmiuSVH1VwQNFAQ?pwd=ktu8"/>
+    <hyperlink ref="C1319" r:id="rId2366" display="https://pan.quark.cn/s/4c934e08237b"/>
+    <hyperlink ref="C1318" r:id="rId2367" display="https://pan.quark.cn/s/15d774f56033"/>
+    <hyperlink ref="B1323" r:id="rId2368" display="https://pan.baidu.com/s/1qh08MQka3Pa_-Zn20M0L-g?pwd=6kqj"/>
+    <hyperlink ref="C1323" r:id="rId2369" display="https://pan.quark.cn/s/9bc2112a99d8"/>
+    <hyperlink ref="C1324" r:id="rId2370" display="https://pan.quark.cn/s/c2a5fbbe18f8"/>
+    <hyperlink ref="B1324" r:id="rId2371" display="https://pan.baidu.com/s/1e7Qju70wWI9FX0vNdsxEgQ?pwd=6pb6"/>
+    <hyperlink ref="C1325" r:id="rId2372" display="https://pan.quark.cn/s/21a8debea1d9"/>
+    <hyperlink ref="B1325" r:id="rId2373" display="https://pan.baidu.com/s/1hLWUND-ZfSoDLInwdAfTiQ?pwd=3i3c"/>
+    <hyperlink ref="B1320" r:id="rId2374" display="https://pan.baidu.com/s/1YQGuUauRpGpSmK574nkIcA?pwd=pqjh"/>
+    <hyperlink ref="B1318" r:id="rId2375" display="https://pan.baidu.com/s/1ARb2KwdhT69gzoD3oy8GzA?pwd=6n7n"/>
+    <hyperlink ref="B1319" r:id="rId2376" display="https://pan.baidu.com/s/1xpWA5RLehrOgG_XIOA9DZw?pwd=2i27"/>
+    <hyperlink ref="B1321" r:id="rId2377" display="https://pan.baidu.com/s/1f-iC1CxxzBnt8t2zbmeJdw?pwd=nutk"/>
+    <hyperlink ref="B1326" r:id="rId2378" display="https://pan.baidu.com/s/1bdxlYTq9ZjcfEioxW9gygg?pwd=ehm2"/>
+    <hyperlink ref="C1326" r:id="rId2379" display="https://pan.quark.cn/s/551e572f5b94"/>
+    <hyperlink ref="C1327" r:id="rId2380" display="https://pan.quark.cn/s/4c5e3e133bc5"/>
+    <hyperlink ref="C1328" r:id="rId2381" display="https://pan.quark.cn/s/67b9843c4e0a"/>
+    <hyperlink ref="C1329" r:id="rId2382" display="https://pan.quark.cn/s/462bd1563b5f"/>
+    <hyperlink ref="B1329" r:id="rId2383" display="https://pan.baidu.com/s/17PLPBNs1uQNKWg6HuZypCQ?pwd=cc8u"/>
+    <hyperlink ref="B1328" r:id="rId2384" display="https://pan.baidu.com/s/1w3d6zKgDLfuHImaxqvKczw?pwd=e1yq"/>
+    <hyperlink ref="B1330" r:id="rId2385" display="https://pan.baidu.com/s/1pYdkAVXmuZOhQ9Bw0BJivw?pwd=kqy4"/>
+    <hyperlink ref="C1330" r:id="rId2386" display="https://pan.quark.cn/s/18704311058f"/>
+    <hyperlink ref="B1331" r:id="rId2387" display="https://pan.baidu.com/s/1Oc_RKT85npFFwOB-ibQLmg?pwd=482f"/>
+    <hyperlink ref="C1331" r:id="rId2388" display="https://pan.quark.cn/s/91bca0b5a4c4"/>
+    <hyperlink ref="C1332" r:id="rId2389" display="https://pan.quark.cn/s/9b8cfe3e8661"/>
+    <hyperlink ref="B1332" r:id="rId2390" display="https://pan.baidu.com/s/1Lg1jzJRgAPldkd5mtNVCkA?pwd=f6yd"/>
+    <hyperlink ref="C1333" r:id="rId2391" display="https://pan.quark.cn/s/d02f52c54d34"/>
+    <hyperlink ref="B1333" r:id="rId2392" display="https://pan.baidu.com/s/14SaDo5J6C7rR6QP4FZ6J-A?pwd=cnqx"/>
+    <hyperlink ref="B1334" r:id="rId2393" display="https://pan.baidu.com/s/11-DkFzZDYn8nBhOHSpWnRA?pwd=uq17"/>
+    <hyperlink ref="C1334" r:id="rId2394" display="https://pan.quark.cn/s/3e99fec51fc7"/>
+    <hyperlink ref="C1335" r:id="rId2395" display="https://pan.quark.cn/s/cdfa7c03d147"/>
+    <hyperlink ref="B1335" r:id="rId2396" display="https://pan.baidu.com/s/179ymxM9a-B8TuYgJRx1hbQ?pwd=33vj"/>
+    <hyperlink ref="C1336" r:id="rId2397" display="https://pan.quark.cn/s/813d961918d0"/>
+    <hyperlink ref="B1336" r:id="rId2398" display="https://pan.baidu.com/s/1t6UVOIsQQdVRSt2ZtmiwyQ?pwd=nqmh"/>
+    <hyperlink ref="C1337" r:id="rId2399" display="https://pan.quark.cn/s/d652ed9ca160"/>
+    <hyperlink ref="B1337" r:id="rId2400" display="https://pan.baidu.com/s/1OdnDigMnBe5k2P3_PYo6fw?pwd=4ani"/>
+    <hyperlink ref="B1338" r:id="rId2401" display="https://pan.baidu.com/s/1BfQyPzYvUZgPTtcd2Fjd4Q?pwd=pxdt"/>
+    <hyperlink ref="C1338" r:id="rId2402" display="https://pan.quark.cn/s/cb73c40b6437"/>
+    <hyperlink ref="B1339" r:id="rId2403" display="https://pan.baidu.com/s/1LM9KBg38KRNyzzXH-ll-0A?pwd=q69m"/>
+    <hyperlink ref="C1339" r:id="rId2404" display="https://pan.quark.cn/s/c803eaa3f0b3"/>
+    <hyperlink ref="B1340" r:id="rId2405" display="https://pan.baidu.com/s/1m7wDfB8l3hJJaGoGIZr_NQ?pwd=upp4"/>
+    <hyperlink ref="C1340" r:id="rId2406" display="https://pan.quark.cn/s/3ea5dd182781"/>
+    <hyperlink ref="C1341" r:id="rId2407" display="https://pan.quark.cn/s/5d79735e7e26"/>
+    <hyperlink ref="B1342" r:id="rId2408" display="https://pan.baidu.com/s/12ytA18kWIj4MRN6cBEhzWw?pwd=huu7"/>
+    <hyperlink ref="C1342" r:id="rId2409" display="https://pan.quark.cn/s/e5d6542c658b"/>
+    <hyperlink ref="C1343" r:id="rId2410" display="https://pan.quark.cn/s/77f6b5a78cbd"/>
+    <hyperlink ref="B1343" r:id="rId2411" display="https://pan.baidu.com/s/1pG012P7_1uzcWc2i5fWKEg?pwd=qmqu"/>
+    <hyperlink ref="C1344" r:id="rId2412" display="https://pan.quark.cn/s/e60ba738a08d"/>
+    <hyperlink ref="C1345" r:id="rId2413" display="https://pan.quark.cn/s/964e32aaac90"/>
+    <hyperlink ref="C1346" r:id="rId2414" display="https://pan.quark.cn/s/f369c00a5396"/>
+    <hyperlink ref="C1347" r:id="rId2415" display="https://pan.quark.cn/s/b1a659bf15cd"/>
+    <hyperlink ref="C1348" r:id="rId2416" display="https://pan.quark.cn/s/856410a8f9b8"/>
+    <hyperlink ref="C1349" r:id="rId2417" display="https://pan.quark.cn/s/c09544bff080"/>
+    <hyperlink ref="C1350" r:id="rId2418" display="https://pan.quark.cn/s/7a40756083e3"/>
+    <hyperlink ref="B1351" r:id="rId2419" display="https://pan.baidu.com/s/1C079EHXk20F5cAns8qJnIg?pwd=4wix"/>
+    <hyperlink ref="C1351" r:id="rId2420" display="https://pan.quark.cn/s/97d7ce3f0218"/>
+    <hyperlink ref="B1344" r:id="rId2421" display="https://pan.baidu.com/s/1K_W41DEsv8UfWE2j2M5hZw?pwd=vqdv"/>
+    <hyperlink ref="B1345" r:id="rId2422" display="https://pan.baidu.com/s/1nKBVg71Lql8h8_kkA46xsQ?pwd=cyje"/>
+    <hyperlink ref="B1346" r:id="rId2423" display="https://pan.baidu.com/s/1j7laaNtDSW_GtMtC-34tdA?pwd=ccca"/>
+    <hyperlink ref="B1347" r:id="rId2424" display="https://pan.baidu.com/s/1GuBQkjt1GFlaq-_AzrG5WQ?pwd=wi9y"/>
+    <hyperlink ref="B1348" r:id="rId2425" display="https://pan.baidu.com/s/1m_EiSlGMEg19XLFCttX_Hg?pwd=26xy"/>
+    <hyperlink ref="B1349" r:id="rId2426" display="https://pan.baidu.com/s/1kS_gGfs6K-GFJrOjtBqyBw?pwd=nrnc"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -29192,10 +29973,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D1311"/>
+  <dimension ref="A1:D1347"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="24" customHeight="1" outlineLevelCol="3"/>
@@ -29218,7 +29999,7 @@
         <v>6</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>3685</v>
+        <v>3791</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:4">
@@ -41922,571 +42703,571 @@
         <v>2991</v>
       </c>
       <c r="B1060" s="4" t="s">
-        <v>266</v>
+        <v>2992</v>
       </c>
       <c r="C1060" s="4" t="s">
-        <v>2992</v>
+        <v>2993</v>
       </c>
       <c r="D1060" s="4"/>
     </row>
     <row r="1061" customHeight="1" spans="1:4">
       <c r="A1061" s="4" t="s">
-        <v>2993</v>
+        <v>2994</v>
       </c>
       <c r="B1061" s="4" t="s">
         <v>266</v>
       </c>
       <c r="C1061" s="4" t="s">
-        <v>2994</v>
+        <v>2995</v>
       </c>
       <c r="D1061" s="4"/>
     </row>
     <row r="1062" customHeight="1" spans="1:4">
       <c r="A1062" s="4" t="s">
-        <v>2995</v>
+        <v>2996</v>
       </c>
       <c r="B1062" s="4" t="s">
         <v>266</v>
       </c>
       <c r="C1062" s="4" t="s">
-        <v>2996</v>
+        <v>2997</v>
       </c>
       <c r="D1062" s="4"/>
     </row>
     <row r="1063" customHeight="1" spans="1:4">
       <c r="A1063" s="4" t="s">
-        <v>2997</v>
+        <v>2998</v>
       </c>
       <c r="B1063" s="4" t="s">
         <v>266</v>
       </c>
       <c r="C1063" s="4" t="s">
-        <v>2998</v>
+        <v>2999</v>
       </c>
       <c r="D1063" s="4"/>
     </row>
     <row r="1064" customHeight="1" spans="1:4">
       <c r="A1064" s="4" t="s">
-        <v>2999</v>
+        <v>3000</v>
       </c>
       <c r="B1064" s="4" t="s">
         <v>266</v>
       </c>
       <c r="C1064" s="4" t="s">
-        <v>3000</v>
+        <v>3001</v>
       </c>
       <c r="D1064" s="4"/>
     </row>
     <row r="1065" customHeight="1" spans="1:4">
       <c r="A1065" s="4" t="s">
-        <v>3001</v>
+        <v>3002</v>
       </c>
       <c r="B1065" s="4" t="s">
         <v>266</v>
       </c>
       <c r="C1065" s="4" t="s">
-        <v>3002</v>
+        <v>3003</v>
       </c>
       <c r="D1065" s="4"/>
     </row>
     <row r="1066" customHeight="1" spans="1:4">
       <c r="A1066" s="4" t="s">
-        <v>3003</v>
+        <v>3004</v>
       </c>
       <c r="B1066" s="4" t="s">
         <v>266</v>
       </c>
       <c r="C1066" s="4" t="s">
-        <v>3004</v>
+        <v>3005</v>
       </c>
       <c r="D1066" s="4"/>
     </row>
     <row r="1067" customHeight="1" spans="1:4">
       <c r="A1067" s="4" t="s">
-        <v>3005</v>
+        <v>3006</v>
       </c>
       <c r="B1067" s="4" t="s">
         <v>266</v>
       </c>
       <c r="C1067" s="4" t="s">
-        <v>3006</v>
+        <v>3007</v>
       </c>
       <c r="D1067" s="4"/>
     </row>
     <row r="1068" customHeight="1" spans="1:4">
       <c r="A1068" s="4" t="s">
-        <v>3007</v>
+        <v>3008</v>
       </c>
       <c r="B1068" s="4" t="s">
         <v>266</v>
       </c>
       <c r="C1068" s="4" t="s">
-        <v>3008</v>
+        <v>3009</v>
       </c>
       <c r="D1068" s="4"/>
     </row>
     <row r="1069" customHeight="1" spans="1:4">
       <c r="A1069" s="4" t="s">
-        <v>3009</v>
+        <v>3010</v>
       </c>
       <c r="B1069" s="4" t="s">
-        <v>3010</v>
+        <v>3011</v>
       </c>
       <c r="C1069" s="4" t="s">
-        <v>3011</v>
+        <v>3012</v>
       </c>
       <c r="D1069" s="4"/>
     </row>
     <row r="1070" customHeight="1" spans="1:4">
       <c r="A1070" s="4" t="s">
-        <v>3012</v>
+        <v>3013</v>
       </c>
       <c r="B1070" s="4" t="s">
-        <v>3013</v>
+        <v>3014</v>
       </c>
       <c r="C1070" s="4" t="s">
-        <v>3014</v>
+        <v>3015</v>
       </c>
       <c r="D1070" s="4"/>
     </row>
     <row r="1071" customHeight="1" spans="1:4">
       <c r="A1071" s="4" t="s">
-        <v>3015</v>
+        <v>3016</v>
       </c>
       <c r="B1071" s="4" t="s">
         <v>266</v>
       </c>
       <c r="C1071" s="4" t="s">
-        <v>3016</v>
+        <v>3017</v>
       </c>
       <c r="D1071" s="4"/>
     </row>
     <row r="1072" customHeight="1" spans="1:4">
       <c r="A1072" s="4" t="s">
-        <v>3017</v>
+        <v>3018</v>
       </c>
       <c r="B1072" s="4" t="s">
-        <v>3018</v>
+        <v>3019</v>
       </c>
       <c r="C1072" s="4" t="s">
-        <v>3019</v>
+        <v>3020</v>
       </c>
       <c r="D1072" s="4"/>
     </row>
     <row r="1073" customHeight="1" spans="1:4">
       <c r="A1073" s="4" t="s">
-        <v>3020</v>
+        <v>3021</v>
       </c>
       <c r="B1073" s="4" t="s">
         <v>266</v>
       </c>
       <c r="C1073" s="4" t="s">
-        <v>3021</v>
+        <v>3022</v>
       </c>
       <c r="D1073" s="4"/>
     </row>
     <row r="1074" customHeight="1" spans="1:4">
       <c r="A1074" s="4" t="s">
-        <v>3022</v>
+        <v>3023</v>
       </c>
       <c r="B1074" s="4" t="s">
-        <v>3023</v>
+        <v>3024</v>
       </c>
       <c r="C1074" s="4" t="s">
-        <v>3024</v>
+        <v>3025</v>
       </c>
       <c r="D1074" s="4"/>
     </row>
     <row r="1075" customHeight="1" spans="1:4">
       <c r="A1075" s="4" t="s">
-        <v>3025</v>
+        <v>3026</v>
       </c>
       <c r="B1075" s="4" t="s">
-        <v>3026</v>
+        <v>3027</v>
       </c>
       <c r="C1075" s="4" t="s">
-        <v>3027</v>
+        <v>3028</v>
       </c>
       <c r="D1075" s="4"/>
     </row>
     <row r="1076" customHeight="1" spans="1:4">
       <c r="A1076" s="4" t="s">
-        <v>3028</v>
+        <v>3029</v>
       </c>
       <c r="B1076" s="4" t="s">
         <v>266</v>
       </c>
       <c r="C1076" s="4" t="s">
-        <v>3029</v>
+        <v>3030</v>
       </c>
       <c r="D1076" s="4"/>
     </row>
     <row r="1077" customHeight="1" spans="1:4">
       <c r="A1077" s="4" t="s">
-        <v>3030</v>
+        <v>3031</v>
       </c>
       <c r="B1077" s="4" t="s">
         <v>266</v>
       </c>
       <c r="C1077" s="4" t="s">
-        <v>3031</v>
+        <v>3032</v>
       </c>
       <c r="D1077" s="4"/>
     </row>
     <row r="1078" customHeight="1" spans="1:4">
       <c r="A1078" s="4" t="s">
-        <v>3032</v>
+        <v>3033</v>
       </c>
       <c r="B1078" s="4" t="s">
         <v>266</v>
       </c>
       <c r="C1078" s="4" t="s">
-        <v>3033</v>
+        <v>3034</v>
       </c>
       <c r="D1078" s="4"/>
     </row>
     <row r="1079" customHeight="1" spans="1:4">
       <c r="A1079" s="4" t="s">
-        <v>3034</v>
+        <v>3035</v>
       </c>
       <c r="B1079" s="4" t="s">
-        <v>3035</v>
+        <v>3036</v>
       </c>
       <c r="C1079" s="4" t="s">
-        <v>3036</v>
+        <v>3037</v>
       </c>
       <c r="D1079" s="4"/>
     </row>
     <row r="1080" customHeight="1" spans="1:4">
       <c r="A1080" s="4" t="s">
-        <v>3037</v>
+        <v>3038</v>
       </c>
       <c r="B1080" s="4" t="s">
-        <v>3038</v>
+        <v>3039</v>
       </c>
       <c r="C1080" s="4" t="s">
-        <v>3039</v>
+        <v>3040</v>
       </c>
       <c r="D1080" s="4"/>
     </row>
     <row r="1081" customHeight="1" spans="1:4">
       <c r="A1081" s="4" t="s">
-        <v>3040</v>
+        <v>3041</v>
       </c>
       <c r="B1081" s="4" t="s">
-        <v>3041</v>
+        <v>3042</v>
       </c>
       <c r="C1081" s="4" t="s">
-        <v>3042</v>
+        <v>3043</v>
       </c>
       <c r="D1081" s="4"/>
     </row>
     <row r="1082" customHeight="1" spans="1:4">
       <c r="A1082" s="4" t="s">
-        <v>3043</v>
+        <v>3044</v>
       </c>
       <c r="B1082" s="4" t="s">
-        <v>3044</v>
+        <v>3045</v>
       </c>
       <c r="C1082" s="4" t="s">
-        <v>3045</v>
+        <v>3046</v>
       </c>
       <c r="D1082" s="4"/>
     </row>
     <row r="1083" customHeight="1" spans="1:4">
       <c r="A1083" s="4" t="s">
-        <v>3046</v>
+        <v>3047</v>
       </c>
       <c r="B1083" s="4" t="s">
-        <v>3047</v>
+        <v>3048</v>
       </c>
       <c r="C1083" s="4" t="s">
-        <v>3048</v>
+        <v>3049</v>
       </c>
       <c r="D1083" s="4"/>
     </row>
     <row r="1084" customHeight="1" spans="1:4">
       <c r="A1084" s="4" t="s">
-        <v>3049</v>
+        <v>3050</v>
       </c>
       <c r="B1084" s="4" t="s">
-        <v>3050</v>
+        <v>3051</v>
       </c>
       <c r="C1084" s="4" t="s">
-        <v>3051</v>
+        <v>3052</v>
       </c>
       <c r="D1084" s="4"/>
     </row>
     <row r="1085" customHeight="1" spans="1:4">
       <c r="A1085" s="4" t="s">
-        <v>3052</v>
+        <v>3053</v>
       </c>
       <c r="B1085" s="4" t="s">
-        <v>3053</v>
+        <v>3054</v>
       </c>
       <c r="C1085" s="4" t="s">
-        <v>3054</v>
+        <v>3055</v>
       </c>
       <c r="D1085" s="4"/>
     </row>
     <row r="1086" customHeight="1" spans="1:4">
       <c r="A1086" s="4" t="s">
-        <v>3055</v>
+        <v>3056</v>
       </c>
       <c r="B1086" s="4" t="s">
         <v>266</v>
       </c>
       <c r="C1086" s="4" t="s">
-        <v>3056</v>
+        <v>3057</v>
       </c>
       <c r="D1086" s="4"/>
     </row>
     <row r="1087" customHeight="1" spans="1:4">
       <c r="A1087" s="4" t="s">
-        <v>3057</v>
+        <v>3058</v>
       </c>
       <c r="B1087" s="4" t="s">
-        <v>3058</v>
+        <v>3059</v>
       </c>
       <c r="C1087" s="4" t="s">
-        <v>3059</v>
+        <v>3060</v>
       </c>
       <c r="D1087" s="4"/>
     </row>
     <row r="1088" customHeight="1" spans="1:4">
       <c r="A1088" s="4" t="s">
-        <v>3060</v>
+        <v>3061</v>
       </c>
       <c r="B1088" s="4" t="s">
-        <v>3061</v>
+        <v>3062</v>
       </c>
       <c r="C1088" s="4" t="s">
-        <v>3062</v>
+        <v>3063</v>
       </c>
       <c r="D1088" s="4"/>
     </row>
     <row r="1089" customHeight="1" spans="1:4">
       <c r="A1089" s="4" t="s">
-        <v>3063</v>
+        <v>3064</v>
       </c>
       <c r="B1089" s="4" t="s">
         <v>266</v>
       </c>
       <c r="C1089" s="4" t="s">
-        <v>3064</v>
+        <v>3065</v>
       </c>
       <c r="D1089" s="4"/>
     </row>
     <row r="1090" customHeight="1" spans="1:4">
       <c r="A1090" s="4" t="s">
-        <v>3065</v>
+        <v>3066</v>
       </c>
       <c r="B1090" s="4" t="s">
-        <v>3066</v>
+        <v>3067</v>
       </c>
       <c r="C1090" s="4" t="s">
-        <v>3067</v>
+        <v>3068</v>
       </c>
       <c r="D1090" s="4"/>
     </row>
     <row r="1091" customHeight="1" spans="1:4">
       <c r="A1091" s="4" t="s">
-        <v>3068</v>
+        <v>3069</v>
       </c>
       <c r="B1091" s="4" t="s">
         <v>266</v>
       </c>
       <c r="C1091" s="4" t="s">
-        <v>3069</v>
+        <v>3070</v>
       </c>
       <c r="D1091" s="4"/>
     </row>
     <row r="1092" customHeight="1" spans="1:4">
       <c r="A1092" s="4" t="s">
-        <v>3070</v>
+        <v>3071</v>
       </c>
       <c r="B1092" s="4" t="s">
         <v>266</v>
       </c>
       <c r="C1092" s="4" t="s">
-        <v>3071</v>
+        <v>3072</v>
       </c>
       <c r="D1092" s="4"/>
     </row>
     <row r="1093" customHeight="1" spans="1:4">
       <c r="A1093" s="4" t="s">
-        <v>3072</v>
+        <v>3073</v>
       </c>
       <c r="B1093" s="4" t="s">
         <v>266</v>
       </c>
       <c r="C1093" s="4" t="s">
-        <v>3073</v>
+        <v>3074</v>
       </c>
       <c r="D1093" s="4"/>
     </row>
     <row r="1094" customHeight="1" spans="1:4">
       <c r="A1094" s="4" t="s">
-        <v>3074</v>
+        <v>3075</v>
       </c>
       <c r="B1094" s="4" t="s">
         <v>266</v>
       </c>
       <c r="C1094" s="4" t="s">
-        <v>3075</v>
+        <v>3076</v>
       </c>
       <c r="D1094" s="4"/>
     </row>
     <row r="1095" customHeight="1" spans="1:4">
       <c r="A1095" s="4" t="s">
-        <v>3076</v>
+        <v>3077</v>
       </c>
       <c r="B1095" s="4" t="s">
-        <v>3077</v>
+        <v>3078</v>
       </c>
       <c r="C1095" s="4" t="s">
-        <v>3078</v>
+        <v>3079</v>
       </c>
       <c r="D1095" s="4"/>
     </row>
     <row r="1096" customHeight="1" spans="1:4">
       <c r="A1096" s="4" t="s">
-        <v>3079</v>
+        <v>3080</v>
       </c>
       <c r="B1096" s="4" t="s">
-        <v>3080</v>
+        <v>3081</v>
       </c>
       <c r="C1096" s="4" t="s">
-        <v>3081</v>
+        <v>3082</v>
       </c>
       <c r="D1096" s="4"/>
     </row>
     <row r="1097" customHeight="1" spans="1:4">
       <c r="A1097" s="4" t="s">
-        <v>3082</v>
+        <v>3083</v>
       </c>
       <c r="B1097" s="4" t="s">
-        <v>3083</v>
+        <v>3084</v>
       </c>
       <c r="C1097" s="4" t="s">
-        <v>3084</v>
+        <v>3085</v>
       </c>
       <c r="D1097" s="4"/>
     </row>
     <row r="1098" customHeight="1" spans="1:4">
       <c r="A1098" s="4" t="s">
-        <v>3085</v>
+        <v>3086</v>
       </c>
       <c r="B1098" s="4" t="s">
         <v>266</v>
       </c>
       <c r="C1098" s="4" t="s">
-        <v>3086</v>
+        <v>3087</v>
       </c>
       <c r="D1098" s="4"/>
     </row>
     <row r="1099" customHeight="1" spans="1:4">
       <c r="A1099" s="4" t="s">
-        <v>3087</v>
+        <v>3088</v>
       </c>
       <c r="B1099" s="4" t="s">
-        <v>3088</v>
+        <v>3089</v>
       </c>
       <c r="C1099" s="4" t="s">
-        <v>3089</v>
+        <v>3090</v>
       </c>
       <c r="D1099" s="4"/>
     </row>
     <row r="1100" customHeight="1" spans="1:4">
       <c r="A1100" s="4" t="s">
-        <v>3090</v>
+        <v>3091</v>
       </c>
       <c r="B1100" s="4" t="s">
         <v>266</v>
       </c>
       <c r="C1100" s="4" t="s">
-        <v>3091</v>
+        <v>3092</v>
       </c>
       <c r="D1100" s="4"/>
     </row>
     <row r="1101" customHeight="1" spans="1:4">
       <c r="A1101" s="4" t="s">
-        <v>3092</v>
+        <v>3093</v>
       </c>
       <c r="B1101" s="4" t="s">
-        <v>3093</v>
+        <v>3094</v>
       </c>
       <c r="C1101" s="4" t="s">
-        <v>3094</v>
+        <v>3095</v>
       </c>
       <c r="D1101" s="4"/>
     </row>
     <row r="1102" customHeight="1" spans="1:4">
       <c r="A1102" s="4" t="s">
-        <v>3095</v>
+        <v>3096</v>
       </c>
       <c r="B1102" s="4" t="s">
-        <v>3096</v>
+        <v>3097</v>
       </c>
       <c r="C1102" s="4" t="s">
-        <v>3097</v>
+        <v>3098</v>
       </c>
       <c r="D1102" s="4"/>
     </row>
     <row r="1103" customHeight="1" spans="1:4">
       <c r="A1103" s="4" t="s">
-        <v>3098</v>
+        <v>3099</v>
       </c>
       <c r="B1103" s="4" t="s">
-        <v>3099</v>
+        <v>3100</v>
       </c>
       <c r="C1103" s="4" t="s">
-        <v>3100</v>
+        <v>3101</v>
       </c>
       <c r="D1103" s="4"/>
     </row>
     <row r="1104" customHeight="1" spans="1:4">
       <c r="A1104" s="4" t="s">
-        <v>3101</v>
+        <v>3102</v>
       </c>
       <c r="B1104" s="4" t="s">
-        <v>3102</v>
+        <v>3103</v>
       </c>
       <c r="C1104" s="4" t="s">
-        <v>3103</v>
+        <v>3104</v>
       </c>
       <c r="D1104" s="4"/>
     </row>
     <row r="1105" customHeight="1" spans="1:4">
       <c r="A1105" s="4" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="B1105" s="4" t="s">
-        <v>3105</v>
+        <v>3106</v>
       </c>
       <c r="C1105" s="4" t="s">
-        <v>3106</v>
+        <v>3107</v>
       </c>
       <c r="D1105" s="4"/>
     </row>
     <row r="1106" customHeight="1" spans="1:4">
       <c r="A1106" s="4" t="s">
-        <v>3107</v>
+        <v>3108</v>
       </c>
       <c r="B1106" s="4" t="s">
         <v>266</v>
       </c>
       <c r="C1106" s="4" t="s">
-        <v>3108</v>
+        <v>3109</v>
       </c>
       <c r="D1106" s="4"/>
     </row>
     <row r="1107" customHeight="1" spans="1:4">
       <c r="A1107" s="4" t="s">
-        <v>3109</v>
+        <v>3110</v>
       </c>
       <c r="B1107" s="4" t="s">
-        <v>3110</v>
+        <v>3111</v>
       </c>
       <c r="C1107" s="4" t="s">
         <v>266</v>
@@ -42495,190 +43276,190 @@
     </row>
     <row r="1108" customHeight="1" spans="1:4">
       <c r="A1108" s="4" t="s">
-        <v>3111</v>
+        <v>3112</v>
       </c>
       <c r="B1108" s="4" t="s">
-        <v>3112</v>
+        <v>3113</v>
       </c>
       <c r="C1108" s="4" t="s">
-        <v>3113</v>
+        <v>3114</v>
       </c>
       <c r="D1108" s="4"/>
     </row>
     <row r="1109" customHeight="1" spans="1:4">
       <c r="A1109" s="4" t="s">
-        <v>3114</v>
+        <v>3115</v>
       </c>
       <c r="B1109" s="4" t="s">
-        <v>3115</v>
+        <v>3116</v>
       </c>
       <c r="C1109" s="4" t="s">
-        <v>3116</v>
+        <v>3117</v>
       </c>
       <c r="D1109" s="4"/>
     </row>
     <row r="1110" customHeight="1" spans="1:4">
       <c r="A1110" s="4" t="s">
-        <v>3117</v>
+        <v>3118</v>
       </c>
       <c r="B1110" s="4" t="s">
-        <v>3118</v>
+        <v>3119</v>
       </c>
       <c r="C1110" s="4" t="s">
-        <v>3119</v>
+        <v>3120</v>
       </c>
       <c r="D1110" s="4"/>
     </row>
     <row r="1111" customHeight="1" spans="1:4">
       <c r="A1111" s="4" t="s">
-        <v>3120</v>
+        <v>3121</v>
       </c>
       <c r="B1111" s="4" t="s">
-        <v>3121</v>
+        <v>3122</v>
       </c>
       <c r="C1111" s="4" t="s">
-        <v>3122</v>
+        <v>3123</v>
       </c>
       <c r="D1111" s="4"/>
     </row>
     <row r="1112" customHeight="1" spans="1:4">
       <c r="A1112" s="4" t="s">
-        <v>3123</v>
+        <v>3124</v>
       </c>
       <c r="B1112" s="4" t="s">
-        <v>3124</v>
+        <v>3125</v>
       </c>
       <c r="C1112" s="4" t="s">
-        <v>3125</v>
+        <v>3126</v>
       </c>
       <c r="D1112" s="4"/>
     </row>
     <row r="1113" customHeight="1" spans="1:4">
       <c r="A1113" s="4" t="s">
-        <v>3126</v>
+        <v>3127</v>
       </c>
       <c r="B1113" s="4" t="s">
-        <v>3127</v>
+        <v>3128</v>
       </c>
       <c r="C1113" s="4" t="s">
-        <v>3128</v>
+        <v>3129</v>
       </c>
       <c r="D1113" s="4"/>
     </row>
     <row r="1114" customHeight="1" spans="1:4">
       <c r="A1114" s="4" t="s">
-        <v>3129</v>
+        <v>3130</v>
       </c>
       <c r="B1114" s="4" t="s">
-        <v>3130</v>
+        <v>3131</v>
       </c>
       <c r="C1114" s="4" t="s">
-        <v>3131</v>
+        <v>3132</v>
       </c>
       <c r="D1114" s="4"/>
     </row>
     <row r="1115" customHeight="1" spans="1:4">
       <c r="A1115" s="4" t="s">
-        <v>3132</v>
+        <v>3133</v>
       </c>
       <c r="B1115" s="4" t="s">
-        <v>3133</v>
+        <v>3134</v>
       </c>
       <c r="C1115" s="4" t="s">
-        <v>3134</v>
+        <v>3135</v>
       </c>
       <c r="D1115" s="4"/>
     </row>
     <row r="1116" customHeight="1" spans="1:4">
       <c r="A1116" s="4" t="s">
-        <v>3135</v>
+        <v>3136</v>
       </c>
       <c r="B1116" s="4" t="s">
-        <v>3136</v>
+        <v>3137</v>
       </c>
       <c r="C1116" s="4" t="s">
-        <v>3137</v>
+        <v>3138</v>
       </c>
       <c r="D1116" s="4"/>
     </row>
     <row r="1117" customHeight="1" spans="1:4">
       <c r="A1117" s="4" t="s">
-        <v>3138</v>
+        <v>3139</v>
       </c>
       <c r="B1117" s="4" t="s">
-        <v>3139</v>
+        <v>3140</v>
       </c>
       <c r="C1117" s="4" t="s">
-        <v>3140</v>
+        <v>3141</v>
       </c>
       <c r="D1117" s="4"/>
     </row>
     <row r="1118" customHeight="1" spans="1:4">
       <c r="A1118" s="4" t="s">
-        <v>3141</v>
+        <v>3142</v>
       </c>
       <c r="B1118" s="4" t="s">
-        <v>3142</v>
+        <v>3143</v>
       </c>
       <c r="C1118" s="4" t="s">
-        <v>3143</v>
+        <v>3144</v>
       </c>
       <c r="D1118" s="4"/>
     </row>
     <row r="1119" customHeight="1" spans="1:4">
       <c r="A1119" s="4" t="s">
-        <v>3144</v>
+        <v>3145</v>
       </c>
       <c r="B1119" s="4" t="s">
-        <v>3145</v>
+        <v>3146</v>
       </c>
       <c r="C1119" s="4" t="s">
-        <v>3146</v>
+        <v>3147</v>
       </c>
       <c r="D1119" s="4"/>
     </row>
     <row r="1120" customHeight="1" spans="1:4">
       <c r="A1120" s="4" t="s">
-        <v>3147</v>
+        <v>3148</v>
       </c>
       <c r="B1120" s="4" t="s">
-        <v>3148</v>
+        <v>3149</v>
       </c>
       <c r="C1120" s="4" t="s">
-        <v>3149</v>
+        <v>3150</v>
       </c>
       <c r="D1120" s="4"/>
     </row>
     <row r="1121" customHeight="1" spans="1:4">
       <c r="A1121" s="4" t="s">
-        <v>3150</v>
+        <v>3151</v>
       </c>
       <c r="B1121" s="4" t="s">
-        <v>3151</v>
+        <v>3152</v>
       </c>
       <c r="C1121" s="4" t="s">
-        <v>3152</v>
+        <v>3153</v>
       </c>
       <c r="D1121" s="4"/>
     </row>
     <row r="1122" customHeight="1" spans="1:4">
       <c r="A1122" s="4" t="s">
-        <v>3153</v>
+        <v>3154</v>
       </c>
       <c r="B1122" s="4" t="s">
         <v>266</v>
       </c>
       <c r="C1122" s="4" t="s">
-        <v>3154</v>
+        <v>3155</v>
       </c>
       <c r="D1122" s="4"/>
     </row>
     <row r="1123" customHeight="1" spans="1:4">
       <c r="A1123" s="4" t="s">
-        <v>3155</v>
+        <v>3156</v>
       </c>
       <c r="B1123" s="4" t="s">
-        <v>3156</v>
+        <v>3157</v>
       </c>
       <c r="C1123" s="4" t="s">
         <v>266</v>
@@ -42687,46 +43468,46 @@
     </row>
     <row r="1124" customHeight="1" spans="1:4">
       <c r="A1124" s="4" t="s">
-        <v>3157</v>
+        <v>3158</v>
       </c>
       <c r="B1124" s="4" t="s">
         <v>266</v>
       </c>
       <c r="C1124" s="4" t="s">
-        <v>3158</v>
+        <v>3159</v>
       </c>
       <c r="D1124" s="4"/>
     </row>
     <row r="1125" customHeight="1" spans="1:4">
       <c r="A1125" s="4" t="s">
-        <v>3159</v>
+        <v>3160</v>
       </c>
       <c r="B1125" s="4" t="s">
-        <v>3160</v>
+        <v>3161</v>
       </c>
       <c r="C1125" s="4" t="s">
-        <v>3161</v>
+        <v>3162</v>
       </c>
       <c r="D1125" s="4"/>
     </row>
     <row r="1126" customHeight="1" spans="1:4">
       <c r="A1126" s="4" t="s">
-        <v>3162</v>
+        <v>3163</v>
       </c>
       <c r="B1126" s="4" t="s">
-        <v>3163</v>
+        <v>3164</v>
       </c>
       <c r="C1126" s="4" t="s">
-        <v>3164</v>
+        <v>3165</v>
       </c>
       <c r="D1126" s="4"/>
     </row>
     <row r="1127" customHeight="1" spans="1:4">
       <c r="A1127" s="4" t="s">
-        <v>3165</v>
+        <v>3166</v>
       </c>
       <c r="B1127" s="4" t="s">
-        <v>3166</v>
+        <v>3167</v>
       </c>
       <c r="C1127" s="4" t="s">
         <v>266</v>
@@ -42735,454 +43516,454 @@
     </row>
     <row r="1128" customHeight="1" spans="1:4">
       <c r="A1128" s="4" t="s">
-        <v>3167</v>
+        <v>3168</v>
       </c>
       <c r="B1128" s="4" t="s">
         <v>266</v>
       </c>
       <c r="C1128" s="4" t="s">
-        <v>3168</v>
+        <v>3169</v>
       </c>
       <c r="D1128" s="4"/>
     </row>
     <row r="1129" customHeight="1" spans="1:4">
       <c r="A1129" s="4" t="s">
-        <v>3169</v>
+        <v>3170</v>
       </c>
       <c r="B1129" s="4" t="s">
         <v>266</v>
       </c>
       <c r="C1129" s="4" t="s">
-        <v>3170</v>
+        <v>3171</v>
       </c>
       <c r="D1129" s="4"/>
     </row>
     <row r="1130" customHeight="1" spans="1:4">
       <c r="A1130" s="4" t="s">
-        <v>3171</v>
+        <v>3172</v>
       </c>
       <c r="B1130" s="4" t="s">
-        <v>3172</v>
+        <v>3173</v>
       </c>
       <c r="C1130" s="4" t="s">
-        <v>3173</v>
+        <v>3174</v>
       </c>
       <c r="D1130" s="4"/>
     </row>
     <row r="1131" customHeight="1" spans="1:4">
       <c r="A1131" s="4" t="s">
-        <v>3174</v>
+        <v>3175</v>
       </c>
       <c r="B1131" s="4" t="s">
-        <v>3175</v>
+        <v>3176</v>
       </c>
       <c r="C1131" s="4" t="s">
-        <v>3176</v>
+        <v>3177</v>
       </c>
       <c r="D1131" s="4"/>
     </row>
     <row r="1132" customHeight="1" spans="1:4">
       <c r="A1132" s="4" t="s">
-        <v>3177</v>
+        <v>3178</v>
       </c>
       <c r="B1132" s="4" t="s">
-        <v>3178</v>
+        <v>3179</v>
       </c>
       <c r="C1132" s="4" t="s">
-        <v>3179</v>
+        <v>3180</v>
       </c>
       <c r="D1132" s="4"/>
     </row>
     <row r="1133" customHeight="1" spans="1:4">
       <c r="A1133" s="4" t="s">
-        <v>3180</v>
+        <v>3181</v>
       </c>
       <c r="B1133" s="4" t="s">
-        <v>3181</v>
+        <v>3182</v>
       </c>
       <c r="C1133" s="4" t="s">
-        <v>3182</v>
+        <v>3183</v>
       </c>
       <c r="D1133" s="4"/>
     </row>
     <row r="1134" customHeight="1" spans="1:4">
       <c r="A1134" s="4" t="s">
-        <v>3183</v>
+        <v>3184</v>
       </c>
       <c r="B1134" s="4" t="s">
-        <v>3184</v>
+        <v>3185</v>
       </c>
       <c r="C1134" s="4" t="s">
-        <v>3185</v>
+        <v>3186</v>
       </c>
       <c r="D1134" s="4"/>
     </row>
     <row r="1135" customHeight="1" spans="1:4">
       <c r="A1135" s="4" t="s">
-        <v>3186</v>
+        <v>3187</v>
       </c>
       <c r="B1135" s="4" t="s">
-        <v>3187</v>
+        <v>3188</v>
       </c>
       <c r="C1135" s="4" t="s">
-        <v>3188</v>
+        <v>3189</v>
       </c>
       <c r="D1135" s="4"/>
     </row>
     <row r="1136" customHeight="1" spans="1:4">
       <c r="A1136" s="4" t="s">
-        <v>3189</v>
+        <v>3190</v>
       </c>
       <c r="B1136" s="4" t="s">
-        <v>3190</v>
+        <v>3191</v>
       </c>
       <c r="C1136" s="4" t="s">
-        <v>3191</v>
+        <v>3192</v>
       </c>
       <c r="D1136" s="4"/>
     </row>
     <row r="1137" customHeight="1" spans="1:4">
       <c r="A1137" s="4" t="s">
-        <v>3192</v>
+        <v>3193</v>
       </c>
       <c r="B1137" s="4" t="s">
-        <v>3193</v>
+        <v>3194</v>
       </c>
       <c r="C1137" s="4" t="s">
-        <v>3194</v>
+        <v>3195</v>
       </c>
       <c r="D1137" s="4"/>
     </row>
     <row r="1138" customHeight="1" spans="1:4">
       <c r="A1138" s="4" t="s">
-        <v>3195</v>
+        <v>3196</v>
       </c>
       <c r="B1138" s="4" t="s">
-        <v>3196</v>
+        <v>3197</v>
       </c>
       <c r="C1138" s="4" t="s">
-        <v>3197</v>
+        <v>3198</v>
       </c>
       <c r="D1138" s="4"/>
     </row>
     <row r="1139" customHeight="1" spans="1:4">
       <c r="A1139" s="4" t="s">
-        <v>3198</v>
+        <v>3199</v>
       </c>
       <c r="B1139" s="4" t="s">
-        <v>3199</v>
+        <v>3200</v>
       </c>
       <c r="C1139" s="4" t="s">
-        <v>3200</v>
+        <v>3201</v>
       </c>
       <c r="D1139" s="4"/>
     </row>
     <row r="1140" customHeight="1" spans="1:4">
       <c r="A1140" s="4" t="s">
-        <v>3201</v>
+        <v>3202</v>
       </c>
       <c r="B1140" s="4" t="s">
-        <v>3202</v>
+        <v>3203</v>
       </c>
       <c r="C1140" s="4" t="s">
-        <v>3203</v>
+        <v>3204</v>
       </c>
       <c r="D1140" s="4"/>
     </row>
     <row r="1141" customHeight="1" spans="1:4">
       <c r="A1141" s="4" t="s">
-        <v>3204</v>
+        <v>3205</v>
       </c>
       <c r="B1141" s="4" t="s">
-        <v>3205</v>
+        <v>3206</v>
       </c>
       <c r="C1141" s="4" t="s">
-        <v>3206</v>
+        <v>3207</v>
       </c>
       <c r="D1141" s="4"/>
     </row>
     <row r="1142" customHeight="1" spans="1:4">
       <c r="A1142" s="4" t="s">
-        <v>3207</v>
+        <v>3208</v>
       </c>
       <c r="B1142" s="4" t="s">
-        <v>3208</v>
+        <v>3209</v>
       </c>
       <c r="C1142" s="4" t="s">
-        <v>3209</v>
+        <v>3210</v>
       </c>
       <c r="D1142" s="4"/>
     </row>
     <row r="1143" customHeight="1" spans="1:4">
       <c r="A1143" s="4" t="s">
-        <v>3210</v>
+        <v>3211</v>
       </c>
       <c r="B1143" s="4" t="s">
         <v>266</v>
       </c>
       <c r="C1143" s="4" t="s">
-        <v>3211</v>
+        <v>3212</v>
       </c>
       <c r="D1143" s="4"/>
     </row>
     <row r="1144" customHeight="1" spans="1:4">
       <c r="A1144" s="4" t="s">
-        <v>3212</v>
+        <v>3213</v>
       </c>
       <c r="B1144" s="4" t="s">
-        <v>3213</v>
+        <v>3214</v>
       </c>
       <c r="C1144" s="4" t="s">
-        <v>3214</v>
+        <v>3215</v>
       </c>
       <c r="D1144" s="4"/>
     </row>
     <row r="1145" customHeight="1" spans="1:4">
       <c r="A1145" s="4" t="s">
-        <v>3215</v>
+        <v>3216</v>
       </c>
       <c r="B1145" s="4" t="s">
-        <v>3216</v>
+        <v>3217</v>
       </c>
       <c r="C1145" s="4" t="s">
-        <v>3217</v>
+        <v>3218</v>
       </c>
       <c r="D1145" s="4"/>
     </row>
     <row r="1146" customHeight="1" spans="1:4">
       <c r="A1146" s="4" t="s">
-        <v>3218</v>
+        <v>3219</v>
       </c>
       <c r="B1146" s="4" t="s">
-        <v>3219</v>
+        <v>3220</v>
       </c>
       <c r="C1146" s="4" t="s">
-        <v>3220</v>
+        <v>3221</v>
       </c>
       <c r="D1146" s="4"/>
     </row>
     <row r="1147" customHeight="1" spans="1:4">
       <c r="A1147" s="4" t="s">
-        <v>3221</v>
+        <v>3222</v>
       </c>
       <c r="B1147" s="4" t="s">
-        <v>3222</v>
+        <v>3223</v>
       </c>
       <c r="C1147" s="4" t="s">
-        <v>3223</v>
+        <v>3224</v>
       </c>
       <c r="D1147" s="4"/>
     </row>
     <row r="1148" customHeight="1" spans="1:4">
       <c r="A1148" s="4" t="s">
-        <v>3224</v>
+        <v>3225</v>
       </c>
       <c r="B1148" s="4" t="s">
-        <v>3225</v>
+        <v>3226</v>
       </c>
       <c r="C1148" s="4" t="s">
-        <v>3226</v>
+        <v>3227</v>
       </c>
       <c r="D1148" s="4"/>
     </row>
     <row r="1149" customHeight="1" spans="1:4">
       <c r="A1149" s="4" t="s">
-        <v>3227</v>
+        <v>3228</v>
       </c>
       <c r="B1149" s="4" t="s">
-        <v>3228</v>
+        <v>3229</v>
       </c>
       <c r="C1149" s="4" t="s">
-        <v>3229</v>
+        <v>3230</v>
       </c>
       <c r="D1149" s="4"/>
     </row>
     <row r="1150" customHeight="1" spans="1:4">
       <c r="A1150" s="4" t="s">
-        <v>3230</v>
+        <v>3231</v>
       </c>
       <c r="B1150" s="4" t="s">
-        <v>3231</v>
+        <v>3232</v>
       </c>
       <c r="C1150" s="4" t="s">
-        <v>3232</v>
+        <v>3233</v>
       </c>
       <c r="D1150" s="4"/>
     </row>
     <row r="1151" customHeight="1" spans="1:4">
       <c r="A1151" s="4" t="s">
-        <v>3233</v>
+        <v>3234</v>
       </c>
       <c r="B1151" s="4" t="s">
-        <v>3234</v>
+        <v>3235</v>
       </c>
       <c r="C1151" s="4" t="s">
-        <v>3235</v>
+        <v>3236</v>
       </c>
       <c r="D1151" s="4"/>
     </row>
     <row r="1152" customHeight="1" spans="1:4">
       <c r="A1152" s="4" t="s">
-        <v>3236</v>
+        <v>3237</v>
       </c>
       <c r="B1152" s="4" t="s">
-        <v>3237</v>
+        <v>3238</v>
       </c>
       <c r="C1152" s="4" t="s">
-        <v>3238</v>
+        <v>3239</v>
       </c>
       <c r="D1152" s="4"/>
     </row>
     <row r="1153" customHeight="1" spans="1:4">
       <c r="A1153" s="4" t="s">
-        <v>3239</v>
+        <v>3240</v>
       </c>
       <c r="B1153" s="4" t="s">
-        <v>3240</v>
+        <v>3241</v>
       </c>
       <c r="C1153" s="4" t="s">
-        <v>3241</v>
+        <v>3242</v>
       </c>
       <c r="D1153" s="4"/>
     </row>
     <row r="1154" customHeight="1" spans="1:4">
       <c r="A1154" s="4" t="s">
-        <v>3242</v>
+        <v>3243</v>
       </c>
       <c r="B1154" s="4" t="s">
-        <v>3243</v>
+        <v>3244</v>
       </c>
       <c r="C1154" s="4" t="s">
-        <v>3244</v>
+        <v>3245</v>
       </c>
       <c r="D1154" s="4"/>
     </row>
     <row r="1155" customHeight="1" spans="1:4">
       <c r="A1155" s="4" t="s">
-        <v>3245</v>
+        <v>3246</v>
       </c>
       <c r="B1155" s="4" t="s">
-        <v>3246</v>
+        <v>3247</v>
       </c>
       <c r="C1155" s="4" t="s">
-        <v>3247</v>
+        <v>3248</v>
       </c>
       <c r="D1155" s="4"/>
     </row>
     <row r="1156" customHeight="1" spans="1:4">
       <c r="A1156" s="4" t="s">
-        <v>3248</v>
+        <v>3249</v>
       </c>
       <c r="B1156" s="4" t="s">
-        <v>3249</v>
+        <v>3250</v>
       </c>
       <c r="C1156" s="4" t="s">
-        <v>3250</v>
+        <v>3251</v>
       </c>
       <c r="D1156" s="4"/>
     </row>
     <row r="1157" customHeight="1" spans="1:4">
       <c r="A1157" s="4" t="s">
-        <v>3251</v>
+        <v>3252</v>
       </c>
       <c r="B1157" s="4" t="s">
-        <v>3252</v>
+        <v>3253</v>
       </c>
       <c r="C1157" s="4" t="s">
-        <v>3253</v>
+        <v>3254</v>
       </c>
       <c r="D1157" s="4"/>
     </row>
     <row r="1158" customHeight="1" spans="1:4">
       <c r="A1158" s="4" t="s">
-        <v>3254</v>
+        <v>3255</v>
       </c>
       <c r="B1158" s="4" t="s">
-        <v>3255</v>
+        <v>3256</v>
       </c>
       <c r="C1158" s="4" t="s">
-        <v>3256</v>
+        <v>3257</v>
       </c>
       <c r="D1158" s="4"/>
     </row>
     <row r="1159" customHeight="1" spans="1:4">
       <c r="A1159" s="4" t="s">
-        <v>3257</v>
+        <v>3258</v>
       </c>
       <c r="B1159" s="4" t="s">
-        <v>3258</v>
+        <v>3259</v>
       </c>
       <c r="C1159" s="4" t="s">
-        <v>3259</v>
+        <v>3260</v>
       </c>
       <c r="D1159" s="4"/>
     </row>
     <row r="1160" customHeight="1" spans="1:4">
       <c r="A1160" s="4" t="s">
-        <v>3260</v>
+        <v>3261</v>
       </c>
       <c r="B1160" s="4" t="s">
-        <v>3261</v>
+        <v>3262</v>
       </c>
       <c r="C1160" s="4" t="s">
-        <v>3262</v>
+        <v>3263</v>
       </c>
       <c r="D1160" s="4"/>
     </row>
     <row r="1161" customHeight="1" spans="1:4">
       <c r="A1161" s="4" t="s">
-        <v>3263</v>
+        <v>3264</v>
       </c>
       <c r="B1161" s="4" t="s">
-        <v>3264</v>
+        <v>3265</v>
       </c>
       <c r="C1161" s="4" t="s">
-        <v>3265</v>
+        <v>3266</v>
       </c>
       <c r="D1161" s="4"/>
     </row>
     <row r="1162" customHeight="1" spans="1:4">
       <c r="A1162" s="4" t="s">
-        <v>3266</v>
+        <v>3267</v>
       </c>
       <c r="B1162" s="4" t="s">
-        <v>3267</v>
+        <v>3268</v>
       </c>
       <c r="C1162" s="4" t="s">
-        <v>3268</v>
+        <v>3269</v>
       </c>
       <c r="D1162" s="4"/>
     </row>
     <row r="1163" customHeight="1" spans="1:4">
       <c r="A1163" s="4" t="s">
-        <v>3269</v>
+        <v>3270</v>
       </c>
       <c r="B1163" s="4" t="s">
-        <v>3270</v>
+        <v>3271</v>
       </c>
       <c r="C1163" s="4" t="s">
-        <v>3271</v>
+        <v>3272</v>
       </c>
       <c r="D1163" s="4"/>
     </row>
     <row r="1164" customHeight="1" spans="1:4">
       <c r="A1164" s="4" t="s">
-        <v>3272</v>
+        <v>3273</v>
       </c>
       <c r="B1164" s="4" t="s">
-        <v>3273</v>
+        <v>3274</v>
       </c>
       <c r="C1164" s="4" t="s">
-        <v>3274</v>
+        <v>3275</v>
       </c>
       <c r="D1164" s="4"/>
     </row>
     <row r="1165" customHeight="1" spans="1:4">
       <c r="A1165" s="4" t="s">
-        <v>3275</v>
+        <v>3276</v>
       </c>
       <c r="B1165" s="4" t="s">
-        <v>3276</v>
+        <v>3277</v>
       </c>
       <c r="C1165" s="4" t="s">
         <v>266</v>
@@ -43191,118 +43972,118 @@
     </row>
     <row r="1166" customHeight="1" spans="1:4">
       <c r="A1166" s="4" t="s">
-        <v>3277</v>
+        <v>3278</v>
       </c>
       <c r="B1166" s="4" t="s">
         <v>266</v>
       </c>
       <c r="C1166" s="4" t="s">
-        <v>3278</v>
+        <v>3279</v>
       </c>
       <c r="D1166" s="4"/>
     </row>
     <row r="1167" customHeight="1" spans="1:4">
       <c r="A1167" s="4" t="s">
-        <v>3279</v>
+        <v>3280</v>
       </c>
       <c r="B1167" s="4" t="s">
-        <v>3280</v>
+        <v>3281</v>
       </c>
       <c r="C1167" s="4" t="s">
-        <v>3281</v>
+        <v>3282</v>
       </c>
       <c r="D1167" s="4"/>
     </row>
     <row r="1168" customHeight="1" spans="1:4">
       <c r="A1168" s="4" t="s">
-        <v>3282</v>
+        <v>3283</v>
       </c>
       <c r="B1168" s="4" t="s">
         <v>266</v>
       </c>
       <c r="C1168" s="4" t="s">
-        <v>3283</v>
+        <v>3284</v>
       </c>
       <c r="D1168" s="4"/>
     </row>
     <row r="1169" customHeight="1" spans="1:4">
       <c r="A1169" s="4" t="s">
-        <v>3284</v>
+        <v>3285</v>
       </c>
       <c r="B1169" s="4" t="s">
-        <v>3285</v>
+        <v>3286</v>
       </c>
       <c r="C1169" s="4" t="s">
-        <v>3286</v>
+        <v>3287</v>
       </c>
       <c r="D1169" s="4"/>
     </row>
     <row r="1170" customHeight="1" spans="1:4">
       <c r="A1170" s="4" t="s">
-        <v>3287</v>
+        <v>3288</v>
       </c>
       <c r="B1170" s="4" t="s">
-        <v>3288</v>
+        <v>3289</v>
       </c>
       <c r="C1170" s="4" t="s">
-        <v>3289</v>
+        <v>3290</v>
       </c>
       <c r="D1170" s="4"/>
     </row>
     <row r="1171" customHeight="1" spans="1:4">
       <c r="A1171" s="4" t="s">
-        <v>3290</v>
+        <v>3291</v>
       </c>
       <c r="B1171" s="4" t="s">
-        <v>3291</v>
+        <v>3292</v>
       </c>
       <c r="C1171" s="4" t="s">
-        <v>3292</v>
+        <v>3293</v>
       </c>
       <c r="D1171" s="4"/>
     </row>
     <row r="1172" customHeight="1" spans="1:4">
       <c r="A1172" s="4" t="s">
-        <v>3293</v>
+        <v>3294</v>
       </c>
       <c r="B1172" s="4" t="s">
-        <v>3294</v>
+        <v>3295</v>
       </c>
       <c r="C1172" s="4" t="s">
-        <v>3295</v>
+        <v>3296</v>
       </c>
       <c r="D1172" s="4"/>
     </row>
     <row r="1173" customHeight="1" spans="1:4">
       <c r="A1173" s="4" t="s">
-        <v>3296</v>
+        <v>3297</v>
       </c>
       <c r="B1173" s="4" t="s">
-        <v>3297</v>
+        <v>3298</v>
       </c>
       <c r="C1173" s="4" t="s">
-        <v>3298</v>
+        <v>3299</v>
       </c>
       <c r="D1173" s="4"/>
     </row>
     <row r="1174" customHeight="1" spans="1:4">
       <c r="A1174" s="4" t="s">
-        <v>3299</v>
+        <v>3300</v>
       </c>
       <c r="B1174" s="4" t="s">
         <v>266</v>
       </c>
       <c r="C1174" s="4" t="s">
-        <v>3300</v>
+        <v>3301</v>
       </c>
       <c r="D1174" s="4"/>
     </row>
     <row r="1175" customHeight="1" spans="1:4">
       <c r="A1175" s="4" t="s">
-        <v>3301</v>
+        <v>3302</v>
       </c>
       <c r="B1175" s="4" t="s">
-        <v>3302</v>
+        <v>3303</v>
       </c>
       <c r="C1175" s="4" t="s">
         <v>266</v>
@@ -43311,154 +44092,154 @@
     </row>
     <row r="1176" customHeight="1" spans="1:4">
       <c r="A1176" s="4" t="s">
-        <v>3303</v>
+        <v>3304</v>
       </c>
       <c r="B1176" s="4" t="s">
-        <v>3304</v>
+        <v>3305</v>
       </c>
       <c r="C1176" s="4" t="s">
-        <v>3305</v>
+        <v>3306</v>
       </c>
       <c r="D1176" s="4"/>
     </row>
     <row r="1177" customHeight="1" spans="1:4">
       <c r="A1177" s="4" t="s">
-        <v>3306</v>
+        <v>3307</v>
       </c>
       <c r="B1177" s="4" t="s">
-        <v>3307</v>
+        <v>3308</v>
       </c>
       <c r="C1177" s="4" t="s">
-        <v>3308</v>
+        <v>3309</v>
       </c>
       <c r="D1177" s="4"/>
     </row>
     <row r="1178" customHeight="1" spans="1:4">
       <c r="A1178" s="4" t="s">
-        <v>3309</v>
+        <v>3310</v>
       </c>
       <c r="B1178" s="4" t="s">
-        <v>3310</v>
+        <v>3311</v>
       </c>
       <c r="C1178" s="4" t="s">
-        <v>3311</v>
+        <v>3312</v>
       </c>
       <c r="D1178" s="4"/>
     </row>
     <row r="1179" customHeight="1" spans="1:4">
       <c r="A1179" s="4" t="s">
-        <v>3312</v>
+        <v>3313</v>
       </c>
       <c r="B1179" s="4" t="s">
-        <v>3313</v>
+        <v>3314</v>
       </c>
       <c r="C1179" s="4" t="s">
-        <v>3314</v>
+        <v>3315</v>
       </c>
       <c r="D1179" s="4"/>
     </row>
     <row r="1180" customHeight="1" spans="1:4">
       <c r="A1180" s="4" t="s">
-        <v>3315</v>
+        <v>3316</v>
       </c>
       <c r="B1180" s="4" t="s">
-        <v>3316</v>
+        <v>3317</v>
       </c>
       <c r="C1180" s="4" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
       <c r="D1180" s="4"/>
     </row>
     <row r="1181" customHeight="1" spans="1:4">
       <c r="A1181" s="4" t="s">
-        <v>3318</v>
+        <v>3319</v>
       </c>
       <c r="B1181" s="4" t="s">
-        <v>3319</v>
+        <v>3320</v>
       </c>
       <c r="C1181" s="4" t="s">
-        <v>3320</v>
+        <v>3321</v>
       </c>
       <c r="D1181" s="4"/>
     </row>
     <row r="1182" customHeight="1" spans="1:4">
       <c r="A1182" s="4" t="s">
-        <v>3321</v>
+        <v>3322</v>
       </c>
       <c r="B1182" s="4" t="s">
-        <v>3322</v>
+        <v>3323</v>
       </c>
       <c r="C1182" s="4" t="s">
-        <v>3323</v>
+        <v>3324</v>
       </c>
       <c r="D1182" s="4"/>
     </row>
     <row r="1183" customHeight="1" spans="1:4">
       <c r="A1183" s="4" t="s">
-        <v>3324</v>
+        <v>3325</v>
       </c>
       <c r="B1183" s="4" t="s">
-        <v>3325</v>
+        <v>3326</v>
       </c>
       <c r="C1183" s="4" t="s">
-        <v>3326</v>
+        <v>3327</v>
       </c>
       <c r="D1183" s="4"/>
     </row>
     <row r="1184" customHeight="1" spans="1:4">
       <c r="A1184" s="4" t="s">
-        <v>3327</v>
+        <v>3328</v>
       </c>
       <c r="B1184" s="4" t="s">
-        <v>3328</v>
+        <v>3329</v>
       </c>
       <c r="C1184" s="4" t="s">
-        <v>3329</v>
+        <v>3330</v>
       </c>
       <c r="D1184" s="4"/>
     </row>
     <row r="1185" customHeight="1" spans="1:4">
       <c r="A1185" s="4" t="s">
-        <v>3330</v>
+        <v>3331</v>
       </c>
       <c r="B1185" s="4" t="s">
-        <v>3331</v>
+        <v>3332</v>
       </c>
       <c r="C1185" s="4" t="s">
-        <v>3332</v>
+        <v>3333</v>
       </c>
       <c r="D1185" s="4"/>
     </row>
     <row r="1186" customHeight="1" spans="1:4">
       <c r="A1186" s="4" t="s">
-        <v>3333</v>
+        <v>3334</v>
       </c>
       <c r="B1186" s="4" t="s">
-        <v>3334</v>
+        <v>3335</v>
       </c>
       <c r="C1186" s="4" t="s">
-        <v>3335</v>
+        <v>3336</v>
       </c>
       <c r="D1186" s="4"/>
     </row>
     <row r="1187" customHeight="1" spans="1:4">
       <c r="A1187" s="4" t="s">
-        <v>3336</v>
+        <v>3337</v>
       </c>
       <c r="B1187" s="4" t="s">
-        <v>3337</v>
+        <v>3338</v>
       </c>
       <c r="C1187" s="4" t="s">
-        <v>3338</v>
+        <v>3339</v>
       </c>
       <c r="D1187" s="4"/>
     </row>
     <row r="1188" customHeight="1" spans="1:4">
       <c r="A1188" s="4" t="s">
-        <v>3339</v>
+        <v>3340</v>
       </c>
       <c r="B1188" s="4" t="s">
-        <v>3340</v>
+        <v>3341</v>
       </c>
       <c r="C1188" s="4" t="s">
         <v>266</v>
@@ -43467,334 +44248,334 @@
     </row>
     <row r="1189" customHeight="1" spans="1:4">
       <c r="A1189" s="4" t="s">
-        <v>3341</v>
+        <v>3342</v>
       </c>
       <c r="B1189" s="4" t="s">
-        <v>3342</v>
+        <v>3343</v>
       </c>
       <c r="C1189" s="4" t="s">
-        <v>3343</v>
+        <v>3344</v>
       </c>
       <c r="D1189" s="4"/>
     </row>
     <row r="1190" customHeight="1" spans="1:4">
       <c r="A1190" s="4" t="s">
-        <v>3344</v>
+        <v>3345</v>
       </c>
       <c r="B1190" s="4" t="s">
-        <v>3345</v>
+        <v>3346</v>
       </c>
       <c r="C1190" s="4" t="s">
-        <v>3346</v>
+        <v>3347</v>
       </c>
       <c r="D1190" s="4"/>
     </row>
     <row r="1191" customHeight="1" spans="1:4">
       <c r="A1191" s="4" t="s">
-        <v>3347</v>
+        <v>3348</v>
       </c>
       <c r="B1191" s="4" t="s">
-        <v>3348</v>
+        <v>3349</v>
       </c>
       <c r="C1191" s="4" t="s">
-        <v>3349</v>
+        <v>3350</v>
       </c>
       <c r="D1191" s="4"/>
     </row>
     <row r="1192" customHeight="1" spans="1:4">
       <c r="A1192" s="4" t="s">
-        <v>3350</v>
+        <v>3351</v>
       </c>
       <c r="B1192" s="4" t="s">
-        <v>3351</v>
+        <v>3352</v>
       </c>
       <c r="C1192" s="4" t="s">
-        <v>3352</v>
+        <v>3353</v>
       </c>
       <c r="D1192" s="4"/>
     </row>
     <row r="1193" customHeight="1" spans="1:4">
       <c r="A1193" s="4" t="s">
-        <v>3353</v>
+        <v>3354</v>
       </c>
       <c r="B1193" s="4" t="s">
-        <v>3354</v>
+        <v>3355</v>
       </c>
       <c r="C1193" s="4" t="s">
-        <v>3355</v>
+        <v>3356</v>
       </c>
       <c r="D1193" s="4"/>
     </row>
     <row r="1194" customHeight="1" spans="1:4">
       <c r="A1194" s="4" t="s">
-        <v>3356</v>
+        <v>3357</v>
       </c>
       <c r="B1194" s="4" t="s">
-        <v>3357</v>
+        <v>3358</v>
       </c>
       <c r="C1194" s="4" t="s">
-        <v>3358</v>
+        <v>3359</v>
       </c>
       <c r="D1194" s="4"/>
     </row>
     <row r="1195" customHeight="1" spans="1:4">
       <c r="A1195" s="4" t="s">
-        <v>3359</v>
+        <v>3360</v>
       </c>
       <c r="B1195" s="4" t="s">
-        <v>3360</v>
+        <v>3361</v>
       </c>
       <c r="C1195" s="4" t="s">
-        <v>3361</v>
+        <v>3362</v>
       </c>
       <c r="D1195" s="4"/>
     </row>
     <row r="1196" customHeight="1" spans="1:4">
       <c r="A1196" s="4" t="s">
-        <v>3362</v>
+        <v>3363</v>
       </c>
       <c r="B1196" s="4" t="s">
-        <v>3363</v>
+        <v>3364</v>
       </c>
       <c r="C1196" s="4" t="s">
-        <v>3364</v>
+        <v>3365</v>
       </c>
       <c r="D1196" s="4"/>
     </row>
     <row r="1197" customHeight="1" spans="1:4">
       <c r="A1197" s="4" t="s">
-        <v>3365</v>
+        <v>3366</v>
       </c>
       <c r="B1197" s="4" t="s">
-        <v>3366</v>
+        <v>3367</v>
       </c>
       <c r="C1197" s="4" t="s">
-        <v>3367</v>
+        <v>3368</v>
       </c>
       <c r="D1197" s="4"/>
     </row>
     <row r="1198" customHeight="1" spans="1:4">
       <c r="A1198" s="4" t="s">
-        <v>3368</v>
+        <v>3369</v>
       </c>
       <c r="B1198" s="4" t="s">
-        <v>3369</v>
+        <v>3370</v>
       </c>
       <c r="C1198" s="4" t="s">
-        <v>3370</v>
+        <v>3371</v>
       </c>
       <c r="D1198" s="4"/>
     </row>
     <row r="1199" customHeight="1" spans="1:4">
       <c r="A1199" s="4" t="s">
-        <v>3371</v>
+        <v>3372</v>
       </c>
       <c r="B1199" s="4" t="s">
-        <v>3372</v>
+        <v>3373</v>
       </c>
       <c r="C1199" s="4" t="s">
-        <v>3373</v>
+        <v>3374</v>
       </c>
       <c r="D1199" s="4"/>
     </row>
     <row r="1200" customHeight="1" spans="1:4">
       <c r="A1200" s="4" t="s">
-        <v>3374</v>
+        <v>3375</v>
       </c>
       <c r="B1200" s="4" t="s">
-        <v>3375</v>
+        <v>3376</v>
       </c>
       <c r="C1200" s="4" t="s">
-        <v>3376</v>
+        <v>3377</v>
       </c>
       <c r="D1200" s="4"/>
     </row>
     <row r="1201" customHeight="1" spans="1:4">
       <c r="A1201" s="4" t="s">
-        <v>3377</v>
+        <v>3378</v>
       </c>
       <c r="B1201" s="4" t="s">
-        <v>3378</v>
+        <v>3379</v>
       </c>
       <c r="C1201" s="4" t="s">
-        <v>3379</v>
+        <v>3380</v>
       </c>
       <c r="D1201" s="4"/>
     </row>
     <row r="1202" customHeight="1" spans="1:4">
       <c r="A1202" s="4" t="s">
-        <v>3380</v>
+        <v>3381</v>
       </c>
       <c r="B1202" s="4" t="s">
-        <v>3381</v>
+        <v>3382</v>
       </c>
       <c r="C1202" s="4" t="s">
-        <v>3382</v>
+        <v>3383</v>
       </c>
       <c r="D1202" s="4"/>
     </row>
     <row r="1203" customHeight="1" spans="1:4">
       <c r="A1203" s="4" t="s">
-        <v>3383</v>
+        <v>3384</v>
       </c>
       <c r="B1203" s="4" t="s">
-        <v>3384</v>
+        <v>3385</v>
       </c>
       <c r="C1203" s="4" t="s">
-        <v>3385</v>
+        <v>3386</v>
       </c>
       <c r="D1203" s="4"/>
     </row>
     <row r="1204" customHeight="1" spans="1:4">
       <c r="A1204" s="4" t="s">
-        <v>3386</v>
+        <v>3387</v>
       </c>
       <c r="B1204" s="4" t="s">
-        <v>3387</v>
+        <v>3388</v>
       </c>
       <c r="C1204" s="4" t="s">
-        <v>3388</v>
+        <v>3389</v>
       </c>
       <c r="D1204" s="4"/>
     </row>
     <row r="1205" customHeight="1" spans="1:4">
       <c r="A1205" s="4" t="s">
-        <v>3389</v>
+        <v>3390</v>
       </c>
       <c r="B1205" s="4" t="s">
-        <v>3390</v>
+        <v>3391</v>
       </c>
       <c r="C1205" s="4" t="s">
-        <v>3391</v>
+        <v>3392</v>
       </c>
       <c r="D1205" s="4"/>
     </row>
     <row r="1206" customHeight="1" spans="1:4">
       <c r="A1206" s="4" t="s">
-        <v>3392</v>
+        <v>3393</v>
       </c>
       <c r="B1206" s="4" t="s">
-        <v>3393</v>
+        <v>3394</v>
       </c>
       <c r="C1206" s="4" t="s">
-        <v>3394</v>
+        <v>3395</v>
       </c>
       <c r="D1206" s="4"/>
     </row>
     <row r="1207" customHeight="1" spans="1:4">
       <c r="A1207" s="4" t="s">
-        <v>3395</v>
+        <v>3396</v>
       </c>
       <c r="B1207" s="4" t="s">
-        <v>3396</v>
+        <v>3397</v>
       </c>
       <c r="C1207" s="4" t="s">
-        <v>3397</v>
+        <v>3398</v>
       </c>
       <c r="D1207" s="4"/>
     </row>
     <row r="1208" customHeight="1" spans="1:4">
       <c r="A1208" s="4" t="s">
-        <v>3398</v>
+        <v>3399</v>
       </c>
       <c r="B1208" s="4" t="s">
-        <v>3399</v>
+        <v>3400</v>
       </c>
       <c r="C1208" s="4" t="s">
-        <v>3400</v>
+        <v>3401</v>
       </c>
       <c r="D1208" s="4"/>
     </row>
     <row r="1209" customHeight="1" spans="1:4">
       <c r="A1209" s="4" t="s">
-        <v>3401</v>
+        <v>3402</v>
       </c>
       <c r="B1209" s="4" t="s">
-        <v>3402</v>
+        <v>3403</v>
       </c>
       <c r="C1209" s="4" t="s">
-        <v>3403</v>
+        <v>3404</v>
       </c>
       <c r="D1209" s="4"/>
     </row>
     <row r="1210" customHeight="1" spans="1:4">
       <c r="A1210" s="4" t="s">
-        <v>3404</v>
+        <v>3405</v>
       </c>
       <c r="B1210" s="4" t="s">
-        <v>3405</v>
+        <v>3406</v>
       </c>
       <c r="C1210" s="4" t="s">
-        <v>3406</v>
+        <v>3407</v>
       </c>
       <c r="D1210" s="4"/>
     </row>
     <row r="1211" customHeight="1" spans="1:4">
       <c r="A1211" s="4" t="s">
-        <v>3407</v>
+        <v>3408</v>
       </c>
       <c r="B1211" s="4" t="s">
-        <v>3408</v>
+        <v>3409</v>
       </c>
       <c r="C1211" s="4" t="s">
-        <v>3409</v>
+        <v>3410</v>
       </c>
       <c r="D1211" s="4"/>
     </row>
     <row r="1212" customHeight="1" spans="1:4">
       <c r="A1212" s="4" t="s">
-        <v>3410</v>
+        <v>3411</v>
       </c>
       <c r="B1212" s="4" t="s">
-        <v>3411</v>
+        <v>3412</v>
       </c>
       <c r="C1212" s="4" t="s">
-        <v>3412</v>
+        <v>3413</v>
       </c>
       <c r="D1212" s="4"/>
     </row>
     <row r="1213" customHeight="1" spans="1:4">
       <c r="A1213" s="4" t="s">
-        <v>3413</v>
+        <v>3414</v>
       </c>
       <c r="B1213" s="4" t="s">
-        <v>3414</v>
+        <v>3415</v>
       </c>
       <c r="C1213" s="4" t="s">
-        <v>3415</v>
+        <v>3416</v>
       </c>
       <c r="D1213" s="4"/>
     </row>
     <row r="1214" customHeight="1" spans="1:4">
       <c r="A1214" s="4" t="s">
-        <v>3416</v>
+        <v>3417</v>
       </c>
       <c r="B1214" s="4" t="s">
-        <v>3417</v>
+        <v>3418</v>
       </c>
       <c r="C1214" s="4" t="s">
-        <v>3418</v>
+        <v>3419</v>
       </c>
       <c r="D1214" s="4"/>
     </row>
     <row r="1215" customHeight="1" spans="1:4">
       <c r="A1215" s="4" t="s">
-        <v>3419</v>
+        <v>3420</v>
       </c>
       <c r="B1215" s="4" t="s">
-        <v>3420</v>
+        <v>3421</v>
       </c>
       <c r="C1215" s="4" t="s">
-        <v>3421</v>
+        <v>3422</v>
       </c>
       <c r="D1215" s="4"/>
     </row>
     <row r="1216" customHeight="1" spans="1:4">
       <c r="A1216" s="4" t="s">
-        <v>3422</v>
+        <v>3423</v>
       </c>
       <c r="B1216" s="4" t="s">
-        <v>3423</v>
+        <v>3424</v>
       </c>
       <c r="C1216" s="4" t="s">
         <v>266</v>
@@ -43803,154 +44584,154 @@
     </row>
     <row r="1217" customHeight="1" spans="1:4">
       <c r="A1217" s="4" t="s">
-        <v>3424</v>
+        <v>3425</v>
       </c>
       <c r="B1217" s="4" t="s">
-        <v>3425</v>
+        <v>3426</v>
       </c>
       <c r="C1217" s="4" t="s">
-        <v>3426</v>
+        <v>3427</v>
       </c>
       <c r="D1217" s="4"/>
     </row>
     <row r="1218" customHeight="1" spans="1:4">
       <c r="A1218" s="4" t="s">
-        <v>3427</v>
+        <v>3428</v>
       </c>
       <c r="B1218" s="4" t="s">
-        <v>3428</v>
+        <v>3429</v>
       </c>
       <c r="C1218" s="4" t="s">
-        <v>3429</v>
+        <v>3430</v>
       </c>
       <c r="D1218" s="4"/>
     </row>
     <row r="1219" customHeight="1" spans="1:4">
       <c r="A1219" s="4" t="s">
-        <v>3430</v>
+        <v>3431</v>
       </c>
       <c r="B1219" s="4" t="s">
-        <v>3431</v>
+        <v>3432</v>
       </c>
       <c r="C1219" s="4" t="s">
-        <v>3432</v>
+        <v>3433</v>
       </c>
       <c r="D1219" s="4"/>
     </row>
     <row r="1220" customHeight="1" spans="1:4">
       <c r="A1220" s="4" t="s">
-        <v>3433</v>
+        <v>3434</v>
       </c>
       <c r="B1220" s="4" t="s">
-        <v>3434</v>
+        <v>3435</v>
       </c>
       <c r="C1220" s="4" t="s">
-        <v>3435</v>
+        <v>3436</v>
       </c>
       <c r="D1220" s="4"/>
     </row>
     <row r="1221" customHeight="1" spans="1:4">
       <c r="A1221" s="4" t="s">
-        <v>3436</v>
+        <v>3437</v>
       </c>
       <c r="B1221" s="4" t="s">
-        <v>3437</v>
+        <v>3438</v>
       </c>
       <c r="C1221" s="4" t="s">
-        <v>3438</v>
+        <v>3439</v>
       </c>
       <c r="D1221" s="4"/>
     </row>
     <row r="1222" customHeight="1" spans="1:4">
       <c r="A1222" s="4" t="s">
-        <v>3439</v>
+        <v>3440</v>
       </c>
       <c r="B1222" s="4" t="s">
-        <v>3440</v>
+        <v>3441</v>
       </c>
       <c r="C1222" s="4" t="s">
-        <v>3441</v>
+        <v>3442</v>
       </c>
       <c r="D1222" s="4"/>
     </row>
     <row r="1223" customHeight="1" spans="1:4">
       <c r="A1223" s="4" t="s">
-        <v>3442</v>
+        <v>3443</v>
       </c>
       <c r="B1223" s="4" t="s">
-        <v>3443</v>
+        <v>3444</v>
       </c>
       <c r="C1223" s="4" t="s">
-        <v>3444</v>
+        <v>3445</v>
       </c>
       <c r="D1223" s="4"/>
     </row>
     <row r="1224" customHeight="1" spans="1:4">
       <c r="A1224" s="4" t="s">
-        <v>3445</v>
+        <v>3446</v>
       </c>
       <c r="B1224" s="4" t="s">
-        <v>3446</v>
+        <v>3447</v>
       </c>
       <c r="C1224" s="4" t="s">
-        <v>3447</v>
+        <v>3448</v>
       </c>
       <c r="D1224" s="4"/>
     </row>
     <row r="1225" customHeight="1" spans="1:4">
       <c r="A1225" s="4" t="s">
-        <v>3448</v>
+        <v>3449</v>
       </c>
       <c r="B1225" s="4" t="s">
-        <v>3449</v>
+        <v>3450</v>
       </c>
       <c r="C1225" s="4" t="s">
-        <v>3450</v>
+        <v>3451</v>
       </c>
       <c r="D1225" s="4"/>
     </row>
     <row r="1226" customHeight="1" spans="1:4">
       <c r="A1226" s="4" t="s">
-        <v>3451</v>
+        <v>3452</v>
       </c>
       <c r="B1226" s="4" t="s">
-        <v>3452</v>
+        <v>3453</v>
       </c>
       <c r="C1226" s="4" t="s">
-        <v>3453</v>
+        <v>3454</v>
       </c>
       <c r="D1226" s="4"/>
     </row>
     <row r="1227" customHeight="1" spans="1:4">
       <c r="A1227" s="4" t="s">
-        <v>3454</v>
+        <v>3455</v>
       </c>
       <c r="B1227" s="4" t="s">
-        <v>3455</v>
+        <v>3456</v>
       </c>
       <c r="C1227" s="4" t="s">
-        <v>3456</v>
+        <v>3457</v>
       </c>
       <c r="D1227" s="4"/>
     </row>
     <row r="1228" customHeight="1" spans="1:4">
       <c r="A1228" s="4" t="s">
-        <v>3457</v>
+        <v>3458</v>
       </c>
       <c r="B1228" s="4" t="s">
         <v>266</v>
       </c>
       <c r="C1228" s="4" t="s">
-        <v>3458</v>
+        <v>3459</v>
       </c>
       <c r="D1228" s="4"/>
     </row>
     <row r="1229" customHeight="1" spans="1:4">
       <c r="A1229" s="4" t="s">
-        <v>3459</v>
+        <v>3460</v>
       </c>
       <c r="B1229" s="4" t="s">
-        <v>3460</v>
+        <v>3461</v>
       </c>
       <c r="C1229" s="4" t="s">
         <v>266</v>
@@ -43959,10 +44740,10 @@
     </row>
     <row r="1230" customHeight="1" spans="1:4">
       <c r="A1230" s="4" t="s">
-        <v>3461</v>
+        <v>3462</v>
       </c>
       <c r="B1230" s="4" t="s">
-        <v>3462</v>
+        <v>3463</v>
       </c>
       <c r="C1230" s="4" t="s">
         <v>266</v>
@@ -43971,238 +44752,238 @@
     </row>
     <row r="1231" customHeight="1" spans="1:4">
       <c r="A1231" s="4" t="s">
-        <v>3463</v>
+        <v>3464</v>
       </c>
       <c r="B1231" s="4" t="s">
-        <v>3464</v>
+        <v>3465</v>
       </c>
       <c r="C1231" s="4" t="s">
-        <v>3465</v>
+        <v>3466</v>
       </c>
       <c r="D1231" s="4"/>
     </row>
     <row r="1232" customHeight="1" spans="1:4">
       <c r="A1232" s="4" t="s">
-        <v>3466</v>
+        <v>3467</v>
       </c>
       <c r="B1232" s="4" t="s">
-        <v>3467</v>
+        <v>3468</v>
       </c>
       <c r="C1232" s="4" t="s">
-        <v>3468</v>
+        <v>3469</v>
       </c>
       <c r="D1232" s="4"/>
     </row>
     <row r="1233" customHeight="1" spans="1:4">
       <c r="A1233" s="4" t="s">
-        <v>3469</v>
+        <v>3470</v>
       </c>
       <c r="B1233" s="4" t="s">
-        <v>3470</v>
+        <v>3471</v>
       </c>
       <c r="C1233" s="4" t="s">
-        <v>3471</v>
+        <v>3472</v>
       </c>
       <c r="D1233" s="4"/>
     </row>
     <row r="1234" customHeight="1" spans="1:4">
       <c r="A1234" s="4" t="s">
-        <v>3472</v>
+        <v>3473</v>
       </c>
       <c r="B1234" s="4" t="s">
-        <v>3473</v>
+        <v>3474</v>
       </c>
       <c r="C1234" s="4" t="s">
-        <v>3474</v>
+        <v>3475</v>
       </c>
       <c r="D1234" s="4"/>
     </row>
     <row r="1235" customHeight="1" spans="1:4">
       <c r="A1235" s="4" t="s">
-        <v>3475</v>
+        <v>3476</v>
       </c>
       <c r="B1235" s="4" t="s">
         <v>266</v>
       </c>
       <c r="C1235" s="4" t="s">
-        <v>3476</v>
+        <v>3477</v>
       </c>
       <c r="D1235" s="4"/>
     </row>
     <row r="1236" customHeight="1" spans="1:4">
       <c r="A1236" s="4" t="s">
-        <v>3477</v>
+        <v>3478</v>
       </c>
       <c r="B1236" s="4" t="s">
-        <v>3478</v>
+        <v>3479</v>
       </c>
       <c r="C1236" s="4" t="s">
-        <v>3479</v>
+        <v>3480</v>
       </c>
       <c r="D1236" s="4"/>
     </row>
     <row r="1237" customHeight="1" spans="1:4">
       <c r="A1237" s="4" t="s">
-        <v>3480</v>
+        <v>3481</v>
       </c>
       <c r="B1237" s="4" t="s">
-        <v>3481</v>
+        <v>3482</v>
       </c>
       <c r="C1237" s="4" t="s">
-        <v>3482</v>
+        <v>3483</v>
       </c>
       <c r="D1237" s="4"/>
     </row>
     <row r="1238" customHeight="1" spans="1:4">
       <c r="A1238" s="4" t="s">
-        <v>3483</v>
+        <v>3484</v>
       </c>
       <c r="B1238" s="4" t="s">
-        <v>3484</v>
+        <v>3485</v>
       </c>
       <c r="C1238" s="4" t="s">
-        <v>3485</v>
+        <v>3486</v>
       </c>
       <c r="D1238" s="4"/>
     </row>
     <row r="1239" customHeight="1" spans="1:4">
       <c r="A1239" s="4" t="s">
-        <v>3486</v>
+        <v>3487</v>
       </c>
       <c r="B1239" s="4" t="s">
-        <v>3487</v>
+        <v>3488</v>
       </c>
       <c r="C1239" s="4" t="s">
-        <v>3488</v>
+        <v>3489</v>
       </c>
       <c r="D1239" s="4"/>
     </row>
     <row r="1240" customHeight="1" spans="1:4">
       <c r="A1240" s="4" t="s">
-        <v>3489</v>
+        <v>3490</v>
       </c>
       <c r="B1240" s="4" t="s">
-        <v>3490</v>
+        <v>3491</v>
       </c>
       <c r="C1240" s="4" t="s">
-        <v>3491</v>
+        <v>3492</v>
       </c>
       <c r="D1240" s="4"/>
     </row>
     <row r="1241" customHeight="1" spans="1:4">
       <c r="A1241" s="4" t="s">
-        <v>3492</v>
+        <v>3493</v>
       </c>
       <c r="B1241" s="4" t="s">
         <v>266</v>
       </c>
       <c r="C1241" s="4" t="s">
-        <v>3493</v>
+        <v>3494</v>
       </c>
       <c r="D1241" s="4"/>
     </row>
     <row r="1242" customHeight="1" spans="1:4">
       <c r="A1242" s="4" t="s">
-        <v>3494</v>
+        <v>3495</v>
       </c>
       <c r="B1242" s="4" t="s">
         <v>266</v>
       </c>
       <c r="C1242" s="4" t="s">
-        <v>3495</v>
+        <v>3496</v>
       </c>
       <c r="D1242" s="4"/>
     </row>
     <row r="1243" customHeight="1" spans="1:4">
       <c r="A1243" s="4" t="s">
-        <v>3496</v>
+        <v>3497</v>
       </c>
       <c r="B1243" s="4" t="s">
         <v>266</v>
       </c>
       <c r="C1243" s="4" t="s">
-        <v>3497</v>
+        <v>3498</v>
       </c>
       <c r="D1243" s="4"/>
     </row>
     <row r="1244" customHeight="1" spans="1:4">
       <c r="A1244" s="4" t="s">
-        <v>3498</v>
+        <v>3499</v>
       </c>
       <c r="B1244" s="4" t="s">
         <v>266</v>
       </c>
       <c r="C1244" s="4" t="s">
-        <v>3499</v>
+        <v>3500</v>
       </c>
       <c r="D1244" s="4"/>
     </row>
     <row r="1245" customHeight="1" spans="1:4">
       <c r="A1245" s="4" t="s">
-        <v>3500</v>
+        <v>3501</v>
       </c>
       <c r="B1245" s="4" t="s">
         <v>266</v>
       </c>
       <c r="C1245" s="4" t="s">
-        <v>3501</v>
+        <v>3502</v>
       </c>
       <c r="D1245" s="4"/>
     </row>
     <row r="1246" customHeight="1" spans="1:4">
       <c r="A1246" s="4" t="s">
-        <v>3502</v>
+        <v>3503</v>
       </c>
       <c r="B1246" s="4" t="s">
         <v>266</v>
       </c>
       <c r="C1246" s="4" t="s">
-        <v>3503</v>
+        <v>3504</v>
       </c>
       <c r="D1246" s="4"/>
     </row>
     <row r="1247" customHeight="1" spans="1:4">
       <c r="A1247" s="4" t="s">
-        <v>3504</v>
+        <v>3505</v>
       </c>
       <c r="B1247" s="4" t="s">
         <v>266</v>
       </c>
       <c r="C1247" s="4" t="s">
-        <v>3505</v>
+        <v>3506</v>
       </c>
       <c r="D1247" s="4"/>
     </row>
     <row r="1248" customHeight="1" spans="1:4">
       <c r="A1248" s="4" t="s">
-        <v>3506</v>
+        <v>3507</v>
       </c>
       <c r="B1248" s="4" t="s">
         <v>266</v>
       </c>
       <c r="C1248" s="4" t="s">
-        <v>3507</v>
+        <v>3508</v>
       </c>
       <c r="D1248" s="4"/>
     </row>
     <row r="1249" customHeight="1" spans="1:4">
       <c r="A1249" s="4" t="s">
-        <v>3508</v>
+        <v>3509</v>
       </c>
       <c r="B1249" s="4" t="s">
-        <v>3509</v>
+        <v>3510</v>
       </c>
       <c r="C1249" s="4" t="s">
-        <v>3510</v>
+        <v>3511</v>
       </c>
       <c r="D1249" s="4"/>
     </row>
     <row r="1250" customHeight="1" spans="1:4">
       <c r="A1250" s="4" t="s">
-        <v>3511</v>
+        <v>3512</v>
       </c>
       <c r="B1250" s="4" t="s">
-        <v>3512</v>
+        <v>3513</v>
       </c>
       <c r="C1250" s="4" t="s">
         <v>266</v>
@@ -44211,106 +44992,106 @@
     </row>
     <row r="1251" customHeight="1" spans="1:4">
       <c r="A1251" s="4" t="s">
-        <v>3513</v>
+        <v>3514</v>
       </c>
       <c r="B1251" s="4" t="s">
-        <v>3514</v>
+        <v>3515</v>
       </c>
       <c r="C1251" s="4" t="s">
-        <v>3515</v>
+        <v>3516</v>
       </c>
       <c r="D1251" s="4"/>
     </row>
     <row r="1252" customHeight="1" spans="1:4">
       <c r="A1252" s="4" t="s">
-        <v>3516</v>
+        <v>3517</v>
       </c>
       <c r="B1252" s="4" t="s">
-        <v>3517</v>
+        <v>3518</v>
       </c>
       <c r="C1252" s="4" t="s">
-        <v>3518</v>
+        <v>3519</v>
       </c>
       <c r="D1252" s="4"/>
     </row>
     <row r="1253" customHeight="1" spans="1:4">
       <c r="A1253" s="4" t="s">
-        <v>3519</v>
+        <v>3520</v>
       </c>
       <c r="B1253" s="4" t="s">
-        <v>3520</v>
+        <v>3521</v>
       </c>
       <c r="C1253" s="4" t="s">
-        <v>3521</v>
+        <v>3522</v>
       </c>
       <c r="D1253" s="4"/>
     </row>
     <row r="1254" customHeight="1" spans="1:4">
       <c r="A1254" s="4" t="s">
-        <v>3522</v>
+        <v>3523</v>
       </c>
       <c r="B1254" s="4" t="s">
-        <v>3523</v>
+        <v>3524</v>
       </c>
       <c r="C1254" s="4" t="s">
-        <v>3524</v>
+        <v>3525</v>
       </c>
       <c r="D1254" s="4"/>
     </row>
     <row r="1255" customHeight="1" spans="1:4">
       <c r="A1255" s="4" t="s">
-        <v>3525</v>
+        <v>3526</v>
       </c>
       <c r="B1255" s="4" t="s">
-        <v>3526</v>
+        <v>3527</v>
       </c>
       <c r="C1255" s="4" t="s">
-        <v>3527</v>
+        <v>3528</v>
       </c>
       <c r="D1255" s="4"/>
     </row>
     <row r="1256" customHeight="1" spans="1:4">
       <c r="A1256" s="4" t="s">
-        <v>3528</v>
+        <v>3529</v>
       </c>
       <c r="B1256" s="4" t="s">
-        <v>3529</v>
+        <v>3530</v>
       </c>
       <c r="C1256" s="4" t="s">
-        <v>3530</v>
+        <v>3531</v>
       </c>
       <c r="D1256" s="4"/>
     </row>
     <row r="1257" customHeight="1" spans="1:4">
       <c r="A1257" s="4" t="s">
-        <v>3531</v>
+        <v>3532</v>
       </c>
       <c r="B1257" s="4" t="s">
-        <v>3532</v>
+        <v>3533</v>
       </c>
       <c r="C1257" s="4" t="s">
-        <v>3533</v>
+        <v>3534</v>
       </c>
       <c r="D1257" s="4"/>
     </row>
     <row r="1258" customHeight="1" spans="1:4">
       <c r="A1258" s="4" t="s">
-        <v>3534</v>
+        <v>3535</v>
       </c>
       <c r="B1258" s="4" t="s">
-        <v>3535</v>
+        <v>3536</v>
       </c>
       <c r="C1258" s="4" t="s">
-        <v>3536</v>
+        <v>3537</v>
       </c>
       <c r="D1258" s="4"/>
     </row>
     <row r="1259" customHeight="1" spans="1:4">
       <c r="A1259" s="4" t="s">
-        <v>3537</v>
+        <v>3538</v>
       </c>
       <c r="B1259" s="4" t="s">
-        <v>3538</v>
+        <v>3539</v>
       </c>
       <c r="C1259" s="4" t="s">
         <v>266</v>
@@ -44319,250 +45100,250 @@
     </row>
     <row r="1260" customHeight="1" spans="1:4">
       <c r="A1260" s="4" t="s">
-        <v>3539</v>
+        <v>3540</v>
       </c>
       <c r="B1260" s="4" t="s">
-        <v>3540</v>
+        <v>3541</v>
       </c>
       <c r="C1260" s="4" t="s">
-        <v>3541</v>
+        <v>3542</v>
       </c>
       <c r="D1260" s="4"/>
     </row>
     <row r="1261" customHeight="1" spans="1:4">
       <c r="A1261" s="4" t="s">
-        <v>3542</v>
+        <v>3543</v>
       </c>
       <c r="B1261" s="4" t="s">
-        <v>3543</v>
+        <v>3544</v>
       </c>
       <c r="C1261" s="4" t="s">
-        <v>3544</v>
+        <v>3545</v>
       </c>
       <c r="D1261" s="4"/>
     </row>
     <row r="1262" customHeight="1" spans="1:4">
       <c r="A1262" s="4" t="s">
-        <v>3545</v>
+        <v>3546</v>
       </c>
       <c r="B1262" s="4" t="s">
-        <v>3546</v>
+        <v>3547</v>
       </c>
       <c r="C1262" s="4" t="s">
-        <v>3547</v>
+        <v>3548</v>
       </c>
       <c r="D1262" s="4"/>
     </row>
     <row r="1263" customHeight="1" spans="1:4">
       <c r="A1263" s="4" t="s">
-        <v>3548</v>
+        <v>3549</v>
       </c>
       <c r="B1263" s="4" t="s">
-        <v>3549</v>
+        <v>3550</v>
       </c>
       <c r="C1263" s="4" t="s">
-        <v>3550</v>
+        <v>3551</v>
       </c>
       <c r="D1263" s="4"/>
     </row>
     <row r="1264" customHeight="1" spans="1:4">
       <c r="A1264" s="4" t="s">
-        <v>3551</v>
+        <v>3552</v>
       </c>
       <c r="B1264" s="4" t="s">
-        <v>3552</v>
+        <v>3553</v>
       </c>
       <c r="C1264" s="4" t="s">
-        <v>3553</v>
+        <v>3554</v>
       </c>
       <c r="D1264" s="4"/>
     </row>
     <row r="1265" customHeight="1" spans="1:4">
       <c r="A1265" s="4" t="s">
-        <v>3554</v>
+        <v>3555</v>
       </c>
       <c r="B1265" s="4" t="s">
-        <v>3555</v>
+        <v>3556</v>
       </c>
       <c r="C1265" s="4" t="s">
-        <v>3556</v>
+        <v>3557</v>
       </c>
       <c r="D1265" s="4"/>
     </row>
     <row r="1266" customHeight="1" spans="1:4">
       <c r="A1266" s="4" t="s">
-        <v>3557</v>
+        <v>3558</v>
       </c>
       <c r="B1266" s="4" t="s">
-        <v>3558</v>
+        <v>3559</v>
       </c>
       <c r="C1266" s="4" t="s">
-        <v>3559</v>
+        <v>3560</v>
       </c>
       <c r="D1266" s="4"/>
     </row>
     <row r="1267" customHeight="1" spans="1:4">
       <c r="A1267" s="4" t="s">
-        <v>3560</v>
+        <v>3561</v>
       </c>
       <c r="B1267" s="4" t="s">
-        <v>3561</v>
+        <v>3562</v>
       </c>
       <c r="C1267" s="4" t="s">
-        <v>3562</v>
+        <v>3563</v>
       </c>
       <c r="D1267" s="4"/>
     </row>
     <row r="1268" customHeight="1" spans="1:4">
       <c r="A1268" s="4" t="s">
-        <v>3563</v>
+        <v>3564</v>
       </c>
       <c r="B1268" s="4" t="s">
         <v>266</v>
       </c>
       <c r="C1268" s="4" t="s">
-        <v>3564</v>
+        <v>3565</v>
       </c>
       <c r="D1268" s="4"/>
     </row>
     <row r="1269" customHeight="1" spans="1:4">
       <c r="A1269" s="4" t="s">
-        <v>3565</v>
+        <v>3566</v>
       </c>
       <c r="B1269" s="4" t="s">
         <v>266</v>
       </c>
       <c r="C1269" s="4" t="s">
-        <v>3566</v>
+        <v>3567</v>
       </c>
       <c r="D1269" s="4"/>
     </row>
     <row r="1270" customHeight="1" spans="1:4">
       <c r="A1270" s="4" t="s">
-        <v>3567</v>
+        <v>3568</v>
       </c>
       <c r="B1270" s="4" t="s">
-        <v>3568</v>
+        <v>3569</v>
       </c>
       <c r="C1270" s="4" t="s">
-        <v>3569</v>
+        <v>3570</v>
       </c>
       <c r="D1270" s="4"/>
     </row>
     <row r="1271" customHeight="1" spans="1:4">
       <c r="A1271" s="4" t="s">
-        <v>3570</v>
+        <v>3571</v>
       </c>
       <c r="B1271" s="4" t="s">
-        <v>3571</v>
+        <v>3572</v>
       </c>
       <c r="C1271" s="4" t="s">
-        <v>3572</v>
+        <v>3573</v>
       </c>
       <c r="D1271" s="4"/>
     </row>
     <row r="1272" customHeight="1" spans="1:4">
       <c r="A1272" s="4" t="s">
-        <v>3573</v>
+        <v>3574</v>
       </c>
       <c r="B1272" s="4" t="s">
-        <v>3574</v>
+        <v>3575</v>
       </c>
       <c r="C1272" s="4" t="s">
-        <v>3575</v>
+        <v>3576</v>
       </c>
       <c r="D1272" s="4"/>
     </row>
     <row r="1273" customHeight="1" spans="1:4">
       <c r="A1273" s="4" t="s">
-        <v>3576</v>
+        <v>3577</v>
       </c>
       <c r="B1273" s="4" t="s">
-        <v>3577</v>
+        <v>3578</v>
       </c>
       <c r="C1273" s="4" t="s">
-        <v>3578</v>
+        <v>3579</v>
       </c>
       <c r="D1273" s="4"/>
     </row>
     <row r="1274" customHeight="1" spans="1:4">
       <c r="A1274" s="4" t="s">
-        <v>3579</v>
+        <v>3580</v>
       </c>
       <c r="B1274" s="4" t="s">
-        <v>3580</v>
+        <v>3581</v>
       </c>
       <c r="C1274" s="4" t="s">
-        <v>3581</v>
+        <v>3582</v>
       </c>
       <c r="D1274" s="4"/>
     </row>
     <row r="1275" customHeight="1" spans="1:4">
       <c r="A1275" s="4" t="s">
-        <v>3582</v>
+        <v>3583</v>
       </c>
       <c r="B1275" s="4" t="s">
-        <v>3583</v>
+        <v>3584</v>
       </c>
       <c r="C1275" s="4" t="s">
-        <v>3584</v>
+        <v>3585</v>
       </c>
       <c r="D1275" s="4"/>
     </row>
     <row r="1276" customHeight="1" spans="1:4">
       <c r="A1276" s="4" t="s">
-        <v>3585</v>
+        <v>3586</v>
       </c>
       <c r="B1276" s="4" t="s">
-        <v>3586</v>
+        <v>3587</v>
       </c>
       <c r="C1276" s="4" t="s">
-        <v>3587</v>
+        <v>3588</v>
       </c>
       <c r="D1276" s="4"/>
     </row>
     <row r="1277" customHeight="1" spans="1:4">
       <c r="A1277" s="4" t="s">
-        <v>3588</v>
+        <v>3589</v>
       </c>
       <c r="B1277" s="4" t="s">
-        <v>3589</v>
+        <v>3590</v>
       </c>
       <c r="C1277" s="4" t="s">
-        <v>3590</v>
+        <v>3591</v>
       </c>
       <c r="D1277" s="4"/>
     </row>
     <row r="1278" customHeight="1" spans="1:4">
       <c r="A1278" s="4" t="s">
-        <v>3591</v>
+        <v>3592</v>
       </c>
       <c r="B1278" s="4" t="s">
-        <v>3592</v>
+        <v>3593</v>
       </c>
       <c r="C1278" s="4" t="s">
-        <v>3593</v>
+        <v>3594</v>
       </c>
       <c r="D1278" s="4"/>
     </row>
     <row r="1279" customHeight="1" spans="1:4">
       <c r="A1279" s="4" t="s">
-        <v>3594</v>
+        <v>3595</v>
       </c>
       <c r="B1279" s="4" t="s">
-        <v>3595</v>
+        <v>3596</v>
       </c>
       <c r="C1279" s="4" t="s">
-        <v>3596</v>
+        <v>3597</v>
       </c>
       <c r="D1279" s="4"/>
     </row>
     <row r="1280" customHeight="1" spans="1:4">
       <c r="A1280" s="4" t="s">
-        <v>3597</v>
+        <v>3598</v>
       </c>
       <c r="B1280" s="4" t="s">
-        <v>3598</v>
+        <v>3599</v>
       </c>
       <c r="C1280" s="4" t="s">
         <v>266</v>
@@ -44571,70 +45352,70 @@
     </row>
     <row r="1281" customHeight="1" spans="1:4">
       <c r="A1281" s="4" t="s">
-        <v>3599</v>
+        <v>3600</v>
       </c>
       <c r="B1281" s="4" t="s">
-        <v>3600</v>
+        <v>3601</v>
       </c>
       <c r="C1281" s="4" t="s">
-        <v>3601</v>
+        <v>3602</v>
       </c>
       <c r="D1281" s="4"/>
     </row>
     <row r="1282" customHeight="1" spans="1:4">
       <c r="A1282" s="4" t="s">
-        <v>3602</v>
+        <v>3603</v>
       </c>
       <c r="B1282" s="4" t="s">
-        <v>3603</v>
+        <v>3604</v>
       </c>
       <c r="C1282" s="4" t="s">
-        <v>3604</v>
+        <v>3605</v>
       </c>
       <c r="D1282" s="4"/>
     </row>
     <row r="1283" customHeight="1" spans="1:4">
       <c r="A1283" s="4" t="s">
-        <v>3605</v>
+        <v>3606</v>
       </c>
       <c r="B1283" s="4" t="s">
-        <v>3606</v>
+        <v>3607</v>
       </c>
       <c r="C1283" s="4" t="s">
-        <v>3607</v>
+        <v>3608</v>
       </c>
       <c r="D1283" s="4"/>
     </row>
     <row r="1284" customHeight="1" spans="1:4">
       <c r="A1284" s="4" t="s">
-        <v>3608</v>
+        <v>3609</v>
       </c>
       <c r="B1284" s="4" t="s">
         <v>266</v>
       </c>
       <c r="C1284" s="4" t="s">
-        <v>3609</v>
+        <v>3610</v>
       </c>
       <c r="D1284" s="4"/>
     </row>
     <row r="1285" customHeight="1" spans="1:4">
       <c r="A1285" s="4" t="s">
-        <v>3610</v>
+        <v>3611</v>
       </c>
       <c r="B1285" s="4" t="s">
-        <v>3611</v>
+        <v>3612</v>
       </c>
       <c r="C1285" s="4" t="s">
-        <v>3612</v>
+        <v>3613</v>
       </c>
       <c r="D1285" s="4"/>
     </row>
     <row r="1286" customHeight="1" spans="1:4">
       <c r="A1286" s="4" t="s">
-        <v>3613</v>
+        <v>3614</v>
       </c>
       <c r="B1286" s="4" t="s">
-        <v>3614</v>
+        <v>3615</v>
       </c>
       <c r="C1286" s="4" t="s">
         <v>266</v>
@@ -44643,262 +45424,262 @@
     </row>
     <row r="1287" customHeight="1" spans="1:4">
       <c r="A1287" s="4" t="s">
-        <v>3615</v>
+        <v>3616</v>
       </c>
       <c r="B1287" s="4" t="s">
-        <v>3616</v>
+        <v>3617</v>
       </c>
       <c r="C1287" s="4" t="s">
-        <v>3617</v>
+        <v>3618</v>
       </c>
       <c r="D1287" s="4"/>
     </row>
     <row r="1288" customHeight="1" spans="1:4">
       <c r="A1288" s="4" t="s">
-        <v>3618</v>
+        <v>3619</v>
       </c>
       <c r="B1288" s="4" t="s">
-        <v>3619</v>
+        <v>3620</v>
       </c>
       <c r="C1288" s="4" t="s">
-        <v>3620</v>
+        <v>3621</v>
       </c>
       <c r="D1288" s="4"/>
     </row>
     <row r="1289" customHeight="1" spans="1:4">
       <c r="A1289" s="4" t="s">
-        <v>3621</v>
+        <v>3622</v>
       </c>
       <c r="B1289" s="4" t="s">
-        <v>3622</v>
+        <v>3623</v>
       </c>
       <c r="C1289" s="4" t="s">
-        <v>3623</v>
+        <v>3624</v>
       </c>
       <c r="D1289" s="4"/>
     </row>
     <row r="1290" customHeight="1" spans="1:4">
       <c r="A1290" s="4" t="s">
-        <v>3624</v>
+        <v>3625</v>
       </c>
       <c r="B1290" s="4" t="s">
-        <v>3625</v>
+        <v>3626</v>
       </c>
       <c r="C1290" s="4" t="s">
-        <v>3626</v>
+        <v>3627</v>
       </c>
       <c r="D1290" s="4"/>
     </row>
     <row r="1291" customHeight="1" spans="1:4">
       <c r="A1291" s="4" t="s">
-        <v>3627</v>
+        <v>3628</v>
       </c>
       <c r="B1291" s="4" t="s">
-        <v>3628</v>
+        <v>3629</v>
       </c>
       <c r="C1291" s="4" t="s">
-        <v>3629</v>
+        <v>3630</v>
       </c>
       <c r="D1291" s="4"/>
     </row>
     <row r="1292" customHeight="1" spans="1:4">
       <c r="A1292" s="4" t="s">
-        <v>3630</v>
+        <v>3631</v>
       </c>
       <c r="B1292" s="4" t="s">
-        <v>3631</v>
+        <v>3632</v>
       </c>
       <c r="C1292" s="4" t="s">
-        <v>3632</v>
+        <v>3633</v>
       </c>
       <c r="D1292" s="4"/>
     </row>
     <row r="1293" customHeight="1" spans="1:4">
       <c r="A1293" s="4" t="s">
-        <v>3633</v>
+        <v>3634</v>
       </c>
       <c r="B1293" s="4" t="s">
-        <v>3634</v>
+        <v>3635</v>
       </c>
       <c r="C1293" s="4" t="s">
-        <v>3635</v>
+        <v>3636</v>
       </c>
       <c r="D1293" s="4"/>
     </row>
     <row r="1294" customHeight="1" spans="1:4">
       <c r="A1294" s="4" t="s">
-        <v>3636</v>
+        <v>3637</v>
       </c>
       <c r="B1294" s="4" t="s">
         <v>266</v>
       </c>
       <c r="C1294" s="4" t="s">
-        <v>3637</v>
+        <v>3638</v>
       </c>
       <c r="D1294" s="4"/>
     </row>
     <row r="1295" customHeight="1" spans="1:4">
       <c r="A1295" s="4" t="s">
-        <v>3638</v>
+        <v>3639</v>
       </c>
       <c r="B1295" s="4" t="s">
-        <v>3639</v>
+        <v>3640</v>
       </c>
       <c r="C1295" s="4" t="s">
-        <v>3640</v>
+        <v>3641</v>
       </c>
       <c r="D1295" s="4"/>
     </row>
     <row r="1296" customHeight="1" spans="1:4">
       <c r="A1296" s="4" t="s">
-        <v>3641</v>
+        <v>3642</v>
       </c>
       <c r="B1296" s="4" t="s">
-        <v>3642</v>
+        <v>3643</v>
       </c>
       <c r="C1296" s="4" t="s">
-        <v>3643</v>
+        <v>3644</v>
       </c>
       <c r="D1296" s="4"/>
     </row>
     <row r="1297" customHeight="1" spans="1:4">
       <c r="A1297" s="4" t="s">
-        <v>3644</v>
+        <v>3645</v>
       </c>
       <c r="B1297" s="4" t="s">
-        <v>3645</v>
+        <v>3646</v>
       </c>
       <c r="C1297" s="4" t="s">
-        <v>3646</v>
+        <v>3647</v>
       </c>
       <c r="D1297" s="4"/>
     </row>
     <row r="1298" customHeight="1" spans="1:4">
       <c r="A1298" s="4" t="s">
-        <v>3647</v>
+        <v>3648</v>
       </c>
       <c r="B1298" s="4" t="s">
-        <v>3648</v>
+        <v>3649</v>
       </c>
       <c r="C1298" s="4" t="s">
-        <v>3649</v>
+        <v>3650</v>
       </c>
       <c r="D1298" s="4"/>
     </row>
     <row r="1299" customHeight="1" spans="1:4">
       <c r="A1299" s="4" t="s">
-        <v>3650</v>
+        <v>3651</v>
       </c>
       <c r="B1299" s="4" t="s">
-        <v>3651</v>
+        <v>3652</v>
       </c>
       <c r="C1299" s="4" t="s">
-        <v>3652</v>
+        <v>3653</v>
       </c>
       <c r="D1299" s="4"/>
     </row>
     <row r="1300" customHeight="1" spans="1:4">
       <c r="A1300" s="4" t="s">
-        <v>3653</v>
+        <v>3654</v>
       </c>
       <c r="B1300" s="4" t="s">
-        <v>3654</v>
+        <v>3655</v>
       </c>
       <c r="C1300" s="4" t="s">
-        <v>3655</v>
+        <v>3656</v>
       </c>
       <c r="D1300" s="4"/>
     </row>
     <row r="1301" customHeight="1" spans="1:4">
       <c r="A1301" s="4" t="s">
-        <v>3656</v>
+        <v>3657</v>
       </c>
       <c r="B1301" s="4" t="s">
-        <v>3657</v>
+        <v>3658</v>
       </c>
       <c r="C1301" s="4" t="s">
-        <v>3658</v>
+        <v>3659</v>
       </c>
       <c r="D1301" s="4"/>
     </row>
     <row r="1302" customHeight="1" spans="1:4">
       <c r="A1302" s="4" t="s">
-        <v>3659</v>
+        <v>3660</v>
       </c>
       <c r="B1302" s="4" t="s">
         <v>266</v>
       </c>
       <c r="C1302" s="4" t="s">
-        <v>3660</v>
+        <v>3661</v>
       </c>
       <c r="D1302" s="4"/>
     </row>
     <row r="1303" customHeight="1" spans="1:4">
       <c r="A1303" s="4" t="s">
-        <v>3661</v>
+        <v>3662</v>
       </c>
       <c r="B1303" s="4" t="s">
-        <v>3662</v>
+        <v>3663</v>
       </c>
       <c r="C1303" s="4" t="s">
-        <v>3663</v>
+        <v>3664</v>
       </c>
       <c r="D1303" s="4"/>
     </row>
     <row r="1304" customHeight="1" spans="1:4">
       <c r="A1304" s="4" t="s">
-        <v>3664</v>
+        <v>3665</v>
       </c>
       <c r="B1304" s="4" t="s">
-        <v>3665</v>
+        <v>3666</v>
       </c>
       <c r="C1304" s="4" t="s">
-        <v>3666</v>
+        <v>3667</v>
       </c>
       <c r="D1304" s="4"/>
     </row>
     <row r="1305" customHeight="1" spans="1:4">
       <c r="A1305" s="4" t="s">
-        <v>3667</v>
+        <v>3668</v>
       </c>
       <c r="B1305" s="4" t="s">
         <v>266</v>
       </c>
       <c r="C1305" s="4" t="s">
-        <v>3668</v>
+        <v>3669</v>
       </c>
       <c r="D1305" s="4"/>
     </row>
     <row r="1306" customHeight="1" spans="1:4">
       <c r="A1306" s="4" t="s">
-        <v>3669</v>
+        <v>3670</v>
       </c>
       <c r="B1306" s="4" t="s">
-        <v>3670</v>
+        <v>3671</v>
       </c>
       <c r="C1306" s="4" t="s">
-        <v>3671</v>
+        <v>3672</v>
       </c>
       <c r="D1306" s="4"/>
     </row>
     <row r="1307" customHeight="1" spans="1:4">
       <c r="A1307" s="4" t="s">
-        <v>3672</v>
+        <v>3673</v>
       </c>
       <c r="B1307" s="4" t="s">
-        <v>3673</v>
+        <v>3674</v>
       </c>
       <c r="C1307" s="4" t="s">
-        <v>3674</v>
+        <v>3675</v>
       </c>
       <c r="D1307" s="4"/>
     </row>
     <row r="1308" customHeight="1" spans="1:4">
       <c r="A1308" s="4" t="s">
-        <v>3675</v>
+        <v>3676</v>
       </c>
       <c r="B1308" s="4" t="s">
-        <v>3676</v>
+        <v>3677</v>
       </c>
       <c r="C1308" s="4" t="s">
         <v>266</v>
@@ -44907,10 +45688,10 @@
     </row>
     <row r="1309" customHeight="1" spans="1:4">
       <c r="A1309" s="4" t="s">
-        <v>3677</v>
+        <v>3678</v>
       </c>
       <c r="B1309" s="4" t="s">
-        <v>3678</v>
+        <v>3679</v>
       </c>
       <c r="C1309" s="4" t="s">
         <v>266</v>
@@ -44919,27 +45700,459 @@
     </row>
     <row r="1310" customHeight="1" spans="1:4">
       <c r="A1310" s="4" t="s">
-        <v>3679</v>
+        <v>3680</v>
       </c>
       <c r="B1310" s="4" t="s">
-        <v>3680</v>
+        <v>3681</v>
       </c>
       <c r="C1310" s="4" t="s">
-        <v>3681</v>
+        <v>3682</v>
       </c>
       <c r="D1310" s="4"/>
     </row>
     <row r="1311" customHeight="1" spans="1:4">
       <c r="A1311" s="4" t="s">
-        <v>3682</v>
+        <v>3683</v>
       </c>
       <c r="B1311" s="4" t="s">
-        <v>3683</v>
+        <v>3684</v>
       </c>
       <c r="C1311" s="4" t="s">
-        <v>3684</v>
+        <v>3685</v>
       </c>
       <c r="D1311" s="4"/>
+    </row>
+    <row r="1312" customHeight="1" spans="1:4">
+      <c r="A1312" s="4" t="s">
+        <v>3686</v>
+      </c>
+      <c r="B1312" s="4" t="s">
+        <v>3687</v>
+      </c>
+      <c r="C1312" s="4" t="s">
+        <v>3688</v>
+      </c>
+      <c r="D1312" s="4"/>
+    </row>
+    <row r="1313" customHeight="1" spans="1:4">
+      <c r="A1313" s="4" t="s">
+        <v>3689</v>
+      </c>
+      <c r="B1313" s="4" t="s">
+        <v>3690</v>
+      </c>
+      <c r="C1313" s="4" t="s">
+        <v>3691</v>
+      </c>
+      <c r="D1313" s="4"/>
+    </row>
+    <row r="1314" customHeight="1" spans="1:4">
+      <c r="A1314" s="4" t="s">
+        <v>3692</v>
+      </c>
+      <c r="B1314" s="4" t="s">
+        <v>3693</v>
+      </c>
+      <c r="C1314" s="4" t="s">
+        <v>3694</v>
+      </c>
+      <c r="D1314" s="4"/>
+    </row>
+    <row r="1315" customHeight="1" spans="1:4">
+      <c r="A1315" s="4" t="s">
+        <v>3695</v>
+      </c>
+      <c r="B1315" s="4" t="s">
+        <v>3696</v>
+      </c>
+      <c r="C1315" s="4" t="s">
+        <v>3697</v>
+      </c>
+      <c r="D1315" s="4"/>
+    </row>
+    <row r="1316" customHeight="1" spans="1:4">
+      <c r="A1316" s="4" t="s">
+        <v>3698</v>
+      </c>
+      <c r="B1316" s="4" t="s">
+        <v>3699</v>
+      </c>
+      <c r="C1316" s="4" t="s">
+        <v>3700</v>
+      </c>
+      <c r="D1316" s="4"/>
+    </row>
+    <row r="1317" customHeight="1" spans="1:4">
+      <c r="A1317" s="4" t="s">
+        <v>3701</v>
+      </c>
+      <c r="B1317" s="4" t="s">
+        <v>3702</v>
+      </c>
+      <c r="C1317" s="4" t="s">
+        <v>3703</v>
+      </c>
+      <c r="D1317" s="4"/>
+    </row>
+    <row r="1318" customHeight="1" spans="1:4">
+      <c r="A1318" s="4" t="s">
+        <v>3704</v>
+      </c>
+      <c r="B1318" s="4" t="s">
+        <v>3705</v>
+      </c>
+      <c r="C1318" s="4" t="s">
+        <v>3706</v>
+      </c>
+      <c r="D1318" s="4"/>
+    </row>
+    <row r="1319" customHeight="1" spans="1:4">
+      <c r="A1319" s="4" t="s">
+        <v>3707</v>
+      </c>
+      <c r="B1319" s="4" t="s">
+        <v>3708</v>
+      </c>
+      <c r="C1319" s="4" t="s">
+        <v>3709</v>
+      </c>
+      <c r="D1319" s="4"/>
+    </row>
+    <row r="1320" customHeight="1" spans="1:4">
+      <c r="A1320" s="4" t="s">
+        <v>3710</v>
+      </c>
+      <c r="B1320" s="4" t="s">
+        <v>3711</v>
+      </c>
+      <c r="C1320" s="4" t="s">
+        <v>3712</v>
+      </c>
+      <c r="D1320" s="4"/>
+    </row>
+    <row r="1321" customHeight="1" spans="1:4">
+      <c r="A1321" s="4" t="s">
+        <v>3713</v>
+      </c>
+      <c r="B1321" s="4" t="s">
+        <v>3714</v>
+      </c>
+      <c r="C1321" s="4" t="s">
+        <v>3715</v>
+      </c>
+      <c r="D1321" s="4"/>
+    </row>
+    <row r="1322" customHeight="1" spans="1:4">
+      <c r="A1322" s="4" t="s">
+        <v>3716</v>
+      </c>
+      <c r="B1322" s="4" t="s">
+        <v>3717</v>
+      </c>
+      <c r="C1322" s="4" t="s">
+        <v>3718</v>
+      </c>
+      <c r="D1322" s="4"/>
+    </row>
+    <row r="1323" customHeight="1" spans="1:4">
+      <c r="A1323" s="4" t="s">
+        <v>3719</v>
+      </c>
+      <c r="B1323" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="C1323" s="4" t="s">
+        <v>3720</v>
+      </c>
+      <c r="D1323" s="4"/>
+    </row>
+    <row r="1324" customHeight="1" spans="1:4">
+      <c r="A1324" s="4" t="s">
+        <v>3721</v>
+      </c>
+      <c r="B1324" s="4" t="s">
+        <v>3722</v>
+      </c>
+      <c r="C1324" s="4" t="s">
+        <v>3723</v>
+      </c>
+      <c r="D1324" s="4"/>
+    </row>
+    <row r="1325" customHeight="1" spans="1:4">
+      <c r="A1325" s="4" t="s">
+        <v>3724</v>
+      </c>
+      <c r="B1325" s="4" t="s">
+        <v>3725</v>
+      </c>
+      <c r="C1325" s="4" t="s">
+        <v>3726</v>
+      </c>
+      <c r="D1325" s="4"/>
+    </row>
+    <row r="1326" customHeight="1" spans="1:4">
+      <c r="A1326" s="4" t="s">
+        <v>3727</v>
+      </c>
+      <c r="B1326" s="4" t="s">
+        <v>3728</v>
+      </c>
+      <c r="C1326" s="4" t="s">
+        <v>3729</v>
+      </c>
+      <c r="D1326" s="4"/>
+    </row>
+    <row r="1327" customHeight="1" spans="1:4">
+      <c r="A1327" s="4" t="s">
+        <v>3730</v>
+      </c>
+      <c r="B1327" s="4" t="s">
+        <v>3731</v>
+      </c>
+      <c r="C1327" s="4" t="s">
+        <v>3732</v>
+      </c>
+      <c r="D1327" s="4"/>
+    </row>
+    <row r="1328" customHeight="1" spans="1:4">
+      <c r="A1328" s="4" t="s">
+        <v>3733</v>
+      </c>
+      <c r="B1328" s="4" t="s">
+        <v>3734</v>
+      </c>
+      <c r="C1328" s="4" t="s">
+        <v>3735</v>
+      </c>
+      <c r="D1328" s="4"/>
+    </row>
+    <row r="1329" customHeight="1" spans="1:4">
+      <c r="A1329" s="4" t="s">
+        <v>3736</v>
+      </c>
+      <c r="B1329" s="4" t="s">
+        <v>3737</v>
+      </c>
+      <c r="C1329" s="4" t="s">
+        <v>3738</v>
+      </c>
+      <c r="D1329" s="4"/>
+    </row>
+    <row r="1330" customHeight="1" spans="1:4">
+      <c r="A1330" s="4" t="s">
+        <v>3739</v>
+      </c>
+      <c r="B1330" s="4" t="s">
+        <v>3740</v>
+      </c>
+      <c r="C1330" s="4" t="s">
+        <v>3741</v>
+      </c>
+      <c r="D1330" s="4"/>
+    </row>
+    <row r="1331" customHeight="1" spans="1:4">
+      <c r="A1331" s="4" t="s">
+        <v>3742</v>
+      </c>
+      <c r="B1331" s="4" t="s">
+        <v>3743</v>
+      </c>
+      <c r="C1331" s="4" t="s">
+        <v>3744</v>
+      </c>
+      <c r="D1331" s="4"/>
+    </row>
+    <row r="1332" customHeight="1" spans="1:4">
+      <c r="A1332" s="4" t="s">
+        <v>3745</v>
+      </c>
+      <c r="B1332" s="4" t="s">
+        <v>3746</v>
+      </c>
+      <c r="C1332" s="4" t="s">
+        <v>3747</v>
+      </c>
+      <c r="D1332" s="4"/>
+    </row>
+    <row r="1333" customHeight="1" spans="1:4">
+      <c r="A1333" s="4" t="s">
+        <v>3748</v>
+      </c>
+      <c r="B1333" s="4" t="s">
+        <v>3749</v>
+      </c>
+      <c r="C1333" s="4" t="s">
+        <v>3750</v>
+      </c>
+      <c r="D1333" s="4"/>
+    </row>
+    <row r="1334" customHeight="1" spans="1:4">
+      <c r="A1334" s="4" t="s">
+        <v>3751</v>
+      </c>
+      <c r="B1334" s="4" t="s">
+        <v>3752</v>
+      </c>
+      <c r="C1334" s="4" t="s">
+        <v>3753</v>
+      </c>
+      <c r="D1334" s="4"/>
+    </row>
+    <row r="1335" customHeight="1" spans="1:4">
+      <c r="A1335" s="4" t="s">
+        <v>3754</v>
+      </c>
+      <c r="B1335" s="4" t="s">
+        <v>3755</v>
+      </c>
+      <c r="C1335" s="4" t="s">
+        <v>3756</v>
+      </c>
+      <c r="D1335" s="4"/>
+    </row>
+    <row r="1336" customHeight="1" spans="1:4">
+      <c r="A1336" s="4" t="s">
+        <v>3757</v>
+      </c>
+      <c r="B1336" s="4" t="s">
+        <v>3758</v>
+      </c>
+      <c r="C1336" s="4" t="s">
+        <v>3759</v>
+      </c>
+      <c r="D1336" s="4"/>
+    </row>
+    <row r="1337" customHeight="1" spans="1:4">
+      <c r="A1337" s="4" t="s">
+        <v>3760</v>
+      </c>
+      <c r="B1337" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="C1337" s="4" t="s">
+        <v>3761</v>
+      </c>
+      <c r="D1337" s="4"/>
+    </row>
+    <row r="1338" customHeight="1" spans="1:4">
+      <c r="A1338" s="4" t="s">
+        <v>3762</v>
+      </c>
+      <c r="B1338" s="4" t="s">
+        <v>3763</v>
+      </c>
+      <c r="C1338" s="4" t="s">
+        <v>3764</v>
+      </c>
+      <c r="D1338" s="4"/>
+    </row>
+    <row r="1339" customHeight="1" spans="1:4">
+      <c r="A1339" s="4" t="s">
+        <v>3765</v>
+      </c>
+      <c r="B1339" s="4" t="s">
+        <v>3766</v>
+      </c>
+      <c r="C1339" s="4" t="s">
+        <v>3767</v>
+      </c>
+      <c r="D1339" s="4"/>
+    </row>
+    <row r="1340" customHeight="1" spans="1:4">
+      <c r="A1340" s="4" t="s">
+        <v>3768</v>
+      </c>
+      <c r="B1340" s="4" t="s">
+        <v>3769</v>
+      </c>
+      <c r="C1340" s="4" t="s">
+        <v>3770</v>
+      </c>
+      <c r="D1340" s="4"/>
+    </row>
+    <row r="1341" customHeight="1" spans="1:4">
+      <c r="A1341" s="4" t="s">
+        <v>3771</v>
+      </c>
+      <c r="B1341" s="4" t="s">
+        <v>3772</v>
+      </c>
+      <c r="C1341" s="4" t="s">
+        <v>3773</v>
+      </c>
+      <c r="D1341" s="4"/>
+    </row>
+    <row r="1342" customHeight="1" spans="1:4">
+      <c r="A1342" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="B1342" s="4" t="s">
+        <v>3775</v>
+      </c>
+      <c r="C1342" s="4" t="s">
+        <v>3776</v>
+      </c>
+      <c r="D1342" s="4"/>
+    </row>
+    <row r="1343" customHeight="1" spans="1:4">
+      <c r="A1343" s="4" t="s">
+        <v>3777</v>
+      </c>
+      <c r="B1343" s="4" t="s">
+        <v>3778</v>
+      </c>
+      <c r="C1343" s="4" t="s">
+        <v>3779</v>
+      </c>
+      <c r="D1343" s="4"/>
+    </row>
+    <row r="1344" customHeight="1" spans="1:4">
+      <c r="A1344" s="4" t="s">
+        <v>3780</v>
+      </c>
+      <c r="B1344" s="4" t="s">
+        <v>3781</v>
+      </c>
+      <c r="C1344" s="4" t="s">
+        <v>3782</v>
+      </c>
+      <c r="D1344" s="4"/>
+    </row>
+    <row r="1345" customHeight="1" spans="1:4">
+      <c r="A1345" s="4" t="s">
+        <v>3783</v>
+      </c>
+      <c r="B1345" s="4" t="s">
+        <v>3784</v>
+      </c>
+      <c r="C1345" s="4" t="s">
+        <v>3785</v>
+      </c>
+      <c r="D1345" s="4"/>
+    </row>
+    <row r="1346" customHeight="1" spans="1:4">
+      <c r="A1346" s="4" t="s">
+        <v>3786</v>
+      </c>
+      <c r="B1346" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="C1346" s="4" t="s">
+        <v>3787</v>
+      </c>
+      <c r="D1346" s="4"/>
+    </row>
+    <row r="1347" customHeight="1" spans="1:4">
+      <c r="A1347" s="4" t="s">
+        <v>3788</v>
+      </c>
+      <c r="B1347" s="4" t="s">
+        <v>3789</v>
+      </c>
+      <c r="C1347" s="4" t="s">
+        <v>3790</v>
+      </c>
+      <c r="D1347" s="4"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertColumns="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>

--- a/影视剧.xlsx
+++ b/影视剧.xlsx
@@ -11,7 +11,7 @@
     <sheet name="影视剧(3)" sheetId="3" state="veryHidden" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">影视剧!$A$1:$C$1510</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">影视剧!$A$1:$C$1548</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9155" uniqueCount="4301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9305" uniqueCount="4354">
   <si>
     <t>注意：不要相信视频或者文件内的广告和二维码！谨防诈骗！谨防诈骗！谨防诈骗！</t>
   </si>
@@ -899,7 +899,7 @@
     <t>https://pan.quark.cn/s/a7479db36cd6</t>
   </si>
   <si>
-    <t>熔炉（2011）</t>
+    <t>熔炉（2011）韩国</t>
   </si>
   <si>
     <t>https://pan.baidu.com/s/17BTsucpE8snN1Kq__qazEw?pwd=gh2g</t>
@@ -4307,7 +4307,7 @@
     <t>https://pan.quark.cn/s/e0d9f96f3441</t>
   </si>
   <si>
-    <t>充气娃娃之恋</t>
+    <t>充气娃娃之恋（2007）美国</t>
   </si>
   <si>
     <t>https://pan.baidu.com/s/1sL_Gv5wFBnFNvWfJwL862w?pwd=cxmf</t>
@@ -7268,7 +7268,7 @@
     <t>https://pan.quark.cn/s/8e460c8b0ee0</t>
   </si>
   <si>
-    <t>最后生还者</t>
+    <t>最后生还者 第1季（2023）美国/加拿大</t>
   </si>
   <si>
     <t>https://pan.baidu.com/s/1ytIXxnjrO0_RBpjIjd5aBw?pwd=i63k</t>
@@ -12365,7 +12365,7 @@
     <t>https://pan.quark.cn/s/9dbb8c544a0d</t>
   </si>
   <si>
-    <t>蓝精灵</t>
+    <t>蓝精灵 美国/比利时</t>
   </si>
   <si>
     <t>https://pan.baidu.com/s/1McBkUntyA3XCYSHj5OoK_A?pwd=xvwh</t>
@@ -12383,7 +12383,7 @@
     <t>https://pan.quark.cn/s/1ad866e94594</t>
   </si>
   <si>
-    <t>米奇妙妙屋</t>
+    <t>米奇妙妙屋 美国</t>
   </si>
   <si>
     <t>https://pan.baidu.com/s/1vtq_wzaa0x2wRWIu4BZ8GQ?pwd=tny7</t>
@@ -12521,7 +12521,7 @@
     <t>https://pan.quark.cn/s/5d00c83bf0ad</t>
   </si>
   <si>
-    <t>怪诞小镇 1-2季</t>
+    <t>怪诞小镇 1-2季 美国</t>
   </si>
   <si>
     <t>https://pan.baidu.com/s/1rRuS6dGOIJL4AHvNCd9rwA?pwd=fdmf</t>
@@ -12530,7 +12530,7 @@
     <t>https://pan.quark.cn/s/15c37d585aab</t>
   </si>
   <si>
-    <t>怪诞小镇 番外</t>
+    <t>怪诞小镇 番外 美国</t>
   </si>
   <si>
     <t>https://pan.baidu.com/s/1na7RpQ2Dx6N3NWp5Ic5Y1w?pwd=v9dt</t>
@@ -12539,13 +12539,13 @@
     <t>https://pan.quark.cn/s/2001ee80af6f</t>
   </si>
   <si>
-    <t>怪诞小镇 特辑</t>
+    <t>怪诞小镇 特辑 美国</t>
   </si>
   <si>
     <t>https://pan.quark.cn/s/67ba1399f032</t>
   </si>
   <si>
-    <t>怪诞小镇系列合集</t>
+    <t>怪诞小镇系列合集 美国</t>
   </si>
   <si>
     <t>https://pan.baidu.com/s/1egsJhjRhuWZA4Du5lVV7Vw?pwd=k9jd</t>
@@ -12734,7 +12734,7 @@
     <t>https://pan.quark.cn/s/ce5524759492</t>
   </si>
   <si>
-    <t>国土安全 1-8季</t>
+    <t>国土安全 1-8季 美国</t>
   </si>
   <si>
     <t>https://pan.baidu.com/s/1O9_SSeTgTBmv_BlVYLTfjg?pwd=qpri</t>
@@ -12743,7 +12743,7 @@
     <t>https://pan.quark.cn/s/acd5f90a35d8</t>
   </si>
   <si>
-    <t>我是特种兵（2011）</t>
+    <t>我是特种兵（2011）中国大陆</t>
   </si>
   <si>
     <t>https://pan.baidu.com/s/1PWmTvdGdMQvFNIiN6M8fdQ?pwd=dms1</t>
@@ -12752,7 +12752,7 @@
     <t>https://pan.quark.cn/s/c55e07182862</t>
   </si>
   <si>
-    <t>我是特种兵之利刃出鞘（2012）</t>
+    <t>我是特种兵之利刃出鞘（2012）中国大陆</t>
   </si>
   <si>
     <t>https://pan.baidu.com/s/1lnHtXNKQT8nctwrA3qPYNg?pwd=ntaf</t>
@@ -12761,7 +12761,7 @@
     <t>https://pan.quark.cn/s/3f83abf8b0f2</t>
   </si>
   <si>
-    <t>特种兵之火凤凰（2013）</t>
+    <t>特种兵之火凤凰（2013）中国大陆</t>
   </si>
   <si>
     <t>https://pan.baidu.com/s/1PJWyyu1eAeAz82zGWF6iow?pwd=pgir</t>
@@ -12770,7 +12770,7 @@
     <t>https://pan.quark.cn/s/0f62d4952978</t>
   </si>
   <si>
-    <t>特种兵之霹雳火（2016）</t>
+    <t>特种兵之霹雳火（2016）中国大陆</t>
   </si>
   <si>
     <t>https://pan.baidu.com/s/1dvQC-LJOhVKHy5BKGepALA?pwd=mpr6</t>
@@ -12779,7 +12779,7 @@
     <t>https://pan.quark.cn/s/670a8ac56324</t>
   </si>
   <si>
-    <t>光渊（2025）</t>
+    <t>光渊（2025）中国大陆</t>
   </si>
   <si>
     <t>https://pan.baidu.com/s/12WqvIQUMaIJ-VFt_rwNdEg?pwd=dgtr</t>
@@ -12788,7 +12788,7 @@
     <t>https://pan.quark.cn/s/9a341729ef72</t>
   </si>
   <si>
-    <t>使女的故事 1-5季</t>
+    <t>使女的故事 1-5季 美国</t>
   </si>
   <si>
     <t>https://pan.baidu.com/s/1MHc6sK3LSFGT-ZVMW82_lA?pwd=dwrk</t>
@@ -12797,7 +12797,7 @@
     <t>https://pan.quark.cn/s/e6a4e9e5a588</t>
   </si>
   <si>
-    <t>时光之轮 1-2季</t>
+    <t>时光之轮 1-2季 美国</t>
   </si>
   <si>
     <t>https://pan.baidu.com/s/1YY30r2JD_fMfReZU5menbQ?pwd=c7ei</t>
@@ -12911,7 +12911,7 @@
     <t>https://pan.baidu.com/s/1flOD0FFWjs1iS69H5mZGXA?pwd=4yhv</t>
   </si>
   <si>
-    <t>活死人归来 1-5部</t>
+    <t>活死人归来 1-5部 美国</t>
   </si>
   <si>
     <t>https://pan.baidu.com/s/1xgyvD59FftAeg8V3b-mkjg?pwd=r33g</t>
@@ -12945,6 +12945,165 @@
   </si>
   <si>
     <t>https://pan.baidu.com/s/1zGeTSmgKszuQgeqZQXon7g?pwd=9pqy</t>
+  </si>
+  <si>
+    <t>化外之医（2025）中国台湾</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/10mpIgYtWXi5ivV_gA5C-1g?pwd=48jw</t>
+  </si>
+  <si>
+    <t>塔尔萨之王 第2季（2024）美国</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/11pllIwOPU7pQvfISSSEXDA?pwd=s7ea</t>
+  </si>
+  <si>
+    <t>塔尔萨之王 第1季（2022）美国</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1HBtKXqSNE7xVQw-GKcPnDA?pwd=fw8j</t>
+  </si>
+  <si>
+    <t>袭击（2018）印度</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1GxXD8aLIXWAeqFIh7Sligg?pwd=rv3a</t>
+  </si>
+  <si>
+    <t>心灵驿站（2003）美国</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/18wA4Wai0BKi_Qxx_a_MVfQ?pwd=4fji</t>
+  </si>
+  <si>
+    <t>南海十三郎（1997）中国香港</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1Rkcvy6ycbsYz6XxFRrnjuA?pwd=iebp</t>
+  </si>
+  <si>
+    <t>太后吉祥（1996）中国大陆</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1mPx_9iWuH6C5lxVuUtJAcg?pwd=7sp9</t>
+  </si>
+  <si>
+    <t>第39号案件（2009）美国/加拿大</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1lanaG4Ew6J5_IiaZR8g6rQ?pwd=688y</t>
+  </si>
+  <si>
+    <t>时间规划局（2011）美国</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/18f0QAjIRv37We5Y46EN6PA?pwd=8sq4</t>
+  </si>
+  <si>
+    <t>疯羊（2007）新西兰/韩国</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1YxTu75RNAOQwN2duu3Xu7w?pwd=jw94</t>
+  </si>
+  <si>
+    <t>驭风男孩（2019）英国</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1SCW825nCPuufwIzH9YzeqA?pwd=sygs</t>
+  </si>
+  <si>
+    <t>可可西里（2004）中国香港</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1mrPlH8k8ziHIuaT_Ef7sWQ?pwd=5hu6</t>
+  </si>
+  <si>
+    <t>没有过去的男人（2002）芬兰/德国/法国</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/11f2E_BZoj6DeAd5-1F9a0w?pwd=ghej</t>
+  </si>
+  <si>
+    <t>代号47（2015）美国/英国/德国/加拿大</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1UiUdUYNIXnDz0hyBRBf2Rg?pwd=5qx7</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/4696b1d3c392</t>
+  </si>
+  <si>
+    <t>杀手：代号47（2007）美国/法国</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1oLV_OlxIdsBGSZ4tzs9dzQ?pwd=1sb7</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/f5003bad33a2</t>
+  </si>
+  <si>
+    <t>攻壳机动队（1995）日本</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1GiRJ6bTOS0aXNSd91MESIA?pwd=anjg</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/2d5e3dd62017</t>
+  </si>
+  <si>
+    <t>铁齿铜牙纪晓岚（2000）中国大陆</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1oezhjiV9iQYLviIkrTyHJw?pwd=48gx</t>
+  </si>
+  <si>
+    <t>墓道（2007）中国大陆</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1pQURsIPo_8yWHiG7HJAq5Q?pwd=g8aw</t>
+  </si>
+  <si>
+    <t>破产姐妹 1-6季 美国</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1M7mCSfznq1yqQCIW03u8Xw?pwd=uusn</t>
+  </si>
+  <si>
+    <t>生活大爆炸 1-12季 美国</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1XNTFFbG8R0mPqGI18l7poQ?pwd=njr8</t>
+  </si>
+  <si>
+    <t>摩登家庭 1-11季 美国</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1Tov_XSr7t-72xfv1U3Z6VQ?pwd=i55s</t>
+  </si>
+  <si>
+    <t>斯巴达克斯 1-4季 美国</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1HF15Vzjyz53PGk3Fo5Dftg?pwd=bgvn</t>
+  </si>
+  <si>
+    <t>少年谢尔顿/小谢尔顿 1-6季 美国</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1eVgtMKny7v2u7jfTeIkQww?pwd=uj31</t>
+  </si>
+  <si>
+    <t>绝望主妇 1-8季 美国</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1LPSFKQsNWoPwdcwID2Yoxw?pwd=93ig</t>
+  </si>
+  <si>
+    <t>唐顿庄园 1-6季 英国</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1mCOqYlIB-cUm0tLe0XAEdw?pwd=qgru</t>
   </si>
   <si>
     <t>文本</t>
@@ -13973,7 +14132,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="影视剧_3" displayName="影视剧_3" ref="A1:D1525" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="影视剧_3" displayName="影视剧_3" ref="A1:D1550" totalsRowShown="0">
   <tableColumns count="4">
     <tableColumn id="1" name="环太平洋 1-2部 美国"/>
     <tableColumn id="2" name="https://pan.baidu.com/s/1uY8kk83FrhdvCbY9w_borg?pwd=aasg"/>
@@ -14242,10 +14401,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D1529"/>
+  <dimension ref="A1:D1554"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A2" sqref="A2:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.3333333333333" defaultRowHeight="19.5" outlineLevelCol="3"/>
@@ -30933,7 +31092,7 @@
       <c r="A1518" s="11" t="s">
         <v>4275</v>
       </c>
-      <c r="B1518" s="16" t="s">
+      <c r="B1518" s="12" t="s">
         <v>4276</v>
       </c>
       <c r="C1518" s="11" t="s">
@@ -30944,7 +31103,7 @@
       <c r="A1519" s="11" t="s">
         <v>4277</v>
       </c>
-      <c r="B1519" s="16" t="s">
+      <c r="B1519" s="12" t="s">
         <v>4278</v>
       </c>
       <c r="C1519" s="11" t="s">
@@ -30955,7 +31114,7 @@
       <c r="A1520" s="11" t="s">
         <v>4279</v>
       </c>
-      <c r="B1520" s="16" t="s">
+      <c r="B1520" s="12" t="s">
         <v>4280</v>
       </c>
       <c r="C1520" s="11" t="s">
@@ -30966,7 +31125,7 @@
       <c r="A1521" s="11" t="s">
         <v>4281</v>
       </c>
-      <c r="B1521" s="16" t="s">
+      <c r="B1521" s="12" t="s">
         <v>4282</v>
       </c>
       <c r="C1521" s="11" t="s">
@@ -30977,7 +31136,7 @@
       <c r="A1522" s="11" t="s">
         <v>4283</v>
       </c>
-      <c r="B1522" s="16" t="s">
+      <c r="B1522" s="12" t="s">
         <v>4284</v>
       </c>
       <c r="C1522" s="11" t="s">
@@ -30988,7 +31147,7 @@
       <c r="A1523" s="11" t="s">
         <v>4285</v>
       </c>
-      <c r="B1523" s="16" t="s">
+      <c r="B1523" s="12" t="s">
         <v>4286</v>
       </c>
       <c r="C1523" s="11" t="s">
@@ -30999,7 +31158,7 @@
       <c r="A1524" s="11" t="s">
         <v>4287</v>
       </c>
-      <c r="B1524" s="16" t="s">
+      <c r="B1524" s="12" t="s">
         <v>4288</v>
       </c>
       <c r="C1524" s="11" t="s">
@@ -31010,7 +31169,7 @@
       <c r="A1525" s="11" t="s">
         <v>4289</v>
       </c>
-      <c r="B1525" s="16" t="s">
+      <c r="B1525" s="12" t="s">
         <v>4290</v>
       </c>
       <c r="C1525" s="11" t="s">
@@ -31021,7 +31180,7 @@
       <c r="A1526" s="11" t="s">
         <v>4291</v>
       </c>
-      <c r="B1526" s="16" t="s">
+      <c r="B1526" s="12" t="s">
         <v>4292</v>
       </c>
       <c r="C1526" s="11" t="s">
@@ -31032,7 +31191,7 @@
       <c r="A1527" s="11" t="s">
         <v>4293</v>
       </c>
-      <c r="B1527" s="16" t="s">
+      <c r="B1527" s="12" t="s">
         <v>4294</v>
       </c>
       <c r="C1527" s="11" t="s">
@@ -31043,7 +31202,7 @@
       <c r="A1528" s="11" t="s">
         <v>4295</v>
       </c>
-      <c r="B1528" s="16" t="s">
+      <c r="B1528" s="12" t="s">
         <v>4296</v>
       </c>
       <c r="C1528" s="11" t="s">
@@ -31054,10 +31213,285 @@
       <c r="A1529" s="11" t="s">
         <v>4297</v>
       </c>
-      <c r="B1529" s="16" t="s">
+      <c r="B1529" s="12" t="s">
         <v>4298</v>
       </c>
       <c r="C1529" s="11" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="1530" spans="1:3">
+      <c r="A1530" s="11" t="s">
+        <v>4299</v>
+      </c>
+      <c r="B1530" s="12" t="s">
+        <v>4300</v>
+      </c>
+      <c r="C1530" s="11" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="1531" spans="1:3">
+      <c r="A1531" s="11" t="s">
+        <v>4301</v>
+      </c>
+      <c r="B1531" s="12" t="s">
+        <v>4302</v>
+      </c>
+      <c r="C1531" s="11" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="1532" spans="1:3">
+      <c r="A1532" s="11" t="s">
+        <v>4303</v>
+      </c>
+      <c r="B1532" s="12" t="s">
+        <v>4304</v>
+      </c>
+      <c r="C1532" s="11" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="1533" spans="1:3">
+      <c r="A1533" s="11" t="s">
+        <v>4305</v>
+      </c>
+      <c r="B1533" s="12" t="s">
+        <v>4306</v>
+      </c>
+      <c r="C1533" s="11" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="1534" spans="1:3">
+      <c r="A1534" s="11" t="s">
+        <v>4307</v>
+      </c>
+      <c r="B1534" s="12" t="s">
+        <v>4308</v>
+      </c>
+      <c r="C1534" s="11" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="1535" spans="1:3">
+      <c r="A1535" s="11" t="s">
+        <v>4309</v>
+      </c>
+      <c r="B1535" s="12" t="s">
+        <v>4310</v>
+      </c>
+      <c r="C1535" s="11" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="1536" spans="1:3">
+      <c r="A1536" s="11" t="s">
+        <v>4311</v>
+      </c>
+      <c r="B1536" s="12" t="s">
+        <v>4312</v>
+      </c>
+      <c r="C1536" s="11" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="1537" spans="1:3">
+      <c r="A1537" s="11" t="s">
+        <v>4313</v>
+      </c>
+      <c r="B1537" s="12" t="s">
+        <v>4314</v>
+      </c>
+      <c r="C1537" s="11" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="1538" spans="1:3">
+      <c r="A1538" s="11" t="s">
+        <v>4315</v>
+      </c>
+      <c r="B1538" s="12" t="s">
+        <v>4316</v>
+      </c>
+      <c r="C1538" s="11" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="1539" spans="1:3">
+      <c r="A1539" s="11" t="s">
+        <v>4317</v>
+      </c>
+      <c r="B1539" s="12" t="s">
+        <v>4318</v>
+      </c>
+      <c r="C1539" s="11" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="1540" spans="1:3">
+      <c r="A1540" s="11" t="s">
+        <v>4319</v>
+      </c>
+      <c r="B1540" s="12" t="s">
+        <v>4320</v>
+      </c>
+      <c r="C1540" s="11" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="1541" spans="1:3">
+      <c r="A1541" s="11" t="s">
+        <v>4321</v>
+      </c>
+      <c r="B1541" s="12" t="s">
+        <v>4322</v>
+      </c>
+      <c r="C1541" s="11" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="1542" spans="1:3">
+      <c r="A1542" s="11" t="s">
+        <v>4323</v>
+      </c>
+      <c r="B1542" s="12" t="s">
+        <v>4324</v>
+      </c>
+      <c r="C1542" s="11" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="1543" spans="1:3">
+      <c r="A1543" s="11" t="s">
+        <v>4325</v>
+      </c>
+      <c r="B1543" s="16" t="s">
+        <v>4326</v>
+      </c>
+      <c r="C1543" s="16" t="s">
+        <v>4327</v>
+      </c>
+    </row>
+    <row r="1544" spans="1:3">
+      <c r="A1544" s="11" t="s">
+        <v>4328</v>
+      </c>
+      <c r="B1544" s="16" t="s">
+        <v>4329</v>
+      </c>
+      <c r="C1544" s="16" t="s">
+        <v>4330</v>
+      </c>
+    </row>
+    <row r="1545" spans="1:3">
+      <c r="A1545" s="11" t="s">
+        <v>4331</v>
+      </c>
+      <c r="B1545" s="16" t="s">
+        <v>4332</v>
+      </c>
+      <c r="C1545" s="16" t="s">
+        <v>4333</v>
+      </c>
+    </row>
+    <row r="1546" spans="1:3">
+      <c r="A1546" s="11" t="s">
+        <v>4334</v>
+      </c>
+      <c r="B1546" s="16" t="s">
+        <v>4335</v>
+      </c>
+      <c r="C1546" s="11" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="1547" spans="1:3">
+      <c r="A1547" s="11" t="s">
+        <v>4336</v>
+      </c>
+      <c r="B1547" s="16" t="s">
+        <v>4337</v>
+      </c>
+      <c r="C1547" s="11" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="1548" spans="1:3">
+      <c r="A1548" s="11" t="s">
+        <v>4338</v>
+      </c>
+      <c r="B1548" s="16" t="s">
+        <v>4339</v>
+      </c>
+      <c r="C1548" s="11" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="1549" spans="1:3">
+      <c r="A1549" s="11" t="s">
+        <v>4340</v>
+      </c>
+      <c r="B1549" s="16" t="s">
+        <v>4341</v>
+      </c>
+      <c r="C1549" s="11" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="1550" spans="1:3">
+      <c r="A1550" s="11" t="s">
+        <v>4342</v>
+      </c>
+      <c r="B1550" s="16" t="s">
+        <v>4343</v>
+      </c>
+      <c r="C1550" s="11" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="1551" spans="1:3">
+      <c r="A1551" s="11" t="s">
+        <v>4344</v>
+      </c>
+      <c r="B1551" s="16" t="s">
+        <v>4345</v>
+      </c>
+      <c r="C1551" s="11" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="1552" spans="1:3">
+      <c r="A1552" s="11" t="s">
+        <v>4346</v>
+      </c>
+      <c r="B1552" s="16" t="s">
+        <v>4347</v>
+      </c>
+      <c r="C1552" s="11" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="1553" spans="1:3">
+      <c r="A1553" s="11" t="s">
+        <v>4348</v>
+      </c>
+      <c r="B1553" s="16" t="s">
+        <v>4349</v>
+      </c>
+      <c r="C1553" s="11" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="1554" spans="1:3">
+      <c r="A1554" s="11" t="s">
+        <v>4350</v>
+      </c>
+      <c r="B1554" s="16" t="s">
+        <v>4351</v>
+      </c>
+      <c r="C1554" s="11" t="s">
         <v>278</v>
       </c>
     </row>
@@ -33829,6 +34263,34 @@
     <hyperlink ref="B1527" r:id="rId2754" display="https://pan.baidu.com/s/1nYNKqjhlyyznKJKOcRu-aQ?pwd=fnth"/>
     <hyperlink ref="B1528" r:id="rId2755" display="https://pan.baidu.com/s/1D35vRGSvzLP2Hl_GgsfyDA?pwd=ayjc"/>
     <hyperlink ref="B1529" r:id="rId2756" display="https://pan.baidu.com/s/1zGeTSmgKszuQgeqZQXon7g?pwd=9pqy"/>
+    <hyperlink ref="B1530" r:id="rId2757" display="https://pan.baidu.com/s/10mpIgYtWXi5ivV_gA5C-1g?pwd=48jw"/>
+    <hyperlink ref="B1531" r:id="rId2758" display="https://pan.baidu.com/s/11pllIwOPU7pQvfISSSEXDA?pwd=s7ea"/>
+    <hyperlink ref="B1532" r:id="rId2759" display="https://pan.baidu.com/s/1HBtKXqSNE7xVQw-GKcPnDA?pwd=fw8j"/>
+    <hyperlink ref="B1533" r:id="rId2760" display="https://pan.baidu.com/s/1GxXD8aLIXWAeqFIh7Sligg?pwd=rv3a"/>
+    <hyperlink ref="B1534" r:id="rId2761" display="https://pan.baidu.com/s/18wA4Wai0BKi_Qxx_a_MVfQ?pwd=4fji"/>
+    <hyperlink ref="B1535" r:id="rId2762" display="https://pan.baidu.com/s/1Rkcvy6ycbsYz6XxFRrnjuA?pwd=iebp"/>
+    <hyperlink ref="B1536" r:id="rId2763" display="https://pan.baidu.com/s/1mPx_9iWuH6C5lxVuUtJAcg?pwd=7sp9"/>
+    <hyperlink ref="B1537" r:id="rId2764" display="https://pan.baidu.com/s/1lanaG4Ew6J5_IiaZR8g6rQ?pwd=688y"/>
+    <hyperlink ref="B1538" r:id="rId2765" display="https://pan.baidu.com/s/18f0QAjIRv37We5Y46EN6PA?pwd=8sq4"/>
+    <hyperlink ref="B1539" r:id="rId2766" display="https://pan.baidu.com/s/1YxTu75RNAOQwN2duu3Xu7w?pwd=jw94"/>
+    <hyperlink ref="B1540" r:id="rId2767" display="https://pan.baidu.com/s/1SCW825nCPuufwIzH9YzeqA?pwd=sygs"/>
+    <hyperlink ref="B1541" r:id="rId2768" display="https://pan.baidu.com/s/1mrPlH8k8ziHIuaT_Ef7sWQ?pwd=5hu6"/>
+    <hyperlink ref="B1542" r:id="rId2769" display="https://pan.baidu.com/s/11f2E_BZoj6DeAd5-1F9a0w?pwd=ghej"/>
+    <hyperlink ref="C1543" r:id="rId2770" display="https://pan.quark.cn/s/4696b1d3c392"/>
+    <hyperlink ref="B1543" r:id="rId2771" display="https://pan.baidu.com/s/1UiUdUYNIXnDz0hyBRBf2Rg?pwd=5qx7"/>
+    <hyperlink ref="B1544" r:id="rId2772" display="https://pan.baidu.com/s/1oLV_OlxIdsBGSZ4tzs9dzQ?pwd=1sb7"/>
+    <hyperlink ref="C1544" r:id="rId2773" display="https://pan.quark.cn/s/f5003bad33a2"/>
+    <hyperlink ref="B1545" r:id="rId2774" display="https://pan.baidu.com/s/1GiRJ6bTOS0aXNSd91MESIA?pwd=anjg"/>
+    <hyperlink ref="C1545" r:id="rId2775" display="https://pan.quark.cn/s/2d5e3dd62017"/>
+    <hyperlink ref="B1546" r:id="rId2776" display="https://pan.baidu.com/s/1oezhjiV9iQYLviIkrTyHJw?pwd=48gx"/>
+    <hyperlink ref="B1547" r:id="rId2777" display="https://pan.baidu.com/s/1pQURsIPo_8yWHiG7HJAq5Q?pwd=g8aw"/>
+    <hyperlink ref="B1548" r:id="rId2778" display="https://pan.baidu.com/s/1M7mCSfznq1yqQCIW03u8Xw?pwd=uusn"/>
+    <hyperlink ref="B1549" r:id="rId2779" display="https://pan.baidu.com/s/1XNTFFbG8R0mPqGI18l7poQ?pwd=njr8"/>
+    <hyperlink ref="B1550" r:id="rId2780" display="https://pan.baidu.com/s/1Tov_XSr7t-72xfv1U3Z6VQ?pwd=i55s"/>
+    <hyperlink ref="B1551" r:id="rId2781" display="https://pan.baidu.com/s/1HF15Vzjyz53PGk3Fo5Dftg?pwd=bgvn"/>
+    <hyperlink ref="B1552" r:id="rId2782" display="https://pan.baidu.com/s/1eVgtMKny7v2u7jfTeIkQww?pwd=uj31"/>
+    <hyperlink ref="B1553" r:id="rId2783" display="https://pan.baidu.com/s/1LPSFKQsNWoPwdcwID2Yoxw?pwd=93ig"/>
+    <hyperlink ref="B1554" r:id="rId2784" display="https://pan.baidu.com/s/1mCOqYlIB-cUm0tLe0XAEdw?pwd=qgru"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -33838,7 +34300,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D1525"/>
+  <dimension ref="A1:D1550"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection/>
@@ -33864,7 +34326,7 @@
         <v>6</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>4299</v>
+        <v>4352</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:4">
@@ -50813,7 +51275,7 @@
     </row>
     <row r="1414" customHeight="1" spans="1:4">
       <c r="A1414" s="5" t="s">
-        <v>4300</v>
+        <v>4353</v>
       </c>
       <c r="B1414" s="4" t="s">
         <v>3987</v>
@@ -52154,6 +52616,306 @@
         <v>278</v>
       </c>
       <c r="D1525" s="4"/>
+    </row>
+    <row r="1526" customHeight="1" spans="1:4">
+      <c r="A1526" s="4" t="s">
+        <v>4299</v>
+      </c>
+      <c r="B1526" s="4" t="s">
+        <v>4300</v>
+      </c>
+      <c r="C1526" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="D1526" s="4"/>
+    </row>
+    <row r="1527" customHeight="1" spans="1:4">
+      <c r="A1527" s="4" t="s">
+        <v>4301</v>
+      </c>
+      <c r="B1527" s="4" t="s">
+        <v>4302</v>
+      </c>
+      <c r="C1527" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="D1527" s="4"/>
+    </row>
+    <row r="1528" customHeight="1" spans="1:4">
+      <c r="A1528" s="4" t="s">
+        <v>4303</v>
+      </c>
+      <c r="B1528" s="4" t="s">
+        <v>4304</v>
+      </c>
+      <c r="C1528" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="D1528" s="4"/>
+    </row>
+    <row r="1529" customHeight="1" spans="1:4">
+      <c r="A1529" s="4" t="s">
+        <v>4305</v>
+      </c>
+      <c r="B1529" s="4" t="s">
+        <v>4306</v>
+      </c>
+      <c r="C1529" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="D1529" s="4"/>
+    </row>
+    <row r="1530" customHeight="1" spans="1:4">
+      <c r="A1530" s="4" t="s">
+        <v>4307</v>
+      </c>
+      <c r="B1530" s="4" t="s">
+        <v>4308</v>
+      </c>
+      <c r="C1530" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="D1530" s="4"/>
+    </row>
+    <row r="1531" customHeight="1" spans="1:4">
+      <c r="A1531" s="4" t="s">
+        <v>4309</v>
+      </c>
+      <c r="B1531" s="4" t="s">
+        <v>4310</v>
+      </c>
+      <c r="C1531" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="D1531" s="4"/>
+    </row>
+    <row r="1532" customHeight="1" spans="1:4">
+      <c r="A1532" s="4" t="s">
+        <v>4311</v>
+      </c>
+      <c r="B1532" s="4" t="s">
+        <v>4312</v>
+      </c>
+      <c r="C1532" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="D1532" s="4"/>
+    </row>
+    <row r="1533" customHeight="1" spans="1:4">
+      <c r="A1533" s="4" t="s">
+        <v>4313</v>
+      </c>
+      <c r="B1533" s="4" t="s">
+        <v>4314</v>
+      </c>
+      <c r="C1533" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="D1533" s="4"/>
+    </row>
+    <row r="1534" customHeight="1" spans="1:4">
+      <c r="A1534" s="4" t="s">
+        <v>4315</v>
+      </c>
+      <c r="B1534" s="4" t="s">
+        <v>4316</v>
+      </c>
+      <c r="C1534" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="D1534" s="4"/>
+    </row>
+    <row r="1535" customHeight="1" spans="1:4">
+      <c r="A1535" s="4" t="s">
+        <v>4317</v>
+      </c>
+      <c r="B1535" s="4" t="s">
+        <v>4318</v>
+      </c>
+      <c r="C1535" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="D1535" s="4"/>
+    </row>
+    <row r="1536" customHeight="1" spans="1:4">
+      <c r="A1536" s="4" t="s">
+        <v>4319</v>
+      </c>
+      <c r="B1536" s="4" t="s">
+        <v>4320</v>
+      </c>
+      <c r="C1536" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="D1536" s="4"/>
+    </row>
+    <row r="1537" customHeight="1" spans="1:4">
+      <c r="A1537" s="4" t="s">
+        <v>4321</v>
+      </c>
+      <c r="B1537" s="4" t="s">
+        <v>4322</v>
+      </c>
+      <c r="C1537" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="D1537" s="4"/>
+    </row>
+    <row r="1538" customHeight="1" spans="1:4">
+      <c r="A1538" s="4" t="s">
+        <v>4323</v>
+      </c>
+      <c r="B1538" s="4" t="s">
+        <v>4324</v>
+      </c>
+      <c r="C1538" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="D1538" s="4"/>
+    </row>
+    <row r="1539" customHeight="1" spans="1:4">
+      <c r="A1539" s="4" t="s">
+        <v>4325</v>
+      </c>
+      <c r="B1539" s="4" t="s">
+        <v>4326</v>
+      </c>
+      <c r="C1539" s="4" t="s">
+        <v>4327</v>
+      </c>
+      <c r="D1539" s="4"/>
+    </row>
+    <row r="1540" customHeight="1" spans="1:4">
+      <c r="A1540" s="4" t="s">
+        <v>4328</v>
+      </c>
+      <c r="B1540" s="4" t="s">
+        <v>4329</v>
+      </c>
+      <c r="C1540" s="4" t="s">
+        <v>4330</v>
+      </c>
+      <c r="D1540" s="4"/>
+    </row>
+    <row r="1541" customHeight="1" spans="1:4">
+      <c r="A1541" s="4" t="s">
+        <v>4331</v>
+      </c>
+      <c r="B1541" s="4" t="s">
+        <v>4332</v>
+      </c>
+      <c r="C1541" s="4" t="s">
+        <v>4333</v>
+      </c>
+      <c r="D1541" s="4"/>
+    </row>
+    <row r="1542" customHeight="1" spans="1:4">
+      <c r="A1542" s="4" t="s">
+        <v>4334</v>
+      </c>
+      <c r="B1542" s="4" t="s">
+        <v>4335</v>
+      </c>
+      <c r="C1542" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="D1542" s="4"/>
+    </row>
+    <row r="1543" customHeight="1" spans="1:4">
+      <c r="A1543" s="4" t="s">
+        <v>4336</v>
+      </c>
+      <c r="B1543" s="4" t="s">
+        <v>4337</v>
+      </c>
+      <c r="C1543" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="D1543" s="4"/>
+    </row>
+    <row r="1544" customHeight="1" spans="1:4">
+      <c r="A1544" s="4" t="s">
+        <v>4338</v>
+      </c>
+      <c r="B1544" s="4" t="s">
+        <v>4339</v>
+      </c>
+      <c r="C1544" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="D1544" s="4"/>
+    </row>
+    <row r="1545" customHeight="1" spans="1:4">
+      <c r="A1545" s="4" t="s">
+        <v>4340</v>
+      </c>
+      <c r="B1545" s="4" t="s">
+        <v>4341</v>
+      </c>
+      <c r="C1545" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="D1545" s="4"/>
+    </row>
+    <row r="1546" customHeight="1" spans="1:4">
+      <c r="A1546" s="4" t="s">
+        <v>4342</v>
+      </c>
+      <c r="B1546" s="4" t="s">
+        <v>4343</v>
+      </c>
+      <c r="C1546" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="D1546" s="4"/>
+    </row>
+    <row r="1547" customHeight="1" spans="1:4">
+      <c r="A1547" s="4" t="s">
+        <v>4344</v>
+      </c>
+      <c r="B1547" s="4" t="s">
+        <v>4345</v>
+      </c>
+      <c r="C1547" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="D1547" s="4"/>
+    </row>
+    <row r="1548" customHeight="1" spans="1:4">
+      <c r="A1548" s="4" t="s">
+        <v>4346</v>
+      </c>
+      <c r="B1548" s="4" t="s">
+        <v>4347</v>
+      </c>
+      <c r="C1548" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="D1548" s="4"/>
+    </row>
+    <row r="1549" customHeight="1" spans="1:4">
+      <c r="A1549" s="4" t="s">
+        <v>4348</v>
+      </c>
+      <c r="B1549" s="4" t="s">
+        <v>4349</v>
+      </c>
+      <c r="C1549" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="D1549" s="4"/>
+    </row>
+    <row r="1550" customHeight="1" spans="1:4">
+      <c r="A1550" s="4" t="s">
+        <v>4350</v>
+      </c>
+      <c r="B1550" s="4" t="s">
+        <v>4351</v>
+      </c>
+      <c r="C1550" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="D1550" s="4"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertColumns="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>

--- a/影视剧.xlsx
+++ b/影视剧.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="影视剧" sheetId="2" r:id="rId1"/>
-    <sheet name="影视剧(3)" sheetId="3" state="veryHidden" r:id="rId2"/>
+    <sheet name="影视剧(2)" sheetId="3" state="veryHidden" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">影视剧!$A$1:$C$1548</definedName>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9305" uniqueCount="4354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9443" uniqueCount="4436">
   <si>
     <t>注意：不要相信视频或者文件内的广告和二维码！谨防诈骗！谨防诈骗！谨防诈骗！</t>
   </si>
@@ -12875,36 +12875,54 @@
     <t>https://pan.baidu.com/s/14LLj0IZYYSil6lDHsdUpVA?pwd=kexk</t>
   </si>
   <si>
+    <t>https://pan.quark.cn/s/ddfe514c01b4</t>
+  </si>
+  <si>
     <t>恐吓运动（2016）澳大利亚</t>
   </si>
   <si>
     <t>https://pan.baidu.com/s/1UlTkHbP0u1w0T6rzGLokWg?pwd=1p3m</t>
   </si>
   <si>
+    <t>https://pan.quark.cn/s/35dd113cc531</t>
+  </si>
+  <si>
     <t>星河战队（1997）美国</t>
   </si>
   <si>
     <t>https://pan.baidu.com/s/1mYnB1FvNL2OxSdZakK4_QQ?pwd=u7dy</t>
   </si>
   <si>
+    <t>https://pan.quark.cn/s/ccb7dcc3f6b3</t>
+  </si>
+  <si>
     <t>星河战队2：联邦英雄（2004）美国</t>
   </si>
   <si>
     <t>https://pan.baidu.com/s/1Wg3AfnmYyNhlEwOe6em9yQ?pwd=rxut</t>
   </si>
   <si>
+    <t>https://pan.quark.cn/s/2f08e019a006</t>
+  </si>
+  <si>
     <t>星河战队3：掠夺者（2008）美国/南非/德国</t>
   </si>
   <si>
     <t>https://pan.baidu.com/s/1di5vjxfx2CvUJkY5YhDgFg?pwd=cgtr</t>
   </si>
   <si>
+    <t>https://pan.quark.cn/s/3a9436a08b1d</t>
+  </si>
+  <si>
     <t>星河战队：火星叛国者（2017）美国/日本</t>
   </si>
   <si>
     <t>https://pan.baidu.com/s/1voOWer6N1Df56uPi5rYcqw?pwd=2ywv</t>
   </si>
   <si>
+    <t>https://pan.quark.cn/s/7ea391f0ac18</t>
+  </si>
+  <si>
     <t>星河战队：入侵（2012）美国/日本</t>
   </si>
   <si>
@@ -12923,6 +12941,9 @@
     <t>https://pan.baidu.com/s/1Ch3qvepWdmlBSixEH6-4qw?pwd=c93u</t>
   </si>
   <si>
+    <t>https://pan.quark.cn/s/ab879f72ceab</t>
+  </si>
+  <si>
     <t>猛鬼出笼（1983）中国香港</t>
   </si>
   <si>
@@ -12935,36 +12956,54 @@
     <t>https://pan.baidu.com/s/1nYNKqjhlyyznKJKOcRu-aQ?pwd=fnth</t>
   </si>
   <si>
+    <t>https://pan.quark.cn/s/e0cc9765c85e</t>
+  </si>
+  <si>
     <t>神探夏洛克：可恶的新娘（2016）英国</t>
   </si>
   <si>
     <t>https://pan.baidu.com/s/1D35vRGSvzLP2Hl_GgsfyDA?pwd=ayjc</t>
   </si>
   <si>
+    <t>https://pan.quark.cn/s/060847781ad5</t>
+  </si>
+  <si>
     <t>登陆日，诺曼底1944 D-Day（2014）法国</t>
   </si>
   <si>
     <t>https://pan.baidu.com/s/1zGeTSmgKszuQgeqZQXon7g?pwd=9pqy</t>
   </si>
   <si>
+    <t>https://pan.quark.cn/s/484eb2a874a4</t>
+  </si>
+  <si>
     <t>化外之医（2025）中国台湾</t>
   </si>
   <si>
     <t>https://pan.baidu.com/s/10mpIgYtWXi5ivV_gA5C-1g?pwd=48jw</t>
   </si>
   <si>
+    <t>https://pan.quark.cn/s/9bfff304ba6c</t>
+  </si>
+  <si>
     <t>塔尔萨之王 第2季（2024）美国</t>
   </si>
   <si>
     <t>https://pan.baidu.com/s/11pllIwOPU7pQvfISSSEXDA?pwd=s7ea</t>
   </si>
   <si>
+    <t>https://pan.quark.cn/s/0603e7479295</t>
+  </si>
+  <si>
     <t>塔尔萨之王 第1季（2022）美国</t>
   </si>
   <si>
     <t>https://pan.baidu.com/s/1HBtKXqSNE7xVQw-GKcPnDA?pwd=fw8j</t>
   </si>
   <si>
+    <t>https://pan.quark.cn/s/42bdc3cff310</t>
+  </si>
+  <si>
     <t>袭击（2018）印度</t>
   </si>
   <si>
@@ -12977,12 +13016,18 @@
     <t>https://pan.baidu.com/s/18wA4Wai0BKi_Qxx_a_MVfQ?pwd=4fji</t>
   </si>
   <si>
+    <t>https://pan.quark.cn/s/f0c6fa8a1104</t>
+  </si>
+  <si>
     <t>南海十三郎（1997）中国香港</t>
   </si>
   <si>
     <t>https://pan.baidu.com/s/1Rkcvy6ycbsYz6XxFRrnjuA?pwd=iebp</t>
   </si>
   <si>
+    <t>https://pan.quark.cn/s/d7fa56219f20</t>
+  </si>
+  <si>
     <t>太后吉祥（1996）中国大陆</t>
   </si>
   <si>
@@ -12995,12 +13040,18 @@
     <t>https://pan.baidu.com/s/1lanaG4Ew6J5_IiaZR8g6rQ?pwd=688y</t>
   </si>
   <si>
+    <t>https://pan.quark.cn/s/f68c7e9f4d9a</t>
+  </si>
+  <si>
     <t>时间规划局（2011）美国</t>
   </si>
   <si>
     <t>https://pan.baidu.com/s/18f0QAjIRv37We5Y46EN6PA?pwd=8sq4</t>
   </si>
   <si>
+    <t>https://pan.quark.cn/s/c4a32f7e6986</t>
+  </si>
+  <si>
     <t>疯羊（2007）新西兰/韩国</t>
   </si>
   <si>
@@ -13013,18 +13064,27 @@
     <t>https://pan.baidu.com/s/1SCW825nCPuufwIzH9YzeqA?pwd=sygs</t>
   </si>
   <si>
+    <t>https://pan.quark.cn/s/76770eecb215</t>
+  </si>
+  <si>
     <t>可可西里（2004）中国香港</t>
   </si>
   <si>
     <t>https://pan.baidu.com/s/1mrPlH8k8ziHIuaT_Ef7sWQ?pwd=5hu6</t>
   </si>
   <si>
+    <t>https://pan.quark.cn/s/a3c865ce8182</t>
+  </si>
+  <si>
     <t>没有过去的男人（2002）芬兰/德国/法国</t>
   </si>
   <si>
     <t>https://pan.baidu.com/s/11f2E_BZoj6DeAd5-1F9a0w?pwd=ghej</t>
   </si>
   <si>
+    <t>https://pan.quark.cn/s/156f50bcb188</t>
+  </si>
+  <si>
     <t>代号47（2015）美国/英国/德国/加拿大</t>
   </si>
   <si>
@@ -13058,42 +13118,63 @@
     <t>https://pan.baidu.com/s/1oezhjiV9iQYLviIkrTyHJw?pwd=48gx</t>
   </si>
   <si>
+    <t>https://pan.quark.cn/s/d976490535d2</t>
+  </si>
+  <si>
     <t>墓道（2007）中国大陆</t>
   </si>
   <si>
     <t>https://pan.baidu.com/s/1pQURsIPo_8yWHiG7HJAq5Q?pwd=g8aw</t>
   </si>
   <si>
+    <t>https://pan.quark.cn/s/eeb66d806d14</t>
+  </si>
+  <si>
     <t>破产姐妹 1-6季 美国</t>
   </si>
   <si>
     <t>https://pan.baidu.com/s/1M7mCSfznq1yqQCIW03u8Xw?pwd=uusn</t>
   </si>
   <si>
+    <t>https://pan.quark.cn/s/1d128ae0bbf6</t>
+  </si>
+  <si>
     <t>生活大爆炸 1-12季 美国</t>
   </si>
   <si>
     <t>https://pan.baidu.com/s/1XNTFFbG8R0mPqGI18l7poQ?pwd=njr8</t>
   </si>
   <si>
+    <t>https://pan.quark.cn/s/16637dbb64b2</t>
+  </si>
+  <si>
     <t>摩登家庭 1-11季 美国</t>
   </si>
   <si>
     <t>https://pan.baidu.com/s/1Tov_XSr7t-72xfv1U3Z6VQ?pwd=i55s</t>
   </si>
   <si>
+    <t>https://pan.quark.cn/s/13e4918677a8</t>
+  </si>
+  <si>
     <t>斯巴达克斯 1-4季 美国</t>
   </si>
   <si>
     <t>https://pan.baidu.com/s/1HF15Vzjyz53PGk3Fo5Dftg?pwd=bgvn</t>
   </si>
   <si>
+    <t>https://pan.quark.cn/s/7d8f59d18891</t>
+  </si>
+  <si>
     <t>少年谢尔顿/小谢尔顿 1-6季 美国</t>
   </si>
   <si>
     <t>https://pan.baidu.com/s/1eVgtMKny7v2u7jfTeIkQww?pwd=uj31</t>
   </si>
   <si>
+    <t>https://pan.quark.cn/s/fa3ad3ac82c0</t>
+  </si>
+  <si>
     <t>绝望主妇 1-8季 美国</t>
   </si>
   <si>
@@ -13104,6 +13185,171 @@
   </si>
   <si>
     <t>https://pan.baidu.com/s/1mCOqYlIB-cUm0tLe0XAEdw?pwd=qgru</t>
+  </si>
+  <si>
+    <t>傲慢与偏见（1995）英国</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1-e6PTCqqopM27yGwg5zwsg?pwd=xmzg</t>
+  </si>
+  <si>
+    <t>傲慢与偏见（1980）英国</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1i_KCkLM8-F-y43esQqjolA?pwd=uc72</t>
+  </si>
+  <si>
+    <t>傲慢与偏见（2005）美国/英国/法国</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1o2Q9J981mKnEYVo2aNsWag?pwd=r82w</t>
+  </si>
+  <si>
+    <t>南方与北方（2004）英国</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1tEuP-VLg7wiaoF_NY3cwmg?pwd=h3ht</t>
+  </si>
+  <si>
+    <t>王冠 1-6季 英国</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1XgFqbaJXmOkEUMpcGg5cFw?pwd=b2cz</t>
+  </si>
+  <si>
+    <t>伦敦生活 1-2季 英国</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1iqueX6Zpkl4PWqwRdq_Snw?pwd=aeby</t>
+  </si>
+  <si>
+    <t>万物生灵 系列 英国</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1KrWLriR1-_iZFeUBaMNUaw?pwd=2nw5</t>
+  </si>
+  <si>
+    <t>犯罪心理 1-17季 美国</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1YSKjsaeMG0RNdzhJlCjLxg?pwd=iff4</t>
+  </si>
+  <si>
+    <t>喜鹊谋杀案（2022）英国</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1_cIDLeWoMAxW2Xa9ibUrHA?pwd=kt3c</t>
+  </si>
+  <si>
+    <t>月光花谋杀案（2024）美国/英国</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1DWo1ma0GGMr5L4M2-5H6Ig?pwd=zn8k</t>
+  </si>
+  <si>
+    <t>机动部队-同袍（2009）中国香港</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1ZLVSdhAJoVzTlcrfCy0ARQ?pwd=hhm3</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/bae620151465</t>
+  </si>
+  <si>
+    <t>机动部队-绝路（2008）中国香港</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1p2hI0AMYFZLq1nuLPhS6Ew?pwd=k2be</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/13f304283a38</t>
+  </si>
+  <si>
+    <t>机动部队-警例（2008）中国香港</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/118dx1ZWNzoucGqwfXjUUOg?pwd=uzbm</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/f1f67f61d76f</t>
+  </si>
+  <si>
+    <t>机动部队-伙伴（2009）中国香港</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1MzTCqiprqdoddsf6kNXLmw?pwd=nz95</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/1dfa106e272f</t>
+  </si>
+  <si>
+    <t>机动部队-人性（2008）中国香港</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1UQBjEfwdsUGiMcUXe1OWFg?pwd=2pk4</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/1bbe329f69ec</t>
+  </si>
+  <si>
+    <t>机动部队 PTU（2003）中国香港</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1EvVhqfWHCXz7Alo89r19Bw?pwd=6bpu</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/3899ba11c731</t>
+  </si>
+  <si>
+    <t>LIFE LINE/生命线（2025）美国</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1OU4AUAu2gmrLSqnDGTZz2g?pwd=tvf5</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/21fecc86364d</t>
+  </si>
+  <si>
+    <t>迫在眉梢（2002）美国</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/14sjjnzF9PZ65KqUpBCkaeQ?pwd=drxv</t>
+  </si>
+  <si>
+    <t>子弹列车（2022）美国</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1j8w9DJZ8NVswjIDhagp9zw?pwd=mhde</t>
+  </si>
+  <si>
+    <t>危情时速（2010）美国</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1iG72gGjOmHGVL8GdvOQD-w?pwd=jdfp</t>
+  </si>
+  <si>
+    <t>全领域异常解决室（2024）日本</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1Lz6ORD1QmDmOQtHgx8KSAw?pwd=c6tr</t>
+  </si>
+  <si>
+    <t>波巴·费特之书（2021）美国</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1Zfk6PLBsUi_uR42Dn0uNuA?pwd=shxa</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/902a5af3f41c</t>
+  </si>
+  <si>
+    <t>步步惊心：丽（2016）韩国</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1kIabBpa0PwF6QglBgDPdkg?pwd=7e4h</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/282b0849c465</t>
   </si>
   <si>
     <t>文本</t>
@@ -14132,7 +14378,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="影视剧_3" displayName="影视剧_3" ref="A1:D1550" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="影视剧_2" displayName="影视剧_2" ref="A1:D1573" totalsRowShown="0">
   <tableColumns count="4">
     <tableColumn id="1" name="环太平洋 1-2部 美国"/>
     <tableColumn id="2" name="https://pan.baidu.com/s/1uY8kk83FrhdvCbY9w_borg?pwd=aasg"/>
@@ -14401,9 +14647,9 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D1554"/>
+  <dimension ref="A1:D1577"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:C1048576"/>
     </sheetView>
   </sheetViews>
@@ -31084,71 +31330,71 @@
       <c r="B1517" s="12" t="s">
         <v>4274</v>
       </c>
-      <c r="C1517" s="11" t="s">
-        <v>278</v>
+      <c r="C1517" s="12" t="s">
+        <v>4275</v>
       </c>
     </row>
     <row r="1518" spans="1:3">
       <c r="A1518" s="11" t="s">
-        <v>4275</v>
+        <v>4276</v>
       </c>
       <c r="B1518" s="12" t="s">
-        <v>4276</v>
-      </c>
-      <c r="C1518" s="11" t="s">
-        <v>278</v>
+        <v>4277</v>
+      </c>
+      <c r="C1518" s="12" t="s">
+        <v>4278</v>
       </c>
     </row>
     <row r="1519" spans="1:3">
       <c r="A1519" s="11" t="s">
-        <v>4277</v>
+        <v>4279</v>
       </c>
       <c r="B1519" s="12" t="s">
-        <v>4278</v>
-      </c>
-      <c r="C1519" s="11" t="s">
-        <v>278</v>
+        <v>4280</v>
+      </c>
+      <c r="C1519" s="12" t="s">
+        <v>4281</v>
       </c>
     </row>
     <row r="1520" spans="1:3">
       <c r="A1520" s="11" t="s">
-        <v>4279</v>
+        <v>4282</v>
       </c>
       <c r="B1520" s="12" t="s">
-        <v>4280</v>
-      </c>
-      <c r="C1520" s="11" t="s">
-        <v>278</v>
+        <v>4283</v>
+      </c>
+      <c r="C1520" s="12" t="s">
+        <v>4284</v>
       </c>
     </row>
     <row r="1521" spans="1:3">
       <c r="A1521" s="11" t="s">
-        <v>4281</v>
+        <v>4285</v>
       </c>
       <c r="B1521" s="12" t="s">
-        <v>4282</v>
-      </c>
-      <c r="C1521" s="11" t="s">
-        <v>278</v>
+        <v>4286</v>
+      </c>
+      <c r="C1521" s="12" t="s">
+        <v>4287</v>
       </c>
     </row>
     <row r="1522" spans="1:3">
       <c r="A1522" s="11" t="s">
-        <v>4283</v>
+        <v>4288</v>
       </c>
       <c r="B1522" s="12" t="s">
-        <v>4284</v>
-      </c>
-      <c r="C1522" s="11" t="s">
-        <v>278</v>
+        <v>4289</v>
+      </c>
+      <c r="C1522" s="12" t="s">
+        <v>4290</v>
       </c>
     </row>
     <row r="1523" spans="1:3">
       <c r="A1523" s="11" t="s">
-        <v>4285</v>
+        <v>4291</v>
       </c>
       <c r="B1523" s="12" t="s">
-        <v>4286</v>
+        <v>4292</v>
       </c>
       <c r="C1523" s="11" t="s">
         <v>278</v>
@@ -31156,10 +31402,10 @@
     </row>
     <row r="1524" spans="1:3">
       <c r="A1524" s="11" t="s">
-        <v>4287</v>
+        <v>4293</v>
       </c>
       <c r="B1524" s="12" t="s">
-        <v>4288</v>
+        <v>4294</v>
       </c>
       <c r="C1524" s="11" t="s">
         <v>278</v>
@@ -31167,21 +31413,21 @@
     </row>
     <row r="1525" spans="1:3">
       <c r="A1525" s="11" t="s">
-        <v>4289</v>
+        <v>4295</v>
       </c>
       <c r="B1525" s="12" t="s">
-        <v>4290</v>
-      </c>
-      <c r="C1525" s="11" t="s">
-        <v>278</v>
+        <v>4296</v>
+      </c>
+      <c r="C1525" s="16" t="s">
+        <v>4297</v>
       </c>
     </row>
     <row r="1526" spans="1:3">
       <c r="A1526" s="11" t="s">
-        <v>4291</v>
+        <v>4298</v>
       </c>
       <c r="B1526" s="12" t="s">
-        <v>4292</v>
+        <v>4299</v>
       </c>
       <c r="C1526" s="11" t="s">
         <v>278</v>
@@ -31189,76 +31435,76 @@
     </row>
     <row r="1527" spans="1:3">
       <c r="A1527" s="11" t="s">
-        <v>4293</v>
+        <v>4300</v>
       </c>
       <c r="B1527" s="12" t="s">
-        <v>4294</v>
-      </c>
-      <c r="C1527" s="11" t="s">
-        <v>278</v>
+        <v>4301</v>
+      </c>
+      <c r="C1527" s="16" t="s">
+        <v>4302</v>
       </c>
     </row>
     <row r="1528" spans="1:3">
       <c r="A1528" s="11" t="s">
-        <v>4295</v>
+        <v>4303</v>
       </c>
       <c r="B1528" s="12" t="s">
-        <v>4296</v>
-      </c>
-      <c r="C1528" s="11" t="s">
-        <v>278</v>
+        <v>4304</v>
+      </c>
+      <c r="C1528" s="16" t="s">
+        <v>4305</v>
       </c>
     </row>
     <row r="1529" spans="1:3">
       <c r="A1529" s="11" t="s">
-        <v>4297</v>
+        <v>4306</v>
       </c>
       <c r="B1529" s="12" t="s">
-        <v>4298</v>
-      </c>
-      <c r="C1529" s="11" t="s">
-        <v>278</v>
+        <v>4307</v>
+      </c>
+      <c r="C1529" s="16" t="s">
+        <v>4308</v>
       </c>
     </row>
     <row r="1530" spans="1:3">
       <c r="A1530" s="11" t="s">
-        <v>4299</v>
+        <v>4309</v>
       </c>
       <c r="B1530" s="12" t="s">
-        <v>4300</v>
-      </c>
-      <c r="C1530" s="11" t="s">
-        <v>278</v>
+        <v>4310</v>
+      </c>
+      <c r="C1530" s="16" t="s">
+        <v>4311</v>
       </c>
     </row>
     <row r="1531" spans="1:3">
       <c r="A1531" s="11" t="s">
-        <v>4301</v>
+        <v>4312</v>
       </c>
       <c r="B1531" s="12" t="s">
-        <v>4302</v>
-      </c>
-      <c r="C1531" s="11" t="s">
-        <v>278</v>
+        <v>4313</v>
+      </c>
+      <c r="C1531" s="16" t="s">
+        <v>4314</v>
       </c>
     </row>
     <row r="1532" spans="1:3">
       <c r="A1532" s="11" t="s">
-        <v>4303</v>
+        <v>4315</v>
       </c>
       <c r="B1532" s="12" t="s">
-        <v>4304</v>
-      </c>
-      <c r="C1532" s="11" t="s">
-        <v>278</v>
+        <v>4316</v>
+      </c>
+      <c r="C1532" s="16" t="s">
+        <v>4317</v>
       </c>
     </row>
     <row r="1533" spans="1:3">
       <c r="A1533" s="11" t="s">
-        <v>4305</v>
+        <v>4318</v>
       </c>
       <c r="B1533" s="12" t="s">
-        <v>4306</v>
+        <v>4319</v>
       </c>
       <c r="C1533" s="11" t="s">
         <v>278</v>
@@ -31266,32 +31512,32 @@
     </row>
     <row r="1534" spans="1:3">
       <c r="A1534" s="11" t="s">
-        <v>4307</v>
+        <v>4320</v>
       </c>
       <c r="B1534" s="12" t="s">
-        <v>4308</v>
-      </c>
-      <c r="C1534" s="11" t="s">
-        <v>278</v>
+        <v>4321</v>
+      </c>
+      <c r="C1534" s="16" t="s">
+        <v>4322</v>
       </c>
     </row>
     <row r="1535" spans="1:3">
       <c r="A1535" s="11" t="s">
-        <v>4309</v>
+        <v>4323</v>
       </c>
       <c r="B1535" s="12" t="s">
-        <v>4310</v>
-      </c>
-      <c r="C1535" s="11" t="s">
-        <v>278</v>
+        <v>4324</v>
+      </c>
+      <c r="C1535" s="16" t="s">
+        <v>4325</v>
       </c>
     </row>
     <row r="1536" spans="1:3">
       <c r="A1536" s="11" t="s">
-        <v>4311</v>
+        <v>4326</v>
       </c>
       <c r="B1536" s="12" t="s">
-        <v>4312</v>
+        <v>4327</v>
       </c>
       <c r="C1536" s="11" t="s">
         <v>278</v>
@@ -31299,32 +31545,32 @@
     </row>
     <row r="1537" spans="1:3">
       <c r="A1537" s="11" t="s">
-        <v>4313</v>
+        <v>4328</v>
       </c>
       <c r="B1537" s="12" t="s">
-        <v>4314</v>
-      </c>
-      <c r="C1537" s="11" t="s">
-        <v>278</v>
+        <v>4329</v>
+      </c>
+      <c r="C1537" s="16" t="s">
+        <v>4330</v>
       </c>
     </row>
     <row r="1538" spans="1:3">
       <c r="A1538" s="11" t="s">
-        <v>4315</v>
+        <v>4331</v>
       </c>
       <c r="B1538" s="12" t="s">
-        <v>4316</v>
-      </c>
-      <c r="C1538" s="11" t="s">
-        <v>278</v>
+        <v>4332</v>
+      </c>
+      <c r="C1538" s="16" t="s">
+        <v>4333</v>
       </c>
     </row>
     <row r="1539" spans="1:3">
       <c r="A1539" s="11" t="s">
-        <v>4317</v>
+        <v>4334</v>
       </c>
       <c r="B1539" s="12" t="s">
-        <v>4318</v>
+        <v>4335</v>
       </c>
       <c r="C1539" s="11" t="s">
         <v>278</v>
@@ -31332,153 +31578,153 @@
     </row>
     <row r="1540" spans="1:3">
       <c r="A1540" s="11" t="s">
-        <v>4319</v>
+        <v>4336</v>
       </c>
       <c r="B1540" s="12" t="s">
-        <v>4320</v>
-      </c>
-      <c r="C1540" s="11" t="s">
-        <v>278</v>
+        <v>4337</v>
+      </c>
+      <c r="C1540" s="16" t="s">
+        <v>4338</v>
       </c>
     </row>
     <row r="1541" spans="1:3">
       <c r="A1541" s="11" t="s">
-        <v>4321</v>
+        <v>4339</v>
       </c>
       <c r="B1541" s="12" t="s">
-        <v>4322</v>
-      </c>
-      <c r="C1541" s="11" t="s">
-        <v>278</v>
+        <v>4340</v>
+      </c>
+      <c r="C1541" s="16" t="s">
+        <v>4341</v>
       </c>
     </row>
     <row r="1542" spans="1:3">
       <c r="A1542" s="11" t="s">
-        <v>4323</v>
+        <v>4342</v>
       </c>
       <c r="B1542" s="12" t="s">
-        <v>4324</v>
-      </c>
-      <c r="C1542" s="11" t="s">
-        <v>278</v>
+        <v>4343</v>
+      </c>
+      <c r="C1542" s="16" t="s">
+        <v>4344</v>
       </c>
     </row>
     <row r="1543" spans="1:3">
       <c r="A1543" s="11" t="s">
-        <v>4325</v>
-      </c>
-      <c r="B1543" s="16" t="s">
-        <v>4326</v>
-      </c>
-      <c r="C1543" s="16" t="s">
-        <v>4327</v>
+        <v>4345</v>
+      </c>
+      <c r="B1543" s="12" t="s">
+        <v>4346</v>
+      </c>
+      <c r="C1543" s="12" t="s">
+        <v>4347</v>
       </c>
     </row>
     <row r="1544" spans="1:3">
       <c r="A1544" s="11" t="s">
-        <v>4328</v>
-      </c>
-      <c r="B1544" s="16" t="s">
-        <v>4329</v>
-      </c>
-      <c r="C1544" s="16" t="s">
-        <v>4330</v>
+        <v>4348</v>
+      </c>
+      <c r="B1544" s="12" t="s">
+        <v>4349</v>
+      </c>
+      <c r="C1544" s="12" t="s">
+        <v>4350</v>
       </c>
     </row>
     <row r="1545" spans="1:3">
       <c r="A1545" s="11" t="s">
-        <v>4331</v>
-      </c>
-      <c r="B1545" s="16" t="s">
-        <v>4332</v>
-      </c>
-      <c r="C1545" s="16" t="s">
-        <v>4333</v>
+        <v>4351</v>
+      </c>
+      <c r="B1545" s="12" t="s">
+        <v>4352</v>
+      </c>
+      <c r="C1545" s="12" t="s">
+        <v>4353</v>
       </c>
     </row>
     <row r="1546" spans="1:3">
       <c r="A1546" s="11" t="s">
-        <v>4334</v>
-      </c>
-      <c r="B1546" s="16" t="s">
-        <v>4335</v>
-      </c>
-      <c r="C1546" s="11" t="s">
-        <v>278</v>
+        <v>4354</v>
+      </c>
+      <c r="B1546" s="12" t="s">
+        <v>4355</v>
+      </c>
+      <c r="C1546" s="16" t="s">
+        <v>4356</v>
       </c>
     </row>
     <row r="1547" spans="1:3">
       <c r="A1547" s="11" t="s">
-        <v>4336</v>
-      </c>
-      <c r="B1547" s="16" t="s">
-        <v>4337</v>
-      </c>
-      <c r="C1547" s="11" t="s">
-        <v>278</v>
+        <v>4357</v>
+      </c>
+      <c r="B1547" s="12" t="s">
+        <v>4358</v>
+      </c>
+      <c r="C1547" s="16" t="s">
+        <v>4359</v>
       </c>
     </row>
     <row r="1548" spans="1:3">
       <c r="A1548" s="11" t="s">
-        <v>4338</v>
-      </c>
-      <c r="B1548" s="16" t="s">
-        <v>4339</v>
-      </c>
-      <c r="C1548" s="11" t="s">
-        <v>278</v>
+        <v>4360</v>
+      </c>
+      <c r="B1548" s="12" t="s">
+        <v>4361</v>
+      </c>
+      <c r="C1548" s="16" t="s">
+        <v>4362</v>
       </c>
     </row>
     <row r="1549" spans="1:3">
       <c r="A1549" s="11" t="s">
-        <v>4340</v>
-      </c>
-      <c r="B1549" s="16" t="s">
-        <v>4341</v>
-      </c>
-      <c r="C1549" s="11" t="s">
-        <v>278</v>
+        <v>4363</v>
+      </c>
+      <c r="B1549" s="12" t="s">
+        <v>4364</v>
+      </c>
+      <c r="C1549" s="16" t="s">
+        <v>4365</v>
       </c>
     </row>
     <row r="1550" spans="1:3">
       <c r="A1550" s="11" t="s">
-        <v>4342</v>
-      </c>
-      <c r="B1550" s="16" t="s">
-        <v>4343</v>
-      </c>
-      <c r="C1550" s="11" t="s">
-        <v>278</v>
+        <v>4366</v>
+      </c>
+      <c r="B1550" s="12" t="s">
+        <v>4367</v>
+      </c>
+      <c r="C1550" s="16" t="s">
+        <v>4368</v>
       </c>
     </row>
     <row r="1551" spans="1:3">
       <c r="A1551" s="11" t="s">
-        <v>4344</v>
-      </c>
-      <c r="B1551" s="16" t="s">
-        <v>4345</v>
-      </c>
-      <c r="C1551" s="11" t="s">
-        <v>278</v>
+        <v>4369</v>
+      </c>
+      <c r="B1551" s="12" t="s">
+        <v>4370</v>
+      </c>
+      <c r="C1551" s="16" t="s">
+        <v>4371</v>
       </c>
     </row>
     <row r="1552" spans="1:3">
       <c r="A1552" s="11" t="s">
-        <v>4346</v>
-      </c>
-      <c r="B1552" s="16" t="s">
-        <v>4347</v>
-      </c>
-      <c r="C1552" s="11" t="s">
-        <v>278</v>
+        <v>4372</v>
+      </c>
+      <c r="B1552" s="12" t="s">
+        <v>4373</v>
+      </c>
+      <c r="C1552" s="16" t="s">
+        <v>4374</v>
       </c>
     </row>
     <row r="1553" spans="1:3">
       <c r="A1553" s="11" t="s">
-        <v>4348</v>
-      </c>
-      <c r="B1553" s="16" t="s">
-        <v>4349</v>
+        <v>4375</v>
+      </c>
+      <c r="B1553" s="12" t="s">
+        <v>4376</v>
       </c>
       <c r="C1553" s="11" t="s">
         <v>278</v>
@@ -31486,13 +31732,266 @@
     </row>
     <row r="1554" spans="1:3">
       <c r="A1554" s="11" t="s">
-        <v>4350</v>
-      </c>
-      <c r="B1554" s="16" t="s">
-        <v>4351</v>
+        <v>4377</v>
+      </c>
+      <c r="B1554" s="12" t="s">
+        <v>4378</v>
       </c>
       <c r="C1554" s="11" t="s">
         <v>278</v>
+      </c>
+    </row>
+    <row r="1555" spans="1:3">
+      <c r="A1555" s="11" t="s">
+        <v>4379</v>
+      </c>
+      <c r="B1555" s="12" t="s">
+        <v>4380</v>
+      </c>
+      <c r="C1555" s="11" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="1556" spans="1:3">
+      <c r="A1556" s="11" t="s">
+        <v>4381</v>
+      </c>
+      <c r="B1556" s="12" t="s">
+        <v>4382</v>
+      </c>
+      <c r="C1556" s="11" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="1557" spans="1:3">
+      <c r="A1557" s="11" t="s">
+        <v>4383</v>
+      </c>
+      <c r="B1557" s="12" t="s">
+        <v>4384</v>
+      </c>
+      <c r="C1557" s="11" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="1558" spans="1:3">
+      <c r="A1558" s="11" t="s">
+        <v>4385</v>
+      </c>
+      <c r="B1558" s="12" t="s">
+        <v>4386</v>
+      </c>
+      <c r="C1558" s="11" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="1559" spans="1:3">
+      <c r="A1559" s="11" t="s">
+        <v>4387</v>
+      </c>
+      <c r="B1559" s="12" t="s">
+        <v>4388</v>
+      </c>
+      <c r="C1559" s="11" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="1560" spans="1:3">
+      <c r="A1560" s="11" t="s">
+        <v>4389</v>
+      </c>
+      <c r="B1560" s="12" t="s">
+        <v>4390</v>
+      </c>
+      <c r="C1560" s="11" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="1561" spans="1:3">
+      <c r="A1561" s="11" t="s">
+        <v>4391</v>
+      </c>
+      <c r="B1561" s="12" t="s">
+        <v>4392</v>
+      </c>
+      <c r="C1561" s="11" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="1562" spans="1:3">
+      <c r="A1562" s="11" t="s">
+        <v>4393</v>
+      </c>
+      <c r="B1562" s="12" t="s">
+        <v>4394</v>
+      </c>
+      <c r="C1562" s="11" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="1563" spans="1:3">
+      <c r="A1563" s="11" t="s">
+        <v>4395</v>
+      </c>
+      <c r="B1563" s="12" t="s">
+        <v>4396</v>
+      </c>
+      <c r="C1563" s="11" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="1564" spans="1:3">
+      <c r="A1564" s="11" t="s">
+        <v>4397</v>
+      </c>
+      <c r="B1564" s="12" t="s">
+        <v>4398</v>
+      </c>
+      <c r="C1564" s="11" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="1565" spans="1:3">
+      <c r="A1565" s="11" t="s">
+        <v>4399</v>
+      </c>
+      <c r="B1565" s="12" t="s">
+        <v>4400</v>
+      </c>
+      <c r="C1565" s="16" t="s">
+        <v>4401</v>
+      </c>
+    </row>
+    <row r="1566" spans="1:3">
+      <c r="A1566" s="11" t="s">
+        <v>4402</v>
+      </c>
+      <c r="B1566" s="12" t="s">
+        <v>4403</v>
+      </c>
+      <c r="C1566" s="16" t="s">
+        <v>4404</v>
+      </c>
+    </row>
+    <row r="1567" spans="1:3">
+      <c r="A1567" s="11" t="s">
+        <v>4405</v>
+      </c>
+      <c r="B1567" s="12" t="s">
+        <v>4406</v>
+      </c>
+      <c r="C1567" s="16" t="s">
+        <v>4407</v>
+      </c>
+    </row>
+    <row r="1568" spans="1:3">
+      <c r="A1568" s="11" t="s">
+        <v>4408</v>
+      </c>
+      <c r="B1568" s="12" t="s">
+        <v>4409</v>
+      </c>
+      <c r="C1568" s="16" t="s">
+        <v>4410</v>
+      </c>
+    </row>
+    <row r="1569" spans="1:3">
+      <c r="A1569" s="11" t="s">
+        <v>4411</v>
+      </c>
+      <c r="B1569" s="12" t="s">
+        <v>4412</v>
+      </c>
+      <c r="C1569" s="16" t="s">
+        <v>4413</v>
+      </c>
+    </row>
+    <row r="1570" spans="1:3">
+      <c r="A1570" s="11" t="s">
+        <v>4414</v>
+      </c>
+      <c r="B1570" s="12" t="s">
+        <v>4415</v>
+      </c>
+      <c r="C1570" s="16" t="s">
+        <v>4416</v>
+      </c>
+    </row>
+    <row r="1571" spans="1:3">
+      <c r="A1571" s="11" t="s">
+        <v>4417</v>
+      </c>
+      <c r="B1571" s="12" t="s">
+        <v>4418</v>
+      </c>
+      <c r="C1571" s="16" t="s">
+        <v>4419</v>
+      </c>
+    </row>
+    <row r="1572" spans="1:3">
+      <c r="A1572" s="11" t="s">
+        <v>4420</v>
+      </c>
+      <c r="B1572" s="12" t="s">
+        <v>4421</v>
+      </c>
+      <c r="C1572" s="11" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="1573" spans="1:3">
+      <c r="A1573" s="11" t="s">
+        <v>4422</v>
+      </c>
+      <c r="B1573" s="12" t="s">
+        <v>4423</v>
+      </c>
+      <c r="C1573" s="11" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="1574" spans="1:3">
+      <c r="A1574" s="11" t="s">
+        <v>4424</v>
+      </c>
+      <c r="B1574" s="12" t="s">
+        <v>4425</v>
+      </c>
+      <c r="C1574" s="11" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="1575" spans="1:3">
+      <c r="A1575" s="11" t="s">
+        <v>4426</v>
+      </c>
+      <c r="B1575" s="12" t="s">
+        <v>4427</v>
+      </c>
+      <c r="C1575" s="11" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="1576" spans="1:3">
+      <c r="A1576" s="11" t="s">
+        <v>4428</v>
+      </c>
+      <c r="B1576" s="12" t="s">
+        <v>4429</v>
+      </c>
+      <c r="C1576" s="12" t="s">
+        <v>4430</v>
+      </c>
+    </row>
+    <row r="1577" spans="1:3">
+      <c r="A1577" s="11" t="s">
+        <v>4431</v>
+      </c>
+      <c r="B1577" s="16" t="s">
+        <v>4432</v>
+      </c>
+      <c r="C1577" s="16" t="s">
+        <v>4433</v>
       </c>
     </row>
   </sheetData>
@@ -34291,6 +34790,65 @@
     <hyperlink ref="B1552" r:id="rId2782" display="https://pan.baidu.com/s/1eVgtMKny7v2u7jfTeIkQww?pwd=uj31"/>
     <hyperlink ref="B1553" r:id="rId2783" display="https://pan.baidu.com/s/1LPSFKQsNWoPwdcwID2Yoxw?pwd=93ig"/>
     <hyperlink ref="B1554" r:id="rId2784" display="https://pan.baidu.com/s/1mCOqYlIB-cUm0tLe0XAEdw?pwd=qgru"/>
+    <hyperlink ref="B1555" r:id="rId2785" display="https://pan.baidu.com/s/1-e6PTCqqopM27yGwg5zwsg?pwd=xmzg"/>
+    <hyperlink ref="B1556" r:id="rId2786" display="https://pan.baidu.com/s/1i_KCkLM8-F-y43esQqjolA?pwd=uc72"/>
+    <hyperlink ref="B1557" r:id="rId2787" display="https://pan.baidu.com/s/1o2Q9J981mKnEYVo2aNsWag?pwd=r82w"/>
+    <hyperlink ref="B1558" r:id="rId2788" display="https://pan.baidu.com/s/1tEuP-VLg7wiaoF_NY3cwmg?pwd=h3ht"/>
+    <hyperlink ref="B1559" r:id="rId2789" display="https://pan.baidu.com/s/1XgFqbaJXmOkEUMpcGg5cFw?pwd=b2cz"/>
+    <hyperlink ref="B1560" r:id="rId2790" display="https://pan.baidu.com/s/1iqueX6Zpkl4PWqwRdq_Snw?pwd=aeby"/>
+    <hyperlink ref="B1561" r:id="rId2791" display="https://pan.baidu.com/s/1KrWLriR1-_iZFeUBaMNUaw?pwd=2nw5"/>
+    <hyperlink ref="B1562" r:id="rId2792" display="https://pan.baidu.com/s/1YSKjsaeMG0RNdzhJlCjLxg?pwd=iff4"/>
+    <hyperlink ref="B1563" r:id="rId2793" display="https://pan.baidu.com/s/1_cIDLeWoMAxW2Xa9ibUrHA?pwd=kt3c"/>
+    <hyperlink ref="B1564" r:id="rId2794" display="https://pan.baidu.com/s/1DWo1ma0GGMr5L4M2-5H6Ig?pwd=zn8k"/>
+    <hyperlink ref="B1565" r:id="rId2795" display="https://pan.baidu.com/s/1ZLVSdhAJoVzTlcrfCy0ARQ?pwd=hhm3"/>
+    <hyperlink ref="B1566" r:id="rId2796" display="https://pan.baidu.com/s/1p2hI0AMYFZLq1nuLPhS6Ew?pwd=k2be"/>
+    <hyperlink ref="B1567" r:id="rId2797" display="https://pan.baidu.com/s/118dx1ZWNzoucGqwfXjUUOg?pwd=uzbm"/>
+    <hyperlink ref="B1568" r:id="rId2798" display="https://pan.baidu.com/s/1MzTCqiprqdoddsf6kNXLmw?pwd=nz95"/>
+    <hyperlink ref="B1569" r:id="rId2799" display="https://pan.baidu.com/s/1UQBjEfwdsUGiMcUXe1OWFg?pwd=2pk4"/>
+    <hyperlink ref="B1570" r:id="rId2800" display="https://pan.baidu.com/s/1EvVhqfWHCXz7Alo89r19Bw?pwd=6bpu"/>
+    <hyperlink ref="B1571" r:id="rId2801" display="https://pan.baidu.com/s/1OU4AUAu2gmrLSqnDGTZz2g?pwd=tvf5"/>
+    <hyperlink ref="B1572" r:id="rId2802" display="https://pan.baidu.com/s/14sjjnzF9PZ65KqUpBCkaeQ?pwd=drxv"/>
+    <hyperlink ref="B1573" r:id="rId2803" display="https://pan.baidu.com/s/1j8w9DJZ8NVswjIDhagp9zw?pwd=mhde"/>
+    <hyperlink ref="B1574" r:id="rId2804" display="https://pan.baidu.com/s/1iG72gGjOmHGVL8GdvOQD-w?pwd=jdfp"/>
+    <hyperlink ref="B1575" r:id="rId2805" display="https://pan.baidu.com/s/1Lz6ORD1QmDmOQtHgx8KSAw?pwd=c6tr"/>
+    <hyperlink ref="C1517" r:id="rId2806" display="https://pan.quark.cn/s/ddfe514c01b4"/>
+    <hyperlink ref="C1518" r:id="rId2807" display="https://pan.quark.cn/s/35dd113cc531"/>
+    <hyperlink ref="C1519" r:id="rId2808" display="https://pan.quark.cn/s/ccb7dcc3f6b3"/>
+    <hyperlink ref="C1522" r:id="rId2809" display="https://pan.quark.cn/s/7ea391f0ac18"/>
+    <hyperlink ref="C1520" r:id="rId2810" display="https://pan.quark.cn/s/2f08e019a006"/>
+    <hyperlink ref="C1521" r:id="rId2811" display="https://pan.quark.cn/s/3a9436a08b1d"/>
+    <hyperlink ref="C1576" r:id="rId2812" display="https://pan.quark.cn/s/902a5af3f41c"/>
+    <hyperlink ref="B1576" r:id="rId2813" display="https://pan.baidu.com/s/1Zfk6PLBsUi_uR42Dn0uNuA?pwd=shxa"/>
+    <hyperlink ref="C1577" r:id="rId2814" display="https://pan.quark.cn/s/282b0849c465"/>
+    <hyperlink ref="B1577" r:id="rId2815" display="https://pan.baidu.com/s/1kIabBpa0PwF6QglBgDPdkg?pwd=7e4h"/>
+    <hyperlink ref="C1568" r:id="rId2816" display="https://pan.quark.cn/s/1dfa106e272f"/>
+    <hyperlink ref="C1569" r:id="rId2817" display="https://pan.quark.cn/s/1bbe329f69ec"/>
+    <hyperlink ref="C1565" r:id="rId2818" display="https://pan.quark.cn/s/bae620151465"/>
+    <hyperlink ref="C1567" r:id="rId2819" display="https://pan.quark.cn/s/f1f67f61d76f"/>
+    <hyperlink ref="C1570" r:id="rId2820" display="https://pan.quark.cn/s/3899ba11c731"/>
+    <hyperlink ref="C1566" r:id="rId2821" display="https://pan.quark.cn/s/13f304283a38"/>
+    <hyperlink ref="C1571" r:id="rId2822" display="https://pan.quark.cn/s/21fecc86364d"/>
+    <hyperlink ref="C1525" r:id="rId2823" display="https://pan.quark.cn/s/ab879f72ceab"/>
+    <hyperlink ref="C1527" r:id="rId2824" display="https://pan.quark.cn/s/e0cc9765c85e"/>
+    <hyperlink ref="C1528" r:id="rId2825" display="https://pan.quark.cn/s/060847781ad5"/>
+    <hyperlink ref="C1529" r:id="rId2826" display="https://pan.quark.cn/s/484eb2a874a4"/>
+    <hyperlink ref="C1530" r:id="rId2827" display="https://pan.quark.cn/s/9bfff304ba6c"/>
+    <hyperlink ref="C1532" r:id="rId2828" display="https://pan.quark.cn/s/42bdc3cff310"/>
+    <hyperlink ref="C1531" r:id="rId2829" display="https://pan.quark.cn/s/0603e7479295"/>
+    <hyperlink ref="C1534" r:id="rId2830" display="https://pan.quark.cn/s/f0c6fa8a1104"/>
+    <hyperlink ref="C1535" r:id="rId2831" display="https://pan.quark.cn/s/d7fa56219f20"/>
+    <hyperlink ref="C1537" r:id="rId2832" display="https://pan.quark.cn/s/f68c7e9f4d9a"/>
+    <hyperlink ref="C1538" r:id="rId2833" display="https://pan.quark.cn/s/c4a32f7e6986"/>
+    <hyperlink ref="C1540" r:id="rId2834" display="https://pan.quark.cn/s/76770eecb215"/>
+    <hyperlink ref="C1541" r:id="rId2835" display="https://pan.quark.cn/s/a3c865ce8182"/>
+    <hyperlink ref="C1542" r:id="rId2836" display="https://pan.quark.cn/s/156f50bcb188"/>
+    <hyperlink ref="C1546" r:id="rId2837" display="https://pan.quark.cn/s/d976490535d2"/>
+    <hyperlink ref="C1547" r:id="rId2838" display="https://pan.quark.cn/s/eeb66d806d14"/>
+    <hyperlink ref="C1548" r:id="rId2839" display="https://pan.quark.cn/s/1d128ae0bbf6"/>
+    <hyperlink ref="C1549" r:id="rId2840" display="https://pan.quark.cn/s/16637dbb64b2"/>
+    <hyperlink ref="C1550" r:id="rId2841" display="https://pan.quark.cn/s/13e4918677a8"/>
+    <hyperlink ref="C1551" r:id="rId2842" display="https://pan.quark.cn/s/7d8f59d18891"/>
+    <hyperlink ref="C1552" r:id="rId2843" display="https://pan.quark.cn/s/fa3ad3ac82c0"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -34300,7 +34858,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D1550"/>
+  <dimension ref="A1:D1573"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection/>
@@ -34326,7 +34884,7 @@
         <v>6</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>4352</v>
+        <v>4434</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:4">
@@ -51275,7 +51833,7 @@
     </row>
     <row r="1414" customHeight="1" spans="1:4">
       <c r="A1414" s="5" t="s">
-        <v>4353</v>
+        <v>4435</v>
       </c>
       <c r="B1414" s="4" t="s">
         <v>3987</v>
@@ -52469,76 +53027,76 @@
         <v>4274</v>
       </c>
       <c r="C1513" s="4" t="s">
-        <v>278</v>
+        <v>4275</v>
       </c>
       <c r="D1513" s="4"/>
     </row>
     <row r="1514" customHeight="1" spans="1:4">
       <c r="A1514" s="4" t="s">
-        <v>4275</v>
+        <v>4276</v>
       </c>
       <c r="B1514" s="4" t="s">
-        <v>4276</v>
+        <v>4277</v>
       </c>
       <c r="C1514" s="4" t="s">
-        <v>278</v>
+        <v>4278</v>
       </c>
       <c r="D1514" s="4"/>
     </row>
     <row r="1515" customHeight="1" spans="1:4">
       <c r="A1515" s="4" t="s">
-        <v>4277</v>
+        <v>4279</v>
       </c>
       <c r="B1515" s="4" t="s">
-        <v>4278</v>
+        <v>4280</v>
       </c>
       <c r="C1515" s="4" t="s">
-        <v>278</v>
+        <v>4281</v>
       </c>
       <c r="D1515" s="4"/>
     </row>
     <row r="1516" customHeight="1" spans="1:4">
       <c r="A1516" s="4" t="s">
-        <v>4279</v>
+        <v>4282</v>
       </c>
       <c r="B1516" s="4" t="s">
-        <v>4280</v>
+        <v>4283</v>
       </c>
       <c r="C1516" s="4" t="s">
-        <v>278</v>
+        <v>4284</v>
       </c>
       <c r="D1516" s="4"/>
     </row>
     <row r="1517" customHeight="1" spans="1:4">
       <c r="A1517" s="4" t="s">
-        <v>4281</v>
+        <v>4285</v>
       </c>
       <c r="B1517" s="4" t="s">
-        <v>4282</v>
+        <v>4286</v>
       </c>
       <c r="C1517" s="4" t="s">
-        <v>278</v>
+        <v>4287</v>
       </c>
       <c r="D1517" s="4"/>
     </row>
     <row r="1518" customHeight="1" spans="1:4">
       <c r="A1518" s="4" t="s">
-        <v>4283</v>
+        <v>4288</v>
       </c>
       <c r="B1518" s="4" t="s">
-        <v>4284</v>
+        <v>4289</v>
       </c>
       <c r="C1518" s="4" t="s">
-        <v>278</v>
+        <v>4290</v>
       </c>
       <c r="D1518" s="4"/>
     </row>
     <row r="1519" customHeight="1" spans="1:4">
       <c r="A1519" s="4" t="s">
-        <v>4285</v>
+        <v>4291</v>
       </c>
       <c r="B1519" s="4" t="s">
-        <v>4286</v>
+        <v>4292</v>
       </c>
       <c r="C1519" s="4" t="s">
         <v>278</v>
@@ -52547,10 +53105,10 @@
     </row>
     <row r="1520" customHeight="1" spans="1:4">
       <c r="A1520" s="4" t="s">
-        <v>4287</v>
+        <v>4293</v>
       </c>
       <c r="B1520" s="4" t="s">
-        <v>4288</v>
+        <v>4294</v>
       </c>
       <c r="C1520" s="4" t="s">
         <v>278</v>
@@ -52559,22 +53117,22 @@
     </row>
     <row r="1521" customHeight="1" spans="1:4">
       <c r="A1521" s="4" t="s">
-        <v>4289</v>
+        <v>4295</v>
       </c>
       <c r="B1521" s="4" t="s">
-        <v>4290</v>
+        <v>4296</v>
       </c>
       <c r="C1521" s="4" t="s">
-        <v>278</v>
+        <v>4297</v>
       </c>
       <c r="D1521" s="4"/>
     </row>
     <row r="1522" customHeight="1" spans="1:4">
       <c r="A1522" s="4" t="s">
-        <v>4291</v>
+        <v>4298</v>
       </c>
       <c r="B1522" s="4" t="s">
-        <v>4292</v>
+        <v>4299</v>
       </c>
       <c r="C1522" s="4" t="s">
         <v>278</v>
@@ -52583,82 +53141,82 @@
     </row>
     <row r="1523" customHeight="1" spans="1:4">
       <c r="A1523" s="4" t="s">
-        <v>4293</v>
+        <v>4300</v>
       </c>
       <c r="B1523" s="4" t="s">
-        <v>4294</v>
+        <v>4301</v>
       </c>
       <c r="C1523" s="4" t="s">
-        <v>278</v>
+        <v>4302</v>
       </c>
       <c r="D1523" s="4"/>
     </row>
     <row r="1524" customHeight="1" spans="1:4">
       <c r="A1524" s="4" t="s">
-        <v>4295</v>
+        <v>4303</v>
       </c>
       <c r="B1524" s="4" t="s">
-        <v>4296</v>
+        <v>4304</v>
       </c>
       <c r="C1524" s="4" t="s">
-        <v>278</v>
+        <v>4305</v>
       </c>
       <c r="D1524" s="4"/>
     </row>
     <row r="1525" customHeight="1" spans="1:4">
       <c r="A1525" s="4" t="s">
-        <v>4297</v>
+        <v>4306</v>
       </c>
       <c r="B1525" s="4" t="s">
-        <v>4298</v>
+        <v>4307</v>
       </c>
       <c r="C1525" s="4" t="s">
-        <v>278</v>
+        <v>4308</v>
       </c>
       <c r="D1525" s="4"/>
     </row>
     <row r="1526" customHeight="1" spans="1:4">
       <c r="A1526" s="4" t="s">
-        <v>4299</v>
+        <v>4309</v>
       </c>
       <c r="B1526" s="4" t="s">
-        <v>4300</v>
+        <v>4310</v>
       </c>
       <c r="C1526" s="4" t="s">
-        <v>278</v>
+        <v>4311</v>
       </c>
       <c r="D1526" s="4"/>
     </row>
     <row r="1527" customHeight="1" spans="1:4">
       <c r="A1527" s="4" t="s">
-        <v>4301</v>
+        <v>4312</v>
       </c>
       <c r="B1527" s="4" t="s">
-        <v>4302</v>
+        <v>4313</v>
       </c>
       <c r="C1527" s="4" t="s">
-        <v>278</v>
+        <v>4314</v>
       </c>
       <c r="D1527" s="4"/>
     </row>
     <row r="1528" customHeight="1" spans="1:4">
       <c r="A1528" s="4" t="s">
-        <v>4303</v>
+        <v>4315</v>
       </c>
       <c r="B1528" s="4" t="s">
-        <v>4304</v>
+        <v>4316</v>
       </c>
       <c r="C1528" s="4" t="s">
-        <v>278</v>
+        <v>4317</v>
       </c>
       <c r="D1528" s="4"/>
     </row>
     <row r="1529" customHeight="1" spans="1:4">
       <c r="A1529" s="4" t="s">
-        <v>4305</v>
+        <v>4318</v>
       </c>
       <c r="B1529" s="4" t="s">
-        <v>4306</v>
+        <v>4319</v>
       </c>
       <c r="C1529" s="4" t="s">
         <v>278</v>
@@ -52667,34 +53225,34 @@
     </row>
     <row r="1530" customHeight="1" spans="1:4">
       <c r="A1530" s="4" t="s">
-        <v>4307</v>
+        <v>4320</v>
       </c>
       <c r="B1530" s="4" t="s">
-        <v>4308</v>
+        <v>4321</v>
       </c>
       <c r="C1530" s="4" t="s">
-        <v>278</v>
+        <v>4322</v>
       </c>
       <c r="D1530" s="4"/>
     </row>
     <row r="1531" customHeight="1" spans="1:4">
       <c r="A1531" s="4" t="s">
-        <v>4309</v>
+        <v>4323</v>
       </c>
       <c r="B1531" s="4" t="s">
-        <v>4310</v>
+        <v>4324</v>
       </c>
       <c r="C1531" s="4" t="s">
-        <v>278</v>
+        <v>4325</v>
       </c>
       <c r="D1531" s="4"/>
     </row>
     <row r="1532" customHeight="1" spans="1:4">
       <c r="A1532" s="4" t="s">
-        <v>4311</v>
+        <v>4326</v>
       </c>
       <c r="B1532" s="4" t="s">
-        <v>4312</v>
+        <v>4327</v>
       </c>
       <c r="C1532" s="4" t="s">
         <v>278</v>
@@ -52703,34 +53261,34 @@
     </row>
     <row r="1533" customHeight="1" spans="1:4">
       <c r="A1533" s="4" t="s">
-        <v>4313</v>
+        <v>4328</v>
       </c>
       <c r="B1533" s="4" t="s">
-        <v>4314</v>
+        <v>4329</v>
       </c>
       <c r="C1533" s="4" t="s">
-        <v>278</v>
+        <v>4330</v>
       </c>
       <c r="D1533" s="4"/>
     </row>
     <row r="1534" customHeight="1" spans="1:4">
       <c r="A1534" s="4" t="s">
-        <v>4315</v>
+        <v>4331</v>
       </c>
       <c r="B1534" s="4" t="s">
-        <v>4316</v>
+        <v>4332</v>
       </c>
       <c r="C1534" s="4" t="s">
-        <v>278</v>
+        <v>4333</v>
       </c>
       <c r="D1534" s="4"/>
     </row>
     <row r="1535" customHeight="1" spans="1:4">
       <c r="A1535" s="4" t="s">
-        <v>4317</v>
+        <v>4334</v>
       </c>
       <c r="B1535" s="4" t="s">
-        <v>4318</v>
+        <v>4335</v>
       </c>
       <c r="C1535" s="4" t="s">
         <v>278</v>
@@ -52739,166 +53297,166 @@
     </row>
     <row r="1536" customHeight="1" spans="1:4">
       <c r="A1536" s="4" t="s">
-        <v>4319</v>
+        <v>4336</v>
       </c>
       <c r="B1536" s="4" t="s">
-        <v>4320</v>
+        <v>4337</v>
       </c>
       <c r="C1536" s="4" t="s">
-        <v>278</v>
+        <v>4338</v>
       </c>
       <c r="D1536" s="4"/>
     </row>
     <row r="1537" customHeight="1" spans="1:4">
       <c r="A1537" s="4" t="s">
-        <v>4321</v>
+        <v>4339</v>
       </c>
       <c r="B1537" s="4" t="s">
-        <v>4322</v>
+        <v>4340</v>
       </c>
       <c r="C1537" s="4" t="s">
-        <v>278</v>
+        <v>4341</v>
       </c>
       <c r="D1537" s="4"/>
     </row>
     <row r="1538" customHeight="1" spans="1:4">
       <c r="A1538" s="4" t="s">
-        <v>4323</v>
+        <v>4342</v>
       </c>
       <c r="B1538" s="4" t="s">
-        <v>4324</v>
+        <v>4343</v>
       </c>
       <c r="C1538" s="4" t="s">
-        <v>278</v>
+        <v>4344</v>
       </c>
       <c r="D1538" s="4"/>
     </row>
     <row r="1539" customHeight="1" spans="1:4">
       <c r="A1539" s="4" t="s">
-        <v>4325</v>
+        <v>4345</v>
       </c>
       <c r="B1539" s="4" t="s">
-        <v>4326</v>
+        <v>4346</v>
       </c>
       <c r="C1539" s="4" t="s">
-        <v>4327</v>
+        <v>4347</v>
       </c>
       <c r="D1539" s="4"/>
     </row>
     <row r="1540" customHeight="1" spans="1:4">
       <c r="A1540" s="4" t="s">
-        <v>4328</v>
+        <v>4348</v>
       </c>
       <c r="B1540" s="4" t="s">
-        <v>4329</v>
+        <v>4349</v>
       </c>
       <c r="C1540" s="4" t="s">
-        <v>4330</v>
+        <v>4350</v>
       </c>
       <c r="D1540" s="4"/>
     </row>
     <row r="1541" customHeight="1" spans="1:4">
       <c r="A1541" s="4" t="s">
-        <v>4331</v>
+        <v>4351</v>
       </c>
       <c r="B1541" s="4" t="s">
-        <v>4332</v>
+        <v>4352</v>
       </c>
       <c r="C1541" s="4" t="s">
-        <v>4333</v>
+        <v>4353</v>
       </c>
       <c r="D1541" s="4"/>
     </row>
     <row r="1542" customHeight="1" spans="1:4">
       <c r="A1542" s="4" t="s">
-        <v>4334</v>
+        <v>4354</v>
       </c>
       <c r="B1542" s="4" t="s">
-        <v>4335</v>
+        <v>4355</v>
       </c>
       <c r="C1542" s="4" t="s">
-        <v>278</v>
+        <v>4356</v>
       </c>
       <c r="D1542" s="4"/>
     </row>
     <row r="1543" customHeight="1" spans="1:4">
       <c r="A1543" s="4" t="s">
-        <v>4336</v>
+        <v>4357</v>
       </c>
       <c r="B1543" s="4" t="s">
-        <v>4337</v>
+        <v>4358</v>
       </c>
       <c r="C1543" s="4" t="s">
-        <v>278</v>
+        <v>4359</v>
       </c>
       <c r="D1543" s="4"/>
     </row>
     <row r="1544" customHeight="1" spans="1:4">
       <c r="A1544" s="4" t="s">
-        <v>4338</v>
+        <v>4360</v>
       </c>
       <c r="B1544" s="4" t="s">
-        <v>4339</v>
+        <v>4361</v>
       </c>
       <c r="C1544" s="4" t="s">
-        <v>278</v>
+        <v>4362</v>
       </c>
       <c r="D1544" s="4"/>
     </row>
     <row r="1545" customHeight="1" spans="1:4">
       <c r="A1545" s="4" t="s">
-        <v>4340</v>
+        <v>4363</v>
       </c>
       <c r="B1545" s="4" t="s">
-        <v>4341</v>
+        <v>4364</v>
       </c>
       <c r="C1545" s="4" t="s">
-        <v>278</v>
+        <v>4365</v>
       </c>
       <c r="D1545" s="4"/>
     </row>
     <row r="1546" customHeight="1" spans="1:4">
       <c r="A1546" s="4" t="s">
-        <v>4342</v>
+        <v>4366</v>
       </c>
       <c r="B1546" s="4" t="s">
-        <v>4343</v>
+        <v>4367</v>
       </c>
       <c r="C1546" s="4" t="s">
-        <v>278</v>
+        <v>4368</v>
       </c>
       <c r="D1546" s="4"/>
     </row>
     <row r="1547" customHeight="1" spans="1:4">
       <c r="A1547" s="4" t="s">
-        <v>4344</v>
+        <v>4369</v>
       </c>
       <c r="B1547" s="4" t="s">
-        <v>4345</v>
+        <v>4370</v>
       </c>
       <c r="C1547" s="4" t="s">
-        <v>278</v>
+        <v>4371</v>
       </c>
       <c r="D1547" s="4"/>
     </row>
     <row r="1548" customHeight="1" spans="1:4">
       <c r="A1548" s="4" t="s">
-        <v>4346</v>
+        <v>4372</v>
       </c>
       <c r="B1548" s="4" t="s">
-        <v>4347</v>
+        <v>4373</v>
       </c>
       <c r="C1548" s="4" t="s">
-        <v>278</v>
+        <v>4374</v>
       </c>
       <c r="D1548" s="4"/>
     </row>
     <row r="1549" customHeight="1" spans="1:4">
       <c r="A1549" s="4" t="s">
-        <v>4348</v>
+        <v>4375</v>
       </c>
       <c r="B1549" s="4" t="s">
-        <v>4349</v>
+        <v>4376</v>
       </c>
       <c r="C1549" s="4" t="s">
         <v>278</v>
@@ -52907,15 +53465,291 @@
     </row>
     <row r="1550" customHeight="1" spans="1:4">
       <c r="A1550" s="4" t="s">
-        <v>4350</v>
+        <v>4377</v>
       </c>
       <c r="B1550" s="4" t="s">
-        <v>4351</v>
+        <v>4378</v>
       </c>
       <c r="C1550" s="4" t="s">
         <v>278</v>
       </c>
       <c r="D1550" s="4"/>
+    </row>
+    <row r="1551" customHeight="1" spans="1:4">
+      <c r="A1551" s="4" t="s">
+        <v>4379</v>
+      </c>
+      <c r="B1551" s="4" t="s">
+        <v>4380</v>
+      </c>
+      <c r="C1551" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="D1551" s="4"/>
+    </row>
+    <row r="1552" customHeight="1" spans="1:4">
+      <c r="A1552" s="4" t="s">
+        <v>4381</v>
+      </c>
+      <c r="B1552" s="4" t="s">
+        <v>4382</v>
+      </c>
+      <c r="C1552" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="D1552" s="4"/>
+    </row>
+    <row r="1553" customHeight="1" spans="1:4">
+      <c r="A1553" s="4" t="s">
+        <v>4383</v>
+      </c>
+      <c r="B1553" s="4" t="s">
+        <v>4384</v>
+      </c>
+      <c r="C1553" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="D1553" s="4"/>
+    </row>
+    <row r="1554" customHeight="1" spans="1:4">
+      <c r="A1554" s="4" t="s">
+        <v>4385</v>
+      </c>
+      <c r="B1554" s="4" t="s">
+        <v>4386</v>
+      </c>
+      <c r="C1554" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="D1554" s="4"/>
+    </row>
+    <row r="1555" customHeight="1" spans="1:4">
+      <c r="A1555" s="4" t="s">
+        <v>4387</v>
+      </c>
+      <c r="B1555" s="4" t="s">
+        <v>4388</v>
+      </c>
+      <c r="C1555" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="D1555" s="4"/>
+    </row>
+    <row r="1556" customHeight="1" spans="1:4">
+      <c r="A1556" s="4" t="s">
+        <v>4389</v>
+      </c>
+      <c r="B1556" s="4" t="s">
+        <v>4390</v>
+      </c>
+      <c r="C1556" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="D1556" s="4"/>
+    </row>
+    <row r="1557" customHeight="1" spans="1:4">
+      <c r="A1557" s="4" t="s">
+        <v>4391</v>
+      </c>
+      <c r="B1557" s="4" t="s">
+        <v>4392</v>
+      </c>
+      <c r="C1557" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="D1557" s="4"/>
+    </row>
+    <row r="1558" customHeight="1" spans="1:4">
+      <c r="A1558" s="4" t="s">
+        <v>4393</v>
+      </c>
+      <c r="B1558" s="4" t="s">
+        <v>4394</v>
+      </c>
+      <c r="C1558" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="D1558" s="4"/>
+    </row>
+    <row r="1559" customHeight="1" spans="1:4">
+      <c r="A1559" s="4" t="s">
+        <v>4395</v>
+      </c>
+      <c r="B1559" s="4" t="s">
+        <v>4396</v>
+      </c>
+      <c r="C1559" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="D1559" s="4"/>
+    </row>
+    <row r="1560" customHeight="1" spans="1:4">
+      <c r="A1560" s="4" t="s">
+        <v>4397</v>
+      </c>
+      <c r="B1560" s="4" t="s">
+        <v>4398</v>
+      </c>
+      <c r="C1560" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="D1560" s="4"/>
+    </row>
+    <row r="1561" customHeight="1" spans="1:4">
+      <c r="A1561" s="4" t="s">
+        <v>4399</v>
+      </c>
+      <c r="B1561" s="4" t="s">
+        <v>4400</v>
+      </c>
+      <c r="C1561" s="4" t="s">
+        <v>4401</v>
+      </c>
+      <c r="D1561" s="4"/>
+    </row>
+    <row r="1562" customHeight="1" spans="1:4">
+      <c r="A1562" s="4" t="s">
+        <v>4402</v>
+      </c>
+      <c r="B1562" s="4" t="s">
+        <v>4403</v>
+      </c>
+      <c r="C1562" s="4" t="s">
+        <v>4404</v>
+      </c>
+      <c r="D1562" s="4"/>
+    </row>
+    <row r="1563" customHeight="1" spans="1:4">
+      <c r="A1563" s="4" t="s">
+        <v>4405</v>
+      </c>
+      <c r="B1563" s="4" t="s">
+        <v>4406</v>
+      </c>
+      <c r="C1563" s="4" t="s">
+        <v>4407</v>
+      </c>
+      <c r="D1563" s="4"/>
+    </row>
+    <row r="1564" customHeight="1" spans="1:4">
+      <c r="A1564" s="4" t="s">
+        <v>4408</v>
+      </c>
+      <c r="B1564" s="4" t="s">
+        <v>4409</v>
+      </c>
+      <c r="C1564" s="4" t="s">
+        <v>4410</v>
+      </c>
+      <c r="D1564" s="4"/>
+    </row>
+    <row r="1565" customHeight="1" spans="1:4">
+      <c r="A1565" s="4" t="s">
+        <v>4411</v>
+      </c>
+      <c r="B1565" s="4" t="s">
+        <v>4412</v>
+      </c>
+      <c r="C1565" s="4" t="s">
+        <v>4413</v>
+      </c>
+      <c r="D1565" s="4"/>
+    </row>
+    <row r="1566" customHeight="1" spans="1:4">
+      <c r="A1566" s="4" t="s">
+        <v>4414</v>
+      </c>
+      <c r="B1566" s="4" t="s">
+        <v>4415</v>
+      </c>
+      <c r="C1566" s="4" t="s">
+        <v>4416</v>
+      </c>
+      <c r="D1566" s="4"/>
+    </row>
+    <row r="1567" customHeight="1" spans="1:4">
+      <c r="A1567" s="4" t="s">
+        <v>4417</v>
+      </c>
+      <c r="B1567" s="4" t="s">
+        <v>4418</v>
+      </c>
+      <c r="C1567" s="4" t="s">
+        <v>4419</v>
+      </c>
+      <c r="D1567" s="4"/>
+    </row>
+    <row r="1568" customHeight="1" spans="1:4">
+      <c r="A1568" s="4" t="s">
+        <v>4420</v>
+      </c>
+      <c r="B1568" s="4" t="s">
+        <v>4421</v>
+      </c>
+      <c r="C1568" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="D1568" s="4"/>
+    </row>
+    <row r="1569" customHeight="1" spans="1:4">
+      <c r="A1569" s="4" t="s">
+        <v>4422</v>
+      </c>
+      <c r="B1569" s="4" t="s">
+        <v>4423</v>
+      </c>
+      <c r="C1569" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="D1569" s="4"/>
+    </row>
+    <row r="1570" customHeight="1" spans="1:4">
+      <c r="A1570" s="4" t="s">
+        <v>4424</v>
+      </c>
+      <c r="B1570" s="4" t="s">
+        <v>4425</v>
+      </c>
+      <c r="C1570" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="D1570" s="4"/>
+    </row>
+    <row r="1571" customHeight="1" spans="1:4">
+      <c r="A1571" s="4" t="s">
+        <v>4426</v>
+      </c>
+      <c r="B1571" s="4" t="s">
+        <v>4427</v>
+      </c>
+      <c r="C1571" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="D1571" s="4"/>
+    </row>
+    <row r="1572" customHeight="1" spans="1:4">
+      <c r="A1572" s="4" t="s">
+        <v>4428</v>
+      </c>
+      <c r="B1572" s="4" t="s">
+        <v>4429</v>
+      </c>
+      <c r="C1572" s="4" t="s">
+        <v>4430</v>
+      </c>
+      <c r="D1572" s="4"/>
+    </row>
+    <row r="1573" customHeight="1" spans="1:4">
+      <c r="A1573" s="4" t="s">
+        <v>4431</v>
+      </c>
+      <c r="B1573" s="4" t="s">
+        <v>4432</v>
+      </c>
+      <c r="C1573" s="4" t="s">
+        <v>4433</v>
+      </c>
+      <c r="D1573" s="4"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertColumns="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>

--- a/影视剧.xlsx
+++ b/影视剧.xlsx
@@ -8,10 +8,10 @@
   </bookViews>
   <sheets>
     <sheet name="影视剧" sheetId="2" r:id="rId1"/>
-    <sheet name="影视剧(2)" sheetId="3" state="veryHidden" r:id="rId2"/>
+    <sheet name="影视剧(3)" sheetId="3" state="veryHidden" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">影视剧!$A$1:$C$1548</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">影视剧!$A$1:$C$1600</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9443" uniqueCount="4436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9635" uniqueCount="4536">
   <si>
     <t>注意：不要相信视频或者文件内的广告和二维码！谨防诈骗！谨防诈骗！谨防诈骗！</t>
   </si>
@@ -4262,7 +4262,7 @@
     <t>https://pan.quark.cn/s/86793f9a3573</t>
   </si>
   <si>
-    <t>我叫白小飞.尸兄.1-2季</t>
+    <t>我叫白小飞/尸兄 1-2季</t>
   </si>
   <si>
     <t>https://pan.quark.cn/s/f5685752c8c6</t>
@@ -4316,7 +4316,7 @@
     <t>https://pan.quark.cn/s/3b614234175c</t>
   </si>
   <si>
-    <t>噬亡村第1季</t>
+    <t>噬亡村第1季 韩国</t>
   </si>
   <si>
     <t>https://pan.baidu.com/s/1axOW0SJLdnvfI2zwFAFahw?pwd=qpsc</t>
@@ -4325,13 +4325,13 @@
     <t>https://pan.quark.cn/s/8a724e61d34d</t>
   </si>
   <si>
-    <t>噬亡村第2季</t>
-  </si>
-  <si>
-    <t>https://pan.baidu.com/s/1eMXyMwMEy2fuF3UNZmwRMA?pwd=biqq</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/5c82acfd0096</t>
+    <t>噬亡村第2季 更新到7集 韩国</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1Jgt05NdHLrYbm0-MwMXZcw?pwd=vj25</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/216f0b70cf07</t>
   </si>
   <si>
     <t>饥饿站台1-2部</t>
@@ -13181,18 +13181,27 @@
     <t>https://pan.baidu.com/s/1LPSFKQsNWoPwdcwID2Yoxw?pwd=93ig</t>
   </si>
   <si>
+    <t>https://pan.quark.cn/s/406197146420</t>
+  </si>
+  <si>
     <t>唐顿庄园 1-6季 英国</t>
   </si>
   <si>
     <t>https://pan.baidu.com/s/1mCOqYlIB-cUm0tLe0XAEdw?pwd=qgru</t>
   </si>
   <si>
+    <t>https://pan.quark.cn/s/d13946be3e2d</t>
+  </si>
+  <si>
     <t>傲慢与偏见（1995）英国</t>
   </si>
   <si>
     <t>https://pan.baidu.com/s/1-e6PTCqqopM27yGwg5zwsg?pwd=xmzg</t>
   </si>
   <si>
+    <t>https://pan.quark.cn/s/79eb9b7a674e</t>
+  </si>
+  <si>
     <t>傲慢与偏见（1980）英国</t>
   </si>
   <si>
@@ -13205,48 +13214,72 @@
     <t>https://pan.baidu.com/s/1o2Q9J981mKnEYVo2aNsWag?pwd=r82w</t>
   </si>
   <si>
+    <t>https://pan.quark.cn/s/5d65dc98a750</t>
+  </si>
+  <si>
     <t>南方与北方（2004）英国</t>
   </si>
   <si>
     <t>https://pan.baidu.com/s/1tEuP-VLg7wiaoF_NY3cwmg?pwd=h3ht</t>
   </si>
   <si>
+    <t>https://pan.quark.cn/s/7bac0532f720</t>
+  </si>
+  <si>
     <t>王冠 1-6季 英国</t>
   </si>
   <si>
     <t>https://pan.baidu.com/s/1XgFqbaJXmOkEUMpcGg5cFw?pwd=b2cz</t>
   </si>
   <si>
+    <t>https://pan.quark.cn/s/eb2ead28d45d</t>
+  </si>
+  <si>
     <t>伦敦生活 1-2季 英国</t>
   </si>
   <si>
     <t>https://pan.baidu.com/s/1iqueX6Zpkl4PWqwRdq_Snw?pwd=aeby</t>
   </si>
   <si>
+    <t>https://pan.quark.cn/s/da8f92d4937b</t>
+  </si>
+  <si>
     <t>万物生灵 系列 英国</t>
   </si>
   <si>
     <t>https://pan.baidu.com/s/1KrWLriR1-_iZFeUBaMNUaw?pwd=2nw5</t>
   </si>
   <si>
+    <t>https://pan.quark.cn/s/f6bc022e0d61</t>
+  </si>
+  <si>
     <t>犯罪心理 1-17季 美国</t>
   </si>
   <si>
     <t>https://pan.baidu.com/s/1YSKjsaeMG0RNdzhJlCjLxg?pwd=iff4</t>
   </si>
   <si>
+    <t>https://pan.quark.cn/s/67363a7d1c2d</t>
+  </si>
+  <si>
     <t>喜鹊谋杀案（2022）英国</t>
   </si>
   <si>
     <t>https://pan.baidu.com/s/1_cIDLeWoMAxW2Xa9ibUrHA?pwd=kt3c</t>
   </si>
   <si>
+    <t>https://pan.quark.cn/s/21d54398729a</t>
+  </si>
+  <si>
     <t>月光花谋杀案（2024）美国/英国</t>
   </si>
   <si>
     <t>https://pan.baidu.com/s/1DWo1ma0GGMr5L4M2-5H6Ig?pwd=zn8k</t>
   </si>
   <si>
+    <t>https://pan.quark.cn/s/1ef60583d57f</t>
+  </si>
+  <si>
     <t>机动部队-同袍（2009）中国香港</t>
   </si>
   <si>
@@ -13316,24 +13349,36 @@
     <t>https://pan.baidu.com/s/14sjjnzF9PZ65KqUpBCkaeQ?pwd=drxv</t>
   </si>
   <si>
+    <t>https://pan.quark.cn/s/b9e762280fb3</t>
+  </si>
+  <si>
     <t>子弹列车（2022）美国</t>
   </si>
   <si>
     <t>https://pan.baidu.com/s/1j8w9DJZ8NVswjIDhagp9zw?pwd=mhde</t>
   </si>
   <si>
+    <t>https://pan.quark.cn/s/4d496bb4248c</t>
+  </si>
+  <si>
     <t>危情时速（2010）美国</t>
   </si>
   <si>
     <t>https://pan.baidu.com/s/1iG72gGjOmHGVL8GdvOQD-w?pwd=jdfp</t>
   </si>
   <si>
+    <t>https://pan.quark.cn/s/db855f3f613f</t>
+  </si>
+  <si>
     <t>全领域异常解决室（2024）日本</t>
   </si>
   <si>
     <t>https://pan.baidu.com/s/1Lz6ORD1QmDmOQtHgx8KSAw?pwd=c6tr</t>
   </si>
   <si>
+    <t>https://pan.quark.cn/s/d0826dd1b377</t>
+  </si>
+  <si>
     <t>波巴·费特之书（2021）美国</t>
   </si>
   <si>
@@ -13350,6 +13395,261 @@
   </si>
   <si>
     <t>https://pan.quark.cn/s/282b0849c465</t>
+  </si>
+  <si>
+    <t>本杰明·巴顿奇事（2008）美国</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1YpAoCnpkQvtzgYhUyRUXvQ?pwd=kc3b</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/a3e2f0225b53</t>
+  </si>
+  <si>
+    <t>啊！海军（1969）日本</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1kiisczUid2KkoNDfVFh5WQ?pwd=4d9y</t>
+  </si>
+  <si>
+    <t>大头儿子和小头爸爸（1995）中国大陆</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/19la7HD6_XHpg0dEZMqHgKw?pwd=r4pk</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/a0dfb38d9b54</t>
+  </si>
+  <si>
+    <t>新大头儿子和小头爸爸6：迷你大冒险（2024）中国大陆</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1HxNDMdBbVXnK-ePFll4d9Q?pwd=4k84</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/0a8647b1bf2b</t>
+  </si>
+  <si>
+    <t>新大头儿子和小头爸爸5：我的外星朋友（2022）中国大陆</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/14P7KSslm469pt4cGuePusw?pwd=isfe</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/f78dfa2198bb</t>
+  </si>
+  <si>
+    <t>新大头儿子和小头爸爸4：完美爸爸（2021）中国大陆</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1gng30JpGBGUF7OSUmZiZUg?pwd=ia8d</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/1238fdb3399a</t>
+  </si>
+  <si>
+    <t>新大头儿子和小头爸爸3：俄罗斯奇遇记（2018）中国大陆</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1i9aueWMTqsznatbIiwTaeg?pwd=evqu</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/4ad1877c73bd</t>
+  </si>
+  <si>
+    <t>新大头儿子和小头爸爸2：一日成才（2016）中国大陆</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1fJ8OJRIS8TD3RoFqSuzoSA?pwd=raa9</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/34ccf73a7526</t>
+  </si>
+  <si>
+    <t>新大头儿子和小头爸爸之秘密计划（2014）中国大陆</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/19b_HAJ7w-y-02sXwg3Ub9g?pwd=fxhf</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/f6bf1d32d90a</t>
+  </si>
+  <si>
+    <t>大头儿子和小头爸爸 合集</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1l8SAoUslvU8wQ_NryNdTtg?pwd=wwa9</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/6edbe1a7c850</t>
+  </si>
+  <si>
+    <t>电击小子</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1S11NP1oYdOG2pa3UGWBEtQ?pwd=byp2</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/406a86077c15</t>
+  </si>
+  <si>
+    <t>神笔马良（2014）中国大陆</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1KxN_ZGm4BtC0beicoO3w8Q?pwd=p6h9</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/fc973d4aaee4</t>
+  </si>
+  <si>
+    <t>门徒（2007）中国香港</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1FtaIsdBpjG_46cG55yqOwg?pwd=hsg2</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/3ee8f2397790</t>
+  </si>
+  <si>
+    <t>摩尔庄园 1-3季 中国大陆</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/f4a35184e648</t>
+  </si>
+  <si>
+    <t>摩尔庄园冰世纪（2011）中国大陆</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1mdKjOXYK_n3Q57iSiUvWTQ?pwd=n1wk</t>
+  </si>
+  <si>
+    <t>摩尔庄园2：海妖宝藏（2012）中国大陆</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1ypP8265ESXVf_drgbPuO_A?pwd=cxnf</t>
+  </si>
+  <si>
+    <t>摩尔庄园3：魔幻列车大冒险（2015）中国大陆</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1hoG_CYSbtaqpXmWCF9i5jQ?pwd=1vrc</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/248a1a1695ba</t>
+  </si>
+  <si>
+    <t>洛克王国之圣龙骑士（2011）中国大陆</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1PlK-qIs43rGruPei8RIZGg?pwd=pdme</t>
+  </si>
+  <si>
+    <t>洛克王国4：出发！巨人谷（2015）中国大陆</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1DaNlsJcz9padJyKETMYqkw?pwd=jy4k</t>
+  </si>
+  <si>
+    <t>洛克王国3：圣龙的守护（2014）中国大陆</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1ZYLM2MnlUTg1exFLs71CWA?pwd=sp35</t>
+  </si>
+  <si>
+    <t>淘气包马小跳（2008）中国大陆</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/19ce96adfd5a</t>
+  </si>
+  <si>
+    <t>死亡笔记（2005）日本</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1cdv_kSY1xUtEj_VkGJYJQg?pwd=7tes</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/8705ca195fe7</t>
+  </si>
+  <si>
+    <t>精灵宝可梦 系列</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1-4qn0QoAfS4Wxmosl0a9Tw?pwd=kdyi</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/a9481f58da02</t>
+  </si>
+  <si>
+    <t>花园宝宝（2007） 英国</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1I2GEFDAk9YZYG0wFgFa9gw?pwd=7n9q</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/c8e7cd75184d</t>
+  </si>
+  <si>
+    <t>天线宝宝 1-6季 英国</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1Ln6JzSvvCCTAES4RZDkK1w?pwd=jhb5</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/8c3056fb0545</t>
+  </si>
+  <si>
+    <t>英雄本色 1-3部 中国香港</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/19zxBb4XMT9IEQDmAv64ejw?pwd=wfjb</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/49ef1f6b60a1</t>
+  </si>
+  <si>
+    <t>私人订制（2013）中国大陆</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/15N3PAas9GObyPXR3ZjTzzA?pwd=6bg2</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/ca5b1c9bf2ee</t>
+  </si>
+  <si>
+    <t>山田君与7个魔女 真人版（2013）日本</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1PaqhJby9JIE4b4O39sv5Tw?pwd=xwct</t>
+  </si>
+  <si>
+    <t>山田君与7个魔女 动画版（2015）日本</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1MfeiWczF-yAzu3kVJ87i9g?pwd=h47w</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/b4808bde3725</t>
+  </si>
+  <si>
+    <t>我们都是超能力者 电影版（2015）日本</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1IKYqoVZz5BTq05i98ZmWVw?pwd=sew2</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/115a4a0c6786</t>
+  </si>
+  <si>
+    <t>我们都是超能力者 TV版（2013）日本</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/a27fa222111a</t>
+  </si>
+  <si>
+    <t>监狱学院 动画版（2015）日本</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/5a2e6968b36c</t>
   </si>
   <si>
     <t>文本</t>
@@ -14378,7 +14678,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="影视剧_2" displayName="影视剧_2" ref="A1:D1573" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="影视剧_3" displayName="影视剧_3" ref="A1:D1605" totalsRowShown="0">
   <tableColumns count="4">
     <tableColumn id="1" name="环太平洋 1-2部 美国"/>
     <tableColumn id="2" name="https://pan.baidu.com/s/1uY8kk83FrhdvCbY9w_borg?pwd=aasg"/>
@@ -14647,9 +14947,9 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D1577"/>
+  <dimension ref="A1:D1609"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="30" zoomScaleNormal="30" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:C1048576"/>
     </sheetView>
   </sheetViews>
@@ -20107,10 +20407,10 @@
       <c r="A497" s="11" t="s">
         <v>1425</v>
       </c>
-      <c r="B497" s="12" t="s">
+      <c r="B497" s="16" t="s">
         <v>1426</v>
       </c>
-      <c r="C497" s="12" t="s">
+      <c r="C497" s="16" t="s">
         <v>1427</v>
       </c>
     </row>
@@ -31418,7 +31718,7 @@
       <c r="B1525" s="12" t="s">
         <v>4296</v>
       </c>
-      <c r="C1525" s="16" t="s">
+      <c r="C1525" s="12" t="s">
         <v>4297</v>
       </c>
     </row>
@@ -31440,7 +31740,7 @@
       <c r="B1527" s="12" t="s">
         <v>4301</v>
       </c>
-      <c r="C1527" s="16" t="s">
+      <c r="C1527" s="12" t="s">
         <v>4302</v>
       </c>
     </row>
@@ -31451,7 +31751,7 @@
       <c r="B1528" s="12" t="s">
         <v>4304</v>
       </c>
-      <c r="C1528" s="16" t="s">
+      <c r="C1528" s="12" t="s">
         <v>4305</v>
       </c>
     </row>
@@ -31462,7 +31762,7 @@
       <c r="B1529" s="12" t="s">
         <v>4307</v>
       </c>
-      <c r="C1529" s="16" t="s">
+      <c r="C1529" s="12" t="s">
         <v>4308</v>
       </c>
     </row>
@@ -31473,7 +31773,7 @@
       <c r="B1530" s="12" t="s">
         <v>4310</v>
       </c>
-      <c r="C1530" s="16" t="s">
+      <c r="C1530" s="12" t="s">
         <v>4311</v>
       </c>
     </row>
@@ -31484,7 +31784,7 @@
       <c r="B1531" s="12" t="s">
         <v>4313</v>
       </c>
-      <c r="C1531" s="16" t="s">
+      <c r="C1531" s="12" t="s">
         <v>4314</v>
       </c>
     </row>
@@ -31495,7 +31795,7 @@
       <c r="B1532" s="12" t="s">
         <v>4316</v>
       </c>
-      <c r="C1532" s="16" t="s">
+      <c r="C1532" s="12" t="s">
         <v>4317</v>
       </c>
     </row>
@@ -31517,7 +31817,7 @@
       <c r="B1534" s="12" t="s">
         <v>4321</v>
       </c>
-      <c r="C1534" s="16" t="s">
+      <c r="C1534" s="12" t="s">
         <v>4322</v>
       </c>
     </row>
@@ -31528,7 +31828,7 @@
       <c r="B1535" s="12" t="s">
         <v>4324</v>
       </c>
-      <c r="C1535" s="16" t="s">
+      <c r="C1535" s="12" t="s">
         <v>4325</v>
       </c>
     </row>
@@ -31550,7 +31850,7 @@
       <c r="B1537" s="12" t="s">
         <v>4329</v>
       </c>
-      <c r="C1537" s="16" t="s">
+      <c r="C1537" s="12" t="s">
         <v>4330</v>
       </c>
     </row>
@@ -31561,7 +31861,7 @@
       <c r="B1538" s="12" t="s">
         <v>4332</v>
       </c>
-      <c r="C1538" s="16" t="s">
+      <c r="C1538" s="12" t="s">
         <v>4333</v>
       </c>
     </row>
@@ -31583,7 +31883,7 @@
       <c r="B1540" s="12" t="s">
         <v>4337</v>
       </c>
-      <c r="C1540" s="16" t="s">
+      <c r="C1540" s="12" t="s">
         <v>4338</v>
       </c>
     </row>
@@ -31594,7 +31894,7 @@
       <c r="B1541" s="12" t="s">
         <v>4340</v>
       </c>
-      <c r="C1541" s="16" t="s">
+      <c r="C1541" s="12" t="s">
         <v>4341</v>
       </c>
     </row>
@@ -31605,7 +31905,7 @@
       <c r="B1542" s="12" t="s">
         <v>4343</v>
       </c>
-      <c r="C1542" s="16" t="s">
+      <c r="C1542" s="12" t="s">
         <v>4344</v>
       </c>
     </row>
@@ -31649,7 +31949,7 @@
       <c r="B1546" s="12" t="s">
         <v>4355</v>
       </c>
-      <c r="C1546" s="16" t="s">
+      <c r="C1546" s="12" t="s">
         <v>4356</v>
       </c>
     </row>
@@ -31660,7 +31960,7 @@
       <c r="B1547" s="12" t="s">
         <v>4358</v>
       </c>
-      <c r="C1547" s="16" t="s">
+      <c r="C1547" s="12" t="s">
         <v>4359</v>
       </c>
     </row>
@@ -31671,7 +31971,7 @@
       <c r="B1548" s="12" t="s">
         <v>4361</v>
       </c>
-      <c r="C1548" s="16" t="s">
+      <c r="C1548" s="12" t="s">
         <v>4362</v>
       </c>
     </row>
@@ -31682,7 +31982,7 @@
       <c r="B1549" s="12" t="s">
         <v>4364</v>
       </c>
-      <c r="C1549" s="16" t="s">
+      <c r="C1549" s="12" t="s">
         <v>4365</v>
       </c>
     </row>
@@ -31693,7 +31993,7 @@
       <c r="B1550" s="12" t="s">
         <v>4367</v>
       </c>
-      <c r="C1550" s="16" t="s">
+      <c r="C1550" s="12" t="s">
         <v>4368</v>
       </c>
     </row>
@@ -31704,7 +32004,7 @@
       <c r="B1551" s="12" t="s">
         <v>4370</v>
       </c>
-      <c r="C1551" s="16" t="s">
+      <c r="C1551" s="12" t="s">
         <v>4371</v>
       </c>
     </row>
@@ -31715,7 +32015,7 @@
       <c r="B1552" s="12" t="s">
         <v>4373</v>
       </c>
-      <c r="C1552" s="16" t="s">
+      <c r="C1552" s="12" t="s">
         <v>4374</v>
       </c>
     </row>
@@ -31726,38 +32026,38 @@
       <c r="B1553" s="12" t="s">
         <v>4376</v>
       </c>
-      <c r="C1553" s="11" t="s">
-        <v>278</v>
+      <c r="C1553" s="12" t="s">
+        <v>4377</v>
       </c>
     </row>
     <row r="1554" spans="1:3">
       <c r="A1554" s="11" t="s">
-        <v>4377</v>
+        <v>4378</v>
       </c>
       <c r="B1554" s="12" t="s">
-        <v>4378</v>
-      </c>
-      <c r="C1554" s="11" t="s">
-        <v>278</v>
+        <v>4379</v>
+      </c>
+      <c r="C1554" s="12" t="s">
+        <v>4380</v>
       </c>
     </row>
     <row r="1555" spans="1:3">
       <c r="A1555" s="11" t="s">
-        <v>4379</v>
+        <v>4381</v>
       </c>
       <c r="B1555" s="12" t="s">
-        <v>4380</v>
-      </c>
-      <c r="C1555" s="11" t="s">
-        <v>278</v>
+        <v>4382</v>
+      </c>
+      <c r="C1555" s="12" t="s">
+        <v>4383</v>
       </c>
     </row>
     <row r="1556" spans="1:3">
       <c r="A1556" s="11" t="s">
-        <v>4381</v>
+        <v>4384</v>
       </c>
       <c r="B1556" s="12" t="s">
-        <v>4382</v>
+        <v>4385</v>
       </c>
       <c r="C1556" s="11" t="s">
         <v>278</v>
@@ -31765,233 +32065,585 @@
     </row>
     <row r="1557" spans="1:3">
       <c r="A1557" s="11" t="s">
-        <v>4383</v>
+        <v>4386</v>
       </c>
       <c r="B1557" s="12" t="s">
-        <v>4384</v>
-      </c>
-      <c r="C1557" s="11" t="s">
-        <v>278</v>
+        <v>4387</v>
+      </c>
+      <c r="C1557" s="12" t="s">
+        <v>4388</v>
       </c>
     </row>
     <row r="1558" spans="1:3">
       <c r="A1558" s="11" t="s">
-        <v>4385</v>
+        <v>4389</v>
       </c>
       <c r="B1558" s="12" t="s">
-        <v>4386</v>
-      </c>
-      <c r="C1558" s="11" t="s">
-        <v>278</v>
+        <v>4390</v>
+      </c>
+      <c r="C1558" s="12" t="s">
+        <v>4391</v>
       </c>
     </row>
     <row r="1559" spans="1:3">
       <c r="A1559" s="11" t="s">
-        <v>4387</v>
+        <v>4392</v>
       </c>
       <c r="B1559" s="12" t="s">
-        <v>4388</v>
-      </c>
-      <c r="C1559" s="11" t="s">
-        <v>278</v>
+        <v>4393</v>
+      </c>
+      <c r="C1559" s="12" t="s">
+        <v>4394</v>
       </c>
     </row>
     <row r="1560" spans="1:3">
       <c r="A1560" s="11" t="s">
-        <v>4389</v>
+        <v>4395</v>
       </c>
       <c r="B1560" s="12" t="s">
-        <v>4390</v>
-      </c>
-      <c r="C1560" s="11" t="s">
-        <v>278</v>
+        <v>4396</v>
+      </c>
+      <c r="C1560" s="12" t="s">
+        <v>4397</v>
       </c>
     </row>
     <row r="1561" spans="1:3">
       <c r="A1561" s="11" t="s">
-        <v>4391</v>
+        <v>4398</v>
       </c>
       <c r="B1561" s="12" t="s">
-        <v>4392</v>
-      </c>
-      <c r="C1561" s="11" t="s">
-        <v>278</v>
+        <v>4399</v>
+      </c>
+      <c r="C1561" s="12" t="s">
+        <v>4400</v>
       </c>
     </row>
     <row r="1562" spans="1:3">
       <c r="A1562" s="11" t="s">
-        <v>4393</v>
+        <v>4401</v>
       </c>
       <c r="B1562" s="12" t="s">
-        <v>4394</v>
-      </c>
-      <c r="C1562" s="11" t="s">
-        <v>278</v>
+        <v>4402</v>
+      </c>
+      <c r="C1562" s="12" t="s">
+        <v>4403</v>
       </c>
     </row>
     <row r="1563" spans="1:3">
       <c r="A1563" s="11" t="s">
-        <v>4395</v>
+        <v>4404</v>
       </c>
       <c r="B1563" s="12" t="s">
-        <v>4396</v>
-      </c>
-      <c r="C1563" s="11" t="s">
-        <v>278</v>
+        <v>4405</v>
+      </c>
+      <c r="C1563" s="12" t="s">
+        <v>4406</v>
       </c>
     </row>
     <row r="1564" spans="1:3">
       <c r="A1564" s="11" t="s">
-        <v>4397</v>
+        <v>4407</v>
       </c>
       <c r="B1564" s="12" t="s">
-        <v>4398</v>
-      </c>
-      <c r="C1564" s="11" t="s">
-        <v>278</v>
+        <v>4408</v>
+      </c>
+      <c r="C1564" s="12" t="s">
+        <v>4409</v>
       </c>
     </row>
     <row r="1565" spans="1:3">
       <c r="A1565" s="11" t="s">
-        <v>4399</v>
+        <v>4410</v>
       </c>
       <c r="B1565" s="12" t="s">
-        <v>4400</v>
-      </c>
-      <c r="C1565" s="16" t="s">
-        <v>4401</v>
+        <v>4411</v>
+      </c>
+      <c r="C1565" s="12" t="s">
+        <v>4412</v>
       </c>
     </row>
     <row r="1566" spans="1:3">
       <c r="A1566" s="11" t="s">
-        <v>4402</v>
+        <v>4413</v>
       </c>
       <c r="B1566" s="12" t="s">
-        <v>4403</v>
-      </c>
-      <c r="C1566" s="16" t="s">
-        <v>4404</v>
+        <v>4414</v>
+      </c>
+      <c r="C1566" s="12" t="s">
+        <v>4415</v>
       </c>
     </row>
     <row r="1567" spans="1:3">
       <c r="A1567" s="11" t="s">
-        <v>4405</v>
+        <v>4416</v>
       </c>
       <c r="B1567" s="12" t="s">
-        <v>4406</v>
-      </c>
-      <c r="C1567" s="16" t="s">
-        <v>4407</v>
+        <v>4417</v>
+      </c>
+      <c r="C1567" s="12" t="s">
+        <v>4418</v>
       </c>
     </row>
     <row r="1568" spans="1:3">
       <c r="A1568" s="11" t="s">
-        <v>4408</v>
+        <v>4419</v>
       </c>
       <c r="B1568" s="12" t="s">
-        <v>4409</v>
-      </c>
-      <c r="C1568" s="16" t="s">
-        <v>4410</v>
+        <v>4420</v>
+      </c>
+      <c r="C1568" s="12" t="s">
+        <v>4421</v>
       </c>
     </row>
     <row r="1569" spans="1:3">
       <c r="A1569" s="11" t="s">
-        <v>4411</v>
+        <v>4422</v>
       </c>
       <c r="B1569" s="12" t="s">
-        <v>4412</v>
-      </c>
-      <c r="C1569" s="16" t="s">
-        <v>4413</v>
+        <v>4423</v>
+      </c>
+      <c r="C1569" s="12" t="s">
+        <v>4424</v>
       </c>
     </row>
     <row r="1570" spans="1:3">
       <c r="A1570" s="11" t="s">
-        <v>4414</v>
+        <v>4425</v>
       </c>
       <c r="B1570" s="12" t="s">
-        <v>4415</v>
-      </c>
-      <c r="C1570" s="16" t="s">
-        <v>4416</v>
+        <v>4426</v>
+      </c>
+      <c r="C1570" s="12" t="s">
+        <v>4427</v>
       </c>
     </row>
     <row r="1571" spans="1:3">
       <c r="A1571" s="11" t="s">
-        <v>4417</v>
+        <v>4428</v>
       </c>
       <c r="B1571" s="12" t="s">
-        <v>4418</v>
-      </c>
-      <c r="C1571" s="16" t="s">
-        <v>4419</v>
+        <v>4429</v>
+      </c>
+      <c r="C1571" s="12" t="s">
+        <v>4430</v>
       </c>
     </row>
     <row r="1572" spans="1:3">
       <c r="A1572" s="11" t="s">
-        <v>4420</v>
+        <v>4431</v>
       </c>
       <c r="B1572" s="12" t="s">
-        <v>4421</v>
-      </c>
-      <c r="C1572" s="11" t="s">
-        <v>278</v>
+        <v>4432</v>
+      </c>
+      <c r="C1572" s="12" t="s">
+        <v>4433</v>
       </c>
     </row>
     <row r="1573" spans="1:3">
       <c r="A1573" s="11" t="s">
-        <v>4422</v>
+        <v>4434</v>
       </c>
       <c r="B1573" s="12" t="s">
-        <v>4423</v>
-      </c>
-      <c r="C1573" s="11" t="s">
-        <v>278</v>
+        <v>4435</v>
+      </c>
+      <c r="C1573" s="12" t="s">
+        <v>4436</v>
       </c>
     </row>
     <row r="1574" spans="1:3">
       <c r="A1574" s="11" t="s">
-        <v>4424</v>
+        <v>4437</v>
       </c>
       <c r="B1574" s="12" t="s">
-        <v>4425</v>
-      </c>
-      <c r="C1574" s="11" t="s">
-        <v>278</v>
+        <v>4438</v>
+      </c>
+      <c r="C1574" s="12" t="s">
+        <v>4439</v>
       </c>
     </row>
     <row r="1575" spans="1:3">
       <c r="A1575" s="11" t="s">
-        <v>4426</v>
+        <v>4440</v>
       </c>
       <c r="B1575" s="12" t="s">
-        <v>4427</v>
-      </c>
-      <c r="C1575" s="11" t="s">
-        <v>278</v>
+        <v>4441</v>
+      </c>
+      <c r="C1575" s="12" t="s">
+        <v>4442</v>
       </c>
     </row>
     <row r="1576" spans="1:3">
       <c r="A1576" s="11" t="s">
-        <v>4428</v>
+        <v>4443</v>
       </c>
       <c r="B1576" s="12" t="s">
-        <v>4429</v>
+        <v>4444</v>
       </c>
       <c r="C1576" s="12" t="s">
-        <v>4430</v>
+        <v>4445</v>
       </c>
     </row>
     <row r="1577" spans="1:3">
       <c r="A1577" s="11" t="s">
-        <v>4431</v>
-      </c>
-      <c r="B1577" s="16" t="s">
-        <v>4432</v>
-      </c>
-      <c r="C1577" s="16" t="s">
-        <v>4433</v>
+        <v>4446</v>
+      </c>
+      <c r="B1577" s="12" t="s">
+        <v>4447</v>
+      </c>
+      <c r="C1577" s="12" t="s">
+        <v>4448</v>
+      </c>
+    </row>
+    <row r="1578" spans="1:3">
+      <c r="A1578" s="11" t="s">
+        <v>4449</v>
+      </c>
+      <c r="B1578" s="12" t="s">
+        <v>4450</v>
+      </c>
+      <c r="C1578" s="12" t="s">
+        <v>4451</v>
+      </c>
+    </row>
+    <row r="1579" spans="1:3">
+      <c r="A1579" s="11" t="s">
+        <v>4452</v>
+      </c>
+      <c r="B1579" s="12" t="s">
+        <v>4453</v>
+      </c>
+      <c r="C1579" s="11" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="1580" spans="1:3">
+      <c r="A1580" s="11" t="s">
+        <v>4454</v>
+      </c>
+      <c r="B1580" s="12" t="s">
+        <v>4455</v>
+      </c>
+      <c r="C1580" s="12" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="1581" spans="1:3">
+      <c r="A1581" s="11" t="s">
+        <v>4457</v>
+      </c>
+      <c r="B1581" s="12" t="s">
+        <v>4458</v>
+      </c>
+      <c r="C1581" s="12" t="s">
+        <v>4459</v>
+      </c>
+    </row>
+    <row r="1582" spans="1:3">
+      <c r="A1582" s="11" t="s">
+        <v>4460</v>
+      </c>
+      <c r="B1582" s="12" t="s">
+        <v>4461</v>
+      </c>
+      <c r="C1582" s="12" t="s">
+        <v>4462</v>
+      </c>
+    </row>
+    <row r="1583" spans="1:3">
+      <c r="A1583" s="11" t="s">
+        <v>4463</v>
+      </c>
+      <c r="B1583" s="12" t="s">
+        <v>4464</v>
+      </c>
+      <c r="C1583" s="12" t="s">
+        <v>4465</v>
+      </c>
+    </row>
+    <row r="1584" spans="1:3">
+      <c r="A1584" s="11" t="s">
+        <v>4466</v>
+      </c>
+      <c r="B1584" s="12" t="s">
+        <v>4467</v>
+      </c>
+      <c r="C1584" s="12" t="s">
+        <v>4468</v>
+      </c>
+    </row>
+    <row r="1585" spans="1:3">
+      <c r="A1585" s="11" t="s">
+        <v>4469</v>
+      </c>
+      <c r="B1585" s="12" t="s">
+        <v>4470</v>
+      </c>
+      <c r="C1585" s="12" t="s">
+        <v>4471</v>
+      </c>
+    </row>
+    <row r="1586" spans="1:3">
+      <c r="A1586" s="11" t="s">
+        <v>4472</v>
+      </c>
+      <c r="B1586" s="12" t="s">
+        <v>4473</v>
+      </c>
+      <c r="C1586" s="12" t="s">
+        <v>4474</v>
+      </c>
+    </row>
+    <row r="1587" spans="1:3">
+      <c r="A1587" s="11" t="s">
+        <v>4475</v>
+      </c>
+      <c r="B1587" s="12" t="s">
+        <v>4476</v>
+      </c>
+      <c r="C1587" s="12" t="s">
+        <v>4477</v>
+      </c>
+    </row>
+    <row r="1588" spans="1:3">
+      <c r="A1588" s="11" t="s">
+        <v>4478</v>
+      </c>
+      <c r="B1588" s="12" t="s">
+        <v>4479</v>
+      </c>
+      <c r="C1588" s="12" t="s">
+        <v>4480</v>
+      </c>
+    </row>
+    <row r="1589" spans="1:3">
+      <c r="A1589" s="11" t="s">
+        <v>4481</v>
+      </c>
+      <c r="B1589" s="12" t="s">
+        <v>4482</v>
+      </c>
+      <c r="C1589" s="12" t="s">
+        <v>4483</v>
+      </c>
+    </row>
+    <row r="1590" spans="1:3">
+      <c r="A1590" s="11" t="s">
+        <v>4484</v>
+      </c>
+      <c r="B1590" s="12" t="s">
+        <v>4485</v>
+      </c>
+      <c r="C1590" s="12" t="s">
+        <v>4486</v>
+      </c>
+    </row>
+    <row r="1591" spans="1:3">
+      <c r="A1591" s="11" t="s">
+        <v>4487</v>
+      </c>
+      <c r="B1591" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="C1591" s="12" t="s">
+        <v>4488</v>
+      </c>
+    </row>
+    <row r="1592" spans="1:3">
+      <c r="A1592" s="11" t="s">
+        <v>4489</v>
+      </c>
+      <c r="B1592" s="12" t="s">
+        <v>4490</v>
+      </c>
+      <c r="C1592" s="11" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="1593" spans="1:3">
+      <c r="A1593" s="11" t="s">
+        <v>4491</v>
+      </c>
+      <c r="B1593" s="12" t="s">
+        <v>4492</v>
+      </c>
+      <c r="C1593" s="11" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="1594" spans="1:3">
+      <c r="A1594" s="11" t="s">
+        <v>4493</v>
+      </c>
+      <c r="B1594" s="12" t="s">
+        <v>4494</v>
+      </c>
+      <c r="C1594" s="12" t="s">
+        <v>4495</v>
+      </c>
+    </row>
+    <row r="1595" spans="1:3">
+      <c r="A1595" s="11" t="s">
+        <v>4496</v>
+      </c>
+      <c r="B1595" s="12" t="s">
+        <v>4497</v>
+      </c>
+      <c r="C1595" s="11" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="1596" spans="1:3">
+      <c r="A1596" s="11" t="s">
+        <v>4498</v>
+      </c>
+      <c r="B1596" s="12" t="s">
+        <v>4499</v>
+      </c>
+      <c r="C1596" s="11" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="1597" spans="1:3">
+      <c r="A1597" s="11" t="s">
+        <v>4500</v>
+      </c>
+      <c r="B1597" s="12" t="s">
+        <v>4501</v>
+      </c>
+      <c r="C1597" s="11" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="1598" spans="1:3">
+      <c r="A1598" s="11" t="s">
+        <v>4502</v>
+      </c>
+      <c r="B1598" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="C1598" s="12" t="s">
+        <v>4503</v>
+      </c>
+    </row>
+    <row r="1599" spans="1:3">
+      <c r="A1599" s="11" t="s">
+        <v>4504</v>
+      </c>
+      <c r="B1599" s="12" t="s">
+        <v>4505</v>
+      </c>
+      <c r="C1599" s="12" t="s">
+        <v>4506</v>
+      </c>
+    </row>
+    <row r="1600" spans="1:3">
+      <c r="A1600" s="11" t="s">
+        <v>4507</v>
+      </c>
+      <c r="B1600" s="12" t="s">
+        <v>4508</v>
+      </c>
+      <c r="C1600" s="12" t="s">
+        <v>4509</v>
+      </c>
+    </row>
+    <row r="1601" spans="1:3">
+      <c r="A1601" s="11" t="s">
+        <v>4510</v>
+      </c>
+      <c r="B1601" s="12" t="s">
+        <v>4511</v>
+      </c>
+      <c r="C1601" s="12" t="s">
+        <v>4512</v>
+      </c>
+    </row>
+    <row r="1602" spans="1:3">
+      <c r="A1602" s="11" t="s">
+        <v>4513</v>
+      </c>
+      <c r="B1602" s="12" t="s">
+        <v>4514</v>
+      </c>
+      <c r="C1602" s="12" t="s">
+        <v>4515</v>
+      </c>
+    </row>
+    <row r="1603" spans="1:3">
+      <c r="A1603" s="11" t="s">
+        <v>4516</v>
+      </c>
+      <c r="B1603" s="12" t="s">
+        <v>4517</v>
+      </c>
+      <c r="C1603" s="12" t="s">
+        <v>4518</v>
+      </c>
+    </row>
+    <row r="1604" spans="1:3">
+      <c r="A1604" s="11" t="s">
+        <v>4519</v>
+      </c>
+      <c r="B1604" s="12" t="s">
+        <v>4520</v>
+      </c>
+      <c r="C1604" s="12" t="s">
+        <v>4521</v>
+      </c>
+    </row>
+    <row r="1605" spans="1:3">
+      <c r="A1605" s="11" t="s">
+        <v>4522</v>
+      </c>
+      <c r="B1605" s="16" t="s">
+        <v>4523</v>
+      </c>
+      <c r="C1605" s="11" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="1606" spans="1:3">
+      <c r="A1606" s="11" t="s">
+        <v>4524</v>
+      </c>
+      <c r="B1606" s="16" t="s">
+        <v>4525</v>
+      </c>
+      <c r="C1606" s="16" t="s">
+        <v>4526</v>
+      </c>
+    </row>
+    <row r="1607" spans="1:3">
+      <c r="A1607" s="11" t="s">
+        <v>4527</v>
+      </c>
+      <c r="B1607" s="16" t="s">
+        <v>4528</v>
+      </c>
+      <c r="C1607" s="16" t="s">
+        <v>4529</v>
+      </c>
+    </row>
+    <row r="1608" spans="1:3">
+      <c r="A1608" s="11" t="s">
+        <v>4530</v>
+      </c>
+      <c r="B1608" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="C1608" s="16" t="s">
+        <v>4531</v>
+      </c>
+    </row>
+    <row r="1609" spans="1:3">
+      <c r="A1609" s="11" t="s">
+        <v>4532</v>
+      </c>
+      <c r="B1609" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="C1609" s="16" t="s">
+        <v>4533</v>
       </c>
     </row>
   </sheetData>
@@ -32716,2139 +33368,2207 @@
     <hyperlink ref="B587" r:id="rId708" display="https://pan.baidu.com/s/1hY-ReKYDRJpO6Oa28D6Twg?pwd=snnp"/>
     <hyperlink ref="C590" r:id="rId709" display="https://pan.quark.cn/s/36d71687e13e"/>
     <hyperlink ref="B591" r:id="rId710" display="https://pan.baidu.com/s/1qty2Iu1BmrltWnWIbnXR3Q?pwd=4u5s"/>
-    <hyperlink ref="B497" r:id="rId711" display="https://pan.baidu.com/s/1eMXyMwMEy2fuF3UNZmwRMA?pwd=biqq"/>
-    <hyperlink ref="C593" r:id="rId712" display="https://pan.quark.cn/s/aecc27ddff17"/>
-    <hyperlink ref="C594" r:id="rId713" display="https://pan.quark.cn/s/de22b302281a"/>
-    <hyperlink ref="C595" r:id="rId714" display="https://pan.quark.cn/s/554b88f46e74"/>
-    <hyperlink ref="B595" r:id="rId715" display="https://pan.baidu.com/s/1P7L5uSxEa5Ov4_4g4nwLxw?pwd=c9f4"/>
-    <hyperlink ref="C596" r:id="rId716" display="https://pan.quark.cn/s/38116a267981"/>
-    <hyperlink ref="C597" r:id="rId717" display="https://pan.quark.cn/s/53259d889ef7"/>
-    <hyperlink ref="C598" r:id="rId718" display="https://pan.quark.cn/s/1be72237df66"/>
-    <hyperlink ref="C599" r:id="rId719" display="https://pan.quark.cn/s/e5df05086f10"/>
-    <hyperlink ref="C600" r:id="rId720" display="https://pan.quark.cn/s/c4d2c698362e"/>
-    <hyperlink ref="C601" r:id="rId721" display="https://pan.quark.cn/s/471679d5415b"/>
-    <hyperlink ref="C602" r:id="rId722" display="https://pan.quark.cn/s/b7f32d8f5f2b"/>
-    <hyperlink ref="C603" r:id="rId723" display="https://pan.quark.cn/s/e4ec66518ca4"/>
-    <hyperlink ref="C604" r:id="rId724" display="https://pan.quark.cn/s/ee6bd16e03f1"/>
-    <hyperlink ref="C605" r:id="rId725" display="https://pan.quark.cn/s/cd9dfc41ebdf"/>
-    <hyperlink ref="C606" r:id="rId726" display="https://pan.quark.cn/s/613c25a79ae0"/>
-    <hyperlink ref="C607" r:id="rId727" display="https://pan.quark.cn/s/9770b4f21074"/>
-    <hyperlink ref="C608" r:id="rId728" display="https://pan.quark.cn/s/12cf95829144"/>
-    <hyperlink ref="C609" r:id="rId729" display="https://pan.quark.cn/s/81983124a3bb"/>
-    <hyperlink ref="C610" r:id="rId730" display="https://pan.quark.cn/s/ad3ce4defd0b"/>
-    <hyperlink ref="C24" r:id="rId731" display="https://pan.quark.cn/s/4e053b014a5e"/>
-    <hyperlink ref="B24" r:id="rId732" display="https://pan.baidu.com/s/1h6tq0cSu7eAVYm6FISC1KQ?pwd=ft85"/>
-    <hyperlink ref="C23" r:id="rId733" display="https://pan.quark.cn/s/a44ff654b8fc"/>
-    <hyperlink ref="B23" r:id="rId734" display="https://pan.baidu.com/s/1jLLYvYTbioyHKpU4duplWQ?pwd=ucb6"/>
-    <hyperlink ref="C611" r:id="rId735" display="https://pan.quark.cn/s/50eee314b2d3"/>
-    <hyperlink ref="B611" r:id="rId736" display="https://pan.baidu.com/s/17p7lXtp5nRosThtzr_DAPA?pwd=jg8f"/>
-    <hyperlink ref="C612" r:id="rId737" display="https://pan.quark.cn/s/684afef883e5"/>
-    <hyperlink ref="B612" r:id="rId738" display="https://pan.baidu.com/s/1YDb6PANcY9A-0JFaku9Cig?pwd=x5v5"/>
-    <hyperlink ref="C613" r:id="rId739" display="https://pan.quark.cn/s/d71cc84a1169"/>
-    <hyperlink ref="B613" r:id="rId740" display="https://pan.baidu.com/s/1i7UgtNUbfg_C5kyvESkGPw?pwd=6f34"/>
-    <hyperlink ref="C614" r:id="rId741" display="https://pan.quark.cn/s/878a32f4b273"/>
-    <hyperlink ref="B614" r:id="rId742" display="https://pan.baidu.com/s/1P_7yqrYtdy_pQtD6Tb23Zw?pwd=jghs"/>
-    <hyperlink ref="C615" r:id="rId743" display="https://pan.quark.cn/s/d2adbbf3c63c"/>
-    <hyperlink ref="B615" r:id="rId744" display="https://pan.baidu.com/s/1hezIPgtqRD5q9tuCNYCunA?pwd=17hk"/>
-    <hyperlink ref="B33" r:id="rId745" display="https://pan.baidu.com/s/1jx1DgPnPgLELR8apCQb4Kg?pwd=87b4"/>
-    <hyperlink ref="B46" r:id="rId746" display="https://pan.baidu.com/s/1co4P1Y5OUJWo2q02Tu1stg?pwd=m9rt"/>
-    <hyperlink ref="B47" r:id="rId747" display="https://pan.baidu.com/s/1t28qDiYzYLRF5737pwTEQw?pwd=in6d"/>
-    <hyperlink ref="B48" r:id="rId748" display="https://pan.baidu.com/s/1_Ztvj4tJCjQsf3CW5BZM0Q?pwd=5nk2"/>
-    <hyperlink ref="B61" r:id="rId749" display="https://pan.baidu.com/s/1_rSskiNaryLDM63GcC1IFw?pwd=niiw"/>
-    <hyperlink ref="B63" r:id="rId750" display="https://pan.baidu.com/s/19FgqjEKVCpgzTxrISoGDWw?pwd=c7ir"/>
-    <hyperlink ref="B64" r:id="rId751" display="https://pan.baidu.com/s/1FWgyBGAmZ2GQNThZ14k_Bg?pwd=9naa"/>
-    <hyperlink ref="B68" r:id="rId752" display="https://pan.baidu.com/s/1Dy3jd1s3_O6OC92wMQ9y3Q?pwd=jw23"/>
-    <hyperlink ref="B69" r:id="rId753" display="https://pan.baidu.com/s/1XBwwfDj4wol8ljXLKaw6dg?pwd=unhh"/>
-    <hyperlink ref="B70" r:id="rId754" display="https://pan.baidu.com/s/1S4NFZhq2kfnEVrhc5nBA1Q?pwd=tjdi"/>
-    <hyperlink ref="B616" r:id="rId755" display="https://pan.baidu.com/s/1sNBTMp1AViMVud1sMoykng?pwd=5rq5"/>
-    <hyperlink ref="B617" r:id="rId756" display="https://pan.baidu.com/s/1Z61SY32Wxb1uCjYWEqq-kg?pwd=8fw7"/>
-    <hyperlink ref="B618" r:id="rId757" display="https://pan.baidu.com/s/1-KMoNQOqHeHHbnKSyzCkpQ?pwd=bus4"/>
-    <hyperlink ref="B619" r:id="rId758" display="https://pan.baidu.com/s/1CInmtsO4IgHGOvpmPezA4Q?pwd=v5gw"/>
-    <hyperlink ref="B620" r:id="rId759" display="https://pan.baidu.com/s/1fRtELwS22p980_CNhOO0jA?pwd=b2nv"/>
-    <hyperlink ref="B621" r:id="rId760" display="https://pan.baidu.com/s/1mQTIdCTVE-xuT7lNtUY8mA?pwd=sp7i"/>
-    <hyperlink ref="B622" r:id="rId761" display="https://pan.baidu.com/s/1OgI8yj3T5W6Dm_it1FCBIQ?pwd=j6ta"/>
-    <hyperlink ref="B468" r:id="rId762" display="https://pan.baidu.com/s/19eLFnE7YMup65sgrnTbtXw?pwd=vwtf"/>
-    <hyperlink ref="B623" r:id="rId763" display="https://pan.baidu.com/s/11t408-kP_sCnB1_YCAMJAA?pwd=adkv"/>
-    <hyperlink ref="B624" r:id="rId764" display="https://pan.baidu.com/s/1IBwfDIiiQvNvudAl3R_25g?pwd=z26a"/>
-    <hyperlink ref="B379" r:id="rId765" display="https://pan.baidu.com/s/1xEIgPcYLh2t0nZsmq5b2dA?pwd=neur"/>
-    <hyperlink ref="B625" r:id="rId766" display="https://pan.baidu.com/s/1Suli-A9qmrUZY3n-a3WOBw?pwd=2bed"/>
-    <hyperlink ref="B626" r:id="rId767" display="https://pan.baidu.com/s/1vlgU7Trz2U3V_vW-KAl9sQ?pwd=curi"/>
-    <hyperlink ref="B590" r:id="rId768" display="https://pan.baidu.com/s/1Jq3HMm2Ff6zuKiACNc71jA?pwd=wdp3"/>
-    <hyperlink ref="B627" r:id="rId769" display="https://pan.baidu.com/s/10cRNitH4MFIiW-EOQLaiLA?pwd=xnsu"/>
-    <hyperlink ref="B628" r:id="rId770" display="https://pan.baidu.com/s/10K1N4b0et0aTt8p7OA4Cpg?pwd=jf97"/>
-    <hyperlink ref="B629" r:id="rId771" display="https://pan.baidu.com/s/1i8_rPtTQsGeH3Z7UhtssRw?pwd=zggz"/>
-    <hyperlink ref="B630" r:id="rId772" display="https://pan.baidu.com/s/11acseMSpxWAdmiYla0tBFw?pwd=rn7n"/>
-    <hyperlink ref="B631" r:id="rId773" display="https://pan.baidu.com/s/1iesurWBfuojwN3zbHOcAGQ?pwd=n8yn"/>
-    <hyperlink ref="B632" r:id="rId774" display="https://pan.baidu.com/s/17hvIBp92ymXFD2EzVk0zHg?pwd=e9uu"/>
-    <hyperlink ref="B633" r:id="rId775" display="https://pan.baidu.com/s/1YFLMfwLCoi2n3GrFkcpw6w?pwd=6s9q"/>
-    <hyperlink ref="B634" r:id="rId776" display="https://pan.baidu.com/s/1GmV_qe6dxsEh_xJtEv02VA?pwd=dy64"/>
-    <hyperlink ref="B635" r:id="rId777" display="https://pan.baidu.com/s/1a1fWWRBb3EumIicSaKPQFQ?pwd=i9t2"/>
-    <hyperlink ref="B636" r:id="rId778" display="https://pan.baidu.com/s/185l8WC-DmTdN_fV4PEQddw?pwd=bbza"/>
-    <hyperlink ref="B637" r:id="rId779" display="https://pan.baidu.com/s/15pz43Bubxp4eNnJV8tAEaA?pwd=88ps"/>
-    <hyperlink ref="B638" r:id="rId780" display="https://pan.baidu.com/s/1pXd7_XUZL27nArU48R0htg?pwd=vjxs"/>
-    <hyperlink ref="B513" r:id="rId781" display="https://pan.baidu.com/s/17oFJuu6Cww7ykeH7Tc0TiQ?pwd=g2xj"/>
-    <hyperlink ref="B639" r:id="rId782" display="https://pan.baidu.com/s/1V1MmVzkcx5_i-4kfax-R1Q?pwd=xd17"/>
-    <hyperlink ref="B640" r:id="rId783" display="https://pan.baidu.com/s/1kAkJRVunzu1TzAnh_QZNfQ?pwd=fjsr"/>
-    <hyperlink ref="C640" r:id="rId784" display="https://pan.quark.cn/s/a8297b40eea7"/>
-    <hyperlink ref="B71" r:id="rId785" display="https://pan.baidu.com/s/1ADAJb7Lb8JfbCQIn8yRiWQ?pwd=2qtm"/>
-    <hyperlink ref="B116" r:id="rId786" display="https://pan.baidu.com/s/1tiWeV_V-bcU5b9159tH0-w?pwd=myy8"/>
-    <hyperlink ref="B123" r:id="rId787" display="https://pan.baidu.com/s/1qbnqqCr0BF-_5g9fPxLAdQ?pwd=gg6n"/>
-    <hyperlink ref="B126" r:id="rId788" display="https://pan.baidu.com/s/1yUw3Ks1gamTk8ijVP6D9jA?pwd=y3vn"/>
-    <hyperlink ref="B372" r:id="rId789" display="https://pan.baidu.com/s/123BfMKI-VuSWIvkWAz65ng?pwd=ypms"/>
-    <hyperlink ref="B370" r:id="rId790" display="https://pan.baidu.com/s/1HHP5FbSVaG2tShA3Ig_CkA?pwd=cy1s"/>
-    <hyperlink ref="B360" r:id="rId791" display="https://pan.baidu.com/s/1e7957JDFFwbydqOcZGKFiw?pwd=u89m"/>
-    <hyperlink ref="B74" r:id="rId792" display="https://pan.baidu.com/s/1dfAiMmQ246-l7-O6WkacHQ?pwd=ukkb"/>
-    <hyperlink ref="B76" r:id="rId793" display="https://pan.baidu.com/s/1Vwf2G8Lf3BFGbnn_fR5EHA?pwd=7iv3"/>
-    <hyperlink ref="B188" r:id="rId794" display="https://pan.baidu.com/s/1OhBaqtA91IqX88RPxNWd6Q?pwd=es32"/>
-    <hyperlink ref="B190" r:id="rId795" display="https://pan.baidu.com/s/1ZBbrwGz6QkGucLUmI8dvLw?pwd=xu9g"/>
-    <hyperlink ref="B216" r:id="rId796" display="https://pan.baidu.com/s/1KutFelCxU9bKnXi6QDZafw?pwd=jf2i"/>
-    <hyperlink ref="C641" r:id="rId797" display="https://pan.quark.cn/s/016caa5aa3bc"/>
-    <hyperlink ref="B641" r:id="rId798" display="https://pan.baidu.com/s/1aTO-c9xkd6lb2bbreB0oPA?pwd=t2vb"/>
-    <hyperlink ref="B294" r:id="rId799" display="https://pan.baidu.com/s/1jYQUvbn9t4AXNMWXntlhpg?pwd=mpu8"/>
-    <hyperlink ref="C642" r:id="rId800" display="https://pan.quark.cn/s/aa42259cc55f"/>
-    <hyperlink ref="C643" r:id="rId801" display="https://pan.quark.cn/s/4b2be3299d4a"/>
-    <hyperlink ref="B642" r:id="rId802" display="https://pan.baidu.com/s/1NRg_ji2Uyu-FjBPLIAWMAQ?pwd=v2rf"/>
-    <hyperlink ref="B643" r:id="rId803" display="https://pan.baidu.com/s/1d27BE-hyvynuB71gDkTNvQ?pwd=ciaq"/>
-    <hyperlink ref="C644" r:id="rId804" display="https://pan.quark.cn/s/2cca2e41bf57"/>
-    <hyperlink ref="B644" r:id="rId805" display="https://pan.baidu.com/s/10gdsGgXo0yFfoJLzLImvlQ?pwd=76w8"/>
-    <hyperlink ref="B645" r:id="rId806" display="https://pan.baidu.com/s/1r5LxwY5K1cJPFQkJ-ATp4Q?pwd=maf7"/>
-    <hyperlink ref="B646" r:id="rId807" display="https://pan.baidu.com/s/1b23GCpyO_dK2yfDTrUC20A?pwd=xrvi"/>
-    <hyperlink ref="B647" r:id="rId808" display="https://pan.baidu.com/s/1Hu3HNEE-BBD9GCSzlBz0tg?pwd=pe9d"/>
-    <hyperlink ref="B648" r:id="rId809" display="https://pan.baidu.com/s/1qDctNUmSZ6cFoQUmzX_Ojw?pwd=4ghc"/>
-    <hyperlink ref="B649" r:id="rId810" display="https://pan.baidu.com/s/12zzXD5KrlJ_pGcy1mMlifg?pwd=wgxt"/>
-    <hyperlink ref="B650" r:id="rId811" display="https://pan.baidu.com/s/1G3fzPlKv2_BBPN9tlyhlyw?pwd=quy2"/>
-    <hyperlink ref="B80" r:id="rId812" display="https://pan.baidu.com/s/1LEP9_ZHoEF8fYHn2tGO56A?pwd=awp3"/>
-    <hyperlink ref="B81" r:id="rId813" display="https://pan.baidu.com/s/19WAUqS1_i1eGt-pUy8HnGw?pwd=71wb"/>
-    <hyperlink ref="B83" r:id="rId814" display="https://pan.baidu.com/s/19_e6Ro6QTn_MfM-krINPaw?pwd=9efc"/>
-    <hyperlink ref="B84" r:id="rId815" display="https://pan.baidu.com/s/11abide1v8DI7LZGe4wfgBw?pwd=6g7c"/>
-    <hyperlink ref="B86" r:id="rId816" display="https://pan.baidu.com/s/1zs0CBSAzttuVhKr7T3zaRQ?pwd=k7wn"/>
-    <hyperlink ref="B89" r:id="rId817" display="https://pan.baidu.com/s/1Wamou52umGGJiBVG_8QDbQ?pwd=r2b4"/>
-    <hyperlink ref="B90" r:id="rId818" display="https://pan.baidu.com/s/1a7M9kLWU7O2qOsDDH3tuZg?pwd=t6yv"/>
-    <hyperlink ref="B91" r:id="rId819" display="https://pan.baidu.com/s/1v6JiTsLVEejqEO268Lq-og?pwd=zmc7"/>
-    <hyperlink ref="B92" r:id="rId820" display="https://pan.baidu.com/s/1BZk_qN56FHvlcppP5rci3A?pwd=j77u"/>
-    <hyperlink ref="B94" r:id="rId821" display="https://pan.baidu.com/s/1QZAc4NzIc_1AfkPg07GgSQ?pwd=8pp3"/>
-    <hyperlink ref="B97" r:id="rId822" display="https://pan.baidu.com/s/1eFaAmiNEhk0Jwhda-y_cgA?pwd=euha"/>
-    <hyperlink ref="B98" r:id="rId823" display="https://pan.baidu.com/s/17BTsucpE8snN1Kq__qazEw?pwd=gh2g"/>
-    <hyperlink ref="B99" r:id="rId824" display="https://pan.baidu.com/s/19BZx-Wa7M2dIz01Eeg01xg?pwd=bqq2"/>
-    <hyperlink ref="B101" r:id="rId825" display="https://pan.baidu.com/s/1Fo8iQvSUKtqE4YDO-__zTQ?pwd=huij"/>
-    <hyperlink ref="B102" r:id="rId826" display="https://pan.baidu.com/s/1uh8y2t3qx7ReVqeygbJMsQ?pwd=bj96"/>
-    <hyperlink ref="B651" r:id="rId827" display="https://pan.baidu.com/s/1FQ1kNhKoZc1rjMYABlG1lg?pwd=ug36"/>
-    <hyperlink ref="B520" r:id="rId828" display="https://pan.baidu.com/s/1emd2Cnf1a64W2E_S0oUb2g?pwd=ijjr"/>
-    <hyperlink ref="C521" r:id="rId829" display="https://pan.quark.cn/s/72fc0ef6a6da"/>
-    <hyperlink ref="B521" r:id="rId830" display="https://pan.baidu.com/s/1oP4UhseG3yNz1uLgxLUcRQ?pwd=3ykn"/>
-    <hyperlink ref="C652" r:id="rId831" display="https://pan.quark.cn/s/1f0dbca1ee1c"/>
-    <hyperlink ref="B652" r:id="rId832" display="https://pan.baidu.com/s/1KnrzDlcTloKJWoJ9PRChXg?pwd=81yn"/>
-    <hyperlink ref="B653" r:id="rId833" display="https://pan.baidu.com/s/1csncRU0pxN89FSALO_SDqA?pwd=88qu"/>
-    <hyperlink ref="B654" r:id="rId834" display="https://pan.baidu.com/s/1auHN_0KRHQHjxzdCL36X-Q?pwd=dbix"/>
-    <hyperlink ref="B432" r:id="rId835" display="https://pan.baidu.com/s/1E2oJK8-Rdx5-skIGHplbEw?pwd=u8iw"/>
-    <hyperlink ref="B431" r:id="rId836" display="https://pan.baidu.com/s/1u0AjVyW3IX0IKQn90jEl0g?pwd=9q7r"/>
-    <hyperlink ref="B433" r:id="rId837" display="https://pan.baidu.com/s/19YhZ3KBp3BJA_ry9tBcCyQ?pwd=n5mf"/>
-    <hyperlink ref="B434" r:id="rId838" display="https://pan.baidu.com/s/1UyMBtotQduYIWm1ATuflXA?pwd=bbne"/>
-    <hyperlink ref="B426" r:id="rId839" display="https://pan.baidu.com/s/1t6EjVpIHKtQDxeZQj0qupw?pwd=43y7"/>
-    <hyperlink ref="C655" r:id="rId840" display="https://pan.quark.cn/s/dfce6917cb44"/>
-    <hyperlink ref="B656" r:id="rId841" display="https://pan.baidu.com/s/1hvAAAf40kb5982j7cZpCuw?pwd=g8ru"/>
-    <hyperlink ref="B476" r:id="rId842" display="https://pan.baidu.com/s/10WR12IOaI9_Gy5pWnoeZgg?pwd=dmt3"/>
-    <hyperlink ref="B473" r:id="rId843" display="https://pan.baidu.com/s/1jkBzCyNK6JPz7MWoQh4RJA?pwd=ha42"/>
-    <hyperlink ref="B474" r:id="rId844" display="https://pan.baidu.com/s/1-YvzZzFm_yx-giRxfUvLkw?pwd=4tsf"/>
-    <hyperlink ref="B478" r:id="rId845" display="https://pan.baidu.com/s/16IbrxJKvsuMxsdGrONvjIg?pwd=vxxc"/>
-    <hyperlink ref="B389" r:id="rId846" display="https://pan.baidu.com/s/1cRnRmFDLr38s_STzNVAR6g?pwd=223p"/>
-    <hyperlink ref="B390" r:id="rId847" display="https://pan.baidu.com/s/1YTy7NcKJlt4xb0Pd7l6voA?pwd=wr9r"/>
-    <hyperlink ref="B392" r:id="rId848" display="https://pan.baidu.com/s/14LRkvqVB-Ywivgg-d21IJQ?pwd=qpcg"/>
-    <hyperlink ref="B657" r:id="rId849" display="https://pan.baidu.com/s/1m_zGNvtz8zoJfkuugIottA?pwd=xxj9"/>
-    <hyperlink ref="B658" r:id="rId850" display="https://pan.baidu.com/s/1aPChUq4YG5WOLsIptK2VqA?pwd=25dw"/>
-    <hyperlink ref="B659" r:id="rId851" display="https://pan.baidu.com/s/1q2uHvvqWYWx4n9UIk5dVpg?pwd=fjpv"/>
-    <hyperlink ref="B660" r:id="rId852" display="https://pan.baidu.com/s/1n5R0erInbAhgPBLMWJaDQQ?pwd=e3ky"/>
-    <hyperlink ref="B661" r:id="rId853" display="https://pan.baidu.com/s/1eOuqbFJwtjxcinrTBlpwXA?pwd=p7jc"/>
-    <hyperlink ref="B662" r:id="rId854" display="https://pan.baidu.com/s/1kY9P5hgmICVMewnmNJvjbg?pwd=qb8r"/>
-    <hyperlink ref="B663" r:id="rId855" display="https://pan.baidu.com/s/1QLsr6s8A7Qm8epMmTkpZbA?pwd=zv84"/>
-    <hyperlink ref="B666" r:id="rId856" display="https://pan.baidu.com/s/1MIRbrGL5XvP_gKrJeAxItg?pwd=u51s"/>
-    <hyperlink ref="B667" r:id="rId857" display="https://pan.baidu.com/s/1z62bJfVIjt7dKmC0lhsSsg?pwd=ka6a"/>
-    <hyperlink ref="B668" r:id="rId858" display="https://pan.baidu.com/s/1-dp-uF9xFKtr4ZwFyFrqRA?pwd=h87i"/>
-    <hyperlink ref="B669" r:id="rId859" display="https://pan.baidu.com/s/1DA7DEX0G4zF4lnDFVGAmNQ?pwd=yghn"/>
-    <hyperlink ref="B670" r:id="rId860" display="https://pan.baidu.com/s/1G0f2Y_WWeqPxfNWT6tCrmQ?pwd=xiuc"/>
-    <hyperlink ref="B671" r:id="rId861" display="https://pan.baidu.com/s/1i4WMH2QYnFE_Bc0wifA-lg?pwd=zsm7"/>
-    <hyperlink ref="B672" r:id="rId862" display="https://pan.baidu.com/s/1fo5u3EWSC5aqB6pR_UyOUw?pwd=pxc7"/>
-    <hyperlink ref="B673" r:id="rId863" display="https://pan.baidu.com/s/1-8IEqSRfWjwt1qtsFbFDwg?pwd=en26"/>
-    <hyperlink ref="B445" r:id="rId864" display="https://pan.baidu.com/s/1CVj3lBt_X0lSOk2XAWSTvg?pwd=g7ei"/>
-    <hyperlink ref="B446" r:id="rId865" display="https://pan.baidu.com/s/1YbsADXJis6a5l-V0Hcf5mA?pwd=vbjc"/>
-    <hyperlink ref="B447" r:id="rId866" display="https://pan.baidu.com/s/16nlTH_9_ClnMt5AodTHJQw?pwd=i3rx"/>
-    <hyperlink ref="B674" r:id="rId867" display="https://pan.baidu.com/s/1vWmM6iC7e16HCgbyNwXP3Q?pwd=nk59"/>
-    <hyperlink ref="B675" r:id="rId868" display="https://pan.baidu.com/s/1clc-NGweqWYIOw1t2wCV8w?pwd=49xj"/>
-    <hyperlink ref="B676" r:id="rId869" display="https://pan.baidu.com/s/17_p00sT80jW2mVk4vQsQzQ?pwd=gf63"/>
-    <hyperlink ref="B677" r:id="rId870" display="https://pan.baidu.com/s/1iqrnb10GzFnefMnmk6ysLQ?pwd=dqnq"/>
-    <hyperlink ref="B678" r:id="rId871" display="https://pan.baidu.com/s/1IdEApFzRFSpG2xvQwJVwxQ?pwd=3sgh"/>
-    <hyperlink ref="B679" r:id="rId872" display="https://pan.baidu.com/s/1a47SEwgBSw7IuDJt4TtuLQ?pwd=rr2e"/>
-    <hyperlink ref="B680" r:id="rId873" display="https://pan.baidu.com/s/1uCFltLbgzXhIEdQGhdvkgA?pwd=ywmu"/>
-    <hyperlink ref="B681" r:id="rId874" display="https://pan.baidu.com/s/14Tx2k3O39KoOWaMFEgU0Vw?pwd=ever"/>
-    <hyperlink ref="B682" r:id="rId875" display="https://pan.baidu.com/s/1rCCHZk-IiYahBAfTx6pVcg?pwd=jyn6"/>
-    <hyperlink ref="B683" r:id="rId876" display="https://pan.baidu.com/s/1NqvmmEk8vEZnah5evawzew?pwd=fxpm"/>
-    <hyperlink ref="B684" r:id="rId877" display="https://pan.baidu.com/s/1GPpZVl9H9n9f64GlYu2xJg?pwd=hrg3"/>
-    <hyperlink ref="B685" r:id="rId878" display="https://pan.baidu.com/s/10_ly7GyOnAGm7TYAZEcslQ?pwd=tx3y"/>
-    <hyperlink ref="B686" r:id="rId879" display="https://pan.baidu.com/s/1LpwpIUWDvvMIYC5onr9BuQ?pwd=fsrf"/>
-    <hyperlink ref="B687" r:id="rId880" display="https://pan.baidu.com/s/1nA7i8FKJjkKHa1R--DYNug?pwd=jxpw"/>
-    <hyperlink ref="B25" r:id="rId881" display="https://pan.baidu.com/s/1VBPb379ZSI6VkB2vmR_2TQ?pwd=2238"/>
-    <hyperlink ref="C25" r:id="rId882" display="https://pan.quark.cn/s/8663da62cd1f"/>
-    <hyperlink ref="B688" r:id="rId883" display="https://pan.baidu.com/s/1WJHgzRTVMfGZR1ko7lmsLw?pwd=j7f2"/>
-    <hyperlink ref="B689" r:id="rId884" display="https://pan.baidu.com/s/1k5kI5pH7uCqBpc3W3cepLw?pwd=en5c"/>
-    <hyperlink ref="B690" r:id="rId885" display="https://pan.baidu.com/s/1YuBYOeHjbApcfqOFz9BvDQ?pwd=za51"/>
-    <hyperlink ref="B691" r:id="rId886" display="https://pan.baidu.com/s/1JszYNtrwB0BgELnd1im3IA?pwd=1nv4"/>
-    <hyperlink ref="B692" r:id="rId887" display="https://pan.baidu.com/s/1EtBxNKBP56eDixR4mxcsgg?pwd=gbee"/>
-    <hyperlink ref="B693" r:id="rId888" display="https://pan.baidu.com/s/1ruy3gPzKPV-zFp6fznzKjw?pwd=x1hw"/>
-    <hyperlink ref="B694" r:id="rId889" display="https://pan.baidu.com/s/1fWhA1916Iqk1Z9gHdni_fQ?pwd=smyw"/>
-    <hyperlink ref="B567" r:id="rId890" display="https://pan.baidu.com/s/1Vq3jBaEB3Gq8Iua3Yu747g?pwd=zket"/>
-    <hyperlink ref="B501" r:id="rId891" display="https://pan.baidu.com/s/1mJhk6jQmkymaDBBL--XydA?pwd=78b7"/>
-    <hyperlink ref="B500" r:id="rId892" display="https://pan.baidu.com/s/1XJnKLyzK-6hqKaD30R5n5A?pwd=2qtr"/>
-    <hyperlink ref="B695" r:id="rId893" display="https://pan.baidu.com/s/1GJDDbUruvVEYe4UwkA3Xeg?pwd=9ump"/>
-    <hyperlink ref="B144" r:id="rId894" display="https://pan.baidu.com/s/11KN0Erno4mBi-FhqheUt_g?pwd=m7ag"/>
-    <hyperlink ref="B142" r:id="rId895" display="https://pan.baidu.com/s/1OKlWpLnuFVnCGqx_Xk01FA?pwd=b6ks"/>
-    <hyperlink ref="B696" r:id="rId896" display="https://pan.baidu.com/s/1Ugy_OVIzKsqpasQNPBQ6Lg?pwd=sk82"/>
-    <hyperlink ref="B697" r:id="rId897" display="https://pan.baidu.com/s/1jXpNNcH6trhVgbbVtoFZ3A?pwd=w2w5"/>
-    <hyperlink ref="B698" r:id="rId898" display="https://pan.baidu.com/s/1UrsJeJ2ar75xaT7jFKmwnw?pwd=yq3f"/>
-    <hyperlink ref="B699" r:id="rId899" display="https://pan.baidu.com/s/1lATp7WyBkNnv7vBcmGgruQ?pwd=mgfp"/>
-    <hyperlink ref="B700" r:id="rId900" display="https://pan.baidu.com/s/1fVhKoF6RnHsuO9av8ZC-zg?pwd=gx88"/>
-    <hyperlink ref="B701" r:id="rId901" display="https://pan.baidu.com/s/1h0d5EUpkmi2hQRrcW9CIGw?pwd=edue"/>
-    <hyperlink ref="B702" r:id="rId902" display="https://pan.baidu.com/s/1Ai-LhcDhHwsMLE0NMvWAxQ?pwd=f9sb"/>
-    <hyperlink ref="B703" r:id="rId903" display="https://pan.baidu.com/s/1XyJsE9KeggeqbSbkKGQU9w?pwd=tgkc"/>
-    <hyperlink ref="B704" r:id="rId904" display="https://pan.baidu.com/s/1MPcBwkP9bzuAzC_jO3AlEA?pwd=xg6k"/>
-    <hyperlink ref="B705" r:id="rId905" display="https://pan.baidu.com/s/1qG40_ICGRaAtjn1I66GdEg?pwd=nmqi"/>
-    <hyperlink ref="B706" r:id="rId906" display="https://pan.baidu.com/s/1IaJsSp1wMSyJIi9C2Qou3A?pwd=9i91"/>
-    <hyperlink ref="B707" r:id="rId907" display="https://pan.baidu.com/s/11ka9BBfh122ZzBHtYyTBnw?pwd=pbns"/>
-    <hyperlink ref="B708" r:id="rId908" display="https://pan.baidu.com/s/1u5KO2MKSHyeiuMRPWEOEgg?pwd=j3cw"/>
-    <hyperlink ref="B709" r:id="rId909" display="https://pan.baidu.com/s/15btTrWOgAcpP7iG5EHzs1Q?pwd=fui7"/>
-    <hyperlink ref="B710" r:id="rId910" display="https://pan.baidu.com/s/19b6ELpX2_l8JSqoCWVqrdg?pwd=njn5"/>
-    <hyperlink ref="B711" r:id="rId911" display="https://pan.baidu.com/s/1JSN_df2vBxaiOqZgmzQYLQ?pwd=m8xi"/>
-    <hyperlink ref="B712" r:id="rId912" display="https://pan.baidu.com/s/1NzaX2Tn27o5gQ45oNtWx3w?pwd=426p"/>
-    <hyperlink ref="B341" r:id="rId913" display="https://pan.baidu.com/s/1WnEwheIcWa-ghLqR_KK6ng?pwd=69v6"/>
-    <hyperlink ref="B713" r:id="rId914" display="https://pan.baidu.com/s/1Rm9YybO3WCkqK9C13NyW9g?pwd=n8kj"/>
-    <hyperlink ref="B714" r:id="rId915" display="https://pan.baidu.com/s/1PDsy8FwNYh5bOQaaF99Phw?pwd=9jty"/>
-    <hyperlink ref="B715" r:id="rId916" display="https://pan.baidu.com/s/16_IQgq4u9bgrXc7urHnfhQ?pwd=bq9j"/>
-    <hyperlink ref="B716" r:id="rId917" display="https://pan.baidu.com/s/1LqoYUrUAec_-HH4TMaltRg?pwd=dhk7"/>
-    <hyperlink ref="B717" r:id="rId918" display="https://pan.baidu.com/s/1ljsrK7OvnLWAJlm5nWOBag?pwd=ys28"/>
-    <hyperlink ref="B569" r:id="rId919" display="https://pan.baidu.com/s/10hg99-QeDqsn7FXv-3AoZQ?pwd=9bve"/>
-    <hyperlink ref="B718" r:id="rId920" display="https://pan.baidu.com/s/1u1315Yz1TTojZ3TCL_45kQ?pwd=v3mr"/>
-    <hyperlink ref="B719" r:id="rId921" display="https://pan.baidu.com/s/1aO1P6n2RbeBwiTNk1zCptQ?pwd=m6qx"/>
-    <hyperlink ref="B720" r:id="rId922" display="https://pan.baidu.com/s/1CxXhQbdM60SGNKGzjk39Kg?pwd=k17s"/>
-    <hyperlink ref="B721" r:id="rId923" display="https://pan.baidu.com/s/1I-Wh4EIpL7mI24XZCQAUUw?pwd=iap8"/>
-    <hyperlink ref="B121" r:id="rId924" display="https://pan.baidu.com/s/1VApTfVkUFnpnmgQSp7mBeA?pwd=3ige"/>
-    <hyperlink ref="B205" r:id="rId925" display="https://pan.baidu.com/s/11oov6e2r1quC0qjJM4-6KA?pwd=crx9"/>
-    <hyperlink ref="B204" r:id="rId926" display="https://pan.baidu.com/s/1yYFMrR5blyc96V4n0SsVoA?pwd=e62t"/>
-    <hyperlink ref="B209" r:id="rId927" display="https://pan.baidu.com/s/12nooZUi5X7dAd-Ao-jmNug?pwd=c255"/>
-    <hyperlink ref="B582" r:id="rId928" display="https://pan.baidu.com/s/1_H2Uh3u-ojeVxdx4-6jncA?pwd=2qng"/>
-    <hyperlink ref="B365" r:id="rId929" display="https://pan.baidu.com/s/1R5tj1LxA4bo0JztkT8CTmw?pwd=axsg"/>
-    <hyperlink ref="B357" r:id="rId930" display="https://pan.baidu.com/s/1x6XqVQ1pszOhuUlFzFfTCw?pwd=n2p6"/>
-    <hyperlink ref="B356" r:id="rId931" display="https://pan.baidu.com/s/1EFO3-GiiEW_VY04o3ROAPA?pwd=ce7f"/>
-    <hyperlink ref="B722" r:id="rId932" display="https://pan.baidu.com/s/1nxuToDatlCx1KSJNqNf8kQ?pwd=2qwn"/>
-    <hyperlink ref="B723" r:id="rId933" display="https://pan.baidu.com/s/10peoyQ5rpbysLolbnscbbg?pwd=hmsq"/>
-    <hyperlink ref="B724" r:id="rId934" display="https://pan.baidu.com/s/1xXaFPay_N-yEdXhFb1esmA?pwd=cxe2"/>
-    <hyperlink ref="B725" r:id="rId935" display="https://pan.baidu.com/s/11XjJEV2vIK8MNDuEpvd4Mg?pwd=1wqu"/>
-    <hyperlink ref="B726" r:id="rId936" display="https://pan.baidu.com/s/1hezz9bI6iGTh74iMzLNEcA?pwd=edjw"/>
-    <hyperlink ref="B727" r:id="rId937" display="https://pan.baidu.com/s/1YLWzHI3qlxAoKL0c2bw8IQ?pwd=urw5"/>
-    <hyperlink ref="B729" r:id="rId938" display="https://pan.baidu.com/s/1ha0bkCK99QHnsYDS1aJZkQ?pwd=4nj5"/>
-    <hyperlink ref="B730" r:id="rId939" display="https://pan.baidu.com/s/1pMBUaTYsYqhglF1WIEsuag?pwd=cf5q"/>
-    <hyperlink ref="B731" r:id="rId940" display="https://pan.baidu.com/s/1pi5ksTt9pf_1iDiLlQ39Dg?pwd=xktt"/>
-    <hyperlink ref="B732" r:id="rId941" display="https://pan.baidu.com/s/1HDPpc17bcL8JQPCH500TZw?pwd=ebif"/>
-    <hyperlink ref="B733" r:id="rId942" display="https://pan.baidu.com/s/1ZlhCCxZ7x8i8wjuSn6msNQ?pwd=7pq9"/>
-    <hyperlink ref="B734" r:id="rId943" display="https://pan.baidu.com/s/1mGodlmdA0uia00tVUVIn4w?pwd=9m8e"/>
-    <hyperlink ref="B735" r:id="rId944" display="https://pan.baidu.com/s/1WqWy699vQTc6UKNWUiTZjg?pwd=u88c"/>
-    <hyperlink ref="B736" r:id="rId945" display="https://pan.baidu.com/s/13awwOzSs7aDsd0y0MrnRMg?pwd=tbmn"/>
-    <hyperlink ref="B737" r:id="rId946" display="https://pan.baidu.com/s/11ATv_6JHWRIZSRVsXLWZCQ?pwd=kezt"/>
-    <hyperlink ref="B36" r:id="rId947" display="https://pan.baidu.com/s/1tqhF2vdHad8ZMxIsis-2Ow?pwd=4us2"/>
-    <hyperlink ref="C36" r:id="rId948" display="https://pan.quark.cn/s/2d51a12d48b0"/>
-    <hyperlink ref="C37" r:id="rId949" display="https://pan.quark.cn/s/f2265bc986d6"/>
-    <hyperlink ref="C738" r:id="rId950" display="https://pan.quark.cn/s/572a97d61992"/>
-    <hyperlink ref="C739" r:id="rId951" display="https://pan.quark.cn/s/0b2a31f05790"/>
-    <hyperlink ref="C740" r:id="rId952" display="https://pan.quark.cn/s/75dc58a08892"/>
-    <hyperlink ref="C694" r:id="rId953" display="https://pan.quark.cn/s/4a6e4927ffe9"/>
-    <hyperlink ref="C741" r:id="rId954" display="https://pan.quark.cn/s/45e0e1513545"/>
-    <hyperlink ref="C742" r:id="rId955" display="https://pan.quark.cn/s/3fe96ee0d85a"/>
-    <hyperlink ref="C743" r:id="rId956" display="https://pan.quark.cn/s/686b2ad0714b"/>
-    <hyperlink ref="C744" r:id="rId957" display="https://pan.quark.cn/s/20b1ec2912bb"/>
-    <hyperlink ref="C745" r:id="rId958" display="https://pan.quark.cn/s/2667c6c557c6"/>
-    <hyperlink ref="C746" r:id="rId959" display="https://pan.quark.cn/s/d6658f28061c"/>
-    <hyperlink ref="C747" r:id="rId960" display="https://pan.quark.cn/s/e40c0bf7f009"/>
-    <hyperlink ref="C748" r:id="rId961" display="https://pan.quark.cn/s/43d19b6be65b"/>
-    <hyperlink ref="C749" r:id="rId962" display="https://pan.quark.cn/s/aea9dbb17e6c"/>
-    <hyperlink ref="C645" r:id="rId963" display="https://pan.quark.cn/s/3891a3b5428f"/>
-    <hyperlink ref="C646" r:id="rId964" display="https://pan.quark.cn/s/650907e3124c"/>
-    <hyperlink ref="C750" r:id="rId965" display="https://pan.quark.cn/s/d099b7e9dfc5"/>
-    <hyperlink ref="C751" r:id="rId966" display="https://pan.quark.cn/s/2198ea14a64c"/>
-    <hyperlink ref="C752" r:id="rId967" display="https://pan.quark.cn/s/2ed66f7433ab"/>
-    <hyperlink ref="C753" r:id="rId968" display="https://pan.quark.cn/s/3efe37450595"/>
-    <hyperlink ref="C754" r:id="rId969" display="https://pan.quark.cn/s/1552d742bde7"/>
-    <hyperlink ref="C756" r:id="rId970" display="https://pan.quark.cn/s/0a3ff0c991c0"/>
-    <hyperlink ref="C757" r:id="rId971" display="https://pan.quark.cn/s/70448d455ee9"/>
-    <hyperlink ref="C758" r:id="rId972" display="https://pan.quark.cn/s/271d404d8a8a"/>
-    <hyperlink ref="B758" r:id="rId973" display="https://pan.baidu.com/s/1_O3u0QrYh7I9e5MEP84ATg?pwd=im78"/>
-    <hyperlink ref="C759" r:id="rId974" display="https://pan.quark.cn/s/45600441d399"/>
-    <hyperlink ref="C760" r:id="rId975" display="https://pan.quark.cn/s/2506c0342039"/>
-    <hyperlink ref="B760" r:id="rId976" display="https://pan.baidu.com/s/13GoPZ4S8HaEY-UcFFuengg?pwd=35i5"/>
-    <hyperlink ref="B761" r:id="rId977" display="https://pan.baidu.com/s/1mm4YK79PD9SofSgEj_pMog?pwd=f3g6"/>
-    <hyperlink ref="C761" r:id="rId978" display="https://pan.quark.cn/s/11c9045fc64d"/>
-    <hyperlink ref="B328" r:id="rId979" display="https://pan.baidu.com/s/1422BZ0PulcGeRO74uQRfnA?pwd=1fw7"/>
-    <hyperlink ref="C328" r:id="rId980" display="https://pan.quark.cn/s/964993291bb4"/>
-    <hyperlink ref="B329" r:id="rId981" display="https://pan.baidu.com/s/1nT-MejWAVr6qN8DEsPdJDg?pwd=ddjm"/>
-    <hyperlink ref="B331" r:id="rId982" display="https://pan.baidu.com/s/1Jbt4_EpsnDqZc-VdVP9izQ?pwd=22wa"/>
-    <hyperlink ref="B332" r:id="rId983" display="https://pan.baidu.com/s/1iVqLxnanqN4kHxZscdi2pA?pwd=25py"/>
-    <hyperlink ref="C333" r:id="rId984" display="https://pan.quark.cn/s/44bd880ef49e"/>
-    <hyperlink ref="C334" r:id="rId985" display="https://pan.quark.cn/s/6ab628f51dd7"/>
-    <hyperlink ref="C343" r:id="rId986" display="https://pan.quark.cn/s/298b8a18b635"/>
-    <hyperlink ref="B344" r:id="rId987" display="https://pan.baidu.com/s/1VzzY4KJyiSqyiAGKT3SJhQ?pwd=yevg"/>
-    <hyperlink ref="B346" r:id="rId988" display="https://pan.baidu.com/s/1XWVCY5ge5ZZ3U5nh_JBaTQ?pwd=udnt"/>
-    <hyperlink ref="B348" r:id="rId989" display="https://pan.baidu.com/s/1EzUOEtiTojuPAHS2NSCdCw?pwd=b6g7"/>
-    <hyperlink ref="C350" r:id="rId990" display="https://pan.quark.cn/s/997f7f0b0870"/>
-    <hyperlink ref="B351" r:id="rId991" display="https://pan.baidu.com/s/1lHVLPs0e5Mha6ncafrXLeA?pwd=6ug1"/>
-    <hyperlink ref="B352" r:id="rId992" display="https://pan.baidu.com/s/1rTy2Q_UvXuMjxr5dbZsNnA?pwd=c9xr"/>
-    <hyperlink ref="B353" r:id="rId993" display="https://pan.baidu.com/s/1ibcYGUpFTdWFXVRXLexzZA?pwd=whms"/>
-    <hyperlink ref="C354" r:id="rId994" display="https://pan.quark.cn/s/f870b31a0d0c"/>
-    <hyperlink ref="B355" r:id="rId995" display="https://pan.baidu.com/s/17ua3FE65N80d023HDkjP8A?pwd=m73v"/>
-    <hyperlink ref="B358" r:id="rId996" display="https://pan.baidu.com/s/1ALgMiXiEMhC4RVM1FW_K_A?pwd=9yja"/>
-    <hyperlink ref="B359" r:id="rId997" display="https://pan.baidu.com/s/1PDHghui9B6TJm-JGu0LO1A?pwd=5nmy"/>
-    <hyperlink ref="C1512" r:id="rId998" display="https://pan.quark.cn/s/886de0c54424"/>
-    <hyperlink ref="B1512" r:id="rId999" display="https://pan.baidu.com/s/1zyOX27hl-nCvtBsRMR_44w?pwd=a5yc"/>
-    <hyperlink ref="B109" r:id="rId1000" display="https://pan.baidu.com/s/1MeVD1d2_duSnB93fqlS-Ug?pwd=26n9"/>
-    <hyperlink ref="B110" r:id="rId1001" display="https://pan.baidu.com/s/1XpfSb353qAyJXdJ2kz9nSg?pwd=7xri"/>
-    <hyperlink ref="B118" r:id="rId1002" display="https://pan.baidu.com/s/1KGJvLjVnUuayysXj-ZHRWw?pwd=w6uu"/>
-    <hyperlink ref="B124" r:id="rId1003" display="https://pan.baidu.com/s/1oFwQAKEx0mJ1ps-pr5_4BA?pwd=n51v"/>
-    <hyperlink ref="B129" r:id="rId1004" display="https://pan.baidu.com/s/1eXzb5nKwcKov8vI8Yboz6Q?pwd=f9y6"/>
-    <hyperlink ref="B137" r:id="rId1005" display="https://pan.baidu.com/s/1r3DQ-ErUo-6LLBbTqVwhSA?pwd=kgib"/>
-    <hyperlink ref="B141" r:id="rId1006" display="https://pan.baidu.com/s/11b40UJTa6MtMsUCQG3IYEw?pwd=tj9s"/>
-    <hyperlink ref="B208" r:id="rId1007" display="https://pan.baidu.com/s/1JGIe24We0e5NtxtTvmdTaw?pwd=k7hc"/>
-    <hyperlink ref="B206" r:id="rId1008" display="https://pan.baidu.com/s/1ivHbE1TTThRcWMw5k8LHnw?pwd=iu62"/>
-    <hyperlink ref="B207" r:id="rId1009" display="https://pan.baidu.com/s/10XxRBqbZJ8JbwhuizqnC2w?pwd=gprb"/>
-    <hyperlink ref="B219" r:id="rId1010" display="https://pan.baidu.com/s/1mF6E2jqNj9nHbqbrXvIsrQ?pwd=qiwk"/>
-    <hyperlink ref="B220" r:id="rId1011" display="https://pan.baidu.com/s/1__F170RUNCXSXkbZh9Jbtw?pwd=dhn3"/>
-    <hyperlink ref="B221" r:id="rId1012" display="https://pan.baidu.com/s/1D7FbPjZ3yEGuz1KXhwjpaQ?pwd=utam"/>
-    <hyperlink ref="B222" r:id="rId1013" display="https://pan.baidu.com/s/1o-p09DZgxmpEt3AsLauupA?pwd=8r97"/>
-    <hyperlink ref="B223" r:id="rId1014" display="https://pan.baidu.com/s/1N2EVXEBjIPOAdiLuBew7Rg?pwd=v264"/>
-    <hyperlink ref="C219" r:id="rId1015" display="https://pan.quark.cn/s/6a56522f6a00"/>
-    <hyperlink ref="C616" r:id="rId1016" display="https://pan.quark.cn/s/bf3ea5fa6e3a"/>
-    <hyperlink ref="C617" r:id="rId1017" display="https://pan.quark.cn/s/25adaac2f4a0"/>
-    <hyperlink ref="C618" r:id="rId1018" display="https://pan.quark.cn/s/cd4621f7ad8e"/>
-    <hyperlink ref="C619" r:id="rId1019" display="https://pan.quark.cn/s/a1cdaf196fc9"/>
-    <hyperlink ref="C620" r:id="rId1020" display="https://pan.quark.cn/s/20e5dcb935f2"/>
-    <hyperlink ref="C621" r:id="rId1021" display="https://pan.quark.cn/s/1ed27e1e1db7"/>
-    <hyperlink ref="C622" r:id="rId1022" display="https://pan.quark.cn/s/a1fee3048615"/>
-    <hyperlink ref="C625" r:id="rId1023" display="https://pan.quark.cn/s/c5e18f2309d7"/>
-    <hyperlink ref="C626" r:id="rId1024" display="https://pan.quark.cn/s/cf6cdea92295"/>
-    <hyperlink ref="C627" r:id="rId1025" display="https://pan.quark.cn/s/1e7432723bed"/>
-    <hyperlink ref="C628" r:id="rId1026" display="https://pan.quark.cn/s/62d4cf6c83f3"/>
-    <hyperlink ref="C629" r:id="rId1027" display="https://pan.quark.cn/s/be6202da0d83"/>
-    <hyperlink ref="C630" r:id="rId1028" display="https://pan.quark.cn/s/f8e176370440"/>
-    <hyperlink ref="C632" r:id="rId1029" display="https://pan.quark.cn/s/08442b836fcb"/>
-    <hyperlink ref="C633" r:id="rId1030" display="https://pan.quark.cn/s/8e9342f2d11a"/>
-    <hyperlink ref="C634" r:id="rId1031" display="https://pan.quark.cn/s/4d3ea004624f"/>
-    <hyperlink ref="C635" r:id="rId1032" display="https://pan.quark.cn/s/e31e93fec7e2"/>
-    <hyperlink ref="C637" r:id="rId1033" display="https://pan.quark.cn/s/a3abc36e6264"/>
-    <hyperlink ref="C638" r:id="rId1034" display="https://pan.quark.cn/s/416eaf6819f7"/>
-    <hyperlink ref="C647" r:id="rId1035" display="https://pan.quark.cn/s/44b9c30b2917"/>
-    <hyperlink ref="B259" r:id="rId1036" display="https://pan.baidu.com/s/1j4pyp5VWaLX0-YzdT-Wqkg?pwd=1kjw"/>
-    <hyperlink ref="B260" r:id="rId1037" display="https://pan.baidu.com/s/1xQEAlwmSjV1ajyliwUBkcA?pwd=4bi1"/>
-    <hyperlink ref="C261" r:id="rId1038" display="https://pan.quark.cn/s/97f7029be412"/>
-    <hyperlink ref="B264" r:id="rId1039" display="https://pan.baidu.com/s/1KbiuuClHWmFJu08i3vXEtQ?pwd=3jtu"/>
-    <hyperlink ref="B263" r:id="rId1040" display="https://pan.baidu.com/s/182Lzn5gE-vBMwpZdONjm-A?pwd=z4ct"/>
-    <hyperlink ref="B262" r:id="rId1041" display="https://pan.baidu.com/s/1VToMKO_VKug_QL039yT8iQ?pwd=5tdg"/>
-    <hyperlink ref="B265" r:id="rId1042" display="https://pan.baidu.com/s/1VkQZ4RQJpTadwy8rA3ocaA?pwd=d8rx"/>
-    <hyperlink ref="B266" r:id="rId1043" display="https://pan.baidu.com/s/1BRS7jkRAEjajd5gDBcZExw?pwd=1n8b"/>
-    <hyperlink ref="B267" r:id="rId1044" display="https://pan.baidu.com/s/1PPfOTmxusWLTCD752ZuIag?pwd=uwjs"/>
-    <hyperlink ref="B268" r:id="rId1045" display="https://pan.baidu.com/s/1vFsqNMp9qnswTNKIHTX_RA?pwd=cqja"/>
-    <hyperlink ref="B269" r:id="rId1046" display="https://pan.baidu.com/s/1ErJYraIsmQIqcoiwfvZ9fw?pwd=f8h5"/>
-    <hyperlink ref="B270" r:id="rId1047" display="https://pan.baidu.com/s/1hlWX_ZfrTygfj3-hYI-d8A?pwd=ka8h"/>
-    <hyperlink ref="B271" r:id="rId1048" display="https://pan.baidu.com/s/1oMO4aNoVSGG6I_BwhDV63Q?pwd=8vi7"/>
-    <hyperlink ref="B272" r:id="rId1049" display="https://pan.baidu.com/s/1mIm4roDQ9dFdh_Qd0hcF8g?pwd=jtat"/>
-    <hyperlink ref="B273" r:id="rId1050" display="https://pan.baidu.com/s/19EBptnfjq3hu4NOHNuSnMQ?pwd=xtsp"/>
-    <hyperlink ref="B274" r:id="rId1051" display="https://pan.baidu.com/s/1eNGZqqLKM8A5hIC0BWoprg?pwd=qct9"/>
-    <hyperlink ref="B762" r:id="rId1052" display="https://pan.baidu.com/s/1bKR5PHuGb585lJCPsB0BIw?pwd=b49m"/>
-    <hyperlink ref="C763" r:id="rId1053" display="https://pan.quark.cn/s/21ce1a3396f6"/>
-    <hyperlink ref="C762" r:id="rId1054" display="https://pan.quark.cn/s/ae9d9883eff2"/>
-    <hyperlink ref="C736" r:id="rId1055" display="https://pan.quark.cn/s/6a10a02d64e4"/>
-    <hyperlink ref="C735" r:id="rId1056" display="https://pan.quark.cn/s/5ca4fb0cfeb4"/>
-    <hyperlink ref="C733" r:id="rId1057" display="https://pan.quark.cn/s/37ac5ad9e58e"/>
-    <hyperlink ref="C734" r:id="rId1058" display="https://pan.quark.cn/s/4250adbf9c8e"/>
-    <hyperlink ref="C731" r:id="rId1059" display="https://pan.quark.cn/s/f7ea8c5871e4"/>
-    <hyperlink ref="C730" r:id="rId1060" display="https://pan.quark.cn/s/8c0bd0e0a661"/>
-    <hyperlink ref="C729" r:id="rId1061" display="https://pan.quark.cn/s/43110840c0a1"/>
-    <hyperlink ref="C728" r:id="rId1062" display="https://pan.quark.cn/s/cf460d062631"/>
-    <hyperlink ref="C727" r:id="rId1063" display="https://pan.quark.cn/s/595466de2733"/>
-    <hyperlink ref="C726" r:id="rId1064" display="https://pan.quark.cn/s/8e588175b48d"/>
-    <hyperlink ref="C725" r:id="rId1065" display="https://pan.quark.cn/s/5a9fae095edf"/>
-    <hyperlink ref="C724" r:id="rId1066" display="https://pan.quark.cn/s/24edbd3dbf28"/>
-    <hyperlink ref="C723" r:id="rId1067" display="https://pan.quark.cn/s/ecbb04e66148"/>
-    <hyperlink ref="C719" r:id="rId1068" display="https://pan.quark.cn/s/62fd6f69d727"/>
-    <hyperlink ref="C720" r:id="rId1069" display="https://pan.quark.cn/s/69a46fe9ba4e"/>
-    <hyperlink ref="C721" r:id="rId1070" display="https://pan.quark.cn/s/933f7d227f13"/>
-    <hyperlink ref="C718" r:id="rId1071" display="https://pan.quark.cn/s/83c0c9dc3533"/>
-    <hyperlink ref="C717" r:id="rId1072" display="https://pan.quark.cn/s/f666e63f9396"/>
-    <hyperlink ref="C716" r:id="rId1073" display="https://pan.quark.cn/s/982b31603a26"/>
-    <hyperlink ref="C715" r:id="rId1074" display="https://pan.quark.cn/s/1ed1c0918457"/>
-    <hyperlink ref="C714" r:id="rId1075" display="https://pan.quark.cn/s/1487b18e6d99"/>
-    <hyperlink ref="C713" r:id="rId1076" display="https://pan.quark.cn/s/de835c620dd2"/>
-    <hyperlink ref="C711" r:id="rId1077" display="https://pan.quark.cn/s/732e1ee23dd2"/>
-    <hyperlink ref="C709" r:id="rId1078" display="https://pan.quark.cn/s/cbaad7c543f6"/>
-    <hyperlink ref="C708" r:id="rId1079" display="https://pan.quark.cn/s/575e7d6d4b88"/>
-    <hyperlink ref="C706" r:id="rId1080" display="https://pan.quark.cn/s/b94d0b6d9d13"/>
-    <hyperlink ref="C705" r:id="rId1081" display="https://pan.quark.cn/s/53faf67ebf74"/>
-    <hyperlink ref="C703" r:id="rId1082" display="https://pan.quark.cn/s/d7f9652c8c15"/>
-    <hyperlink ref="C702" r:id="rId1083" display="https://pan.quark.cn/s/a6dc4ec52e05"/>
-    <hyperlink ref="C701" r:id="rId1084" display="https://pan.quark.cn/s/f98835df3a7f"/>
-    <hyperlink ref="C699" r:id="rId1085" display="https://pan.quark.cn/s/48660595f7ac"/>
-    <hyperlink ref="C696" r:id="rId1086" display="https://pan.quark.cn/s/fda703b4b335"/>
-    <hyperlink ref="C697" r:id="rId1087" display="https://pan.quark.cn/s/5b5e805cad6f"/>
-    <hyperlink ref="C698" r:id="rId1088" display="https://pan.quark.cn/s/dd8ac3ea7b02"/>
-    <hyperlink ref="C693" r:id="rId1089" display="https://pan.quark.cn/s/ad12cba4ed4c"/>
-    <hyperlink ref="C692" r:id="rId1090" display="https://pan.quark.cn/s/0c0a6eb4281b"/>
-    <hyperlink ref="C688" r:id="rId1091" display="https://pan.quark.cn/s/3f990a04fc26"/>
-    <hyperlink ref="C651" r:id="rId1092" display="https://pan.quark.cn/s/b6eb0f62fbe9"/>
-    <hyperlink ref="C465" r:id="rId1093" display="https://pan.quark.cn/s/87d1a27ead00"/>
-    <hyperlink ref="C464" r:id="rId1094" display="https://pan.quark.cn/s/f9ff0156e25b"/>
-    <hyperlink ref="C574" r:id="rId1095" display="https://pan.quark.cn/s/501053eef658"/>
-    <hyperlink ref="C660" r:id="rId1096" display="https://pan.quark.cn/s/49a979ceb35e"/>
-    <hyperlink ref="C764" r:id="rId1097" display="https://pan.quark.cn/s/4155819ca150"/>
-    <hyperlink ref="B318" r:id="rId1098" display="https://pan.baidu.com/s/1k1VnYq_yCMzmuEm2CTNqiA?pwd=gqi2"/>
-    <hyperlink ref="B317" r:id="rId1099" display="https://pan.baidu.com/s/1Pgus8PlUaH_Rm-eFmuZQNg?pwd=ft3n"/>
-    <hyperlink ref="C317" r:id="rId1100" display="https://pan.quark.cn/s/21be68c27df4"/>
-    <hyperlink ref="B362" r:id="rId1101" display="https://pan.baidu.com/s/1OlvjHObLg0XtFGy80cJTHg?pwd=bp4d"/>
-    <hyperlink ref="C363" r:id="rId1102" display="https://pan.quark.cn/s/b1a81f9a01a3"/>
-    <hyperlink ref="B364" r:id="rId1103" display="https://pan.baidu.com/s/19h2u7t5YpfCxhDQBiZslIw?pwd=u5at"/>
-    <hyperlink ref="B369" r:id="rId1104" display="https://pan.baidu.com/s/1o-nWCqwixbvOlUfCA62TyQ?pwd=e43t"/>
-    <hyperlink ref="B367" r:id="rId1105" display="https://pan.baidu.com/s/1BtIfIamcf4J-W5JKGPcxlg?pwd=8vm9"/>
-    <hyperlink ref="B366" r:id="rId1106" display="https://pan.baidu.com/s/1Vm3_vns8DTe-LGCLHiqWRA?pwd=3s3b"/>
-    <hyperlink ref="B373" r:id="rId1107" display="https://pan.baidu.com/s/1TzJieuFSGXnej3v-mPV0bA?pwd=82ke"/>
-    <hyperlink ref="C765" r:id="rId1108" display="https://pan.quark.cn/s/33c2be981fe1"/>
-    <hyperlink ref="B765" r:id="rId1109" display="https://pan.baidu.com/s/1yFXyFV3ZDVrZQ_QoAzI6aA?pwd=dan2"/>
-    <hyperlink ref="C766" r:id="rId1110" display="https://pan.quark.cn/s/fbc7908647d1"/>
-    <hyperlink ref="C767" r:id="rId1111" display="https://pan.quark.cn/s/327230482bdf"/>
-    <hyperlink ref="C768" r:id="rId1112" display="https://pan.quark.cn/s/f3656f5c3f5c"/>
-    <hyperlink ref="C769" r:id="rId1113" display="https://pan.quark.cn/s/d598a7d0b3c7"/>
-    <hyperlink ref="C770" r:id="rId1114" display="https://pan.quark.cn/s/913f87636c88"/>
-    <hyperlink ref="B771" r:id="rId1115" display="https://pan.baidu.com/s/1jDBe6PDadSs_Iss1DFfTNw?pwd=cmh4"/>
-    <hyperlink ref="B772" r:id="rId1116" display="https://pan.baidu.com/s/1vZM3sGVE-p6DBUMkGbH84A?pwd=8vwx"/>
-    <hyperlink ref="B773" r:id="rId1117" display="https://pan.baidu.com/s/1OA0CSqdc2LF-efoFQyjRZQ?pwd=yf4y"/>
-    <hyperlink ref="B774" r:id="rId1118" display="https://pan.baidu.com/s/1-Q-uBQcq4BT2u-7v-tiYZw?pwd=hynm"/>
-    <hyperlink ref="C775" r:id="rId1119" display="https://pan.quark.cn/s/3298cdfe6a4b"/>
-    <hyperlink ref="C776" r:id="rId1120" display="https://pan.quark.cn/s/86152c82eb42"/>
-    <hyperlink ref="C398" r:id="rId1121" display="https://pan.quark.cn/s/91026f333794"/>
-    <hyperlink ref="C777" r:id="rId1122" display="https://pan.quark.cn/s/de0d0c5be16f"/>
-    <hyperlink ref="C779" r:id="rId1123" display="https://pan.quark.cn/s/1a504da1195a"/>
-    <hyperlink ref="C780" r:id="rId1124" display="https://pan.quark.cn/s/480d86c49105"/>
-    <hyperlink ref="C783" r:id="rId1125" display="https://pan.quark.cn/s/20a87190dba8"/>
-    <hyperlink ref="C784" r:id="rId1126" display="https://pan.quark.cn/s/a2c48032247b"/>
-    <hyperlink ref="C785" r:id="rId1127" display="https://pan.quark.cn/s/245438716caf"/>
-    <hyperlink ref="C786" r:id="rId1128" display="https://pan.quark.cn/s/eae47c7aee75"/>
-    <hyperlink ref="C787" r:id="rId1129" display="https://pan.quark.cn/s/794cd972029f"/>
-    <hyperlink ref="C788" r:id="rId1130" display="https://pan.quark.cn/s/2fc6ac38e2c8"/>
-    <hyperlink ref="C789" r:id="rId1131" display="https://pan.quark.cn/s/53c7e96af6d9"/>
-    <hyperlink ref="C790" r:id="rId1132" display="https://pan.quark.cn/s/4238ff01a72d"/>
-    <hyperlink ref="C791" r:id="rId1133" display="https://pan.quark.cn/s/319d3b2559c5"/>
-    <hyperlink ref="C792" r:id="rId1134" display="https://pan.quark.cn/s/62e103e0913f"/>
-    <hyperlink ref="C793" r:id="rId1135" display="https://pan.quark.cn/s/936fb1a39721"/>
-    <hyperlink ref="C794" r:id="rId1136" display="https://pan.quark.cn/s/90ed317c1177"/>
-    <hyperlink ref="C795" r:id="rId1137" display="https://pan.quark.cn/s/82687ef02451"/>
-    <hyperlink ref="C796" r:id="rId1138" display="https://pan.quark.cn/s/3629dbe7d593"/>
-    <hyperlink ref="C797" r:id="rId1139" display="https://pan.quark.cn/s/0a6887e5870a"/>
-    <hyperlink ref="C798" r:id="rId1140" display="https://pan.quark.cn/s/e92565a01e38"/>
-    <hyperlink ref="C799" r:id="rId1141" display="https://pan.quark.cn/s/a7d15a2277b1"/>
-    <hyperlink ref="C800" r:id="rId1142" display="https://pan.quark.cn/s/67f1ac3b9d31"/>
-    <hyperlink ref="C801" r:id="rId1143" display="https://pan.quark.cn/s/7baeb1d0d2cd"/>
-    <hyperlink ref="C802" r:id="rId1144" display="https://pan.quark.cn/s/faacbe21578f"/>
-    <hyperlink ref="C803" r:id="rId1145" display="https://pan.quark.cn/s/15fc3790a7c7"/>
-    <hyperlink ref="C804" r:id="rId1146" display="https://pan.quark.cn/s/fb14eb995a8b"/>
-    <hyperlink ref="C807" r:id="rId1147" display="https://pan.quark.cn/s/591251ddf80b"/>
-    <hyperlink ref="C808" r:id="rId1148" display="https://pan.quark.cn/s/bf75290ff7df"/>
-    <hyperlink ref="C809" r:id="rId1149" display="https://pan.quark.cn/s/0645be5a0930"/>
-    <hyperlink ref="C810" r:id="rId1150" display="https://pan.quark.cn/s/eafc528fd914"/>
-    <hyperlink ref="C812" r:id="rId1151" display="https://pan.quark.cn/s/dce180a74340"/>
-    <hyperlink ref="B813" r:id="rId1152" display="https://pan.baidu.com/s/168v6qUHU9YJAlI1H_LuOGA?pwd=gnvr"/>
-    <hyperlink ref="C813" r:id="rId1153" display="https://pan.quark.cn/s/efc92717a434"/>
-    <hyperlink ref="C814" r:id="rId1154" display="https://pan.quark.cn/s/247c3edecfbd"/>
-    <hyperlink ref="C816" r:id="rId1155" display="https://pan.quark.cn/s/407a76fde766"/>
-    <hyperlink ref="B816" r:id="rId1156" display="https://pan.baidu.com/s/1MPGsErKAi9Bq02_WfNT3sQ?pwd=vpe5"/>
-    <hyperlink ref="C817" r:id="rId1157" display="https://pan.quark.cn/s/29ce6b8deece"/>
-    <hyperlink ref="C338" r:id="rId1158" display="https://pan.quark.cn/s/74e02db059f8"/>
-    <hyperlink ref="B338" r:id="rId1159" display="https://pan.baidu.com/s/1yEDS_cs5psOQoCHdJBWDZw?pwd=r56f"/>
-    <hyperlink ref="C818" r:id="rId1160" display="https://pan.quark.cn/s/9f6735855e6d"/>
-    <hyperlink ref="C819" r:id="rId1161" display="https://pan.quark.cn/s/c209156761db"/>
-    <hyperlink ref="B820" r:id="rId1162" display="https://pan.baidu.com/s/1f7D28J2zy-zcW5mF5UXF9g?pwd=qm4j"/>
-    <hyperlink ref="C821" r:id="rId1163" display="https://pan.quark.cn/s/658df1791334"/>
-    <hyperlink ref="B821" r:id="rId1164" display="https://pan.baidu.com/s/1sbDctxLZY0TdPu4rqwZFLQ?pwd=3px7"/>
-    <hyperlink ref="C822" r:id="rId1165" display="https://pan.quark.cn/s/9b8750bb46af"/>
-    <hyperlink ref="C668" r:id="rId1166" display="https://pan.quark.cn/s/70b0e81bfbfc"/>
-    <hyperlink ref="C669" r:id="rId1167" display="https://pan.quark.cn/s/21b9f1564bf5"/>
-    <hyperlink ref="C685" r:id="rId1168" display="https://pan.quark.cn/s/5cc68ca19a45"/>
-    <hyperlink ref="C671" r:id="rId1169" display="https://pan.quark.cn/s/28f52c5b91a6"/>
-    <hyperlink ref="C672" r:id="rId1170" display="https://pan.quark.cn/s/c022b6f0d2da"/>
-    <hyperlink ref="C673" r:id="rId1171" display="https://pan.quark.cn/s/eefb00e00937"/>
-    <hyperlink ref="C674" r:id="rId1172" display="https://pan.quark.cn/s/a0993adb65df"/>
-    <hyperlink ref="C676" r:id="rId1173" display="https://pan.quark.cn/s/36397ee7631f"/>
-    <hyperlink ref="C677" r:id="rId1174" display="https://pan.quark.cn/s/ab4d899f445c"/>
-    <hyperlink ref="C678" r:id="rId1175" display="https://pan.quark.cn/s/3d08956b5aff"/>
-    <hyperlink ref="C679" r:id="rId1176" display="https://pan.quark.cn/s/5a47ca1ed2ca"/>
-    <hyperlink ref="C680" r:id="rId1177" display="https://pan.quark.cn/s/ba4e2fbaa219"/>
-    <hyperlink ref="C681" r:id="rId1178" display="https://pan.quark.cn/s/9f570cbad956"/>
-    <hyperlink ref="C682" r:id="rId1179" display="https://pan.quark.cn/s/207e0f11f219"/>
-    <hyperlink ref="C683" r:id="rId1180" display="https://pan.quark.cn/s/22d57cee5232"/>
-    <hyperlink ref="C684" r:id="rId1181" display="https://pan.quark.cn/s/75f9b829c3c0"/>
-    <hyperlink ref="C687" r:id="rId1182" display="https://pan.quark.cn/s/3258585e57a3"/>
-    <hyperlink ref="C689" r:id="rId1183" display="https://pan.quark.cn/s/2ec3895d7dac"/>
-    <hyperlink ref="C823" r:id="rId1184" display="https://pan.quark.cn/s/3e25ff8b2fcb"/>
-    <hyperlink ref="B292" r:id="rId1185" display="https://pan.baidu.com/s/1u4n0Urp2GG39dNI6oXEw4Q?pwd=753t"/>
-    <hyperlink ref="B291" r:id="rId1186" display="https://pan.baidu.com/s/15cL4Wvkh7ogPu6yeUAHILA?pwd=eme4"/>
-    <hyperlink ref="B290" r:id="rId1187" display="https://pan.baidu.com/s/1Q5cRhQo8wKbrYYjWfG4nnA?pwd=xwfm"/>
-    <hyperlink ref="B289" r:id="rId1188" display="https://pan.baidu.com/s/19eH8mEtN3oD6N3hkPX4BKA?pwd=bkey"/>
-    <hyperlink ref="B288" r:id="rId1189" display="https://pan.baidu.com/s/1sDOWIcTltAhxj1XPHsOvTA?pwd=nh3m"/>
-    <hyperlink ref="B293" r:id="rId1190" display="https://pan.baidu.com/s/1PNzkSNVLOOFnIQB0ihY_CA?pwd=avx1"/>
-    <hyperlink ref="B376" r:id="rId1191" display="https://pan.baidu.com/s/1Z6ngb-JsAKp1YKWtgB4RqA?pwd=hecw"/>
-    <hyperlink ref="B378" r:id="rId1192" display="https://pan.baidu.com/s/1N8v3N1OmHrwzkgKZc_hyOA?pwd=afhw"/>
-    <hyperlink ref="B381" r:id="rId1193" display="https://pan.baidu.com/s/1HG-W_f_1Z-M1AKGzVBDnEw?pwd=7whq"/>
-    <hyperlink ref="B382" r:id="rId1194" display="https://pan.baidu.com/s/1qqorfIXKskY2k9NYzrVRAg?pwd=sd8y"/>
-    <hyperlink ref="B383" r:id="rId1195" display="https://pan.baidu.com/s/1TCew09MPTk4aj2gf35HG4A?pwd=mqha"/>
-    <hyperlink ref="B384" r:id="rId1196" display="https://pan.baidu.com/s/1AVlez4kg0hxHxDL1R3mRfA?pwd=49u8"/>
-    <hyperlink ref="B385" r:id="rId1197" display="https://pan.baidu.com/s/1HRCsKuGtszMTLyCDWh9nnQ?pwd=48qg"/>
-    <hyperlink ref="B393" r:id="rId1198" display="https://pan.baidu.com/s/1uHb28LADsKRIYhPcUU1xTQ?pwd=1jev"/>
-    <hyperlink ref="B394" r:id="rId1199" display="https://pan.baidu.com/s/1sbPp8mxKSYg2jq7vQgnOEA?pwd=ecvh"/>
-    <hyperlink ref="B395" r:id="rId1200" display="https://pan.baidu.com/s/1gI4YqACsrqlEMbKFNQPJCg?pwd=5ayd"/>
-    <hyperlink ref="B396" r:id="rId1201" display="https://pan.baidu.com/s/13mYxsYoOwjpErrEelVEeHw?pwd=sak5"/>
-    <hyperlink ref="B398" r:id="rId1202" display="https://pan.baidu.com/s/1e2OmLTcqfbAYPi0pmVzHXw?pwd=e2f5"/>
-    <hyperlink ref="B399" r:id="rId1203" display="https://pan.baidu.com/s/1Cls9qJmd_fcsb0D4ifSH1Q?pwd=j8ai"/>
-    <hyperlink ref="B400" r:id="rId1204" display="https://pan.baidu.com/s/1ctJkIPtxl5TgeOwfzRM6Nw?pwd=g54d"/>
-    <hyperlink ref="B401" r:id="rId1205" display="https://pan.baidu.com/s/1aO6TE9vvfmr6bZ37T0W1_w?pwd=y16t"/>
-    <hyperlink ref="B402" r:id="rId1206" display="https://pan.baidu.com/s/1iZyEt5lwoLqCuSCzbZG4lg?pwd=uvud"/>
-    <hyperlink ref="B403" r:id="rId1207" display="https://pan.baidu.com/s/124-56nHe239FDTa2Z-L8aw?pwd=sruj"/>
-    <hyperlink ref="B404" r:id="rId1208" display="https://pan.baidu.com/s/14F1g-z2aT2gMYWa4Ty7lyw?pwd=shv2"/>
-    <hyperlink ref="B405" r:id="rId1209" display="https://pan.baidu.com/s/1D_P4wX_bRS2s6fN1a0oEfQ?pwd=3qb8"/>
-    <hyperlink ref="B406" r:id="rId1210" display="https://pan.baidu.com/s/1fmUQfnEUMwoecGGTgUCDtA?pwd=axfw"/>
-    <hyperlink ref="B776" r:id="rId1211" display="https://pan.baidu.com/s/10HQ0Yu_EOhFWdAPa9aCLOQ?pwd=1wnn"/>
-    <hyperlink ref="B766" r:id="rId1212" display="https://pan.baidu.com/s/16f4Ef6JFjSIXUfUXgnf78w?pwd=5awq"/>
-    <hyperlink ref="B768" r:id="rId1213" display="https://pan.baidu.com/s/1CYPDop0kZZocVCxDYe54eA?pwd=s4qa"/>
-    <hyperlink ref="B227" r:id="rId1214" display="https://pan.baidu.com/s/1cte2skDaTjWOmSdtV8cv9A?pwd=rkt8"/>
-    <hyperlink ref="B228" r:id="rId1215" display="https://pan.baidu.com/s/1m6pnWj7-TYStHe_kdiwqsA?pwd=qrrp"/>
-    <hyperlink ref="B229" r:id="rId1216" display="https://pan.baidu.com/s/18Oa42Q-o4nXmvbbE1ulG6w?pwd=fi2w"/>
-    <hyperlink ref="B230" r:id="rId1217" display="https://pan.baidu.com/s/1ZIFe-AxXox6kCmihx6c2RQ?pwd=6fbs"/>
-    <hyperlink ref="C230" r:id="rId1218" display="https://pan.quark.cn/s/c2ac2fa8471c"/>
-    <hyperlink ref="B232" r:id="rId1219" display="https://pan.baidu.com/s/1H51wCbTNKDEPEOS8OQJBcA?pwd=q2x3"/>
-    <hyperlink ref="B231" r:id="rId1220" display="https://pan.baidu.com/s/1dDVFZaRGONaapjO5_n_erw?pwd=9w7y"/>
-    <hyperlink ref="B226" r:id="rId1221" display="https://pan.baidu.com/s/1W2UI_11FKEh9wuBjFys4-g?pwd=mgcr"/>
-    <hyperlink ref="B225" r:id="rId1222" display="https://pan.baidu.com/s/1KI0XFZxMrTVbL6Acj4wxDQ?pwd=rtxx"/>
-    <hyperlink ref="B234" r:id="rId1223" display="https://pan.baidu.com/s/1L-zcoiVtumAO2TgXkpEsZA?pwd=e535"/>
-    <hyperlink ref="B233" r:id="rId1224" display="https://pan.baidu.com/s/1KEL_oZqJjGM-1AQwy0H7og?pwd=2q15"/>
-    <hyperlink ref="B235" r:id="rId1225" display="https://pan.baidu.com/s/1H2SKp-EJ0dJdhVvRxyQTPA?pwd=renm"/>
-    <hyperlink ref="B236" r:id="rId1226" display="https://pan.baidu.com/s/1tPC-0qPoYIIKCpkJvvWfaA?pwd=8mx3"/>
-    <hyperlink ref="C237" r:id="rId1227" display="https://pan.quark.cn/s/82a8ea1dd231"/>
-    <hyperlink ref="B237" r:id="rId1228" display="https://pan.baidu.com/s/1haIYxE8u026f9P2PfRdPCA?pwd=f7g2"/>
-    <hyperlink ref="C238" r:id="rId1229" display="https://pan.quark.cn/s/c9d96d942eef"/>
-    <hyperlink ref="B238" r:id="rId1230" display="https://pan.baidu.com/s/1u7SqVUphFhWsDmaVnHv-XA?pwd=r3kf"/>
-    <hyperlink ref="C239" r:id="rId1231" display="https://pan.quark.cn/s/b5df36f8df9c"/>
-    <hyperlink ref="B239" r:id="rId1232" display="https://pan.baidu.com/s/1jvvJ9nEvTCHfnvEIN3sbdw?pwd=5a2h"/>
-    <hyperlink ref="B240" r:id="rId1233" display="https://pan.baidu.com/s/1l_6r7sgAPLq8oOW1sxdbrA?pwd=sgpa"/>
-    <hyperlink ref="B241" r:id="rId1234" display="https://pan.baidu.com/s/1_Yu71Fio-FRw57RKOxn8uA?pwd=2bxm"/>
-    <hyperlink ref="B242" r:id="rId1235" display="https://pan.baidu.com/s/141ct1z0PfA7wY7GFUVOTGA?pwd=33nd"/>
-    <hyperlink ref="B243" r:id="rId1236" display="https://pan.baidu.com/s/1vsGy2M3smNtQ4VZQYSUamw?pwd=a4ze"/>
-    <hyperlink ref="B244" r:id="rId1237" display="https://pan.baidu.com/s/1wI2oULi8UpNrz6mepFG3JA?pwd=w6ii"/>
-    <hyperlink ref="B245" r:id="rId1238" display="https://pan.baidu.com/s/11S039MlNKGk495ZmRu-U5g?pwd=eyw1"/>
-    <hyperlink ref="B246" r:id="rId1239" display="https://pan.baidu.com/s/1i2lNB1URKBuemJf0nXiB0Q?pwd=ktkp"/>
-    <hyperlink ref="B450" r:id="rId1240" display="https://pan.baidu.com/s/1czD25gViRq7UN5mwIsPvVg?pwd=kcgw"/>
-    <hyperlink ref="B458" r:id="rId1241" display="https://pan.baidu.com/s/1xSotIhoqQGMdoivX6WVPog?pwd=z8qu"/>
-    <hyperlink ref="B460" r:id="rId1242" display="https://pan.baidu.com/s/1k2URGzlkrAkvN-hlVXFZFA?pwd=df8u"/>
-    <hyperlink ref="B459" r:id="rId1243" display="https://pan.baidu.com/s/1gn-c9WiK7TWq2gyAS9wbsg?pwd=drdy"/>
-    <hyperlink ref="B469" r:id="rId1244" display="https://pan.baidu.com/s/1Rc_crSGnZtSUAMZvCxzGjg?pwd=b7gu"/>
-    <hyperlink ref="B470" r:id="rId1245" display="https://pan.baidu.com/s/1b4gkNPbtJbAjnUi7iu_LMw?pwd=d5cx"/>
-    <hyperlink ref="B471" r:id="rId1246" display="https://pan.baidu.com/s/17P7va02QubrOZ6li_F87Vg?pwd=ikq6"/>
-    <hyperlink ref="B472" r:id="rId1247" display="https://pan.baidu.com/s/1oPaiKx9qr-N47TXrd3cTuA?pwd=g6m7"/>
-    <hyperlink ref="B488" r:id="rId1248" display="https://pan.baidu.com/s/1h2VGVGjwDP8TMG1pFvIgVg?pwd=bedf"/>
-    <hyperlink ref="B487" r:id="rId1249" display="https://pan.baidu.com/s/1BCWJ4Mn3QakusfUNnXiwFA?pwd=j98z"/>
-    <hyperlink ref="B793" r:id="rId1250" display="https://pan.baidu.com/s/12vsS6pg6mxfngxzNcGGIdA?pwd=573u"/>
-    <hyperlink ref="B810" r:id="rId1251" display="https://pan.baidu.com/s/12p2x5GUsiiNhYLreFszBEw?pwd=c69r"/>
-    <hyperlink ref="B811" r:id="rId1252" display="https://pan.baidu.com/s/16XMnv4n1lOeA9PtHION53w?pwd=27d3"/>
-    <hyperlink ref="B812" r:id="rId1253" display="https://pan.baidu.com/s/1ZdVVyfI-kTx_DoxvsDbjsA?pwd=3fhi"/>
-    <hyperlink ref="B802" r:id="rId1254" display="https://pan.baidu.com/s/1FjG6C87DhVq03UGBIgHAgA?pwd=wddj"/>
-    <hyperlink ref="B805" r:id="rId1255" display="https://pan.baidu.com/s/1TMucBglDPMWXaSQf2dPwYg?pwd=d3ps"/>
-    <hyperlink ref="B804" r:id="rId1256" display="https://pan.baidu.com/s/1MgZ0SY9nAzX_PSTIiwr3FA?pwd=jzv9"/>
-    <hyperlink ref="B799" r:id="rId1257" display="https://pan.baidu.com/s/1ynOAd9E-QcRBwEPgdT2miA?pwd=pvw8"/>
-    <hyperlink ref="B801" r:id="rId1258" display="https://pan.baidu.com/s/1lHhAU2vWffvrfF397OL-qQ?pwd=x35c"/>
-    <hyperlink ref="C824" r:id="rId1259" display="https://pan.quark.cn/s/17aad370d084"/>
-    <hyperlink ref="B824" r:id="rId1260" display="https://pan.baidu.com/s/1Tn9N0UE4auj4YpNrgn420Q?pwd=2scd"/>
-    <hyperlink ref="C826" r:id="rId1261" display="https://pan.quark.cn/s/563739b05270"/>
-    <hyperlink ref="B827" r:id="rId1262" display="https://pan.baidu.com/s/14ijZstxyyQAgc1457FOCPg?pwd=68bq"/>
-    <hyperlink ref="C828" r:id="rId1263" display="https://pan.quark.cn/s/069736bdabb5"/>
-    <hyperlink ref="B828" r:id="rId1264" display="https://pan.baidu.com/s/1BYq5L8HkTB7Y55gbZvJ3yQ?pwd=ibnb"/>
-    <hyperlink ref="B536" r:id="rId1265" display="https://pan.baidu.com/s/1gY7sCzWlV9B6XDoXVmTifg?pwd=kg6c"/>
-    <hyperlink ref="B808" r:id="rId1266" display="https://pan.baidu.com/s/1HQOfZiwI9YUSluErOagruw?pwd=5fcu"/>
-    <hyperlink ref="B218" r:id="rId1267" display="https://pan.baidu.com/s/1zRj24-9G269ePKLpLEidnw?pwd=yuum"/>
-    <hyperlink ref="B217" r:id="rId1268" display="https://pan.baidu.com/s/1UE_LOT2hiwG2caCFlKMVJQ?pwd=q6dr"/>
-    <hyperlink ref="B248" r:id="rId1269" display="https://pan.baidu.com/s/17R0N0GfBfdm6PZ0JyQeRdg?pwd=rbj7"/>
-    <hyperlink ref="B247" r:id="rId1270" display="https://pan.baidu.com/s/1aK9h0pXiJVZZvWgLERL5bg?pwd=kn5q"/>
-    <hyperlink ref="C247" r:id="rId1271" display="https://pan.quark.cn/s/dd1a659bf757"/>
-    <hyperlink ref="B250" r:id="rId1272" display="https://pan.baidu.com/s/1GxhiO28v40GFvss22D0nFA?pwd=enya"/>
-    <hyperlink ref="B249" r:id="rId1273" display="https://pan.baidu.com/s/1KVYZEFXxaeVBQrylGaobVw?pwd=njg9"/>
-    <hyperlink ref="C249" r:id="rId1274" display="https://pan.quark.cn/s/dafe10c8ccb5"/>
-    <hyperlink ref="C251" r:id="rId1275" display="https://pan.quark.cn/s/e2e621c94eaf"/>
-    <hyperlink ref="B251" r:id="rId1276" display="https://pan.baidu.com/s/11PjQjT51eliYLWlvTkYYRg?pwd=xejv"/>
-    <hyperlink ref="C252" r:id="rId1277" display="https://pan.quark.cn/s/4a039762141b"/>
-    <hyperlink ref="B252" r:id="rId1278" display="https://pan.baidu.com/s/16cNqxBLu_nM0O6vDvwdbmQ?pwd=8uxx"/>
-    <hyperlink ref="B253" r:id="rId1279" display="https://pan.baidu.com/s/1SJCcTCE_P8EKRqqnbsR-jg?pwd=n9nf"/>
-    <hyperlink ref="B280" r:id="rId1280" display="https://pan.baidu.com/s/126ba6StSF1stRGPjGbgHOQ?pwd=72wy"/>
-    <hyperlink ref="B316" r:id="rId1281" display="https://pan.baidu.com/s/1czvep7dtvdtvNQZaSxxaNw?pwd=pt4q"/>
-    <hyperlink ref="B409" r:id="rId1282" display="https://pan.baidu.com/s/1CoxJsFSI26oIMMIvBhoOWw?pwd=bqqr"/>
-    <hyperlink ref="B408" r:id="rId1283" display="https://pan.baidu.com/s/1Kd5qesG97BBInnAOXEbW5g?pwd=89ag"/>
-    <hyperlink ref="B410" r:id="rId1284" display="https://pan.baidu.com/s/1Vk4yRQEqeT3l2xU8-8fIuA?pwd=28gx"/>
-    <hyperlink ref="B411" r:id="rId1285" display="https://pan.baidu.com/s/1acF5ylkMp3H54ugntIgsiw?pwd=ra3x"/>
-    <hyperlink ref="B413" r:id="rId1286" display="https://pan.baidu.com/s/1GGsuKxq_QITDZ9mFo3o99A?pwd=ckxz"/>
-    <hyperlink ref="C413" r:id="rId1287" display="https://pan.quark.cn/s/b3e7caa83fb9"/>
-    <hyperlink ref="B414" r:id="rId1288" display="https://pan.baidu.com/s/1yH8RPlaR7wYK90ZRBTVM-g?pwd=crqn"/>
-    <hyperlink ref="B415" r:id="rId1289" display="https://pan.baidu.com/s/1hwspOF-l3DaAPW8zR-K2pw?pwd=bpth"/>
-    <hyperlink ref="B417" r:id="rId1290" display="https://pan.baidu.com/s/1qYD7tlu2pN_eXEYIIk2V9w?pwd=amus"/>
-    <hyperlink ref="B416" r:id="rId1291" display="https://pan.baidu.com/s/13_UXocylIyuturhh3wtq7w?pwd=52y4"/>
-    <hyperlink ref="B425" r:id="rId1292" display="https://pan.baidu.com/s/1sRzQu9ylod8hx4eqE5nOlQ?pwd=rbck"/>
-    <hyperlink ref="B427" r:id="rId1293" display="https://pan.baidu.com/s/144NNW1HApT23m_cvjpmDgw?pwd=cvtu"/>
-    <hyperlink ref="B428" r:id="rId1294" display="https://pan.baidu.com/s/1xVvfzZbaW3BUtodcceK2RQ?pwd=jxfb"/>
-    <hyperlink ref="B429" r:id="rId1295" display="https://pan.baidu.com/s/1pXyezB75bLJMXoM542nTjg?pwd=u28r"/>
-    <hyperlink ref="B435" r:id="rId1296" display="https://pan.baidu.com/s/1uqKM6AEfCa_Jnh08PCdKJw?pwd=btss"/>
-    <hyperlink ref="B436" r:id="rId1297" display="https://pan.baidu.com/s/11yG2voqJu8NZRFrB-Fcs0Q?pwd=ixs5"/>
-    <hyperlink ref="B437" r:id="rId1298" display="https://pan.baidu.com/s/1_0V6GLtygeEod570HTmfJQ?pwd=7ibt"/>
-    <hyperlink ref="B438" r:id="rId1299" display="https://pan.baidu.com/s/1aLCLGUnc_79SDEPnhIaE9g?pwd=2ptm"/>
-    <hyperlink ref="B439" r:id="rId1300" display="https://pan.baidu.com/s/1G-w99JuuAzSNDjt4GDKTqg?pwd=3c8h"/>
-    <hyperlink ref="B440" r:id="rId1301" display="https://pan.baidu.com/s/1HvqPldp5T_1bk3CApkX_xA?pwd=t6y8"/>
-    <hyperlink ref="B441" r:id="rId1302" display="https://pan.baidu.com/s/1gRP4XyReoVVDybe0svFNxw?pwd=h5qx"/>
-    <hyperlink ref="B444" r:id="rId1303" display="https://pan.baidu.com/s/1nqB9Q9tmOWKio098qEreUQ?pwd=sspv"/>
-    <hyperlink ref="B448" r:id="rId1304" display="https://pan.baidu.com/s/1QvQwjbu4y-PA8mgnY8fnhg?pwd=pjph"/>
-    <hyperlink ref="B449" r:id="rId1305" display="https://pan.baidu.com/s/1FEIKwsXvt8JHWwmy7KNDcA?pwd=8k7b"/>
-    <hyperlink ref="B451" r:id="rId1306" display="https://pan.baidu.com/s/1W47VDuSyh2-p_bZnN-FNfg?pwd=3ru7"/>
-    <hyperlink ref="B452" r:id="rId1307" display="https://pan.baidu.com/s/1JtS4_0pQPZCESZxXKqqgtA?pwd=2kne"/>
-    <hyperlink ref="C452" r:id="rId1308" display="https://pan.quark.cn/s/9294cc096f4a"/>
-    <hyperlink ref="B453" r:id="rId1309" display="https://pan.baidu.com/s/1QyV0lqeYmxN33YjfXmGuXA?pwd=irr5"/>
-    <hyperlink ref="C453" r:id="rId1310" display="https://pan.quark.cn/s/6f29dfb7703a"/>
-    <hyperlink ref="C479" r:id="rId1311" display="https://pan.quark.cn/s/475683a61330"/>
-    <hyperlink ref="C480" r:id="rId1312" display="https://pan.quark.cn/s/b760bbb0269c"/>
-    <hyperlink ref="B486" r:id="rId1313" display="https://pan.baidu.com/s/1PhqXCl_4WEQLmSBrs6nvCw?pwd=dqun"/>
-    <hyperlink ref="B502" r:id="rId1314" display="https://pan.baidu.com/s/1cqIvX9tfkyqPvD3gj43qOQ?pwd=i298"/>
-    <hyperlink ref="B829" r:id="rId1315" display="https://pan.baidu.com/s/1CbVExhgcDoFyG49QuDp_sQ?pwd=at4g"/>
-    <hyperlink ref="C829" r:id="rId1316" display="https://pan.quark.cn/s/595fb319efcb"/>
-    <hyperlink ref="B830" r:id="rId1317" display="https://pan.baidu.com/s/1XLw1TxCCSnBKpIudBJH7IA?pwd=2pfs"/>
-    <hyperlink ref="C830" r:id="rId1318" display="https://pan.quark.cn/s/8adc9800d5d8"/>
-    <hyperlink ref="B498" r:id="rId1319" display="https://pan.baidu.com/s/1o5Ep9jsHqiDxhvKUyJpzUQ?pwd=jgiy"/>
-    <hyperlink ref="B499" r:id="rId1320" display="https://pan.baidu.com/s/1A5_lfswv3NeQfLKc7cZaOA?pwd=cn3s"/>
-    <hyperlink ref="B496" r:id="rId1321" display="https://pan.baidu.com/s/1axOW0SJLdnvfI2zwFAFahw?pwd=qpsc"/>
-    <hyperlink ref="C497" r:id="rId1322" display="https://pan.quark.cn/s/5c82acfd0096"/>
-    <hyperlink ref="B495" r:id="rId1323" display="https://pan.baidu.com/s/1sL_Gv5wFBnFNvWfJwL862w?pwd=cxmf"/>
-    <hyperlink ref="B504" r:id="rId1324" display="https://pan.baidu.com/s/1XW9KDYx4pIGlyEUrvxGB4g?pwd=xp66"/>
-    <hyperlink ref="B505" r:id="rId1325" display="https://pan.baidu.com/s/16-NvM7tMTGwQ82FtoqWvDw?pwd=j6yv"/>
-    <hyperlink ref="B506" r:id="rId1326" display="https://pan.baidu.com/s/136v-DxLFzW_5NY2DaP64OA?pwd=skkt"/>
-    <hyperlink ref="B507" r:id="rId1327" display="https://pan.baidu.com/s/1jMhMxAL6daFxNQ0bH4I8og?pwd=492q"/>
-    <hyperlink ref="B508" r:id="rId1328" display="https://pan.baidu.com/s/1rp3ayf89DgFlcxq-EYOWeA?pwd=g1wf"/>
-    <hyperlink ref="B509" r:id="rId1329" display="https://pan.baidu.com/s/1PWfYxxwKmslh_jMwBI9-Pg?pwd=e7cn"/>
-    <hyperlink ref="B510" r:id="rId1330" display="https://pan.baidu.com/s/1avCpigtRrdES81wU4CMY3g?pwd=23d8"/>
-    <hyperlink ref="B512" r:id="rId1331" display="https://pan.baidu.com/s/1WVxwqtug1ipjLhNknhANkg?pwd=irrz"/>
-    <hyperlink ref="C512" r:id="rId1332" display="https://pan.quark.cn/s/3a779bf3a6a7"/>
-    <hyperlink ref="B515" r:id="rId1333" display="https://pan.baidu.com/s/1m16hvWysHsD1IEY2QIqEGA?pwd=zeyi"/>
-    <hyperlink ref="B516" r:id="rId1334" display="https://pan.baidu.com/s/1eZgfEeAIo-sPrtvUNQM28w?pwd=z68t"/>
-    <hyperlink ref="B517" r:id="rId1335" display="https://pan.baidu.com/s/1ii7MR25y1E5-eHfKSAMtJw?pwd=ybfc"/>
-    <hyperlink ref="B518" r:id="rId1336" display="https://pan.baidu.com/s/1DnnZUT8RVL6Bomqj8XLHxQ?pwd=3ne2"/>
-    <hyperlink ref="B519" r:id="rId1337" display="https://pan.baidu.com/s/1t0WPh1n0DXjfcFKn7Haokw?pwd=7t3f"/>
-    <hyperlink ref="B522" r:id="rId1338" display="https://pan.baidu.com/s/1A_ialinTbn8p3WGpSbrWAw?pwd=ajeh"/>
-    <hyperlink ref="B523" r:id="rId1339" display="https://pan.baidu.com/s/1abh8whjfnLSeuGjjHPVZqg?pwd=x3qp"/>
-    <hyperlink ref="B524" r:id="rId1340" display="https://pan.baidu.com/s/1K4E8y82YMJWOhW-kt4YNZg?pwd=k8vy"/>
-    <hyperlink ref="B525" r:id="rId1341" display="https://pan.baidu.com/s/1Cf_KxuzIanCICYdP1d0clw?pwd=znh2"/>
-    <hyperlink ref="B526" r:id="rId1342" display="https://pan.baidu.com/s/1xEKF9FkLrH7lqsqpeYkjYA?pwd=4r7z"/>
-    <hyperlink ref="B534" r:id="rId1343" display="https://pan.baidu.com/s/1mFuyVMotgf6jaRJ6hVMDOw?pwd=23pb"/>
-    <hyperlink ref="B535" r:id="rId1344" display="https://pan.baidu.com/s/1ygHMJEoJvVb_BkEpKC4_sw?pwd=vj7d"/>
-    <hyperlink ref="B533" r:id="rId1345" display="https://pan.baidu.com/s/18rF32SarzVBPbIEnhJOi4g?pwd=yz6f"/>
-    <hyperlink ref="B538" r:id="rId1346" display="https://pan.baidu.com/s/1G8C_yVrcRtu5pR2RImgbOw?pwd=gmxa"/>
-    <hyperlink ref="B539" r:id="rId1347" display="https://pan.baidu.com/s/1OBdt5cRRLpB0D7fE4i3aOQ?pwd=iena"/>
-    <hyperlink ref="B540" r:id="rId1348" display="https://pan.baidu.com/s/1ATEoidnV3LwOPg9UZXLh9A?pwd=h3ne"/>
-    <hyperlink ref="B541" r:id="rId1349" display="https://pan.baidu.com/s/1Hl9rPTWlT6x_dU-9VWawyg?pwd=rarm"/>
-    <hyperlink ref="B542" r:id="rId1350" display="https://pan.baidu.com/s/164zk_e3sPYPXEZEYHzc_aQ?pwd=8ba5"/>
-    <hyperlink ref="B543" r:id="rId1351" display="https://pan.baidu.com/s/1tnDhXv4T19YcrYtU5SUDsg?pwd=y557"/>
-    <hyperlink ref="B544" r:id="rId1352" display="https://pan.baidu.com/s/1I5IKbuhP38K0KjmRZ0sQPQ?pwd=s8c5"/>
-    <hyperlink ref="B545" r:id="rId1353" display="https://pan.baidu.com/s/1t6nfiq2d2pYC6j4HyOfSiw?pwd=fvd2"/>
-    <hyperlink ref="B546" r:id="rId1354" display="https://pan.baidu.com/s/1xWc5oV6UqVrR1qkx8dRaTA?pwd=p2sm"/>
-    <hyperlink ref="B547" r:id="rId1355" display="https://pan.baidu.com/s/1FZ4ZGLDb6n6CrXL8cAzHQA?pwd=rw7b"/>
-    <hyperlink ref="B553" r:id="rId1356" display="https://pan.baidu.com/s/1YsiHSkSgHpX-AO0yjZ_hcg?pwd=9p12"/>
-    <hyperlink ref="B548" r:id="rId1357" display="https://pan.baidu.com/s/1C3UQempp6E2RUIWcvVHgAg?pwd=uq3x"/>
-    <hyperlink ref="B549" r:id="rId1358" display="https://pan.baidu.com/s/1xPagjB1_dK-BrAs2G8_q2g?pwd=iamf"/>
-    <hyperlink ref="B550" r:id="rId1359" display="https://pan.baidu.com/s/1eJUh_iixGqY9DR6GwPmb1Q?pwd=dink"/>
-    <hyperlink ref="B554" r:id="rId1360" display="https://pan.baidu.com/s/18MgRbn8RgWumgUgFWh7JNg?pwd=h65m"/>
-    <hyperlink ref="B557" r:id="rId1361" display="https://pan.baidu.com/s/1uAtYpUOR8FU_4Byc2q_5qg?pwd=f2u6"/>
-    <hyperlink ref="B559" r:id="rId1362" display="https://pan.baidu.com/s/1TUUKDhmCMroKVdqFjyLSgQ?pwd=zn9r"/>
-    <hyperlink ref="B560" r:id="rId1363" display="https://pan.baidu.com/s/1JUzPNrEp9A5mU1Nc9OuSCw?pwd=wufg"/>
-    <hyperlink ref="B561" r:id="rId1364" display="https://pan.baidu.com/s/1Q2-dD70-x5g_WrNsy2v7QQ?pwd=bryx"/>
-    <hyperlink ref="B562" r:id="rId1365" display="https://pan.baidu.com/s/1smK4jLFkIZaj0BROsklMjA?pwd=c5a9"/>
-    <hyperlink ref="B563" r:id="rId1366" display="https://pan.baidu.com/s/1aaXWl8IjCZxbyYWIsLJMuQ?pwd=yyfq"/>
-    <hyperlink ref="B564" r:id="rId1367" display="https://pan.baidu.com/s/1XRTgCs0Tl122izM2cWEWEA?pwd=wz6r"/>
-    <hyperlink ref="B566" r:id="rId1368" display="https://pan.baidu.com/s/10c_uZ_NCnOuaJ8yh3K9Gcg?pwd=45e2"/>
-    <hyperlink ref="C565" r:id="rId1369" display="https://pan.quark.cn/s/5c44c30c5536"/>
-    <hyperlink ref="B568" r:id="rId1370" display="https://pan.baidu.com/s/1KWXOTAQZO9Tf_IwMT-3tFA?pwd=2qns"/>
-    <hyperlink ref="B570" r:id="rId1371" display="https://pan.baidu.com/s/1nd2UPgk2ODkwjmzLwnptQA?pwd=viig"/>
-    <hyperlink ref="B572" r:id="rId1372" display="https://pan.baidu.com/s/1yu-O5Zqy7SCRR6M0A-mblA?pwd=736r"/>
-    <hyperlink ref="B573" r:id="rId1373" display="https://pan.baidu.com/s/1OWKjQyTb9NFzlW_3WeJ4Ug?pwd=beg5"/>
-    <hyperlink ref="B579" r:id="rId1374" display="https://pan.baidu.com/s/1aOC--4DZymLFrqQSfIcp4g?pwd=36eu"/>
-    <hyperlink ref="B576" r:id="rId1375" display="https://pan.baidu.com/s/1FP3BXUuzirc1fgUsS9-Rmw?pwd=tbpj"/>
-    <hyperlink ref="B575" r:id="rId1376" display="https://pan.baidu.com/s/1uOePPh0C98bYcj37vK0KMQ?pwd=p8e3"/>
-    <hyperlink ref="B577" r:id="rId1377" display="https://pan.baidu.com/s/1tx881D-5hbV0-mAhD3nhpQ?pwd=i65d"/>
-    <hyperlink ref="B578" r:id="rId1378" display="https://pan.baidu.com/s/1TMZRrMzf6EgaZ5wipp0_fg?pwd=qbrc"/>
-    <hyperlink ref="B580" r:id="rId1379" display="https://pan.baidu.com/s/1B9X-zuokxD1IfQ3FNerAHw?pwd=ytmu"/>
-    <hyperlink ref="B594" r:id="rId1380" display="https://pan.baidu.com/s/1zyemwdtKduBqwOy_wJujSA?pwd=enyd"/>
-    <hyperlink ref="B596" r:id="rId1381" display="https://pan.baidu.com/s/1eahDhm7ByoUxbJ3GvahqtA?pwd=np7u"/>
-    <hyperlink ref="B597" r:id="rId1382" display="https://pan.baidu.com/s/14LmJ41NFGy9LIjQLVsmYtQ?pwd=85zj"/>
-    <hyperlink ref="B598" r:id="rId1383" display="https://pan.baidu.com/s/1ORe1FHuRwYzpdVYduise1A?pwd=i7ss"/>
-    <hyperlink ref="B599" r:id="rId1384" display="https://pan.baidu.com/s/1ttWO1VJ1kVmIbqMf9b7p2A?pwd=idm7"/>
-    <hyperlink ref="B743" r:id="rId1385" display="https://pan.baidu.com/s/12q2MmQq5eNp1wn9yoWbwfA?pwd=jpqi"/>
-    <hyperlink ref="B746" r:id="rId1386" display="https://pan.baidu.com/s/1pqYrzczLEnfA--oVAzzVpA?pwd=kfjs"/>
-    <hyperlink ref="B750" r:id="rId1387" display="https://pan.baidu.com/s/1JVLgavz4YjL8R3znepRJeQ?pwd=xy6q"/>
-    <hyperlink ref="B752" r:id="rId1388" display="https://pan.baidu.com/s/1AZ1Ggu9F_EufYnxiCcs6ew?pwd=jp32"/>
-    <hyperlink ref="B756" r:id="rId1389" display="https://pan.baidu.com/s/1ngEPWXLD71I1ckgs87nyqA?pwd=jncf"/>
-    <hyperlink ref="B787" r:id="rId1390" display="https://pan.baidu.com/s/1vX3P6MHIlxgbuLB1R8yFvg?pwd=vcw6"/>
-    <hyperlink ref="B778" r:id="rId1391" display="https://pan.baidu.com/s/1h1_TFXqi_L1wqggaNiy5Ww?pwd=2jgh"/>
-    <hyperlink ref="C831" r:id="rId1392" display="https://pan.quark.cn/s/026cf5006542"/>
-    <hyperlink ref="B831" r:id="rId1393" display="https://pan.baidu.com/s/15UTEFp8ulEK7-6LE9vKOnQ?pwd=rybw"/>
-    <hyperlink ref="C832" r:id="rId1394" display="https://pan.quark.cn/s/237e7c8eb98b"/>
-    <hyperlink ref="B832" r:id="rId1395" display="https://pan.baidu.com/s/1od8n4w7n7B_75ufHV1ZDhQ?pwd=2v6c"/>
-    <hyperlink ref="C833" r:id="rId1396" display="https://pan.quark.cn/s/240de980849f"/>
-    <hyperlink ref="B833" r:id="rId1397" display="https://pan.baidu.com/s/1zy1EQMUoXYpYevOt-Pyhew?pwd=bp6t"/>
-    <hyperlink ref="C834" r:id="rId1398" display="https://pan.quark.cn/s/023e61be420c"/>
-    <hyperlink ref="B780" r:id="rId1399" display="https://pan.baidu.com/s/1CWFoaIMxlBE8ex5ZJuTYKw?pwd=1tbw"/>
-    <hyperlink ref="C781" r:id="rId1400" display="https://pan.quark.cn/s/5f6f5e34c510"/>
-    <hyperlink ref="B781" r:id="rId1401" display="https://pan.baidu.com/s/1OkdckYsgsyikZLK1HmP-9w?pwd=xbed"/>
-    <hyperlink ref="B783" r:id="rId1402" display="https://pan.baidu.com/s/1qEmStMEF0VEhBsZkQV0I7Q?pwd=qp8w"/>
-    <hyperlink ref="B784" r:id="rId1403" display="https://pan.baidu.com/s/1BmKbJ7APlf4gzAJkE4oOEg?pwd=d5r6"/>
-    <hyperlink ref="B785" r:id="rId1404" display="https://pan.baidu.com/s/1gt3Hvqh3bz_APX3X_L0HKg?pwd=vjmf"/>
-    <hyperlink ref="B786" r:id="rId1405" display="https://pan.baidu.com/s/1LG3TBocbOjpUwjNDTGSb5Q?pwd=3jc4"/>
-    <hyperlink ref="C835" r:id="rId1406" display="https://pan.quark.cn/s/58d4e776a1c6"/>
-    <hyperlink ref="B103" r:id="rId1407" display="https://pan.baidu.com/s/12m35w5e0f3JePryoPLcZKg?pwd=699j"/>
-    <hyperlink ref="B104" r:id="rId1408" display="https://pan.baidu.com/s/1vfyJLEJxcQHyFVm41yRB1w?pwd=pnqw"/>
-    <hyperlink ref="C104" r:id="rId1409" display="https://pan.quark.cn/s/56fc52aaac98"/>
-    <hyperlink ref="B105" r:id="rId1410" display="https://pan.baidu.com/s/16EWfYzfvfFvU1wvwx0ZiyA?pwd=auhn"/>
-    <hyperlink ref="C105" r:id="rId1411" display="https://pan.quark.cn/s/c2bb8ce6863f"/>
-    <hyperlink ref="C667" r:id="rId1412" display="https://pan.quark.cn/s/c2913fbaa662"/>
-    <hyperlink ref="C666" r:id="rId1413" display="https://pan.quark.cn/s/613a9f4368e8"/>
-    <hyperlink ref="C663" r:id="rId1414" display="https://pan.quark.cn/s/9b7df2fb09c6"/>
-    <hyperlink ref="C664" r:id="rId1415" display="https://pan.quark.cn/s/651d780cd373"/>
-    <hyperlink ref="C665" r:id="rId1416" display="https://pan.quark.cn/s/991084743a25"/>
-    <hyperlink ref="B664" r:id="rId1417" display="https://pan.baidu.com/s/1yEKf6-vAQJYxYEDsVilIcQ?pwd=x343"/>
-    <hyperlink ref="B665" r:id="rId1418" display="https://pan.baidu.com/s/1AbMYHjU5-wRdF7m5NKWzhg?pwd=ykzf"/>
-    <hyperlink ref="C662" r:id="rId1419" display="https://pan.quark.cn/s/1b6e88d0eeea"/>
-    <hyperlink ref="C661" r:id="rId1420" display="https://pan.quark.cn/s/aa75b0814128"/>
-    <hyperlink ref="C659" r:id="rId1421" display="https://pan.quark.cn/s/8141b3447968"/>
-    <hyperlink ref="C658" r:id="rId1422" display="https://pan.quark.cn/s/e75b500eb152"/>
-    <hyperlink ref="C654" r:id="rId1423" display="https://pan.quark.cn/s/8e6ff833a967"/>
-    <hyperlink ref="C653" r:id="rId1424" display="https://pan.quark.cn/s/4e8069f9099f"/>
-    <hyperlink ref="C648" r:id="rId1425" display="https://pan.quark.cn/s/e3003a658732"/>
-    <hyperlink ref="C649" r:id="rId1426" display="https://pan.quark.cn/s/16b86a7dbada"/>
-    <hyperlink ref="C650" r:id="rId1427" display="https://pan.quark.cn/s/6401a0f9d614"/>
-    <hyperlink ref="C631" r:id="rId1428" display="https://pan.quark.cn/s/010a7ca30cd4"/>
-    <hyperlink ref="C588" r:id="rId1429" display="https://pan.quark.cn/s/a9f748fb4216"/>
-    <hyperlink ref="B588" r:id="rId1430" display="https://pan.baidu.com/s/1TWjbaEt0et3UXRvnZs-yQA?pwd=ijn4"/>
-    <hyperlink ref="B589" r:id="rId1431" display="https://pan.baidu.com/s/1f3XP7tF1CfCEQxPZ4MahrQ?pwd=raxe"/>
-    <hyperlink ref="C589" r:id="rId1432" display="https://pan.quark.cn/s/524b6a55ceef"/>
-    <hyperlink ref="B600" r:id="rId1433" display="https://pan.baidu.com/s/1PAr1mfTkVvaB68VANWB-LA?pwd=ryxp"/>
-    <hyperlink ref="B602" r:id="rId1434" display="https://pan.baidu.com/s/1wYD_Q6hUiczOWKOTq55Gtw?pwd=fp7k"/>
-    <hyperlink ref="B603" r:id="rId1435" display="https://pan.baidu.com/s/1aIbX5t-hZklRuRAMgt_rBw?pwd=3f6n"/>
-    <hyperlink ref="B605" r:id="rId1436" display="https://pan.baidu.com/s/10eEkjzMEJ_FOZ4loTNyGQw?pwd=7jwc"/>
-    <hyperlink ref="B606" r:id="rId1437" display="https://pan.baidu.com/s/13KmYglVQP1A7dUewxopJdw?pwd=17xu"/>
-    <hyperlink ref="B607" r:id="rId1438" display="https://pan.baidu.com/s/1Nmf6l635dTL5LZCWgxEw9g?pwd=7pea"/>
-    <hyperlink ref="B609" r:id="rId1439" display="https://pan.baidu.com/s/1N2vHOo0gXYUXZDLokcdKtg?pwd=a842"/>
-    <hyperlink ref="B610" r:id="rId1440" display="https://pan.baidu.com/s/1o6PtbZ0MHrBCi0pw8paEsg?pwd=gpfb"/>
-    <hyperlink ref="C623" r:id="rId1441" display="https://pan.quark.cn/s/16109c09784a"/>
-    <hyperlink ref="C690" r:id="rId1442" display="https://pan.quark.cn/s/732b14324dcf"/>
-    <hyperlink ref="C737" r:id="rId1443" display="https://pan.quark.cn/s/215ae4b4bc4f"/>
-    <hyperlink ref="B739" r:id="rId1444" display="https://pan.baidu.com/s/1El87kbO6NDZ0VccD_yFCiQ?pwd=3ns7"/>
-    <hyperlink ref="B741" r:id="rId1445" display="https://pan.baidu.com/s/1IZJy0zPbUNQp8a3hGfXy7w?pwd=8kd8"/>
-    <hyperlink ref="B742" r:id="rId1446" display="https://pan.baidu.com/s/1_sDicQk1fZFEAMJk_Iucbw?pwd=7zqq"/>
-    <hyperlink ref="B744" r:id="rId1447" display="https://pan.baidu.com/s/1P1HXS6QFuxqEb_Kk2EUZOw?pwd=texm"/>
-    <hyperlink ref="B745" r:id="rId1448" display="https://pan.baidu.com/s/1DrUyrehLYT0Q9l4Vlz_khQ?pwd=qv3d"/>
-    <hyperlink ref="B749" r:id="rId1449" display="https://pan.baidu.com/s/1Eqnw_7JBuURf5uH-BClSsA?pwd=fg2c"/>
-    <hyperlink ref="B751" r:id="rId1450" display="https://pan.baidu.com/s/1L2D_oG7dsW9hT0A2i9HV6A?pwd=hjvk"/>
-    <hyperlink ref="B788" r:id="rId1451" display="https://pan.baidu.com/s/1B2iOA5mZMxXV0sy0zICj2Q?pwd=qivn"/>
-    <hyperlink ref="B789" r:id="rId1452" display="https://pan.baidu.com/s/1jHa5Hd7GdDo4L31iNHBhuw?pwd=cym8"/>
-    <hyperlink ref="B791" r:id="rId1453" display="https://pan.baidu.com/s/1sjmcJg-0Zldm3j8UiM-P3w?pwd=53hs"/>
-    <hyperlink ref="B792" r:id="rId1454" display="https://pan.baidu.com/s/1cZlCXZK2GB5LJtnLePlx3g?pwd=5x38"/>
-    <hyperlink ref="B795" r:id="rId1455" display="https://pan.baidu.com/s/17qob1xttGUv0rRlcoE6CBg?pwd=xnag"/>
-    <hyperlink ref="B796" r:id="rId1456" display="https://pan.baidu.com/s/152YAQo2_46QTKIKbN9pptQ?pwd=gbiu"/>
-    <hyperlink ref="B797" r:id="rId1457" display="https://pan.baidu.com/s/1ORzb0MMhrU-gf5d7FJZnCQ?pwd=4b3e"/>
-    <hyperlink ref="B800" r:id="rId1458" display="https://pan.baidu.com/s/1e1NIyeaZgGS_VJlO0ttnsw?pwd=xyfb"/>
-    <hyperlink ref="C805" r:id="rId1459" display="https://pan.quark.cn/s/be510cc81872"/>
-    <hyperlink ref="C806" r:id="rId1460" display="https://pan.quark.cn/s/b76c2cdef9ee"/>
-    <hyperlink ref="C836" r:id="rId1461" display="https://pan.quark.cn/s/5afa600ff1c7"/>
-    <hyperlink ref="C837" r:id="rId1462" display="https://pan.quark.cn/s/e690f4661929"/>
-    <hyperlink ref="B836" r:id="rId1463" display="https://pan.baidu.com/s/14fM-0XoHVneRnuU9umrNgA?pwd=r7gw"/>
-    <hyperlink ref="B837" r:id="rId1464" display="https://pan.baidu.com/s/11w3ikgDDnexxmv1eAFHeWw?pwd=sfkq"/>
-    <hyperlink ref="C491" r:id="rId1465" display="https://pan.quark.cn/s/e8f1896add25"/>
-    <hyperlink ref="B491" r:id="rId1466" display="https://pan.baidu.com/s/1ccPDxovl9W94k9lei23eTA?pwd=mwgz"/>
-    <hyperlink ref="B490" r:id="rId1467" display="https://pan.baidu.com/s/1CFi_yMqSa3IpHv6-5QtkIg?pwd=5hvb"/>
-    <hyperlink ref="C782" r:id="rId1468" display="https://pan.quark.cn/s/c687f258e4ac"/>
-    <hyperlink ref="B782" r:id="rId1469" display="https://pan.baidu.com/s/1DyjsuWqPTF2pC-PcHse9dA?pwd=jb38"/>
-    <hyperlink ref="C838" r:id="rId1470" display="https://pan.quark.cn/s/e57c6c84bbeb"/>
-    <hyperlink ref="B838" r:id="rId1471" display="https://pan.baidu.com/s/1XyhkaKjS1gvopJT3BAx5Zw?pwd=k7cw"/>
-    <hyperlink ref="C839" r:id="rId1472" display="https://pan.quark.cn/s/af689875fec7"/>
-    <hyperlink ref="C840" r:id="rId1473" display="https://pan.quark.cn/s/4362343b8fe2"/>
-    <hyperlink ref="B840" r:id="rId1474" display="https://pan.baidu.com/s/1uzvKeJrLh_MQ39RyWdfj4A?pwd=bzuj"/>
-    <hyperlink ref="B841" r:id="rId1475" display="https://pan.baidu.com/s/1Xh_fNoHVUrPk3IN-jwosuA?pwd=i2vk"/>
-    <hyperlink ref="C841" r:id="rId1476" display="https://pan.quark.cn/s/43cbca426a73"/>
-    <hyperlink ref="B842" r:id="rId1477" display="https://pan.baidu.com/s/1YwgbESnSaTUrQYN2RJygsQ?pwd=twcf"/>
-    <hyperlink ref="C842" r:id="rId1478" display="https://pan.quark.cn/s/796c904d620b"/>
-    <hyperlink ref="C843" r:id="rId1479" display="https://pan.quark.cn/s/5daf78eba8ca"/>
-    <hyperlink ref="B843" r:id="rId1480" display="https://pan.baidu.com/s/1jbG8dEM_R59eOThSATWunw?pwd=7riw"/>
-    <hyperlink ref="C844" r:id="rId1481" display="https://pan.quark.cn/s/e0c392ee8fb5"/>
-    <hyperlink ref="B844" r:id="rId1482" display="https://pan.baidu.com/s/1KyVmxeyHvkbHOMlfTI7hWA?pwd=frpe"/>
-    <hyperlink ref="B845" r:id="rId1483" display="https://pan.baidu.com/s/12YnUd6JJsJ4RJvWXfmG-RQ?pwd=vvqk"/>
-    <hyperlink ref="B846" r:id="rId1484" display="https://pan.baidu.com/s/1vL8WQddG5NpWh5IzM53G5w?pwd=3hc6"/>
-    <hyperlink ref="C847" r:id="rId1485" display="https://pan.quark.cn/s/b487e230ce30"/>
-    <hyperlink ref="B847" r:id="rId1486" display="https://pan.baidu.com/s/1ytIXxnjrO0_RBpjIjd5aBw?pwd=i63k"/>
-    <hyperlink ref="C848" r:id="rId1487" display="https://pan.quark.cn/s/be2849775ec1"/>
-    <hyperlink ref="B848" r:id="rId1488" display="https://pan.baidu.com/s/1d2yTuxsxphwrp8kwRiom1A?pwd=mr3d"/>
-    <hyperlink ref="B849" r:id="rId1489" display="https://pan.baidu.com/s/1WhqZ4Q5pDYqnWoTmWrqP6Q?pwd=h41g"/>
-    <hyperlink ref="B850" r:id="rId1490" display="https://pan.baidu.com/s/1ijvgnaI4q8dO9rK91KDsng?pwd=u5q2"/>
-    <hyperlink ref="B851" r:id="rId1491" display="https://pan.baidu.com/s/13vjFKm443odHCLScivNVLg?pwd=vfm8"/>
-    <hyperlink ref="B852" r:id="rId1492" display="https://pan.baidu.com/s/1n_5JCEUErY4KPzChcgexPg?pwd=e9v8"/>
-    <hyperlink ref="B853" r:id="rId1493" display="https://pan.baidu.com/s/1Pe0VIR1aSnXiIWxgXQ7aeA?pwd=38ik"/>
-    <hyperlink ref="C853" r:id="rId1494" display="https://pan.quark.cn/s/0021c52c719d"/>
-    <hyperlink ref="C203" r:id="rId1495" display="https://pan.quark.cn/s/56f83e2fb948"/>
-    <hyperlink ref="B203" r:id="rId1496" display="https://pan.baidu.com/s/16spbN2ExcHsHIw-xp5n3uQ?pwd=s2ex"/>
-    <hyperlink ref="C854" r:id="rId1497" display="https://pan.quark.cn/s/5bcae07ff462"/>
-    <hyperlink ref="B854" r:id="rId1498" display="https://pan.baidu.com/s/1DAcBZO3KjWBplxO6tZuLBw?pwd=5b9b"/>
-    <hyperlink ref="C855" r:id="rId1499" display="https://pan.quark.cn/s/18000176b065"/>
-    <hyperlink ref="B855" r:id="rId1500" display="https://pan.baidu.com/s/1C_kD8vET9dA0g4QEIqwzDw?pwd=rw2e"/>
-    <hyperlink ref="C856" r:id="rId1501" display="https://pan.quark.cn/s/3f1e9b016813"/>
-    <hyperlink ref="B856" r:id="rId1502" display="https://pan.baidu.com/s/1csLBO-cUL1BtYy5tDQQ6Yw?pwd=dieu"/>
-    <hyperlink ref="C857" r:id="rId1503" display="https://pan.quark.cn/s/37f1bb0f5ad8"/>
-    <hyperlink ref="B857" r:id="rId1504" display="https://pan.baidu.com/s/1ilS4iPwOJuMmUgGWX0ndQA?pwd=y6rg"/>
-    <hyperlink ref="C858" r:id="rId1505" display="https://pan.quark.cn/s/a5fb3ca10c00"/>
-    <hyperlink ref="B858" r:id="rId1506" display="https://pan.baidu.com/s/1MBrPyxuqVv8edn5T102Uxg?pwd=jr33"/>
-    <hyperlink ref="B859" r:id="rId1507" display="https://pan.baidu.com/s/1E_4I5QAcDeK3Us6FBqYp-A?pwd=38kv"/>
-    <hyperlink ref="C859" r:id="rId1508" display="https://pan.quark.cn/s/4668804bbc8f"/>
-    <hyperlink ref="C860" r:id="rId1509" display="https://pan.quark.cn/s/23fdd8776863"/>
-    <hyperlink ref="C861" r:id="rId1510" display="https://pan.quark.cn/s/133264c6497c"/>
-    <hyperlink ref="B860" r:id="rId1511" display="https://pan.baidu.com/s/1ZDvX2xeWF0MCTQF7r7IN8A?pwd=y8gg"/>
-    <hyperlink ref="B862" r:id="rId1512" display="https://pan.baidu.com/s/1gF7FdXHfN4InKPpjRnZDGQ?pwd=zfmp"/>
-    <hyperlink ref="C862" r:id="rId1513" display="https://pan.quark.cn/s/3d8054dfe211"/>
-    <hyperlink ref="C863" r:id="rId1514" display="https://pan.quark.cn/s/92f0db05fab9"/>
-    <hyperlink ref="B863" r:id="rId1515" display="https://pan.baidu.com/s/1rLxb4D2GjZ1K-3RnuzVm6A?pwd=c9yc"/>
-    <hyperlink ref="C864" r:id="rId1516" display="https://pan.quark.cn/s/ca40daf16c92"/>
-    <hyperlink ref="B864" r:id="rId1517" display="https://pan.baidu.com/s/1M_ngXBjMv1FPWFbRHy7Utg?pwd=s363"/>
-    <hyperlink ref="C865" r:id="rId1518" display="https://pan.quark.cn/s/100b5d1f7f00"/>
-    <hyperlink ref="C866" r:id="rId1519" display="https://pan.quark.cn/s/fc48d5c22a27"/>
-    <hyperlink ref="B866" r:id="rId1520" display="https://pan.baidu.com/s/1oDptTd7ed5LWyfaaY1WjBw?pwd=3rim"/>
-    <hyperlink ref="B865" r:id="rId1521" display="https://pan.baidu.com/s/14O-EcQGch4-T24r1skX5Rw?pwd=vway"/>
-    <hyperlink ref="C867" r:id="rId1522" display="https://pan.quark.cn/s/2d52576120f7"/>
-    <hyperlink ref="B867" r:id="rId1523" display="https://pan.baidu.com/s/1KMNhKJDfE1ke8UH2xWjx2g?pwd=im2j"/>
-    <hyperlink ref="C868" r:id="rId1524" display="https://pan.quark.cn/s/3983e390c63c"/>
-    <hyperlink ref="B868" r:id="rId1525" display="https://pan.baidu.com/s/1dJAkcIR1AOb-tE1cu19Qew?pwd=e5k6"/>
-    <hyperlink ref="C869" r:id="rId1526" display="https://pan.quark.cn/s/c27de90dc490"/>
-    <hyperlink ref="B869" r:id="rId1527" display="https://pan.baidu.com/s/16l7fIH2S358M1Y9s2RAtaQ?pwd=qimd"/>
-    <hyperlink ref="C773" r:id="rId1528" display="https://pan.quark.cn/s/6ddb5dd98b32"/>
-    <hyperlink ref="C774" r:id="rId1529" display="https://pan.quark.cn/s/c2ae13035548"/>
-    <hyperlink ref="C870" r:id="rId1530" display="https://pan.quark.cn/s/4a55de71e80f"/>
-    <hyperlink ref="C871" r:id="rId1531" display="https://pan.quark.cn/s/ad79e7f2524e"/>
-    <hyperlink ref="B871" r:id="rId1532" display="https://pan.baidu.com/s/1cYKX_QrhYDgjZslv7dqb4g?pwd=xy1v"/>
-    <hyperlink ref="C872" r:id="rId1533" display="https://pan.quark.cn/s/90d5936c76ae"/>
-    <hyperlink ref="B872" r:id="rId1534" display="https://pan.baidu.com/s/1N6k3gMc0we7jWcwKZ8RR2w?pwd=45a3"/>
-    <hyperlink ref="B873" r:id="rId1535" display="https://pan.baidu.com/s/1s_YQJssET7GD1v6DvhaJ3Q?pwd=rmcp"/>
-    <hyperlink ref="C873" r:id="rId1536" display="https://pan.quark.cn/s/60d6d19df027"/>
-    <hyperlink ref="C874" r:id="rId1537" display="https://pan.quark.cn/s/97f9f788b597"/>
-    <hyperlink ref="B874" r:id="rId1538" display="https://pan.baidu.com/s/1nvL_Bi5Z4flkmJhy6IKmXQ?pwd=7d3q"/>
-    <hyperlink ref="C875" r:id="rId1539" display="https://pan.quark.cn/s/5b9717acc77d"/>
-    <hyperlink ref="C876" r:id="rId1540" display="https://pan.quark.cn/s/30bb6bea3d20"/>
-    <hyperlink ref="B876" r:id="rId1541" display="https://pan.baidu.com/s/1Qgp29oOmmnWvsuZAAhbxLw?pwd=ezwk"/>
-    <hyperlink ref="C877" r:id="rId1542" display="https://pan.quark.cn/s/33220da42f54"/>
-    <hyperlink ref="B878" r:id="rId1543" display="https://pan.baidu.com/s/1T82Durkw-3ieVP0zDFxlaA?pwd=k3tb"/>
-    <hyperlink ref="C878" r:id="rId1544" display="https://pan.quark.cn/s/6fe838a3f2b2"/>
-    <hyperlink ref="C879" r:id="rId1545" display="https://pan.quark.cn/s/caf16b52b5df"/>
-    <hyperlink ref="B879" r:id="rId1546" display="https://pan.baidu.com/s/1kiSVjl9cOGOlIX25w2Zexg?pwd=d67v"/>
-    <hyperlink ref="C880" r:id="rId1547" display="https://pan.quark.cn/s/f0bd07dbc7ef"/>
-    <hyperlink ref="B880" r:id="rId1548" display="https://pan.baidu.com/s/1cP5w5BrdIWbgG9NpMJtK6g?pwd=e4z9"/>
-    <hyperlink ref="C881" r:id="rId1549" display="https://pan.quark.cn/s/b3bf3ced7598"/>
-    <hyperlink ref="B881" r:id="rId1550" display="https://pan.baidu.com/s/19ux3z6lNMQepyj9hP-4zHg?pwd=465m"/>
-    <hyperlink ref="C882" r:id="rId1551" display="https://pan.quark.cn/s/eaf7f0b4d81b"/>
-    <hyperlink ref="C883" r:id="rId1552" display="https://pan.quark.cn/s/1f89f28565e0"/>
-    <hyperlink ref="B883" r:id="rId1553" display="https://pan.baidu.com/s/1lqDjVuSwbfjym6u5f538fA?pwd=cqu7"/>
-    <hyperlink ref="B882" r:id="rId1554" display="https://pan.baidu.com/s/1IsqGXavRnvnE3niz1ud14g?pwd=p2c3"/>
-    <hyperlink ref="B884" r:id="rId1555" display="https://pan.baidu.com/s/1lXk3kOYeBihgeBmyQ1q5ww?pwd=tu6t"/>
-    <hyperlink ref="C884" r:id="rId1556" display="https://pan.quark.cn/s/ae49f993d60f"/>
-    <hyperlink ref="C885" r:id="rId1557" display="https://pan.quark.cn/s/8d781ccdfc2a"/>
-    <hyperlink ref="B885" r:id="rId1558" display="https://pan.baidu.com/s/1fb0gfzkKFfwPk-DPCiqXPw?pwd=sfny"/>
-    <hyperlink ref="C886" r:id="rId1559" display="https://pan.quark.cn/s/46a17bc4fad2"/>
-    <hyperlink ref="B886" r:id="rId1560" display="https://pan.baidu.com/s/1xR3jQRxQeYY9SSGLfgB5OA?pwd=ginq"/>
-    <hyperlink ref="B887" r:id="rId1561" display="https://pan.baidu.com/s/1PoR8OLNLj0FrD-zMSrXcyQ?pwd=v8se"/>
-    <hyperlink ref="C888" r:id="rId1562" display="https://pan.quark.cn/s/c9b3e0268840"/>
-    <hyperlink ref="B888" r:id="rId1563" display="https://pan.baidu.com/s/11VrbNzhn5MiuI8Vf8C_XHg?pwd=2n9d"/>
-    <hyperlink ref="C889" r:id="rId1564" display="https://pan.quark.cn/s/fd6a3b578b6b"/>
-    <hyperlink ref="B889" r:id="rId1565" display="https://pan.baidu.com/s/1YKN0HLtpGZ07dK41Eqflkw?pwd=r5n3"/>
-    <hyperlink ref="C890" r:id="rId1566" display="https://pan.quark.cn/s/fbae3f3b8047"/>
-    <hyperlink ref="B890" r:id="rId1567" display="https://pan.baidu.com/s/1axepzUGMzdJajGX-srMkxA?pwd=aap2"/>
-    <hyperlink ref="C891" r:id="rId1568" display="https://pan.quark.cn/s/0818a8ea8dd5"/>
-    <hyperlink ref="B891" r:id="rId1569" display="https://pan.baidu.com/s/1Q7M8hNlnGV_qOifXhhW7Pg?pwd=iwdw"/>
-    <hyperlink ref="C892" r:id="rId1570" display="https://pan.quark.cn/s/1faf2eec54dc"/>
-    <hyperlink ref="B892" r:id="rId1571" display="https://pan.baidu.com/s/1mkCPty2vRFFZP_MVPSzSOA?pwd=cnhb"/>
-    <hyperlink ref="B893" r:id="rId1572" display="https://pan.baidu.com/s/10u7plXa2bbptb-_nLIHBvA?pwd=v4mc"/>
-    <hyperlink ref="C893" r:id="rId1573" display="https://pan.quark.cn/s/6b6d5241548e"/>
-    <hyperlink ref="C592" r:id="rId1574" display="https://pan.quark.cn/s/5bf233f18b8f"/>
-    <hyperlink ref="B592" r:id="rId1575" display="https://pan.baidu.com/s/1gZ3-sxF9xgBQKxgfBFH9Pw?pwd=m7in"/>
-    <hyperlink ref="C39" r:id="rId1576" display="https://pan.quark.cn/s/3599ec17b900"/>
-    <hyperlink ref="B39" r:id="rId1577" display="https://pan.baidu.com/s/1MrCgLO8lnZmGLZLNO2yP2g?pwd=c61s"/>
-    <hyperlink ref="C895" r:id="rId1578" display="https://pan.quark.cn/s/1222a3fd3e32"/>
-    <hyperlink ref="B895" r:id="rId1579" display="https://pan.baidu.com/s/1cCD-k6IAntPER4BE-8FSZw?pwd=kqfa"/>
-    <hyperlink ref="C896" r:id="rId1580" display="https://pan.quark.cn/s/8def8f86a750"/>
-    <hyperlink ref="B896" r:id="rId1581" display="https://pan.baidu.com/s/1708QqdyL4T0Wf1DAHoREeA?pwd=wq6k"/>
-    <hyperlink ref="C897" r:id="rId1582" display="https://pan.quark.cn/s/dea9db79a78f"/>
-    <hyperlink ref="B897" r:id="rId1583" display="https://pan.baidu.com/s/1LbgiBSHpUclLspSh65wR6Q?pwd=mjg6"/>
-    <hyperlink ref="C898" r:id="rId1584" display="https://pan.quark.cn/s/6ce7e6e5dced"/>
-    <hyperlink ref="B898" r:id="rId1585" display="https://pan.baidu.com/s/1LsHvIZ1ForZ7Xbx7zbZcAA?pwd=qvjy"/>
-    <hyperlink ref="C899" r:id="rId1586" display="https://pan.quark.cn/s/465aa6b75d41"/>
-    <hyperlink ref="B899" r:id="rId1587" display="https://pan.baidu.com/s/1L7eWuchWIq7cpA1k107QHQ?pwd=wnrk"/>
-    <hyperlink ref="C900" r:id="rId1588" display="https://pan.quark.cn/s/06b0cd8fcac6"/>
-    <hyperlink ref="B900" r:id="rId1589" display="https://pan.baidu.com/s/152K2YjQL6JcNjRzCYPB1dg?pwd=i6r4"/>
-    <hyperlink ref="C901" r:id="rId1590" display="https://pan.quark.cn/s/adc708081f45"/>
-    <hyperlink ref="B901" r:id="rId1591" display="https://pan.baidu.com/s/1YHnoHyfJbIXCj1FvQLAt6w?pwd=spq5"/>
-    <hyperlink ref="C902" r:id="rId1592" display="https://pan.quark.cn/s/8ec854c215e2"/>
-    <hyperlink ref="B902" r:id="rId1593" display="https://pan.baidu.com/s/1S0-PYU13QXDHIbUYNvDRrQ?pwd=9ufq"/>
-    <hyperlink ref="C903" r:id="rId1594" display="https://pan.quark.cn/s/57ff7f3313d8"/>
-    <hyperlink ref="B903" r:id="rId1595" display="https://pan.baidu.com/s/1RcQ8RniUy5ldXWDFTjgfOA?pwd=z8b3"/>
-    <hyperlink ref="C904" r:id="rId1596" display="https://pan.quark.cn/s/c3f59d92df80"/>
-    <hyperlink ref="C905" r:id="rId1597" display="https://pan.quark.cn/s/77e4aed3f4df"/>
-    <hyperlink ref="C906" r:id="rId1598" display="https://pan.quark.cn/s/665f20498f55"/>
-    <hyperlink ref="B906" r:id="rId1599" display="https://pan.baidu.com/s/1nFF_HfI3kyjxvEATzvJj_g?pwd=fsse"/>
-    <hyperlink ref="B905" r:id="rId1600" display="https://pan.baidu.com/s/1WNbz4iuOeBjMFmsvovxBNg?pwd=m9st"/>
-    <hyperlink ref="B904" r:id="rId1601" display="https://pan.baidu.com/s/1XelQB3lZQvcjdlBo8CGqkA?pwd=euqg"/>
-    <hyperlink ref="C907" r:id="rId1602" display="https://pan.quark.cn/s/f708407905df"/>
-    <hyperlink ref="B907" r:id="rId1603" display="https://pan.baidu.com/s/1xYysfJDk9TBAPfYEVoFm_g?pwd=yufn"/>
-    <hyperlink ref="C908" r:id="rId1604" display="https://pan.quark.cn/s/83256db78c88"/>
-    <hyperlink ref="B908" r:id="rId1605" display="https://pan.baidu.com/s/1gstgavY7keCbDHDciZI2rQ?pwd=mgmv"/>
-    <hyperlink ref="C909" r:id="rId1606" display="https://pan.quark.cn/s/55a4fdb6997e"/>
-    <hyperlink ref="B909" r:id="rId1607" display="https://pan.baidu.com/s/1yEHx_TAWpW2EgLLsCHDTqw?pwd=awtk"/>
-    <hyperlink ref="C910" r:id="rId1608" display="https://pan.quark.cn/s/938f87a35065"/>
-    <hyperlink ref="B910" r:id="rId1609" display="https://pan.baidu.com/s/1jGfIIOEgTuOK7tE9nG12zA?pwd=3eq6"/>
-    <hyperlink ref="B911" r:id="rId1610" display="https://pan.baidu.com/s/1sr4PD_cWaI8ISlXsBxAuow?pwd=syxp"/>
-    <hyperlink ref="C911" r:id="rId1611" display="https://pan.quark.cn/s/8381a32ca34b"/>
-    <hyperlink ref="B912" r:id="rId1612" display="https://pan.baidu.com/s/15N-Ymz1rIuIOxBu8hwN7IQ?pwd=cb2t"/>
-    <hyperlink ref="B913" r:id="rId1613" display="https://pan.baidu.com/s/1YwpP1WIpNDizY6dqfM4lWw?pwd=t8k6"/>
-    <hyperlink ref="B914" r:id="rId1614" display="https://pan.baidu.com/s/1ZDNKAXYbwsdICD0ORM-5RA?pwd=paks"/>
-    <hyperlink ref="C915" r:id="rId1615" display="https://pan.quark.cn/s/4e7551ec28cd"/>
-    <hyperlink ref="B915" r:id="rId1616" display="https://pan.baidu.com/s/1AaKuhbbeVd7uEoEf4ywxTg?pwd=cukz"/>
-    <hyperlink ref="C916" r:id="rId1617" display="https://pan.quark.cn/s/f9721b829519"/>
-    <hyperlink ref="B916" r:id="rId1618" display="https://pan.baidu.com/s/11KQoKIIFWY63ba2LhaAlOw?pwd=ecg8"/>
-    <hyperlink ref="B917" r:id="rId1619" display="https://pan.baidu.com/s/10YY7L773a9_ksfQOH5hiXw?pwd=58m5"/>
-    <hyperlink ref="C917" r:id="rId1620" display="https://pan.quark.cn/s/33675ac006d7"/>
-    <hyperlink ref="C918" r:id="rId1621" display="https://pan.quark.cn/s/fc551ca78e4f"/>
-    <hyperlink ref="B918" r:id="rId1622" display="https://pan.baidu.com/s/1ArYr4p-6HCezKh-F6VyVRQ?pwd=ycz7"/>
-    <hyperlink ref="C919" r:id="rId1623" display="https://pan.quark.cn/s/aa3ba48bb2ca"/>
-    <hyperlink ref="C920" r:id="rId1624" display="https://pan.quark.cn/s/d21d55f9e695"/>
-    <hyperlink ref="B920" r:id="rId1625" display="https://pan.baidu.com/s/1p69XycAVXy76IywT8eoQLA?pwd=2pnx"/>
-    <hyperlink ref="C921" r:id="rId1626" display="https://pan.quark.cn/s/3bfbe66a6f2f"/>
-    <hyperlink ref="B921" r:id="rId1627" display="https://pan.baidu.com/s/1V866F-M6iP36Fad5oQJ40w?pwd=9f6b"/>
-    <hyperlink ref="B922" r:id="rId1628" display="https://pan.baidu.com/s/1eQnASfTrpfiMjsacF6b6sA?pwd=9xn2"/>
-    <hyperlink ref="C922" r:id="rId1629" display="https://pan.quark.cn/s/a36bcb8a65e8"/>
-    <hyperlink ref="B923" r:id="rId1630" display="https://pan.baidu.com/s/1pMT1wVMhT2pkmfs2RinhNA?pwd=3hsn"/>
-    <hyperlink ref="C923" r:id="rId1631" display="https://pan.quark.cn/s/be6043c7cc9f"/>
-    <hyperlink ref="B924" r:id="rId1632" display="https://pan.baidu.com/s/1b2s6KqiHGQAPPxPccCF-fg?pwd=yaw7"/>
-    <hyperlink ref="C924" r:id="rId1633" display="https://pan.quark.cn/s/ddbaf45b192d"/>
-    <hyperlink ref="C925" r:id="rId1634" display="https://pan.quark.cn/s/3bfa22449438"/>
-    <hyperlink ref="C926" r:id="rId1635" display="https://pan.quark.cn/s/d66772de66da"/>
-    <hyperlink ref="B925" r:id="rId1636" display="https://pan.baidu.com/s/1W3wFs59w1Hm4Z3my2P6uuw?pwd=pinw"/>
-    <hyperlink ref="B926" r:id="rId1637" display="https://pan.baidu.com/s/1vozNzvdm5PdqP_ao51R-dA?pwd=68d3"/>
-    <hyperlink ref="C927" r:id="rId1638" display="https://pan.quark.cn/s/5a54be7ae72d"/>
-    <hyperlink ref="B927" r:id="rId1639" display="https://pan.baidu.com/s/126uwO3wt1h_iJx0hH1bM7Q?pwd=76rq"/>
-    <hyperlink ref="B928" r:id="rId1640" display="https://pan.baidu.com/s/180Yke0DqfWqtvStsWiPGlw?pwd=7xiv"/>
-    <hyperlink ref="B929" r:id="rId1641" display="https://pan.baidu.com/s/1Z1a1p2H8dlFxGCAa_46NOw?pwd=3t5w"/>
-    <hyperlink ref="C929" r:id="rId1642" display="https://pan.quark.cn/s/8390ff88f418"/>
-    <hyperlink ref="B930" r:id="rId1643" display="https://pan.baidu.com/s/1DcYo7wtPlaORFglOJ0N9qg?pwd=rmru"/>
-    <hyperlink ref="C931" r:id="rId1644" display="https://pan.quark.cn/s/b34ebab35e9b"/>
-    <hyperlink ref="B931" r:id="rId1645" display="https://pan.baidu.com/s/1gE6-DBUoTOLKhroJJvring?pwd=yhht"/>
-    <hyperlink ref="C932" r:id="rId1646" display="https://pan.quark.cn/s/319c141152d3"/>
-    <hyperlink ref="B932" r:id="rId1647" display="https://pan.baidu.com/s/1iOTzDGTqZGC2vaKhbR40SQ?pwd=a9hn"/>
-    <hyperlink ref="C933" r:id="rId1648" display="https://pan.quark.cn/s/7bd381f5b449"/>
-    <hyperlink ref="B933" r:id="rId1649" display="https://pan.baidu.com/s/1U2A3pV92rXLb8yB4j046bA?pwd=xhqh"/>
-    <hyperlink ref="C934" r:id="rId1650" display="https://pan.quark.cn/s/5ddc770fafbc"/>
-    <hyperlink ref="B934" r:id="rId1651" display="https://pan.baidu.com/s/1mkb8ysKxsMsTuY_wMqR7cA?pwd=8ev3"/>
-    <hyperlink ref="B894" r:id="rId1652" display="https://pan.baidu.com/s/13RPvDmMdXaW6-SWIuDBKTg?pwd=9n9g"/>
-    <hyperlink ref="B759" r:id="rId1653" display="https://pan.baidu.com/s/1Ldd2Sxxn0JJkPLlqFlkQcQ?pwd=vw33"/>
-    <hyperlink ref="B755" r:id="rId1654" display="https://pan.baidu.com/s/1fN8aUC_bzoDeVN4lzf5r8w?pwd=jacv"/>
-    <hyperlink ref="B757" r:id="rId1655" display="https://pan.baidu.com/s/15ixs7ahYYSRT_WDH14mQfg?pwd=dxpd"/>
-    <hyperlink ref="B754" r:id="rId1656" display="https://pan.baidu.com/s/1r2C8glNWih14yRmffHXngw?pwd=frbq"/>
-    <hyperlink ref="B753" r:id="rId1657" display="https://pan.baidu.com/s/1ZBkXXg3vctgXh4P9TLwvRw?pwd=atqg"/>
-    <hyperlink ref="B770" r:id="rId1658" display="https://pan.baidu.com/s/1kECMfMPzgVf0MN8vUxMSKw?pwd=xb7z"/>
-    <hyperlink ref="B935" r:id="rId1659" display="https://pan.baidu.com/s/1YTf-Iikp7vOjETx9s5Ahow?pwd=ts89"/>
-    <hyperlink ref="C935" r:id="rId1660" display="https://pan.quark.cn/s/8f6912403d7a"/>
-    <hyperlink ref="C936" r:id="rId1661" display="https://pan.quark.cn/s/ce8b6ccc8f39"/>
-    <hyperlink ref="B936" r:id="rId1662" display="https://pan.baidu.com/s/1Zu0ynpaQJR-nl1mU6_WgIg?pwd=u1f3"/>
-    <hyperlink ref="B937" r:id="rId1663" display="https://pan.baidu.com/s/14jRUp8AErftw4C-3nRoWtQ?pwd=wjjr"/>
-    <hyperlink ref="C937" r:id="rId1664" display="https://pan.quark.cn/s/bb015809198c"/>
-    <hyperlink ref="B138" r:id="rId1665" display="https://pan.baidu.com/s/1hNKcELsR_VK6mjA-Ml8b8g?pwd=s1k2"/>
-    <hyperlink ref="B139" r:id="rId1666" display="https://pan.baidu.com/s/1YT_Zn-nnvCZEQcTrrnVPpg?pwd=xb7j"/>
-    <hyperlink ref="C140" r:id="rId1667" display="https://pan.quark.cn/s/802b6082fa4c"/>
-    <hyperlink ref="B140" r:id="rId1668" display="https://pan.baidu.com/s/17IRsLlpgL-3oVoiN7m6DIg?pwd=8dcg"/>
-    <hyperlink ref="C938" r:id="rId1669" display="https://pan.quark.cn/s/a99716a96012"/>
-    <hyperlink ref="B938" r:id="rId1670" display="https://pan.baidu.com/s/16vbhn8Njy1U7q7gSDPRQ4A?pwd=27p3"/>
-    <hyperlink ref="C930" r:id="rId1671" display="https://pan.quark.cn/s/a0e89012f14a"/>
-    <hyperlink ref="C928" r:id="rId1672" display="https://pan.quark.cn/s/e36649a8ed7b"/>
-    <hyperlink ref="C811" r:id="rId1673" display="https://pan.quark.cn/s/d5f3ad8f60c7"/>
-    <hyperlink ref="B803" r:id="rId1674" display="https://pan.baidu.com/s/1i8drpgvGcSP501fCaaUq-w?pwd=tcz7"/>
-    <hyperlink ref="C939" r:id="rId1675" display="https://pan.quark.cn/s/f432170e4df8"/>
-    <hyperlink ref="B939" r:id="rId1676" display="https://pan.baidu.com/s/1vi-KdoK7ii01qapGjdJDhg?pwd=n5ja"/>
-    <hyperlink ref="B940" r:id="rId1677" display="https://pan.baidu.com/s/1dvmKruZm010pfq-NMi3OAQ?pwd=stin"/>
-    <hyperlink ref="C940" r:id="rId1678" display="https://pan.quark.cn/s/ea5ddb32c420"/>
-    <hyperlink ref="C941" r:id="rId1679" display="https://pan.quark.cn/s/f4effb6bac21"/>
-    <hyperlink ref="B941" r:id="rId1680" display="https://pan.baidu.com/s/1ALz2IzGOYs1v7IOoomFYcw?pwd=ifgd"/>
-    <hyperlink ref="C942" r:id="rId1681" display="https://pan.quark.cn/s/448bf01163c8"/>
-    <hyperlink ref="B942" r:id="rId1682" display="https://pan.baidu.com/s/1FUj1sAakrS4p0KWYrFBbUA?pwd=ne3q"/>
-    <hyperlink ref="C943" r:id="rId1683" display="https://pan.quark.cn/s/e5410261a1d3"/>
-    <hyperlink ref="B943" r:id="rId1684" display="https://pan.baidu.com/s/16vxKBWzCl8sAG8UYXJ--8A?pwd=9e8b"/>
-    <hyperlink ref="B944" r:id="rId1685" display="https://pan.baidu.com/s/1agUXa6HDSbPdmG-40z9RkQ?pwd=w7bn"/>
-    <hyperlink ref="C944" r:id="rId1686" display="https://pan.quark.cn/s/c958e2f0bba1"/>
-    <hyperlink ref="B945" r:id="rId1687" display="https://pan.baidu.com/s/1_87PYDeYTo1xZTi4HEuTFA?pwd=t4hs"/>
-    <hyperlink ref="C945" r:id="rId1688" display="https://pan.quark.cn/s/7281ae8d4f1e"/>
-    <hyperlink ref="C946" r:id="rId1689" display="https://pan.quark.cn/s/5c314c62c961"/>
-    <hyperlink ref="B946" r:id="rId1690" display="https://pan.baidu.com/s/1EtXA8uE-aao2I30uCiCp5Q?pwd=x75e"/>
-    <hyperlink ref="C947" r:id="rId1691" display="https://pan.quark.cn/s/5de0d2db1fd3"/>
-    <hyperlink ref="B947" r:id="rId1692" display="https://pan.baidu.com/s/1_O9f0CT-pbkaqyBSxBEPkA?pwd=mu6f"/>
-    <hyperlink ref="C948" r:id="rId1693" display="https://pan.quark.cn/s/51d55ca60725"/>
-    <hyperlink ref="C949" r:id="rId1694" display="https://pan.quark.cn/s/65326b35d818"/>
-    <hyperlink ref="B949" r:id="rId1695" display="https://pan.baidu.com/s/1xO6mXKRIxw83_p-C4Y1iCw?pwd=k6nf"/>
-    <hyperlink ref="C950" r:id="rId1696" display="https://pan.quark.cn/s/68717a8c259d"/>
-    <hyperlink ref="C951" r:id="rId1697" display="https://pan.quark.cn/s/c279a3d1201e"/>
-    <hyperlink ref="C952" r:id="rId1698" display="https://pan.quark.cn/s/c293f3f5d792"/>
-    <hyperlink ref="C953" r:id="rId1699" display="https://pan.quark.cn/s/52495124eb85"/>
-    <hyperlink ref="C954" r:id="rId1700" display="https://pan.quark.cn/s/0a293ad37cc1"/>
-    <hyperlink ref="C955" r:id="rId1701" display="https://pan.quark.cn/s/59e19d8a8863"/>
-    <hyperlink ref="C956" r:id="rId1702" display="https://pan.quark.cn/s/e25fd0069871"/>
-    <hyperlink ref="C958" r:id="rId1703" display="https://pan.quark.cn/s/1dd70d58bc4e"/>
-    <hyperlink ref="C959" r:id="rId1704" display="https://pan.quark.cn/s/409e004b7c4d"/>
-    <hyperlink ref="C960" r:id="rId1705" display="https://pan.quark.cn/s/2a6ad53e4d8e"/>
-    <hyperlink ref="C961" r:id="rId1706" display="https://pan.quark.cn/s/28a1c7565b69"/>
-    <hyperlink ref="C962" r:id="rId1707" display="https://pan.quark.cn/s/46a4a6c34caf"/>
-    <hyperlink ref="C963" r:id="rId1708" display="https://pan.quark.cn/s/7c52facadd06"/>
-    <hyperlink ref="C964" r:id="rId1709" display="https://pan.quark.cn/s/777299dbde9a"/>
-    <hyperlink ref="C965" r:id="rId1710" display="https://pan.quark.cn/s/1e357dec0397"/>
-    <hyperlink ref="C966" r:id="rId1711" display="https://pan.quark.cn/s/0c9e54bb1386"/>
-    <hyperlink ref="C967" r:id="rId1712" display="https://pan.quark.cn/s/2c32976e484e"/>
-    <hyperlink ref="C968" r:id="rId1713" display="https://pan.quark.cn/s/e120e275cb25"/>
-    <hyperlink ref="C969" r:id="rId1714" display="https://pan.quark.cn/s/6c9c58ac8764"/>
-    <hyperlink ref="C970" r:id="rId1715" display="https://pan.quark.cn/s/4fc5d8f4a733"/>
-    <hyperlink ref="C971" r:id="rId1716" display="https://pan.quark.cn/s/6da604a2585f"/>
-    <hyperlink ref="C972" r:id="rId1717" display="https://pan.quark.cn/s/3cccb0556dc4"/>
-    <hyperlink ref="C973" r:id="rId1718" display="https://pan.quark.cn/s/33210db898a3"/>
-    <hyperlink ref="C974" r:id="rId1719" display="https://pan.quark.cn/s/1787090ae540"/>
-    <hyperlink ref="C975" r:id="rId1720" display="https://pan.quark.cn/s/78baa2920516"/>
-    <hyperlink ref="C976" r:id="rId1721" display="https://pan.quark.cn/s/066cda8d11d5"/>
-    <hyperlink ref="C977" r:id="rId1722" display="https://pan.quark.cn/s/3f3a734e1edd"/>
-    <hyperlink ref="C978" r:id="rId1723" display="https://pan.quark.cn/s/61fe26783e48"/>
-    <hyperlink ref="C979" r:id="rId1724" display="https://pan.quark.cn/s/9066609b240d"/>
-    <hyperlink ref="C980" r:id="rId1725" display="https://pan.quark.cn/s/0003d635f0bf"/>
-    <hyperlink ref="C981" r:id="rId1726" display="https://pan.quark.cn/s/233b02bf039f"/>
-    <hyperlink ref="C982" r:id="rId1727" display="https://pan.quark.cn/s/6fb4b4f9be65"/>
-    <hyperlink ref="C983" r:id="rId1728" display="https://pan.quark.cn/s/24027206709e"/>
-    <hyperlink ref="C984" r:id="rId1729" display="https://pan.quark.cn/s/051998accf6e"/>
-    <hyperlink ref="C985" r:id="rId1730" display="https://pan.quark.cn/s/c267192e6a28"/>
-    <hyperlink ref="C987" r:id="rId1731" display="https://pan.quark.cn/s/738cbe522295"/>
-    <hyperlink ref="C988" r:id="rId1732" display="https://pan.quark.cn/s/f56587e69852"/>
-    <hyperlink ref="C989" r:id="rId1733" display="https://pan.quark.cn/s/2a867529046a"/>
-    <hyperlink ref="C990" r:id="rId1734" display="https://pan.quark.cn/s/e00e5d8b1521"/>
-    <hyperlink ref="C991" r:id="rId1735" display="https://pan.quark.cn/s/fb2282737a25"/>
-    <hyperlink ref="C992" r:id="rId1736" display="https://pan.quark.cn/s/f1c170414607"/>
-    <hyperlink ref="C993" r:id="rId1737" display="https://pan.quark.cn/s/c096d73c0dba"/>
-    <hyperlink ref="C994" r:id="rId1738" display="https://pan.quark.cn/s/db053c5d98a4"/>
-    <hyperlink ref="C995" r:id="rId1739" display="https://pan.quark.cn/s/a5fe5df3bd1f"/>
-    <hyperlink ref="C996" r:id="rId1740" display="https://pan.quark.cn/s/3122ac8195b3"/>
-    <hyperlink ref="C997" r:id="rId1741" display="https://pan.quark.cn/s/60c133f9785b"/>
-    <hyperlink ref="C998" r:id="rId1742" display="https://pan.quark.cn/s/8346f87ab4ef"/>
-    <hyperlink ref="C999" r:id="rId1743" display="https://pan.quark.cn/s/623c42f84275"/>
-    <hyperlink ref="C1000" r:id="rId1744" display="https://pan.quark.cn/s/b2205bea49a8"/>
-    <hyperlink ref="C1001" r:id="rId1745" display="https://pan.quark.cn/s/ab8ed602e7ac"/>
-    <hyperlink ref="C1002" r:id="rId1746" display="https://pan.quark.cn/s/72f36a77873c"/>
-    <hyperlink ref="C1003" r:id="rId1747" display="https://pan.quark.cn/s/0994c91823b6"/>
-    <hyperlink ref="C1004" r:id="rId1748" display="https://pan.quark.cn/s/5111bb63a2c6"/>
-    <hyperlink ref="C1005" r:id="rId1749" display="https://pan.quark.cn/s/5dd6d12fb0ac"/>
-    <hyperlink ref="C1006" r:id="rId1750" display="https://pan.quark.cn/s/71043f16531e"/>
-    <hyperlink ref="C1007" r:id="rId1751" display="https://pan.quark.cn/s/a42ac7b6c2e6"/>
-    <hyperlink ref="C1008" r:id="rId1752" display="https://pan.quark.cn/s/3e54f06bdf95"/>
-    <hyperlink ref="C1009" r:id="rId1753" display="https://pan.quark.cn/s/915fa99c8b63"/>
-    <hyperlink ref="C1010" r:id="rId1754" display="https://pan.quark.cn/s/0498811c6503"/>
-    <hyperlink ref="C1011" r:id="rId1755" display="https://pan.quark.cn/s/12076e46637f"/>
-    <hyperlink ref="C1012" r:id="rId1756" display="https://pan.quark.cn/s/1f09f7608c68"/>
-    <hyperlink ref="C1013" r:id="rId1757" display="https://pan.quark.cn/s/c761ba5eedcf"/>
-    <hyperlink ref="C1014" r:id="rId1758" display="https://pan.quark.cn/s/6175da62afa5"/>
-    <hyperlink ref="C1015" r:id="rId1759" display="https://pan.quark.cn/s/45a88be9b03a"/>
-    <hyperlink ref="C1016" r:id="rId1760" display="https://pan.quark.cn/s/145649b71f04"/>
-    <hyperlink ref="C1017" r:id="rId1761" display="https://pan.quark.cn/s/d12829186252"/>
-    <hyperlink ref="C1018" r:id="rId1762" display="https://pan.quark.cn/s/5e8cc21fa973"/>
-    <hyperlink ref="C1019" r:id="rId1763" display="https://pan.quark.cn/s/62e3abb3cf5f"/>
-    <hyperlink ref="C1020" r:id="rId1764" display="https://pan.quark.cn/s/ed0ccee7f3b3"/>
-    <hyperlink ref="C1021" r:id="rId1765" display="https://pan.quark.cn/s/029e3f1e5686"/>
-    <hyperlink ref="C1022" r:id="rId1766" display="https://pan.quark.cn/s/4664599635c2"/>
-    <hyperlink ref="C1023" r:id="rId1767" display="https://pan.quark.cn/s/1895e316e04a"/>
-    <hyperlink ref="C1024" r:id="rId1768" display="https://pan.quark.cn/s/3e3c3a3a19fe"/>
-    <hyperlink ref="C1025" r:id="rId1769" display="https://pan.quark.cn/s/5ef3769898f5"/>
-    <hyperlink ref="C1026" r:id="rId1770" display="https://pan.quark.cn/s/c2dffa3f693c"/>
-    <hyperlink ref="C1027" r:id="rId1771" display="https://pan.quark.cn/s/cb70dddd712c"/>
-    <hyperlink ref="C1028" r:id="rId1772" display="https://pan.quark.cn/s/d44b173c8978"/>
-    <hyperlink ref="B1028" r:id="rId1773" display="https://pan.baidu.com/s/16HA7jGlrDBU3MRCYyUAwDA?pwd=pqiu"/>
-    <hyperlink ref="C1029" r:id="rId1774" display="https://pan.quark.cn/s/237f72263cdc"/>
-    <hyperlink ref="B1029" r:id="rId1775" display="https://pan.baidu.com/s/1bOdtxd4YZiwO9zPGqZCuLQ?pwd=imfp"/>
-    <hyperlink ref="C1030" r:id="rId1776" display="https://pan.quark.cn/s/022c5614ca78"/>
-    <hyperlink ref="B1030" r:id="rId1777" display="https://pan.baidu.com/s/1I-ywvmLBeAgsfeAKDY9Yaw?pwd=jhgq"/>
-    <hyperlink ref="C1031" r:id="rId1778" display="https://pan.quark.cn/s/715a6da35fe0"/>
-    <hyperlink ref="B1031" r:id="rId1779" display="https://pan.baidu.com/s/1rlk9sXTlHFNY6xzn8MzoCQ?pwd=7vzu"/>
-    <hyperlink ref="B1032" r:id="rId1780" display="https://pan.baidu.com/s/1-C4tzJ1CxPPdzq7Q9pHimg?pwd=9pd8"/>
-    <hyperlink ref="C1032" r:id="rId1781" display="https://pan.quark.cn/s/d02ccc123f4c"/>
-    <hyperlink ref="C1033" r:id="rId1782" display="https://pan.quark.cn/s/95c7fac76a1d"/>
-    <hyperlink ref="B1033" r:id="rId1783" display="https://pan.baidu.com/s/1-zBmVrSLD9jSCyQAOxt5VA?pwd=a558"/>
-    <hyperlink ref="B952" r:id="rId1784" display="https://pan.baidu.com/s/1CFZjktYby4FyM0uSlT5_aA?pwd=id74"/>
-    <hyperlink ref="B951" r:id="rId1785" display="https://pan.baidu.com/s/1x5uwBjHaDJbFx63wFU1ajQ?pwd=6mq8"/>
-    <hyperlink ref="B955" r:id="rId1786" display="https://pan.baidu.com/s/1lcUVaHOqCqPw57qLQGX5fw?pwd=g6ix"/>
-    <hyperlink ref="B965" r:id="rId1787" display="https://pan.baidu.com/s/1fQawLkGJwIve_4Kb0Fqb8g?pwd=rrcp"/>
-    <hyperlink ref="B982" r:id="rId1788" display="https://pan.baidu.com/s/1UsbLY7tBZXFG6q-G-46WRA?pwd=msus"/>
-    <hyperlink ref="B977" r:id="rId1789" display="https://pan.baidu.com/s/1HYXNFT53ZI7yiCuaqm_NgQ?pwd=pkfa"/>
-    <hyperlink ref="B966" r:id="rId1790" display="https://pan.baidu.com/s/1ETff18cU62nj4aNMPK9d6Q?pwd=vd31"/>
-    <hyperlink ref="B967" r:id="rId1791" display="https://pan.baidu.com/s/1ELTTResTbGHQlkRUD7RXyg?pwd=pfdf"/>
-    <hyperlink ref="C1034" r:id="rId1792" display="https://pan.quark.cn/s/086e2057da26"/>
-    <hyperlink ref="B1034" r:id="rId1793" display="https://pan.baidu.com/s/1GCP3GMo_q-xubBrsPnajfA?pwd=muuc"/>
-    <hyperlink ref="C1035" r:id="rId1794" display="https://pan.quark.cn/s/f403d7abf89c"/>
-    <hyperlink ref="C1036" r:id="rId1795" display="https://pan.quark.cn/s/f02b4c86b2e7"/>
-    <hyperlink ref="C1037" r:id="rId1796" display="https://pan.quark.cn/s/1dd4b66ab99e"/>
-    <hyperlink ref="C1038" r:id="rId1797" display="https://pan.quark.cn/s/f7e1c0f5e78b"/>
-    <hyperlink ref="C1039" r:id="rId1798" display="https://pan.quark.cn/s/d1db8e25c067"/>
-    <hyperlink ref="C1040" r:id="rId1799" display="https://pan.quark.cn/s/3d3615f1d2c5"/>
-    <hyperlink ref="C1041" r:id="rId1800" display="https://pan.quark.cn/s/834d8bba65e8"/>
-    <hyperlink ref="C1042" r:id="rId1801" display="https://pan.quark.cn/s/0905531794d2"/>
-    <hyperlink ref="C1043" r:id="rId1802" display="https://pan.quark.cn/s/703c11b930ec"/>
-    <hyperlink ref="C1044" r:id="rId1803" display="https://pan.quark.cn/s/c7fcdf43280d"/>
-    <hyperlink ref="C1045" r:id="rId1804" display="https://pan.quark.cn/s/d87ac7ade4af"/>
-    <hyperlink ref="C1046" r:id="rId1805" display="https://pan.quark.cn/s/a1aa5821acd8"/>
-    <hyperlink ref="C1048" r:id="rId1806" display="https://pan.quark.cn/s/539cf4a505b1"/>
-    <hyperlink ref="C1049" r:id="rId1807" display="https://pan.quark.cn/s/aaee459e9e25"/>
-    <hyperlink ref="C1050" r:id="rId1808" display="https://pan.quark.cn/s/72adcf8846cd"/>
-    <hyperlink ref="C1051" r:id="rId1809" display="https://pan.quark.cn/s/88c05bf3a116"/>
-    <hyperlink ref="C1052" r:id="rId1810" display="https://pan.quark.cn/s/b706f27e5e0a"/>
-    <hyperlink ref="C1047" r:id="rId1811" display="https://pan.quark.cn/s/7bc74daf9182"/>
-    <hyperlink ref="C1053" r:id="rId1812" display="https://pan.quark.cn/s/15d0f03a2a34"/>
-    <hyperlink ref="C1054" r:id="rId1813" display="https://pan.quark.cn/s/820c336f159a"/>
-    <hyperlink ref="C1055" r:id="rId1814" display="https://pan.quark.cn/s/af1cd2b45ae7"/>
-    <hyperlink ref="C1056" r:id="rId1815" display="https://pan.quark.cn/s/12cb8a9ab6f7"/>
-    <hyperlink ref="C1057" r:id="rId1816" display="https://pan.quark.cn/s/1ab680233003"/>
-    <hyperlink ref="C1058" r:id="rId1817" display="https://pan.quark.cn/s/afb9665ecc97"/>
-    <hyperlink ref="C1059" r:id="rId1818" display="https://pan.quark.cn/s/f6a7062371b9"/>
-    <hyperlink ref="C1060" r:id="rId1819" display="https://pan.quark.cn/s/f83b38e5348d"/>
-    <hyperlink ref="C1061" r:id="rId1820" display="https://pan.quark.cn/s/ab139dd3f00d"/>
-    <hyperlink ref="C1062" r:id="rId1821" display="https://pan.quark.cn/s/b15e09c41c31"/>
-    <hyperlink ref="C1063" r:id="rId1822" display="https://pan.quark.cn/s/4a6f7bf77a22"/>
-    <hyperlink ref="B1063" r:id="rId1823" display="https://pan.baidu.com/s/1v-1zuDbH6OgSBhcLRbfkKQ?pwd=yfk6"/>
-    <hyperlink ref="C1064" r:id="rId1824" display="https://pan.quark.cn/s/513130ff73e7"/>
-    <hyperlink ref="C1065" r:id="rId1825" display="https://pan.quark.cn/s/7eb477e28409"/>
-    <hyperlink ref="C1066" r:id="rId1826" display="https://pan.quark.cn/s/323bdf27c276"/>
-    <hyperlink ref="C1067" r:id="rId1827" display="https://pan.quark.cn/s/77ddcc38fae7"/>
-    <hyperlink ref="C1068" r:id="rId1828" display="https://pan.quark.cn/s/7844fdf8b20f"/>
-    <hyperlink ref="C1069" r:id="rId1829" display="https://pan.quark.cn/s/444de1251561"/>
-    <hyperlink ref="C1070" r:id="rId1830" display="https://pan.quark.cn/s/02a39978269e"/>
-    <hyperlink ref="C1071" r:id="rId1831" display="https://pan.quark.cn/s/1241fb589a9c"/>
-    <hyperlink ref="C1072" r:id="rId1832" display="https://pan.quark.cn/s/1a917a28ef4c"/>
-    <hyperlink ref="C1073" r:id="rId1833" display="https://pan.quark.cn/s/69c717915d74"/>
-    <hyperlink ref="C1074" r:id="rId1834" display="https://pan.quark.cn/s/9dfbd48be001"/>
-    <hyperlink ref="C1075" r:id="rId1835" display="https://pan.quark.cn/s/c711f3f126e1"/>
-    <hyperlink ref="C1076" r:id="rId1836" display="https://pan.quark.cn/s/9fdf5036e88f"/>
-    <hyperlink ref="C1077" r:id="rId1837" display="https://pan.quark.cn/s/156b1c232b3d"/>
-    <hyperlink ref="C1078" r:id="rId1838" display="https://pan.quark.cn/s/f18515b905cd"/>
-    <hyperlink ref="C1079" r:id="rId1839" display="https://pan.quark.cn/s/67514fadf208"/>
-    <hyperlink ref="C1080" r:id="rId1840" display="https://pan.quark.cn/s/7d5b13c09f68"/>
-    <hyperlink ref="C1081" r:id="rId1841" display="https://pan.quark.cn/s/a79ea2399cb0"/>
-    <hyperlink ref="C1082" r:id="rId1842" display="https://pan.quark.cn/s/67cce2278bd8"/>
-    <hyperlink ref="C1083" r:id="rId1843" display="https://pan.quark.cn/s/dd7f56be1c9b"/>
-    <hyperlink ref="C1084" r:id="rId1844" display="https://pan.quark.cn/s/35e5dab032a9"/>
-    <hyperlink ref="C1085" r:id="rId1845" display="https://pan.quark.cn/s/1599d131489f"/>
-    <hyperlink ref="C1086" r:id="rId1846" display="https://pan.quark.cn/s/cecb0a04d7c8"/>
-    <hyperlink ref="C1087" r:id="rId1847" display="https://pan.quark.cn/s/1de84f856347"/>
-    <hyperlink ref="C1088" r:id="rId1848" display="https://pan.quark.cn/s/0d72aefa23b7"/>
-    <hyperlink ref="C1089" r:id="rId1849" display="https://pan.quark.cn/s/1333a12b087a"/>
-    <hyperlink ref="C1092" r:id="rId1850" display="https://pan.quark.cn/s/815e28ad9b45"/>
-    <hyperlink ref="C1093" r:id="rId1851" display="https://pan.quark.cn/s/d6fc7b080a81"/>
-    <hyperlink ref="C1094" r:id="rId1852" display="https://pan.quark.cn/s/e463bad9b9f2"/>
-    <hyperlink ref="C1095" r:id="rId1853" display="https://pan.quark.cn/s/5a90e724d31f"/>
-    <hyperlink ref="C1096" r:id="rId1854" display="https://pan.quark.cn/s/867ba9296d1f"/>
-    <hyperlink ref="C1090" r:id="rId1855" display="https://pan.quark.cn/s/252af63fed7a"/>
-    <hyperlink ref="C1091" r:id="rId1856" display="https://pan.quark.cn/s/75e1bba6798b"/>
-    <hyperlink ref="C1097" r:id="rId1857" display="https://pan.quark.cn/s/6c6d7773234b"/>
-    <hyperlink ref="C1098" r:id="rId1858" display="https://pan.quark.cn/s/feb0c3e86d81"/>
-    <hyperlink ref="C1099" r:id="rId1859" display="https://pan.quark.cn/s/a37ab08d473a"/>
-    <hyperlink ref="C1100" r:id="rId1860" display="https://pan.quark.cn/s/74a2ef4310d8"/>
-    <hyperlink ref="C1101" r:id="rId1861" display="https://pan.quark.cn/s/9cf558537686"/>
-    <hyperlink ref="C1102" r:id="rId1862" display="https://pan.quark.cn/s/f1835c9c24dd"/>
-    <hyperlink ref="C1103" r:id="rId1863" display="https://pan.quark.cn/s/26727e1cb37a"/>
-    <hyperlink ref="C1104" r:id="rId1864" display="https://pan.quark.cn/s/9db62faf15ac"/>
-    <hyperlink ref="C1105" r:id="rId1865" display="https://pan.quark.cn/s/cedb1190cac5"/>
-    <hyperlink ref="C455" r:id="rId1866" display="https://pan.quark.cn/s/f0613f82f18b"/>
-    <hyperlink ref="C339" r:id="rId1867" display="https://pan.quark.cn/s/1199be461e05"/>
-    <hyperlink ref="C1106" r:id="rId1868" display="https://pan.quark.cn/s/eb03693f9216"/>
-    <hyperlink ref="B1104" r:id="rId1869" display="https://pan.baidu.com/s/1UDAeCYCjbgPJ3wzSiAUD2Q?pwd=9kea"/>
-    <hyperlink ref="B1103" r:id="rId1870" display="https://pan.baidu.com/s/13K4KbC92AUfomsTcwDfT7Q?pwd=m7bs"/>
-    <hyperlink ref="B1102" r:id="rId1871" display="https://pan.baidu.com/s/1aP0jTTJ3GWUeNiF2ETyKTQ?pwd=xge7"/>
-    <hyperlink ref="B1097" r:id="rId1872" display="https://pan.baidu.com/s/1lMrKAiuRdaRIXQEki8BB1w?pwd=buri"/>
-    <hyperlink ref="B1095" r:id="rId1873" display="https://pan.baidu.com/s/1wKyn7S0OcFDr6gJ37Bl4uA?pwd=cu2f"/>
-    <hyperlink ref="B1092" r:id="rId1874" display="https://pan.baidu.com/s/1eAbrZsX2CVK6eHt8_CvmZw?pwd=m9bh"/>
-    <hyperlink ref="B1094" r:id="rId1875" display="https://pan.baidu.com/s/1bmfkTaFxFc6feyu297ry3g?pwd=fs34"/>
-    <hyperlink ref="B1087" r:id="rId1876" display="https://pan.baidu.com/s/1IHZIt795oy7la_bi8Dzi6g?pwd=g8iw"/>
-    <hyperlink ref="B1086" r:id="rId1877" display="https://pan.baidu.com/s/1hEzvFJQsDFe-eXssAkosBA?pwd=iaeg"/>
-    <hyperlink ref="B1082" r:id="rId1878" display="https://pan.baidu.com/s/19lCfQsdlInbDS6t5OwU2aA?pwd=jihu"/>
-    <hyperlink ref="B1081" r:id="rId1879" display="https://pan.baidu.com/s/1tjNT9dLV4Yb6oQ2hi2sDxw?pwd=8n6h"/>
-    <hyperlink ref="B1076" r:id="rId1880" display="https://pan.baidu.com/s/1klbOJY8YNfHnNGTyV4Q7Qg?pwd=8zk8"/>
-    <hyperlink ref="B1077" r:id="rId1881" display="https://pan.baidu.com/s/1QdHucRTz13t-L70nc4Zetg?pwd=a7jb"/>
-    <hyperlink ref="B1079" r:id="rId1882" display="https://pan.baidu.com/s/1DVs8nck2jzOui6BAwY406Q?pwd=2n3y"/>
-    <hyperlink ref="B1059" r:id="rId1883" display="https://pan.baidu.com/s/1Z8tnJ8z4EZN2cOUggyF8sA?pwd=hyj2"/>
-    <hyperlink ref="B1058" r:id="rId1884" display="https://pan.baidu.com/s/1BAYB2rFe_i7QMyGDdVLnzg?pwd=83cm"/>
-    <hyperlink ref="C1107" r:id="rId1885" display="https://pan.quark.cn/s/f8bf1c4d1ec9"/>
-    <hyperlink ref="B971" r:id="rId1886" display="https://pan.baidu.com/s/1ikHRwXfCPWmszt5TphYZVQ?pwd=x3ae"/>
-    <hyperlink ref="C1108" r:id="rId1887" display="https://pan.quark.cn/s/a3d012a58dcd"/>
-    <hyperlink ref="B1106" r:id="rId1888" display="https://pan.baidu.com/s/12RYzbays8zo3eVgmzXOroA?pwd=a89i"/>
-    <hyperlink ref="B989" r:id="rId1889" display="https://pan.baidu.com/s/142Y8DixqQnSJIHUMa2IrIg?pwd=dr71"/>
-    <hyperlink ref="B1109" r:id="rId1890" display="https://pan.baidu.com/s/1ejALgjXsuqtY6FT7tNTbiw?pwd=9s7h"/>
-    <hyperlink ref="C1109" r:id="rId1891" display="https://pan.quark.cn/s/b12eb08585a1"/>
-    <hyperlink ref="C1110" r:id="rId1892" display="https://pan.quark.cn/s/3f5841e83616"/>
-    <hyperlink ref="B1110" r:id="rId1893" display="https://pan.baidu.com/s/1dt0Dth8e3P7muohCOss6CA?pwd=eemk"/>
-    <hyperlink ref="C1111" r:id="rId1894" display="https://pan.quark.cn/s/dc1d1d215b3f"/>
-    <hyperlink ref="B1111" r:id="rId1895" display="https://pan.baidu.com/s/19Y91wwDFzQacWuxjZ3y7fw?pwd=xmnb"/>
-    <hyperlink ref="B1108" r:id="rId1896" display="https://pan.baidu.com/s/1_XTUiVG9g1nYgnLBLByeCA?pwd=5v96"/>
-    <hyperlink ref="B964" r:id="rId1897" display="https://pan.baidu.com/s/1aZvY6vXymlFu3kVF7OFXgw?pwd=bi6n"/>
-    <hyperlink ref="B974" r:id="rId1898" display="https://pan.baidu.com/s/126BVJwr1GaUp48_5sZUfCQ?pwd=5cbu"/>
-    <hyperlink ref="B981" r:id="rId1899" display="https://pan.baidu.com/s/1zdLec7lOSZ3kiAd4gg6i_g?pwd=y8tj"/>
-    <hyperlink ref="B956" r:id="rId1900" display="https://pan.baidu.com/s/15piO45bMRTbK2ss7ht5e_Q?pwd=wfnx"/>
-    <hyperlink ref="C957" r:id="rId1901" display="https://pan.quark.cn/s/b48b34aa2f1f"/>
-    <hyperlink ref="B957" r:id="rId1902" display="https://pan.baidu.com/s/1uxqdUT_sRYe6Trv1lLtOTg?pwd=nqnu"/>
-    <hyperlink ref="B983" r:id="rId1903" display="https://pan.baidu.com/s/1Wkd5R_ZLLM94TjtPHCvX6A?pwd=xba5"/>
-    <hyperlink ref="B958" r:id="rId1904" display="https://pan.baidu.com/s/1UDew5yo7ExChmDkkDp-eWA?pwd=u9x6"/>
-    <hyperlink ref="B953" r:id="rId1905" display="https://pan.baidu.com/s/1fd6pMJFRMLVkVxkOVvyzKA?pwd=2eij"/>
-    <hyperlink ref="B954" r:id="rId1906" display="https://pan.baidu.com/s/1BG3jvAcctMTAgrLQSD-55Q?pwd=ahmv"/>
-    <hyperlink ref="B959" r:id="rId1907" display="https://pan.baidu.com/s/1zWdZsmZldBIecvS2Os6tSg?pwd=h5at"/>
-    <hyperlink ref="B960" r:id="rId1908" display="https://pan.baidu.com/s/1G9c1Dm5vg1n3ZL5LFezMYw?pwd=hfri"/>
-    <hyperlink ref="B961" r:id="rId1909" display="https://pan.baidu.com/s/130VU5URbM8-hBdHrfn9yZw?pwd=m5rw"/>
-    <hyperlink ref="B962" r:id="rId1910" display="https://pan.baidu.com/s/1ayBKmSsgcplyyp6MDcYseQ?pwd=jyhy"/>
-    <hyperlink ref="B963" r:id="rId1911" display="https://pan.baidu.com/s/1_sGqbF3xte8TnBqs2b2DTg?pwd=hh23"/>
-    <hyperlink ref="B968" r:id="rId1912" display="https://pan.baidu.com/s/1s9nSkvivCHwk0AmyqqG_Vg?pwd=yira"/>
-    <hyperlink ref="B969" r:id="rId1913" display="https://pan.baidu.com/s/1LZVUSxbSkkRdTDwCdFm4IQ?pwd=kakk"/>
-    <hyperlink ref="B970" r:id="rId1914" display="https://pan.baidu.com/s/1q4Pxwue5XV1ntFC3FP5tZw?pwd=63jg"/>
-    <hyperlink ref="B972" r:id="rId1915" display="https://pan.baidu.com/s/1TC-ME8pPVeRJ-FWCNgYU3Q?pwd=gmm6"/>
-    <hyperlink ref="B973" r:id="rId1916" display="https://pan.baidu.com/s/1eeVTszVbLd0nI8aGIMYieg?pwd=xmc8"/>
-    <hyperlink ref="B975" r:id="rId1917" display="https://pan.baidu.com/s/1nBz1qr1fL2f6ZhCIYp3IUA?pwd=6siv"/>
-    <hyperlink ref="B976" r:id="rId1918" display="https://pan.baidu.com/s/1ACXQ5h3dgeQK5uee46UbWg?pwd=8vme"/>
-    <hyperlink ref="B978" r:id="rId1919" display="https://pan.baidu.com/s/1yHkS8hlotIbpMlB36qR9wg?pwd=v87i"/>
-    <hyperlink ref="B979" r:id="rId1920" display="https://pan.baidu.com/s/1l7r1uNV5XLM8Vt7fzvKQRA?pwd=1pfg"/>
-    <hyperlink ref="B980" r:id="rId1921" display="https://pan.baidu.com/s/1LybsCzLMu8zEDJVyFE42Cw?pwd=5dx1"/>
-    <hyperlink ref="B984" r:id="rId1922" display="https://pan.baidu.com/s/1EY1MbNz1zvYimNHJRUYJIg?pwd=78p3"/>
-    <hyperlink ref="B985" r:id="rId1923" display="https://pan.baidu.com/s/16FrDJ6FUL0zDk38UwEAdGA?pwd=ydai"/>
-    <hyperlink ref="B986" r:id="rId1924" display="https://pan.baidu.com/s/158XM2O94XZ6DiOYEkzdrxA?pwd=kqk4"/>
-    <hyperlink ref="B987" r:id="rId1925" display="https://pan.baidu.com/s/1R7Bnu0243w3ha14J3SCfBw?pwd=qwgs"/>
-    <hyperlink ref="B990" r:id="rId1926" display="https://pan.baidu.com/s/1VIgWDURRmWjuaJHBGiN_zw?pwd=jj8r"/>
-    <hyperlink ref="B992" r:id="rId1927" display="https://pan.baidu.com/s/1qyOGP7EPsswAJG0wKR58Xg?pwd=k84u"/>
-    <hyperlink ref="B993" r:id="rId1928" display="https://pan.baidu.com/s/1E90IbhmNmJEsU2qLz251QA?pwd=3zes"/>
-    <hyperlink ref="B994" r:id="rId1929" display="https://pan.baidu.com/s/18FfCaIRy5ecDf0wTcXI1Zw?pwd=6xk3"/>
-    <hyperlink ref="B995" r:id="rId1930" display="https://pan.baidu.com/s/1968g-wiNFerx4CI0ZxcrxA?pwd=6ni7"/>
-    <hyperlink ref="B996" r:id="rId1931" display="https://pan.baidu.com/s/1DEPa_u-ee68crw0M-HsD4w?pwd=qy4k"/>
-    <hyperlink ref="B997" r:id="rId1932" display="https://pan.baidu.com/s/1vQAgT5lkqu4pZEmJMyaqqw?pwd=nm6y"/>
-    <hyperlink ref="B998" r:id="rId1933" display="https://pan.baidu.com/s/1XiqhpBXkKnlqZij42vCIDw?pwd=7bey"/>
-    <hyperlink ref="B999" r:id="rId1934" display="https://pan.baidu.com/s/1xUxmAC8csmjR1lPl64gJEA?pwd=czm8"/>
-    <hyperlink ref="B1000" r:id="rId1935" display="https://pan.baidu.com/s/1tpuJoYUxxS2qIqxcM-YYMQ?pwd=ycyh"/>
-    <hyperlink ref="B1001" r:id="rId1936" display="https://pan.baidu.com/s/1DOf2URYUmD1h4Jc6FNdzYw?pwd=qdqb"/>
-    <hyperlink ref="B1002" r:id="rId1937" display="https://pan.baidu.com/s/1-lCR9pcViQVoeZZG7Q8k4Q?pwd=b9bc"/>
-    <hyperlink ref="B1003" r:id="rId1938" display="https://pan.baidu.com/s/1FXVDlyRegyciqA_o3aZ9og?pwd=rz5n"/>
-    <hyperlink ref="B1004" r:id="rId1939" display="https://pan.baidu.com/s/1ev2kyJGHiSIjZGxkFK6tNA?pwd=sraj"/>
-    <hyperlink ref="B1005" r:id="rId1940" display="https://pan.baidu.com/s/1xqL8fE9HI781oam6raCmig?pwd=kifc"/>
-    <hyperlink ref="B1006" r:id="rId1941" display="https://pan.baidu.com/s/10omJRo8joYXealADqnkaFA?pwd=cft6"/>
-    <hyperlink ref="B1007" r:id="rId1942" display="https://pan.baidu.com/s/18V4fzcaihgHC8SRHN2CASQ?pwd=3e2g"/>
-    <hyperlink ref="B1089" r:id="rId1943" display="https://pan.baidu.com/s/1pNn0Kt2PbjP-MnZPk7hCvA?pwd=ym42"/>
-    <hyperlink ref="B1088" r:id="rId1944" display="https://pan.baidu.com/s/1gLz_JFqSC7I7CyefNW0FWg?pwd=an2n"/>
-    <hyperlink ref="B1090" r:id="rId1945" display="https://pan.baidu.com/s/1A2_9dtIVEayXGdG9Nktoxg?pwd=da6p"/>
-    <hyperlink ref="B1091" r:id="rId1946" display="https://pan.baidu.com/s/1nO6RKTbB7LCIzki_74zrEQ?pwd=1ns4"/>
-    <hyperlink ref="C418" r:id="rId1947" display="https://pan.quark.cn/s/0f9d8a9cee85"/>
-    <hyperlink ref="C419" r:id="rId1948" display="https://pan.quark.cn/s/200d05cd1c4d"/>
-    <hyperlink ref="B419" r:id="rId1949" display="https://pan.baidu.com/s/1GG_b0pWEEEbxrqVoEkWRPA?pwd=sfe4"/>
-    <hyperlink ref="B418" r:id="rId1950" display="https://pan.baidu.com/s/1BNo4adDfNoIn5IertPgxTg?pwd=nsx9"/>
-    <hyperlink ref="C420" r:id="rId1951" display="https://pan.quark.cn/s/a96caa6e4c37"/>
-    <hyperlink ref="C421" r:id="rId1952" display="https://pan.quark.cn/s/8ab3c7edb183"/>
-    <hyperlink ref="B420" r:id="rId1953" display="https://pan.baidu.com/s/1Na4e9uDE4CIAIanj92XGcA?pwd=defc"/>
-    <hyperlink ref="B421" r:id="rId1954" display="https://pan.baidu.com/s/1C4uAiPXXEcBaYhO2fEc4dA?pwd=f8fd"/>
-    <hyperlink ref="C422" r:id="rId1955" display="https://pan.quark.cn/s/00d9b3c4115f"/>
-    <hyperlink ref="C423" r:id="rId1956" display="https://pan.quark.cn/s/635aa9ac2359"/>
-    <hyperlink ref="C424" r:id="rId1957" display="https://pan.quark.cn/s/7dadf9d35286"/>
-    <hyperlink ref="B422" r:id="rId1958" display="https://pan.baidu.com/s/1jyHG1q1thA0-RcXAAqlJBA?pwd=rbgk"/>
-    <hyperlink ref="C22" r:id="rId1959" display="https://pan.quark.cn/s/f303c0389fe6"/>
-    <hyperlink ref="B22" r:id="rId1960" display="https://pan.baidu.com/s/1p6eJ8CpGELzl68K8Y33Urw?pwd=49pi"/>
-    <hyperlink ref="C21" r:id="rId1961" display="https://pan.quark.cn/s/2fa947e5582e"/>
-    <hyperlink ref="B21" r:id="rId1962" display="https://pan.baidu.com/s/16i03143xKXGmpQKSflNyoA?pwd=tca9"/>
-    <hyperlink ref="C1112" r:id="rId1963" display="https://pan.quark.cn/s/eb3c3d807291"/>
-    <hyperlink ref="B1112" r:id="rId1964" display="https://pan.baidu.com/s/10j4s9eumqmQx4qMbJgKOuw?pwd=73sg"/>
-    <hyperlink ref="C1113" r:id="rId1965" display="https://pan.quark.cn/s/f6e6a2bc49e5"/>
-    <hyperlink ref="B1114" r:id="rId1966" display="https://pan.baidu.com/s/1jm4lgjVk0hFC8d5Xu63qNQ?pwd=gw37"/>
-    <hyperlink ref="C1115" r:id="rId1967" display="https://pan.quark.cn/s/8580cedb8aa9"/>
-    <hyperlink ref="B1115" r:id="rId1968" display="https://pan.baidu.com/s/17Fc1tgdoOsCodMpfBIRlfg?pwd=naxx"/>
-    <hyperlink ref="B1116" r:id="rId1969" display="https://pan.baidu.com/s/1NUVkFBYJFWOWGNOedUxf3w?pwd=txwu"/>
-    <hyperlink ref="C1116" r:id="rId1970" display="https://pan.quark.cn/s/31d268d4ed0c"/>
-    <hyperlink ref="C1117" r:id="rId1971" display="https://pan.quark.cn/s/ece99163537f"/>
-    <hyperlink ref="B1117" r:id="rId1972" display="https://pan.baidu.com/s/1JklHtvLC0NoVmQ0kZHGCHQ?pwd=tt9p"/>
-    <hyperlink ref="B1118" r:id="rId1973" display="https://pan.baidu.com/s/1I9jX4EIHxuFLULS9yewrEQ?pwd=63ga"/>
-    <hyperlink ref="C1118" r:id="rId1974" display="https://pan.quark.cn/s/75b7b79d03f8"/>
-    <hyperlink ref="C1119" r:id="rId1975" display="https://pan.quark.cn/s/9bb896c69dbe"/>
-    <hyperlink ref="B1119" r:id="rId1976" display="https://pan.baidu.com/s/1PCPXVGR-67W8UT27IFfBBg?pwd=a3fh"/>
-    <hyperlink ref="C1120" r:id="rId1977" display="https://pan.quark.cn/s/a802c4cd72ce"/>
-    <hyperlink ref="B1120" r:id="rId1978" display="https://pan.baidu.com/s/1sJcLKuTNepgfe_M3bHtdxw?pwd=wity"/>
-    <hyperlink ref="C1121" r:id="rId1979" display="https://pan.quark.cn/s/872e942d303e"/>
-    <hyperlink ref="B1121" r:id="rId1980" display="https://pan.baidu.com/s/182CcMm7WYJMdGbHVeoGABw?pwd=cv3j"/>
-    <hyperlink ref="C1122" r:id="rId1981" display="https://pan.quark.cn/s/1770bb33c2e2"/>
-    <hyperlink ref="B1122" r:id="rId1982" display="https://pan.baidu.com/s/1qCJpHwG3NcjcxhSABDlU4g?pwd=52bb"/>
-    <hyperlink ref="C1123" r:id="rId1983" display="https://pan.quark.cn/s/f54c710a4fd2"/>
-    <hyperlink ref="B1123" r:id="rId1984" display="https://pan.baidu.com/s/1TSuVH6FG_y11kV3Vp-j6gQ?pwd=dqrb"/>
-    <hyperlink ref="C1124" r:id="rId1985" display="https://pan.quark.cn/s/d26e8bc7ff41"/>
-    <hyperlink ref="B1124" r:id="rId1986" display="https://pan.baidu.com/s/1aijq-qRhT3C0XVL4oxYBpA?pwd=yksd"/>
-    <hyperlink ref="C1125" r:id="rId1987" display="https://pan.quark.cn/s/e658e581ab7e"/>
-    <hyperlink ref="B1125" r:id="rId1988" display="https://pan.baidu.com/s/10uCPpwJpFt3lmaNlMVTBww?pwd=hrtq"/>
-    <hyperlink ref="C1126" r:id="rId1989" display="https://pan.quark.cn/s/8e4ce3dd1241"/>
-    <hyperlink ref="B1126" r:id="rId1990" display="https://pan.baidu.com/s/1jaaLKTJB_UkWhs0_964vXg?pwd=r67r"/>
-    <hyperlink ref="C1127" r:id="rId1991" display="https://pan.quark.cn/s/245c710a9de2"/>
-    <hyperlink ref="B1127" r:id="rId1992" display="https://pan.baidu.com/s/1FMZiekzmMd0D3dwjqd1Rjw?pwd=srbj"/>
-    <hyperlink ref="C1128" r:id="rId1993" display="https://pan.quark.cn/s/565c8c4d411f"/>
-    <hyperlink ref="B1128" r:id="rId1994" display="https://pan.baidu.com/s/14mm7dyMb4TmCE3Fhpv64Zg?pwd=mi2v"/>
-    <hyperlink ref="C1129" r:id="rId1995" display="https://pan.quark.cn/s/1749f0f1ec91"/>
-    <hyperlink ref="B1130" r:id="rId1996" display="https://pan.baidu.com/s/1qZzSyX82GSAMVgwdzey5nA?pwd=27ka"/>
-    <hyperlink ref="C1131" r:id="rId1997" display="https://pan.quark.cn/s/f98db9385f82"/>
-    <hyperlink ref="B1132" r:id="rId1998" display="https://pan.baidu.com/s/10v7DOLb20vV2jVDUjmCdfg?pwd=4tzp"/>
-    <hyperlink ref="C1132" r:id="rId1999" display="https://pan.quark.cn/s/9abc920628f5"/>
-    <hyperlink ref="C368" r:id="rId2000" display="https://pan.quark.cn/s/180e94bfb2c6"/>
-    <hyperlink ref="B368" r:id="rId2001" display="https://pan.baidu.com/s/1F5V0Q65l0vk8GUdGUHxXtQ?pwd=1t4v"/>
-    <hyperlink ref="C1133" r:id="rId2002" display="https://pan.quark.cn/s/210dad6a62c8"/>
-    <hyperlink ref="B1133" r:id="rId2003" display="https://pan.baidu.com/s/14XBl6fFT2s1K-abBS-_KaA?pwd=jnmj"/>
-    <hyperlink ref="B1134" r:id="rId2004" display="https://pan.baidu.com/s/1HIBCHsEa0iu4eCh3BdQlGQ?pwd=7be4"/>
-    <hyperlink ref="C1135" r:id="rId2005" display="https://pan.quark.cn/s/d4957dcb46e1"/>
-    <hyperlink ref="C1136" r:id="rId2006" display="https://pan.quark.cn/s/62808068e157"/>
-    <hyperlink ref="B1137" r:id="rId2007" display="https://pan.baidu.com/s/1ahd3iW1w-LZWqsyo-Ql9Iw?pwd=a24q"/>
-    <hyperlink ref="C1137" r:id="rId2008" display="https://pan.quark.cn/s/77ff15a4a14f"/>
-    <hyperlink ref="C1138" r:id="rId2009" display="https://pan.quark.cn/s/1757d31faa59"/>
-    <hyperlink ref="B1138" r:id="rId2010" display="https://pan.baidu.com/s/1Zkvn4wLLx8cjhaGF13Ldow?pwd=djpc"/>
-    <hyperlink ref="B514" r:id="rId2011" display="https://pan.baidu.com/s/1-G9bVi2eNS-9iocmufERSA?pwd=1ju2"/>
-    <hyperlink ref="C695" r:id="rId2012" display="https://pan.quark.cn/s/fe23b590f836"/>
-    <hyperlink ref="C191" r:id="rId2013" display="https://pan.quark.cn/s/4025780c4de0"/>
-    <hyperlink ref="C194" r:id="rId2014" display="https://pan.quark.cn/s/5885ba601c19"/>
-    <hyperlink ref="B194" r:id="rId2015" display="https://pan.baidu.com/s/1JPAXUSL6gofegfUXEzLLTA?pwd=mp3x"/>
-    <hyperlink ref="B1139" r:id="rId2016" display="https://pan.baidu.com/s/1lvVbVuO4Wve8AyFjfysUZA?pwd=xx2i"/>
-    <hyperlink ref="C1139" r:id="rId2017" display="https://pan.quark.cn/s/4ef912e3a8d9"/>
-    <hyperlink ref="B1140" r:id="rId2018" display="https://pan.baidu.com/s/1NqghiTWmR_SSO2t6t9_42w?pwd=xxe3"/>
-    <hyperlink ref="C1140" r:id="rId2019" display="https://pan.quark.cn/s/e68dcf76c699"/>
-    <hyperlink ref="C1141" r:id="rId2020" display="https://pan.quark.cn/s/b0e80df743e8"/>
-    <hyperlink ref="B1141" r:id="rId2021" display="https://pan.baidu.com/s/1-QPTWGOns2san8ni3cIiXw?pwd=xjkx"/>
-    <hyperlink ref="B1142" r:id="rId2022" display="https://pan.baidu.com/s/1V4gSgZ6H_7xNtbnIcTYBPQ?pwd=w2uk"/>
-    <hyperlink ref="C1142" r:id="rId2023" display="https://pan.quark.cn/s/7a6de9fb1b4d"/>
-    <hyperlink ref="C1143" r:id="rId2024" display="https://pan.quark.cn/s/b48214d64c98"/>
-    <hyperlink ref="B1143" r:id="rId2025" display="https://pan.baidu.com/s/1VV8jzs5PEYEJxwZ3mUTUPQ?pwd=28fc"/>
-    <hyperlink ref="C1144" r:id="rId2026" display="https://pan.quark.cn/s/89c61d20b650"/>
-    <hyperlink ref="B1144" r:id="rId2027" display="https://pan.baidu.com/s/1usmT-n_CR1yLZAKvuKYK9g?pwd=9g8b"/>
-    <hyperlink ref="C1145" r:id="rId2028" display="https://pan.quark.cn/s/2c52895758d5"/>
-    <hyperlink ref="C1146" r:id="rId2029" display="https://pan.quark.cn/s/c1ec38d03df4"/>
-    <hyperlink ref="C1147" r:id="rId2030" display="https://pan.quark.cn/s/f546257d0955"/>
-    <hyperlink ref="C1148" r:id="rId2031" display="https://pan.quark.cn/s/e51753b0817a"/>
-    <hyperlink ref="C1149" r:id="rId2032" display="https://pan.quark.cn/s/0f180e0c7813"/>
-    <hyperlink ref="C1150" r:id="rId2033" display="https://pan.quark.cn/s/7f840a94c486"/>
-    <hyperlink ref="C1151" r:id="rId2034" display="https://pan.quark.cn/s/0aa3a962a2ae"/>
-    <hyperlink ref="B1145" r:id="rId2035" display="https://pan.baidu.com/s/1AGkrAXDu3EfioKDDIS45-A?pwd=m1hn"/>
-    <hyperlink ref="B1146" r:id="rId2036" display="https://pan.baidu.com/s/1dkKxcDF854OuErYztJfhUg?pwd=f2tn"/>
-    <hyperlink ref="B1148" r:id="rId2037" display="https://pan.baidu.com/s/1QI_eHs2_xrfg3k28WMDa9Q?pwd=uqwd"/>
-    <hyperlink ref="B1149" r:id="rId2038" display="https://pan.baidu.com/s/13lGEl_tAh-YTG2L5I5agLg?pwd=v88h"/>
-    <hyperlink ref="B1147" r:id="rId2039" display="https://pan.baidu.com/s/1txLNHA0XLzDVhrN8cL41ww?pwd=1n9q"/>
-    <hyperlink ref="B1151" r:id="rId2040" display="https://pan.baidu.com/s/14W2YD2jZzMFpYzj-oU1yxg?pwd=78jj"/>
-    <hyperlink ref="C1152" r:id="rId2041" display="https://pan.quark.cn/s/21c216634756"/>
-    <hyperlink ref="B1152" r:id="rId2042" display="https://pan.baidu.com/s/12hTJ9gCUaUKWeQ494Rft1g?pwd=r2v5"/>
-    <hyperlink ref="C1153" r:id="rId2043" display="https://pan.quark.cn/s/6e64b73d3008"/>
-    <hyperlink ref="B1153" r:id="rId2044" display="https://pan.baidu.com/s/1mDrmBekuR0F8T75a9P6CDQ?pwd=bm41"/>
-    <hyperlink ref="C1154" r:id="rId2045" display="https://pan.quark.cn/s/039158cf8d9d"/>
-    <hyperlink ref="B1154" r:id="rId2046" display="https://pan.baidu.com/s/14Vzo4Y5ngCjUqnYyYzNTSQ?pwd=js2r"/>
-    <hyperlink ref="C1155" r:id="rId2047" display="https://pan.quark.cn/s/2e5d253318fd"/>
-    <hyperlink ref="B1155" r:id="rId2048" display="https://pan.baidu.com/s/1oWuCDrbwuUU4WBGoX_QJ3g?pwd=9dvk"/>
-    <hyperlink ref="C1156" r:id="rId2049" display="https://pan.quark.cn/s/a41512d41319"/>
-    <hyperlink ref="B1156" r:id="rId2050" display="https://pan.baidu.com/s/1F163AUxcKu8tB0pNQUpgcw?pwd=kgug"/>
-    <hyperlink ref="C1157" r:id="rId2051" display="https://pan.quark.cn/s/2cd017457274"/>
-    <hyperlink ref="B1157" r:id="rId2052" display="https://pan.baidu.com/s/1sZoZ1HNDIi7LmYr7Ec4k7g?pwd=51gj"/>
-    <hyperlink ref="C1158" r:id="rId2053" display="https://pan.quark.cn/s/6e10f587a473"/>
-    <hyperlink ref="B1158" r:id="rId2054" display="https://pan.baidu.com/s/1gcfKKd3UP5nikLFlDVpfOw?pwd=zym7"/>
-    <hyperlink ref="C1159" r:id="rId2055" display="https://pan.quark.cn/s/31a2e6356fa4"/>
-    <hyperlink ref="B1159" r:id="rId2056" display="https://pan.baidu.com/s/18vCcrgLMngNusG4AoaVNHQ?pwd=28m3"/>
-    <hyperlink ref="C1160" r:id="rId2057" display="https://pan.quark.cn/s/4d4cceb726e6"/>
-    <hyperlink ref="B1160" r:id="rId2058" display="https://pan.baidu.com/s/1abCnRcEP0tluVdyQK0ZH3Q?pwd=tgh8"/>
-    <hyperlink ref="C1161" r:id="rId2059" display="https://pan.quark.cn/s/80c2dd4884de"/>
-    <hyperlink ref="B1161" r:id="rId2060" display="https://pan.baidu.com/s/1sF2npWspcskh1MUuDKvmTw?pwd=prbu"/>
-    <hyperlink ref="C1162" r:id="rId2061" display="https://pan.quark.cn/s/eba1267dcec3"/>
-    <hyperlink ref="B1162" r:id="rId2062" display="https://pan.baidu.com/s/1H-qwvIiQngWjJUSe3KEo6w?pwd=ktvh"/>
-    <hyperlink ref="C1163" r:id="rId2063" display="https://pan.quark.cn/s/537d0e901a90"/>
-    <hyperlink ref="B1163" r:id="rId2064" display="https://pan.baidu.com/s/1JD6ZXUlrXi5SSns03NA46w?pwd=cp65"/>
-    <hyperlink ref="C1164" r:id="rId2065" display="https://pan.quark.cn/s/491a1f301ea6"/>
-    <hyperlink ref="B1164" r:id="rId2066" display="https://pan.baidu.com/s/19PNjofjCWYJAfymvTIqUDA?pwd=qie5"/>
-    <hyperlink ref="C1165" r:id="rId2067" display="https://pan.quark.cn/s/b8bc4d69d61e"/>
-    <hyperlink ref="B1165" r:id="rId2068" display="https://pan.baidu.com/s/1n69O1V7JrA0Mk--Rl1GGQw?pwd=p5cy"/>
-    <hyperlink ref="C1166" r:id="rId2069" display="https://pan.quark.cn/s/5b1cceb34561"/>
-    <hyperlink ref="B1166" r:id="rId2070" display="https://pan.baidu.com/s/1v_weiv_1Jphq6ojcdP3znw?pwd=72wj"/>
-    <hyperlink ref="C1167" r:id="rId2071" display="https://pan.quark.cn/s/2aacfc1b05c2"/>
-    <hyperlink ref="B1167" r:id="rId2072" display="https://pan.baidu.com/s/1FsyAO1YvwBGdMTaJxDS51Q?pwd=36jq"/>
-    <hyperlink ref="C1168" r:id="rId2073" display="https://pan.quark.cn/s/d3336f1eeb1f"/>
-    <hyperlink ref="B1168" r:id="rId2074" display="https://pan.baidu.com/s/1vyrllnfH8M1mvD5_EsKL-g?pwd=sphw"/>
-    <hyperlink ref="B1169" r:id="rId2075" display="https://pan.baidu.com/s/1q7z2luDgfDj2E3-qW_qe5Q?pwd=d15q"/>
-    <hyperlink ref="C1169" r:id="rId2076" display="https://pan.quark.cn/s/e43f244c10c0"/>
-    <hyperlink ref="C1170" r:id="rId2077" display="https://pan.quark.cn/s/d5a424d24af5"/>
-    <hyperlink ref="B1170" r:id="rId2078" display="https://pan.baidu.com/s/1kRjRePD35VZIE-UvpzIVLA?pwd=ca2b"/>
-    <hyperlink ref="C1171" r:id="rId2079" display="https://pan.quark.cn/s/aea33b26768c"/>
-    <hyperlink ref="B1171" r:id="rId2080" display="https://pan.baidu.com/s/1ofSozh-kfjMzgi8WPYl-9w?pwd=9psb"/>
-    <hyperlink ref="B1172" r:id="rId2081" display="https://pan.baidu.com/s/17z6pPEdUQQDFwBAHp7UJIQ?pwd=qwrs"/>
-    <hyperlink ref="C1173" r:id="rId2082" display="https://pan.quark.cn/s/b506cd40bcc9"/>
-    <hyperlink ref="C1174" r:id="rId2083" display="https://pan.quark.cn/s/3ed9272fe967"/>
-    <hyperlink ref="B1174" r:id="rId2084" display="https://pan.baidu.com/s/1lknHJy7cLu5hoKI5a9HLig?pwd=ku5d"/>
-    <hyperlink ref="C1175" r:id="rId2085" display="https://pan.quark.cn/s/5d2bb996efeb"/>
-    <hyperlink ref="C1176" r:id="rId2086" display="https://pan.quark.cn/s/a2fd357b2b2f"/>
-    <hyperlink ref="B1176" r:id="rId2087" display="https://pan.baidu.com/s/16vgscnds21zqDUZ1Rea_3g?pwd=7naq"/>
-    <hyperlink ref="C1177" r:id="rId2088" display="https://pan.quark.cn/s/ccf0e64495ea"/>
-    <hyperlink ref="C1178" r:id="rId2089" display="https://pan.quark.cn/s/77126378c298"/>
-    <hyperlink ref="B1177" r:id="rId2090" display="https://pan.baidu.com/s/1GiQpovedlr9BWErmIED1RA?pwd=uash"/>
-    <hyperlink ref="B1178" r:id="rId2091" display="https://pan.baidu.com/s/1ulT4ytVu8TwhCIR6Vshr3w?pwd=ysie"/>
-    <hyperlink ref="C1179" r:id="rId2092" display="https://pan.quark.cn/s/4438b4319920"/>
-    <hyperlink ref="C1180" r:id="rId2093" display="https://pan.quark.cn/s/ef66016c8b47"/>
-    <hyperlink ref="B1179" r:id="rId2094" display="https://pan.baidu.com/s/1GeIXF0IOXQKKhf5wQ8mcxA?pwd=ek2w"/>
-    <hyperlink ref="B1180" r:id="rId2095" display="https://pan.baidu.com/s/1dmeksFNoXbJLO7CCREoBsg?pwd=e7ub"/>
-    <hyperlink ref="C1181" r:id="rId2096" display="https://pan.quark.cn/s/075cab7665b4"/>
-    <hyperlink ref="B1182" r:id="rId2097" display="https://pan.baidu.com/s/1L824S7nagu3v3H1Wer40oQ?pwd=h5fm"/>
-    <hyperlink ref="B1183" r:id="rId2098" display="https://pan.baidu.com/s/1VlbucebdW95Rwh4PSabE1Q?pwd=zhwc"/>
-    <hyperlink ref="C1183" r:id="rId2099" display="https://pan.quark.cn/s/9a7bac313ddd"/>
-    <hyperlink ref="B1184" r:id="rId2100" display="https://pan.baidu.com/s/1B5SczPmxtTjrqGWyamRE8g?pwd=b42r"/>
-    <hyperlink ref="C1184" r:id="rId2101" display="https://pan.quark.cn/s/58b95ac1833b"/>
-    <hyperlink ref="B1185" r:id="rId2102" display="https://pan.baidu.com/s/18blLRvTNggbGbMud6Qn0aQ?pwd=vrcg"/>
-    <hyperlink ref="C1185" r:id="rId2103" display="https://pan.quark.cn/s/de21fac08b82"/>
-    <hyperlink ref="B1186" r:id="rId2104" display="https://pan.baidu.com/s/1nifyWLgain91ukK_wV6xdQ?pwd=8r6e"/>
-    <hyperlink ref="C1186" r:id="rId2105" display="https://pan.quark.cn/s/637e5fd258b5"/>
-    <hyperlink ref="B1187" r:id="rId2106" display="https://pan.baidu.com/s/1geo4a4OhoaSh8eCoZpaFng?pwd=s7nx"/>
-    <hyperlink ref="C1187" r:id="rId2107" display="https://pan.quark.cn/s/a398ae1ddfb3"/>
-    <hyperlink ref="C1188" r:id="rId2108" display="https://pan.quark.cn/s/fc2861145a7a"/>
-    <hyperlink ref="B1188" r:id="rId2109" display="https://pan.baidu.com/s/1m42vevNk5VxAZCOV8Vez0w?pwd=kxjg"/>
-    <hyperlink ref="B1189" r:id="rId2110" display="https://pan.baidu.com/s/1NK8kZiPImGbuBDd5u9iszQ?pwd=bw9q"/>
-    <hyperlink ref="C1189" r:id="rId2111" display="https://pan.quark.cn/s/8a0de6bf77ec"/>
-    <hyperlink ref="C1190" r:id="rId2112" display="https://pan.quark.cn/s/b328631a9e94"/>
-    <hyperlink ref="B1190" r:id="rId2113" display="https://pan.baidu.com/s/1LRLocU33oHwW_EJQndLXtw?pwd=krrr"/>
-    <hyperlink ref="C1191" r:id="rId2114" display="https://pan.quark.cn/s/061443a66cd7"/>
-    <hyperlink ref="B1191" r:id="rId2115" display="https://pan.baidu.com/s/1N80FAdHZ3CpcCiHKSmaHqw?pwd=7fi7"/>
-    <hyperlink ref="C1192" r:id="rId2116" display="https://pan.quark.cn/s/53d4555bd723"/>
-    <hyperlink ref="B1192" r:id="rId2117" display="https://pan.baidu.com/s/1H6QWJTvfOjvY_nrwn-2y6g?pwd=tuci"/>
-    <hyperlink ref="C1193" r:id="rId2118" display="https://pan.quark.cn/s/e717d6d8c53e"/>
-    <hyperlink ref="B1193" r:id="rId2119" display="https://pan.baidu.com/s/19dWja0W4qF_LJdnLBhHXpQ?pwd=pzir"/>
-    <hyperlink ref="C1194" r:id="rId2120" display="https://pan.quark.cn/s/9132ddd5d101"/>
-    <hyperlink ref="B1194" r:id="rId2121" display="https://pan.baidu.com/s/1wVnRlUEZuSGLgCV4sNcusw?pwd=qcb1"/>
-    <hyperlink ref="B1195" r:id="rId2122" display="https://pan.baidu.com/s/1c_Y73L9qPtsSZL1bENZlRw?pwd=nmd8"/>
-    <hyperlink ref="C1196" r:id="rId2123" display="https://pan.quark.cn/s/12cd76143cc9"/>
-    <hyperlink ref="B1196" r:id="rId2124" display="https://pan.baidu.com/s/14n7v_bW6yIjmLKr7tBmCbA?pwd=8r3p"/>
-    <hyperlink ref="C1197" r:id="rId2125" display="https://pan.quark.cn/s/230ec9880b0a"/>
-    <hyperlink ref="B1197" r:id="rId2126" display="https://pan.baidu.com/s/1yqKZuK3hdsfCUtIw25S4_w?pwd=m586"/>
-    <hyperlink ref="B875" r:id="rId2127" display="https://pan.baidu.com/s/1B8lzg94qt51oiMRtLJHdHg?pwd=nxpf"/>
-    <hyperlink ref="C1198" r:id="rId2128" display="https://pan.quark.cn/s/8d9805ab0523"/>
-    <hyperlink ref="B1198" r:id="rId2129" display="https://pan.baidu.com/s/1MDVs7y6-wl4sU21Eu597Hw?pwd=449q"/>
-    <hyperlink ref="C1199" r:id="rId2130" display="https://pan.quark.cn/s/9df3271d11d7"/>
-    <hyperlink ref="B1200" r:id="rId2131" display="https://pan.baidu.com/s/1uYB6ayB4FH9Kj6C0HQgrvg?pwd=3p69"/>
-    <hyperlink ref="B1199" r:id="rId2132" display="https://pan.baidu.com/s/1oNxC3hD3lW-27uz3wfu30A?pwd=adsq"/>
-    <hyperlink ref="C1200" r:id="rId2133" display="https://pan.quark.cn/s/1fc4b31883a6"/>
-    <hyperlink ref="C1201" r:id="rId2134" display="https://pan.quark.cn/s/ca7b70125436"/>
-    <hyperlink ref="B1201" r:id="rId2135" display="https://pan.baidu.com/s/1koOeQlASFDqqIxMgizVmiA?pwd=5si3"/>
-    <hyperlink ref="C1202" r:id="rId2136" display="https://pan.quark.cn/s/23bb008fb4f1"/>
-    <hyperlink ref="B1202" r:id="rId2137" display="https://pan.baidu.com/s/16MQHL5cUTR7sFUPz2vFlYg?pwd=v6up"/>
-    <hyperlink ref="C1203" r:id="rId2138" display="https://pan.quark.cn/s/c2f8557cb7ad"/>
-    <hyperlink ref="B1203" r:id="rId2139" display="https://pan.baidu.com/s/1NiTeftPBbq0Gbx7k-Q9zrA?pwd=gf36"/>
-    <hyperlink ref="C1204" r:id="rId2140" display="https://pan.quark.cn/s/1bcefd6afb70"/>
-    <hyperlink ref="B1204" r:id="rId2141" display="https://pan.baidu.com/s/18r7HTm6RAdHNKKignE2Ytw?pwd=i5ue"/>
-    <hyperlink ref="C1205" r:id="rId2142" display="https://pan.quark.cn/s/b06f153cc045"/>
-    <hyperlink ref="B1205" r:id="rId2143" display="https://pan.baidu.com/s/1k4Ke9HyTZjqtK6U8VAuYVw?pwd=a535"/>
-    <hyperlink ref="C1206" r:id="rId2144" display="https://pan.quark.cn/s/b7fe888fe130"/>
-    <hyperlink ref="B1206" r:id="rId2145" display="https://pan.baidu.com/s/1-SlWFztOhtQn3T-gxzAjHw?pwd=85vz"/>
-    <hyperlink ref="C1207" r:id="rId2146" display="https://pan.quark.cn/s/fb39f1982f25"/>
-    <hyperlink ref="B1207" r:id="rId2147" display="https://pan.baidu.com/s/1fkWix48bTmR65XrBGA9KJQ?pwd=diny"/>
-    <hyperlink ref="B1208" r:id="rId2148" display="https://pan.baidu.com/s/1ZUCko6qbrxu0MDrogOstzw?pwd=7ujy"/>
-    <hyperlink ref="C1208" r:id="rId2149" display="https://pan.quark.cn/s/246c23cf906c"/>
-    <hyperlink ref="C1209" r:id="rId2150" display="https://pan.quark.cn/s/fa0046e3df67"/>
-    <hyperlink ref="C1210" r:id="rId2151" display="https://pan.quark.cn/s/b100f8ab845c"/>
-    <hyperlink ref="B1209" r:id="rId2152" display="https://pan.baidu.com/s/1qxNVq8uVirCPp5JuW5TSSg?pwd=v2pc"/>
-    <hyperlink ref="B1210" r:id="rId2153" display="https://pan.baidu.com/s/18nTbPmUALWjteXsYUIBrqA?pwd=vp3k"/>
-    <hyperlink ref="B1211" r:id="rId2154" display="https://pan.baidu.com/s/1U4qC3pApbmes3was4ZAmIA?pwd=bv4b"/>
-    <hyperlink ref="C1211" r:id="rId2155" display="https://pan.quark.cn/s/d2d8e4bdd3f4"/>
-    <hyperlink ref="C1212" r:id="rId2156" display="https://pan.quark.cn/s/d41df111bb49"/>
-    <hyperlink ref="B1212" r:id="rId2157" display="https://pan.baidu.com/s/1IM_71rzjwyzqnvMDbjAnlw?pwd=cfim"/>
-    <hyperlink ref="C1213" r:id="rId2158" display="https://pan.quark.cn/s/97302efd0fca"/>
-    <hyperlink ref="B1213" r:id="rId2159" display="https://pan.baidu.com/s/1VKgJPuwalBJL7BMCPyt5mw?pwd=eicx"/>
-    <hyperlink ref="B1214" r:id="rId2160" display="https://pan.baidu.com/s/1vZC_RWBp-vApX6zteKjEmQ?pwd=d6q8"/>
-    <hyperlink ref="C1214" r:id="rId2161" display="https://pan.quark.cn/s/175f4ff07c60"/>
-    <hyperlink ref="C1215" r:id="rId2162" display="https://pan.quark.cn/s/ab24d9e8dac1"/>
-    <hyperlink ref="B1215" r:id="rId2163" display="https://pan.baidu.com/s/1WDTs7WPHZhLQRfxmuvLTHg?pwd=8m16"/>
-    <hyperlink ref="B1216" r:id="rId2164" display="https://pan.baidu.com/s/1Cfxq9y9llmlcRSdi_ocHtw?pwd=a6zc"/>
-    <hyperlink ref="C1216" r:id="rId2165" display="https://pan.quark.cn/s/9e2648216b43"/>
-    <hyperlink ref="C1217" r:id="rId2166" display="https://pan.quark.cn/s/370c7d0f169e"/>
-    <hyperlink ref="B1217" r:id="rId2167" display="https://pan.baidu.com/s/1YvgGiKSXoFuSIMb5My4UtA?pwd=fe7z"/>
-    <hyperlink ref="C1218" r:id="rId2168" display="https://pan.quark.cn/s/b78be930e9ab"/>
-    <hyperlink ref="B1218" r:id="rId2169" display="https://pan.baidu.com/s/1bwLNQaxV-AKJ6HQhnWrYaQ?pwd=7arq"/>
-    <hyperlink ref="B1219" r:id="rId2170" display="https://pan.baidu.com/s/1aOxSpmKxOStkWYTbnk3Y5g?pwd=bvqd"/>
-    <hyperlink ref="C1219" r:id="rId2171" display="https://pan.quark.cn/s/059fee4a2fa8"/>
-    <hyperlink ref="B1220" r:id="rId2172" display="https://pan.baidu.com/s/1CCIl0Lkga9vkO6_8kAVxsg?pwd=e4qg"/>
-    <hyperlink ref="C1220" r:id="rId2173" display="https://pan.quark.cn/s/9495eb377423"/>
-    <hyperlink ref="B1221" r:id="rId2174" display="https://pan.baidu.com/s/1aBHl7eMC_W-d8H-RQGMgWg?pwd=k4vg"/>
-    <hyperlink ref="C1221" r:id="rId2175" display="https://pan.quark.cn/s/3901a1f0ac8e"/>
-    <hyperlink ref="C1222" r:id="rId2176" display="https://pan.quark.cn/s/893a2d4d6ee1"/>
-    <hyperlink ref="B1222" r:id="rId2177" display="https://pan.baidu.com/s/1M_f8pgzJE1IQ_gbwsqVy6g?pwd=85wq"/>
-    <hyperlink ref="B1223" r:id="rId2178" display="https://pan.baidu.com/s/1fy-WtpVv4d7C3w6K3sAO5g?pwd=r4pt"/>
-    <hyperlink ref="B1224" r:id="rId2179" display="https://pan.baidu.com/s/16XARMlN2NtGG69CZDo5eyQ?pwd=dgve"/>
-    <hyperlink ref="C1224" r:id="rId2180" display="https://pan.quark.cn/s/56c6302e7778"/>
-    <hyperlink ref="C1225" r:id="rId2181" display="https://pan.quark.cn/s/eae090a7835d"/>
-    <hyperlink ref="B1225" r:id="rId2182" display="https://pan.baidu.com/s/158ECBafM4rkuQRxnVAij4w?pwd=nxi1"/>
-    <hyperlink ref="C1226" r:id="rId2183" display="https://pan.quark.cn/s/257c77618d2b"/>
-    <hyperlink ref="B1226" r:id="rId2184" display="https://pan.baidu.com/s/1QBS72e63LsbfGiozEMBrDQ?pwd=k9fm"/>
-    <hyperlink ref="C1227" r:id="rId2185" display="https://pan.quark.cn/s/4cfcbdd4ae66"/>
-    <hyperlink ref="B1227" r:id="rId2186" display="https://pan.baidu.com/s/1dPu4MYUy9sPOVmw1Roj02g?pwd=s2rv"/>
-    <hyperlink ref="B1228" r:id="rId2187" display="https://pan.baidu.com/s/10NuyxqVAKPPuPSEDUU1WVQ?pwd=7ycf"/>
-    <hyperlink ref="C1228" r:id="rId2188" display="https://pan.quark.cn/s/483214bb369a"/>
-    <hyperlink ref="B1229" r:id="rId2189" display="https://pan.baidu.com/s/1387S6RLsCttrxRTxsao5DQ?pwd=4wb5"/>
-    <hyperlink ref="C1229" r:id="rId2190" display="https://pan.quark.cn/s/109e977fc55d"/>
-    <hyperlink ref="B1230" r:id="rId2191" display="https://pan.baidu.com/s/1q3wMygBq7k3j4vpOY7GjRQ?pwd=gfwa"/>
-    <hyperlink ref="C1230" r:id="rId2192" display="https://pan.quark.cn/s/3538bc440ce3"/>
-    <hyperlink ref="B1231" r:id="rId2193" display="https://pan.baidu.com/s/1yu4dkSiKs3mshfwl0Yw6tg?pwd=uveg"/>
-    <hyperlink ref="C1231" r:id="rId2194" display="https://pan.quark.cn/s/c26ac39d833e"/>
-    <hyperlink ref="B1232" r:id="rId2195" display="https://pan.baidu.com/s/19L2ky_lBQmwY6WBJVsS06A?pwd=e9we"/>
-    <hyperlink ref="C1232" r:id="rId2196" display="https://pan.quark.cn/s/856041dc7d75"/>
-    <hyperlink ref="C1233" r:id="rId2197" display="https://pan.quark.cn/s/1ea3a09b3f35"/>
-    <hyperlink ref="B1233" r:id="rId2198" display="https://pan.baidu.com/s/1BVFDyeSymw-2vrR2wJENRQ?pwd=7w78"/>
-    <hyperlink ref="C1234" r:id="rId2199" display="https://pan.quark.cn/s/267b71ed39c6"/>
-    <hyperlink ref="B1234" r:id="rId2200" display="https://pan.baidu.com/s/1cg5cNgZNB0c6hLl7EtYliA?pwd=31wc"/>
-    <hyperlink ref="C1235" r:id="rId2201" display="https://pan.quark.cn/s/a2dc1cbc2d05"/>
-    <hyperlink ref="B1236" r:id="rId2202" display="https://pan.baidu.com/s/1EeSG36eXrvPibPdsI0Y9bQ?pwd=c7ew"/>
-    <hyperlink ref="B1237" r:id="rId2203" display="https://pan.baidu.com/s/1rje9gT_jpz_dwdd-tbf1ew?pwd=m7kd"/>
-    <hyperlink ref="C1238" r:id="rId2204" display="https://pan.quark.cn/s/7a45c17898e9"/>
-    <hyperlink ref="B1238" r:id="rId2205" display="https://pan.baidu.com/s/1TjVeRW1dzlJMZvEODGs56g?pwd=q8wz"/>
-    <hyperlink ref="C1239" r:id="rId2206" display="https://pan.quark.cn/s/82b958e4cea2"/>
-    <hyperlink ref="C1240" r:id="rId2207" display="https://pan.quark.cn/s/571fd6ef10d8"/>
-    <hyperlink ref="C1241" r:id="rId2208" display="https://pan.quark.cn/s/e734698a99f9"/>
-    <hyperlink ref="B1240" r:id="rId2209" display="https://pan.baidu.com/s/15QowMp0ZMGjo-NHpy6zQIA?pwd=kxhk"/>
-    <hyperlink ref="B1239" r:id="rId2210" display="https://pan.baidu.com/s/1v3V67Z5GxVLyFMDbeqiHeQ?pwd=s9xn"/>
-    <hyperlink ref="B1241" r:id="rId2211" display="https://pan.baidu.com/s/1JoxccnL7p3xuUcd3fDt0Rw?pwd=im9s"/>
-    <hyperlink ref="C1242" r:id="rId2212" display="https://pan.quark.cn/s/ced4871ab6f9"/>
-    <hyperlink ref="B1243" r:id="rId2213" display="https://pan.baidu.com/s/1lfSw3wpUvuFe-SNRMLxgkg?pwd=v2ys"/>
-    <hyperlink ref="C1243" r:id="rId2214" display="https://pan.quark.cn/s/149f67b20457"/>
-    <hyperlink ref="B1244" r:id="rId2215" display="https://pan.baidu.com/s/1l5CGuVKZGkQM-Ove6FGYzQ?pwd=75nq"/>
-    <hyperlink ref="C1244" r:id="rId2216" display="https://pan.quark.cn/s/b16cb58a3fcc"/>
-    <hyperlink ref="B1245" r:id="rId2217" display="https://pan.baidu.com/s/1fDHSzZeFbQIxQBe3gt8IUg?pwd=92qu"/>
-    <hyperlink ref="C1245" r:id="rId2218" display="https://pan.quark.cn/s/ef95eb0f9614"/>
-    <hyperlink ref="C1246" r:id="rId2219" display="https://pan.quark.cn/s/5158f12bbafc"/>
-    <hyperlink ref="C1247" r:id="rId2220" display="https://pan.quark.cn/s/bdbeca278895"/>
-    <hyperlink ref="C1248" r:id="rId2221" display="https://pan.quark.cn/s/d489c6ea0d5d"/>
-    <hyperlink ref="C1249" r:id="rId2222" display="https://pan.quark.cn/s/d5a2b0a30a74"/>
-    <hyperlink ref="C1250" r:id="rId2223" display="https://pan.quark.cn/s/b8a1ed6608a5"/>
-    <hyperlink ref="C1251" r:id="rId2224" display="https://pan.quark.cn/s/6d38899bf082"/>
-    <hyperlink ref="C1252" r:id="rId2225" display="https://pan.quark.cn/s/1faf8c1d4399"/>
-    <hyperlink ref="C1254" r:id="rId2226" display="https://pan.quark.cn/s/caf19933ad8b"/>
-    <hyperlink ref="C1253" r:id="rId2227" display="https://pan.quark.cn/s/ba797ff889a7"/>
-    <hyperlink ref="B1246" r:id="rId2228" display="https://pan.baidu.com/s/1AlX10xY2TkEkCa9bfgCSyQ?pwd=p5ab"/>
-    <hyperlink ref="C1255" r:id="rId2229" display="https://pan.quark.cn/s/fb68f3d12c2d"/>
-    <hyperlink ref="B1247" r:id="rId2230" display="https://pan.baidu.com/s/14vOYMMsxN9t-YZQ1uhG7yw?pwd=2hf6"/>
-    <hyperlink ref="B1256" r:id="rId2231" display="https://pan.baidu.com/s/1NtnQmUlblzQUTAGyI4kuvQ?pwd=qvyx"/>
-    <hyperlink ref="B1257" r:id="rId2232" display="https://pan.baidu.com/s/1tMkEP0SU4Jr0Uc1jNmZVKw?pwd=p5j5"/>
-    <hyperlink ref="B1258" r:id="rId2233" display="https://pan.baidu.com/s/15-2-StsFj0Fd7yo1O3goPw?pwd=7u3e"/>
-    <hyperlink ref="B1259" r:id="rId2234" display="https://pan.baidu.com/s/1q1v6YL2SnX1_2Kd8RQFRNw?pwd=364t"/>
-    <hyperlink ref="B1260" r:id="rId2235" display="https://pan.baidu.com/s/14MFZr6inULVVzuOyVMAfPw?pwd=946a"/>
-    <hyperlink ref="B1261" r:id="rId2236" display="https://pan.baidu.com/s/19qr4nrWZ5ZvquDCSTPTN9w?pwd=5ek1"/>
-    <hyperlink ref="B1262" r:id="rId2237" display="https://pan.baidu.com/s/1RqGJpsPbitWGAfH--ikF5A?pwd=jh6k"/>
-    <hyperlink ref="B1263" r:id="rId2238" display="https://pan.baidu.com/s/1PPpj-7GZVlYEJ4KQSdyMmA?pwd=vna9"/>
-    <hyperlink ref="B1264" r:id="rId2239" display="https://pan.baidu.com/s/1FThbBk9C39Bc9bDpj9Jm9w?pwd=51ar"/>
-    <hyperlink ref="B1265" r:id="rId2240" display="https://pan.baidu.com/s/1UKFkvm-XswrnhA11JMf5FQ?pwd=qm3j"/>
-    <hyperlink ref="B1266" r:id="rId2241" display="https://pan.baidu.com/s/1Srktc4eZuWamT6OHXbq5Hg?pwd=apbi"/>
-    <hyperlink ref="B1267" r:id="rId2242" display="https://pan.baidu.com/s/17fGT_cnLzN5wV043ypR6Iw?pwd=x7uc"/>
-    <hyperlink ref="B1268" r:id="rId2243" display="https://pan.baidu.com/s/1Xw9LI3dZbkzG3X2ervDNVA?pwd=2t4b"/>
-    <hyperlink ref="B1269" r:id="rId2244" display="https://pan.baidu.com/s/1OfQDwsE51zzYpzfjSGZinA?pwd=hc4g"/>
-    <hyperlink ref="B1270" r:id="rId2245" display="https://pan.baidu.com/s/11gFwkXCzKGuwPiSEIj9V3w?pwd=vwp4"/>
-    <hyperlink ref="B1271" r:id="rId2246" display="https://pan.baidu.com/s/1MRYa_YuJbVnzZk98qkH13Q?pwd=ypyj"/>
-    <hyperlink ref="B1272" r:id="rId2247" display="https://pan.baidu.com/s/1thD93fn5O5ktfY1yvaj09g?pwd=y27n"/>
-    <hyperlink ref="B1273" r:id="rId2248" display="https://pan.baidu.com/s/1Is9OuK3sTXy7oQ_8MUBXcQ?pwd=saqj"/>
-    <hyperlink ref="B1274" r:id="rId2249" display="https://pan.baidu.com/s/1YRZiXxwpIOVHYf0QolSbmw?pwd=st9q"/>
-    <hyperlink ref="C1275" r:id="rId2250" display="https://pan.quark.cn/s/8856cdea7f06"/>
-    <hyperlink ref="C894" r:id="rId2251" display="https://pan.quark.cn/s/201d2b71d6ff"/>
-    <hyperlink ref="C1270" r:id="rId2252" display="https://pan.quark.cn/s/d3753629d6d9"/>
-    <hyperlink ref="B1278" r:id="rId2253" display="https://pan.baidu.com/s/1zy9DpCtvW-eTmqgvdgphiA?pwd=ui31"/>
-    <hyperlink ref="B1277" r:id="rId2254" display="https://pan.baidu.com/s/1qSM1Wwe-HGZfEoHW1YVatw?pwd=dqdb"/>
-    <hyperlink ref="C1279" r:id="rId2255" display="https://pan.quark.cn/s/7138650d5e49"/>
-    <hyperlink ref="B1279" r:id="rId2256" display="https://pan.baidu.com/s/1JAmSf63fNbZjFLanIxo88A?pwd=sc6q"/>
-    <hyperlink ref="B1280" r:id="rId2257" display="https://pan.baidu.com/s/14l28bqHngjCPbDVySDS8Fw?pwd=qbrw"/>
-    <hyperlink ref="B1281" r:id="rId2258" display="https://pan.baidu.com/s/1CajhweHF4-05K0KJyMc0NA?pwd=ukrq"/>
-    <hyperlink ref="B1282" r:id="rId2259" display="https://pan.baidu.com/s/1qCj29mX3h2aIl8S1ifpRIg?pwd=fexk"/>
-    <hyperlink ref="B1283" r:id="rId2260" display="https://pan.baidu.com/s/1xuzEKPf_LrbwLc4IqLZMIg?pwd=ysyc"/>
-    <hyperlink ref="B1284" r:id="rId2261" display="https://pan.baidu.com/s/16veTimjSkR-x1SPVvAKHFw?pwd=nd8i"/>
-    <hyperlink ref="B1285" r:id="rId2262" display="https://pan.baidu.com/s/1dBLPfXL62NskAb_NDBl9hw?pwd=35m2"/>
-    <hyperlink ref="B1286" r:id="rId2263" display="https://pan.baidu.com/s/1NmqAyAqv6C0XCrPxZ_zWKw?pwd=7pbd"/>
-    <hyperlink ref="B1287" r:id="rId2264" display="https://pan.baidu.com/s/1anrRpx82uUqraUeoCg7JeQ?pwd=wyji"/>
-    <hyperlink ref="B1288" r:id="rId2265" display="https://pan.baidu.com/s/1GbuYtP0vkZpc5aoZHJkB2g?pwd=cnv2"/>
-    <hyperlink ref="B1289" r:id="rId2266" display="https://pan.baidu.com/s/1-h-fG8uFnC5EBUvDbzvgdg?pwd=qpyk"/>
-    <hyperlink ref="B1290" r:id="rId2267" display="https://pan.baidu.com/s/14IZkb3035SBImZIJuUISPw?pwd=yscj"/>
-    <hyperlink ref="B1292" r:id="rId2268" display="https://pan.baidu.com/s/13AL15coK4I1MhS_iOpnnrQ?pwd=hfui"/>
-    <hyperlink ref="B1293" r:id="rId2269" display="https://pan.baidu.com/s/17l1EGcuvSF4_Tt2VJ4u3Gg?pwd=6ixe"/>
-    <hyperlink ref="B1294" r:id="rId2270" display="https://pan.baidu.com/s/1YCZc0sP6DfVxcXvyaWrOxw?pwd=7yv8"/>
-    <hyperlink ref="B1295" r:id="rId2271" display="https://pan.baidu.com/s/1ndTP6EFpKygLflTBEiV2eA?pwd=r7qi"/>
-    <hyperlink ref="B1296" r:id="rId2272" display="https://pan.baidu.com/s/1Cf4_bZuqd3SE3WzNTBu8LA?pwd=fhr8"/>
-    <hyperlink ref="B1297" r:id="rId2273" display="https://pan.baidu.com/s/1ZHdlYp6ZA6wkpBxA8vP_eA?pwd=5ws5"/>
-    <hyperlink ref="B1298" r:id="rId2274" display="https://pan.baidu.com/s/1MJigLyXR5Yxqrk0Jra9KjQ?pwd=px6t"/>
-    <hyperlink ref="B1299" r:id="rId2275" display="https://pan.baidu.com/s/1wuTKU662d0RGPHItsQlnng?pwd=59fj"/>
-    <hyperlink ref="B37" r:id="rId2276" display="https://pan.baidu.com/s/1IBkLXJsf5rFe95cbAZEh-g?pwd=ymda"/>
-    <hyperlink ref="B1300" r:id="rId2277" display="https://pan.baidu.com/s/1NxVAfIBCRVsnaxFn0EinzA?pwd=nxhi"/>
-    <hyperlink ref="B586" r:id="rId2278" display="https://pan.baidu.com/s/1mRL_C0kCbBAd8LS0xd-L_g?pwd=9ayu"/>
-    <hyperlink ref="B1302" r:id="rId2279" display="https://pan.baidu.com/s/1Mbl_3j6p1eIOlmQwWOwd6Q?pwd=66xw"/>
-    <hyperlink ref="B1303" r:id="rId2280" display="https://pan.baidu.com/s/1i33NPHL3Qu2CdUMTq3mc5g?pwd=y8vv"/>
-    <hyperlink ref="B1304" r:id="rId2281" display="https://pan.baidu.com/s/1JGQqTI22mGAsbEo9dh3lmA?pwd=gdjd"/>
-    <hyperlink ref="B1305" r:id="rId2282" display="https://pan.baidu.com/s/1AY-k5jisyUj8A2qLtgcOww?pwd=gnjr"/>
-    <hyperlink ref="C1305" r:id="rId2283" display="https://pan.quark.cn/s/831388f37a90"/>
-    <hyperlink ref="C1306" r:id="rId2284" display="https://pan.quark.cn/s/5066af0e97b7"/>
-    <hyperlink ref="B1306" r:id="rId2285" display="https://pan.baidu.com/s/1H7sll8VlYVLxbdoifiPr3w?pwd=177s"/>
-    <hyperlink ref="B1307" r:id="rId2286" display="https://pan.baidu.com/s/1CuYCaxSv-SS17iQvS97AaQ?pwd=bpqe"/>
-    <hyperlink ref="C1307" r:id="rId2287" display="https://pan.quark.cn/s/a91da580b774"/>
-    <hyperlink ref="B1308" r:id="rId2288" display="https://pan.baidu.com/s/1I7jTcVFBA4fWFrACG-szsQ?pwd=qj7y"/>
-    <hyperlink ref="C1308" r:id="rId2289" display="https://pan.quark.cn/s/e3a4c9d32217"/>
-    <hyperlink ref="C1309" r:id="rId2290" display="https://pan.quark.cn/s/43f456f3c9cf"/>
-    <hyperlink ref="B1310" r:id="rId2291" display="https://pan.baidu.com/s/152A_NFOunVbzs0_Hx49RBg?pwd=ux29"/>
-    <hyperlink ref="C1310" r:id="rId2292" display="https://pan.quark.cn/s/878ab85ec9e0"/>
-    <hyperlink ref="C1311" r:id="rId2293" display="https://pan.quark.cn/s/5c40f9303593"/>
-    <hyperlink ref="B1311" r:id="rId2294" display="https://pan.baidu.com/s/130RNZwTz2BrICsUl7hK56g?pwd=gia2"/>
-    <hyperlink ref="C1312" r:id="rId2295" display="https://pan.quark.cn/s/609860df70cd"/>
-    <hyperlink ref="C1313" r:id="rId2296" display="https://pan.quark.cn/s/27c7e35f7cee"/>
-    <hyperlink ref="B1313" r:id="rId2297" display="https://pan.baidu.com/s/1BAjrLfyxUBPe3n7tR-oowg?pwd=du97"/>
-    <hyperlink ref="C1314" r:id="rId2298" display="https://pan.quark.cn/s/01324abfd153"/>
-    <hyperlink ref="B1314" r:id="rId2299" display="https://pan.baidu.com/s/1Q498Nsp1sWSpcCkYsw0opQ?pwd=gden"/>
-    <hyperlink ref="B1315" r:id="rId2300" display="https://pan.baidu.com/s/1H3tkx53seQ7D-3BhXM2Blw?pwd=g82r"/>
-    <hyperlink ref="B1316" r:id="rId2301" display="https://pan.baidu.com/s/1SEk2FENg4Es4nvYWiijBhw?pwd=ps5p"/>
-    <hyperlink ref="B1317" r:id="rId2302" display="https://pan.baidu.com/s/1eec5Ggn3p-DqWZexToNdNA?pwd=n9qn"/>
-    <hyperlink ref="C1317" r:id="rId2303" display="https://pan.quark.cn/s/1db3b9267257"/>
-    <hyperlink ref="C1318" r:id="rId2304" display="https://pan.quark.cn/s/8e20acaae874"/>
-    <hyperlink ref="B1318" r:id="rId2305" display="https://pan.baidu.com/s/1sga5B5BtyBTviwVQOxjgvg?pwd=7gu9"/>
-    <hyperlink ref="C1319" r:id="rId2306" display="https://pan.quark.cn/s/a9a663678023"/>
-    <hyperlink ref="B1319" r:id="rId2307" display="https://pan.baidu.com/s/1i3IbPoN1xh6PzDdgqifM4A?pwd=jt2v"/>
-    <hyperlink ref="C1320" r:id="rId2308" display="https://pan.quark.cn/s/8b784022a37e"/>
-    <hyperlink ref="B1320" r:id="rId2309" display="https://pan.baidu.com/s/12U_zZoBY00Suj-kmx-_Txw?pwd=5xqy"/>
-    <hyperlink ref="C1323" r:id="rId2310" display="https://pan.quark.cn/s/e32a0610bc40"/>
-    <hyperlink ref="C1324" r:id="rId2311" display="https://pan.quark.cn/s/c6344cf1b358"/>
-    <hyperlink ref="B1325" r:id="rId2312" display="https://pan.baidu.com/s/1PsmNWjtzmjwNWbE2PyDY1g?pwd=8hv8"/>
-    <hyperlink ref="C1325" r:id="rId2313" display="https://pan.quark.cn/s/76453290a798"/>
-    <hyperlink ref="B1067" r:id="rId2314" display="https://pan.baidu.com/s/17vFwF-glmiuSVH1VwQNFAQ?pwd=ktu8"/>
-    <hyperlink ref="C1322" r:id="rId2315" display="https://pan.quark.cn/s/4c934e08237b"/>
-    <hyperlink ref="C1321" r:id="rId2316" display="https://pan.quark.cn/s/15d774f56033"/>
-    <hyperlink ref="B1326" r:id="rId2317" display="https://pan.baidu.com/s/1qh08MQka3Pa_-Zn20M0L-g?pwd=6kqj"/>
-    <hyperlink ref="C1326" r:id="rId2318" display="https://pan.quark.cn/s/9bc2112a99d8"/>
-    <hyperlink ref="C1327" r:id="rId2319" display="https://pan.quark.cn/s/c2a5fbbe18f8"/>
-    <hyperlink ref="B1327" r:id="rId2320" display="https://pan.baidu.com/s/1e7Qju70wWI9FX0vNdsxEgQ?pwd=6pb6"/>
-    <hyperlink ref="C1328" r:id="rId2321" display="https://pan.quark.cn/s/21a8debea1d9"/>
-    <hyperlink ref="B1328" r:id="rId2322" display="https://pan.baidu.com/s/1hLWUND-ZfSoDLInwdAfTiQ?pwd=3i3c"/>
-    <hyperlink ref="B1323" r:id="rId2323" display="https://pan.baidu.com/s/1YQGuUauRpGpSmK574nkIcA?pwd=pqjh"/>
-    <hyperlink ref="B1321" r:id="rId2324" display="https://pan.baidu.com/s/1ARb2KwdhT69gzoD3oy8GzA?pwd=6n7n"/>
-    <hyperlink ref="B1322" r:id="rId2325" display="https://pan.baidu.com/s/1xpWA5RLehrOgG_XIOA9DZw?pwd=2i27"/>
-    <hyperlink ref="B1324" r:id="rId2326" display="https://pan.baidu.com/s/1f-iC1CxxzBnt8t2zbmeJdw?pwd=nutk"/>
-    <hyperlink ref="B1329" r:id="rId2327" display="https://pan.baidu.com/s/1bdxlYTq9ZjcfEioxW9gygg?pwd=ehm2"/>
-    <hyperlink ref="C1329" r:id="rId2328" display="https://pan.quark.cn/s/551e572f5b94"/>
-    <hyperlink ref="C1330" r:id="rId2329" display="https://pan.quark.cn/s/4c5e3e133bc5"/>
-    <hyperlink ref="C1331" r:id="rId2330" display="https://pan.quark.cn/s/67b9843c4e0a"/>
-    <hyperlink ref="C1332" r:id="rId2331" display="https://pan.quark.cn/s/462bd1563b5f"/>
-    <hyperlink ref="B1332" r:id="rId2332" display="https://pan.baidu.com/s/17PLPBNs1uQNKWg6HuZypCQ?pwd=cc8u"/>
-    <hyperlink ref="B1331" r:id="rId2333" display="https://pan.baidu.com/s/1w3d6zKgDLfuHImaxqvKczw?pwd=e1yq"/>
-    <hyperlink ref="B1333" r:id="rId2334" display="https://pan.baidu.com/s/1pYdkAVXmuZOhQ9Bw0BJivw?pwd=kqy4"/>
-    <hyperlink ref="C1333" r:id="rId2335" display="https://pan.quark.cn/s/18704311058f"/>
-    <hyperlink ref="B1334" r:id="rId2336" display="https://pan.baidu.com/s/1Oc_RKT85npFFwOB-ibQLmg?pwd=482f"/>
-    <hyperlink ref="C1334" r:id="rId2337" display="https://pan.quark.cn/s/91bca0b5a4c4"/>
-    <hyperlink ref="C1335" r:id="rId2338" display="https://pan.quark.cn/s/9b8cfe3e8661"/>
-    <hyperlink ref="B1335" r:id="rId2339" display="https://pan.baidu.com/s/1Lg1jzJRgAPldkd5mtNVCkA?pwd=f6yd"/>
-    <hyperlink ref="C1336" r:id="rId2340" display="https://pan.quark.cn/s/d02f52c54d34"/>
-    <hyperlink ref="B1336" r:id="rId2341" display="https://pan.baidu.com/s/14SaDo5J6C7rR6QP4FZ6J-A?pwd=cnqx"/>
-    <hyperlink ref="B1337" r:id="rId2342" display="https://pan.baidu.com/s/11-DkFzZDYn8nBhOHSpWnRA?pwd=uq17"/>
-    <hyperlink ref="C1337" r:id="rId2343" display="https://pan.quark.cn/s/3e99fec51fc7"/>
-    <hyperlink ref="C1338" r:id="rId2344" display="https://pan.quark.cn/s/cdfa7c03d147"/>
-    <hyperlink ref="B1338" r:id="rId2345" display="https://pan.baidu.com/s/179ymxM9a-B8TuYgJRx1hbQ?pwd=33vj"/>
-    <hyperlink ref="C1339" r:id="rId2346" display="https://pan.quark.cn/s/813d961918d0"/>
-    <hyperlink ref="B1339" r:id="rId2347" display="https://pan.baidu.com/s/1t6UVOIsQQdVRSt2ZtmiwyQ?pwd=nqmh"/>
-    <hyperlink ref="C1340" r:id="rId2348" display="https://pan.quark.cn/s/d652ed9ca160"/>
-    <hyperlink ref="B1340" r:id="rId2349" display="https://pan.baidu.com/s/1OdnDigMnBe5k2P3_PYo6fw?pwd=4ani"/>
-    <hyperlink ref="B1341" r:id="rId2350" display="https://pan.baidu.com/s/1BfQyPzYvUZgPTtcd2Fjd4Q?pwd=pxdt"/>
-    <hyperlink ref="C1341" r:id="rId2351" display="https://pan.quark.cn/s/cb73c40b6437"/>
-    <hyperlink ref="B1342" r:id="rId2352" display="https://pan.baidu.com/s/1LM9KBg38KRNyzzXH-ll-0A?pwd=q69m"/>
-    <hyperlink ref="C1342" r:id="rId2353" display="https://pan.quark.cn/s/c803eaa3f0b3"/>
-    <hyperlink ref="B1343" r:id="rId2354" display="https://pan.baidu.com/s/1m7wDfB8l3hJJaGoGIZr_NQ?pwd=upp4"/>
-    <hyperlink ref="C1343" r:id="rId2355" display="https://pan.quark.cn/s/3ea5dd182781"/>
-    <hyperlink ref="C1344" r:id="rId2356" display="https://pan.quark.cn/s/5d79735e7e26"/>
-    <hyperlink ref="B1345" r:id="rId2357" display="https://pan.baidu.com/s/12ytA18kWIj4MRN6cBEhzWw?pwd=huu7"/>
-    <hyperlink ref="C1345" r:id="rId2358" display="https://pan.quark.cn/s/e5d6542c658b"/>
-    <hyperlink ref="C1346" r:id="rId2359" display="https://pan.quark.cn/s/77f6b5a78cbd"/>
-    <hyperlink ref="B1346" r:id="rId2360" display="https://pan.baidu.com/s/1pG012P7_1uzcWc2i5fWKEg?pwd=qmqu"/>
-    <hyperlink ref="C1347" r:id="rId2361" display="https://pan.quark.cn/s/e60ba738a08d"/>
-    <hyperlink ref="C1348" r:id="rId2362" display="https://pan.quark.cn/s/964e32aaac90"/>
-    <hyperlink ref="C1349" r:id="rId2363" display="https://pan.quark.cn/s/f369c00a5396"/>
-    <hyperlink ref="C1350" r:id="rId2364" display="https://pan.quark.cn/s/b1a659bf15cd"/>
-    <hyperlink ref="C1351" r:id="rId2365" display="https://pan.quark.cn/s/856410a8f9b8"/>
-    <hyperlink ref="C1352" r:id="rId2366" display="https://pan.quark.cn/s/c09544bff080"/>
-    <hyperlink ref="C1353" r:id="rId2367" display="https://pan.quark.cn/s/7a40756083e3"/>
-    <hyperlink ref="B1354" r:id="rId2368" display="https://pan.baidu.com/s/1C079EHXk20F5cAns8qJnIg?pwd=4wix"/>
-    <hyperlink ref="C1354" r:id="rId2369" display="https://pan.quark.cn/s/97d7ce3f0218"/>
-    <hyperlink ref="B1347" r:id="rId2370" display="https://pan.baidu.com/s/1K_W41DEsv8UfWE2j2M5hZw?pwd=vqdv"/>
-    <hyperlink ref="B1348" r:id="rId2371" display="https://pan.baidu.com/s/1nKBVg71Lql8h8_kkA46xsQ?pwd=cyje"/>
-    <hyperlink ref="B1349" r:id="rId2372" display="https://pan.baidu.com/s/1j7laaNtDSW_GtMtC-34tdA?pwd=ccca"/>
-    <hyperlink ref="B1350" r:id="rId2373" display="https://pan.baidu.com/s/1GuBQkjt1GFlaq-_AzrG5WQ?pwd=wi9y"/>
-    <hyperlink ref="B1351" r:id="rId2374" display="https://pan.baidu.com/s/1m_EiSlGMEg19XLFCttX_Hg?pwd=26xy"/>
-    <hyperlink ref="B1352" r:id="rId2375" display="https://pan.baidu.com/s/1kS_gGfs6K-GFJrOjtBqyBw?pwd=nrnc"/>
-    <hyperlink ref="C1355" r:id="rId2376" display="https://pan.quark.cn/s/872bd1b637f2"/>
-    <hyperlink ref="B1355" r:id="rId2377" display="https://pan.baidu.com/s/1gaXqx89iLII4iwKyjjr7Nw?pwd=s7vh"/>
-    <hyperlink ref="C1356" r:id="rId2378" display="https://pan.quark.cn/s/d319a3b93938"/>
-    <hyperlink ref="B1356" r:id="rId2379" display="https://pan.baidu.com/s/1dGN6aYI5Lrf9sMsI5BBD2A?pwd=zesa"/>
-    <hyperlink ref="C1357" r:id="rId2380" display="https://pan.quark.cn/s/fde768a8ddaf"/>
-    <hyperlink ref="B1357" r:id="rId2381" display="https://pan.baidu.com/s/1pwADI9JZ0EGjriI_AiBj0w?pwd=cdmv"/>
-    <hyperlink ref="C1358" r:id="rId2382" display="https://pan.quark.cn/s/e7a8edf664c1"/>
-    <hyperlink ref="B1358" r:id="rId2383" display="https://pan.baidu.com/s/11YVpTeByzXQFbUXRwjoZcQ?pwd=gsse"/>
-    <hyperlink ref="C1359" r:id="rId2384" display="https://pan.quark.cn/s/5cb3e495a6d2"/>
-    <hyperlink ref="B1359" r:id="rId2385" display="https://pan.baidu.com/s/1PCcOlqi0f80al8dytBomnQ?pwd=5b3y"/>
-    <hyperlink ref="C1360" r:id="rId2386" display="https://pan.quark.cn/s/30c49d229e43"/>
-    <hyperlink ref="B1360" r:id="rId2387" display="https://pan.baidu.com/s/18tI1uL0EYuf3CAJ_iKeW6A?pwd=6s5n"/>
-    <hyperlink ref="C1361" r:id="rId2388" display="https://pan.quark.cn/s/cffe8acc238d"/>
-    <hyperlink ref="B1361" r:id="rId2389" display="https://pan.baidu.com/s/1_s_liLeAlN8Fl_L2jzET5Q?pwd=m55d"/>
-    <hyperlink ref="B1362" r:id="rId2390" display="https://pan.baidu.com/s/1aeokCsz7gsO2axo43osR_w?pwd=bqa9"/>
-    <hyperlink ref="C1362" r:id="rId2391" display="https://pan.quark.cn/s/ffb17a32be04"/>
-    <hyperlink ref="C1363" r:id="rId2392" display="https://pan.quark.cn/s/91411a76ac76"/>
-    <hyperlink ref="B1363" r:id="rId2393" display="https://pan.baidu.com/s/1y27RNBJkUrdZ4iKEzBjo4g?pwd=ji1x"/>
-    <hyperlink ref="C1364" r:id="rId2394" display="https://pan.quark.cn/s/cb07da4c3b7d"/>
-    <hyperlink ref="B1364" r:id="rId2395" display="https://pan.baidu.com/s/12RgTQtpxEiJ8ClrG9pmURA?pwd=3ksx"/>
-    <hyperlink ref="C1365" r:id="rId2396" display="https://pan.quark.cn/s/b4ff0a9659ec"/>
-    <hyperlink ref="B1365" r:id="rId2397" display="https://pan.baidu.com/s/1UzfAqHtzGPiEuFEMNg7Tag?pwd=aq68"/>
-    <hyperlink ref="C1366" r:id="rId2398" display="https://pan.quark.cn/s/52b54bb85f45"/>
-    <hyperlink ref="B1366" r:id="rId2399" display="https://pan.baidu.com/s/1JaXljtOvrX5IdhzbxRWoIw?pwd=p86j"/>
-    <hyperlink ref="C1367" r:id="rId2400" display="https://pan.quark.cn/s/b30ae0556bb5"/>
-    <hyperlink ref="B1367" r:id="rId2401" display="https://pan.baidu.com/s/1ePBT8TLR3fmu3zboROxAqQ?pwd=vykb"/>
-    <hyperlink ref="C1368" r:id="rId2402" display="https://pan.quark.cn/s/8ffc71e7c2c1"/>
-    <hyperlink ref="B1368" r:id="rId2403" display="https://pan.baidu.com/s/1WFLAhKyPAWg0zGHJmBGoBg?pwd=bagn"/>
-    <hyperlink ref="B1369" r:id="rId2404" display="https://pan.baidu.com/s/1GGf4TcYBz2baffDkukTTrQ?pwd=6xhx"/>
-    <hyperlink ref="B1370" r:id="rId2405" display="https://pan.baidu.com/s/1YLJ-w-WbUnbcHPsL5ZrNHA?pwd=4zrn"/>
-    <hyperlink ref="C1370" r:id="rId2406" display="https://pan.quark.cn/s/810c6979223b"/>
-    <hyperlink ref="C1371" r:id="rId2407" display="https://pan.quark.cn/s/459e01204457"/>
-    <hyperlink ref="B1371" r:id="rId2408" display="https://pan.baidu.com/s/1f2ii4_4DLL3ed81wrUQyHA?pwd=1ncu"/>
-    <hyperlink ref="B1372" r:id="rId2409" display="https://pan.baidu.com/s/1Q3xTDoc1rFPclDR6d0LCaA?pwd=h4ew"/>
-    <hyperlink ref="C1373" r:id="rId2410" display="https://pan.quark.cn/s/d3252a1a3995"/>
-    <hyperlink ref="B1373" r:id="rId2411" display="https://pan.baidu.com/s/1Kt1VVwPL-01ZzhniEKq4kw?pwd=pe6m"/>
-    <hyperlink ref="C1374" r:id="rId2412" display="https://pan.quark.cn/s/fe7f8a49383e"/>
-    <hyperlink ref="B1374" r:id="rId2413" display="https://pan.baidu.com/s/13z5Fc8E5gev-vyJ6r-X6Gg?pwd=swef"/>
-    <hyperlink ref="B1375" r:id="rId2414" display="https://pan.baidu.com/s/1cNmVNk1a7knS-Gj0wfwu1Q?pwd=xak1"/>
-    <hyperlink ref="C1375" r:id="rId2415" display="https://pan.quark.cn/s/1589772a02b1"/>
-    <hyperlink ref="B1376" r:id="rId2416" display="https://pan.baidu.com/s/1FHKrkQ2H-mhX-6xWGq7AAA?pwd=qn6g"/>
-    <hyperlink ref="C1376" r:id="rId2417" display="https://pan.quark.cn/s/9933c6ddeb06"/>
-    <hyperlink ref="B1377" r:id="rId2418" display="https://pan.baidu.com/s/1aS3YGPdkGFy8eyDjY0nctw?pwd=jycy"/>
-    <hyperlink ref="C1377" r:id="rId2419" display="https://pan.quark.cn/s/5ff081b89162"/>
-    <hyperlink ref="B1378" r:id="rId2420" display="https://pan.baidu.com/s/1ZKgCAa73Hb5H_vmSKWeNzw?pwd=dfje"/>
-    <hyperlink ref="C1378" r:id="rId2421" display="https://pan.quark.cn/s/cdcdda41852b"/>
-    <hyperlink ref="C1379" r:id="rId2422" display="https://pan.quark.cn/s/4cfe8d2045cb"/>
-    <hyperlink ref="B1379" r:id="rId2423" display="https://pan.baidu.com/s/1md-KEIJTrPIXa1WHjZyv_Q?pwd=k7m6"/>
-    <hyperlink ref="C1380" r:id="rId2424" display="https://pan.quark.cn/s/fddf5ade1a8e"/>
-    <hyperlink ref="C1381" r:id="rId2425" display="https://pan.quark.cn/s/353233104c73"/>
-    <hyperlink ref="B1381" r:id="rId2426" display="https://pan.baidu.com/s/1xzy-gd-VTlzd0dmPPlMxqA?pwd=ncf9"/>
-    <hyperlink ref="C1382" r:id="rId2427" display="https://pan.quark.cn/s/630410f7ab3d"/>
-    <hyperlink ref="B1382" r:id="rId2428" display="https://pan.baidu.com/s/1siSs2mbWPcCgzAOHmNAlFQ?pwd=7qju"/>
-    <hyperlink ref="C1383" r:id="rId2429" display="https://pan.quark.cn/s/af25b23b2c30"/>
-    <hyperlink ref="B1383" r:id="rId2430" display="https://pan.baidu.com/s/1OyvYU52-IYs4fg4NyLA8Vw?pwd=wy53"/>
-    <hyperlink ref="B1384" r:id="rId2431" display="https://pan.baidu.com/s/11eRGEhSBZar5-jSevNBH8g?pwd=b6rt"/>
-    <hyperlink ref="C1384" r:id="rId2432" display="https://pan.quark.cn/s/9769c1fa3f22"/>
-    <hyperlink ref="C1385" r:id="rId2433" display="https://pan.quark.cn/s/9b25ff4a07b3"/>
-    <hyperlink ref="B1385" r:id="rId2434" display="https://pan.baidu.com/s/1UCROf0gHxTFfY5Rfc1CedA?pwd=x4zx"/>
-    <hyperlink ref="C1386" r:id="rId2435" display="https://pan.quark.cn/s/c9ec47028ba6"/>
-    <hyperlink ref="B1386" r:id="rId2436" display="https://pan.baidu.com/s/1J0XiE0wpL0pktz9T4KwkOw?pwd=ngy2"/>
-    <hyperlink ref="C1387" r:id="rId2437" display="https://pan.quark.cn/s/828eb24dcd09"/>
-    <hyperlink ref="B1387" r:id="rId2438" display="https://pan.baidu.com/s/1zh2lYgt3Jgd-g0oF_t8U3A?pwd=w34g"/>
-    <hyperlink ref="C1388" r:id="rId2439" display="https://pan.quark.cn/s/a6f6769e5038"/>
-    <hyperlink ref="B1388" r:id="rId2440" display="https://pan.baidu.com/s/151TQV3XH_r72wijZTVNzAA?pwd=grtt"/>
-    <hyperlink ref="C1389" r:id="rId2441" display="https://pan.quark.cn/s/874762681872"/>
-    <hyperlink ref="B1389" r:id="rId2442" display="https://pan.baidu.com/s/1aRAlEomu82-Q9UisEaqoHg?pwd=meky"/>
-    <hyperlink ref="C1390" r:id="rId2443" display="https://pan.quark.cn/s/0a0c69827ddc"/>
-    <hyperlink ref="B1390" r:id="rId2444" display="https://pan.baidu.com/s/16GZbEY8wuH-d-NHJsodizA?pwd=2nca"/>
-    <hyperlink ref="C1391" r:id="rId2445" display="https://pan.quark.cn/s/8859ce2f2c59"/>
-    <hyperlink ref="B1391" r:id="rId2446" display="https://pan.baidu.com/s/1W-j-o80GuLoNS7xe58EU3Q?pwd=fn26"/>
-    <hyperlink ref="C1392" r:id="rId2447" display="https://pan.quark.cn/s/1cc189094e5f"/>
-    <hyperlink ref="C1393" r:id="rId2448" display="https://pan.quark.cn/s/497d7e3c776e"/>
-    <hyperlink ref="C1394" r:id="rId2449" display="https://pan.quark.cn/s/94759665dc48"/>
-    <hyperlink ref="C1395" r:id="rId2450" display="https://pan.quark.cn/s/30c7fe35f87e"/>
-    <hyperlink ref="C1396" r:id="rId2451" display="https://pan.quark.cn/s/b2df189827a7"/>
-    <hyperlink ref="B1395" r:id="rId2452" display="https://pan.baidu.com/s/1k4XuLEQyoae64gxDcixfLQ?pwd=i98p"/>
-    <hyperlink ref="B1393" r:id="rId2453" display="https://pan.baidu.com/s/1bPatgOaA6dFYAiIKd6a-Og?pwd=wzui"/>
-    <hyperlink ref="B1394" r:id="rId2454" display="https://pan.baidu.com/s/16vaKnlCuVvJ0ejYonsm6Zw?pwd=e36c"/>
-    <hyperlink ref="B1392" r:id="rId2455" display="https://pan.baidu.com/s/1hNVX3n1-4M2IfxWzKIWRHg?pwd=h5rq"/>
-    <hyperlink ref="B1396" r:id="rId2456" display="https://pan.baidu.com/s/1WtI8720lF5Rh7tbQ1tDn4A?pwd=hpug"/>
-    <hyperlink ref="B825" r:id="rId2457" display="https://pan.baidu.com/s/1xuqZsKeEvP8NwYmhTlsP_w?pwd=utfb"/>
-    <hyperlink ref="C825" r:id="rId2458" display="https://pan.quark.cn/s/c2eab62c05e8"/>
-    <hyperlink ref="C1397" r:id="rId2459" display="https://pan.quark.cn/s/cc55d12088e5"/>
-    <hyperlink ref="B1397" r:id="rId2460" display="https://pan.baidu.com/s/1RTmm3TthOyJRBBN6hePPhQ?pwd=1mae"/>
-    <hyperlink ref="C1398" r:id="rId2461" display="https://pan.quark.cn/s/313a7efa86d1"/>
-    <hyperlink ref="B1398" r:id="rId2462" display="https://pan.baidu.com/s/1xhG2LZrlYCdATtjiuIoIlw?pwd=4664"/>
-    <hyperlink ref="C1399" r:id="rId2463" display="https://pan.quark.cn/s/1eddc543d981"/>
-    <hyperlink ref="B1399" r:id="rId2464" display="https://pan.baidu.com/s/1tTI2XQg_vg2akdE3p_TOuQ?pwd=jh7c"/>
-    <hyperlink ref="C1400" r:id="rId2465" display="https://pan.quark.cn/s/c3f4bc25e40a"/>
-    <hyperlink ref="B1400" r:id="rId2466" display="https://pan.baidu.com/s/12-cC109ej_-ovNtCtZZuYA?pwd=am6t"/>
-    <hyperlink ref="C1401" r:id="rId2467" display="https://pan.quark.cn/s/3d824428f8c7"/>
-    <hyperlink ref="B1401" r:id="rId2468" display="https://pan.baidu.com/s/16w-1sdkilGELKYVT7ILNWg?pwd=8i4r"/>
-    <hyperlink ref="C1402" r:id="rId2469" display="https://pan.quark.cn/s/e3e5b09af83a"/>
-    <hyperlink ref="B1402" r:id="rId2470" display="https://pan.baidu.com/s/1IZBwp2ZGlcbiOcjrNOtDaw?pwd=dtk3"/>
-    <hyperlink ref="C1403" r:id="rId2471" display="https://pan.quark.cn/s/80cc0a57152a"/>
-    <hyperlink ref="B1403" r:id="rId2472" display="https://pan.baidu.com/s/1ViArhOGoZG6mwztfT-ruOQ?pwd=1a6w"/>
-    <hyperlink ref="C1404" r:id="rId2473" display="https://pan.quark.cn/s/64eb3244d143"/>
-    <hyperlink ref="B1404" r:id="rId2474" display="https://pan.baidu.com/s/1hR4UM0dgvx1CdTF_ZViVCQ?pwd=ay2c"/>
-    <hyperlink ref="C1405" r:id="rId2475" display="https://pan.quark.cn/s/068c449faecb"/>
-    <hyperlink ref="C1406" r:id="rId2476" display="https://pan.quark.cn/s/4a3d01a4ef26"/>
-    <hyperlink ref="C1407" r:id="rId2477" display="https://pan.quark.cn/s/01d92be63b62"/>
-    <hyperlink ref="B1407" r:id="rId2478" display="https://pan.baidu.com/s/1POQHNnIJeVZHZ_QmG8oh9w?pwd=ufn5"/>
-    <hyperlink ref="B1406" r:id="rId2479" display="https://pan.baidu.com/s/12YR6uxTqXm-gU1oonZmGZw?pwd=hdca"/>
-    <hyperlink ref="B1405" r:id="rId2480" display="https://pan.baidu.com/s/1vvIcTVa2OQ2OSD9XQQPAKQ?pwd=26nx"/>
-    <hyperlink ref="C1408" r:id="rId2481" display="https://pan.quark.cn/s/dcdc3a502d89"/>
-    <hyperlink ref="B1408" r:id="rId2482" display="https://pan.baidu.com/s/1Zyy3YyZqBsb7YVRdnyoVFQ?pwd=sgqb"/>
-    <hyperlink ref="C1409" r:id="rId2483" display="https://pan.quark.cn/s/5fc81f73b0c2"/>
-    <hyperlink ref="B1409" r:id="rId2484" display="https://pan.baidu.com/s/1Up3bh3PNUhT15vG1hDkh8g?pwd=h1cd"/>
-    <hyperlink ref="C1410" r:id="rId2485" display="https://pan.quark.cn/s/e9f829d188aa"/>
-    <hyperlink ref="B1410" r:id="rId2486" display="https://pan.baidu.com/s/1Xx0KgloOtI2YlPOkaHp41g?pwd=5eij"/>
-    <hyperlink ref="C1411" r:id="rId2487" display="https://pan.quark.cn/s/79fc40dad12a"/>
-    <hyperlink ref="B1411" r:id="rId2488" display="https://pan.baidu.com/s/1m3y6iYNdl2rAa8Ij1rb_Fw?pwd=ageg"/>
-    <hyperlink ref="B1412" r:id="rId2489" display="https://pan.baidu.com/s/1nuLf85dgYA1A3Ja8bCyYEg?pwd=f7uq"/>
-    <hyperlink ref="C1412" r:id="rId2490" display="https://pan.quark.cn/s/cd6033d458f2"/>
-    <hyperlink ref="C1413" r:id="rId2491" display="https://pan.quark.cn/s/b85c2eeede44"/>
-    <hyperlink ref="B1413" r:id="rId2492" display="https://pan.baidu.com/s/1zviE8WD9oVc6YSdw6eJ_-w?pwd=dgcu"/>
-    <hyperlink ref="B1414" r:id="rId2493" display="https://pan.baidu.com/s/16cq3_-p57fVV68eFGq43RQ?pwd=786q"/>
-    <hyperlink ref="C1414" r:id="rId2494" display="https://pan.quark.cn/s/39c17026ed43"/>
-    <hyperlink ref="C1415" r:id="rId2495" display="https://pan.quark.cn/s/89a366d64d4f"/>
-    <hyperlink ref="B1415" r:id="rId2496" display="https://pan.baidu.com/s/1_lJhZs7QXS5VBvsnAv9fNQ?pwd=63ex"/>
-    <hyperlink ref="C29" r:id="rId2497" display="https://pan.quark.cn/s/9a69d0cefea3"/>
-    <hyperlink ref="B29" r:id="rId2498" display="https://pan.baidu.com/s/1TwaE-hj19DRjEQBQzoT8TA?pwd=g1b6"/>
-    <hyperlink ref="C1416" r:id="rId2499" display="https://pan.quark.cn/s/13e0cbf22a28"/>
-    <hyperlink ref="B1416" r:id="rId2500" display="https://pan.baidu.com/s/1Be4V1q8bZkknA7CYlUBQ4w?pwd=bviy"/>
-    <hyperlink ref="B1417" r:id="rId2501" display="https://pan.baidu.com/s/1GiJvRKXnozFTBLzRXpO2Pg?pwd=eb8k"/>
-    <hyperlink ref="C1417" r:id="rId2502" display="https://pan.quark.cn/s/3a604db3980c"/>
-    <hyperlink ref="C1418" r:id="rId2503" display="https://pan.quark.cn/s/36e7ef099d69"/>
-    <hyperlink ref="B1418" r:id="rId2504" display="https://pan.baidu.com/s/1YfF57mXdEaepu4pXZSpnBA?pwd=gyr5"/>
-    <hyperlink ref="B1419" r:id="rId2505" display="https://pan.baidu.com/s/1ysIXAYfVDVLG47McCMWL5g?pwd=9ren"/>
-    <hyperlink ref="C1419" r:id="rId2506" display="https://pan.quark.cn/s/6a9a374a3a93"/>
-    <hyperlink ref="C1420" r:id="rId2507" display="https://pan.quark.cn/s/780120158d9b"/>
-    <hyperlink ref="C1421" r:id="rId2508" display="https://pan.quark.cn/s/35dc92af8d16"/>
-    <hyperlink ref="B1421" r:id="rId2509" display="https://pan.baidu.com/s/1fWmHZKSjaVszAc8O3aX2HA?pwd=9h7s"/>
-    <hyperlink ref="C1422" r:id="rId2510" display="https://pan.quark.cn/s/4b6e3878abc8"/>
-    <hyperlink ref="B1422" r:id="rId2511" display="https://pan.baidu.com/s/1NscS74YzgPcuuUxQpETyYw?pwd=aq8p"/>
-    <hyperlink ref="C1423" r:id="rId2512" display="https://pan.quark.cn/s/d3cb71200258"/>
-    <hyperlink ref="B1423" r:id="rId2513" display="https://pan.baidu.com/s/1GbMkKCiQrgcs5TTvjS0eGQ?pwd=x3jc"/>
-    <hyperlink ref="C1424" r:id="rId2514" display="https://pan.quark.cn/s/bb8630416643"/>
-    <hyperlink ref="B1424" r:id="rId2515" display="https://pan.baidu.com/s/1DdrFVdKJOxusp479mHSj1w?pwd=gaks"/>
-    <hyperlink ref="C1425" r:id="rId2516" display="https://pan.quark.cn/s/67aec2bc1694"/>
-    <hyperlink ref="B1425" r:id="rId2517" display="https://pan.baidu.com/s/1h7oxMNIPqxk36QsWQFwBGw?pwd=izu1"/>
-    <hyperlink ref="C1426" r:id="rId2518" display="https://pan.quark.cn/s/7e8c4ab75f9c"/>
-    <hyperlink ref="B1426" r:id="rId2519" display="https://pan.baidu.com/s/1ELUGT1jDcyIO7ELB72AEZw?pwd=jqrp"/>
-    <hyperlink ref="B1427" r:id="rId2520" display="https://pan.baidu.com/s/18POynfy-KAt4QC0FLFlZ1g?pwd=gpid"/>
-    <hyperlink ref="C1427" r:id="rId2521" display="https://pan.quark.cn/s/b63d69263923"/>
-    <hyperlink ref="B30" r:id="rId2522" display="https://pan.baidu.com/s/1oYkGm6bcJ-OOlBPVeXyvZw?pwd=4isa"/>
-    <hyperlink ref="C30" r:id="rId2523" display="https://pan.quark.cn/s/ad5e2b9cb7e1"/>
-    <hyperlink ref="C1428" r:id="rId2524" display="https://pan.quark.cn/s/680e88bb4d47"/>
-    <hyperlink ref="B1428" r:id="rId2525" display="https://pan.baidu.com/s/15Py4BZShtqPf5OydDtE65A?pwd=6k71"/>
-    <hyperlink ref="B1429" r:id="rId2526" display="https://pan.baidu.com/s/1RJnE_fKSRefN5RE3Nm7Gzw?pwd=atv8"/>
-    <hyperlink ref="C1429" r:id="rId2527" display="https://pan.quark.cn/s/61dc56b1051f"/>
-    <hyperlink ref="C1430" r:id="rId2528" display="https://pan.quark.cn/s/12d01ae551a8"/>
-    <hyperlink ref="B1430" r:id="rId2529" display="https://pan.baidu.com/s/1vZFEFwOa5fKfdbWs9uYA9g?pwd=w6gk"/>
-    <hyperlink ref="C1431" r:id="rId2530" display="https://pan.quark.cn/s/91f1601105d0"/>
-    <hyperlink ref="C1432" r:id="rId2531" display="https://pan.quark.cn/s/f965838b95f3"/>
-    <hyperlink ref="B1432" r:id="rId2532" display="https://pan.baidu.com/s/1D08h52DQ-gLYa2v-p6HUWw?pwd=h2ps"/>
-    <hyperlink ref="B1431" r:id="rId2533" display="https://pan.baidu.com/s/1qaoEI62OW_rMZHDsu9xXhw?pwd=pvr4"/>
-    <hyperlink ref="C1433" r:id="rId2534" display="https://pan.quark.cn/s/e6a401bd4f13"/>
-    <hyperlink ref="B1433" r:id="rId2535" display="https://pan.baidu.com/s/1SxZFMEBR0xU9m8RtJlYLGQ?pwd=sq5m"/>
-    <hyperlink ref="C1434" r:id="rId2536" display="https://pan.quark.cn/s/a0b99ceb18a5"/>
-    <hyperlink ref="B1434" r:id="rId2537" display="https://pan.baidu.com/s/1_zlMbkyr-2PvZTEePDa1VQ?pwd=qt6h"/>
-    <hyperlink ref="B1435" r:id="rId2538" display="https://pan.baidu.com/s/1qC_jWGYfw1xsYYdgLWq1mQ?pwd=52q4"/>
-    <hyperlink ref="B1436" r:id="rId2539" display="https://pan.baidu.com/s/1WSK0ItRaP0B1Du0BMBG0ag?pwd=2isq"/>
-    <hyperlink ref="C1436" r:id="rId2540" display="https://pan.quark.cn/s/ca17d248dcb8"/>
-    <hyperlink ref="C1437" r:id="rId2541" display="https://pan.quark.cn/s/50a8ef64fcbe"/>
-    <hyperlink ref="C1438" r:id="rId2542" display="https://pan.quark.cn/s/cdbead7c3a18"/>
-    <hyperlink ref="C1439" r:id="rId2543" display="https://pan.quark.cn/s/9fd2960a50e1"/>
-    <hyperlink ref="B1437" r:id="rId2544" display="https://pan.baidu.com/s/17-twiG3KCCSF_PW6HkyZxQ?pwd=v6ck"/>
-    <hyperlink ref="B1438" r:id="rId2545" display="https://pan.baidu.com/s/11e94dpfshkDTG17mza_HgQ?pwd=2ima"/>
-    <hyperlink ref="B1439" r:id="rId2546" display="https://pan.baidu.com/s/1e6GL0cRHpRy61l0vMdOy1g?pwd=u3j2"/>
-    <hyperlink ref="B1440" r:id="rId2547" display="https://pan.baidu.com/s/1iA0_SIysgiH5AT1zXIs7hw?pwd=usei"/>
-    <hyperlink ref="C1440" r:id="rId2548" display="https://pan.quark.cn/s/87cfed0d34b6"/>
-    <hyperlink ref="B1441" r:id="rId2549" display="https://pan.baidu.com/s/1IK3yWnbxsRosZ4h6PHnGOQ?pwd=5xxj"/>
-    <hyperlink ref="C1441" r:id="rId2550" display="https://pan.quark.cn/s/c223c5539369"/>
-    <hyperlink ref="B1442" r:id="rId2551" display="https://pan.baidu.com/s/1VS4-Opyw8WQjQhUvfPmn1w?pwd=8fib"/>
-    <hyperlink ref="C1442" r:id="rId2552" display="https://pan.quark.cn/s/dd0984d67f23"/>
-    <hyperlink ref="B1443" r:id="rId2553" display="https://pan.baidu.com/s/11VHDqjj2Mh9xQRLO-QiHQQ?pwd=7f46"/>
-    <hyperlink ref="C1443" r:id="rId2554" display="https://pan.quark.cn/s/0bfb125ec122"/>
-    <hyperlink ref="C1444" r:id="rId2555" display="https://pan.quark.cn/s/5c21b51161bf"/>
-    <hyperlink ref="B1444" r:id="rId2556" display="https://pan.baidu.com/s/1zZK3-5RpZIB_MSaJgsH1Vg?pwd=hb45"/>
-    <hyperlink ref="C1445" r:id="rId2557" display="https://pan.quark.cn/s/4de1b767ce9f"/>
-    <hyperlink ref="B1445" r:id="rId2558" display="https://pan.baidu.com/s/1PZynG7tTt_iC_w5LQQAEsA?pwd=6x3w"/>
-    <hyperlink ref="C1446" r:id="rId2559" display="https://pan.quark.cn/s/ee763d6324e7"/>
-    <hyperlink ref="B1446" r:id="rId2560" display="https://pan.baidu.com/s/1X9UrBaKl2xLJnJBV2UioYA?pwd=gp67"/>
-    <hyperlink ref="C1447" r:id="rId2561" display="https://pan.quark.cn/s/a812d29641aa"/>
-    <hyperlink ref="B1447" r:id="rId2562" display="https://pan.baidu.com/s/1rYisJTNPefthKG0FM0BNsg?pwd=3y9h"/>
-    <hyperlink ref="C1448" r:id="rId2563" display="https://pan.quark.cn/s/faeeda11fe18"/>
-    <hyperlink ref="B1449" r:id="rId2564" display="https://pan.baidu.com/s/1V4U0Ayy1I01Sfziq0E9qUg?pwd=hk73"/>
-    <hyperlink ref="C1451" r:id="rId2565" display="https://pan.quark.cn/s/67969a3e66dc"/>
-    <hyperlink ref="B1451" r:id="rId2566" display="https://pan.baidu.com/s/1XtNnydmbQUvDBzAf5-Dg7Q?pwd=9a5s"/>
-    <hyperlink ref="B1452" r:id="rId2567" display="https://pan.baidu.com/s/13haxspuUPcuLq7r3SvBqcQ?pwd=uh2g"/>
-    <hyperlink ref="C1452" r:id="rId2568" display="https://pan.quark.cn/s/c598da9a5ed8"/>
-    <hyperlink ref="B1454" r:id="rId2569" display="https://pan.baidu.com/s/1bI18e9MBjfdb-b3mEMYTeg?pwd=uk6a"/>
-    <hyperlink ref="C1454" r:id="rId2570" display="https://pan.quark.cn/s/dcf70703a188"/>
-    <hyperlink ref="C1455" r:id="rId2571" display="https://pan.quark.cn/s/3187e4c97600"/>
-    <hyperlink ref="B1455" r:id="rId2572" display="https://pan.baidu.com/s/1K17ta6nB50B4rrhcpfX0Kw?pwd=6fxf"/>
-    <hyperlink ref="C1456" r:id="rId2573" display="https://pan.quark.cn/s/53c6c85dad30"/>
-    <hyperlink ref="C1453" r:id="rId2574" display="https://pan.quark.cn/s/920ebbebdba6"/>
-    <hyperlink ref="B1457" r:id="rId2575" display="https://pan.baidu.com/s/1B1HQwMqKAKd5mBx-1eRCQg?pwd=h5at"/>
-    <hyperlink ref="B1458" r:id="rId2576" display="https://pan.baidu.com/s/1c6hRVg7dhi0DNgQJibynyw?pwd=izt6"/>
-    <hyperlink ref="C1458" r:id="rId2577" display="https://pan.quark.cn/s/c6dc78408bec"/>
-    <hyperlink ref="B1459" r:id="rId2578" display="https://pan.baidu.com/s/1FO6AaeJ3x-qX1rYQReYndA?pwd=21xc"/>
-    <hyperlink ref="C1459" r:id="rId2579" display="https://pan.quark.cn/s/9dbb8c544a0d"/>
-    <hyperlink ref="B1460" r:id="rId2580" display="https://pan.baidu.com/s/1McBkUntyA3XCYSHj5OoK_A?pwd=xvwh"/>
-    <hyperlink ref="C1460" r:id="rId2581" display="https://pan.quark.cn/s/8f166a14acd7"/>
-    <hyperlink ref="B1461" r:id="rId2582" display="https://pan.baidu.com/s/1eJVp6niPLaaV-rxHct_htg?pwd=fdni"/>
-    <hyperlink ref="B1462" r:id="rId2583" display="https://pan.baidu.com/s/1vtq_wzaa0x2wRWIu4BZ8GQ?pwd=tny7"/>
-    <hyperlink ref="C1461" r:id="rId2584" display="https://pan.quark.cn/s/1ad866e94594"/>
-    <hyperlink ref="C1462" r:id="rId2585" display="https://pan.quark.cn/s/562c3202b851"/>
-    <hyperlink ref="C11" r:id="rId2586" display="https://pan.quark.cn/s/4be5812ba9c3"/>
-    <hyperlink ref="B11" r:id="rId2587" display="https://pan.baidu.com/s/1ovfQk6-yNs7AILTkTFtEwA?pwd=mjpw"/>
-    <hyperlink ref="B1463" r:id="rId2588" display="https://pan.baidu.com/s/1Keg4-dhseGHGhhNfyUIZbg?pwd=5dxx"/>
-    <hyperlink ref="B1464" r:id="rId2589" display="https://pan.baidu.com/s/1DHMYPGda9X5Cm3tlbWE2rw?pwd=6h8k"/>
-    <hyperlink ref="C1465" r:id="rId2590" display="https://pan.quark.cn/s/c421ad12e9db"/>
-    <hyperlink ref="B1465" r:id="rId2591" display="https://pan.baidu.com/s/1bbpVsMo0GcuJGboiP-P8fw?pwd=fu5t"/>
-    <hyperlink ref="B1466" r:id="rId2592" display="https://pan.baidu.com/s/1DSrCULzmD7eP5nqYgzahxA?pwd=ijkd"/>
-    <hyperlink ref="C1466" r:id="rId2593" display="https://pan.quark.cn/s/3148dbd57640"/>
-    <hyperlink ref="B1467" r:id="rId2594" display="https://pan.baidu.com/s/11QxdwVg84buYPM0_bNfOmA?pwd=2kmk"/>
-    <hyperlink ref="C1467" r:id="rId2595" display="https://pan.quark.cn/s/c563292d5b12"/>
-    <hyperlink ref="C1468" r:id="rId2596" display="https://pan.quark.cn/s/418631f01d6e"/>
-    <hyperlink ref="B1468" r:id="rId2597" display="https://pan.baidu.com/s/1DdAMs6gYo0XHiLlqasTYPg?pwd=ftuw"/>
-    <hyperlink ref="C1469" r:id="rId2598" display="https://pan.quark.cn/s/0007835e6b09"/>
-    <hyperlink ref="B1469" r:id="rId2599" display="https://pan.baidu.com/s/1oyrV9MskYwrWb2ruqgEQkQ?pwd=v57n"/>
-    <hyperlink ref="C12" r:id="rId2600" display="https://pan.quark.cn/s/8a7ae709771b"/>
-    <hyperlink ref="C13" r:id="rId2601" display="https://pan.quark.cn/s/248839245be9"/>
-    <hyperlink ref="B13" r:id="rId2602" display="https://pan.baidu.com/s/1BjtK-8Fid34_fAGP8_w2Sg?pwd=6vgf"/>
-    <hyperlink ref="B12" r:id="rId2603" display="https://pan.baidu.com/s/1BBHwhnQxrCc5Wz9nAzXaGQ?pwd=watr"/>
-    <hyperlink ref="B1470" r:id="rId2604" display="https://pan.baidu.com/s/14vx8L7v2R-G94tOvDS7CCg?pwd=fwry"/>
-    <hyperlink ref="C1470" r:id="rId2605" display="https://pan.quark.cn/s/5fa47c284c54"/>
-    <hyperlink ref="C1471" r:id="rId2606" display="https://pan.quark.cn/s/83c93b6cedfe"/>
-    <hyperlink ref="B1471" r:id="rId2607" display="https://pan.baidu.com/s/16RjwKbyESXGlBhoIT7eIcg?pwd=xg78"/>
-    <hyperlink ref="C1472" r:id="rId2608" display="https://pan.quark.cn/s/af077937891e"/>
-    <hyperlink ref="B1472" r:id="rId2609" display="https://pan.baidu.com/s/1q-yKASbdHlDPU6nIAz8Gyw?pwd=x4f9"/>
-    <hyperlink ref="C1449" r:id="rId2610" display="https://pan.quark.cn/s/f29e4ab666a1"/>
-    <hyperlink ref="C1450" r:id="rId2611" display="https://pan.quark.cn/s/76cc6b605e07"/>
-    <hyperlink ref="C1473" r:id="rId2612" display="https://pan.quark.cn/s/7e4d6407ed42"/>
-    <hyperlink ref="B1473" r:id="rId2613" display="https://pan.baidu.com/s/15HLTpTjX2qbm7ZfzQw-ARg?pwd=6d8d"/>
-    <hyperlink ref="C1474" r:id="rId2614" display="https://pan.quark.cn/s/93a06f78c8d8"/>
-    <hyperlink ref="B1474" r:id="rId2615" display="https://pan.baidu.com/s/1RpkjdHuOKag39q5Lvj8SLw?pwd=ab6d"/>
-    <hyperlink ref="B1475" r:id="rId2616" display="https://pan.baidu.com/s/1cnDyVGbRadA8GrN4170t5g?pwd=2e38"/>
-    <hyperlink ref="C1475" r:id="rId2617" display="https://pan.quark.cn/s/dd18135cc8c6"/>
-    <hyperlink ref="B1476" r:id="rId2618" display="https://pan.baidu.com/s/1g3i38dJYw8A7hGIMk2odlQ?pwd=i9bh"/>
-    <hyperlink ref="C1476" r:id="rId2619" display="https://pan.quark.cn/s/8dfe5a22c16d"/>
-    <hyperlink ref="B1477" r:id="rId2620" display="https://pan.baidu.com/s/1sIIMQbJtGtZhXRJ3hQecIA?pwd=h326"/>
-    <hyperlink ref="C1477" r:id="rId2621" display="https://pan.quark.cn/s/5d00c83bf0ad"/>
-    <hyperlink ref="C1478" r:id="rId2622" display="https://pan.quark.cn/s/15c37d585aab"/>
-    <hyperlink ref="C1479" r:id="rId2623" display="https://pan.quark.cn/s/2001ee80af6f"/>
-    <hyperlink ref="C1480" r:id="rId2624" display="https://pan.quark.cn/s/67ba1399f032"/>
-    <hyperlink ref="C1481" r:id="rId2625" display="https://pan.quark.cn/s/b07570e9ab5e"/>
-    <hyperlink ref="B1478" r:id="rId2626" display="https://pan.baidu.com/s/1rRuS6dGOIJL4AHvNCd9rwA?pwd=fdmf"/>
-    <hyperlink ref="B1479" r:id="rId2627" display="https://pan.baidu.com/s/1na7RpQ2Dx6N3NWp5Ic5Y1w?pwd=v9dt"/>
-    <hyperlink ref="B1481" r:id="rId2628" display="https://pan.baidu.com/s/1egsJhjRhuWZA4Du5lVV7Vw?pwd=k9jd"/>
-    <hyperlink ref="C1482" r:id="rId2629" display="https://pan.quark.cn/s/efea95b5ecdd"/>
-    <hyperlink ref="B1482" r:id="rId2630" display="https://pan.baidu.com/s/1N5zwljRLRCtcD7AHcyHWvg?pwd=5euf"/>
-    <hyperlink ref="C1483" r:id="rId2631" display="https://pan.quark.cn/s/bd9377906f38"/>
-    <hyperlink ref="B1483" r:id="rId2632" display="https://pan.baidu.com/s/1ZTENvS1nUZ_kwtSiG60qKQ?pwd=t4dp"/>
-    <hyperlink ref="C1484" r:id="rId2633" display="https://pan.quark.cn/s/2a391c6c6c0d"/>
-    <hyperlink ref="B1484" r:id="rId2634" display="https://pan.baidu.com/s/1nZwqbaHu-GYV3YjuxL5ftQ?pwd=x52b"/>
-    <hyperlink ref="C1485" r:id="rId2635" display="https://pan.quark.cn/s/d144203b4f04"/>
-    <hyperlink ref="B1485" r:id="rId2636" display="https://pan.baidu.com/s/14Auy0LyAt1Sq5TBngfDCFg?pwd=bxc2"/>
-    <hyperlink ref="C1486" r:id="rId2637" display="https://pan.quark.cn/s/31ca72ce41fe"/>
-    <hyperlink ref="B1486" r:id="rId2638" display="https://pan.baidu.com/s/1_bkSnQDD5-ba-fZOego-6w?pwd=3ia9"/>
-    <hyperlink ref="C1487" r:id="rId2639" display="https://pan.quark.cn/s/710477fd515d"/>
-    <hyperlink ref="B1487" r:id="rId2640" display="https://pan.baidu.com/s/1CiqmReg9IwL5b-iAUwsiIQ?pwd=zeuz"/>
-    <hyperlink ref="C1488" r:id="rId2641" display="https://pan.quark.cn/s/536efaa24f14"/>
-    <hyperlink ref="B1488" r:id="rId2642" display="https://pan.baidu.com/s/16-MrteTp527wWosw5Q0yyQ?pwd=dkr2"/>
-    <hyperlink ref="C1489" r:id="rId2643" display="https://pan.quark.cn/s/cb4005978ee4"/>
-    <hyperlink ref="B1489" r:id="rId2644" display="https://pan.baidu.com/s/1COSJVhrEstlfksG7iGDaWg?pwd=uyy5"/>
-    <hyperlink ref="C1490" r:id="rId2645" display="https://pan.quark.cn/s/a41b2ea61493"/>
-    <hyperlink ref="B1490" r:id="rId2646" display="https://pan.baidu.com/s/1W6USOwx_yIokSP6li0LNAQ?pwd=5q3b"/>
-    <hyperlink ref="C1491" r:id="rId2647" display="https://pan.quark.cn/s/ab79035a6ba2"/>
-    <hyperlink ref="B1491" r:id="rId2648" display="https://pan.baidu.com/s/1BzD9f80ma69k5taOkBfCLg?pwd=2zah"/>
-    <hyperlink ref="C1492" r:id="rId2649" display="https://pan.quark.cn/s/09ba225e5693"/>
-    <hyperlink ref="B1492" r:id="rId2650" display="https://pan.baidu.com/s/1E98JmVzgKJSNNrmEXTSQ1Q?pwd=ifhx"/>
-    <hyperlink ref="C1493" r:id="rId2651" display="https://pan.quark.cn/s/80d2b2eefa48"/>
-    <hyperlink ref="C1494" r:id="rId2652" display="https://pan.quark.cn/s/7007065ac9e4"/>
-    <hyperlink ref="B1494" r:id="rId2653" display="https://pan.baidu.com/s/1YHOTgRAoD8E7097vg6vxyA?pwd=3s2t"/>
-    <hyperlink ref="C1495" r:id="rId2654" display="https://pan.quark.cn/s/60313c8f4783"/>
-    <hyperlink ref="B1495" r:id="rId2655" display="https://pan.baidu.com/s/1uIzwAE7wXvRqEt7TDVvo6Q?pwd=rzgq"/>
-    <hyperlink ref="C1496" r:id="rId2656" display="https://pan.quark.cn/s/2addbb34b3e0"/>
-    <hyperlink ref="B1496" r:id="rId2657" display="https://pan.baidu.com/s/1BT2fXH_pex0yL0DL-yUMqA?pwd=nwfd"/>
-    <hyperlink ref="C1497" r:id="rId2658" display="https://pan.quark.cn/s/8cbd26108e4a"/>
-    <hyperlink ref="B1497" r:id="rId2659" display="https://pan.baidu.com/s/1DH-pDGQtecLcoxMoY_ha7w?pwd=k38t"/>
-    <hyperlink ref="C1498" r:id="rId2660" display="https://pan.quark.cn/s/f12f6a440074"/>
-    <hyperlink ref="B1498" r:id="rId2661" display="https://pan.baidu.com/s/1faWu03bbvtOH9TtWtW1HRw?pwd=2s8i"/>
-    <hyperlink ref="C1499" r:id="rId2662" display="https://pan.quark.cn/s/bfb19020113d"/>
-    <hyperlink ref="B1499" r:id="rId2663" display="https://pan.baidu.com/s/1YVP8i5T87clqpC8N5TyRkQ?pwd=k5jd"/>
-    <hyperlink ref="C1500" r:id="rId2664" display="https://pan.quark.cn/s/7f9ed6a3c373"/>
-    <hyperlink ref="C1501" r:id="rId2665" display="https://pan.quark.cn/s/ce5524759492"/>
-    <hyperlink ref="B1501" r:id="rId2666" display="https://pan.baidu.com/s/1-Lt2A_zppwxKBTyQshmlGg?pwd=ybq9"/>
-    <hyperlink ref="B1500" r:id="rId2667" display="https://pan.baidu.com/s/1a8VkK2kWc7fQqKhnWrCoTw?pwd=3wex"/>
-    <hyperlink ref="B1493" r:id="rId2668" display="https://pan.baidu.com/s/1rdt55RkghPL_agzdsmmx_g?pwd=9cu9"/>
-    <hyperlink ref="C1502" r:id="rId2669" display="https://pan.quark.cn/s/acd5f90a35d8"/>
-    <hyperlink ref="B1502" r:id="rId2670" display="https://pan.baidu.com/s/1O9_SSeTgTBmv_BlVYLTfjg?pwd=qpri"/>
-    <hyperlink ref="B1504" r:id="rId2671" display="https://pan.baidu.com/s/1lnHtXNKQT8nctwrA3qPYNg?pwd=ntaf"/>
-    <hyperlink ref="B1505" r:id="rId2672" display="https://pan.baidu.com/s/1PJWyyu1eAeAz82zGWF6iow?pwd=pgir"/>
-    <hyperlink ref="B1506" r:id="rId2673" display="https://pan.baidu.com/s/1dvQC-LJOhVKHy5BKGepALA?pwd=mpr6"/>
-    <hyperlink ref="B1503" r:id="rId2674" display="https://pan.baidu.com/s/1PWmTvdGdMQvFNIiN6M8fdQ?pwd=dms1"/>
-    <hyperlink ref="C1507" r:id="rId2675" display="https://pan.quark.cn/s/9a341729ef72"/>
-    <hyperlink ref="B1507" r:id="rId2676" display="https://pan.baidu.com/s/12WqvIQUMaIJ-VFt_rwNdEg?pwd=dgtr"/>
-    <hyperlink ref="B1508" r:id="rId2677" display="https://pan.baidu.com/s/1MHc6sK3LSFGT-ZVMW82_lA?pwd=dwrk"/>
-    <hyperlink ref="B1509" r:id="rId2678" display="https://pan.baidu.com/s/1YY30r2JD_fMfReZU5menbQ?pwd=c7ei"/>
-    <hyperlink ref="B1510" r:id="rId2679" display="https://pan.baidu.com/s/1G8MN3-9keW7K0w2Y_mW28w?pwd=b29s"/>
-    <hyperlink ref="C1510" r:id="rId2680" display="https://pan.quark.cn/s/2ed9aaf64b54"/>
-    <hyperlink ref="C1267" r:id="rId2681" display="https://pan.quark.cn/s/5e4535ac29d3"/>
-    <hyperlink ref="C1259" r:id="rId2682" display="https://pan.quark.cn/s/2a09690f5676"/>
-    <hyperlink ref="C1264" r:id="rId2683" display="https://pan.quark.cn/s/62f26f524dd0"/>
-    <hyperlink ref="C1260" r:id="rId2684" display="https://pan.quark.cn/s/c344c1bce908"/>
-    <hyperlink ref="C1261" r:id="rId2685" display="https://pan.quark.cn/s/ecbdc488a927"/>
-    <hyperlink ref="C1265" r:id="rId2686" display="https://pan.quark.cn/s/59dc2c159920"/>
-    <hyperlink ref="C1262" r:id="rId2687" display="https://pan.quark.cn/s/fb5dfb648f45"/>
-    <hyperlink ref="C1263" r:id="rId2688" display="https://pan.quark.cn/s/b1c04154222e"/>
-    <hyperlink ref="C1276" r:id="rId2689" display="https://pan.quark.cn/s/ed5e5064c5b1"/>
-    <hyperlink ref="C1273" r:id="rId2690" display="https://pan.quark.cn/s/fe51c06a6ca6"/>
-    <hyperlink ref="C1271" r:id="rId2691" display="https://pan.quark.cn/s/02677ca5365f"/>
-    <hyperlink ref="C1272" r:id="rId2692" display="https://pan.quark.cn/s/17958224e93b"/>
-    <hyperlink ref="C1269" r:id="rId2693" display="https://pan.quark.cn/s/6493e78e52fc"/>
-    <hyperlink ref="C1268" r:id="rId2694" display="https://pan.quark.cn/s/b1aa52a0f46b"/>
-    <hyperlink ref="C1277" r:id="rId2695" display="https://pan.quark.cn/s/d0c3fd1f1291"/>
-    <hyperlink ref="C1278" r:id="rId2696" display="https://pan.quark.cn/s/17c16a808730"/>
-    <hyperlink ref="C1256" r:id="rId2697" display="https://pan.quark.cn/s/e618858f02ba"/>
-    <hyperlink ref="C1274" r:id="rId2698" display="https://pan.quark.cn/s/2f7cec7e9caf"/>
-    <hyperlink ref="C1258" r:id="rId2699" display="https://pan.quark.cn/s/650592a44ebc"/>
-    <hyperlink ref="C1284" r:id="rId2700" display="https://pan.quark.cn/s/af0f5f2d99ab"/>
-    <hyperlink ref="C1281" r:id="rId2701" display="https://pan.quark.cn/s/7b5aabc3ae14"/>
-    <hyperlink ref="C1280" r:id="rId2702" display="https://pan.quark.cn/s/fa0172b394d3"/>
-    <hyperlink ref="C1282" r:id="rId2703" display="https://pan.quark.cn/s/5a2ca0c025f2"/>
-    <hyperlink ref="C1291" r:id="rId2704" display="https://pan.quark.cn/s/75f1b78489d9"/>
-    <hyperlink ref="C1283" r:id="rId2705" display="https://pan.quark.cn/s/4b7232664fef"/>
-    <hyperlink ref="C1288" r:id="rId2706" display="https://pan.quark.cn/s/9cf1be020e13"/>
-    <hyperlink ref="C1285" r:id="rId2707" display="https://pan.quark.cn/s/9b15ca869940"/>
-    <hyperlink ref="C1286" r:id="rId2708" display="https://pan.quark.cn/s/70e6743399c8"/>
-    <hyperlink ref="C1289" r:id="rId2709" display="https://pan.quark.cn/s/37228f6dc4ef"/>
-    <hyperlink ref="C1290" r:id="rId2710" display="https://pan.quark.cn/s/2e2258ad2a80"/>
-    <hyperlink ref="C1292" r:id="rId2711" display="https://pan.quark.cn/s/fc695863fa93"/>
-    <hyperlink ref="C1297" r:id="rId2712" display="https://pan.quark.cn/s/edfadcf554cc"/>
-    <hyperlink ref="C1298" r:id="rId2713" display="https://pan.quark.cn/s/afddf3936274"/>
-    <hyperlink ref="C1300" r:id="rId2714" display="https://pan.quark.cn/s/da7bda74044f"/>
-    <hyperlink ref="C1296" r:id="rId2715" display="https://pan.quark.cn/s/76a19cb588ef"/>
-    <hyperlink ref="C1295" r:id="rId2716" display="https://pan.quark.cn/s/05c150229d63"/>
-    <hyperlink ref="C1299" r:id="rId2717" display="https://pan.quark.cn/s/de62c5e9ba91"/>
-    <hyperlink ref="C582" r:id="rId2718" display="https://pan.quark.cn/s/67fa9b0c8529"/>
-    <hyperlink ref="C1294" r:id="rId2719" display="https://pan.quark.cn/s/130b85670c5d"/>
-    <hyperlink ref="C583" r:id="rId2720" display="https://pan.quark.cn/s/aa948219f715"/>
-    <hyperlink ref="C584" r:id="rId2721" display="https://pan.quark.cn/s/1e908d1e719d"/>
-    <hyperlink ref="C585" r:id="rId2722" display="https://pan.quark.cn/s/96705a287933"/>
-    <hyperlink ref="C586" r:id="rId2723" display="https://pan.quark.cn/s/6e6c01030298"/>
-    <hyperlink ref="C1301" r:id="rId2724" display="https://pan.quark.cn/s/c0a31c4b4553"/>
-    <hyperlink ref="C1304" r:id="rId2725" display="https://pan.quark.cn/s/9897391638ef"/>
-    <hyperlink ref="C1302" r:id="rId2726" display="https://pan.quark.cn/s/f80145065dc9"/>
-    <hyperlink ref="C1303" r:id="rId2727" display="https://pan.quark.cn/s/27f29a68f328"/>
-    <hyperlink ref="C1509" r:id="rId2728" display="https://pan.quark.cn/s/8a4116b02f76"/>
-    <hyperlink ref="C1508" r:id="rId2729" display="https://pan.quark.cn/s/e6a4e9e5a588"/>
-    <hyperlink ref="C1503" r:id="rId2730" display="https://pan.quark.cn/s/c55e07182862"/>
-    <hyperlink ref="C1504" r:id="rId2731" display="https://pan.quark.cn/s/3f83abf8b0f2"/>
-    <hyperlink ref="C1505" r:id="rId2732" display="https://pan.quark.cn/s/0f62d4952978"/>
-    <hyperlink ref="C1506" r:id="rId2733" display="https://pan.quark.cn/s/670a8ac56324"/>
-    <hyperlink ref="C1511" r:id="rId2734" display="https://pan.quark.cn/s/895a1e558648"/>
-    <hyperlink ref="B1511" r:id="rId2735" display="https://pan.baidu.com/s/1r6cZDvjKQ4qwQz-t14W_ew?pwd=jgys"/>
-    <hyperlink ref="C1513" r:id="rId2736" display="https://pan.quark.cn/s/3b4b0dab4d3c"/>
-    <hyperlink ref="B1513" r:id="rId2737" display="https://pan.baidu.com/s/1AMczz5NByXFni0fyMmHQWw?pwd=akmj"/>
-    <hyperlink ref="C1514" r:id="rId2738" display="https://pan.quark.cn/s/25fb12ac9ffd"/>
-    <hyperlink ref="C1515" r:id="rId2739" display="https://pan.quark.cn/s/19f1ddfc9fd3"/>
-    <hyperlink ref="B1514" r:id="rId2740" display="https://pan.baidu.com/s/1OxL38f_ulDnAZs7eMFVW0w?pwd=1u4d"/>
-    <hyperlink ref="B1515" r:id="rId2741" display="https://pan.baidu.com/s/1c-DD5OuHnM3JiiXKRFlnrw?pwd=m8yg"/>
-    <hyperlink ref="C1516" r:id="rId2742" display="https://pan.quark.cn/s/df761d4e4cb6"/>
-    <hyperlink ref="B1516" r:id="rId2743" display="https://pan.baidu.com/s/1fGFmcwNLUT1Q98iYq7dGkg?pwd=kaqh"/>
-    <hyperlink ref="B1517" r:id="rId2744" display="https://pan.baidu.com/s/14LLj0IZYYSil6lDHsdUpVA?pwd=kexk"/>
-    <hyperlink ref="B1518" r:id="rId2745" display="https://pan.baidu.com/s/1UlTkHbP0u1w0T6rzGLokWg?pwd=1p3m"/>
-    <hyperlink ref="B1519" r:id="rId2746" display="https://pan.baidu.com/s/1mYnB1FvNL2OxSdZakK4_QQ?pwd=u7dy"/>
-    <hyperlink ref="B1520" r:id="rId2747" display="https://pan.baidu.com/s/1Wg3AfnmYyNhlEwOe6em9yQ?pwd=rxut"/>
-    <hyperlink ref="B1521" r:id="rId2748" display="https://pan.baidu.com/s/1di5vjxfx2CvUJkY5YhDgFg?pwd=cgtr"/>
-    <hyperlink ref="B1522" r:id="rId2749" display="https://pan.baidu.com/s/1voOWer6N1Df56uPi5rYcqw?pwd=2ywv"/>
-    <hyperlink ref="B1523" r:id="rId2750" display="https://pan.baidu.com/s/1flOD0FFWjs1iS69H5mZGXA?pwd=4yhv"/>
-    <hyperlink ref="B1524" r:id="rId2751" display="https://pan.baidu.com/s/1xgyvD59FftAeg8V3b-mkjg?pwd=r33g"/>
-    <hyperlink ref="B1525" r:id="rId2752" display="https://pan.baidu.com/s/1Ch3qvepWdmlBSixEH6-4qw?pwd=c93u"/>
-    <hyperlink ref="B1526" r:id="rId2753" display="https://pan.baidu.com/s/1WtXZISd5nLxX-Wx3pmRQpg?pwd=r8gy"/>
-    <hyperlink ref="B1527" r:id="rId2754" display="https://pan.baidu.com/s/1nYNKqjhlyyznKJKOcRu-aQ?pwd=fnth"/>
-    <hyperlink ref="B1528" r:id="rId2755" display="https://pan.baidu.com/s/1D35vRGSvzLP2Hl_GgsfyDA?pwd=ayjc"/>
-    <hyperlink ref="B1529" r:id="rId2756" display="https://pan.baidu.com/s/1zGeTSmgKszuQgeqZQXon7g?pwd=9pqy"/>
-    <hyperlink ref="B1530" r:id="rId2757" display="https://pan.baidu.com/s/10mpIgYtWXi5ivV_gA5C-1g?pwd=48jw"/>
-    <hyperlink ref="B1531" r:id="rId2758" display="https://pan.baidu.com/s/11pllIwOPU7pQvfISSSEXDA?pwd=s7ea"/>
-    <hyperlink ref="B1532" r:id="rId2759" display="https://pan.baidu.com/s/1HBtKXqSNE7xVQw-GKcPnDA?pwd=fw8j"/>
-    <hyperlink ref="B1533" r:id="rId2760" display="https://pan.baidu.com/s/1GxXD8aLIXWAeqFIh7Sligg?pwd=rv3a"/>
-    <hyperlink ref="B1534" r:id="rId2761" display="https://pan.baidu.com/s/18wA4Wai0BKi_Qxx_a_MVfQ?pwd=4fji"/>
-    <hyperlink ref="B1535" r:id="rId2762" display="https://pan.baidu.com/s/1Rkcvy6ycbsYz6XxFRrnjuA?pwd=iebp"/>
-    <hyperlink ref="B1536" r:id="rId2763" display="https://pan.baidu.com/s/1mPx_9iWuH6C5lxVuUtJAcg?pwd=7sp9"/>
-    <hyperlink ref="B1537" r:id="rId2764" display="https://pan.baidu.com/s/1lanaG4Ew6J5_IiaZR8g6rQ?pwd=688y"/>
-    <hyperlink ref="B1538" r:id="rId2765" display="https://pan.baidu.com/s/18f0QAjIRv37We5Y46EN6PA?pwd=8sq4"/>
-    <hyperlink ref="B1539" r:id="rId2766" display="https://pan.baidu.com/s/1YxTu75RNAOQwN2duu3Xu7w?pwd=jw94"/>
-    <hyperlink ref="B1540" r:id="rId2767" display="https://pan.baidu.com/s/1SCW825nCPuufwIzH9YzeqA?pwd=sygs"/>
-    <hyperlink ref="B1541" r:id="rId2768" display="https://pan.baidu.com/s/1mrPlH8k8ziHIuaT_Ef7sWQ?pwd=5hu6"/>
-    <hyperlink ref="B1542" r:id="rId2769" display="https://pan.baidu.com/s/11f2E_BZoj6DeAd5-1F9a0w?pwd=ghej"/>
-    <hyperlink ref="C1543" r:id="rId2770" display="https://pan.quark.cn/s/4696b1d3c392"/>
-    <hyperlink ref="B1543" r:id="rId2771" display="https://pan.baidu.com/s/1UiUdUYNIXnDz0hyBRBf2Rg?pwd=5qx7"/>
-    <hyperlink ref="B1544" r:id="rId2772" display="https://pan.baidu.com/s/1oLV_OlxIdsBGSZ4tzs9dzQ?pwd=1sb7"/>
-    <hyperlink ref="C1544" r:id="rId2773" display="https://pan.quark.cn/s/f5003bad33a2"/>
-    <hyperlink ref="B1545" r:id="rId2774" display="https://pan.baidu.com/s/1GiRJ6bTOS0aXNSd91MESIA?pwd=anjg"/>
-    <hyperlink ref="C1545" r:id="rId2775" display="https://pan.quark.cn/s/2d5e3dd62017"/>
-    <hyperlink ref="B1546" r:id="rId2776" display="https://pan.baidu.com/s/1oezhjiV9iQYLviIkrTyHJw?pwd=48gx"/>
-    <hyperlink ref="B1547" r:id="rId2777" display="https://pan.baidu.com/s/1pQURsIPo_8yWHiG7HJAq5Q?pwd=g8aw"/>
-    <hyperlink ref="B1548" r:id="rId2778" display="https://pan.baidu.com/s/1M7mCSfznq1yqQCIW03u8Xw?pwd=uusn"/>
-    <hyperlink ref="B1549" r:id="rId2779" display="https://pan.baidu.com/s/1XNTFFbG8R0mPqGI18l7poQ?pwd=njr8"/>
-    <hyperlink ref="B1550" r:id="rId2780" display="https://pan.baidu.com/s/1Tov_XSr7t-72xfv1U3Z6VQ?pwd=i55s"/>
-    <hyperlink ref="B1551" r:id="rId2781" display="https://pan.baidu.com/s/1HF15Vzjyz53PGk3Fo5Dftg?pwd=bgvn"/>
-    <hyperlink ref="B1552" r:id="rId2782" display="https://pan.baidu.com/s/1eVgtMKny7v2u7jfTeIkQww?pwd=uj31"/>
-    <hyperlink ref="B1553" r:id="rId2783" display="https://pan.baidu.com/s/1LPSFKQsNWoPwdcwID2Yoxw?pwd=93ig"/>
-    <hyperlink ref="B1554" r:id="rId2784" display="https://pan.baidu.com/s/1mCOqYlIB-cUm0tLe0XAEdw?pwd=qgru"/>
-    <hyperlink ref="B1555" r:id="rId2785" display="https://pan.baidu.com/s/1-e6PTCqqopM27yGwg5zwsg?pwd=xmzg"/>
-    <hyperlink ref="B1556" r:id="rId2786" display="https://pan.baidu.com/s/1i_KCkLM8-F-y43esQqjolA?pwd=uc72"/>
-    <hyperlink ref="B1557" r:id="rId2787" display="https://pan.baidu.com/s/1o2Q9J981mKnEYVo2aNsWag?pwd=r82w"/>
-    <hyperlink ref="B1558" r:id="rId2788" display="https://pan.baidu.com/s/1tEuP-VLg7wiaoF_NY3cwmg?pwd=h3ht"/>
-    <hyperlink ref="B1559" r:id="rId2789" display="https://pan.baidu.com/s/1XgFqbaJXmOkEUMpcGg5cFw?pwd=b2cz"/>
-    <hyperlink ref="B1560" r:id="rId2790" display="https://pan.baidu.com/s/1iqueX6Zpkl4PWqwRdq_Snw?pwd=aeby"/>
-    <hyperlink ref="B1561" r:id="rId2791" display="https://pan.baidu.com/s/1KrWLriR1-_iZFeUBaMNUaw?pwd=2nw5"/>
-    <hyperlink ref="B1562" r:id="rId2792" display="https://pan.baidu.com/s/1YSKjsaeMG0RNdzhJlCjLxg?pwd=iff4"/>
-    <hyperlink ref="B1563" r:id="rId2793" display="https://pan.baidu.com/s/1_cIDLeWoMAxW2Xa9ibUrHA?pwd=kt3c"/>
-    <hyperlink ref="B1564" r:id="rId2794" display="https://pan.baidu.com/s/1DWo1ma0GGMr5L4M2-5H6Ig?pwd=zn8k"/>
-    <hyperlink ref="B1565" r:id="rId2795" display="https://pan.baidu.com/s/1ZLVSdhAJoVzTlcrfCy0ARQ?pwd=hhm3"/>
-    <hyperlink ref="B1566" r:id="rId2796" display="https://pan.baidu.com/s/1p2hI0AMYFZLq1nuLPhS6Ew?pwd=k2be"/>
-    <hyperlink ref="B1567" r:id="rId2797" display="https://pan.baidu.com/s/118dx1ZWNzoucGqwfXjUUOg?pwd=uzbm"/>
-    <hyperlink ref="B1568" r:id="rId2798" display="https://pan.baidu.com/s/1MzTCqiprqdoddsf6kNXLmw?pwd=nz95"/>
-    <hyperlink ref="B1569" r:id="rId2799" display="https://pan.baidu.com/s/1UQBjEfwdsUGiMcUXe1OWFg?pwd=2pk4"/>
-    <hyperlink ref="B1570" r:id="rId2800" display="https://pan.baidu.com/s/1EvVhqfWHCXz7Alo89r19Bw?pwd=6bpu"/>
-    <hyperlink ref="B1571" r:id="rId2801" display="https://pan.baidu.com/s/1OU4AUAu2gmrLSqnDGTZz2g?pwd=tvf5"/>
-    <hyperlink ref="B1572" r:id="rId2802" display="https://pan.baidu.com/s/14sjjnzF9PZ65KqUpBCkaeQ?pwd=drxv"/>
-    <hyperlink ref="B1573" r:id="rId2803" display="https://pan.baidu.com/s/1j8w9DJZ8NVswjIDhagp9zw?pwd=mhde"/>
-    <hyperlink ref="B1574" r:id="rId2804" display="https://pan.baidu.com/s/1iG72gGjOmHGVL8GdvOQD-w?pwd=jdfp"/>
-    <hyperlink ref="B1575" r:id="rId2805" display="https://pan.baidu.com/s/1Lz6ORD1QmDmOQtHgx8KSAw?pwd=c6tr"/>
-    <hyperlink ref="C1517" r:id="rId2806" display="https://pan.quark.cn/s/ddfe514c01b4"/>
-    <hyperlink ref="C1518" r:id="rId2807" display="https://pan.quark.cn/s/35dd113cc531"/>
-    <hyperlink ref="C1519" r:id="rId2808" display="https://pan.quark.cn/s/ccb7dcc3f6b3"/>
-    <hyperlink ref="C1522" r:id="rId2809" display="https://pan.quark.cn/s/7ea391f0ac18"/>
-    <hyperlink ref="C1520" r:id="rId2810" display="https://pan.quark.cn/s/2f08e019a006"/>
-    <hyperlink ref="C1521" r:id="rId2811" display="https://pan.quark.cn/s/3a9436a08b1d"/>
-    <hyperlink ref="C1576" r:id="rId2812" display="https://pan.quark.cn/s/902a5af3f41c"/>
-    <hyperlink ref="B1576" r:id="rId2813" display="https://pan.baidu.com/s/1Zfk6PLBsUi_uR42Dn0uNuA?pwd=shxa"/>
-    <hyperlink ref="C1577" r:id="rId2814" display="https://pan.quark.cn/s/282b0849c465"/>
-    <hyperlink ref="B1577" r:id="rId2815" display="https://pan.baidu.com/s/1kIabBpa0PwF6QglBgDPdkg?pwd=7e4h"/>
-    <hyperlink ref="C1568" r:id="rId2816" display="https://pan.quark.cn/s/1dfa106e272f"/>
-    <hyperlink ref="C1569" r:id="rId2817" display="https://pan.quark.cn/s/1bbe329f69ec"/>
-    <hyperlink ref="C1565" r:id="rId2818" display="https://pan.quark.cn/s/bae620151465"/>
-    <hyperlink ref="C1567" r:id="rId2819" display="https://pan.quark.cn/s/f1f67f61d76f"/>
-    <hyperlink ref="C1570" r:id="rId2820" display="https://pan.quark.cn/s/3899ba11c731"/>
-    <hyperlink ref="C1566" r:id="rId2821" display="https://pan.quark.cn/s/13f304283a38"/>
-    <hyperlink ref="C1571" r:id="rId2822" display="https://pan.quark.cn/s/21fecc86364d"/>
-    <hyperlink ref="C1525" r:id="rId2823" display="https://pan.quark.cn/s/ab879f72ceab"/>
-    <hyperlink ref="C1527" r:id="rId2824" display="https://pan.quark.cn/s/e0cc9765c85e"/>
-    <hyperlink ref="C1528" r:id="rId2825" display="https://pan.quark.cn/s/060847781ad5"/>
-    <hyperlink ref="C1529" r:id="rId2826" display="https://pan.quark.cn/s/484eb2a874a4"/>
-    <hyperlink ref="C1530" r:id="rId2827" display="https://pan.quark.cn/s/9bfff304ba6c"/>
-    <hyperlink ref="C1532" r:id="rId2828" display="https://pan.quark.cn/s/42bdc3cff310"/>
-    <hyperlink ref="C1531" r:id="rId2829" display="https://pan.quark.cn/s/0603e7479295"/>
-    <hyperlink ref="C1534" r:id="rId2830" display="https://pan.quark.cn/s/f0c6fa8a1104"/>
-    <hyperlink ref="C1535" r:id="rId2831" display="https://pan.quark.cn/s/d7fa56219f20"/>
-    <hyperlink ref="C1537" r:id="rId2832" display="https://pan.quark.cn/s/f68c7e9f4d9a"/>
-    <hyperlink ref="C1538" r:id="rId2833" display="https://pan.quark.cn/s/c4a32f7e6986"/>
-    <hyperlink ref="C1540" r:id="rId2834" display="https://pan.quark.cn/s/76770eecb215"/>
-    <hyperlink ref="C1541" r:id="rId2835" display="https://pan.quark.cn/s/a3c865ce8182"/>
-    <hyperlink ref="C1542" r:id="rId2836" display="https://pan.quark.cn/s/156f50bcb188"/>
-    <hyperlink ref="C1546" r:id="rId2837" display="https://pan.quark.cn/s/d976490535d2"/>
-    <hyperlink ref="C1547" r:id="rId2838" display="https://pan.quark.cn/s/eeb66d806d14"/>
-    <hyperlink ref="C1548" r:id="rId2839" display="https://pan.quark.cn/s/1d128ae0bbf6"/>
-    <hyperlink ref="C1549" r:id="rId2840" display="https://pan.quark.cn/s/16637dbb64b2"/>
-    <hyperlink ref="C1550" r:id="rId2841" display="https://pan.quark.cn/s/13e4918677a8"/>
-    <hyperlink ref="C1551" r:id="rId2842" display="https://pan.quark.cn/s/7d8f59d18891"/>
-    <hyperlink ref="C1552" r:id="rId2843" display="https://pan.quark.cn/s/fa3ad3ac82c0"/>
+    <hyperlink ref="C593" r:id="rId711" display="https://pan.quark.cn/s/aecc27ddff17"/>
+    <hyperlink ref="C594" r:id="rId712" display="https://pan.quark.cn/s/de22b302281a"/>
+    <hyperlink ref="C595" r:id="rId713" display="https://pan.quark.cn/s/554b88f46e74"/>
+    <hyperlink ref="B595" r:id="rId714" display="https://pan.baidu.com/s/1P7L5uSxEa5Ov4_4g4nwLxw?pwd=c9f4"/>
+    <hyperlink ref="C596" r:id="rId715" display="https://pan.quark.cn/s/38116a267981"/>
+    <hyperlink ref="C597" r:id="rId716" display="https://pan.quark.cn/s/53259d889ef7"/>
+    <hyperlink ref="C598" r:id="rId717" display="https://pan.quark.cn/s/1be72237df66"/>
+    <hyperlink ref="C599" r:id="rId718" display="https://pan.quark.cn/s/e5df05086f10"/>
+    <hyperlink ref="C600" r:id="rId719" display="https://pan.quark.cn/s/c4d2c698362e"/>
+    <hyperlink ref="C601" r:id="rId720" display="https://pan.quark.cn/s/471679d5415b"/>
+    <hyperlink ref="C602" r:id="rId721" display="https://pan.quark.cn/s/b7f32d8f5f2b"/>
+    <hyperlink ref="C603" r:id="rId722" display="https://pan.quark.cn/s/e4ec66518ca4"/>
+    <hyperlink ref="C604" r:id="rId723" display="https://pan.quark.cn/s/ee6bd16e03f1"/>
+    <hyperlink ref="C605" r:id="rId724" display="https://pan.quark.cn/s/cd9dfc41ebdf"/>
+    <hyperlink ref="C606" r:id="rId725" display="https://pan.quark.cn/s/613c25a79ae0"/>
+    <hyperlink ref="C607" r:id="rId726" display="https://pan.quark.cn/s/9770b4f21074"/>
+    <hyperlink ref="C608" r:id="rId727" display="https://pan.quark.cn/s/12cf95829144"/>
+    <hyperlink ref="C609" r:id="rId728" display="https://pan.quark.cn/s/81983124a3bb"/>
+    <hyperlink ref="C610" r:id="rId729" display="https://pan.quark.cn/s/ad3ce4defd0b"/>
+    <hyperlink ref="C24" r:id="rId730" display="https://pan.quark.cn/s/4e053b014a5e"/>
+    <hyperlink ref="B24" r:id="rId731" display="https://pan.baidu.com/s/1h6tq0cSu7eAVYm6FISC1KQ?pwd=ft85"/>
+    <hyperlink ref="C23" r:id="rId732" display="https://pan.quark.cn/s/a44ff654b8fc"/>
+    <hyperlink ref="B23" r:id="rId733" display="https://pan.baidu.com/s/1jLLYvYTbioyHKpU4duplWQ?pwd=ucb6"/>
+    <hyperlink ref="C611" r:id="rId734" display="https://pan.quark.cn/s/50eee314b2d3"/>
+    <hyperlink ref="B611" r:id="rId735" display="https://pan.baidu.com/s/17p7lXtp5nRosThtzr_DAPA?pwd=jg8f"/>
+    <hyperlink ref="C612" r:id="rId736" display="https://pan.quark.cn/s/684afef883e5"/>
+    <hyperlink ref="B612" r:id="rId737" display="https://pan.baidu.com/s/1YDb6PANcY9A-0JFaku9Cig?pwd=x5v5"/>
+    <hyperlink ref="C613" r:id="rId738" display="https://pan.quark.cn/s/d71cc84a1169"/>
+    <hyperlink ref="B613" r:id="rId739" display="https://pan.baidu.com/s/1i7UgtNUbfg_C5kyvESkGPw?pwd=6f34"/>
+    <hyperlink ref="C614" r:id="rId740" display="https://pan.quark.cn/s/878a32f4b273"/>
+    <hyperlink ref="B614" r:id="rId741" display="https://pan.baidu.com/s/1P_7yqrYtdy_pQtD6Tb23Zw?pwd=jghs"/>
+    <hyperlink ref="C615" r:id="rId742" display="https://pan.quark.cn/s/d2adbbf3c63c"/>
+    <hyperlink ref="B615" r:id="rId743" display="https://pan.baidu.com/s/1hezIPgtqRD5q9tuCNYCunA?pwd=17hk"/>
+    <hyperlink ref="B33" r:id="rId744" display="https://pan.baidu.com/s/1jx1DgPnPgLELR8apCQb4Kg?pwd=87b4"/>
+    <hyperlink ref="B46" r:id="rId745" display="https://pan.baidu.com/s/1co4P1Y5OUJWo2q02Tu1stg?pwd=m9rt"/>
+    <hyperlink ref="B47" r:id="rId746" display="https://pan.baidu.com/s/1t28qDiYzYLRF5737pwTEQw?pwd=in6d"/>
+    <hyperlink ref="B48" r:id="rId747" display="https://pan.baidu.com/s/1_Ztvj4tJCjQsf3CW5BZM0Q?pwd=5nk2"/>
+    <hyperlink ref="B61" r:id="rId748" display="https://pan.baidu.com/s/1_rSskiNaryLDM63GcC1IFw?pwd=niiw"/>
+    <hyperlink ref="B63" r:id="rId749" display="https://pan.baidu.com/s/19FgqjEKVCpgzTxrISoGDWw?pwd=c7ir"/>
+    <hyperlink ref="B64" r:id="rId750" display="https://pan.baidu.com/s/1FWgyBGAmZ2GQNThZ14k_Bg?pwd=9naa"/>
+    <hyperlink ref="B68" r:id="rId751" display="https://pan.baidu.com/s/1Dy3jd1s3_O6OC92wMQ9y3Q?pwd=jw23"/>
+    <hyperlink ref="B69" r:id="rId752" display="https://pan.baidu.com/s/1XBwwfDj4wol8ljXLKaw6dg?pwd=unhh"/>
+    <hyperlink ref="B70" r:id="rId753" display="https://pan.baidu.com/s/1S4NFZhq2kfnEVrhc5nBA1Q?pwd=tjdi"/>
+    <hyperlink ref="B616" r:id="rId754" display="https://pan.baidu.com/s/1sNBTMp1AViMVud1sMoykng?pwd=5rq5"/>
+    <hyperlink ref="B617" r:id="rId755" display="https://pan.baidu.com/s/1Z61SY32Wxb1uCjYWEqq-kg?pwd=8fw7"/>
+    <hyperlink ref="B618" r:id="rId756" display="https://pan.baidu.com/s/1-KMoNQOqHeHHbnKSyzCkpQ?pwd=bus4"/>
+    <hyperlink ref="B619" r:id="rId757" display="https://pan.baidu.com/s/1CInmtsO4IgHGOvpmPezA4Q?pwd=v5gw"/>
+    <hyperlink ref="B620" r:id="rId758" display="https://pan.baidu.com/s/1fRtELwS22p980_CNhOO0jA?pwd=b2nv"/>
+    <hyperlink ref="B621" r:id="rId759" display="https://pan.baidu.com/s/1mQTIdCTVE-xuT7lNtUY8mA?pwd=sp7i"/>
+    <hyperlink ref="B622" r:id="rId760" display="https://pan.baidu.com/s/1OgI8yj3T5W6Dm_it1FCBIQ?pwd=j6ta"/>
+    <hyperlink ref="B468" r:id="rId761" display="https://pan.baidu.com/s/19eLFnE7YMup65sgrnTbtXw?pwd=vwtf"/>
+    <hyperlink ref="B623" r:id="rId762" display="https://pan.baidu.com/s/11t408-kP_sCnB1_YCAMJAA?pwd=adkv"/>
+    <hyperlink ref="B624" r:id="rId763" display="https://pan.baidu.com/s/1IBwfDIiiQvNvudAl3R_25g?pwd=z26a"/>
+    <hyperlink ref="B379" r:id="rId764" display="https://pan.baidu.com/s/1xEIgPcYLh2t0nZsmq5b2dA?pwd=neur"/>
+    <hyperlink ref="B625" r:id="rId765" display="https://pan.baidu.com/s/1Suli-A9qmrUZY3n-a3WOBw?pwd=2bed"/>
+    <hyperlink ref="B626" r:id="rId766" display="https://pan.baidu.com/s/1vlgU7Trz2U3V_vW-KAl9sQ?pwd=curi"/>
+    <hyperlink ref="B590" r:id="rId767" display="https://pan.baidu.com/s/1Jq3HMm2Ff6zuKiACNc71jA?pwd=wdp3"/>
+    <hyperlink ref="B627" r:id="rId768" display="https://pan.baidu.com/s/10cRNitH4MFIiW-EOQLaiLA?pwd=xnsu"/>
+    <hyperlink ref="B628" r:id="rId769" display="https://pan.baidu.com/s/10K1N4b0et0aTt8p7OA4Cpg?pwd=jf97"/>
+    <hyperlink ref="B629" r:id="rId770" display="https://pan.baidu.com/s/1i8_rPtTQsGeH3Z7UhtssRw?pwd=zggz"/>
+    <hyperlink ref="B630" r:id="rId771" display="https://pan.baidu.com/s/11acseMSpxWAdmiYla0tBFw?pwd=rn7n"/>
+    <hyperlink ref="B631" r:id="rId772" display="https://pan.baidu.com/s/1iesurWBfuojwN3zbHOcAGQ?pwd=n8yn"/>
+    <hyperlink ref="B632" r:id="rId773" display="https://pan.baidu.com/s/17hvIBp92ymXFD2EzVk0zHg?pwd=e9uu"/>
+    <hyperlink ref="B633" r:id="rId774" display="https://pan.baidu.com/s/1YFLMfwLCoi2n3GrFkcpw6w?pwd=6s9q"/>
+    <hyperlink ref="B634" r:id="rId775" display="https://pan.baidu.com/s/1GmV_qe6dxsEh_xJtEv02VA?pwd=dy64"/>
+    <hyperlink ref="B635" r:id="rId776" display="https://pan.baidu.com/s/1a1fWWRBb3EumIicSaKPQFQ?pwd=i9t2"/>
+    <hyperlink ref="B636" r:id="rId777" display="https://pan.baidu.com/s/185l8WC-DmTdN_fV4PEQddw?pwd=bbza"/>
+    <hyperlink ref="B637" r:id="rId778" display="https://pan.baidu.com/s/15pz43Bubxp4eNnJV8tAEaA?pwd=88ps"/>
+    <hyperlink ref="B638" r:id="rId779" display="https://pan.baidu.com/s/1pXd7_XUZL27nArU48R0htg?pwd=vjxs"/>
+    <hyperlink ref="B513" r:id="rId780" display="https://pan.baidu.com/s/17oFJuu6Cww7ykeH7Tc0TiQ?pwd=g2xj"/>
+    <hyperlink ref="B639" r:id="rId781" display="https://pan.baidu.com/s/1V1MmVzkcx5_i-4kfax-R1Q?pwd=xd17"/>
+    <hyperlink ref="B640" r:id="rId782" display="https://pan.baidu.com/s/1kAkJRVunzu1TzAnh_QZNfQ?pwd=fjsr"/>
+    <hyperlink ref="C640" r:id="rId783" display="https://pan.quark.cn/s/a8297b40eea7"/>
+    <hyperlink ref="B71" r:id="rId784" display="https://pan.baidu.com/s/1ADAJb7Lb8JfbCQIn8yRiWQ?pwd=2qtm"/>
+    <hyperlink ref="B116" r:id="rId785" display="https://pan.baidu.com/s/1tiWeV_V-bcU5b9159tH0-w?pwd=myy8"/>
+    <hyperlink ref="B123" r:id="rId786" display="https://pan.baidu.com/s/1qbnqqCr0BF-_5g9fPxLAdQ?pwd=gg6n"/>
+    <hyperlink ref="B126" r:id="rId787" display="https://pan.baidu.com/s/1yUw3Ks1gamTk8ijVP6D9jA?pwd=y3vn"/>
+    <hyperlink ref="B372" r:id="rId788" display="https://pan.baidu.com/s/123BfMKI-VuSWIvkWAz65ng?pwd=ypms"/>
+    <hyperlink ref="B370" r:id="rId789" display="https://pan.baidu.com/s/1HHP5FbSVaG2tShA3Ig_CkA?pwd=cy1s"/>
+    <hyperlink ref="B360" r:id="rId790" display="https://pan.baidu.com/s/1e7957JDFFwbydqOcZGKFiw?pwd=u89m"/>
+    <hyperlink ref="B74" r:id="rId791" display="https://pan.baidu.com/s/1dfAiMmQ246-l7-O6WkacHQ?pwd=ukkb"/>
+    <hyperlink ref="B76" r:id="rId792" display="https://pan.baidu.com/s/1Vwf2G8Lf3BFGbnn_fR5EHA?pwd=7iv3"/>
+    <hyperlink ref="B188" r:id="rId793" display="https://pan.baidu.com/s/1OhBaqtA91IqX88RPxNWd6Q?pwd=es32"/>
+    <hyperlink ref="B190" r:id="rId794" display="https://pan.baidu.com/s/1ZBbrwGz6QkGucLUmI8dvLw?pwd=xu9g"/>
+    <hyperlink ref="B216" r:id="rId795" display="https://pan.baidu.com/s/1KutFelCxU9bKnXi6QDZafw?pwd=jf2i"/>
+    <hyperlink ref="C641" r:id="rId796" display="https://pan.quark.cn/s/016caa5aa3bc"/>
+    <hyperlink ref="B641" r:id="rId797" display="https://pan.baidu.com/s/1aTO-c9xkd6lb2bbreB0oPA?pwd=t2vb"/>
+    <hyperlink ref="B294" r:id="rId798" display="https://pan.baidu.com/s/1jYQUvbn9t4AXNMWXntlhpg?pwd=mpu8"/>
+    <hyperlink ref="C642" r:id="rId799" display="https://pan.quark.cn/s/aa42259cc55f"/>
+    <hyperlink ref="C643" r:id="rId800" display="https://pan.quark.cn/s/4b2be3299d4a"/>
+    <hyperlink ref="B642" r:id="rId801" display="https://pan.baidu.com/s/1NRg_ji2Uyu-FjBPLIAWMAQ?pwd=v2rf"/>
+    <hyperlink ref="B643" r:id="rId802" display="https://pan.baidu.com/s/1d27BE-hyvynuB71gDkTNvQ?pwd=ciaq"/>
+    <hyperlink ref="C644" r:id="rId803" display="https://pan.quark.cn/s/2cca2e41bf57"/>
+    <hyperlink ref="B644" r:id="rId804" display="https://pan.baidu.com/s/10gdsGgXo0yFfoJLzLImvlQ?pwd=76w8"/>
+    <hyperlink ref="B645" r:id="rId805" display="https://pan.baidu.com/s/1r5LxwY5K1cJPFQkJ-ATp4Q?pwd=maf7"/>
+    <hyperlink ref="B646" r:id="rId806" display="https://pan.baidu.com/s/1b23GCpyO_dK2yfDTrUC20A?pwd=xrvi"/>
+    <hyperlink ref="B647" r:id="rId807" display="https://pan.baidu.com/s/1Hu3HNEE-BBD9GCSzlBz0tg?pwd=pe9d"/>
+    <hyperlink ref="B648" r:id="rId808" display="https://pan.baidu.com/s/1qDctNUmSZ6cFoQUmzX_Ojw?pwd=4ghc"/>
+    <hyperlink ref="B649" r:id="rId809" display="https://pan.baidu.com/s/12zzXD5KrlJ_pGcy1mMlifg?pwd=wgxt"/>
+    <hyperlink ref="B650" r:id="rId810" display="https://pan.baidu.com/s/1G3fzPlKv2_BBPN9tlyhlyw?pwd=quy2"/>
+    <hyperlink ref="B80" r:id="rId811" display="https://pan.baidu.com/s/1LEP9_ZHoEF8fYHn2tGO56A?pwd=awp3"/>
+    <hyperlink ref="B81" r:id="rId812" display="https://pan.baidu.com/s/19WAUqS1_i1eGt-pUy8HnGw?pwd=71wb"/>
+    <hyperlink ref="B83" r:id="rId813" display="https://pan.baidu.com/s/19_e6Ro6QTn_MfM-krINPaw?pwd=9efc"/>
+    <hyperlink ref="B84" r:id="rId814" display="https://pan.baidu.com/s/11abide1v8DI7LZGe4wfgBw?pwd=6g7c"/>
+    <hyperlink ref="B86" r:id="rId815" display="https://pan.baidu.com/s/1zs0CBSAzttuVhKr7T3zaRQ?pwd=k7wn"/>
+    <hyperlink ref="B89" r:id="rId816" display="https://pan.baidu.com/s/1Wamou52umGGJiBVG_8QDbQ?pwd=r2b4"/>
+    <hyperlink ref="B90" r:id="rId817" display="https://pan.baidu.com/s/1a7M9kLWU7O2qOsDDH3tuZg?pwd=t6yv"/>
+    <hyperlink ref="B91" r:id="rId818" display="https://pan.baidu.com/s/1v6JiTsLVEejqEO268Lq-og?pwd=zmc7"/>
+    <hyperlink ref="B92" r:id="rId819" display="https://pan.baidu.com/s/1BZk_qN56FHvlcppP5rci3A?pwd=j77u"/>
+    <hyperlink ref="B94" r:id="rId820" display="https://pan.baidu.com/s/1QZAc4NzIc_1AfkPg07GgSQ?pwd=8pp3"/>
+    <hyperlink ref="B97" r:id="rId821" display="https://pan.baidu.com/s/1eFaAmiNEhk0Jwhda-y_cgA?pwd=euha"/>
+    <hyperlink ref="B98" r:id="rId822" display="https://pan.baidu.com/s/17BTsucpE8snN1Kq__qazEw?pwd=gh2g"/>
+    <hyperlink ref="B99" r:id="rId823" display="https://pan.baidu.com/s/19BZx-Wa7M2dIz01Eeg01xg?pwd=bqq2"/>
+    <hyperlink ref="B101" r:id="rId824" display="https://pan.baidu.com/s/1Fo8iQvSUKtqE4YDO-__zTQ?pwd=huij"/>
+    <hyperlink ref="B102" r:id="rId825" display="https://pan.baidu.com/s/1uh8y2t3qx7ReVqeygbJMsQ?pwd=bj96"/>
+    <hyperlink ref="B651" r:id="rId826" display="https://pan.baidu.com/s/1FQ1kNhKoZc1rjMYABlG1lg?pwd=ug36"/>
+    <hyperlink ref="B520" r:id="rId827" display="https://pan.baidu.com/s/1emd2Cnf1a64W2E_S0oUb2g?pwd=ijjr"/>
+    <hyperlink ref="C521" r:id="rId828" display="https://pan.quark.cn/s/72fc0ef6a6da"/>
+    <hyperlink ref="B521" r:id="rId829" display="https://pan.baidu.com/s/1oP4UhseG3yNz1uLgxLUcRQ?pwd=3ykn"/>
+    <hyperlink ref="C652" r:id="rId830" display="https://pan.quark.cn/s/1f0dbca1ee1c"/>
+    <hyperlink ref="B652" r:id="rId831" display="https://pan.baidu.com/s/1KnrzDlcTloKJWoJ9PRChXg?pwd=81yn"/>
+    <hyperlink ref="B653" r:id="rId832" display="https://pan.baidu.com/s/1csncRU0pxN89FSALO_SDqA?pwd=88qu"/>
+    <hyperlink ref="B654" r:id="rId833" display="https://pan.baidu.com/s/1auHN_0KRHQHjxzdCL36X-Q?pwd=dbix"/>
+    <hyperlink ref="B432" r:id="rId834" display="https://pan.baidu.com/s/1E2oJK8-Rdx5-skIGHplbEw?pwd=u8iw"/>
+    <hyperlink ref="B431" r:id="rId835" display="https://pan.baidu.com/s/1u0AjVyW3IX0IKQn90jEl0g?pwd=9q7r"/>
+    <hyperlink ref="B433" r:id="rId836" display="https://pan.baidu.com/s/19YhZ3KBp3BJA_ry9tBcCyQ?pwd=n5mf"/>
+    <hyperlink ref="B434" r:id="rId837" display="https://pan.baidu.com/s/1UyMBtotQduYIWm1ATuflXA?pwd=bbne"/>
+    <hyperlink ref="B426" r:id="rId838" display="https://pan.baidu.com/s/1t6EjVpIHKtQDxeZQj0qupw?pwd=43y7"/>
+    <hyperlink ref="C655" r:id="rId839" display="https://pan.quark.cn/s/dfce6917cb44"/>
+    <hyperlink ref="B656" r:id="rId840" display="https://pan.baidu.com/s/1hvAAAf40kb5982j7cZpCuw?pwd=g8ru"/>
+    <hyperlink ref="B476" r:id="rId841" display="https://pan.baidu.com/s/10WR12IOaI9_Gy5pWnoeZgg?pwd=dmt3"/>
+    <hyperlink ref="B473" r:id="rId842" display="https://pan.baidu.com/s/1jkBzCyNK6JPz7MWoQh4RJA?pwd=ha42"/>
+    <hyperlink ref="B474" r:id="rId843" display="https://pan.baidu.com/s/1-YvzZzFm_yx-giRxfUvLkw?pwd=4tsf"/>
+    <hyperlink ref="B478" r:id="rId844" display="https://pan.baidu.com/s/16IbrxJKvsuMxsdGrONvjIg?pwd=vxxc"/>
+    <hyperlink ref="B389" r:id="rId845" display="https://pan.baidu.com/s/1cRnRmFDLr38s_STzNVAR6g?pwd=223p"/>
+    <hyperlink ref="B390" r:id="rId846" display="https://pan.baidu.com/s/1YTy7NcKJlt4xb0Pd7l6voA?pwd=wr9r"/>
+    <hyperlink ref="B392" r:id="rId847" display="https://pan.baidu.com/s/14LRkvqVB-Ywivgg-d21IJQ?pwd=qpcg"/>
+    <hyperlink ref="B657" r:id="rId848" display="https://pan.baidu.com/s/1m_zGNvtz8zoJfkuugIottA?pwd=xxj9"/>
+    <hyperlink ref="B658" r:id="rId849" display="https://pan.baidu.com/s/1aPChUq4YG5WOLsIptK2VqA?pwd=25dw"/>
+    <hyperlink ref="B659" r:id="rId850" display="https://pan.baidu.com/s/1q2uHvvqWYWx4n9UIk5dVpg?pwd=fjpv"/>
+    <hyperlink ref="B660" r:id="rId851" display="https://pan.baidu.com/s/1n5R0erInbAhgPBLMWJaDQQ?pwd=e3ky"/>
+    <hyperlink ref="B661" r:id="rId852" display="https://pan.baidu.com/s/1eOuqbFJwtjxcinrTBlpwXA?pwd=p7jc"/>
+    <hyperlink ref="B662" r:id="rId853" display="https://pan.baidu.com/s/1kY9P5hgmICVMewnmNJvjbg?pwd=qb8r"/>
+    <hyperlink ref="B663" r:id="rId854" display="https://pan.baidu.com/s/1QLsr6s8A7Qm8epMmTkpZbA?pwd=zv84"/>
+    <hyperlink ref="B666" r:id="rId855" display="https://pan.baidu.com/s/1MIRbrGL5XvP_gKrJeAxItg?pwd=u51s"/>
+    <hyperlink ref="B667" r:id="rId856" display="https://pan.baidu.com/s/1z62bJfVIjt7dKmC0lhsSsg?pwd=ka6a"/>
+    <hyperlink ref="B668" r:id="rId857" display="https://pan.baidu.com/s/1-dp-uF9xFKtr4ZwFyFrqRA?pwd=h87i"/>
+    <hyperlink ref="B669" r:id="rId858" display="https://pan.baidu.com/s/1DA7DEX0G4zF4lnDFVGAmNQ?pwd=yghn"/>
+    <hyperlink ref="B670" r:id="rId859" display="https://pan.baidu.com/s/1G0f2Y_WWeqPxfNWT6tCrmQ?pwd=xiuc"/>
+    <hyperlink ref="B671" r:id="rId860" display="https://pan.baidu.com/s/1i4WMH2QYnFE_Bc0wifA-lg?pwd=zsm7"/>
+    <hyperlink ref="B672" r:id="rId861" display="https://pan.baidu.com/s/1fo5u3EWSC5aqB6pR_UyOUw?pwd=pxc7"/>
+    <hyperlink ref="B673" r:id="rId862" display="https://pan.baidu.com/s/1-8IEqSRfWjwt1qtsFbFDwg?pwd=en26"/>
+    <hyperlink ref="B445" r:id="rId863" display="https://pan.baidu.com/s/1CVj3lBt_X0lSOk2XAWSTvg?pwd=g7ei"/>
+    <hyperlink ref="B446" r:id="rId864" display="https://pan.baidu.com/s/1YbsADXJis6a5l-V0Hcf5mA?pwd=vbjc"/>
+    <hyperlink ref="B447" r:id="rId865" display="https://pan.baidu.com/s/16nlTH_9_ClnMt5AodTHJQw?pwd=i3rx"/>
+    <hyperlink ref="B674" r:id="rId866" display="https://pan.baidu.com/s/1vWmM6iC7e16HCgbyNwXP3Q?pwd=nk59"/>
+    <hyperlink ref="B675" r:id="rId867" display="https://pan.baidu.com/s/1clc-NGweqWYIOw1t2wCV8w?pwd=49xj"/>
+    <hyperlink ref="B676" r:id="rId868" display="https://pan.baidu.com/s/17_p00sT80jW2mVk4vQsQzQ?pwd=gf63"/>
+    <hyperlink ref="B677" r:id="rId869" display="https://pan.baidu.com/s/1iqrnb10GzFnefMnmk6ysLQ?pwd=dqnq"/>
+    <hyperlink ref="B678" r:id="rId870" display="https://pan.baidu.com/s/1IdEApFzRFSpG2xvQwJVwxQ?pwd=3sgh"/>
+    <hyperlink ref="B679" r:id="rId871" display="https://pan.baidu.com/s/1a47SEwgBSw7IuDJt4TtuLQ?pwd=rr2e"/>
+    <hyperlink ref="B680" r:id="rId872" display="https://pan.baidu.com/s/1uCFltLbgzXhIEdQGhdvkgA?pwd=ywmu"/>
+    <hyperlink ref="B681" r:id="rId873" display="https://pan.baidu.com/s/14Tx2k3O39KoOWaMFEgU0Vw?pwd=ever"/>
+    <hyperlink ref="B682" r:id="rId874" display="https://pan.baidu.com/s/1rCCHZk-IiYahBAfTx6pVcg?pwd=jyn6"/>
+    <hyperlink ref="B683" r:id="rId875" display="https://pan.baidu.com/s/1NqvmmEk8vEZnah5evawzew?pwd=fxpm"/>
+    <hyperlink ref="B684" r:id="rId876" display="https://pan.baidu.com/s/1GPpZVl9H9n9f64GlYu2xJg?pwd=hrg3"/>
+    <hyperlink ref="B685" r:id="rId877" display="https://pan.baidu.com/s/10_ly7GyOnAGm7TYAZEcslQ?pwd=tx3y"/>
+    <hyperlink ref="B686" r:id="rId878" display="https://pan.baidu.com/s/1LpwpIUWDvvMIYC5onr9BuQ?pwd=fsrf"/>
+    <hyperlink ref="B687" r:id="rId879" display="https://pan.baidu.com/s/1nA7i8FKJjkKHa1R--DYNug?pwd=jxpw"/>
+    <hyperlink ref="B25" r:id="rId880" display="https://pan.baidu.com/s/1VBPb379ZSI6VkB2vmR_2TQ?pwd=2238"/>
+    <hyperlink ref="C25" r:id="rId881" display="https://pan.quark.cn/s/8663da62cd1f"/>
+    <hyperlink ref="B688" r:id="rId882" display="https://pan.baidu.com/s/1WJHgzRTVMfGZR1ko7lmsLw?pwd=j7f2"/>
+    <hyperlink ref="B689" r:id="rId883" display="https://pan.baidu.com/s/1k5kI5pH7uCqBpc3W3cepLw?pwd=en5c"/>
+    <hyperlink ref="B690" r:id="rId884" display="https://pan.baidu.com/s/1YuBYOeHjbApcfqOFz9BvDQ?pwd=za51"/>
+    <hyperlink ref="B691" r:id="rId885" display="https://pan.baidu.com/s/1JszYNtrwB0BgELnd1im3IA?pwd=1nv4"/>
+    <hyperlink ref="B692" r:id="rId886" display="https://pan.baidu.com/s/1EtBxNKBP56eDixR4mxcsgg?pwd=gbee"/>
+    <hyperlink ref="B693" r:id="rId887" display="https://pan.baidu.com/s/1ruy3gPzKPV-zFp6fznzKjw?pwd=x1hw"/>
+    <hyperlink ref="B694" r:id="rId888" display="https://pan.baidu.com/s/1fWhA1916Iqk1Z9gHdni_fQ?pwd=smyw"/>
+    <hyperlink ref="B567" r:id="rId889" display="https://pan.baidu.com/s/1Vq3jBaEB3Gq8Iua3Yu747g?pwd=zket"/>
+    <hyperlink ref="B501" r:id="rId890" display="https://pan.baidu.com/s/1mJhk6jQmkymaDBBL--XydA?pwd=78b7"/>
+    <hyperlink ref="B500" r:id="rId891" display="https://pan.baidu.com/s/1XJnKLyzK-6hqKaD30R5n5A?pwd=2qtr"/>
+    <hyperlink ref="B695" r:id="rId892" display="https://pan.baidu.com/s/1GJDDbUruvVEYe4UwkA3Xeg?pwd=9ump"/>
+    <hyperlink ref="B144" r:id="rId893" display="https://pan.baidu.com/s/11KN0Erno4mBi-FhqheUt_g?pwd=m7ag"/>
+    <hyperlink ref="B142" r:id="rId894" display="https://pan.baidu.com/s/1OKlWpLnuFVnCGqx_Xk01FA?pwd=b6ks"/>
+    <hyperlink ref="B696" r:id="rId895" display="https://pan.baidu.com/s/1Ugy_OVIzKsqpasQNPBQ6Lg?pwd=sk82"/>
+    <hyperlink ref="B697" r:id="rId896" display="https://pan.baidu.com/s/1jXpNNcH6trhVgbbVtoFZ3A?pwd=w2w5"/>
+    <hyperlink ref="B698" r:id="rId897" display="https://pan.baidu.com/s/1UrsJeJ2ar75xaT7jFKmwnw?pwd=yq3f"/>
+    <hyperlink ref="B699" r:id="rId898" display="https://pan.baidu.com/s/1lATp7WyBkNnv7vBcmGgruQ?pwd=mgfp"/>
+    <hyperlink ref="B700" r:id="rId899" display="https://pan.baidu.com/s/1fVhKoF6RnHsuO9av8ZC-zg?pwd=gx88"/>
+    <hyperlink ref="B701" r:id="rId900" display="https://pan.baidu.com/s/1h0d5EUpkmi2hQRrcW9CIGw?pwd=edue"/>
+    <hyperlink ref="B702" r:id="rId901" display="https://pan.baidu.com/s/1Ai-LhcDhHwsMLE0NMvWAxQ?pwd=f9sb"/>
+    <hyperlink ref="B703" r:id="rId902" display="https://pan.baidu.com/s/1XyJsE9KeggeqbSbkKGQU9w?pwd=tgkc"/>
+    <hyperlink ref="B704" r:id="rId903" display="https://pan.baidu.com/s/1MPcBwkP9bzuAzC_jO3AlEA?pwd=xg6k"/>
+    <hyperlink ref="B705" r:id="rId904" display="https://pan.baidu.com/s/1qG40_ICGRaAtjn1I66GdEg?pwd=nmqi"/>
+    <hyperlink ref="B706" r:id="rId905" display="https://pan.baidu.com/s/1IaJsSp1wMSyJIi9C2Qou3A?pwd=9i91"/>
+    <hyperlink ref="B707" r:id="rId906" display="https://pan.baidu.com/s/11ka9BBfh122ZzBHtYyTBnw?pwd=pbns"/>
+    <hyperlink ref="B708" r:id="rId907" display="https://pan.baidu.com/s/1u5KO2MKSHyeiuMRPWEOEgg?pwd=j3cw"/>
+    <hyperlink ref="B709" r:id="rId908" display="https://pan.baidu.com/s/15btTrWOgAcpP7iG5EHzs1Q?pwd=fui7"/>
+    <hyperlink ref="B710" r:id="rId909" display="https://pan.baidu.com/s/19b6ELpX2_l8JSqoCWVqrdg?pwd=njn5"/>
+    <hyperlink ref="B711" r:id="rId910" display="https://pan.baidu.com/s/1JSN_df2vBxaiOqZgmzQYLQ?pwd=m8xi"/>
+    <hyperlink ref="B712" r:id="rId911" display="https://pan.baidu.com/s/1NzaX2Tn27o5gQ45oNtWx3w?pwd=426p"/>
+    <hyperlink ref="B341" r:id="rId912" display="https://pan.baidu.com/s/1WnEwheIcWa-ghLqR_KK6ng?pwd=69v6"/>
+    <hyperlink ref="B713" r:id="rId913" display="https://pan.baidu.com/s/1Rm9YybO3WCkqK9C13NyW9g?pwd=n8kj"/>
+    <hyperlink ref="B714" r:id="rId914" display="https://pan.baidu.com/s/1PDsy8FwNYh5bOQaaF99Phw?pwd=9jty"/>
+    <hyperlink ref="B715" r:id="rId915" display="https://pan.baidu.com/s/16_IQgq4u9bgrXc7urHnfhQ?pwd=bq9j"/>
+    <hyperlink ref="B716" r:id="rId916" display="https://pan.baidu.com/s/1LqoYUrUAec_-HH4TMaltRg?pwd=dhk7"/>
+    <hyperlink ref="B717" r:id="rId917" display="https://pan.baidu.com/s/1ljsrK7OvnLWAJlm5nWOBag?pwd=ys28"/>
+    <hyperlink ref="B569" r:id="rId918" display="https://pan.baidu.com/s/10hg99-QeDqsn7FXv-3AoZQ?pwd=9bve"/>
+    <hyperlink ref="B718" r:id="rId919" display="https://pan.baidu.com/s/1u1315Yz1TTojZ3TCL_45kQ?pwd=v3mr"/>
+    <hyperlink ref="B719" r:id="rId920" display="https://pan.baidu.com/s/1aO1P6n2RbeBwiTNk1zCptQ?pwd=m6qx"/>
+    <hyperlink ref="B720" r:id="rId921" display="https://pan.baidu.com/s/1CxXhQbdM60SGNKGzjk39Kg?pwd=k17s"/>
+    <hyperlink ref="B721" r:id="rId922" display="https://pan.baidu.com/s/1I-Wh4EIpL7mI24XZCQAUUw?pwd=iap8"/>
+    <hyperlink ref="B121" r:id="rId923" display="https://pan.baidu.com/s/1VApTfVkUFnpnmgQSp7mBeA?pwd=3ige"/>
+    <hyperlink ref="B205" r:id="rId924" display="https://pan.baidu.com/s/11oov6e2r1quC0qjJM4-6KA?pwd=crx9"/>
+    <hyperlink ref="B204" r:id="rId925" display="https://pan.baidu.com/s/1yYFMrR5blyc96V4n0SsVoA?pwd=e62t"/>
+    <hyperlink ref="B209" r:id="rId926" display="https://pan.baidu.com/s/12nooZUi5X7dAd-Ao-jmNug?pwd=c255"/>
+    <hyperlink ref="B582" r:id="rId927" display="https://pan.baidu.com/s/1_H2Uh3u-ojeVxdx4-6jncA?pwd=2qng"/>
+    <hyperlink ref="B365" r:id="rId928" display="https://pan.baidu.com/s/1R5tj1LxA4bo0JztkT8CTmw?pwd=axsg"/>
+    <hyperlink ref="B357" r:id="rId929" display="https://pan.baidu.com/s/1x6XqVQ1pszOhuUlFzFfTCw?pwd=n2p6"/>
+    <hyperlink ref="B356" r:id="rId930" display="https://pan.baidu.com/s/1EFO3-GiiEW_VY04o3ROAPA?pwd=ce7f"/>
+    <hyperlink ref="B722" r:id="rId931" display="https://pan.baidu.com/s/1nxuToDatlCx1KSJNqNf8kQ?pwd=2qwn"/>
+    <hyperlink ref="B723" r:id="rId932" display="https://pan.baidu.com/s/10peoyQ5rpbysLolbnscbbg?pwd=hmsq"/>
+    <hyperlink ref="B724" r:id="rId933" display="https://pan.baidu.com/s/1xXaFPay_N-yEdXhFb1esmA?pwd=cxe2"/>
+    <hyperlink ref="B725" r:id="rId934" display="https://pan.baidu.com/s/11XjJEV2vIK8MNDuEpvd4Mg?pwd=1wqu"/>
+    <hyperlink ref="B726" r:id="rId935" display="https://pan.baidu.com/s/1hezz9bI6iGTh74iMzLNEcA?pwd=edjw"/>
+    <hyperlink ref="B727" r:id="rId936" display="https://pan.baidu.com/s/1YLWzHI3qlxAoKL0c2bw8IQ?pwd=urw5"/>
+    <hyperlink ref="B729" r:id="rId937" display="https://pan.baidu.com/s/1ha0bkCK99QHnsYDS1aJZkQ?pwd=4nj5"/>
+    <hyperlink ref="B730" r:id="rId938" display="https://pan.baidu.com/s/1pMBUaTYsYqhglF1WIEsuag?pwd=cf5q"/>
+    <hyperlink ref="B731" r:id="rId939" display="https://pan.baidu.com/s/1pi5ksTt9pf_1iDiLlQ39Dg?pwd=xktt"/>
+    <hyperlink ref="B732" r:id="rId940" display="https://pan.baidu.com/s/1HDPpc17bcL8JQPCH500TZw?pwd=ebif"/>
+    <hyperlink ref="B733" r:id="rId941" display="https://pan.baidu.com/s/1ZlhCCxZ7x8i8wjuSn6msNQ?pwd=7pq9"/>
+    <hyperlink ref="B734" r:id="rId942" display="https://pan.baidu.com/s/1mGodlmdA0uia00tVUVIn4w?pwd=9m8e"/>
+    <hyperlink ref="B735" r:id="rId943" display="https://pan.baidu.com/s/1WqWy699vQTc6UKNWUiTZjg?pwd=u88c"/>
+    <hyperlink ref="B736" r:id="rId944" display="https://pan.baidu.com/s/13awwOzSs7aDsd0y0MrnRMg?pwd=tbmn"/>
+    <hyperlink ref="B737" r:id="rId945" display="https://pan.baidu.com/s/11ATv_6JHWRIZSRVsXLWZCQ?pwd=kezt"/>
+    <hyperlink ref="B36" r:id="rId946" display="https://pan.baidu.com/s/1tqhF2vdHad8ZMxIsis-2Ow?pwd=4us2"/>
+    <hyperlink ref="C36" r:id="rId947" display="https://pan.quark.cn/s/2d51a12d48b0"/>
+    <hyperlink ref="C37" r:id="rId948" display="https://pan.quark.cn/s/f2265bc986d6"/>
+    <hyperlink ref="C738" r:id="rId949" display="https://pan.quark.cn/s/572a97d61992"/>
+    <hyperlink ref="C739" r:id="rId950" display="https://pan.quark.cn/s/0b2a31f05790"/>
+    <hyperlink ref="C740" r:id="rId951" display="https://pan.quark.cn/s/75dc58a08892"/>
+    <hyperlink ref="C694" r:id="rId952" display="https://pan.quark.cn/s/4a6e4927ffe9"/>
+    <hyperlink ref="C741" r:id="rId953" display="https://pan.quark.cn/s/45e0e1513545"/>
+    <hyperlink ref="C742" r:id="rId954" display="https://pan.quark.cn/s/3fe96ee0d85a"/>
+    <hyperlink ref="C743" r:id="rId955" display="https://pan.quark.cn/s/686b2ad0714b"/>
+    <hyperlink ref="C744" r:id="rId956" display="https://pan.quark.cn/s/20b1ec2912bb"/>
+    <hyperlink ref="C745" r:id="rId957" display="https://pan.quark.cn/s/2667c6c557c6"/>
+    <hyperlink ref="C746" r:id="rId958" display="https://pan.quark.cn/s/d6658f28061c"/>
+    <hyperlink ref="C747" r:id="rId959" display="https://pan.quark.cn/s/e40c0bf7f009"/>
+    <hyperlink ref="C748" r:id="rId960" display="https://pan.quark.cn/s/43d19b6be65b"/>
+    <hyperlink ref="C749" r:id="rId961" display="https://pan.quark.cn/s/aea9dbb17e6c"/>
+    <hyperlink ref="C645" r:id="rId962" display="https://pan.quark.cn/s/3891a3b5428f"/>
+    <hyperlink ref="C646" r:id="rId963" display="https://pan.quark.cn/s/650907e3124c"/>
+    <hyperlink ref="C750" r:id="rId964" display="https://pan.quark.cn/s/d099b7e9dfc5"/>
+    <hyperlink ref="C751" r:id="rId965" display="https://pan.quark.cn/s/2198ea14a64c"/>
+    <hyperlink ref="C752" r:id="rId966" display="https://pan.quark.cn/s/2ed66f7433ab"/>
+    <hyperlink ref="C753" r:id="rId967" display="https://pan.quark.cn/s/3efe37450595"/>
+    <hyperlink ref="C754" r:id="rId968" display="https://pan.quark.cn/s/1552d742bde7"/>
+    <hyperlink ref="C756" r:id="rId969" display="https://pan.quark.cn/s/0a3ff0c991c0"/>
+    <hyperlink ref="C757" r:id="rId970" display="https://pan.quark.cn/s/70448d455ee9"/>
+    <hyperlink ref="C758" r:id="rId971" display="https://pan.quark.cn/s/271d404d8a8a"/>
+    <hyperlink ref="B758" r:id="rId972" display="https://pan.baidu.com/s/1_O3u0QrYh7I9e5MEP84ATg?pwd=im78"/>
+    <hyperlink ref="C759" r:id="rId973" display="https://pan.quark.cn/s/45600441d399"/>
+    <hyperlink ref="C760" r:id="rId974" display="https://pan.quark.cn/s/2506c0342039"/>
+    <hyperlink ref="B760" r:id="rId975" display="https://pan.baidu.com/s/13GoPZ4S8HaEY-UcFFuengg?pwd=35i5"/>
+    <hyperlink ref="B761" r:id="rId976" display="https://pan.baidu.com/s/1mm4YK79PD9SofSgEj_pMog?pwd=f3g6"/>
+    <hyperlink ref="C761" r:id="rId977" display="https://pan.quark.cn/s/11c9045fc64d"/>
+    <hyperlink ref="B328" r:id="rId978" display="https://pan.baidu.com/s/1422BZ0PulcGeRO74uQRfnA?pwd=1fw7"/>
+    <hyperlink ref="C328" r:id="rId979" display="https://pan.quark.cn/s/964993291bb4"/>
+    <hyperlink ref="B329" r:id="rId980" display="https://pan.baidu.com/s/1nT-MejWAVr6qN8DEsPdJDg?pwd=ddjm"/>
+    <hyperlink ref="B331" r:id="rId981" display="https://pan.baidu.com/s/1Jbt4_EpsnDqZc-VdVP9izQ?pwd=22wa"/>
+    <hyperlink ref="B332" r:id="rId982" display="https://pan.baidu.com/s/1iVqLxnanqN4kHxZscdi2pA?pwd=25py"/>
+    <hyperlink ref="C333" r:id="rId983" display="https://pan.quark.cn/s/44bd880ef49e"/>
+    <hyperlink ref="C334" r:id="rId984" display="https://pan.quark.cn/s/6ab628f51dd7"/>
+    <hyperlink ref="C343" r:id="rId985" display="https://pan.quark.cn/s/298b8a18b635"/>
+    <hyperlink ref="B344" r:id="rId986" display="https://pan.baidu.com/s/1VzzY4KJyiSqyiAGKT3SJhQ?pwd=yevg"/>
+    <hyperlink ref="B346" r:id="rId987" display="https://pan.baidu.com/s/1XWVCY5ge5ZZ3U5nh_JBaTQ?pwd=udnt"/>
+    <hyperlink ref="B348" r:id="rId988" display="https://pan.baidu.com/s/1EzUOEtiTojuPAHS2NSCdCw?pwd=b6g7"/>
+    <hyperlink ref="C350" r:id="rId989" display="https://pan.quark.cn/s/997f7f0b0870"/>
+    <hyperlink ref="B351" r:id="rId990" display="https://pan.baidu.com/s/1lHVLPs0e5Mha6ncafrXLeA?pwd=6ug1"/>
+    <hyperlink ref="B352" r:id="rId991" display="https://pan.baidu.com/s/1rTy2Q_UvXuMjxr5dbZsNnA?pwd=c9xr"/>
+    <hyperlink ref="B353" r:id="rId992" display="https://pan.baidu.com/s/1ibcYGUpFTdWFXVRXLexzZA?pwd=whms"/>
+    <hyperlink ref="C354" r:id="rId993" display="https://pan.quark.cn/s/f870b31a0d0c"/>
+    <hyperlink ref="B355" r:id="rId994" display="https://pan.baidu.com/s/17ua3FE65N80d023HDkjP8A?pwd=m73v"/>
+    <hyperlink ref="B358" r:id="rId995" display="https://pan.baidu.com/s/1ALgMiXiEMhC4RVM1FW_K_A?pwd=9yja"/>
+    <hyperlink ref="B359" r:id="rId996" display="https://pan.baidu.com/s/1PDHghui9B6TJm-JGu0LO1A?pwd=5nmy"/>
+    <hyperlink ref="C1512" r:id="rId997" display="https://pan.quark.cn/s/886de0c54424"/>
+    <hyperlink ref="B1512" r:id="rId998" display="https://pan.baidu.com/s/1zyOX27hl-nCvtBsRMR_44w?pwd=a5yc"/>
+    <hyperlink ref="B109" r:id="rId999" display="https://pan.baidu.com/s/1MeVD1d2_duSnB93fqlS-Ug?pwd=26n9"/>
+    <hyperlink ref="B110" r:id="rId1000" display="https://pan.baidu.com/s/1XpfSb353qAyJXdJ2kz9nSg?pwd=7xri"/>
+    <hyperlink ref="B118" r:id="rId1001" display="https://pan.baidu.com/s/1KGJvLjVnUuayysXj-ZHRWw?pwd=w6uu"/>
+    <hyperlink ref="B124" r:id="rId1002" display="https://pan.baidu.com/s/1oFwQAKEx0mJ1ps-pr5_4BA?pwd=n51v"/>
+    <hyperlink ref="B129" r:id="rId1003" display="https://pan.baidu.com/s/1eXzb5nKwcKov8vI8Yboz6Q?pwd=f9y6"/>
+    <hyperlink ref="B137" r:id="rId1004" display="https://pan.baidu.com/s/1r3DQ-ErUo-6LLBbTqVwhSA?pwd=kgib"/>
+    <hyperlink ref="B141" r:id="rId1005" display="https://pan.baidu.com/s/11b40UJTa6MtMsUCQG3IYEw?pwd=tj9s"/>
+    <hyperlink ref="B208" r:id="rId1006" display="https://pan.baidu.com/s/1JGIe24We0e5NtxtTvmdTaw?pwd=k7hc"/>
+    <hyperlink ref="B206" r:id="rId1007" display="https://pan.baidu.com/s/1ivHbE1TTThRcWMw5k8LHnw?pwd=iu62"/>
+    <hyperlink ref="B207" r:id="rId1008" display="https://pan.baidu.com/s/10XxRBqbZJ8JbwhuizqnC2w?pwd=gprb"/>
+    <hyperlink ref="B219" r:id="rId1009" display="https://pan.baidu.com/s/1mF6E2jqNj9nHbqbrXvIsrQ?pwd=qiwk"/>
+    <hyperlink ref="B220" r:id="rId1010" display="https://pan.baidu.com/s/1__F170RUNCXSXkbZh9Jbtw?pwd=dhn3"/>
+    <hyperlink ref="B221" r:id="rId1011" display="https://pan.baidu.com/s/1D7FbPjZ3yEGuz1KXhwjpaQ?pwd=utam"/>
+    <hyperlink ref="B222" r:id="rId1012" display="https://pan.baidu.com/s/1o-p09DZgxmpEt3AsLauupA?pwd=8r97"/>
+    <hyperlink ref="B223" r:id="rId1013" display="https://pan.baidu.com/s/1N2EVXEBjIPOAdiLuBew7Rg?pwd=v264"/>
+    <hyperlink ref="C219" r:id="rId1014" display="https://pan.quark.cn/s/6a56522f6a00"/>
+    <hyperlink ref="C616" r:id="rId1015" display="https://pan.quark.cn/s/bf3ea5fa6e3a"/>
+    <hyperlink ref="C617" r:id="rId1016" display="https://pan.quark.cn/s/25adaac2f4a0"/>
+    <hyperlink ref="C618" r:id="rId1017" display="https://pan.quark.cn/s/cd4621f7ad8e"/>
+    <hyperlink ref="C619" r:id="rId1018" display="https://pan.quark.cn/s/a1cdaf196fc9"/>
+    <hyperlink ref="C620" r:id="rId1019" display="https://pan.quark.cn/s/20e5dcb935f2"/>
+    <hyperlink ref="C621" r:id="rId1020" display="https://pan.quark.cn/s/1ed27e1e1db7"/>
+    <hyperlink ref="C622" r:id="rId1021" display="https://pan.quark.cn/s/a1fee3048615"/>
+    <hyperlink ref="C625" r:id="rId1022" display="https://pan.quark.cn/s/c5e18f2309d7"/>
+    <hyperlink ref="C626" r:id="rId1023" display="https://pan.quark.cn/s/cf6cdea92295"/>
+    <hyperlink ref="C627" r:id="rId1024" display="https://pan.quark.cn/s/1e7432723bed"/>
+    <hyperlink ref="C628" r:id="rId1025" display="https://pan.quark.cn/s/62d4cf6c83f3"/>
+    <hyperlink ref="C629" r:id="rId1026" display="https://pan.quark.cn/s/be6202da0d83"/>
+    <hyperlink ref="C630" r:id="rId1027" display="https://pan.quark.cn/s/f8e176370440"/>
+    <hyperlink ref="C632" r:id="rId1028" display="https://pan.quark.cn/s/08442b836fcb"/>
+    <hyperlink ref="C633" r:id="rId1029" display="https://pan.quark.cn/s/8e9342f2d11a"/>
+    <hyperlink ref="C634" r:id="rId1030" display="https://pan.quark.cn/s/4d3ea004624f"/>
+    <hyperlink ref="C635" r:id="rId1031" display="https://pan.quark.cn/s/e31e93fec7e2"/>
+    <hyperlink ref="C637" r:id="rId1032" display="https://pan.quark.cn/s/a3abc36e6264"/>
+    <hyperlink ref="C638" r:id="rId1033" display="https://pan.quark.cn/s/416eaf6819f7"/>
+    <hyperlink ref="C647" r:id="rId1034" display="https://pan.quark.cn/s/44b9c30b2917"/>
+    <hyperlink ref="B259" r:id="rId1035" display="https://pan.baidu.com/s/1j4pyp5VWaLX0-YzdT-Wqkg?pwd=1kjw"/>
+    <hyperlink ref="B260" r:id="rId1036" display="https://pan.baidu.com/s/1xQEAlwmSjV1ajyliwUBkcA?pwd=4bi1"/>
+    <hyperlink ref="C261" r:id="rId1037" display="https://pan.quark.cn/s/97f7029be412"/>
+    <hyperlink ref="B264" r:id="rId1038" display="https://pan.baidu.com/s/1KbiuuClHWmFJu08i3vXEtQ?pwd=3jtu"/>
+    <hyperlink ref="B263" r:id="rId1039" display="https://pan.baidu.com/s/182Lzn5gE-vBMwpZdONjm-A?pwd=z4ct"/>
+    <hyperlink ref="B262" r:id="rId1040" display="https://pan.baidu.com/s/1VToMKO_VKug_QL039yT8iQ?pwd=5tdg"/>
+    <hyperlink ref="B265" r:id="rId1041" display="https://pan.baidu.com/s/1VkQZ4RQJpTadwy8rA3ocaA?pwd=d8rx"/>
+    <hyperlink ref="B266" r:id="rId1042" display="https://pan.baidu.com/s/1BRS7jkRAEjajd5gDBcZExw?pwd=1n8b"/>
+    <hyperlink ref="B267" r:id="rId1043" display="https://pan.baidu.com/s/1PPfOTmxusWLTCD752ZuIag?pwd=uwjs"/>
+    <hyperlink ref="B268" r:id="rId1044" display="https://pan.baidu.com/s/1vFsqNMp9qnswTNKIHTX_RA?pwd=cqja"/>
+    <hyperlink ref="B269" r:id="rId1045" display="https://pan.baidu.com/s/1ErJYraIsmQIqcoiwfvZ9fw?pwd=f8h5"/>
+    <hyperlink ref="B270" r:id="rId1046" display="https://pan.baidu.com/s/1hlWX_ZfrTygfj3-hYI-d8A?pwd=ka8h"/>
+    <hyperlink ref="B271" r:id="rId1047" display="https://pan.baidu.com/s/1oMO4aNoVSGG6I_BwhDV63Q?pwd=8vi7"/>
+    <hyperlink ref="B272" r:id="rId1048" display="https://pan.baidu.com/s/1mIm4roDQ9dFdh_Qd0hcF8g?pwd=jtat"/>
+    <hyperlink ref="B273" r:id="rId1049" display="https://pan.baidu.com/s/19EBptnfjq3hu4NOHNuSnMQ?pwd=xtsp"/>
+    <hyperlink ref="B274" r:id="rId1050" display="https://pan.baidu.com/s/1eNGZqqLKM8A5hIC0BWoprg?pwd=qct9"/>
+    <hyperlink ref="B762" r:id="rId1051" display="https://pan.baidu.com/s/1bKR5PHuGb585lJCPsB0BIw?pwd=b49m"/>
+    <hyperlink ref="C763" r:id="rId1052" display="https://pan.quark.cn/s/21ce1a3396f6"/>
+    <hyperlink ref="C762" r:id="rId1053" display="https://pan.quark.cn/s/ae9d9883eff2"/>
+    <hyperlink ref="C736" r:id="rId1054" display="https://pan.quark.cn/s/6a10a02d64e4"/>
+    <hyperlink ref="C735" r:id="rId1055" display="https://pan.quark.cn/s/5ca4fb0cfeb4"/>
+    <hyperlink ref="C733" r:id="rId1056" display="https://pan.quark.cn/s/37ac5ad9e58e"/>
+    <hyperlink ref="C734" r:id="rId1057" display="https://pan.quark.cn/s/4250adbf9c8e"/>
+    <hyperlink ref="C731" r:id="rId1058" display="https://pan.quark.cn/s/f7ea8c5871e4"/>
+    <hyperlink ref="C730" r:id="rId1059" display="https://pan.quark.cn/s/8c0bd0e0a661"/>
+    <hyperlink ref="C729" r:id="rId1060" display="https://pan.quark.cn/s/43110840c0a1"/>
+    <hyperlink ref="C728" r:id="rId1061" display="https://pan.quark.cn/s/cf460d062631"/>
+    <hyperlink ref="C727" r:id="rId1062" display="https://pan.quark.cn/s/595466de2733"/>
+    <hyperlink ref="C726" r:id="rId1063" display="https://pan.quark.cn/s/8e588175b48d"/>
+    <hyperlink ref="C725" r:id="rId1064" display="https://pan.quark.cn/s/5a9fae095edf"/>
+    <hyperlink ref="C724" r:id="rId1065" display="https://pan.quark.cn/s/24edbd3dbf28"/>
+    <hyperlink ref="C723" r:id="rId1066" display="https://pan.quark.cn/s/ecbb04e66148"/>
+    <hyperlink ref="C719" r:id="rId1067" display="https://pan.quark.cn/s/62fd6f69d727"/>
+    <hyperlink ref="C720" r:id="rId1068" display="https://pan.quark.cn/s/69a46fe9ba4e"/>
+    <hyperlink ref="C721" r:id="rId1069" display="https://pan.quark.cn/s/933f7d227f13"/>
+    <hyperlink ref="C718" r:id="rId1070" display="https://pan.quark.cn/s/83c0c9dc3533"/>
+    <hyperlink ref="C717" r:id="rId1071" display="https://pan.quark.cn/s/f666e63f9396"/>
+    <hyperlink ref="C716" r:id="rId1072" display="https://pan.quark.cn/s/982b31603a26"/>
+    <hyperlink ref="C715" r:id="rId1073" display="https://pan.quark.cn/s/1ed1c0918457"/>
+    <hyperlink ref="C714" r:id="rId1074" display="https://pan.quark.cn/s/1487b18e6d99"/>
+    <hyperlink ref="C713" r:id="rId1075" display="https://pan.quark.cn/s/de835c620dd2"/>
+    <hyperlink ref="C711" r:id="rId1076" display="https://pan.quark.cn/s/732e1ee23dd2"/>
+    <hyperlink ref="C709" r:id="rId1077" display="https://pan.quark.cn/s/cbaad7c543f6"/>
+    <hyperlink ref="C708" r:id="rId1078" display="https://pan.quark.cn/s/575e7d6d4b88"/>
+    <hyperlink ref="C706" r:id="rId1079" display="https://pan.quark.cn/s/b94d0b6d9d13"/>
+    <hyperlink ref="C705" r:id="rId1080" display="https://pan.quark.cn/s/53faf67ebf74"/>
+    <hyperlink ref="C703" r:id="rId1081" display="https://pan.quark.cn/s/d7f9652c8c15"/>
+    <hyperlink ref="C702" r:id="rId1082" display="https://pan.quark.cn/s/a6dc4ec52e05"/>
+    <hyperlink ref="C701" r:id="rId1083" display="https://pan.quark.cn/s/f98835df3a7f"/>
+    <hyperlink ref="C699" r:id="rId1084" display="https://pan.quark.cn/s/48660595f7ac"/>
+    <hyperlink ref="C696" r:id="rId1085" display="https://pan.quark.cn/s/fda703b4b335"/>
+    <hyperlink ref="C697" r:id="rId1086" display="https://pan.quark.cn/s/5b5e805cad6f"/>
+    <hyperlink ref="C698" r:id="rId1087" display="https://pan.quark.cn/s/dd8ac3ea7b02"/>
+    <hyperlink ref="C693" r:id="rId1088" display="https://pan.quark.cn/s/ad12cba4ed4c"/>
+    <hyperlink ref="C692" r:id="rId1089" display="https://pan.quark.cn/s/0c0a6eb4281b"/>
+    <hyperlink ref="C688" r:id="rId1090" display="https://pan.quark.cn/s/3f990a04fc26"/>
+    <hyperlink ref="C651" r:id="rId1091" display="https://pan.quark.cn/s/b6eb0f62fbe9"/>
+    <hyperlink ref="C465" r:id="rId1092" display="https://pan.quark.cn/s/87d1a27ead00"/>
+    <hyperlink ref="C464" r:id="rId1093" display="https://pan.quark.cn/s/f9ff0156e25b"/>
+    <hyperlink ref="C574" r:id="rId1094" display="https://pan.quark.cn/s/501053eef658"/>
+    <hyperlink ref="C660" r:id="rId1095" display="https://pan.quark.cn/s/49a979ceb35e"/>
+    <hyperlink ref="C764" r:id="rId1096" display="https://pan.quark.cn/s/4155819ca150"/>
+    <hyperlink ref="B318" r:id="rId1097" display="https://pan.baidu.com/s/1k1VnYq_yCMzmuEm2CTNqiA?pwd=gqi2"/>
+    <hyperlink ref="B317" r:id="rId1098" display="https://pan.baidu.com/s/1Pgus8PlUaH_Rm-eFmuZQNg?pwd=ft3n"/>
+    <hyperlink ref="C317" r:id="rId1099" display="https://pan.quark.cn/s/21be68c27df4"/>
+    <hyperlink ref="B362" r:id="rId1100" display="https://pan.baidu.com/s/1OlvjHObLg0XtFGy80cJTHg?pwd=bp4d"/>
+    <hyperlink ref="C363" r:id="rId1101" display="https://pan.quark.cn/s/b1a81f9a01a3"/>
+    <hyperlink ref="B364" r:id="rId1102" display="https://pan.baidu.com/s/19h2u7t5YpfCxhDQBiZslIw?pwd=u5at"/>
+    <hyperlink ref="B369" r:id="rId1103" display="https://pan.baidu.com/s/1o-nWCqwixbvOlUfCA62TyQ?pwd=e43t"/>
+    <hyperlink ref="B367" r:id="rId1104" display="https://pan.baidu.com/s/1BtIfIamcf4J-W5JKGPcxlg?pwd=8vm9"/>
+    <hyperlink ref="B366" r:id="rId1105" display="https://pan.baidu.com/s/1Vm3_vns8DTe-LGCLHiqWRA?pwd=3s3b"/>
+    <hyperlink ref="B373" r:id="rId1106" display="https://pan.baidu.com/s/1TzJieuFSGXnej3v-mPV0bA?pwd=82ke"/>
+    <hyperlink ref="C765" r:id="rId1107" display="https://pan.quark.cn/s/33c2be981fe1"/>
+    <hyperlink ref="B765" r:id="rId1108" display="https://pan.baidu.com/s/1yFXyFV3ZDVrZQ_QoAzI6aA?pwd=dan2"/>
+    <hyperlink ref="C766" r:id="rId1109" display="https://pan.quark.cn/s/fbc7908647d1"/>
+    <hyperlink ref="C767" r:id="rId1110" display="https://pan.quark.cn/s/327230482bdf"/>
+    <hyperlink ref="C768" r:id="rId1111" display="https://pan.quark.cn/s/f3656f5c3f5c"/>
+    <hyperlink ref="C769" r:id="rId1112" display="https://pan.quark.cn/s/d598a7d0b3c7"/>
+    <hyperlink ref="C770" r:id="rId1113" display="https://pan.quark.cn/s/913f87636c88"/>
+    <hyperlink ref="B771" r:id="rId1114" display="https://pan.baidu.com/s/1jDBe6PDadSs_Iss1DFfTNw?pwd=cmh4"/>
+    <hyperlink ref="B772" r:id="rId1115" display="https://pan.baidu.com/s/1vZM3sGVE-p6DBUMkGbH84A?pwd=8vwx"/>
+    <hyperlink ref="B773" r:id="rId1116" display="https://pan.baidu.com/s/1OA0CSqdc2LF-efoFQyjRZQ?pwd=yf4y"/>
+    <hyperlink ref="B774" r:id="rId1117" display="https://pan.baidu.com/s/1-Q-uBQcq4BT2u-7v-tiYZw?pwd=hynm"/>
+    <hyperlink ref="C775" r:id="rId1118" display="https://pan.quark.cn/s/3298cdfe6a4b"/>
+    <hyperlink ref="C776" r:id="rId1119" display="https://pan.quark.cn/s/86152c82eb42"/>
+    <hyperlink ref="C398" r:id="rId1120" display="https://pan.quark.cn/s/91026f333794"/>
+    <hyperlink ref="C777" r:id="rId1121" display="https://pan.quark.cn/s/de0d0c5be16f"/>
+    <hyperlink ref="C779" r:id="rId1122" display="https://pan.quark.cn/s/1a504da1195a"/>
+    <hyperlink ref="C780" r:id="rId1123" display="https://pan.quark.cn/s/480d86c49105"/>
+    <hyperlink ref="C783" r:id="rId1124" display="https://pan.quark.cn/s/20a87190dba8"/>
+    <hyperlink ref="C784" r:id="rId1125" display="https://pan.quark.cn/s/a2c48032247b"/>
+    <hyperlink ref="C785" r:id="rId1126" display="https://pan.quark.cn/s/245438716caf"/>
+    <hyperlink ref="C786" r:id="rId1127" display="https://pan.quark.cn/s/eae47c7aee75"/>
+    <hyperlink ref="C787" r:id="rId1128" display="https://pan.quark.cn/s/794cd972029f"/>
+    <hyperlink ref="C788" r:id="rId1129" display="https://pan.quark.cn/s/2fc6ac38e2c8"/>
+    <hyperlink ref="C789" r:id="rId1130" display="https://pan.quark.cn/s/53c7e96af6d9"/>
+    <hyperlink ref="C790" r:id="rId1131" display="https://pan.quark.cn/s/4238ff01a72d"/>
+    <hyperlink ref="C791" r:id="rId1132" display="https://pan.quark.cn/s/319d3b2559c5"/>
+    <hyperlink ref="C792" r:id="rId1133" display="https://pan.quark.cn/s/62e103e0913f"/>
+    <hyperlink ref="C793" r:id="rId1134" display="https://pan.quark.cn/s/936fb1a39721"/>
+    <hyperlink ref="C794" r:id="rId1135" display="https://pan.quark.cn/s/90ed317c1177"/>
+    <hyperlink ref="C795" r:id="rId1136" display="https://pan.quark.cn/s/82687ef02451"/>
+    <hyperlink ref="C796" r:id="rId1137" display="https://pan.quark.cn/s/3629dbe7d593"/>
+    <hyperlink ref="C797" r:id="rId1138" display="https://pan.quark.cn/s/0a6887e5870a"/>
+    <hyperlink ref="C798" r:id="rId1139" display="https://pan.quark.cn/s/e92565a01e38"/>
+    <hyperlink ref="C799" r:id="rId1140" display="https://pan.quark.cn/s/a7d15a2277b1"/>
+    <hyperlink ref="C800" r:id="rId1141" display="https://pan.quark.cn/s/67f1ac3b9d31"/>
+    <hyperlink ref="C801" r:id="rId1142" display="https://pan.quark.cn/s/7baeb1d0d2cd"/>
+    <hyperlink ref="C802" r:id="rId1143" display="https://pan.quark.cn/s/faacbe21578f"/>
+    <hyperlink ref="C803" r:id="rId1144" display="https://pan.quark.cn/s/15fc3790a7c7"/>
+    <hyperlink ref="C804" r:id="rId1145" display="https://pan.quark.cn/s/fb14eb995a8b"/>
+    <hyperlink ref="C807" r:id="rId1146" display="https://pan.quark.cn/s/591251ddf80b"/>
+    <hyperlink ref="C808" r:id="rId1147" display="https://pan.quark.cn/s/bf75290ff7df"/>
+    <hyperlink ref="C809" r:id="rId1148" display="https://pan.quark.cn/s/0645be5a0930"/>
+    <hyperlink ref="C810" r:id="rId1149" display="https://pan.quark.cn/s/eafc528fd914"/>
+    <hyperlink ref="C812" r:id="rId1150" display="https://pan.quark.cn/s/dce180a74340"/>
+    <hyperlink ref="B813" r:id="rId1151" display="https://pan.baidu.com/s/168v6qUHU9YJAlI1H_LuOGA?pwd=gnvr"/>
+    <hyperlink ref="C813" r:id="rId1152" display="https://pan.quark.cn/s/efc92717a434"/>
+    <hyperlink ref="C814" r:id="rId1153" display="https://pan.quark.cn/s/247c3edecfbd"/>
+    <hyperlink ref="C816" r:id="rId1154" display="https://pan.quark.cn/s/407a76fde766"/>
+    <hyperlink ref="B816" r:id="rId1155" display="https://pan.baidu.com/s/1MPGsErKAi9Bq02_WfNT3sQ?pwd=vpe5"/>
+    <hyperlink ref="C817" r:id="rId1156" display="https://pan.quark.cn/s/29ce6b8deece"/>
+    <hyperlink ref="C338" r:id="rId1157" display="https://pan.quark.cn/s/74e02db059f8"/>
+    <hyperlink ref="B338" r:id="rId1158" display="https://pan.baidu.com/s/1yEDS_cs5psOQoCHdJBWDZw?pwd=r56f"/>
+    <hyperlink ref="C818" r:id="rId1159" display="https://pan.quark.cn/s/9f6735855e6d"/>
+    <hyperlink ref="C819" r:id="rId1160" display="https://pan.quark.cn/s/c209156761db"/>
+    <hyperlink ref="B820" r:id="rId1161" display="https://pan.baidu.com/s/1f7D28J2zy-zcW5mF5UXF9g?pwd=qm4j"/>
+    <hyperlink ref="C821" r:id="rId1162" display="https://pan.quark.cn/s/658df1791334"/>
+    <hyperlink ref="B821" r:id="rId1163" display="https://pan.baidu.com/s/1sbDctxLZY0TdPu4rqwZFLQ?pwd=3px7"/>
+    <hyperlink ref="C822" r:id="rId1164" display="https://pan.quark.cn/s/9b8750bb46af"/>
+    <hyperlink ref="C668" r:id="rId1165" display="https://pan.quark.cn/s/70b0e81bfbfc"/>
+    <hyperlink ref="C669" r:id="rId1166" display="https://pan.quark.cn/s/21b9f1564bf5"/>
+    <hyperlink ref="C685" r:id="rId1167" display="https://pan.quark.cn/s/5cc68ca19a45"/>
+    <hyperlink ref="C671" r:id="rId1168" display="https://pan.quark.cn/s/28f52c5b91a6"/>
+    <hyperlink ref="C672" r:id="rId1169" display="https://pan.quark.cn/s/c022b6f0d2da"/>
+    <hyperlink ref="C673" r:id="rId1170" display="https://pan.quark.cn/s/eefb00e00937"/>
+    <hyperlink ref="C674" r:id="rId1171" display="https://pan.quark.cn/s/a0993adb65df"/>
+    <hyperlink ref="C676" r:id="rId1172" display="https://pan.quark.cn/s/36397ee7631f"/>
+    <hyperlink ref="C677" r:id="rId1173" display="https://pan.quark.cn/s/ab4d899f445c"/>
+    <hyperlink ref="C678" r:id="rId1174" display="https://pan.quark.cn/s/3d08956b5aff"/>
+    <hyperlink ref="C679" r:id="rId1175" display="https://pan.quark.cn/s/5a47ca1ed2ca"/>
+    <hyperlink ref="C680" r:id="rId1176" display="https://pan.quark.cn/s/ba4e2fbaa219"/>
+    <hyperlink ref="C681" r:id="rId1177" display="https://pan.quark.cn/s/9f570cbad956"/>
+    <hyperlink ref="C682" r:id="rId1178" display="https://pan.quark.cn/s/207e0f11f219"/>
+    <hyperlink ref="C683" r:id="rId1179" display="https://pan.quark.cn/s/22d57cee5232"/>
+    <hyperlink ref="C684" r:id="rId1180" display="https://pan.quark.cn/s/75f9b829c3c0"/>
+    <hyperlink ref="C687" r:id="rId1181" display="https://pan.quark.cn/s/3258585e57a3"/>
+    <hyperlink ref="C689" r:id="rId1182" display="https://pan.quark.cn/s/2ec3895d7dac"/>
+    <hyperlink ref="C823" r:id="rId1183" display="https://pan.quark.cn/s/3e25ff8b2fcb"/>
+    <hyperlink ref="B292" r:id="rId1184" display="https://pan.baidu.com/s/1u4n0Urp2GG39dNI6oXEw4Q?pwd=753t"/>
+    <hyperlink ref="B291" r:id="rId1185" display="https://pan.baidu.com/s/15cL4Wvkh7ogPu6yeUAHILA?pwd=eme4"/>
+    <hyperlink ref="B290" r:id="rId1186" display="https://pan.baidu.com/s/1Q5cRhQo8wKbrYYjWfG4nnA?pwd=xwfm"/>
+    <hyperlink ref="B289" r:id="rId1187" display="https://pan.baidu.com/s/19eH8mEtN3oD6N3hkPX4BKA?pwd=bkey"/>
+    <hyperlink ref="B288" r:id="rId1188" display="https://pan.baidu.com/s/1sDOWIcTltAhxj1XPHsOvTA?pwd=nh3m"/>
+    <hyperlink ref="B293" r:id="rId1189" display="https://pan.baidu.com/s/1PNzkSNVLOOFnIQB0ihY_CA?pwd=avx1"/>
+    <hyperlink ref="B376" r:id="rId1190" display="https://pan.baidu.com/s/1Z6ngb-JsAKp1YKWtgB4RqA?pwd=hecw"/>
+    <hyperlink ref="B378" r:id="rId1191" display="https://pan.baidu.com/s/1N8v3N1OmHrwzkgKZc_hyOA?pwd=afhw"/>
+    <hyperlink ref="B381" r:id="rId1192" display="https://pan.baidu.com/s/1HG-W_f_1Z-M1AKGzVBDnEw?pwd=7whq"/>
+    <hyperlink ref="B382" r:id="rId1193" display="https://pan.baidu.com/s/1qqorfIXKskY2k9NYzrVRAg?pwd=sd8y"/>
+    <hyperlink ref="B383" r:id="rId1194" display="https://pan.baidu.com/s/1TCew09MPTk4aj2gf35HG4A?pwd=mqha"/>
+    <hyperlink ref="B384" r:id="rId1195" display="https://pan.baidu.com/s/1AVlez4kg0hxHxDL1R3mRfA?pwd=49u8"/>
+    <hyperlink ref="B385" r:id="rId1196" display="https://pan.baidu.com/s/1HRCsKuGtszMTLyCDWh9nnQ?pwd=48qg"/>
+    <hyperlink ref="B393" r:id="rId1197" display="https://pan.baidu.com/s/1uHb28LADsKRIYhPcUU1xTQ?pwd=1jev"/>
+    <hyperlink ref="B394" r:id="rId1198" display="https://pan.baidu.com/s/1sbPp8mxKSYg2jq7vQgnOEA?pwd=ecvh"/>
+    <hyperlink ref="B395" r:id="rId1199" display="https://pan.baidu.com/s/1gI4YqACsrqlEMbKFNQPJCg?pwd=5ayd"/>
+    <hyperlink ref="B396" r:id="rId1200" display="https://pan.baidu.com/s/13mYxsYoOwjpErrEelVEeHw?pwd=sak5"/>
+    <hyperlink ref="B398" r:id="rId1201" display="https://pan.baidu.com/s/1e2OmLTcqfbAYPi0pmVzHXw?pwd=e2f5"/>
+    <hyperlink ref="B399" r:id="rId1202" display="https://pan.baidu.com/s/1Cls9qJmd_fcsb0D4ifSH1Q?pwd=j8ai"/>
+    <hyperlink ref="B400" r:id="rId1203" display="https://pan.baidu.com/s/1ctJkIPtxl5TgeOwfzRM6Nw?pwd=g54d"/>
+    <hyperlink ref="B401" r:id="rId1204" display="https://pan.baidu.com/s/1aO6TE9vvfmr6bZ37T0W1_w?pwd=y16t"/>
+    <hyperlink ref="B402" r:id="rId1205" display="https://pan.baidu.com/s/1iZyEt5lwoLqCuSCzbZG4lg?pwd=uvud"/>
+    <hyperlink ref="B403" r:id="rId1206" display="https://pan.baidu.com/s/124-56nHe239FDTa2Z-L8aw?pwd=sruj"/>
+    <hyperlink ref="B404" r:id="rId1207" display="https://pan.baidu.com/s/14F1g-z2aT2gMYWa4Ty7lyw?pwd=shv2"/>
+    <hyperlink ref="B405" r:id="rId1208" display="https://pan.baidu.com/s/1D_P4wX_bRS2s6fN1a0oEfQ?pwd=3qb8"/>
+    <hyperlink ref="B406" r:id="rId1209" display="https://pan.baidu.com/s/1fmUQfnEUMwoecGGTgUCDtA?pwd=axfw"/>
+    <hyperlink ref="B776" r:id="rId1210" display="https://pan.baidu.com/s/10HQ0Yu_EOhFWdAPa9aCLOQ?pwd=1wnn"/>
+    <hyperlink ref="B766" r:id="rId1211" display="https://pan.baidu.com/s/16f4Ef6JFjSIXUfUXgnf78w?pwd=5awq"/>
+    <hyperlink ref="B768" r:id="rId1212" display="https://pan.baidu.com/s/1CYPDop0kZZocVCxDYe54eA?pwd=s4qa"/>
+    <hyperlink ref="B227" r:id="rId1213" display="https://pan.baidu.com/s/1cte2skDaTjWOmSdtV8cv9A?pwd=rkt8"/>
+    <hyperlink ref="B228" r:id="rId1214" display="https://pan.baidu.com/s/1m6pnWj7-TYStHe_kdiwqsA?pwd=qrrp"/>
+    <hyperlink ref="B229" r:id="rId1215" display="https://pan.baidu.com/s/18Oa42Q-o4nXmvbbE1ulG6w?pwd=fi2w"/>
+    <hyperlink ref="B230" r:id="rId1216" display="https://pan.baidu.com/s/1ZIFe-AxXox6kCmihx6c2RQ?pwd=6fbs"/>
+    <hyperlink ref="C230" r:id="rId1217" display="https://pan.quark.cn/s/c2ac2fa8471c"/>
+    <hyperlink ref="B232" r:id="rId1218" display="https://pan.baidu.com/s/1H51wCbTNKDEPEOS8OQJBcA?pwd=q2x3"/>
+    <hyperlink ref="B231" r:id="rId1219" display="https://pan.baidu.com/s/1dDVFZaRGONaapjO5_n_erw?pwd=9w7y"/>
+    <hyperlink ref="B226" r:id="rId1220" display="https://pan.baidu.com/s/1W2UI_11FKEh9wuBjFys4-g?pwd=mgcr"/>
+    <hyperlink ref="B225" r:id="rId1221" display="https://pan.baidu.com/s/1KI0XFZxMrTVbL6Acj4wxDQ?pwd=rtxx"/>
+    <hyperlink ref="B234" r:id="rId1222" display="https://pan.baidu.com/s/1L-zcoiVtumAO2TgXkpEsZA?pwd=e535"/>
+    <hyperlink ref="B233" r:id="rId1223" display="https://pan.baidu.com/s/1KEL_oZqJjGM-1AQwy0H7og?pwd=2q15"/>
+    <hyperlink ref="B235" r:id="rId1224" display="https://pan.baidu.com/s/1H2SKp-EJ0dJdhVvRxyQTPA?pwd=renm"/>
+    <hyperlink ref="B236" r:id="rId1225" display="https://pan.baidu.com/s/1tPC-0qPoYIIKCpkJvvWfaA?pwd=8mx3"/>
+    <hyperlink ref="C237" r:id="rId1226" display="https://pan.quark.cn/s/82a8ea1dd231"/>
+    <hyperlink ref="B237" r:id="rId1227" display="https://pan.baidu.com/s/1haIYxE8u026f9P2PfRdPCA?pwd=f7g2"/>
+    <hyperlink ref="C238" r:id="rId1228" display="https://pan.quark.cn/s/c9d96d942eef"/>
+    <hyperlink ref="B238" r:id="rId1229" display="https://pan.baidu.com/s/1u7SqVUphFhWsDmaVnHv-XA?pwd=r3kf"/>
+    <hyperlink ref="C239" r:id="rId1230" display="https://pan.quark.cn/s/b5df36f8df9c"/>
+    <hyperlink ref="B239" r:id="rId1231" display="https://pan.baidu.com/s/1jvvJ9nEvTCHfnvEIN3sbdw?pwd=5a2h"/>
+    <hyperlink ref="B240" r:id="rId1232" display="https://pan.baidu.com/s/1l_6r7sgAPLq8oOW1sxdbrA?pwd=sgpa"/>
+    <hyperlink ref="B241" r:id="rId1233" display="https://pan.baidu.com/s/1_Yu71Fio-FRw57RKOxn8uA?pwd=2bxm"/>
+    <hyperlink ref="B242" r:id="rId1234" display="https://pan.baidu.com/s/141ct1z0PfA7wY7GFUVOTGA?pwd=33nd"/>
+    <hyperlink ref="B243" r:id="rId1235" display="https://pan.baidu.com/s/1vsGy2M3smNtQ4VZQYSUamw?pwd=a4ze"/>
+    <hyperlink ref="B244" r:id="rId1236" display="https://pan.baidu.com/s/1wI2oULi8UpNrz6mepFG3JA?pwd=w6ii"/>
+    <hyperlink ref="B245" r:id="rId1237" display="https://pan.baidu.com/s/11S039MlNKGk495ZmRu-U5g?pwd=eyw1"/>
+    <hyperlink ref="B246" r:id="rId1238" display="https://pan.baidu.com/s/1i2lNB1URKBuemJf0nXiB0Q?pwd=ktkp"/>
+    <hyperlink ref="B450" r:id="rId1239" display="https://pan.baidu.com/s/1czD25gViRq7UN5mwIsPvVg?pwd=kcgw"/>
+    <hyperlink ref="B458" r:id="rId1240" display="https://pan.baidu.com/s/1xSotIhoqQGMdoivX6WVPog?pwd=z8qu"/>
+    <hyperlink ref="B460" r:id="rId1241" display="https://pan.baidu.com/s/1k2URGzlkrAkvN-hlVXFZFA?pwd=df8u"/>
+    <hyperlink ref="B459" r:id="rId1242" display="https://pan.baidu.com/s/1gn-c9WiK7TWq2gyAS9wbsg?pwd=drdy"/>
+    <hyperlink ref="B469" r:id="rId1243" display="https://pan.baidu.com/s/1Rc_crSGnZtSUAMZvCxzGjg?pwd=b7gu"/>
+    <hyperlink ref="B470" r:id="rId1244" display="https://pan.baidu.com/s/1b4gkNPbtJbAjnUi7iu_LMw?pwd=d5cx"/>
+    <hyperlink ref="B471" r:id="rId1245" display="https://pan.baidu.com/s/17P7va02QubrOZ6li_F87Vg?pwd=ikq6"/>
+    <hyperlink ref="B472" r:id="rId1246" display="https://pan.baidu.com/s/1oPaiKx9qr-N47TXrd3cTuA?pwd=g6m7"/>
+    <hyperlink ref="B488" r:id="rId1247" display="https://pan.baidu.com/s/1h2VGVGjwDP8TMG1pFvIgVg?pwd=bedf"/>
+    <hyperlink ref="B487" r:id="rId1248" display="https://pan.baidu.com/s/1BCWJ4Mn3QakusfUNnXiwFA?pwd=j98z"/>
+    <hyperlink ref="B793" r:id="rId1249" display="https://pan.baidu.com/s/12vsS6pg6mxfngxzNcGGIdA?pwd=573u"/>
+    <hyperlink ref="B810" r:id="rId1250" display="https://pan.baidu.com/s/12p2x5GUsiiNhYLreFszBEw?pwd=c69r"/>
+    <hyperlink ref="B811" r:id="rId1251" display="https://pan.baidu.com/s/16XMnv4n1lOeA9PtHION53w?pwd=27d3"/>
+    <hyperlink ref="B812" r:id="rId1252" display="https://pan.baidu.com/s/1ZdVVyfI-kTx_DoxvsDbjsA?pwd=3fhi"/>
+    <hyperlink ref="B802" r:id="rId1253" display="https://pan.baidu.com/s/1FjG6C87DhVq03UGBIgHAgA?pwd=wddj"/>
+    <hyperlink ref="B805" r:id="rId1254" display="https://pan.baidu.com/s/1TMucBglDPMWXaSQf2dPwYg?pwd=d3ps"/>
+    <hyperlink ref="B804" r:id="rId1255" display="https://pan.baidu.com/s/1MgZ0SY9nAzX_PSTIiwr3FA?pwd=jzv9"/>
+    <hyperlink ref="B799" r:id="rId1256" display="https://pan.baidu.com/s/1ynOAd9E-QcRBwEPgdT2miA?pwd=pvw8"/>
+    <hyperlink ref="B801" r:id="rId1257" display="https://pan.baidu.com/s/1lHhAU2vWffvrfF397OL-qQ?pwd=x35c"/>
+    <hyperlink ref="C824" r:id="rId1258" display="https://pan.quark.cn/s/17aad370d084"/>
+    <hyperlink ref="B824" r:id="rId1259" display="https://pan.baidu.com/s/1Tn9N0UE4auj4YpNrgn420Q?pwd=2scd"/>
+    <hyperlink ref="C826" r:id="rId1260" display="https://pan.quark.cn/s/563739b05270"/>
+    <hyperlink ref="B827" r:id="rId1261" display="https://pan.baidu.com/s/14ijZstxyyQAgc1457FOCPg?pwd=68bq"/>
+    <hyperlink ref="C828" r:id="rId1262" display="https://pan.quark.cn/s/069736bdabb5"/>
+    <hyperlink ref="B828" r:id="rId1263" display="https://pan.baidu.com/s/1BYq5L8HkTB7Y55gbZvJ3yQ?pwd=ibnb"/>
+    <hyperlink ref="B536" r:id="rId1264" display="https://pan.baidu.com/s/1gY7sCzWlV9B6XDoXVmTifg?pwd=kg6c"/>
+    <hyperlink ref="B808" r:id="rId1265" display="https://pan.baidu.com/s/1HQOfZiwI9YUSluErOagruw?pwd=5fcu"/>
+    <hyperlink ref="B218" r:id="rId1266" display="https://pan.baidu.com/s/1zRj24-9G269ePKLpLEidnw?pwd=yuum"/>
+    <hyperlink ref="B217" r:id="rId1267" display="https://pan.baidu.com/s/1UE_LOT2hiwG2caCFlKMVJQ?pwd=q6dr"/>
+    <hyperlink ref="B248" r:id="rId1268" display="https://pan.baidu.com/s/17R0N0GfBfdm6PZ0JyQeRdg?pwd=rbj7"/>
+    <hyperlink ref="B247" r:id="rId1269" display="https://pan.baidu.com/s/1aK9h0pXiJVZZvWgLERL5bg?pwd=kn5q"/>
+    <hyperlink ref="C247" r:id="rId1270" display="https://pan.quark.cn/s/dd1a659bf757"/>
+    <hyperlink ref="B250" r:id="rId1271" display="https://pan.baidu.com/s/1GxhiO28v40GFvss22D0nFA?pwd=enya"/>
+    <hyperlink ref="B249" r:id="rId1272" display="https://pan.baidu.com/s/1KVYZEFXxaeVBQrylGaobVw?pwd=njg9"/>
+    <hyperlink ref="C249" r:id="rId1273" display="https://pan.quark.cn/s/dafe10c8ccb5"/>
+    <hyperlink ref="C251" r:id="rId1274" display="https://pan.quark.cn/s/e2e621c94eaf"/>
+    <hyperlink ref="B251" r:id="rId1275" display="https://pan.baidu.com/s/11PjQjT51eliYLWlvTkYYRg?pwd=xejv"/>
+    <hyperlink ref="C252" r:id="rId1276" display="https://pan.quark.cn/s/4a039762141b"/>
+    <hyperlink ref="B252" r:id="rId1277" display="https://pan.baidu.com/s/16cNqxBLu_nM0O6vDvwdbmQ?pwd=8uxx"/>
+    <hyperlink ref="B253" r:id="rId1278" display="https://pan.baidu.com/s/1SJCcTCE_P8EKRqqnbsR-jg?pwd=n9nf"/>
+    <hyperlink ref="B280" r:id="rId1279" display="https://pan.baidu.com/s/126ba6StSF1stRGPjGbgHOQ?pwd=72wy"/>
+    <hyperlink ref="B316" r:id="rId1280" display="https://pan.baidu.com/s/1czvep7dtvdtvNQZaSxxaNw?pwd=pt4q"/>
+    <hyperlink ref="B409" r:id="rId1281" display="https://pan.baidu.com/s/1CoxJsFSI26oIMMIvBhoOWw?pwd=bqqr"/>
+    <hyperlink ref="B408" r:id="rId1282" display="https://pan.baidu.com/s/1Kd5qesG97BBInnAOXEbW5g?pwd=89ag"/>
+    <hyperlink ref="B410" r:id="rId1283" display="https://pan.baidu.com/s/1Vk4yRQEqeT3l2xU8-8fIuA?pwd=28gx"/>
+    <hyperlink ref="B411" r:id="rId1284" display="https://pan.baidu.com/s/1acF5ylkMp3H54ugntIgsiw?pwd=ra3x"/>
+    <hyperlink ref="B413" r:id="rId1285" display="https://pan.baidu.com/s/1GGsuKxq_QITDZ9mFo3o99A?pwd=ckxz"/>
+    <hyperlink ref="C413" r:id="rId1286" display="https://pan.quark.cn/s/b3e7caa83fb9"/>
+    <hyperlink ref="B414" r:id="rId1287" display="https://pan.baidu.com/s/1yH8RPlaR7wYK90ZRBTVM-g?pwd=crqn"/>
+    <hyperlink ref="B415" r:id="rId1288" display="https://pan.baidu.com/s/1hwspOF-l3DaAPW8zR-K2pw?pwd=bpth"/>
+    <hyperlink ref="B417" r:id="rId1289" display="https://pan.baidu.com/s/1qYD7tlu2pN_eXEYIIk2V9w?pwd=amus"/>
+    <hyperlink ref="B416" r:id="rId1290" display="https://pan.baidu.com/s/13_UXocylIyuturhh3wtq7w?pwd=52y4"/>
+    <hyperlink ref="B425" r:id="rId1291" display="https://pan.baidu.com/s/1sRzQu9ylod8hx4eqE5nOlQ?pwd=rbck"/>
+    <hyperlink ref="B427" r:id="rId1292" display="https://pan.baidu.com/s/144NNW1HApT23m_cvjpmDgw?pwd=cvtu"/>
+    <hyperlink ref="B428" r:id="rId1293" display="https://pan.baidu.com/s/1xVvfzZbaW3BUtodcceK2RQ?pwd=jxfb"/>
+    <hyperlink ref="B429" r:id="rId1294" display="https://pan.baidu.com/s/1pXyezB75bLJMXoM542nTjg?pwd=u28r"/>
+    <hyperlink ref="B435" r:id="rId1295" display="https://pan.baidu.com/s/1uqKM6AEfCa_Jnh08PCdKJw?pwd=btss"/>
+    <hyperlink ref="B436" r:id="rId1296" display="https://pan.baidu.com/s/11yG2voqJu8NZRFrB-Fcs0Q?pwd=ixs5"/>
+    <hyperlink ref="B437" r:id="rId1297" display="https://pan.baidu.com/s/1_0V6GLtygeEod570HTmfJQ?pwd=7ibt"/>
+    <hyperlink ref="B438" r:id="rId1298" display="https://pan.baidu.com/s/1aLCLGUnc_79SDEPnhIaE9g?pwd=2ptm"/>
+    <hyperlink ref="B439" r:id="rId1299" display="https://pan.baidu.com/s/1G-w99JuuAzSNDjt4GDKTqg?pwd=3c8h"/>
+    <hyperlink ref="B440" r:id="rId1300" display="https://pan.baidu.com/s/1HvqPldp5T_1bk3CApkX_xA?pwd=t6y8"/>
+    <hyperlink ref="B441" r:id="rId1301" display="https://pan.baidu.com/s/1gRP4XyReoVVDybe0svFNxw?pwd=h5qx"/>
+    <hyperlink ref="B444" r:id="rId1302" display="https://pan.baidu.com/s/1nqB9Q9tmOWKio098qEreUQ?pwd=sspv"/>
+    <hyperlink ref="B448" r:id="rId1303" display="https://pan.baidu.com/s/1QvQwjbu4y-PA8mgnY8fnhg?pwd=pjph"/>
+    <hyperlink ref="B449" r:id="rId1304" display="https://pan.baidu.com/s/1FEIKwsXvt8JHWwmy7KNDcA?pwd=8k7b"/>
+    <hyperlink ref="B451" r:id="rId1305" display="https://pan.baidu.com/s/1W47VDuSyh2-p_bZnN-FNfg?pwd=3ru7"/>
+    <hyperlink ref="B452" r:id="rId1306" display="https://pan.baidu.com/s/1JtS4_0pQPZCESZxXKqqgtA?pwd=2kne"/>
+    <hyperlink ref="C452" r:id="rId1307" display="https://pan.quark.cn/s/9294cc096f4a"/>
+    <hyperlink ref="B453" r:id="rId1308" display="https://pan.baidu.com/s/1QyV0lqeYmxN33YjfXmGuXA?pwd=irr5"/>
+    <hyperlink ref="C453" r:id="rId1309" display="https://pan.quark.cn/s/6f29dfb7703a"/>
+    <hyperlink ref="C479" r:id="rId1310" display="https://pan.quark.cn/s/475683a61330"/>
+    <hyperlink ref="C480" r:id="rId1311" display="https://pan.quark.cn/s/b760bbb0269c"/>
+    <hyperlink ref="B486" r:id="rId1312" display="https://pan.baidu.com/s/1PhqXCl_4WEQLmSBrs6nvCw?pwd=dqun"/>
+    <hyperlink ref="B502" r:id="rId1313" display="https://pan.baidu.com/s/1cqIvX9tfkyqPvD3gj43qOQ?pwd=i298"/>
+    <hyperlink ref="B829" r:id="rId1314" display="https://pan.baidu.com/s/1CbVExhgcDoFyG49QuDp_sQ?pwd=at4g"/>
+    <hyperlink ref="C829" r:id="rId1315" display="https://pan.quark.cn/s/595fb319efcb"/>
+    <hyperlink ref="B830" r:id="rId1316" display="https://pan.baidu.com/s/1XLw1TxCCSnBKpIudBJH7IA?pwd=2pfs"/>
+    <hyperlink ref="C830" r:id="rId1317" display="https://pan.quark.cn/s/8adc9800d5d8"/>
+    <hyperlink ref="B498" r:id="rId1318" display="https://pan.baidu.com/s/1o5Ep9jsHqiDxhvKUyJpzUQ?pwd=jgiy"/>
+    <hyperlink ref="B499" r:id="rId1319" display="https://pan.baidu.com/s/1A5_lfswv3NeQfLKc7cZaOA?pwd=cn3s"/>
+    <hyperlink ref="B496" r:id="rId1320" display="https://pan.baidu.com/s/1axOW0SJLdnvfI2zwFAFahw?pwd=qpsc"/>
+    <hyperlink ref="B495" r:id="rId1321" display="https://pan.baidu.com/s/1sL_Gv5wFBnFNvWfJwL862w?pwd=cxmf"/>
+    <hyperlink ref="B504" r:id="rId1322" display="https://pan.baidu.com/s/1XW9KDYx4pIGlyEUrvxGB4g?pwd=xp66"/>
+    <hyperlink ref="B505" r:id="rId1323" display="https://pan.baidu.com/s/16-NvM7tMTGwQ82FtoqWvDw?pwd=j6yv"/>
+    <hyperlink ref="B506" r:id="rId1324" display="https://pan.baidu.com/s/136v-DxLFzW_5NY2DaP64OA?pwd=skkt"/>
+    <hyperlink ref="B507" r:id="rId1325" display="https://pan.baidu.com/s/1jMhMxAL6daFxNQ0bH4I8og?pwd=492q"/>
+    <hyperlink ref="B508" r:id="rId1326" display="https://pan.baidu.com/s/1rp3ayf89DgFlcxq-EYOWeA?pwd=g1wf"/>
+    <hyperlink ref="B509" r:id="rId1327" display="https://pan.baidu.com/s/1PWfYxxwKmslh_jMwBI9-Pg?pwd=e7cn"/>
+    <hyperlink ref="B510" r:id="rId1328" display="https://pan.baidu.com/s/1avCpigtRrdES81wU4CMY3g?pwd=23d8"/>
+    <hyperlink ref="B512" r:id="rId1329" display="https://pan.baidu.com/s/1WVxwqtug1ipjLhNknhANkg?pwd=irrz"/>
+    <hyperlink ref="C512" r:id="rId1330" display="https://pan.quark.cn/s/3a779bf3a6a7"/>
+    <hyperlink ref="B515" r:id="rId1331" display="https://pan.baidu.com/s/1m16hvWysHsD1IEY2QIqEGA?pwd=zeyi"/>
+    <hyperlink ref="B516" r:id="rId1332" display="https://pan.baidu.com/s/1eZgfEeAIo-sPrtvUNQM28w?pwd=z68t"/>
+    <hyperlink ref="B517" r:id="rId1333" display="https://pan.baidu.com/s/1ii7MR25y1E5-eHfKSAMtJw?pwd=ybfc"/>
+    <hyperlink ref="B518" r:id="rId1334" display="https://pan.baidu.com/s/1DnnZUT8RVL6Bomqj8XLHxQ?pwd=3ne2"/>
+    <hyperlink ref="B519" r:id="rId1335" display="https://pan.baidu.com/s/1t0WPh1n0DXjfcFKn7Haokw?pwd=7t3f"/>
+    <hyperlink ref="B522" r:id="rId1336" display="https://pan.baidu.com/s/1A_ialinTbn8p3WGpSbrWAw?pwd=ajeh"/>
+    <hyperlink ref="B523" r:id="rId1337" display="https://pan.baidu.com/s/1abh8whjfnLSeuGjjHPVZqg?pwd=x3qp"/>
+    <hyperlink ref="B524" r:id="rId1338" display="https://pan.baidu.com/s/1K4E8y82YMJWOhW-kt4YNZg?pwd=k8vy"/>
+    <hyperlink ref="B525" r:id="rId1339" display="https://pan.baidu.com/s/1Cf_KxuzIanCICYdP1d0clw?pwd=znh2"/>
+    <hyperlink ref="B526" r:id="rId1340" display="https://pan.baidu.com/s/1xEKF9FkLrH7lqsqpeYkjYA?pwd=4r7z"/>
+    <hyperlink ref="B534" r:id="rId1341" display="https://pan.baidu.com/s/1mFuyVMotgf6jaRJ6hVMDOw?pwd=23pb"/>
+    <hyperlink ref="B535" r:id="rId1342" display="https://pan.baidu.com/s/1ygHMJEoJvVb_BkEpKC4_sw?pwd=vj7d"/>
+    <hyperlink ref="B533" r:id="rId1343" display="https://pan.baidu.com/s/18rF32SarzVBPbIEnhJOi4g?pwd=yz6f"/>
+    <hyperlink ref="B538" r:id="rId1344" display="https://pan.baidu.com/s/1G8C_yVrcRtu5pR2RImgbOw?pwd=gmxa"/>
+    <hyperlink ref="B539" r:id="rId1345" display="https://pan.baidu.com/s/1OBdt5cRRLpB0D7fE4i3aOQ?pwd=iena"/>
+    <hyperlink ref="B540" r:id="rId1346" display="https://pan.baidu.com/s/1ATEoidnV3LwOPg9UZXLh9A?pwd=h3ne"/>
+    <hyperlink ref="B541" r:id="rId1347" display="https://pan.baidu.com/s/1Hl9rPTWlT6x_dU-9VWawyg?pwd=rarm"/>
+    <hyperlink ref="B542" r:id="rId1348" display="https://pan.baidu.com/s/164zk_e3sPYPXEZEYHzc_aQ?pwd=8ba5"/>
+    <hyperlink ref="B543" r:id="rId1349" display="https://pan.baidu.com/s/1tnDhXv4T19YcrYtU5SUDsg?pwd=y557"/>
+    <hyperlink ref="B544" r:id="rId1350" display="https://pan.baidu.com/s/1I5IKbuhP38K0KjmRZ0sQPQ?pwd=s8c5"/>
+    <hyperlink ref="B545" r:id="rId1351" display="https://pan.baidu.com/s/1t6nfiq2d2pYC6j4HyOfSiw?pwd=fvd2"/>
+    <hyperlink ref="B546" r:id="rId1352" display="https://pan.baidu.com/s/1xWc5oV6UqVrR1qkx8dRaTA?pwd=p2sm"/>
+    <hyperlink ref="B547" r:id="rId1353" display="https://pan.baidu.com/s/1FZ4ZGLDb6n6CrXL8cAzHQA?pwd=rw7b"/>
+    <hyperlink ref="B553" r:id="rId1354" display="https://pan.baidu.com/s/1YsiHSkSgHpX-AO0yjZ_hcg?pwd=9p12"/>
+    <hyperlink ref="B548" r:id="rId1355" display="https://pan.baidu.com/s/1C3UQempp6E2RUIWcvVHgAg?pwd=uq3x"/>
+    <hyperlink ref="B549" r:id="rId1356" display="https://pan.baidu.com/s/1xPagjB1_dK-BrAs2G8_q2g?pwd=iamf"/>
+    <hyperlink ref="B550" r:id="rId1357" display="https://pan.baidu.com/s/1eJUh_iixGqY9DR6GwPmb1Q?pwd=dink"/>
+    <hyperlink ref="B554" r:id="rId1358" display="https://pan.baidu.com/s/18MgRbn8RgWumgUgFWh7JNg?pwd=h65m"/>
+    <hyperlink ref="B557" r:id="rId1359" display="https://pan.baidu.com/s/1uAtYpUOR8FU_4Byc2q_5qg?pwd=f2u6"/>
+    <hyperlink ref="B559" r:id="rId1360" display="https://pan.baidu.com/s/1TUUKDhmCMroKVdqFjyLSgQ?pwd=zn9r"/>
+    <hyperlink ref="B560" r:id="rId1361" display="https://pan.baidu.com/s/1JUzPNrEp9A5mU1Nc9OuSCw?pwd=wufg"/>
+    <hyperlink ref="B561" r:id="rId1362" display="https://pan.baidu.com/s/1Q2-dD70-x5g_WrNsy2v7QQ?pwd=bryx"/>
+    <hyperlink ref="B562" r:id="rId1363" display="https://pan.baidu.com/s/1smK4jLFkIZaj0BROsklMjA?pwd=c5a9"/>
+    <hyperlink ref="B563" r:id="rId1364" display="https://pan.baidu.com/s/1aaXWl8IjCZxbyYWIsLJMuQ?pwd=yyfq"/>
+    <hyperlink ref="B564" r:id="rId1365" display="https://pan.baidu.com/s/1XRTgCs0Tl122izM2cWEWEA?pwd=wz6r"/>
+    <hyperlink ref="B566" r:id="rId1366" display="https://pan.baidu.com/s/10c_uZ_NCnOuaJ8yh3K9Gcg?pwd=45e2"/>
+    <hyperlink ref="C565" r:id="rId1367" display="https://pan.quark.cn/s/5c44c30c5536"/>
+    <hyperlink ref="B568" r:id="rId1368" display="https://pan.baidu.com/s/1KWXOTAQZO9Tf_IwMT-3tFA?pwd=2qns"/>
+    <hyperlink ref="B570" r:id="rId1369" display="https://pan.baidu.com/s/1nd2UPgk2ODkwjmzLwnptQA?pwd=viig"/>
+    <hyperlink ref="B572" r:id="rId1370" display="https://pan.baidu.com/s/1yu-O5Zqy7SCRR6M0A-mblA?pwd=736r"/>
+    <hyperlink ref="B573" r:id="rId1371" display="https://pan.baidu.com/s/1OWKjQyTb9NFzlW_3WeJ4Ug?pwd=beg5"/>
+    <hyperlink ref="B579" r:id="rId1372" display="https://pan.baidu.com/s/1aOC--4DZymLFrqQSfIcp4g?pwd=36eu"/>
+    <hyperlink ref="B576" r:id="rId1373" display="https://pan.baidu.com/s/1FP3BXUuzirc1fgUsS9-Rmw?pwd=tbpj"/>
+    <hyperlink ref="B575" r:id="rId1374" display="https://pan.baidu.com/s/1uOePPh0C98bYcj37vK0KMQ?pwd=p8e3"/>
+    <hyperlink ref="B577" r:id="rId1375" display="https://pan.baidu.com/s/1tx881D-5hbV0-mAhD3nhpQ?pwd=i65d"/>
+    <hyperlink ref="B578" r:id="rId1376" display="https://pan.baidu.com/s/1TMZRrMzf6EgaZ5wipp0_fg?pwd=qbrc"/>
+    <hyperlink ref="B580" r:id="rId1377" display="https://pan.baidu.com/s/1B9X-zuokxD1IfQ3FNerAHw?pwd=ytmu"/>
+    <hyperlink ref="B594" r:id="rId1378" display="https://pan.baidu.com/s/1zyemwdtKduBqwOy_wJujSA?pwd=enyd"/>
+    <hyperlink ref="B596" r:id="rId1379" display="https://pan.baidu.com/s/1eahDhm7ByoUxbJ3GvahqtA?pwd=np7u"/>
+    <hyperlink ref="B597" r:id="rId1380" display="https://pan.baidu.com/s/14LmJ41NFGy9LIjQLVsmYtQ?pwd=85zj"/>
+    <hyperlink ref="B598" r:id="rId1381" display="https://pan.baidu.com/s/1ORe1FHuRwYzpdVYduise1A?pwd=i7ss"/>
+    <hyperlink ref="B599" r:id="rId1382" display="https://pan.baidu.com/s/1ttWO1VJ1kVmIbqMf9b7p2A?pwd=idm7"/>
+    <hyperlink ref="B743" r:id="rId1383" display="https://pan.baidu.com/s/12q2MmQq5eNp1wn9yoWbwfA?pwd=jpqi"/>
+    <hyperlink ref="B746" r:id="rId1384" display="https://pan.baidu.com/s/1pqYrzczLEnfA--oVAzzVpA?pwd=kfjs"/>
+    <hyperlink ref="B750" r:id="rId1385" display="https://pan.baidu.com/s/1JVLgavz4YjL8R3znepRJeQ?pwd=xy6q"/>
+    <hyperlink ref="B752" r:id="rId1386" display="https://pan.baidu.com/s/1AZ1Ggu9F_EufYnxiCcs6ew?pwd=jp32"/>
+    <hyperlink ref="B756" r:id="rId1387" display="https://pan.baidu.com/s/1ngEPWXLD71I1ckgs87nyqA?pwd=jncf"/>
+    <hyperlink ref="B787" r:id="rId1388" display="https://pan.baidu.com/s/1vX3P6MHIlxgbuLB1R8yFvg?pwd=vcw6"/>
+    <hyperlink ref="B778" r:id="rId1389" display="https://pan.baidu.com/s/1h1_TFXqi_L1wqggaNiy5Ww?pwd=2jgh"/>
+    <hyperlink ref="C831" r:id="rId1390" display="https://pan.quark.cn/s/026cf5006542"/>
+    <hyperlink ref="B831" r:id="rId1391" display="https://pan.baidu.com/s/15UTEFp8ulEK7-6LE9vKOnQ?pwd=rybw"/>
+    <hyperlink ref="C832" r:id="rId1392" display="https://pan.quark.cn/s/237e7c8eb98b"/>
+    <hyperlink ref="B832" r:id="rId1393" display="https://pan.baidu.com/s/1od8n4w7n7B_75ufHV1ZDhQ?pwd=2v6c"/>
+    <hyperlink ref="C833" r:id="rId1394" display="https://pan.quark.cn/s/240de980849f"/>
+    <hyperlink ref="B833" r:id="rId1395" display="https://pan.baidu.com/s/1zy1EQMUoXYpYevOt-Pyhew?pwd=bp6t"/>
+    <hyperlink ref="C834" r:id="rId1396" display="https://pan.quark.cn/s/023e61be420c"/>
+    <hyperlink ref="B780" r:id="rId1397" display="https://pan.baidu.com/s/1CWFoaIMxlBE8ex5ZJuTYKw?pwd=1tbw"/>
+    <hyperlink ref="C781" r:id="rId1398" display="https://pan.quark.cn/s/5f6f5e34c510"/>
+    <hyperlink ref="B781" r:id="rId1399" display="https://pan.baidu.com/s/1OkdckYsgsyikZLK1HmP-9w?pwd=xbed"/>
+    <hyperlink ref="B783" r:id="rId1400" display="https://pan.baidu.com/s/1qEmStMEF0VEhBsZkQV0I7Q?pwd=qp8w"/>
+    <hyperlink ref="B784" r:id="rId1401" display="https://pan.baidu.com/s/1BmKbJ7APlf4gzAJkE4oOEg?pwd=d5r6"/>
+    <hyperlink ref="B785" r:id="rId1402" display="https://pan.baidu.com/s/1gt3Hvqh3bz_APX3X_L0HKg?pwd=vjmf"/>
+    <hyperlink ref="B786" r:id="rId1403" display="https://pan.baidu.com/s/1LG3TBocbOjpUwjNDTGSb5Q?pwd=3jc4"/>
+    <hyperlink ref="C835" r:id="rId1404" display="https://pan.quark.cn/s/58d4e776a1c6"/>
+    <hyperlink ref="B103" r:id="rId1405" display="https://pan.baidu.com/s/12m35w5e0f3JePryoPLcZKg?pwd=699j"/>
+    <hyperlink ref="B104" r:id="rId1406" display="https://pan.baidu.com/s/1vfyJLEJxcQHyFVm41yRB1w?pwd=pnqw"/>
+    <hyperlink ref="C104" r:id="rId1407" display="https://pan.quark.cn/s/56fc52aaac98"/>
+    <hyperlink ref="B105" r:id="rId1408" display="https://pan.baidu.com/s/16EWfYzfvfFvU1wvwx0ZiyA?pwd=auhn"/>
+    <hyperlink ref="C105" r:id="rId1409" display="https://pan.quark.cn/s/c2bb8ce6863f"/>
+    <hyperlink ref="C667" r:id="rId1410" display="https://pan.quark.cn/s/c2913fbaa662"/>
+    <hyperlink ref="C666" r:id="rId1411" display="https://pan.quark.cn/s/613a9f4368e8"/>
+    <hyperlink ref="C663" r:id="rId1412" display="https://pan.quark.cn/s/9b7df2fb09c6"/>
+    <hyperlink ref="C664" r:id="rId1413" display="https://pan.quark.cn/s/651d780cd373"/>
+    <hyperlink ref="C665" r:id="rId1414" display="https://pan.quark.cn/s/991084743a25"/>
+    <hyperlink ref="B664" r:id="rId1415" display="https://pan.baidu.com/s/1yEKf6-vAQJYxYEDsVilIcQ?pwd=x343"/>
+    <hyperlink ref="B665" r:id="rId1416" display="https://pan.baidu.com/s/1AbMYHjU5-wRdF7m5NKWzhg?pwd=ykzf"/>
+    <hyperlink ref="C662" r:id="rId1417" display="https://pan.quark.cn/s/1b6e88d0eeea"/>
+    <hyperlink ref="C661" r:id="rId1418" display="https://pan.quark.cn/s/aa75b0814128"/>
+    <hyperlink ref="C659" r:id="rId1419" display="https://pan.quark.cn/s/8141b3447968"/>
+    <hyperlink ref="C658" r:id="rId1420" display="https://pan.quark.cn/s/e75b500eb152"/>
+    <hyperlink ref="C654" r:id="rId1421" display="https://pan.quark.cn/s/8e6ff833a967"/>
+    <hyperlink ref="C653" r:id="rId1422" display="https://pan.quark.cn/s/4e8069f9099f"/>
+    <hyperlink ref="C648" r:id="rId1423" display="https://pan.quark.cn/s/e3003a658732"/>
+    <hyperlink ref="C649" r:id="rId1424" display="https://pan.quark.cn/s/16b86a7dbada"/>
+    <hyperlink ref="C650" r:id="rId1425" display="https://pan.quark.cn/s/6401a0f9d614"/>
+    <hyperlink ref="C631" r:id="rId1426" display="https://pan.quark.cn/s/010a7ca30cd4"/>
+    <hyperlink ref="C588" r:id="rId1427" display="https://pan.quark.cn/s/a9f748fb4216"/>
+    <hyperlink ref="B588" r:id="rId1428" display="https://pan.baidu.com/s/1TWjbaEt0et3UXRvnZs-yQA?pwd=ijn4"/>
+    <hyperlink ref="B589" r:id="rId1429" display="https://pan.baidu.com/s/1f3XP7tF1CfCEQxPZ4MahrQ?pwd=raxe"/>
+    <hyperlink ref="C589" r:id="rId1430" display="https://pan.quark.cn/s/524b6a55ceef"/>
+    <hyperlink ref="B600" r:id="rId1431" display="https://pan.baidu.com/s/1PAr1mfTkVvaB68VANWB-LA?pwd=ryxp"/>
+    <hyperlink ref="B602" r:id="rId1432" display="https://pan.baidu.com/s/1wYD_Q6hUiczOWKOTq55Gtw?pwd=fp7k"/>
+    <hyperlink ref="B603" r:id="rId1433" display="https://pan.baidu.com/s/1aIbX5t-hZklRuRAMgt_rBw?pwd=3f6n"/>
+    <hyperlink ref="B605" r:id="rId1434" display="https://pan.baidu.com/s/10eEkjzMEJ_FOZ4loTNyGQw?pwd=7jwc"/>
+    <hyperlink ref="B606" r:id="rId1435" display="https://pan.baidu.com/s/13KmYglVQP1A7dUewxopJdw?pwd=17xu"/>
+    <hyperlink ref="B607" r:id="rId1436" display="https://pan.baidu.com/s/1Nmf6l635dTL5LZCWgxEw9g?pwd=7pea"/>
+    <hyperlink ref="B609" r:id="rId1437" display="https://pan.baidu.com/s/1N2vHOo0gXYUXZDLokcdKtg?pwd=a842"/>
+    <hyperlink ref="B610" r:id="rId1438" display="https://pan.baidu.com/s/1o6PtbZ0MHrBCi0pw8paEsg?pwd=gpfb"/>
+    <hyperlink ref="C623" r:id="rId1439" display="https://pan.quark.cn/s/16109c09784a"/>
+    <hyperlink ref="C690" r:id="rId1440" display="https://pan.quark.cn/s/732b14324dcf"/>
+    <hyperlink ref="C737" r:id="rId1441" display="https://pan.quark.cn/s/215ae4b4bc4f"/>
+    <hyperlink ref="B739" r:id="rId1442" display="https://pan.baidu.com/s/1El87kbO6NDZ0VccD_yFCiQ?pwd=3ns7"/>
+    <hyperlink ref="B741" r:id="rId1443" display="https://pan.baidu.com/s/1IZJy0zPbUNQp8a3hGfXy7w?pwd=8kd8"/>
+    <hyperlink ref="B742" r:id="rId1444" display="https://pan.baidu.com/s/1_sDicQk1fZFEAMJk_Iucbw?pwd=7zqq"/>
+    <hyperlink ref="B744" r:id="rId1445" display="https://pan.baidu.com/s/1P1HXS6QFuxqEb_Kk2EUZOw?pwd=texm"/>
+    <hyperlink ref="B745" r:id="rId1446" display="https://pan.baidu.com/s/1DrUyrehLYT0Q9l4Vlz_khQ?pwd=qv3d"/>
+    <hyperlink ref="B749" r:id="rId1447" display="https://pan.baidu.com/s/1Eqnw_7JBuURf5uH-BClSsA?pwd=fg2c"/>
+    <hyperlink ref="B751" r:id="rId1448" display="https://pan.baidu.com/s/1L2D_oG7dsW9hT0A2i9HV6A?pwd=hjvk"/>
+    <hyperlink ref="B788" r:id="rId1449" display="https://pan.baidu.com/s/1B2iOA5mZMxXV0sy0zICj2Q?pwd=qivn"/>
+    <hyperlink ref="B789" r:id="rId1450" display="https://pan.baidu.com/s/1jHa5Hd7GdDo4L31iNHBhuw?pwd=cym8"/>
+    <hyperlink ref="B791" r:id="rId1451" display="https://pan.baidu.com/s/1sjmcJg-0Zldm3j8UiM-P3w?pwd=53hs"/>
+    <hyperlink ref="B792" r:id="rId1452" display="https://pan.baidu.com/s/1cZlCXZK2GB5LJtnLePlx3g?pwd=5x38"/>
+    <hyperlink ref="B795" r:id="rId1453" display="https://pan.baidu.com/s/17qob1xttGUv0rRlcoE6CBg?pwd=xnag"/>
+    <hyperlink ref="B796" r:id="rId1454" display="https://pan.baidu.com/s/152YAQo2_46QTKIKbN9pptQ?pwd=gbiu"/>
+    <hyperlink ref="B797" r:id="rId1455" display="https://pan.baidu.com/s/1ORzb0MMhrU-gf5d7FJZnCQ?pwd=4b3e"/>
+    <hyperlink ref="B800" r:id="rId1456" display="https://pan.baidu.com/s/1e1NIyeaZgGS_VJlO0ttnsw?pwd=xyfb"/>
+    <hyperlink ref="C805" r:id="rId1457" display="https://pan.quark.cn/s/be510cc81872"/>
+    <hyperlink ref="C806" r:id="rId1458" display="https://pan.quark.cn/s/b76c2cdef9ee"/>
+    <hyperlink ref="C836" r:id="rId1459" display="https://pan.quark.cn/s/5afa600ff1c7"/>
+    <hyperlink ref="C837" r:id="rId1460" display="https://pan.quark.cn/s/e690f4661929"/>
+    <hyperlink ref="B836" r:id="rId1461" display="https://pan.baidu.com/s/14fM-0XoHVneRnuU9umrNgA?pwd=r7gw"/>
+    <hyperlink ref="B837" r:id="rId1462" display="https://pan.baidu.com/s/11w3ikgDDnexxmv1eAFHeWw?pwd=sfkq"/>
+    <hyperlink ref="C491" r:id="rId1463" display="https://pan.quark.cn/s/e8f1896add25"/>
+    <hyperlink ref="B491" r:id="rId1464" display="https://pan.baidu.com/s/1ccPDxovl9W94k9lei23eTA?pwd=mwgz"/>
+    <hyperlink ref="B490" r:id="rId1465" display="https://pan.baidu.com/s/1CFi_yMqSa3IpHv6-5QtkIg?pwd=5hvb"/>
+    <hyperlink ref="C782" r:id="rId1466" display="https://pan.quark.cn/s/c687f258e4ac"/>
+    <hyperlink ref="B782" r:id="rId1467" display="https://pan.baidu.com/s/1DyjsuWqPTF2pC-PcHse9dA?pwd=jb38"/>
+    <hyperlink ref="C838" r:id="rId1468" display="https://pan.quark.cn/s/e57c6c84bbeb"/>
+    <hyperlink ref="B838" r:id="rId1469" display="https://pan.baidu.com/s/1XyhkaKjS1gvopJT3BAx5Zw?pwd=k7cw"/>
+    <hyperlink ref="C839" r:id="rId1470" display="https://pan.quark.cn/s/af689875fec7"/>
+    <hyperlink ref="C840" r:id="rId1471" display="https://pan.quark.cn/s/4362343b8fe2"/>
+    <hyperlink ref="B840" r:id="rId1472" display="https://pan.baidu.com/s/1uzvKeJrLh_MQ39RyWdfj4A?pwd=bzuj"/>
+    <hyperlink ref="B841" r:id="rId1473" display="https://pan.baidu.com/s/1Xh_fNoHVUrPk3IN-jwosuA?pwd=i2vk"/>
+    <hyperlink ref="C841" r:id="rId1474" display="https://pan.quark.cn/s/43cbca426a73"/>
+    <hyperlink ref="B842" r:id="rId1475" display="https://pan.baidu.com/s/1YwgbESnSaTUrQYN2RJygsQ?pwd=twcf"/>
+    <hyperlink ref="C842" r:id="rId1476" display="https://pan.quark.cn/s/796c904d620b"/>
+    <hyperlink ref="C843" r:id="rId1477" display="https://pan.quark.cn/s/5daf78eba8ca"/>
+    <hyperlink ref="B843" r:id="rId1478" display="https://pan.baidu.com/s/1jbG8dEM_R59eOThSATWunw?pwd=7riw"/>
+    <hyperlink ref="C844" r:id="rId1479" display="https://pan.quark.cn/s/e0c392ee8fb5"/>
+    <hyperlink ref="B844" r:id="rId1480" display="https://pan.baidu.com/s/1KyVmxeyHvkbHOMlfTI7hWA?pwd=frpe"/>
+    <hyperlink ref="B845" r:id="rId1481" display="https://pan.baidu.com/s/12YnUd6JJsJ4RJvWXfmG-RQ?pwd=vvqk"/>
+    <hyperlink ref="B846" r:id="rId1482" display="https://pan.baidu.com/s/1vL8WQddG5NpWh5IzM53G5w?pwd=3hc6"/>
+    <hyperlink ref="C847" r:id="rId1483" display="https://pan.quark.cn/s/b487e230ce30"/>
+    <hyperlink ref="B847" r:id="rId1484" display="https://pan.baidu.com/s/1ytIXxnjrO0_RBpjIjd5aBw?pwd=i63k"/>
+    <hyperlink ref="C848" r:id="rId1485" display="https://pan.quark.cn/s/be2849775ec1"/>
+    <hyperlink ref="B848" r:id="rId1486" display="https://pan.baidu.com/s/1d2yTuxsxphwrp8kwRiom1A?pwd=mr3d"/>
+    <hyperlink ref="B849" r:id="rId1487" display="https://pan.baidu.com/s/1WhqZ4Q5pDYqnWoTmWrqP6Q?pwd=h41g"/>
+    <hyperlink ref="B850" r:id="rId1488" display="https://pan.baidu.com/s/1ijvgnaI4q8dO9rK91KDsng?pwd=u5q2"/>
+    <hyperlink ref="B851" r:id="rId1489" display="https://pan.baidu.com/s/13vjFKm443odHCLScivNVLg?pwd=vfm8"/>
+    <hyperlink ref="B852" r:id="rId1490" display="https://pan.baidu.com/s/1n_5JCEUErY4KPzChcgexPg?pwd=e9v8"/>
+    <hyperlink ref="B853" r:id="rId1491" display="https://pan.baidu.com/s/1Pe0VIR1aSnXiIWxgXQ7aeA?pwd=38ik"/>
+    <hyperlink ref="C853" r:id="rId1492" display="https://pan.quark.cn/s/0021c52c719d"/>
+    <hyperlink ref="C203" r:id="rId1493" display="https://pan.quark.cn/s/56f83e2fb948"/>
+    <hyperlink ref="B203" r:id="rId1494" display="https://pan.baidu.com/s/16spbN2ExcHsHIw-xp5n3uQ?pwd=s2ex"/>
+    <hyperlink ref="C854" r:id="rId1495" display="https://pan.quark.cn/s/5bcae07ff462"/>
+    <hyperlink ref="B854" r:id="rId1496" display="https://pan.baidu.com/s/1DAcBZO3KjWBplxO6tZuLBw?pwd=5b9b"/>
+    <hyperlink ref="C855" r:id="rId1497" display="https://pan.quark.cn/s/18000176b065"/>
+    <hyperlink ref="B855" r:id="rId1498" display="https://pan.baidu.com/s/1C_kD8vET9dA0g4QEIqwzDw?pwd=rw2e"/>
+    <hyperlink ref="C856" r:id="rId1499" display="https://pan.quark.cn/s/3f1e9b016813"/>
+    <hyperlink ref="B856" r:id="rId1500" display="https://pan.baidu.com/s/1csLBO-cUL1BtYy5tDQQ6Yw?pwd=dieu"/>
+    <hyperlink ref="C857" r:id="rId1501" display="https://pan.quark.cn/s/37f1bb0f5ad8"/>
+    <hyperlink ref="B857" r:id="rId1502" display="https://pan.baidu.com/s/1ilS4iPwOJuMmUgGWX0ndQA?pwd=y6rg"/>
+    <hyperlink ref="C858" r:id="rId1503" display="https://pan.quark.cn/s/a5fb3ca10c00"/>
+    <hyperlink ref="B858" r:id="rId1504" display="https://pan.baidu.com/s/1MBrPyxuqVv8edn5T102Uxg?pwd=jr33"/>
+    <hyperlink ref="B859" r:id="rId1505" display="https://pan.baidu.com/s/1E_4I5QAcDeK3Us6FBqYp-A?pwd=38kv"/>
+    <hyperlink ref="C859" r:id="rId1506" display="https://pan.quark.cn/s/4668804bbc8f"/>
+    <hyperlink ref="C860" r:id="rId1507" display="https://pan.quark.cn/s/23fdd8776863"/>
+    <hyperlink ref="C861" r:id="rId1508" display="https://pan.quark.cn/s/133264c6497c"/>
+    <hyperlink ref="B860" r:id="rId1509" display="https://pan.baidu.com/s/1ZDvX2xeWF0MCTQF7r7IN8A?pwd=y8gg"/>
+    <hyperlink ref="B862" r:id="rId1510" display="https://pan.baidu.com/s/1gF7FdXHfN4InKPpjRnZDGQ?pwd=zfmp"/>
+    <hyperlink ref="C862" r:id="rId1511" display="https://pan.quark.cn/s/3d8054dfe211"/>
+    <hyperlink ref="C863" r:id="rId1512" display="https://pan.quark.cn/s/92f0db05fab9"/>
+    <hyperlink ref="B863" r:id="rId1513" display="https://pan.baidu.com/s/1rLxb4D2GjZ1K-3RnuzVm6A?pwd=c9yc"/>
+    <hyperlink ref="C864" r:id="rId1514" display="https://pan.quark.cn/s/ca40daf16c92"/>
+    <hyperlink ref="B864" r:id="rId1515" display="https://pan.baidu.com/s/1M_ngXBjMv1FPWFbRHy7Utg?pwd=s363"/>
+    <hyperlink ref="C865" r:id="rId1516" display="https://pan.quark.cn/s/100b5d1f7f00"/>
+    <hyperlink ref="C866" r:id="rId1517" display="https://pan.quark.cn/s/fc48d5c22a27"/>
+    <hyperlink ref="B866" r:id="rId1518" display="https://pan.baidu.com/s/1oDptTd7ed5LWyfaaY1WjBw?pwd=3rim"/>
+    <hyperlink ref="B865" r:id="rId1519" display="https://pan.baidu.com/s/14O-EcQGch4-T24r1skX5Rw?pwd=vway"/>
+    <hyperlink ref="C867" r:id="rId1520" display="https://pan.quark.cn/s/2d52576120f7"/>
+    <hyperlink ref="B867" r:id="rId1521" display="https://pan.baidu.com/s/1KMNhKJDfE1ke8UH2xWjx2g?pwd=im2j"/>
+    <hyperlink ref="C868" r:id="rId1522" display="https://pan.quark.cn/s/3983e390c63c"/>
+    <hyperlink ref="B868" r:id="rId1523" display="https://pan.baidu.com/s/1dJAkcIR1AOb-tE1cu19Qew?pwd=e5k6"/>
+    <hyperlink ref="C869" r:id="rId1524" display="https://pan.quark.cn/s/c27de90dc490"/>
+    <hyperlink ref="B869" r:id="rId1525" display="https://pan.baidu.com/s/16l7fIH2S358M1Y9s2RAtaQ?pwd=qimd"/>
+    <hyperlink ref="C773" r:id="rId1526" display="https://pan.quark.cn/s/6ddb5dd98b32"/>
+    <hyperlink ref="C774" r:id="rId1527" display="https://pan.quark.cn/s/c2ae13035548"/>
+    <hyperlink ref="C870" r:id="rId1528" display="https://pan.quark.cn/s/4a55de71e80f"/>
+    <hyperlink ref="C871" r:id="rId1529" display="https://pan.quark.cn/s/ad79e7f2524e"/>
+    <hyperlink ref="B871" r:id="rId1530" display="https://pan.baidu.com/s/1cYKX_QrhYDgjZslv7dqb4g?pwd=xy1v"/>
+    <hyperlink ref="C872" r:id="rId1531" display="https://pan.quark.cn/s/90d5936c76ae"/>
+    <hyperlink ref="B872" r:id="rId1532" display="https://pan.baidu.com/s/1N6k3gMc0we7jWcwKZ8RR2w?pwd=45a3"/>
+    <hyperlink ref="B873" r:id="rId1533" display="https://pan.baidu.com/s/1s_YQJssET7GD1v6DvhaJ3Q?pwd=rmcp"/>
+    <hyperlink ref="C873" r:id="rId1534" display="https://pan.quark.cn/s/60d6d19df027"/>
+    <hyperlink ref="C874" r:id="rId1535" display="https://pan.quark.cn/s/97f9f788b597"/>
+    <hyperlink ref="B874" r:id="rId1536" display="https://pan.baidu.com/s/1nvL_Bi5Z4flkmJhy6IKmXQ?pwd=7d3q"/>
+    <hyperlink ref="C875" r:id="rId1537" display="https://pan.quark.cn/s/5b9717acc77d"/>
+    <hyperlink ref="C876" r:id="rId1538" display="https://pan.quark.cn/s/30bb6bea3d20"/>
+    <hyperlink ref="B876" r:id="rId1539" display="https://pan.baidu.com/s/1Qgp29oOmmnWvsuZAAhbxLw?pwd=ezwk"/>
+    <hyperlink ref="C877" r:id="rId1540" display="https://pan.quark.cn/s/33220da42f54"/>
+    <hyperlink ref="B878" r:id="rId1541" display="https://pan.baidu.com/s/1T82Durkw-3ieVP0zDFxlaA?pwd=k3tb"/>
+    <hyperlink ref="C878" r:id="rId1542" display="https://pan.quark.cn/s/6fe838a3f2b2"/>
+    <hyperlink ref="C879" r:id="rId1543" display="https://pan.quark.cn/s/caf16b52b5df"/>
+    <hyperlink ref="B879" r:id="rId1544" display="https://pan.baidu.com/s/1kiSVjl9cOGOlIX25w2Zexg?pwd=d67v"/>
+    <hyperlink ref="C880" r:id="rId1545" display="https://pan.quark.cn/s/f0bd07dbc7ef"/>
+    <hyperlink ref="B880" r:id="rId1546" display="https://pan.baidu.com/s/1cP5w5BrdIWbgG9NpMJtK6g?pwd=e4z9"/>
+    <hyperlink ref="C881" r:id="rId1547" display="https://pan.quark.cn/s/b3bf3ced7598"/>
+    <hyperlink ref="B881" r:id="rId1548" display="https://pan.baidu.com/s/19ux3z6lNMQepyj9hP-4zHg?pwd=465m"/>
+    <hyperlink ref="C882" r:id="rId1549" display="https://pan.quark.cn/s/eaf7f0b4d81b"/>
+    <hyperlink ref="C883" r:id="rId1550" display="https://pan.quark.cn/s/1f89f28565e0"/>
+    <hyperlink ref="B883" r:id="rId1551" display="https://pan.baidu.com/s/1lqDjVuSwbfjym6u5f538fA?pwd=cqu7"/>
+    <hyperlink ref="B882" r:id="rId1552" display="https://pan.baidu.com/s/1IsqGXavRnvnE3niz1ud14g?pwd=p2c3"/>
+    <hyperlink ref="B884" r:id="rId1553" display="https://pan.baidu.com/s/1lXk3kOYeBihgeBmyQ1q5ww?pwd=tu6t"/>
+    <hyperlink ref="C884" r:id="rId1554" display="https://pan.quark.cn/s/ae49f993d60f"/>
+    <hyperlink ref="C885" r:id="rId1555" display="https://pan.quark.cn/s/8d781ccdfc2a"/>
+    <hyperlink ref="B885" r:id="rId1556" display="https://pan.baidu.com/s/1fb0gfzkKFfwPk-DPCiqXPw?pwd=sfny"/>
+    <hyperlink ref="C886" r:id="rId1557" display="https://pan.quark.cn/s/46a17bc4fad2"/>
+    <hyperlink ref="B886" r:id="rId1558" display="https://pan.baidu.com/s/1xR3jQRxQeYY9SSGLfgB5OA?pwd=ginq"/>
+    <hyperlink ref="B887" r:id="rId1559" display="https://pan.baidu.com/s/1PoR8OLNLj0FrD-zMSrXcyQ?pwd=v8se"/>
+    <hyperlink ref="C888" r:id="rId1560" display="https://pan.quark.cn/s/c9b3e0268840"/>
+    <hyperlink ref="B888" r:id="rId1561" display="https://pan.baidu.com/s/11VrbNzhn5MiuI8Vf8C_XHg?pwd=2n9d"/>
+    <hyperlink ref="C889" r:id="rId1562" display="https://pan.quark.cn/s/fd6a3b578b6b"/>
+    <hyperlink ref="B889" r:id="rId1563" display="https://pan.baidu.com/s/1YKN0HLtpGZ07dK41Eqflkw?pwd=r5n3"/>
+    <hyperlink ref="C890" r:id="rId1564" display="https://pan.quark.cn/s/fbae3f3b8047"/>
+    <hyperlink ref="B890" r:id="rId1565" display="https://pan.baidu.com/s/1axepzUGMzdJajGX-srMkxA?pwd=aap2"/>
+    <hyperlink ref="C891" r:id="rId1566" display="https://pan.quark.cn/s/0818a8ea8dd5"/>
+    <hyperlink ref="B891" r:id="rId1567" display="https://pan.baidu.com/s/1Q7M8hNlnGV_qOifXhhW7Pg?pwd=iwdw"/>
+    <hyperlink ref="C892" r:id="rId1568" display="https://pan.quark.cn/s/1faf2eec54dc"/>
+    <hyperlink ref="B892" r:id="rId1569" display="https://pan.baidu.com/s/1mkCPty2vRFFZP_MVPSzSOA?pwd=cnhb"/>
+    <hyperlink ref="B893" r:id="rId1570" display="https://pan.baidu.com/s/10u7plXa2bbptb-_nLIHBvA?pwd=v4mc"/>
+    <hyperlink ref="C893" r:id="rId1571" display="https://pan.quark.cn/s/6b6d5241548e"/>
+    <hyperlink ref="C592" r:id="rId1572" display="https://pan.quark.cn/s/5bf233f18b8f"/>
+    <hyperlink ref="B592" r:id="rId1573" display="https://pan.baidu.com/s/1gZ3-sxF9xgBQKxgfBFH9Pw?pwd=m7in"/>
+    <hyperlink ref="C39" r:id="rId1574" display="https://pan.quark.cn/s/3599ec17b900"/>
+    <hyperlink ref="B39" r:id="rId1575" display="https://pan.baidu.com/s/1MrCgLO8lnZmGLZLNO2yP2g?pwd=c61s"/>
+    <hyperlink ref="C895" r:id="rId1576" display="https://pan.quark.cn/s/1222a3fd3e32"/>
+    <hyperlink ref="B895" r:id="rId1577" display="https://pan.baidu.com/s/1cCD-k6IAntPER4BE-8FSZw?pwd=kqfa"/>
+    <hyperlink ref="C896" r:id="rId1578" display="https://pan.quark.cn/s/8def8f86a750"/>
+    <hyperlink ref="B896" r:id="rId1579" display="https://pan.baidu.com/s/1708QqdyL4T0Wf1DAHoREeA?pwd=wq6k"/>
+    <hyperlink ref="C897" r:id="rId1580" display="https://pan.quark.cn/s/dea9db79a78f"/>
+    <hyperlink ref="B897" r:id="rId1581" display="https://pan.baidu.com/s/1LbgiBSHpUclLspSh65wR6Q?pwd=mjg6"/>
+    <hyperlink ref="C898" r:id="rId1582" display="https://pan.quark.cn/s/6ce7e6e5dced"/>
+    <hyperlink ref="B898" r:id="rId1583" display="https://pan.baidu.com/s/1LsHvIZ1ForZ7Xbx7zbZcAA?pwd=qvjy"/>
+    <hyperlink ref="C899" r:id="rId1584" display="https://pan.quark.cn/s/465aa6b75d41"/>
+    <hyperlink ref="B899" r:id="rId1585" display="https://pan.baidu.com/s/1L7eWuchWIq7cpA1k107QHQ?pwd=wnrk"/>
+    <hyperlink ref="C900" r:id="rId1586" display="https://pan.quark.cn/s/06b0cd8fcac6"/>
+    <hyperlink ref="B900" r:id="rId1587" display="https://pan.baidu.com/s/152K2YjQL6JcNjRzCYPB1dg?pwd=i6r4"/>
+    <hyperlink ref="C901" r:id="rId1588" display="https://pan.quark.cn/s/adc708081f45"/>
+    <hyperlink ref="B901" r:id="rId1589" display="https://pan.baidu.com/s/1YHnoHyfJbIXCj1FvQLAt6w?pwd=spq5"/>
+    <hyperlink ref="C902" r:id="rId1590" display="https://pan.quark.cn/s/8ec854c215e2"/>
+    <hyperlink ref="B902" r:id="rId1591" display="https://pan.baidu.com/s/1S0-PYU13QXDHIbUYNvDRrQ?pwd=9ufq"/>
+    <hyperlink ref="C903" r:id="rId1592" display="https://pan.quark.cn/s/57ff7f3313d8"/>
+    <hyperlink ref="B903" r:id="rId1593" display="https://pan.baidu.com/s/1RcQ8RniUy5ldXWDFTjgfOA?pwd=z8b3"/>
+    <hyperlink ref="C904" r:id="rId1594" display="https://pan.quark.cn/s/c3f59d92df80"/>
+    <hyperlink ref="C905" r:id="rId1595" display="https://pan.quark.cn/s/77e4aed3f4df"/>
+    <hyperlink ref="C906" r:id="rId1596" display="https://pan.quark.cn/s/665f20498f55"/>
+    <hyperlink ref="B906" r:id="rId1597" display="https://pan.baidu.com/s/1nFF_HfI3kyjxvEATzvJj_g?pwd=fsse"/>
+    <hyperlink ref="B905" r:id="rId1598" display="https://pan.baidu.com/s/1WNbz4iuOeBjMFmsvovxBNg?pwd=m9st"/>
+    <hyperlink ref="B904" r:id="rId1599" display="https://pan.baidu.com/s/1XelQB3lZQvcjdlBo8CGqkA?pwd=euqg"/>
+    <hyperlink ref="C907" r:id="rId1600" display="https://pan.quark.cn/s/f708407905df"/>
+    <hyperlink ref="B907" r:id="rId1601" display="https://pan.baidu.com/s/1xYysfJDk9TBAPfYEVoFm_g?pwd=yufn"/>
+    <hyperlink ref="C908" r:id="rId1602" display="https://pan.quark.cn/s/83256db78c88"/>
+    <hyperlink ref="B908" r:id="rId1603" display="https://pan.baidu.com/s/1gstgavY7keCbDHDciZI2rQ?pwd=mgmv"/>
+    <hyperlink ref="C909" r:id="rId1604" display="https://pan.quark.cn/s/55a4fdb6997e"/>
+    <hyperlink ref="B909" r:id="rId1605" display="https://pan.baidu.com/s/1yEHx_TAWpW2EgLLsCHDTqw?pwd=awtk"/>
+    <hyperlink ref="C910" r:id="rId1606" display="https://pan.quark.cn/s/938f87a35065"/>
+    <hyperlink ref="B910" r:id="rId1607" display="https://pan.baidu.com/s/1jGfIIOEgTuOK7tE9nG12zA?pwd=3eq6"/>
+    <hyperlink ref="B911" r:id="rId1608" display="https://pan.baidu.com/s/1sr4PD_cWaI8ISlXsBxAuow?pwd=syxp"/>
+    <hyperlink ref="C911" r:id="rId1609" display="https://pan.quark.cn/s/8381a32ca34b"/>
+    <hyperlink ref="B912" r:id="rId1610" display="https://pan.baidu.com/s/15N-Ymz1rIuIOxBu8hwN7IQ?pwd=cb2t"/>
+    <hyperlink ref="B913" r:id="rId1611" display="https://pan.baidu.com/s/1YwpP1WIpNDizY6dqfM4lWw?pwd=t8k6"/>
+    <hyperlink ref="B914" r:id="rId1612" display="https://pan.baidu.com/s/1ZDNKAXYbwsdICD0ORM-5RA?pwd=paks"/>
+    <hyperlink ref="C915" r:id="rId1613" display="https://pan.quark.cn/s/4e7551ec28cd"/>
+    <hyperlink ref="B915" r:id="rId1614" display="https://pan.baidu.com/s/1AaKuhbbeVd7uEoEf4ywxTg?pwd=cukz"/>
+    <hyperlink ref="C916" r:id="rId1615" display="https://pan.quark.cn/s/f9721b829519"/>
+    <hyperlink ref="B916" r:id="rId1616" display="https://pan.baidu.com/s/11KQoKIIFWY63ba2LhaAlOw?pwd=ecg8"/>
+    <hyperlink ref="B917" r:id="rId1617" display="https://pan.baidu.com/s/10YY7L773a9_ksfQOH5hiXw?pwd=58m5"/>
+    <hyperlink ref="C917" r:id="rId1618" display="https://pan.quark.cn/s/33675ac006d7"/>
+    <hyperlink ref="C918" r:id="rId1619" display="https://pan.quark.cn/s/fc551ca78e4f"/>
+    <hyperlink ref="B918" r:id="rId1620" display="https://pan.baidu.com/s/1ArYr4p-6HCezKh-F6VyVRQ?pwd=ycz7"/>
+    <hyperlink ref="C919" r:id="rId1621" display="https://pan.quark.cn/s/aa3ba48bb2ca"/>
+    <hyperlink ref="C920" r:id="rId1622" display="https://pan.quark.cn/s/d21d55f9e695"/>
+    <hyperlink ref="B920" r:id="rId1623" display="https://pan.baidu.com/s/1p69XycAVXy76IywT8eoQLA?pwd=2pnx"/>
+    <hyperlink ref="C921" r:id="rId1624" display="https://pan.quark.cn/s/3bfbe66a6f2f"/>
+    <hyperlink ref="B921" r:id="rId1625" display="https://pan.baidu.com/s/1V866F-M6iP36Fad5oQJ40w?pwd=9f6b"/>
+    <hyperlink ref="B922" r:id="rId1626" display="https://pan.baidu.com/s/1eQnASfTrpfiMjsacF6b6sA?pwd=9xn2"/>
+    <hyperlink ref="C922" r:id="rId1627" display="https://pan.quark.cn/s/a36bcb8a65e8"/>
+    <hyperlink ref="B923" r:id="rId1628" display="https://pan.baidu.com/s/1pMT1wVMhT2pkmfs2RinhNA?pwd=3hsn"/>
+    <hyperlink ref="C923" r:id="rId1629" display="https://pan.quark.cn/s/be6043c7cc9f"/>
+    <hyperlink ref="B924" r:id="rId1630" display="https://pan.baidu.com/s/1b2s6KqiHGQAPPxPccCF-fg?pwd=yaw7"/>
+    <hyperlink ref="C924" r:id="rId1631" display="https://pan.quark.cn/s/ddbaf45b192d"/>
+    <hyperlink ref="C925" r:id="rId1632" display="https://pan.quark.cn/s/3bfa22449438"/>
+    <hyperlink ref="C926" r:id="rId1633" display="https://pan.quark.cn/s/d66772de66da"/>
+    <hyperlink ref="B925" r:id="rId1634" display="https://pan.baidu.com/s/1W3wFs59w1Hm4Z3my2P6uuw?pwd=pinw"/>
+    <hyperlink ref="B926" r:id="rId1635" display="https://pan.baidu.com/s/1vozNzvdm5PdqP_ao51R-dA?pwd=68d3"/>
+    <hyperlink ref="C927" r:id="rId1636" display="https://pan.quark.cn/s/5a54be7ae72d"/>
+    <hyperlink ref="B927" r:id="rId1637" display="https://pan.baidu.com/s/126uwO3wt1h_iJx0hH1bM7Q?pwd=76rq"/>
+    <hyperlink ref="B928" r:id="rId1638" display="https://pan.baidu.com/s/180Yke0DqfWqtvStsWiPGlw?pwd=7xiv"/>
+    <hyperlink ref="B929" r:id="rId1639" display="https://pan.baidu.com/s/1Z1a1p2H8dlFxGCAa_46NOw?pwd=3t5w"/>
+    <hyperlink ref="C929" r:id="rId1640" display="https://pan.quark.cn/s/8390ff88f418"/>
+    <hyperlink ref="B930" r:id="rId1641" display="https://pan.baidu.com/s/1DcYo7wtPlaORFglOJ0N9qg?pwd=rmru"/>
+    <hyperlink ref="C931" r:id="rId1642" display="https://pan.quark.cn/s/b34ebab35e9b"/>
+    <hyperlink ref="B931" r:id="rId1643" display="https://pan.baidu.com/s/1gE6-DBUoTOLKhroJJvring?pwd=yhht"/>
+    <hyperlink ref="C932" r:id="rId1644" display="https://pan.quark.cn/s/319c141152d3"/>
+    <hyperlink ref="B932" r:id="rId1645" display="https://pan.baidu.com/s/1iOTzDGTqZGC2vaKhbR40SQ?pwd=a9hn"/>
+    <hyperlink ref="C933" r:id="rId1646" display="https://pan.quark.cn/s/7bd381f5b449"/>
+    <hyperlink ref="B933" r:id="rId1647" display="https://pan.baidu.com/s/1U2A3pV92rXLb8yB4j046bA?pwd=xhqh"/>
+    <hyperlink ref="C934" r:id="rId1648" display="https://pan.quark.cn/s/5ddc770fafbc"/>
+    <hyperlink ref="B934" r:id="rId1649" display="https://pan.baidu.com/s/1mkb8ysKxsMsTuY_wMqR7cA?pwd=8ev3"/>
+    <hyperlink ref="B894" r:id="rId1650" display="https://pan.baidu.com/s/13RPvDmMdXaW6-SWIuDBKTg?pwd=9n9g"/>
+    <hyperlink ref="B759" r:id="rId1651" display="https://pan.baidu.com/s/1Ldd2Sxxn0JJkPLlqFlkQcQ?pwd=vw33"/>
+    <hyperlink ref="B755" r:id="rId1652" display="https://pan.baidu.com/s/1fN8aUC_bzoDeVN4lzf5r8w?pwd=jacv"/>
+    <hyperlink ref="B757" r:id="rId1653" display="https://pan.baidu.com/s/15ixs7ahYYSRT_WDH14mQfg?pwd=dxpd"/>
+    <hyperlink ref="B754" r:id="rId1654" display="https://pan.baidu.com/s/1r2C8glNWih14yRmffHXngw?pwd=frbq"/>
+    <hyperlink ref="B753" r:id="rId1655" display="https://pan.baidu.com/s/1ZBkXXg3vctgXh4P9TLwvRw?pwd=atqg"/>
+    <hyperlink ref="B770" r:id="rId1656" display="https://pan.baidu.com/s/1kECMfMPzgVf0MN8vUxMSKw?pwd=xb7z"/>
+    <hyperlink ref="B935" r:id="rId1657" display="https://pan.baidu.com/s/1YTf-Iikp7vOjETx9s5Ahow?pwd=ts89"/>
+    <hyperlink ref="C935" r:id="rId1658" display="https://pan.quark.cn/s/8f6912403d7a"/>
+    <hyperlink ref="C936" r:id="rId1659" display="https://pan.quark.cn/s/ce8b6ccc8f39"/>
+    <hyperlink ref="B936" r:id="rId1660" display="https://pan.baidu.com/s/1Zu0ynpaQJR-nl1mU6_WgIg?pwd=u1f3"/>
+    <hyperlink ref="B937" r:id="rId1661" display="https://pan.baidu.com/s/14jRUp8AErftw4C-3nRoWtQ?pwd=wjjr"/>
+    <hyperlink ref="C937" r:id="rId1662" display="https://pan.quark.cn/s/bb015809198c"/>
+    <hyperlink ref="B138" r:id="rId1663" display="https://pan.baidu.com/s/1hNKcELsR_VK6mjA-Ml8b8g?pwd=s1k2"/>
+    <hyperlink ref="B139" r:id="rId1664" display="https://pan.baidu.com/s/1YT_Zn-nnvCZEQcTrrnVPpg?pwd=xb7j"/>
+    <hyperlink ref="C140" r:id="rId1665" display="https://pan.quark.cn/s/802b6082fa4c"/>
+    <hyperlink ref="B140" r:id="rId1666" display="https://pan.baidu.com/s/17IRsLlpgL-3oVoiN7m6DIg?pwd=8dcg"/>
+    <hyperlink ref="C938" r:id="rId1667" display="https://pan.quark.cn/s/a99716a96012"/>
+    <hyperlink ref="B938" r:id="rId1668" display="https://pan.baidu.com/s/16vbhn8Njy1U7q7gSDPRQ4A?pwd=27p3"/>
+    <hyperlink ref="C930" r:id="rId1669" display="https://pan.quark.cn/s/a0e89012f14a"/>
+    <hyperlink ref="C928" r:id="rId1670" display="https://pan.quark.cn/s/e36649a8ed7b"/>
+    <hyperlink ref="C811" r:id="rId1671" display="https://pan.quark.cn/s/d5f3ad8f60c7"/>
+    <hyperlink ref="B803" r:id="rId1672" display="https://pan.baidu.com/s/1i8drpgvGcSP501fCaaUq-w?pwd=tcz7"/>
+    <hyperlink ref="C939" r:id="rId1673" display="https://pan.quark.cn/s/f432170e4df8"/>
+    <hyperlink ref="B939" r:id="rId1674" display="https://pan.baidu.com/s/1vi-KdoK7ii01qapGjdJDhg?pwd=n5ja"/>
+    <hyperlink ref="B940" r:id="rId1675" display="https://pan.baidu.com/s/1dvmKruZm010pfq-NMi3OAQ?pwd=stin"/>
+    <hyperlink ref="C940" r:id="rId1676" display="https://pan.quark.cn/s/ea5ddb32c420"/>
+    <hyperlink ref="C941" r:id="rId1677" display="https://pan.quark.cn/s/f4effb6bac21"/>
+    <hyperlink ref="B941" r:id="rId1678" display="https://pan.baidu.com/s/1ALz2IzGOYs1v7IOoomFYcw?pwd=ifgd"/>
+    <hyperlink ref="C942" r:id="rId1679" display="https://pan.quark.cn/s/448bf01163c8"/>
+    <hyperlink ref="B942" r:id="rId1680" display="https://pan.baidu.com/s/1FUj1sAakrS4p0KWYrFBbUA?pwd=ne3q"/>
+    <hyperlink ref="C943" r:id="rId1681" display="https://pan.quark.cn/s/e5410261a1d3"/>
+    <hyperlink ref="B943" r:id="rId1682" display="https://pan.baidu.com/s/16vxKBWzCl8sAG8UYXJ--8A?pwd=9e8b"/>
+    <hyperlink ref="B944" r:id="rId1683" display="https://pan.baidu.com/s/1agUXa6HDSbPdmG-40z9RkQ?pwd=w7bn"/>
+    <hyperlink ref="C944" r:id="rId1684" display="https://pan.quark.cn/s/c958e2f0bba1"/>
+    <hyperlink ref="B945" r:id="rId1685" display="https://pan.baidu.com/s/1_87PYDeYTo1xZTi4HEuTFA?pwd=t4hs"/>
+    <hyperlink ref="C945" r:id="rId1686" display="https://pan.quark.cn/s/7281ae8d4f1e"/>
+    <hyperlink ref="C946" r:id="rId1687" display="https://pan.quark.cn/s/5c314c62c961"/>
+    <hyperlink ref="B946" r:id="rId1688" display="https://pan.baidu.com/s/1EtXA8uE-aao2I30uCiCp5Q?pwd=x75e"/>
+    <hyperlink ref="C947" r:id="rId1689" display="https://pan.quark.cn/s/5de0d2db1fd3"/>
+    <hyperlink ref="B947" r:id="rId1690" display="https://pan.baidu.com/s/1_O9f0CT-pbkaqyBSxBEPkA?pwd=mu6f"/>
+    <hyperlink ref="C948" r:id="rId1691" display="https://pan.quark.cn/s/51d55ca60725"/>
+    <hyperlink ref="C949" r:id="rId1692" display="https://pan.quark.cn/s/65326b35d818"/>
+    <hyperlink ref="B949" r:id="rId1693" display="https://pan.baidu.com/s/1xO6mXKRIxw83_p-C4Y1iCw?pwd=k6nf"/>
+    <hyperlink ref="C950" r:id="rId1694" display="https://pan.quark.cn/s/68717a8c259d"/>
+    <hyperlink ref="C951" r:id="rId1695" display="https://pan.quark.cn/s/c279a3d1201e"/>
+    <hyperlink ref="C952" r:id="rId1696" display="https://pan.quark.cn/s/c293f3f5d792"/>
+    <hyperlink ref="C953" r:id="rId1697" display="https://pan.quark.cn/s/52495124eb85"/>
+    <hyperlink ref="C954" r:id="rId1698" display="https://pan.quark.cn/s/0a293ad37cc1"/>
+    <hyperlink ref="C955" r:id="rId1699" display="https://pan.quark.cn/s/59e19d8a8863"/>
+    <hyperlink ref="C956" r:id="rId1700" display="https://pan.quark.cn/s/e25fd0069871"/>
+    <hyperlink ref="C958" r:id="rId1701" display="https://pan.quark.cn/s/1dd70d58bc4e"/>
+    <hyperlink ref="C959" r:id="rId1702" display="https://pan.quark.cn/s/409e004b7c4d"/>
+    <hyperlink ref="C960" r:id="rId1703" display="https://pan.quark.cn/s/2a6ad53e4d8e"/>
+    <hyperlink ref="C961" r:id="rId1704" display="https://pan.quark.cn/s/28a1c7565b69"/>
+    <hyperlink ref="C962" r:id="rId1705" display="https://pan.quark.cn/s/46a4a6c34caf"/>
+    <hyperlink ref="C963" r:id="rId1706" display="https://pan.quark.cn/s/7c52facadd06"/>
+    <hyperlink ref="C964" r:id="rId1707" display="https://pan.quark.cn/s/777299dbde9a"/>
+    <hyperlink ref="C965" r:id="rId1708" display="https://pan.quark.cn/s/1e357dec0397"/>
+    <hyperlink ref="C966" r:id="rId1709" display="https://pan.quark.cn/s/0c9e54bb1386"/>
+    <hyperlink ref="C967" r:id="rId1710" display="https://pan.quark.cn/s/2c32976e484e"/>
+    <hyperlink ref="C968" r:id="rId1711" display="https://pan.quark.cn/s/e120e275cb25"/>
+    <hyperlink ref="C969" r:id="rId1712" display="https://pan.quark.cn/s/6c9c58ac8764"/>
+    <hyperlink ref="C970" r:id="rId1713" display="https://pan.quark.cn/s/4fc5d8f4a733"/>
+    <hyperlink ref="C971" r:id="rId1714" display="https://pan.quark.cn/s/6da604a2585f"/>
+    <hyperlink ref="C972" r:id="rId1715" display="https://pan.quark.cn/s/3cccb0556dc4"/>
+    <hyperlink ref="C973" r:id="rId1716" display="https://pan.quark.cn/s/33210db898a3"/>
+    <hyperlink ref="C974" r:id="rId1717" display="https://pan.quark.cn/s/1787090ae540"/>
+    <hyperlink ref="C975" r:id="rId1718" display="https://pan.quark.cn/s/78baa2920516"/>
+    <hyperlink ref="C976" r:id="rId1719" display="https://pan.quark.cn/s/066cda8d11d5"/>
+    <hyperlink ref="C977" r:id="rId1720" display="https://pan.quark.cn/s/3f3a734e1edd"/>
+    <hyperlink ref="C978" r:id="rId1721" display="https://pan.quark.cn/s/61fe26783e48"/>
+    <hyperlink ref="C979" r:id="rId1722" display="https://pan.quark.cn/s/9066609b240d"/>
+    <hyperlink ref="C980" r:id="rId1723" display="https://pan.quark.cn/s/0003d635f0bf"/>
+    <hyperlink ref="C981" r:id="rId1724" display="https://pan.quark.cn/s/233b02bf039f"/>
+    <hyperlink ref="C982" r:id="rId1725" display="https://pan.quark.cn/s/6fb4b4f9be65"/>
+    <hyperlink ref="C983" r:id="rId1726" display="https://pan.quark.cn/s/24027206709e"/>
+    <hyperlink ref="C984" r:id="rId1727" display="https://pan.quark.cn/s/051998accf6e"/>
+    <hyperlink ref="C985" r:id="rId1728" display="https://pan.quark.cn/s/c267192e6a28"/>
+    <hyperlink ref="C987" r:id="rId1729" display="https://pan.quark.cn/s/738cbe522295"/>
+    <hyperlink ref="C988" r:id="rId1730" display="https://pan.quark.cn/s/f56587e69852"/>
+    <hyperlink ref="C989" r:id="rId1731" display="https://pan.quark.cn/s/2a867529046a"/>
+    <hyperlink ref="C990" r:id="rId1732" display="https://pan.quark.cn/s/e00e5d8b1521"/>
+    <hyperlink ref="C991" r:id="rId1733" display="https://pan.quark.cn/s/fb2282737a25"/>
+    <hyperlink ref="C992" r:id="rId1734" display="https://pan.quark.cn/s/f1c170414607"/>
+    <hyperlink ref="C993" r:id="rId1735" display="https://pan.quark.cn/s/c096d73c0dba"/>
+    <hyperlink ref="C994" r:id="rId1736" display="https://pan.quark.cn/s/db053c5d98a4"/>
+    <hyperlink ref="C995" r:id="rId1737" display="https://pan.quark.cn/s/a5fe5df3bd1f"/>
+    <hyperlink ref="C996" r:id="rId1738" display="https://pan.quark.cn/s/3122ac8195b3"/>
+    <hyperlink ref="C997" r:id="rId1739" display="https://pan.quark.cn/s/60c133f9785b"/>
+    <hyperlink ref="C998" r:id="rId1740" display="https://pan.quark.cn/s/8346f87ab4ef"/>
+    <hyperlink ref="C999" r:id="rId1741" display="https://pan.quark.cn/s/623c42f84275"/>
+    <hyperlink ref="C1000" r:id="rId1742" display="https://pan.quark.cn/s/b2205bea49a8"/>
+    <hyperlink ref="C1001" r:id="rId1743" display="https://pan.quark.cn/s/ab8ed602e7ac"/>
+    <hyperlink ref="C1002" r:id="rId1744" display="https://pan.quark.cn/s/72f36a77873c"/>
+    <hyperlink ref="C1003" r:id="rId1745" display="https://pan.quark.cn/s/0994c91823b6"/>
+    <hyperlink ref="C1004" r:id="rId1746" display="https://pan.quark.cn/s/5111bb63a2c6"/>
+    <hyperlink ref="C1005" r:id="rId1747" display="https://pan.quark.cn/s/5dd6d12fb0ac"/>
+    <hyperlink ref="C1006" r:id="rId1748" display="https://pan.quark.cn/s/71043f16531e"/>
+    <hyperlink ref="C1007" r:id="rId1749" display="https://pan.quark.cn/s/a42ac7b6c2e6"/>
+    <hyperlink ref="C1008" r:id="rId1750" display="https://pan.quark.cn/s/3e54f06bdf95"/>
+    <hyperlink ref="C1009" r:id="rId1751" display="https://pan.quark.cn/s/915fa99c8b63"/>
+    <hyperlink ref="C1010" r:id="rId1752" display="https://pan.quark.cn/s/0498811c6503"/>
+    <hyperlink ref="C1011" r:id="rId1753" display="https://pan.quark.cn/s/12076e46637f"/>
+    <hyperlink ref="C1012" r:id="rId1754" display="https://pan.quark.cn/s/1f09f7608c68"/>
+    <hyperlink ref="C1013" r:id="rId1755" display="https://pan.quark.cn/s/c761ba5eedcf"/>
+    <hyperlink ref="C1014" r:id="rId1756" display="https://pan.quark.cn/s/6175da62afa5"/>
+    <hyperlink ref="C1015" r:id="rId1757" display="https://pan.quark.cn/s/45a88be9b03a"/>
+    <hyperlink ref="C1016" r:id="rId1758" display="https://pan.quark.cn/s/145649b71f04"/>
+    <hyperlink ref="C1017" r:id="rId1759" display="https://pan.quark.cn/s/d12829186252"/>
+    <hyperlink ref="C1018" r:id="rId1760" display="https://pan.quark.cn/s/5e8cc21fa973"/>
+    <hyperlink ref="C1019" r:id="rId1761" display="https://pan.quark.cn/s/62e3abb3cf5f"/>
+    <hyperlink ref="C1020" r:id="rId1762" display="https://pan.quark.cn/s/ed0ccee7f3b3"/>
+    <hyperlink ref="C1021" r:id="rId1763" display="https://pan.quark.cn/s/029e3f1e5686"/>
+    <hyperlink ref="C1022" r:id="rId1764" display="https://pan.quark.cn/s/4664599635c2"/>
+    <hyperlink ref="C1023" r:id="rId1765" display="https://pan.quark.cn/s/1895e316e04a"/>
+    <hyperlink ref="C1024" r:id="rId1766" display="https://pan.quark.cn/s/3e3c3a3a19fe"/>
+    <hyperlink ref="C1025" r:id="rId1767" display="https://pan.quark.cn/s/5ef3769898f5"/>
+    <hyperlink ref="C1026" r:id="rId1768" display="https://pan.quark.cn/s/c2dffa3f693c"/>
+    <hyperlink ref="C1027" r:id="rId1769" display="https://pan.quark.cn/s/cb70dddd712c"/>
+    <hyperlink ref="C1028" r:id="rId1770" display="https://pan.quark.cn/s/d44b173c8978"/>
+    <hyperlink ref="B1028" r:id="rId1771" display="https://pan.baidu.com/s/16HA7jGlrDBU3MRCYyUAwDA?pwd=pqiu"/>
+    <hyperlink ref="C1029" r:id="rId1772" display="https://pan.quark.cn/s/237f72263cdc"/>
+    <hyperlink ref="B1029" r:id="rId1773" display="https://pan.baidu.com/s/1bOdtxd4YZiwO9zPGqZCuLQ?pwd=imfp"/>
+    <hyperlink ref="C1030" r:id="rId1774" display="https://pan.quark.cn/s/022c5614ca78"/>
+    <hyperlink ref="B1030" r:id="rId1775" display="https://pan.baidu.com/s/1I-ywvmLBeAgsfeAKDY9Yaw?pwd=jhgq"/>
+    <hyperlink ref="C1031" r:id="rId1776" display="https://pan.quark.cn/s/715a6da35fe0"/>
+    <hyperlink ref="B1031" r:id="rId1777" display="https://pan.baidu.com/s/1rlk9sXTlHFNY6xzn8MzoCQ?pwd=7vzu"/>
+    <hyperlink ref="B1032" r:id="rId1778" display="https://pan.baidu.com/s/1-C4tzJ1CxPPdzq7Q9pHimg?pwd=9pd8"/>
+    <hyperlink ref="C1032" r:id="rId1779" display="https://pan.quark.cn/s/d02ccc123f4c"/>
+    <hyperlink ref="C1033" r:id="rId1780" display="https://pan.quark.cn/s/95c7fac76a1d"/>
+    <hyperlink ref="B1033" r:id="rId1781" display="https://pan.baidu.com/s/1-zBmVrSLD9jSCyQAOxt5VA?pwd=a558"/>
+    <hyperlink ref="B952" r:id="rId1782" display="https://pan.baidu.com/s/1CFZjktYby4FyM0uSlT5_aA?pwd=id74"/>
+    <hyperlink ref="B951" r:id="rId1783" display="https://pan.baidu.com/s/1x5uwBjHaDJbFx63wFU1ajQ?pwd=6mq8"/>
+    <hyperlink ref="B955" r:id="rId1784" display="https://pan.baidu.com/s/1lcUVaHOqCqPw57qLQGX5fw?pwd=g6ix"/>
+    <hyperlink ref="B965" r:id="rId1785" display="https://pan.baidu.com/s/1fQawLkGJwIve_4Kb0Fqb8g?pwd=rrcp"/>
+    <hyperlink ref="B982" r:id="rId1786" display="https://pan.baidu.com/s/1UsbLY7tBZXFG6q-G-46WRA?pwd=msus"/>
+    <hyperlink ref="B977" r:id="rId1787" display="https://pan.baidu.com/s/1HYXNFT53ZI7yiCuaqm_NgQ?pwd=pkfa"/>
+    <hyperlink ref="B966" r:id="rId1788" display="https://pan.baidu.com/s/1ETff18cU62nj4aNMPK9d6Q?pwd=vd31"/>
+    <hyperlink ref="B967" r:id="rId1789" display="https://pan.baidu.com/s/1ELTTResTbGHQlkRUD7RXyg?pwd=pfdf"/>
+    <hyperlink ref="C1034" r:id="rId1790" display="https://pan.quark.cn/s/086e2057da26"/>
+    <hyperlink ref="B1034" r:id="rId1791" display="https://pan.baidu.com/s/1GCP3GMo_q-xubBrsPnajfA?pwd=muuc"/>
+    <hyperlink ref="C1035" r:id="rId1792" display="https://pan.quark.cn/s/f403d7abf89c"/>
+    <hyperlink ref="C1036" r:id="rId1793" display="https://pan.quark.cn/s/f02b4c86b2e7"/>
+    <hyperlink ref="C1037" r:id="rId1794" display="https://pan.quark.cn/s/1dd4b66ab99e"/>
+    <hyperlink ref="C1038" r:id="rId1795" display="https://pan.quark.cn/s/f7e1c0f5e78b"/>
+    <hyperlink ref="C1039" r:id="rId1796" display="https://pan.quark.cn/s/d1db8e25c067"/>
+    <hyperlink ref="C1040" r:id="rId1797" display="https://pan.quark.cn/s/3d3615f1d2c5"/>
+    <hyperlink ref="C1041" r:id="rId1798" display="https://pan.quark.cn/s/834d8bba65e8"/>
+    <hyperlink ref="C1042" r:id="rId1799" display="https://pan.quark.cn/s/0905531794d2"/>
+    <hyperlink ref="C1043" r:id="rId1800" display="https://pan.quark.cn/s/703c11b930ec"/>
+    <hyperlink ref="C1044" r:id="rId1801" display="https://pan.quark.cn/s/c7fcdf43280d"/>
+    <hyperlink ref="C1045" r:id="rId1802" display="https://pan.quark.cn/s/d87ac7ade4af"/>
+    <hyperlink ref="C1046" r:id="rId1803" display="https://pan.quark.cn/s/a1aa5821acd8"/>
+    <hyperlink ref="C1048" r:id="rId1804" display="https://pan.quark.cn/s/539cf4a505b1"/>
+    <hyperlink ref="C1049" r:id="rId1805" display="https://pan.quark.cn/s/aaee459e9e25"/>
+    <hyperlink ref="C1050" r:id="rId1806" display="https://pan.quark.cn/s/72adcf8846cd"/>
+    <hyperlink ref="C1051" r:id="rId1807" display="https://pan.quark.cn/s/88c05bf3a116"/>
+    <hyperlink ref="C1052" r:id="rId1808" display="https://pan.quark.cn/s/b706f27e5e0a"/>
+    <hyperlink ref="C1047" r:id="rId1809" display="https://pan.quark.cn/s/7bc74daf9182"/>
+    <hyperlink ref="C1053" r:id="rId1810" display="https://pan.quark.cn/s/15d0f03a2a34"/>
+    <hyperlink ref="C1054" r:id="rId1811" display="https://pan.quark.cn/s/820c336f159a"/>
+    <hyperlink ref="C1055" r:id="rId1812" display="https://pan.quark.cn/s/af1cd2b45ae7"/>
+    <hyperlink ref="C1056" r:id="rId1813" display="https://pan.quark.cn/s/12cb8a9ab6f7"/>
+    <hyperlink ref="C1057" r:id="rId1814" display="https://pan.quark.cn/s/1ab680233003"/>
+    <hyperlink ref="C1058" r:id="rId1815" display="https://pan.quark.cn/s/afb9665ecc97"/>
+    <hyperlink ref="C1059" r:id="rId1816" display="https://pan.quark.cn/s/f6a7062371b9"/>
+    <hyperlink ref="C1060" r:id="rId1817" display="https://pan.quark.cn/s/f83b38e5348d"/>
+    <hyperlink ref="C1061" r:id="rId1818" display="https://pan.quark.cn/s/ab139dd3f00d"/>
+    <hyperlink ref="C1062" r:id="rId1819" display="https://pan.quark.cn/s/b15e09c41c31"/>
+    <hyperlink ref="C1063" r:id="rId1820" display="https://pan.quark.cn/s/4a6f7bf77a22"/>
+    <hyperlink ref="B1063" r:id="rId1821" display="https://pan.baidu.com/s/1v-1zuDbH6OgSBhcLRbfkKQ?pwd=yfk6"/>
+    <hyperlink ref="C1064" r:id="rId1822" display="https://pan.quark.cn/s/513130ff73e7"/>
+    <hyperlink ref="C1065" r:id="rId1823" display="https://pan.quark.cn/s/7eb477e28409"/>
+    <hyperlink ref="C1066" r:id="rId1824" display="https://pan.quark.cn/s/323bdf27c276"/>
+    <hyperlink ref="C1067" r:id="rId1825" display="https://pan.quark.cn/s/77ddcc38fae7"/>
+    <hyperlink ref="C1068" r:id="rId1826" display="https://pan.quark.cn/s/7844fdf8b20f"/>
+    <hyperlink ref="C1069" r:id="rId1827" display="https://pan.quark.cn/s/444de1251561"/>
+    <hyperlink ref="C1070" r:id="rId1828" display="https://pan.quark.cn/s/02a39978269e"/>
+    <hyperlink ref="C1071" r:id="rId1829" display="https://pan.quark.cn/s/1241fb589a9c"/>
+    <hyperlink ref="C1072" r:id="rId1830" display="https://pan.quark.cn/s/1a917a28ef4c"/>
+    <hyperlink ref="C1073" r:id="rId1831" display="https://pan.quark.cn/s/69c717915d74"/>
+    <hyperlink ref="C1074" r:id="rId1832" display="https://pan.quark.cn/s/9dfbd48be001"/>
+    <hyperlink ref="C1075" r:id="rId1833" display="https://pan.quark.cn/s/c711f3f126e1"/>
+    <hyperlink ref="C1076" r:id="rId1834" display="https://pan.quark.cn/s/9fdf5036e88f"/>
+    <hyperlink ref="C1077" r:id="rId1835" display="https://pan.quark.cn/s/156b1c232b3d"/>
+    <hyperlink ref="C1078" r:id="rId1836" display="https://pan.quark.cn/s/f18515b905cd"/>
+    <hyperlink ref="C1079" r:id="rId1837" display="https://pan.quark.cn/s/67514fadf208"/>
+    <hyperlink ref="C1080" r:id="rId1838" display="https://pan.quark.cn/s/7d5b13c09f68"/>
+    <hyperlink ref="C1081" r:id="rId1839" display="https://pan.quark.cn/s/a79ea2399cb0"/>
+    <hyperlink ref="C1082" r:id="rId1840" display="https://pan.quark.cn/s/67cce2278bd8"/>
+    <hyperlink ref="C1083" r:id="rId1841" display="https://pan.quark.cn/s/dd7f56be1c9b"/>
+    <hyperlink ref="C1084" r:id="rId1842" display="https://pan.quark.cn/s/35e5dab032a9"/>
+    <hyperlink ref="C1085" r:id="rId1843" display="https://pan.quark.cn/s/1599d131489f"/>
+    <hyperlink ref="C1086" r:id="rId1844" display="https://pan.quark.cn/s/cecb0a04d7c8"/>
+    <hyperlink ref="C1087" r:id="rId1845" display="https://pan.quark.cn/s/1de84f856347"/>
+    <hyperlink ref="C1088" r:id="rId1846" display="https://pan.quark.cn/s/0d72aefa23b7"/>
+    <hyperlink ref="C1089" r:id="rId1847" display="https://pan.quark.cn/s/1333a12b087a"/>
+    <hyperlink ref="C1092" r:id="rId1848" display="https://pan.quark.cn/s/815e28ad9b45"/>
+    <hyperlink ref="C1093" r:id="rId1849" display="https://pan.quark.cn/s/d6fc7b080a81"/>
+    <hyperlink ref="C1094" r:id="rId1850" display="https://pan.quark.cn/s/e463bad9b9f2"/>
+    <hyperlink ref="C1095" r:id="rId1851" display="https://pan.quark.cn/s/5a90e724d31f"/>
+    <hyperlink ref="C1096" r:id="rId1852" display="https://pan.quark.cn/s/867ba9296d1f"/>
+    <hyperlink ref="C1090" r:id="rId1853" display="https://pan.quark.cn/s/252af63fed7a"/>
+    <hyperlink ref="C1091" r:id="rId1854" display="https://pan.quark.cn/s/75e1bba6798b"/>
+    <hyperlink ref="C1097" r:id="rId1855" display="https://pan.quark.cn/s/6c6d7773234b"/>
+    <hyperlink ref="C1098" r:id="rId1856" display="https://pan.quark.cn/s/feb0c3e86d81"/>
+    <hyperlink ref="C1099" r:id="rId1857" display="https://pan.quark.cn/s/a37ab08d473a"/>
+    <hyperlink ref="C1100" r:id="rId1858" display="https://pan.quark.cn/s/74a2ef4310d8"/>
+    <hyperlink ref="C1101" r:id="rId1859" display="https://pan.quark.cn/s/9cf558537686"/>
+    <hyperlink ref="C1102" r:id="rId1860" display="https://pan.quark.cn/s/f1835c9c24dd"/>
+    <hyperlink ref="C1103" r:id="rId1861" display="https://pan.quark.cn/s/26727e1cb37a"/>
+    <hyperlink ref="C1104" r:id="rId1862" display="https://pan.quark.cn/s/9db62faf15ac"/>
+    <hyperlink ref="C1105" r:id="rId1863" display="https://pan.quark.cn/s/cedb1190cac5"/>
+    <hyperlink ref="C455" r:id="rId1864" display="https://pan.quark.cn/s/f0613f82f18b"/>
+    <hyperlink ref="C339" r:id="rId1865" display="https://pan.quark.cn/s/1199be461e05"/>
+    <hyperlink ref="C1106" r:id="rId1866" display="https://pan.quark.cn/s/eb03693f9216"/>
+    <hyperlink ref="B1104" r:id="rId1867" display="https://pan.baidu.com/s/1UDAeCYCjbgPJ3wzSiAUD2Q?pwd=9kea"/>
+    <hyperlink ref="B1103" r:id="rId1868" display="https://pan.baidu.com/s/13K4KbC92AUfomsTcwDfT7Q?pwd=m7bs"/>
+    <hyperlink ref="B1102" r:id="rId1869" display="https://pan.baidu.com/s/1aP0jTTJ3GWUeNiF2ETyKTQ?pwd=xge7"/>
+    <hyperlink ref="B1097" r:id="rId1870" display="https://pan.baidu.com/s/1lMrKAiuRdaRIXQEki8BB1w?pwd=buri"/>
+    <hyperlink ref="B1095" r:id="rId1871" display="https://pan.baidu.com/s/1wKyn7S0OcFDr6gJ37Bl4uA?pwd=cu2f"/>
+    <hyperlink ref="B1092" r:id="rId1872" display="https://pan.baidu.com/s/1eAbrZsX2CVK6eHt8_CvmZw?pwd=m9bh"/>
+    <hyperlink ref="B1094" r:id="rId1873" display="https://pan.baidu.com/s/1bmfkTaFxFc6feyu297ry3g?pwd=fs34"/>
+    <hyperlink ref="B1087" r:id="rId1874" display="https://pan.baidu.com/s/1IHZIt795oy7la_bi8Dzi6g?pwd=g8iw"/>
+    <hyperlink ref="B1086" r:id="rId1875" display="https://pan.baidu.com/s/1hEzvFJQsDFe-eXssAkosBA?pwd=iaeg"/>
+    <hyperlink ref="B1082" r:id="rId1876" display="https://pan.baidu.com/s/19lCfQsdlInbDS6t5OwU2aA?pwd=jihu"/>
+    <hyperlink ref="B1081" r:id="rId1877" display="https://pan.baidu.com/s/1tjNT9dLV4Yb6oQ2hi2sDxw?pwd=8n6h"/>
+    <hyperlink ref="B1076" r:id="rId1878" display="https://pan.baidu.com/s/1klbOJY8YNfHnNGTyV4Q7Qg?pwd=8zk8"/>
+    <hyperlink ref="B1077" r:id="rId1879" display="https://pan.baidu.com/s/1QdHucRTz13t-L70nc4Zetg?pwd=a7jb"/>
+    <hyperlink ref="B1079" r:id="rId1880" display="https://pan.baidu.com/s/1DVs8nck2jzOui6BAwY406Q?pwd=2n3y"/>
+    <hyperlink ref="B1059" r:id="rId1881" display="https://pan.baidu.com/s/1Z8tnJ8z4EZN2cOUggyF8sA?pwd=hyj2"/>
+    <hyperlink ref="B1058" r:id="rId1882" display="https://pan.baidu.com/s/1BAYB2rFe_i7QMyGDdVLnzg?pwd=83cm"/>
+    <hyperlink ref="C1107" r:id="rId1883" display="https://pan.quark.cn/s/f8bf1c4d1ec9"/>
+    <hyperlink ref="B971" r:id="rId1884" display="https://pan.baidu.com/s/1ikHRwXfCPWmszt5TphYZVQ?pwd=x3ae"/>
+    <hyperlink ref="C1108" r:id="rId1885" display="https://pan.quark.cn/s/a3d012a58dcd"/>
+    <hyperlink ref="B1106" r:id="rId1886" display="https://pan.baidu.com/s/12RYzbays8zo3eVgmzXOroA?pwd=a89i"/>
+    <hyperlink ref="B989" r:id="rId1887" display="https://pan.baidu.com/s/142Y8DixqQnSJIHUMa2IrIg?pwd=dr71"/>
+    <hyperlink ref="B1109" r:id="rId1888" display="https://pan.baidu.com/s/1ejALgjXsuqtY6FT7tNTbiw?pwd=9s7h"/>
+    <hyperlink ref="C1109" r:id="rId1889" display="https://pan.quark.cn/s/b12eb08585a1"/>
+    <hyperlink ref="C1110" r:id="rId1890" display="https://pan.quark.cn/s/3f5841e83616"/>
+    <hyperlink ref="B1110" r:id="rId1891" display="https://pan.baidu.com/s/1dt0Dth8e3P7muohCOss6CA?pwd=eemk"/>
+    <hyperlink ref="C1111" r:id="rId1892" display="https://pan.quark.cn/s/dc1d1d215b3f"/>
+    <hyperlink ref="B1111" r:id="rId1893" display="https://pan.baidu.com/s/19Y91wwDFzQacWuxjZ3y7fw?pwd=xmnb"/>
+    <hyperlink ref="B1108" r:id="rId1894" display="https://pan.baidu.com/s/1_XTUiVG9g1nYgnLBLByeCA?pwd=5v96"/>
+    <hyperlink ref="B964" r:id="rId1895" display="https://pan.baidu.com/s/1aZvY6vXymlFu3kVF7OFXgw?pwd=bi6n"/>
+    <hyperlink ref="B974" r:id="rId1896" display="https://pan.baidu.com/s/126BVJwr1GaUp48_5sZUfCQ?pwd=5cbu"/>
+    <hyperlink ref="B981" r:id="rId1897" display="https://pan.baidu.com/s/1zdLec7lOSZ3kiAd4gg6i_g?pwd=y8tj"/>
+    <hyperlink ref="B956" r:id="rId1898" display="https://pan.baidu.com/s/15piO45bMRTbK2ss7ht5e_Q?pwd=wfnx"/>
+    <hyperlink ref="C957" r:id="rId1899" display="https://pan.quark.cn/s/b48b34aa2f1f"/>
+    <hyperlink ref="B957" r:id="rId1900" display="https://pan.baidu.com/s/1uxqdUT_sRYe6Trv1lLtOTg?pwd=nqnu"/>
+    <hyperlink ref="B983" r:id="rId1901" display="https://pan.baidu.com/s/1Wkd5R_ZLLM94TjtPHCvX6A?pwd=xba5"/>
+    <hyperlink ref="B958" r:id="rId1902" display="https://pan.baidu.com/s/1UDew5yo7ExChmDkkDp-eWA?pwd=u9x6"/>
+    <hyperlink ref="B953" r:id="rId1903" display="https://pan.baidu.com/s/1fd6pMJFRMLVkVxkOVvyzKA?pwd=2eij"/>
+    <hyperlink ref="B954" r:id="rId1904" display="https://pan.baidu.com/s/1BG3jvAcctMTAgrLQSD-55Q?pwd=ahmv"/>
+    <hyperlink ref="B959" r:id="rId1905" display="https://pan.baidu.com/s/1zWdZsmZldBIecvS2Os6tSg?pwd=h5at"/>
+    <hyperlink ref="B960" r:id="rId1906" display="https://pan.baidu.com/s/1G9c1Dm5vg1n3ZL5LFezMYw?pwd=hfri"/>
+    <hyperlink ref="B961" r:id="rId1907" display="https://pan.baidu.com/s/130VU5URbM8-hBdHrfn9yZw?pwd=m5rw"/>
+    <hyperlink ref="B962" r:id="rId1908" display="https://pan.baidu.com/s/1ayBKmSsgcplyyp6MDcYseQ?pwd=jyhy"/>
+    <hyperlink ref="B963" r:id="rId1909" display="https://pan.baidu.com/s/1_sGqbF3xte8TnBqs2b2DTg?pwd=hh23"/>
+    <hyperlink ref="B968" r:id="rId1910" display="https://pan.baidu.com/s/1s9nSkvivCHwk0AmyqqG_Vg?pwd=yira"/>
+    <hyperlink ref="B969" r:id="rId1911" display="https://pan.baidu.com/s/1LZVUSxbSkkRdTDwCdFm4IQ?pwd=kakk"/>
+    <hyperlink ref="B970" r:id="rId1912" display="https://pan.baidu.com/s/1q4Pxwue5XV1ntFC3FP5tZw?pwd=63jg"/>
+    <hyperlink ref="B972" r:id="rId1913" display="https://pan.baidu.com/s/1TC-ME8pPVeRJ-FWCNgYU3Q?pwd=gmm6"/>
+    <hyperlink ref="B973" r:id="rId1914" display="https://pan.baidu.com/s/1eeVTszVbLd0nI8aGIMYieg?pwd=xmc8"/>
+    <hyperlink ref="B975" r:id="rId1915" display="https://pan.baidu.com/s/1nBz1qr1fL2f6ZhCIYp3IUA?pwd=6siv"/>
+    <hyperlink ref="B976" r:id="rId1916" display="https://pan.baidu.com/s/1ACXQ5h3dgeQK5uee46UbWg?pwd=8vme"/>
+    <hyperlink ref="B978" r:id="rId1917" display="https://pan.baidu.com/s/1yHkS8hlotIbpMlB36qR9wg?pwd=v87i"/>
+    <hyperlink ref="B979" r:id="rId1918" display="https://pan.baidu.com/s/1l7r1uNV5XLM8Vt7fzvKQRA?pwd=1pfg"/>
+    <hyperlink ref="B980" r:id="rId1919" display="https://pan.baidu.com/s/1LybsCzLMu8zEDJVyFE42Cw?pwd=5dx1"/>
+    <hyperlink ref="B984" r:id="rId1920" display="https://pan.baidu.com/s/1EY1MbNz1zvYimNHJRUYJIg?pwd=78p3"/>
+    <hyperlink ref="B985" r:id="rId1921" display="https://pan.baidu.com/s/16FrDJ6FUL0zDk38UwEAdGA?pwd=ydai"/>
+    <hyperlink ref="B986" r:id="rId1922" display="https://pan.baidu.com/s/158XM2O94XZ6DiOYEkzdrxA?pwd=kqk4"/>
+    <hyperlink ref="B987" r:id="rId1923" display="https://pan.baidu.com/s/1R7Bnu0243w3ha14J3SCfBw?pwd=qwgs"/>
+    <hyperlink ref="B990" r:id="rId1924" display="https://pan.baidu.com/s/1VIgWDURRmWjuaJHBGiN_zw?pwd=jj8r"/>
+    <hyperlink ref="B992" r:id="rId1925" display="https://pan.baidu.com/s/1qyOGP7EPsswAJG0wKR58Xg?pwd=k84u"/>
+    <hyperlink ref="B993" r:id="rId1926" display="https://pan.baidu.com/s/1E90IbhmNmJEsU2qLz251QA?pwd=3zes"/>
+    <hyperlink ref="B994" r:id="rId1927" display="https://pan.baidu.com/s/18FfCaIRy5ecDf0wTcXI1Zw?pwd=6xk3"/>
+    <hyperlink ref="B995" r:id="rId1928" display="https://pan.baidu.com/s/1968g-wiNFerx4CI0ZxcrxA?pwd=6ni7"/>
+    <hyperlink ref="B996" r:id="rId1929" display="https://pan.baidu.com/s/1DEPa_u-ee68crw0M-HsD4w?pwd=qy4k"/>
+    <hyperlink ref="B997" r:id="rId1930" display="https://pan.baidu.com/s/1vQAgT5lkqu4pZEmJMyaqqw?pwd=nm6y"/>
+    <hyperlink ref="B998" r:id="rId1931" display="https://pan.baidu.com/s/1XiqhpBXkKnlqZij42vCIDw?pwd=7bey"/>
+    <hyperlink ref="B999" r:id="rId1932" display="https://pan.baidu.com/s/1xUxmAC8csmjR1lPl64gJEA?pwd=czm8"/>
+    <hyperlink ref="B1000" r:id="rId1933" display="https://pan.baidu.com/s/1tpuJoYUxxS2qIqxcM-YYMQ?pwd=ycyh"/>
+    <hyperlink ref="B1001" r:id="rId1934" display="https://pan.baidu.com/s/1DOf2URYUmD1h4Jc6FNdzYw?pwd=qdqb"/>
+    <hyperlink ref="B1002" r:id="rId1935" display="https://pan.baidu.com/s/1-lCR9pcViQVoeZZG7Q8k4Q?pwd=b9bc"/>
+    <hyperlink ref="B1003" r:id="rId1936" display="https://pan.baidu.com/s/1FXVDlyRegyciqA_o3aZ9og?pwd=rz5n"/>
+    <hyperlink ref="B1004" r:id="rId1937" display="https://pan.baidu.com/s/1ev2kyJGHiSIjZGxkFK6tNA?pwd=sraj"/>
+    <hyperlink ref="B1005" r:id="rId1938" display="https://pan.baidu.com/s/1xqL8fE9HI781oam6raCmig?pwd=kifc"/>
+    <hyperlink ref="B1006" r:id="rId1939" display="https://pan.baidu.com/s/10omJRo8joYXealADqnkaFA?pwd=cft6"/>
+    <hyperlink ref="B1007" r:id="rId1940" display="https://pan.baidu.com/s/18V4fzcaihgHC8SRHN2CASQ?pwd=3e2g"/>
+    <hyperlink ref="B1089" r:id="rId1941" display="https://pan.baidu.com/s/1pNn0Kt2PbjP-MnZPk7hCvA?pwd=ym42"/>
+    <hyperlink ref="B1088" r:id="rId1942" display="https://pan.baidu.com/s/1gLz_JFqSC7I7CyefNW0FWg?pwd=an2n"/>
+    <hyperlink ref="B1090" r:id="rId1943" display="https://pan.baidu.com/s/1A2_9dtIVEayXGdG9Nktoxg?pwd=da6p"/>
+    <hyperlink ref="B1091" r:id="rId1944" display="https://pan.baidu.com/s/1nO6RKTbB7LCIzki_74zrEQ?pwd=1ns4"/>
+    <hyperlink ref="C418" r:id="rId1945" display="https://pan.quark.cn/s/0f9d8a9cee85"/>
+    <hyperlink ref="C419" r:id="rId1946" display="https://pan.quark.cn/s/200d05cd1c4d"/>
+    <hyperlink ref="B419" r:id="rId1947" display="https://pan.baidu.com/s/1GG_b0pWEEEbxrqVoEkWRPA?pwd=sfe4"/>
+    <hyperlink ref="B418" r:id="rId1948" display="https://pan.baidu.com/s/1BNo4adDfNoIn5IertPgxTg?pwd=nsx9"/>
+    <hyperlink ref="C420" r:id="rId1949" display="https://pan.quark.cn/s/a96caa6e4c37"/>
+    <hyperlink ref="C421" r:id="rId1950" display="https://pan.quark.cn/s/8ab3c7edb183"/>
+    <hyperlink ref="B420" r:id="rId1951" display="https://pan.baidu.com/s/1Na4e9uDE4CIAIanj92XGcA?pwd=defc"/>
+    <hyperlink ref="B421" r:id="rId1952" display="https://pan.baidu.com/s/1C4uAiPXXEcBaYhO2fEc4dA?pwd=f8fd"/>
+    <hyperlink ref="C422" r:id="rId1953" display="https://pan.quark.cn/s/00d9b3c4115f"/>
+    <hyperlink ref="C423" r:id="rId1954" display="https://pan.quark.cn/s/635aa9ac2359"/>
+    <hyperlink ref="C424" r:id="rId1955" display="https://pan.quark.cn/s/7dadf9d35286"/>
+    <hyperlink ref="B422" r:id="rId1956" display="https://pan.baidu.com/s/1jyHG1q1thA0-RcXAAqlJBA?pwd=rbgk"/>
+    <hyperlink ref="C22" r:id="rId1957" display="https://pan.quark.cn/s/f303c0389fe6"/>
+    <hyperlink ref="B22" r:id="rId1958" display="https://pan.baidu.com/s/1p6eJ8CpGELzl68K8Y33Urw?pwd=49pi"/>
+    <hyperlink ref="C21" r:id="rId1959" display="https://pan.quark.cn/s/2fa947e5582e"/>
+    <hyperlink ref="B21" r:id="rId1960" display="https://pan.baidu.com/s/16i03143xKXGmpQKSflNyoA?pwd=tca9"/>
+    <hyperlink ref="C1112" r:id="rId1961" display="https://pan.quark.cn/s/eb3c3d807291"/>
+    <hyperlink ref="B1112" r:id="rId1962" display="https://pan.baidu.com/s/10j4s9eumqmQx4qMbJgKOuw?pwd=73sg"/>
+    <hyperlink ref="C1113" r:id="rId1963" display="https://pan.quark.cn/s/f6e6a2bc49e5"/>
+    <hyperlink ref="B1114" r:id="rId1964" display="https://pan.baidu.com/s/1jm4lgjVk0hFC8d5Xu63qNQ?pwd=gw37"/>
+    <hyperlink ref="C1115" r:id="rId1965" display="https://pan.quark.cn/s/8580cedb8aa9"/>
+    <hyperlink ref="B1115" r:id="rId1966" display="https://pan.baidu.com/s/17Fc1tgdoOsCodMpfBIRlfg?pwd=naxx"/>
+    <hyperlink ref="B1116" r:id="rId1967" display="https://pan.baidu.com/s/1NUVkFBYJFWOWGNOedUxf3w?pwd=txwu"/>
+    <hyperlink ref="C1116" r:id="rId1968" display="https://pan.quark.cn/s/31d268d4ed0c"/>
+    <hyperlink ref="C1117" r:id="rId1969" display="https://pan.quark.cn/s/ece99163537f"/>
+    <hyperlink ref="B1117" r:id="rId1970" display="https://pan.baidu.com/s/1JklHtvLC0NoVmQ0kZHGCHQ?pwd=tt9p"/>
+    <hyperlink ref="B1118" r:id="rId1971" display="https://pan.baidu.com/s/1I9jX4EIHxuFLULS9yewrEQ?pwd=63ga"/>
+    <hyperlink ref="C1118" r:id="rId1972" display="https://pan.quark.cn/s/75b7b79d03f8"/>
+    <hyperlink ref="C1119" r:id="rId1973" display="https://pan.quark.cn/s/9bb896c69dbe"/>
+    <hyperlink ref="B1119" r:id="rId1974" display="https://pan.baidu.com/s/1PCPXVGR-67W8UT27IFfBBg?pwd=a3fh"/>
+    <hyperlink ref="C1120" r:id="rId1975" display="https://pan.quark.cn/s/a802c4cd72ce"/>
+    <hyperlink ref="B1120" r:id="rId1976" display="https://pan.baidu.com/s/1sJcLKuTNepgfe_M3bHtdxw?pwd=wity"/>
+    <hyperlink ref="C1121" r:id="rId1977" display="https://pan.quark.cn/s/872e942d303e"/>
+    <hyperlink ref="B1121" r:id="rId1978" display="https://pan.baidu.com/s/182CcMm7WYJMdGbHVeoGABw?pwd=cv3j"/>
+    <hyperlink ref="C1122" r:id="rId1979" display="https://pan.quark.cn/s/1770bb33c2e2"/>
+    <hyperlink ref="B1122" r:id="rId1980" display="https://pan.baidu.com/s/1qCJpHwG3NcjcxhSABDlU4g?pwd=52bb"/>
+    <hyperlink ref="C1123" r:id="rId1981" display="https://pan.quark.cn/s/f54c710a4fd2"/>
+    <hyperlink ref="B1123" r:id="rId1982" display="https://pan.baidu.com/s/1TSuVH6FG_y11kV3Vp-j6gQ?pwd=dqrb"/>
+    <hyperlink ref="C1124" r:id="rId1983" display="https://pan.quark.cn/s/d26e8bc7ff41"/>
+    <hyperlink ref="B1124" r:id="rId1984" display="https://pan.baidu.com/s/1aijq-qRhT3C0XVL4oxYBpA?pwd=yksd"/>
+    <hyperlink ref="C1125" r:id="rId1985" display="https://pan.quark.cn/s/e658e581ab7e"/>
+    <hyperlink ref="B1125" r:id="rId1986" display="https://pan.baidu.com/s/10uCPpwJpFt3lmaNlMVTBww?pwd=hrtq"/>
+    <hyperlink ref="C1126" r:id="rId1987" display="https://pan.quark.cn/s/8e4ce3dd1241"/>
+    <hyperlink ref="B1126" r:id="rId1988" display="https://pan.baidu.com/s/1jaaLKTJB_UkWhs0_964vXg?pwd=r67r"/>
+    <hyperlink ref="C1127" r:id="rId1989" display="https://pan.quark.cn/s/245c710a9de2"/>
+    <hyperlink ref="B1127" r:id="rId1990" display="https://pan.baidu.com/s/1FMZiekzmMd0D3dwjqd1Rjw?pwd=srbj"/>
+    <hyperlink ref="C1128" r:id="rId1991" display="https://pan.quark.cn/s/565c8c4d411f"/>
+    <hyperlink ref="B1128" r:id="rId1992" display="https://pan.baidu.com/s/14mm7dyMb4TmCE3Fhpv64Zg?pwd=mi2v"/>
+    <hyperlink ref="C1129" r:id="rId1993" display="https://pan.quark.cn/s/1749f0f1ec91"/>
+    <hyperlink ref="B1130" r:id="rId1994" display="https://pan.baidu.com/s/1qZzSyX82GSAMVgwdzey5nA?pwd=27ka"/>
+    <hyperlink ref="C1131" r:id="rId1995" display="https://pan.quark.cn/s/f98db9385f82"/>
+    <hyperlink ref="B1132" r:id="rId1996" display="https://pan.baidu.com/s/10v7DOLb20vV2jVDUjmCdfg?pwd=4tzp"/>
+    <hyperlink ref="C1132" r:id="rId1997" display="https://pan.quark.cn/s/9abc920628f5"/>
+    <hyperlink ref="C368" r:id="rId1998" display="https://pan.quark.cn/s/180e94bfb2c6"/>
+    <hyperlink ref="B368" r:id="rId1999" display="https://pan.baidu.com/s/1F5V0Q65l0vk8GUdGUHxXtQ?pwd=1t4v"/>
+    <hyperlink ref="C1133" r:id="rId2000" display="https://pan.quark.cn/s/210dad6a62c8"/>
+    <hyperlink ref="B1133" r:id="rId2001" display="https://pan.baidu.com/s/14XBl6fFT2s1K-abBS-_KaA?pwd=jnmj"/>
+    <hyperlink ref="B1134" r:id="rId2002" display="https://pan.baidu.com/s/1HIBCHsEa0iu4eCh3BdQlGQ?pwd=7be4"/>
+    <hyperlink ref="C1135" r:id="rId2003" display="https://pan.quark.cn/s/d4957dcb46e1"/>
+    <hyperlink ref="C1136" r:id="rId2004" display="https://pan.quark.cn/s/62808068e157"/>
+    <hyperlink ref="B1137" r:id="rId2005" display="https://pan.baidu.com/s/1ahd3iW1w-LZWqsyo-Ql9Iw?pwd=a24q"/>
+    <hyperlink ref="C1137" r:id="rId2006" display="https://pan.quark.cn/s/77ff15a4a14f"/>
+    <hyperlink ref="C1138" r:id="rId2007" display="https://pan.quark.cn/s/1757d31faa59"/>
+    <hyperlink ref="B1138" r:id="rId2008" display="https://pan.baidu.com/s/1Zkvn4wLLx8cjhaGF13Ldow?pwd=djpc"/>
+    <hyperlink ref="B514" r:id="rId2009" display="https://pan.baidu.com/s/1-G9bVi2eNS-9iocmufERSA?pwd=1ju2"/>
+    <hyperlink ref="C695" r:id="rId2010" display="https://pan.quark.cn/s/fe23b590f836"/>
+    <hyperlink ref="C191" r:id="rId2011" display="https://pan.quark.cn/s/4025780c4de0"/>
+    <hyperlink ref="C194" r:id="rId2012" display="https://pan.quark.cn/s/5885ba601c19"/>
+    <hyperlink ref="B194" r:id="rId2013" display="https://pan.baidu.com/s/1JPAXUSL6gofegfUXEzLLTA?pwd=mp3x"/>
+    <hyperlink ref="B1139" r:id="rId2014" display="https://pan.baidu.com/s/1lvVbVuO4Wve8AyFjfysUZA?pwd=xx2i"/>
+    <hyperlink ref="C1139" r:id="rId2015" display="https://pan.quark.cn/s/4ef912e3a8d9"/>
+    <hyperlink ref="B1140" r:id="rId2016" display="https://pan.baidu.com/s/1NqghiTWmR_SSO2t6t9_42w?pwd=xxe3"/>
+    <hyperlink ref="C1140" r:id="rId2017" display="https://pan.quark.cn/s/e68dcf76c699"/>
+    <hyperlink ref="C1141" r:id="rId2018" display="https://pan.quark.cn/s/b0e80df743e8"/>
+    <hyperlink ref="B1141" r:id="rId2019" display="https://pan.baidu.com/s/1-QPTWGOns2san8ni3cIiXw?pwd=xjkx"/>
+    <hyperlink ref="B1142" r:id="rId2020" display="https://pan.baidu.com/s/1V4gSgZ6H_7xNtbnIcTYBPQ?pwd=w2uk"/>
+    <hyperlink ref="C1142" r:id="rId2021" display="https://pan.quark.cn/s/7a6de9fb1b4d"/>
+    <hyperlink ref="C1143" r:id="rId2022" display="https://pan.quark.cn/s/b48214d64c98"/>
+    <hyperlink ref="B1143" r:id="rId2023" display="https://pan.baidu.com/s/1VV8jzs5PEYEJxwZ3mUTUPQ?pwd=28fc"/>
+    <hyperlink ref="C1144" r:id="rId2024" display="https://pan.quark.cn/s/89c61d20b650"/>
+    <hyperlink ref="B1144" r:id="rId2025" display="https://pan.baidu.com/s/1usmT-n_CR1yLZAKvuKYK9g?pwd=9g8b"/>
+    <hyperlink ref="C1145" r:id="rId2026" display="https://pan.quark.cn/s/2c52895758d5"/>
+    <hyperlink ref="C1146" r:id="rId2027" display="https://pan.quark.cn/s/c1ec38d03df4"/>
+    <hyperlink ref="C1147" r:id="rId2028" display="https://pan.quark.cn/s/f546257d0955"/>
+    <hyperlink ref="C1148" r:id="rId2029" display="https://pan.quark.cn/s/e51753b0817a"/>
+    <hyperlink ref="C1149" r:id="rId2030" display="https://pan.quark.cn/s/0f180e0c7813"/>
+    <hyperlink ref="C1150" r:id="rId2031" display="https://pan.quark.cn/s/7f840a94c486"/>
+    <hyperlink ref="C1151" r:id="rId2032" display="https://pan.quark.cn/s/0aa3a962a2ae"/>
+    <hyperlink ref="B1145" r:id="rId2033" display="https://pan.baidu.com/s/1AGkrAXDu3EfioKDDIS45-A?pwd=m1hn"/>
+    <hyperlink ref="B1146" r:id="rId2034" display="https://pan.baidu.com/s/1dkKxcDF854OuErYztJfhUg?pwd=f2tn"/>
+    <hyperlink ref="B1148" r:id="rId2035" display="https://pan.baidu.com/s/1QI_eHs2_xrfg3k28WMDa9Q?pwd=uqwd"/>
+    <hyperlink ref="B1149" r:id="rId2036" display="https://pan.baidu.com/s/13lGEl_tAh-YTG2L5I5agLg?pwd=v88h"/>
+    <hyperlink ref="B1147" r:id="rId2037" display="https://pan.baidu.com/s/1txLNHA0XLzDVhrN8cL41ww?pwd=1n9q"/>
+    <hyperlink ref="B1151" r:id="rId2038" display="https://pan.baidu.com/s/14W2YD2jZzMFpYzj-oU1yxg?pwd=78jj"/>
+    <hyperlink ref="C1152" r:id="rId2039" display="https://pan.quark.cn/s/21c216634756"/>
+    <hyperlink ref="B1152" r:id="rId2040" display="https://pan.baidu.com/s/12hTJ9gCUaUKWeQ494Rft1g?pwd=r2v5"/>
+    <hyperlink ref="C1153" r:id="rId2041" display="https://pan.quark.cn/s/6e64b73d3008"/>
+    <hyperlink ref="B1153" r:id="rId2042" display="https://pan.baidu.com/s/1mDrmBekuR0F8T75a9P6CDQ?pwd=bm41"/>
+    <hyperlink ref="C1154" r:id="rId2043" display="https://pan.quark.cn/s/039158cf8d9d"/>
+    <hyperlink ref="B1154" r:id="rId2044" display="https://pan.baidu.com/s/14Vzo4Y5ngCjUqnYyYzNTSQ?pwd=js2r"/>
+    <hyperlink ref="C1155" r:id="rId2045" display="https://pan.quark.cn/s/2e5d253318fd"/>
+    <hyperlink ref="B1155" r:id="rId2046" display="https://pan.baidu.com/s/1oWuCDrbwuUU4WBGoX_QJ3g?pwd=9dvk"/>
+    <hyperlink ref="C1156" r:id="rId2047" display="https://pan.quark.cn/s/a41512d41319"/>
+    <hyperlink ref="B1156" r:id="rId2048" display="https://pan.baidu.com/s/1F163AUxcKu8tB0pNQUpgcw?pwd=kgug"/>
+    <hyperlink ref="C1157" r:id="rId2049" display="https://pan.quark.cn/s/2cd017457274"/>
+    <hyperlink ref="B1157" r:id="rId2050" display="https://pan.baidu.com/s/1sZoZ1HNDIi7LmYr7Ec4k7g?pwd=51gj"/>
+    <hyperlink ref="C1158" r:id="rId2051" display="https://pan.quark.cn/s/6e10f587a473"/>
+    <hyperlink ref="B1158" r:id="rId2052" display="https://pan.baidu.com/s/1gcfKKd3UP5nikLFlDVpfOw?pwd=zym7"/>
+    <hyperlink ref="C1159" r:id="rId2053" display="https://pan.quark.cn/s/31a2e6356fa4"/>
+    <hyperlink ref="B1159" r:id="rId2054" display="https://pan.baidu.com/s/18vCcrgLMngNusG4AoaVNHQ?pwd=28m3"/>
+    <hyperlink ref="C1160" r:id="rId2055" display="https://pan.quark.cn/s/4d4cceb726e6"/>
+    <hyperlink ref="B1160" r:id="rId2056" display="https://pan.baidu.com/s/1abCnRcEP0tluVdyQK0ZH3Q?pwd=tgh8"/>
+    <hyperlink ref="C1161" r:id="rId2057" display="https://pan.quark.cn/s/80c2dd4884de"/>
+    <hyperlink ref="B1161" r:id="rId2058" display="https://pan.baidu.com/s/1sF2npWspcskh1MUuDKvmTw?pwd=prbu"/>
+    <hyperlink ref="C1162" r:id="rId2059" display="https://pan.quark.cn/s/eba1267dcec3"/>
+    <hyperlink ref="B1162" r:id="rId2060" display="https://pan.baidu.com/s/1H-qwvIiQngWjJUSe3KEo6w?pwd=ktvh"/>
+    <hyperlink ref="C1163" r:id="rId2061" display="https://pan.quark.cn/s/537d0e901a90"/>
+    <hyperlink ref="B1163" r:id="rId2062" display="https://pan.baidu.com/s/1JD6ZXUlrXi5SSns03NA46w?pwd=cp65"/>
+    <hyperlink ref="C1164" r:id="rId2063" display="https://pan.quark.cn/s/491a1f301ea6"/>
+    <hyperlink ref="B1164" r:id="rId2064" display="https://pan.baidu.com/s/19PNjofjCWYJAfymvTIqUDA?pwd=qie5"/>
+    <hyperlink ref="C1165" r:id="rId2065" display="https://pan.quark.cn/s/b8bc4d69d61e"/>
+    <hyperlink ref="B1165" r:id="rId2066" display="https://pan.baidu.com/s/1n69O1V7JrA0Mk--Rl1GGQw?pwd=p5cy"/>
+    <hyperlink ref="C1166" r:id="rId2067" display="https://pan.quark.cn/s/5b1cceb34561"/>
+    <hyperlink ref="B1166" r:id="rId2068" display="https://pan.baidu.com/s/1v_weiv_1Jphq6ojcdP3znw?pwd=72wj"/>
+    <hyperlink ref="C1167" r:id="rId2069" display="https://pan.quark.cn/s/2aacfc1b05c2"/>
+    <hyperlink ref="B1167" r:id="rId2070" display="https://pan.baidu.com/s/1FsyAO1YvwBGdMTaJxDS51Q?pwd=36jq"/>
+    <hyperlink ref="C1168" r:id="rId2071" display="https://pan.quark.cn/s/d3336f1eeb1f"/>
+    <hyperlink ref="B1168" r:id="rId2072" display="https://pan.baidu.com/s/1vyrllnfH8M1mvD5_EsKL-g?pwd=sphw"/>
+    <hyperlink ref="B1169" r:id="rId2073" display="https://pan.baidu.com/s/1q7z2luDgfDj2E3-qW_qe5Q?pwd=d15q"/>
+    <hyperlink ref="C1169" r:id="rId2074" display="https://pan.quark.cn/s/e43f244c10c0"/>
+    <hyperlink ref="C1170" r:id="rId2075" display="https://pan.quark.cn/s/d5a424d24af5"/>
+    <hyperlink ref="B1170" r:id="rId2076" display="https://pan.baidu.com/s/1kRjRePD35VZIE-UvpzIVLA?pwd=ca2b"/>
+    <hyperlink ref="C1171" r:id="rId2077" display="https://pan.quark.cn/s/aea33b26768c"/>
+    <hyperlink ref="B1171" r:id="rId2078" display="https://pan.baidu.com/s/1ofSozh-kfjMzgi8WPYl-9w?pwd=9psb"/>
+    <hyperlink ref="B1172" r:id="rId2079" display="https://pan.baidu.com/s/17z6pPEdUQQDFwBAHp7UJIQ?pwd=qwrs"/>
+    <hyperlink ref="C1173" r:id="rId2080" display="https://pan.quark.cn/s/b506cd40bcc9"/>
+    <hyperlink ref="C1174" r:id="rId2081" display="https://pan.quark.cn/s/3ed9272fe967"/>
+    <hyperlink ref="B1174" r:id="rId2082" display="https://pan.baidu.com/s/1lknHJy7cLu5hoKI5a9HLig?pwd=ku5d"/>
+    <hyperlink ref="C1175" r:id="rId2083" display="https://pan.quark.cn/s/5d2bb996efeb"/>
+    <hyperlink ref="C1176" r:id="rId2084" display="https://pan.quark.cn/s/a2fd357b2b2f"/>
+    <hyperlink ref="B1176" r:id="rId2085" display="https://pan.baidu.com/s/16vgscnds21zqDUZ1Rea_3g?pwd=7naq"/>
+    <hyperlink ref="C1177" r:id="rId2086" display="https://pan.quark.cn/s/ccf0e64495ea"/>
+    <hyperlink ref="C1178" r:id="rId2087" display="https://pan.quark.cn/s/77126378c298"/>
+    <hyperlink ref="B1177" r:id="rId2088" display="https://pan.baidu.com/s/1GiQpovedlr9BWErmIED1RA?pwd=uash"/>
+    <hyperlink ref="B1178" r:id="rId2089" display="https://pan.baidu.com/s/1ulT4ytVu8TwhCIR6Vshr3w?pwd=ysie"/>
+    <hyperlink ref="C1179" r:id="rId2090" display="https://pan.quark.cn/s/4438b4319920"/>
+    <hyperlink ref="C1180" r:id="rId2091" display="https://pan.quark.cn/s/ef66016c8b47"/>
+    <hyperlink ref="B1179" r:id="rId2092" display="https://pan.baidu.com/s/1GeIXF0IOXQKKhf5wQ8mcxA?pwd=ek2w"/>
+    <hyperlink ref="B1180" r:id="rId2093" display="https://pan.baidu.com/s/1dmeksFNoXbJLO7CCREoBsg?pwd=e7ub"/>
+    <hyperlink ref="C1181" r:id="rId2094" display="https://pan.quark.cn/s/075cab7665b4"/>
+    <hyperlink ref="B1182" r:id="rId2095" display="https://pan.baidu.com/s/1L824S7nagu3v3H1Wer40oQ?pwd=h5fm"/>
+    <hyperlink ref="B1183" r:id="rId2096" display="https://pan.baidu.com/s/1VlbucebdW95Rwh4PSabE1Q?pwd=zhwc"/>
+    <hyperlink ref="C1183" r:id="rId2097" display="https://pan.quark.cn/s/9a7bac313ddd"/>
+    <hyperlink ref="B1184" r:id="rId2098" display="https://pan.baidu.com/s/1B5SczPmxtTjrqGWyamRE8g?pwd=b42r"/>
+    <hyperlink ref="C1184" r:id="rId2099" display="https://pan.quark.cn/s/58b95ac1833b"/>
+    <hyperlink ref="B1185" r:id="rId2100" display="https://pan.baidu.com/s/18blLRvTNggbGbMud6Qn0aQ?pwd=vrcg"/>
+    <hyperlink ref="C1185" r:id="rId2101" display="https://pan.quark.cn/s/de21fac08b82"/>
+    <hyperlink ref="B1186" r:id="rId2102" display="https://pan.baidu.com/s/1nifyWLgain91ukK_wV6xdQ?pwd=8r6e"/>
+    <hyperlink ref="C1186" r:id="rId2103" display="https://pan.quark.cn/s/637e5fd258b5"/>
+    <hyperlink ref="B1187" r:id="rId2104" display="https://pan.baidu.com/s/1geo4a4OhoaSh8eCoZpaFng?pwd=s7nx"/>
+    <hyperlink ref="C1187" r:id="rId2105" display="https://pan.quark.cn/s/a398ae1ddfb3"/>
+    <hyperlink ref="C1188" r:id="rId2106" display="https://pan.quark.cn/s/fc2861145a7a"/>
+    <hyperlink ref="B1188" r:id="rId2107" display="https://pan.baidu.com/s/1m42vevNk5VxAZCOV8Vez0w?pwd=kxjg"/>
+    <hyperlink ref="B1189" r:id="rId2108" display="https://pan.baidu.com/s/1NK8kZiPImGbuBDd5u9iszQ?pwd=bw9q"/>
+    <hyperlink ref="C1189" r:id="rId2109" display="https://pan.quark.cn/s/8a0de6bf77ec"/>
+    <hyperlink ref="C1190" r:id="rId2110" display="https://pan.quark.cn/s/b328631a9e94"/>
+    <hyperlink ref="B1190" r:id="rId2111" display="https://pan.baidu.com/s/1LRLocU33oHwW_EJQndLXtw?pwd=krrr"/>
+    <hyperlink ref="C1191" r:id="rId2112" display="https://pan.quark.cn/s/061443a66cd7"/>
+    <hyperlink ref="B1191" r:id="rId2113" display="https://pan.baidu.com/s/1N80FAdHZ3CpcCiHKSmaHqw?pwd=7fi7"/>
+    <hyperlink ref="C1192" r:id="rId2114" display="https://pan.quark.cn/s/53d4555bd723"/>
+    <hyperlink ref="B1192" r:id="rId2115" display="https://pan.baidu.com/s/1H6QWJTvfOjvY_nrwn-2y6g?pwd=tuci"/>
+    <hyperlink ref="C1193" r:id="rId2116" display="https://pan.quark.cn/s/e717d6d8c53e"/>
+    <hyperlink ref="B1193" r:id="rId2117" display="https://pan.baidu.com/s/19dWja0W4qF_LJdnLBhHXpQ?pwd=pzir"/>
+    <hyperlink ref="C1194" r:id="rId2118" display="https://pan.quark.cn/s/9132ddd5d101"/>
+    <hyperlink ref="B1194" r:id="rId2119" display="https://pan.baidu.com/s/1wVnRlUEZuSGLgCV4sNcusw?pwd=qcb1"/>
+    <hyperlink ref="B1195" r:id="rId2120" display="https://pan.baidu.com/s/1c_Y73L9qPtsSZL1bENZlRw?pwd=nmd8"/>
+    <hyperlink ref="C1196" r:id="rId2121" display="https://pan.quark.cn/s/12cd76143cc9"/>
+    <hyperlink ref="B1196" r:id="rId2122" display="https://pan.baidu.com/s/14n7v_bW6yIjmLKr7tBmCbA?pwd=8r3p"/>
+    <hyperlink ref="C1197" r:id="rId2123" display="https://pan.quark.cn/s/230ec9880b0a"/>
+    <hyperlink ref="B1197" r:id="rId2124" display="https://pan.baidu.com/s/1yqKZuK3hdsfCUtIw25S4_w?pwd=m586"/>
+    <hyperlink ref="B875" r:id="rId2125" display="https://pan.baidu.com/s/1B8lzg94qt51oiMRtLJHdHg?pwd=nxpf"/>
+    <hyperlink ref="C1198" r:id="rId2126" display="https://pan.quark.cn/s/8d9805ab0523"/>
+    <hyperlink ref="B1198" r:id="rId2127" display="https://pan.baidu.com/s/1MDVs7y6-wl4sU21Eu597Hw?pwd=449q"/>
+    <hyperlink ref="C1199" r:id="rId2128" display="https://pan.quark.cn/s/9df3271d11d7"/>
+    <hyperlink ref="B1200" r:id="rId2129" display="https://pan.baidu.com/s/1uYB6ayB4FH9Kj6C0HQgrvg?pwd=3p69"/>
+    <hyperlink ref="B1199" r:id="rId2130" display="https://pan.baidu.com/s/1oNxC3hD3lW-27uz3wfu30A?pwd=adsq"/>
+    <hyperlink ref="C1200" r:id="rId2131" display="https://pan.quark.cn/s/1fc4b31883a6"/>
+    <hyperlink ref="C1201" r:id="rId2132" display="https://pan.quark.cn/s/ca7b70125436"/>
+    <hyperlink ref="B1201" r:id="rId2133" display="https://pan.baidu.com/s/1koOeQlASFDqqIxMgizVmiA?pwd=5si3"/>
+    <hyperlink ref="C1202" r:id="rId2134" display="https://pan.quark.cn/s/23bb008fb4f1"/>
+    <hyperlink ref="B1202" r:id="rId2135" display="https://pan.baidu.com/s/16MQHL5cUTR7sFUPz2vFlYg?pwd=v6up"/>
+    <hyperlink ref="C1203" r:id="rId2136" display="https://pan.quark.cn/s/c2f8557cb7ad"/>
+    <hyperlink ref="B1203" r:id="rId2137" display="https://pan.baidu.com/s/1NiTeftPBbq0Gbx7k-Q9zrA?pwd=gf36"/>
+    <hyperlink ref="C1204" r:id="rId2138" display="https://pan.quark.cn/s/1bcefd6afb70"/>
+    <hyperlink ref="B1204" r:id="rId2139" display="https://pan.baidu.com/s/18r7HTm6RAdHNKKignE2Ytw?pwd=i5ue"/>
+    <hyperlink ref="C1205" r:id="rId2140" display="https://pan.quark.cn/s/b06f153cc045"/>
+    <hyperlink ref="B1205" r:id="rId2141" display="https://pan.baidu.com/s/1k4Ke9HyTZjqtK6U8VAuYVw?pwd=a535"/>
+    <hyperlink ref="C1206" r:id="rId2142" display="https://pan.quark.cn/s/b7fe888fe130"/>
+    <hyperlink ref="B1206" r:id="rId2143" display="https://pan.baidu.com/s/1-SlWFztOhtQn3T-gxzAjHw?pwd=85vz"/>
+    <hyperlink ref="C1207" r:id="rId2144" display="https://pan.quark.cn/s/fb39f1982f25"/>
+    <hyperlink ref="B1207" r:id="rId2145" display="https://pan.baidu.com/s/1fkWix48bTmR65XrBGA9KJQ?pwd=diny"/>
+    <hyperlink ref="B1208" r:id="rId2146" display="https://pan.baidu.com/s/1ZUCko6qbrxu0MDrogOstzw?pwd=7ujy"/>
+    <hyperlink ref="C1208" r:id="rId2147" display="https://pan.quark.cn/s/246c23cf906c"/>
+    <hyperlink ref="C1209" r:id="rId2148" display="https://pan.quark.cn/s/fa0046e3df67"/>
+    <hyperlink ref="C1210" r:id="rId2149" display="https://pan.quark.cn/s/b100f8ab845c"/>
+    <hyperlink ref="B1209" r:id="rId2150" display="https://pan.baidu.com/s/1qxNVq8uVirCPp5JuW5TSSg?pwd=v2pc"/>
+    <hyperlink ref="B1210" r:id="rId2151" display="https://pan.baidu.com/s/18nTbPmUALWjteXsYUIBrqA?pwd=vp3k"/>
+    <hyperlink ref="B1211" r:id="rId2152" display="https://pan.baidu.com/s/1U4qC3pApbmes3was4ZAmIA?pwd=bv4b"/>
+    <hyperlink ref="C1211" r:id="rId2153" display="https://pan.quark.cn/s/d2d8e4bdd3f4"/>
+    <hyperlink ref="C1212" r:id="rId2154" display="https://pan.quark.cn/s/d41df111bb49"/>
+    <hyperlink ref="B1212" r:id="rId2155" display="https://pan.baidu.com/s/1IM_71rzjwyzqnvMDbjAnlw?pwd=cfim"/>
+    <hyperlink ref="C1213" r:id="rId2156" display="https://pan.quark.cn/s/97302efd0fca"/>
+    <hyperlink ref="B1213" r:id="rId2157" display="https://pan.baidu.com/s/1VKgJPuwalBJL7BMCPyt5mw?pwd=eicx"/>
+    <hyperlink ref="B1214" r:id="rId2158" display="https://pan.baidu.com/s/1vZC_RWBp-vApX6zteKjEmQ?pwd=d6q8"/>
+    <hyperlink ref="C1214" r:id="rId2159" display="https://pan.quark.cn/s/175f4ff07c60"/>
+    <hyperlink ref="C1215" r:id="rId2160" display="https://pan.quark.cn/s/ab24d9e8dac1"/>
+    <hyperlink ref="B1215" r:id="rId2161" display="https://pan.baidu.com/s/1WDTs7WPHZhLQRfxmuvLTHg?pwd=8m16"/>
+    <hyperlink ref="B1216" r:id="rId2162" display="https://pan.baidu.com/s/1Cfxq9y9llmlcRSdi_ocHtw?pwd=a6zc"/>
+    <hyperlink ref="C1216" r:id="rId2163" display="https://pan.quark.cn/s/9e2648216b43"/>
+    <hyperlink ref="C1217" r:id="rId2164" display="https://pan.quark.cn/s/370c7d0f169e"/>
+    <hyperlink ref="B1217" r:id="rId2165" display="https://pan.baidu.com/s/1YvgGiKSXoFuSIMb5My4UtA?pwd=fe7z"/>
+    <hyperlink ref="C1218" r:id="rId2166" display="https://pan.quark.cn/s/b78be930e9ab"/>
+    <hyperlink ref="B1218" r:id="rId2167" display="https://pan.baidu.com/s/1bwLNQaxV-AKJ6HQhnWrYaQ?pwd=7arq"/>
+    <hyperlink ref="B1219" r:id="rId2168" display="https://pan.baidu.com/s/1aOxSpmKxOStkWYTbnk3Y5g?pwd=bvqd"/>
+    <hyperlink ref="C1219" r:id="rId2169" display="https://pan.quark.cn/s/059fee4a2fa8"/>
+    <hyperlink ref="B1220" r:id="rId2170" display="https://pan.baidu.com/s/1CCIl0Lkga9vkO6_8kAVxsg?pwd=e4qg"/>
+    <hyperlink ref="C1220" r:id="rId2171" display="https://pan.quark.cn/s/9495eb377423"/>
+    <hyperlink ref="B1221" r:id="rId2172" display="https://pan.baidu.com/s/1aBHl7eMC_W-d8H-RQGMgWg?pwd=k4vg"/>
+    <hyperlink ref="C1221" r:id="rId2173" display="https://pan.quark.cn/s/3901a1f0ac8e"/>
+    <hyperlink ref="C1222" r:id="rId2174" display="https://pan.quark.cn/s/893a2d4d6ee1"/>
+    <hyperlink ref="B1222" r:id="rId2175" display="https://pan.baidu.com/s/1M_f8pgzJE1IQ_gbwsqVy6g?pwd=85wq"/>
+    <hyperlink ref="B1223" r:id="rId2176" display="https://pan.baidu.com/s/1fy-WtpVv4d7C3w6K3sAO5g?pwd=r4pt"/>
+    <hyperlink ref="B1224" r:id="rId2177" display="https://pan.baidu.com/s/16XARMlN2NtGG69CZDo5eyQ?pwd=dgve"/>
+    <hyperlink ref="C1224" r:id="rId2178" display="https://pan.quark.cn/s/56c6302e7778"/>
+    <hyperlink ref="C1225" r:id="rId2179" display="https://pan.quark.cn/s/eae090a7835d"/>
+    <hyperlink ref="B1225" r:id="rId2180" display="https://pan.baidu.com/s/158ECBafM4rkuQRxnVAij4w?pwd=nxi1"/>
+    <hyperlink ref="C1226" r:id="rId2181" display="https://pan.quark.cn/s/257c77618d2b"/>
+    <hyperlink ref="B1226" r:id="rId2182" display="https://pan.baidu.com/s/1QBS72e63LsbfGiozEMBrDQ?pwd=k9fm"/>
+    <hyperlink ref="C1227" r:id="rId2183" display="https://pan.quark.cn/s/4cfcbdd4ae66"/>
+    <hyperlink ref="B1227" r:id="rId2184" display="https://pan.baidu.com/s/1dPu4MYUy9sPOVmw1Roj02g?pwd=s2rv"/>
+    <hyperlink ref="B1228" r:id="rId2185" display="https://pan.baidu.com/s/10NuyxqVAKPPuPSEDUU1WVQ?pwd=7ycf"/>
+    <hyperlink ref="C1228" r:id="rId2186" display="https://pan.quark.cn/s/483214bb369a"/>
+    <hyperlink ref="B1229" r:id="rId2187" display="https://pan.baidu.com/s/1387S6RLsCttrxRTxsao5DQ?pwd=4wb5"/>
+    <hyperlink ref="C1229" r:id="rId2188" display="https://pan.quark.cn/s/109e977fc55d"/>
+    <hyperlink ref="B1230" r:id="rId2189" display="https://pan.baidu.com/s/1q3wMygBq7k3j4vpOY7GjRQ?pwd=gfwa"/>
+    <hyperlink ref="C1230" r:id="rId2190" display="https://pan.quark.cn/s/3538bc440ce3"/>
+    <hyperlink ref="B1231" r:id="rId2191" display="https://pan.baidu.com/s/1yu4dkSiKs3mshfwl0Yw6tg?pwd=uveg"/>
+    <hyperlink ref="C1231" r:id="rId2192" display="https://pan.quark.cn/s/c26ac39d833e"/>
+    <hyperlink ref="B1232" r:id="rId2193" display="https://pan.baidu.com/s/19L2ky_lBQmwY6WBJVsS06A?pwd=e9we"/>
+    <hyperlink ref="C1232" r:id="rId2194" display="https://pan.quark.cn/s/856041dc7d75"/>
+    <hyperlink ref="C1233" r:id="rId2195" display="https://pan.quark.cn/s/1ea3a09b3f35"/>
+    <hyperlink ref="B1233" r:id="rId2196" display="https://pan.baidu.com/s/1BVFDyeSymw-2vrR2wJENRQ?pwd=7w78"/>
+    <hyperlink ref="C1234" r:id="rId2197" display="https://pan.quark.cn/s/267b71ed39c6"/>
+    <hyperlink ref="B1234" r:id="rId2198" display="https://pan.baidu.com/s/1cg5cNgZNB0c6hLl7EtYliA?pwd=31wc"/>
+    <hyperlink ref="C1235" r:id="rId2199" display="https://pan.quark.cn/s/a2dc1cbc2d05"/>
+    <hyperlink ref="B1236" r:id="rId2200" display="https://pan.baidu.com/s/1EeSG36eXrvPibPdsI0Y9bQ?pwd=c7ew"/>
+    <hyperlink ref="B1237" r:id="rId2201" display="https://pan.baidu.com/s/1rje9gT_jpz_dwdd-tbf1ew?pwd=m7kd"/>
+    <hyperlink ref="C1238" r:id="rId2202" display="https://pan.quark.cn/s/7a45c17898e9"/>
+    <hyperlink ref="B1238" r:id="rId2203" display="https://pan.baidu.com/s/1TjVeRW1dzlJMZvEODGs56g?pwd=q8wz"/>
+    <hyperlink ref="C1239" r:id="rId2204" display="https://pan.quark.cn/s/82b958e4cea2"/>
+    <hyperlink ref="C1240" r:id="rId2205" display="https://pan.quark.cn/s/571fd6ef10d8"/>
+    <hyperlink ref="C1241" r:id="rId2206" display="https://pan.quark.cn/s/e734698a99f9"/>
+    <hyperlink ref="B1240" r:id="rId2207" display="https://pan.baidu.com/s/15QowMp0ZMGjo-NHpy6zQIA?pwd=kxhk"/>
+    <hyperlink ref="B1239" r:id="rId2208" display="https://pan.baidu.com/s/1v3V67Z5GxVLyFMDbeqiHeQ?pwd=s9xn"/>
+    <hyperlink ref="B1241" r:id="rId2209" display="https://pan.baidu.com/s/1JoxccnL7p3xuUcd3fDt0Rw?pwd=im9s"/>
+    <hyperlink ref="C1242" r:id="rId2210" display="https://pan.quark.cn/s/ced4871ab6f9"/>
+    <hyperlink ref="B1243" r:id="rId2211" display="https://pan.baidu.com/s/1lfSw3wpUvuFe-SNRMLxgkg?pwd=v2ys"/>
+    <hyperlink ref="C1243" r:id="rId2212" display="https://pan.quark.cn/s/149f67b20457"/>
+    <hyperlink ref="B1244" r:id="rId2213" display="https://pan.baidu.com/s/1l5CGuVKZGkQM-Ove6FGYzQ?pwd=75nq"/>
+    <hyperlink ref="C1244" r:id="rId2214" display="https://pan.quark.cn/s/b16cb58a3fcc"/>
+    <hyperlink ref="B1245" r:id="rId2215" display="https://pan.baidu.com/s/1fDHSzZeFbQIxQBe3gt8IUg?pwd=92qu"/>
+    <hyperlink ref="C1245" r:id="rId2216" display="https://pan.quark.cn/s/ef95eb0f9614"/>
+    <hyperlink ref="C1246" r:id="rId2217" display="https://pan.quark.cn/s/5158f12bbafc"/>
+    <hyperlink ref="C1247" r:id="rId2218" display="https://pan.quark.cn/s/bdbeca278895"/>
+    <hyperlink ref="C1248" r:id="rId2219" display="https://pan.quark.cn/s/d489c6ea0d5d"/>
+    <hyperlink ref="C1249" r:id="rId2220" display="https://pan.quark.cn/s/d5a2b0a30a74"/>
+    <hyperlink ref="C1250" r:id="rId2221" display="https://pan.quark.cn/s/b8a1ed6608a5"/>
+    <hyperlink ref="C1251" r:id="rId2222" display="https://pan.quark.cn/s/6d38899bf082"/>
+    <hyperlink ref="C1252" r:id="rId2223" display="https://pan.quark.cn/s/1faf8c1d4399"/>
+    <hyperlink ref="C1254" r:id="rId2224" display="https://pan.quark.cn/s/caf19933ad8b"/>
+    <hyperlink ref="C1253" r:id="rId2225" display="https://pan.quark.cn/s/ba797ff889a7"/>
+    <hyperlink ref="B1246" r:id="rId2226" display="https://pan.baidu.com/s/1AlX10xY2TkEkCa9bfgCSyQ?pwd=p5ab"/>
+    <hyperlink ref="C1255" r:id="rId2227" display="https://pan.quark.cn/s/fb68f3d12c2d"/>
+    <hyperlink ref="B1247" r:id="rId2228" display="https://pan.baidu.com/s/14vOYMMsxN9t-YZQ1uhG7yw?pwd=2hf6"/>
+    <hyperlink ref="B1256" r:id="rId2229" display="https://pan.baidu.com/s/1NtnQmUlblzQUTAGyI4kuvQ?pwd=qvyx"/>
+    <hyperlink ref="B1257" r:id="rId2230" display="https://pan.baidu.com/s/1tMkEP0SU4Jr0Uc1jNmZVKw?pwd=p5j5"/>
+    <hyperlink ref="B1258" r:id="rId2231" display="https://pan.baidu.com/s/15-2-StsFj0Fd7yo1O3goPw?pwd=7u3e"/>
+    <hyperlink ref="B1259" r:id="rId2232" display="https://pan.baidu.com/s/1q1v6YL2SnX1_2Kd8RQFRNw?pwd=364t"/>
+    <hyperlink ref="B1260" r:id="rId2233" display="https://pan.baidu.com/s/14MFZr6inULVVzuOyVMAfPw?pwd=946a"/>
+    <hyperlink ref="B1261" r:id="rId2234" display="https://pan.baidu.com/s/19qr4nrWZ5ZvquDCSTPTN9w?pwd=5ek1"/>
+    <hyperlink ref="B1262" r:id="rId2235" display="https://pan.baidu.com/s/1RqGJpsPbitWGAfH--ikF5A?pwd=jh6k"/>
+    <hyperlink ref="B1263" r:id="rId2236" display="https://pan.baidu.com/s/1PPpj-7GZVlYEJ4KQSdyMmA?pwd=vna9"/>
+    <hyperlink ref="B1264" r:id="rId2237" display="https://pan.baidu.com/s/1FThbBk9C39Bc9bDpj9Jm9w?pwd=51ar"/>
+    <hyperlink ref="B1265" r:id="rId2238" display="https://pan.baidu.com/s/1UKFkvm-XswrnhA11JMf5FQ?pwd=qm3j"/>
+    <hyperlink ref="B1266" r:id="rId2239" display="https://pan.baidu.com/s/1Srktc4eZuWamT6OHXbq5Hg?pwd=apbi"/>
+    <hyperlink ref="B1267" r:id="rId2240" display="https://pan.baidu.com/s/17fGT_cnLzN5wV043ypR6Iw?pwd=x7uc"/>
+    <hyperlink ref="B1268" r:id="rId2241" display="https://pan.baidu.com/s/1Xw9LI3dZbkzG3X2ervDNVA?pwd=2t4b"/>
+    <hyperlink ref="B1269" r:id="rId2242" display="https://pan.baidu.com/s/1OfQDwsE51zzYpzfjSGZinA?pwd=hc4g"/>
+    <hyperlink ref="B1270" r:id="rId2243" display="https://pan.baidu.com/s/11gFwkXCzKGuwPiSEIj9V3w?pwd=vwp4"/>
+    <hyperlink ref="B1271" r:id="rId2244" display="https://pan.baidu.com/s/1MRYa_YuJbVnzZk98qkH13Q?pwd=ypyj"/>
+    <hyperlink ref="B1272" r:id="rId2245" display="https://pan.baidu.com/s/1thD93fn5O5ktfY1yvaj09g?pwd=y27n"/>
+    <hyperlink ref="B1273" r:id="rId2246" display="https://pan.baidu.com/s/1Is9OuK3sTXy7oQ_8MUBXcQ?pwd=saqj"/>
+    <hyperlink ref="B1274" r:id="rId2247" display="https://pan.baidu.com/s/1YRZiXxwpIOVHYf0QolSbmw?pwd=st9q"/>
+    <hyperlink ref="C1275" r:id="rId2248" display="https://pan.quark.cn/s/8856cdea7f06"/>
+    <hyperlink ref="C894" r:id="rId2249" display="https://pan.quark.cn/s/201d2b71d6ff"/>
+    <hyperlink ref="C1270" r:id="rId2250" display="https://pan.quark.cn/s/d3753629d6d9"/>
+    <hyperlink ref="B1278" r:id="rId2251" display="https://pan.baidu.com/s/1zy9DpCtvW-eTmqgvdgphiA?pwd=ui31"/>
+    <hyperlink ref="B1277" r:id="rId2252" display="https://pan.baidu.com/s/1qSM1Wwe-HGZfEoHW1YVatw?pwd=dqdb"/>
+    <hyperlink ref="C1279" r:id="rId2253" display="https://pan.quark.cn/s/7138650d5e49"/>
+    <hyperlink ref="B1279" r:id="rId2254" display="https://pan.baidu.com/s/1JAmSf63fNbZjFLanIxo88A?pwd=sc6q"/>
+    <hyperlink ref="B1280" r:id="rId2255" display="https://pan.baidu.com/s/14l28bqHngjCPbDVySDS8Fw?pwd=qbrw"/>
+    <hyperlink ref="B1281" r:id="rId2256" display="https://pan.baidu.com/s/1CajhweHF4-05K0KJyMc0NA?pwd=ukrq"/>
+    <hyperlink ref="B1282" r:id="rId2257" display="https://pan.baidu.com/s/1qCj29mX3h2aIl8S1ifpRIg?pwd=fexk"/>
+    <hyperlink ref="B1283" r:id="rId2258" display="https://pan.baidu.com/s/1xuzEKPf_LrbwLc4IqLZMIg?pwd=ysyc"/>
+    <hyperlink ref="B1284" r:id="rId2259" display="https://pan.baidu.com/s/16veTimjSkR-x1SPVvAKHFw?pwd=nd8i"/>
+    <hyperlink ref="B1285" r:id="rId2260" display="https://pan.baidu.com/s/1dBLPfXL62NskAb_NDBl9hw?pwd=35m2"/>
+    <hyperlink ref="B1286" r:id="rId2261" display="https://pan.baidu.com/s/1NmqAyAqv6C0XCrPxZ_zWKw?pwd=7pbd"/>
+    <hyperlink ref="B1287" r:id="rId2262" display="https://pan.baidu.com/s/1anrRpx82uUqraUeoCg7JeQ?pwd=wyji"/>
+    <hyperlink ref="B1288" r:id="rId2263" display="https://pan.baidu.com/s/1GbuYtP0vkZpc5aoZHJkB2g?pwd=cnv2"/>
+    <hyperlink ref="B1289" r:id="rId2264" display="https://pan.baidu.com/s/1-h-fG8uFnC5EBUvDbzvgdg?pwd=qpyk"/>
+    <hyperlink ref="B1290" r:id="rId2265" display="https://pan.baidu.com/s/14IZkb3035SBImZIJuUISPw?pwd=yscj"/>
+    <hyperlink ref="B1292" r:id="rId2266" display="https://pan.baidu.com/s/13AL15coK4I1MhS_iOpnnrQ?pwd=hfui"/>
+    <hyperlink ref="B1293" r:id="rId2267" display="https://pan.baidu.com/s/17l1EGcuvSF4_Tt2VJ4u3Gg?pwd=6ixe"/>
+    <hyperlink ref="B1294" r:id="rId2268" display="https://pan.baidu.com/s/1YCZc0sP6DfVxcXvyaWrOxw?pwd=7yv8"/>
+    <hyperlink ref="B1295" r:id="rId2269" display="https://pan.baidu.com/s/1ndTP6EFpKygLflTBEiV2eA?pwd=r7qi"/>
+    <hyperlink ref="B1296" r:id="rId2270" display="https://pan.baidu.com/s/1Cf4_bZuqd3SE3WzNTBu8LA?pwd=fhr8"/>
+    <hyperlink ref="B1297" r:id="rId2271" display="https://pan.baidu.com/s/1ZHdlYp6ZA6wkpBxA8vP_eA?pwd=5ws5"/>
+    <hyperlink ref="B1298" r:id="rId2272" display="https://pan.baidu.com/s/1MJigLyXR5Yxqrk0Jra9KjQ?pwd=px6t"/>
+    <hyperlink ref="B1299" r:id="rId2273" display="https://pan.baidu.com/s/1wuTKU662d0RGPHItsQlnng?pwd=59fj"/>
+    <hyperlink ref="B37" r:id="rId2274" display="https://pan.baidu.com/s/1IBkLXJsf5rFe95cbAZEh-g?pwd=ymda"/>
+    <hyperlink ref="B1300" r:id="rId2275" display="https://pan.baidu.com/s/1NxVAfIBCRVsnaxFn0EinzA?pwd=nxhi"/>
+    <hyperlink ref="B586" r:id="rId2276" display="https://pan.baidu.com/s/1mRL_C0kCbBAd8LS0xd-L_g?pwd=9ayu"/>
+    <hyperlink ref="B1302" r:id="rId2277" display="https://pan.baidu.com/s/1Mbl_3j6p1eIOlmQwWOwd6Q?pwd=66xw"/>
+    <hyperlink ref="B1303" r:id="rId2278" display="https://pan.baidu.com/s/1i33NPHL3Qu2CdUMTq3mc5g?pwd=y8vv"/>
+    <hyperlink ref="B1304" r:id="rId2279" display="https://pan.baidu.com/s/1JGQqTI22mGAsbEo9dh3lmA?pwd=gdjd"/>
+    <hyperlink ref="B1305" r:id="rId2280" display="https://pan.baidu.com/s/1AY-k5jisyUj8A2qLtgcOww?pwd=gnjr"/>
+    <hyperlink ref="C1305" r:id="rId2281" display="https://pan.quark.cn/s/831388f37a90"/>
+    <hyperlink ref="C1306" r:id="rId2282" display="https://pan.quark.cn/s/5066af0e97b7"/>
+    <hyperlink ref="B1306" r:id="rId2283" display="https://pan.baidu.com/s/1H7sll8VlYVLxbdoifiPr3w?pwd=177s"/>
+    <hyperlink ref="B1307" r:id="rId2284" display="https://pan.baidu.com/s/1CuYCaxSv-SS17iQvS97AaQ?pwd=bpqe"/>
+    <hyperlink ref="C1307" r:id="rId2285" display="https://pan.quark.cn/s/a91da580b774"/>
+    <hyperlink ref="B1308" r:id="rId2286" display="https://pan.baidu.com/s/1I7jTcVFBA4fWFrACG-szsQ?pwd=qj7y"/>
+    <hyperlink ref="C1308" r:id="rId2287" display="https://pan.quark.cn/s/e3a4c9d32217"/>
+    <hyperlink ref="C1309" r:id="rId2288" display="https://pan.quark.cn/s/43f456f3c9cf"/>
+    <hyperlink ref="B1310" r:id="rId2289" display="https://pan.baidu.com/s/152A_NFOunVbzs0_Hx49RBg?pwd=ux29"/>
+    <hyperlink ref="C1310" r:id="rId2290" display="https://pan.quark.cn/s/878ab85ec9e0"/>
+    <hyperlink ref="C1311" r:id="rId2291" display="https://pan.quark.cn/s/5c40f9303593"/>
+    <hyperlink ref="B1311" r:id="rId2292" display="https://pan.baidu.com/s/130RNZwTz2BrICsUl7hK56g?pwd=gia2"/>
+    <hyperlink ref="C1312" r:id="rId2293" display="https://pan.quark.cn/s/609860df70cd"/>
+    <hyperlink ref="C1313" r:id="rId2294" display="https://pan.quark.cn/s/27c7e35f7cee"/>
+    <hyperlink ref="B1313" r:id="rId2295" display="https://pan.baidu.com/s/1BAjrLfyxUBPe3n7tR-oowg?pwd=du97"/>
+    <hyperlink ref="C1314" r:id="rId2296" display="https://pan.quark.cn/s/01324abfd153"/>
+    <hyperlink ref="B1314" r:id="rId2297" display="https://pan.baidu.com/s/1Q498Nsp1sWSpcCkYsw0opQ?pwd=gden"/>
+    <hyperlink ref="B1315" r:id="rId2298" display="https://pan.baidu.com/s/1H3tkx53seQ7D-3BhXM2Blw?pwd=g82r"/>
+    <hyperlink ref="B1316" r:id="rId2299" display="https://pan.baidu.com/s/1SEk2FENg4Es4nvYWiijBhw?pwd=ps5p"/>
+    <hyperlink ref="B1317" r:id="rId2300" display="https://pan.baidu.com/s/1eec5Ggn3p-DqWZexToNdNA?pwd=n9qn"/>
+    <hyperlink ref="C1317" r:id="rId2301" display="https://pan.quark.cn/s/1db3b9267257"/>
+    <hyperlink ref="C1318" r:id="rId2302" display="https://pan.quark.cn/s/8e20acaae874"/>
+    <hyperlink ref="B1318" r:id="rId2303" display="https://pan.baidu.com/s/1sga5B5BtyBTviwVQOxjgvg?pwd=7gu9"/>
+    <hyperlink ref="C1319" r:id="rId2304" display="https://pan.quark.cn/s/a9a663678023"/>
+    <hyperlink ref="B1319" r:id="rId2305" display="https://pan.baidu.com/s/1i3IbPoN1xh6PzDdgqifM4A?pwd=jt2v"/>
+    <hyperlink ref="C1320" r:id="rId2306" display="https://pan.quark.cn/s/8b784022a37e"/>
+    <hyperlink ref="B1320" r:id="rId2307" display="https://pan.baidu.com/s/12U_zZoBY00Suj-kmx-_Txw?pwd=5xqy"/>
+    <hyperlink ref="C1323" r:id="rId2308" display="https://pan.quark.cn/s/e32a0610bc40"/>
+    <hyperlink ref="C1324" r:id="rId2309" display="https://pan.quark.cn/s/c6344cf1b358"/>
+    <hyperlink ref="B1325" r:id="rId2310" display="https://pan.baidu.com/s/1PsmNWjtzmjwNWbE2PyDY1g?pwd=8hv8"/>
+    <hyperlink ref="C1325" r:id="rId2311" display="https://pan.quark.cn/s/76453290a798"/>
+    <hyperlink ref="B1067" r:id="rId2312" display="https://pan.baidu.com/s/17vFwF-glmiuSVH1VwQNFAQ?pwd=ktu8"/>
+    <hyperlink ref="C1322" r:id="rId2313" display="https://pan.quark.cn/s/4c934e08237b"/>
+    <hyperlink ref="C1321" r:id="rId2314" display="https://pan.quark.cn/s/15d774f56033"/>
+    <hyperlink ref="B1326" r:id="rId2315" display="https://pan.baidu.com/s/1qh08MQka3Pa_-Zn20M0L-g?pwd=6kqj"/>
+    <hyperlink ref="C1326" r:id="rId2316" display="https://pan.quark.cn/s/9bc2112a99d8"/>
+    <hyperlink ref="C1327" r:id="rId2317" display="https://pan.quark.cn/s/c2a5fbbe18f8"/>
+    <hyperlink ref="B1327" r:id="rId2318" display="https://pan.baidu.com/s/1e7Qju70wWI9FX0vNdsxEgQ?pwd=6pb6"/>
+    <hyperlink ref="C1328" r:id="rId2319" display="https://pan.quark.cn/s/21a8debea1d9"/>
+    <hyperlink ref="B1328" r:id="rId2320" display="https://pan.baidu.com/s/1hLWUND-ZfSoDLInwdAfTiQ?pwd=3i3c"/>
+    <hyperlink ref="B1323" r:id="rId2321" display="https://pan.baidu.com/s/1YQGuUauRpGpSmK574nkIcA?pwd=pqjh"/>
+    <hyperlink ref="B1321" r:id="rId2322" display="https://pan.baidu.com/s/1ARb2KwdhT69gzoD3oy8GzA?pwd=6n7n"/>
+    <hyperlink ref="B1322" r:id="rId2323" display="https://pan.baidu.com/s/1xpWA5RLehrOgG_XIOA9DZw?pwd=2i27"/>
+    <hyperlink ref="B1324" r:id="rId2324" display="https://pan.baidu.com/s/1f-iC1CxxzBnt8t2zbmeJdw?pwd=nutk"/>
+    <hyperlink ref="B1329" r:id="rId2325" display="https://pan.baidu.com/s/1bdxlYTq9ZjcfEioxW9gygg?pwd=ehm2"/>
+    <hyperlink ref="C1329" r:id="rId2326" display="https://pan.quark.cn/s/551e572f5b94"/>
+    <hyperlink ref="C1330" r:id="rId2327" display="https://pan.quark.cn/s/4c5e3e133bc5"/>
+    <hyperlink ref="C1331" r:id="rId2328" display="https://pan.quark.cn/s/67b9843c4e0a"/>
+    <hyperlink ref="C1332" r:id="rId2329" display="https://pan.quark.cn/s/462bd1563b5f"/>
+    <hyperlink ref="B1332" r:id="rId2330" display="https://pan.baidu.com/s/17PLPBNs1uQNKWg6HuZypCQ?pwd=cc8u"/>
+    <hyperlink ref="B1331" r:id="rId2331" display="https://pan.baidu.com/s/1w3d6zKgDLfuHImaxqvKczw?pwd=e1yq"/>
+    <hyperlink ref="B1333" r:id="rId2332" display="https://pan.baidu.com/s/1pYdkAVXmuZOhQ9Bw0BJivw?pwd=kqy4"/>
+    <hyperlink ref="C1333" r:id="rId2333" display="https://pan.quark.cn/s/18704311058f"/>
+    <hyperlink ref="B1334" r:id="rId2334" display="https://pan.baidu.com/s/1Oc_RKT85npFFwOB-ibQLmg?pwd=482f"/>
+    <hyperlink ref="C1334" r:id="rId2335" display="https://pan.quark.cn/s/91bca0b5a4c4"/>
+    <hyperlink ref="C1335" r:id="rId2336" display="https://pan.quark.cn/s/9b8cfe3e8661"/>
+    <hyperlink ref="B1335" r:id="rId2337" display="https://pan.baidu.com/s/1Lg1jzJRgAPldkd5mtNVCkA?pwd=f6yd"/>
+    <hyperlink ref="C1336" r:id="rId2338" display="https://pan.quark.cn/s/d02f52c54d34"/>
+    <hyperlink ref="B1336" r:id="rId2339" display="https://pan.baidu.com/s/14SaDo5J6C7rR6QP4FZ6J-A?pwd=cnqx"/>
+    <hyperlink ref="B1337" r:id="rId2340" display="https://pan.baidu.com/s/11-DkFzZDYn8nBhOHSpWnRA?pwd=uq17"/>
+    <hyperlink ref="C1337" r:id="rId2341" display="https://pan.quark.cn/s/3e99fec51fc7"/>
+    <hyperlink ref="C1338" r:id="rId2342" display="https://pan.quark.cn/s/cdfa7c03d147"/>
+    <hyperlink ref="B1338" r:id="rId2343" display="https://pan.baidu.com/s/179ymxM9a-B8TuYgJRx1hbQ?pwd=33vj"/>
+    <hyperlink ref="C1339" r:id="rId2344" display="https://pan.quark.cn/s/813d961918d0"/>
+    <hyperlink ref="B1339" r:id="rId2345" display="https://pan.baidu.com/s/1t6UVOIsQQdVRSt2ZtmiwyQ?pwd=nqmh"/>
+    <hyperlink ref="C1340" r:id="rId2346" display="https://pan.quark.cn/s/d652ed9ca160"/>
+    <hyperlink ref="B1340" r:id="rId2347" display="https://pan.baidu.com/s/1OdnDigMnBe5k2P3_PYo6fw?pwd=4ani"/>
+    <hyperlink ref="B1341" r:id="rId2348" display="https://pan.baidu.com/s/1BfQyPzYvUZgPTtcd2Fjd4Q?pwd=pxdt"/>
+    <hyperlink ref="C1341" r:id="rId2349" display="https://pan.quark.cn/s/cb73c40b6437"/>
+    <hyperlink ref="B1342" r:id="rId2350" display="https://pan.baidu.com/s/1LM9KBg38KRNyzzXH-ll-0A?pwd=q69m"/>
+    <hyperlink ref="C1342" r:id="rId2351" display="https://pan.quark.cn/s/c803eaa3f0b3"/>
+    <hyperlink ref="B1343" r:id="rId2352" display="https://pan.baidu.com/s/1m7wDfB8l3hJJaGoGIZr_NQ?pwd=upp4"/>
+    <hyperlink ref="C1343" r:id="rId2353" display="https://pan.quark.cn/s/3ea5dd182781"/>
+    <hyperlink ref="C1344" r:id="rId2354" display="https://pan.quark.cn/s/5d79735e7e26"/>
+    <hyperlink ref="B1345" r:id="rId2355" display="https://pan.baidu.com/s/12ytA18kWIj4MRN6cBEhzWw?pwd=huu7"/>
+    <hyperlink ref="C1345" r:id="rId2356" display="https://pan.quark.cn/s/e5d6542c658b"/>
+    <hyperlink ref="C1346" r:id="rId2357" display="https://pan.quark.cn/s/77f6b5a78cbd"/>
+    <hyperlink ref="B1346" r:id="rId2358" display="https://pan.baidu.com/s/1pG012P7_1uzcWc2i5fWKEg?pwd=qmqu"/>
+    <hyperlink ref="C1347" r:id="rId2359" display="https://pan.quark.cn/s/e60ba738a08d"/>
+    <hyperlink ref="C1348" r:id="rId2360" display="https://pan.quark.cn/s/964e32aaac90"/>
+    <hyperlink ref="C1349" r:id="rId2361" display="https://pan.quark.cn/s/f369c00a5396"/>
+    <hyperlink ref="C1350" r:id="rId2362" display="https://pan.quark.cn/s/b1a659bf15cd"/>
+    <hyperlink ref="C1351" r:id="rId2363" display="https://pan.quark.cn/s/856410a8f9b8"/>
+    <hyperlink ref="C1352" r:id="rId2364" display="https://pan.quark.cn/s/c09544bff080"/>
+    <hyperlink ref="C1353" r:id="rId2365" display="https://pan.quark.cn/s/7a40756083e3"/>
+    <hyperlink ref="B1354" r:id="rId2366" display="https://pan.baidu.com/s/1C079EHXk20F5cAns8qJnIg?pwd=4wix"/>
+    <hyperlink ref="C1354" r:id="rId2367" display="https://pan.quark.cn/s/97d7ce3f0218"/>
+    <hyperlink ref="B1347" r:id="rId2368" display="https://pan.baidu.com/s/1K_W41DEsv8UfWE2j2M5hZw?pwd=vqdv"/>
+    <hyperlink ref="B1348" r:id="rId2369" display="https://pan.baidu.com/s/1nKBVg71Lql8h8_kkA46xsQ?pwd=cyje"/>
+    <hyperlink ref="B1349" r:id="rId2370" display="https://pan.baidu.com/s/1j7laaNtDSW_GtMtC-34tdA?pwd=ccca"/>
+    <hyperlink ref="B1350" r:id="rId2371" display="https://pan.baidu.com/s/1GuBQkjt1GFlaq-_AzrG5WQ?pwd=wi9y"/>
+    <hyperlink ref="B1351" r:id="rId2372" display="https://pan.baidu.com/s/1m_EiSlGMEg19XLFCttX_Hg?pwd=26xy"/>
+    <hyperlink ref="B1352" r:id="rId2373" display="https://pan.baidu.com/s/1kS_gGfs6K-GFJrOjtBqyBw?pwd=nrnc"/>
+    <hyperlink ref="C1355" r:id="rId2374" display="https://pan.quark.cn/s/872bd1b637f2"/>
+    <hyperlink ref="B1355" r:id="rId2375" display="https://pan.baidu.com/s/1gaXqx89iLII4iwKyjjr7Nw?pwd=s7vh"/>
+    <hyperlink ref="C1356" r:id="rId2376" display="https://pan.quark.cn/s/d319a3b93938"/>
+    <hyperlink ref="B1356" r:id="rId2377" display="https://pan.baidu.com/s/1dGN6aYI5Lrf9sMsI5BBD2A?pwd=zesa"/>
+    <hyperlink ref="C1357" r:id="rId2378" display="https://pan.quark.cn/s/fde768a8ddaf"/>
+    <hyperlink ref="B1357" r:id="rId2379" display="https://pan.baidu.com/s/1pwADI9JZ0EGjriI_AiBj0w?pwd=cdmv"/>
+    <hyperlink ref="C1358" r:id="rId2380" display="https://pan.quark.cn/s/e7a8edf664c1"/>
+    <hyperlink ref="B1358" r:id="rId2381" display="https://pan.baidu.com/s/11YVpTeByzXQFbUXRwjoZcQ?pwd=gsse"/>
+    <hyperlink ref="C1359" r:id="rId2382" display="https://pan.quark.cn/s/5cb3e495a6d2"/>
+    <hyperlink ref="B1359" r:id="rId2383" display="https://pan.baidu.com/s/1PCcOlqi0f80al8dytBomnQ?pwd=5b3y"/>
+    <hyperlink ref="C1360" r:id="rId2384" display="https://pan.quark.cn/s/30c49d229e43"/>
+    <hyperlink ref="B1360" r:id="rId2385" display="https://pan.baidu.com/s/18tI1uL0EYuf3CAJ_iKeW6A?pwd=6s5n"/>
+    <hyperlink ref="C1361" r:id="rId2386" display="https://pan.quark.cn/s/cffe8acc238d"/>
+    <hyperlink ref="B1361" r:id="rId2387" display="https://pan.baidu.com/s/1_s_liLeAlN8Fl_L2jzET5Q?pwd=m55d"/>
+    <hyperlink ref="B1362" r:id="rId2388" display="https://pan.baidu.com/s/1aeokCsz7gsO2axo43osR_w?pwd=bqa9"/>
+    <hyperlink ref="C1362" r:id="rId2389" display="https://pan.quark.cn/s/ffb17a32be04"/>
+    <hyperlink ref="C1363" r:id="rId2390" display="https://pan.quark.cn/s/91411a76ac76"/>
+    <hyperlink ref="B1363" r:id="rId2391" display="https://pan.baidu.com/s/1y27RNBJkUrdZ4iKEzBjo4g?pwd=ji1x"/>
+    <hyperlink ref="C1364" r:id="rId2392" display="https://pan.quark.cn/s/cb07da4c3b7d"/>
+    <hyperlink ref="B1364" r:id="rId2393" display="https://pan.baidu.com/s/12RgTQtpxEiJ8ClrG9pmURA?pwd=3ksx"/>
+    <hyperlink ref="C1365" r:id="rId2394" display="https://pan.quark.cn/s/b4ff0a9659ec"/>
+    <hyperlink ref="B1365" r:id="rId2395" display="https://pan.baidu.com/s/1UzfAqHtzGPiEuFEMNg7Tag?pwd=aq68"/>
+    <hyperlink ref="C1366" r:id="rId2396" display="https://pan.quark.cn/s/52b54bb85f45"/>
+    <hyperlink ref="B1366" r:id="rId2397" display="https://pan.baidu.com/s/1JaXljtOvrX5IdhzbxRWoIw?pwd=p86j"/>
+    <hyperlink ref="C1367" r:id="rId2398" display="https://pan.quark.cn/s/b30ae0556bb5"/>
+    <hyperlink ref="B1367" r:id="rId2399" display="https://pan.baidu.com/s/1ePBT8TLR3fmu3zboROxAqQ?pwd=vykb"/>
+    <hyperlink ref="C1368" r:id="rId2400" display="https://pan.quark.cn/s/8ffc71e7c2c1"/>
+    <hyperlink ref="B1368" r:id="rId2401" display="https://pan.baidu.com/s/1WFLAhKyPAWg0zGHJmBGoBg?pwd=bagn"/>
+    <hyperlink ref="B1369" r:id="rId2402" display="https://pan.baidu.com/s/1GGf4TcYBz2baffDkukTTrQ?pwd=6xhx"/>
+    <hyperlink ref="B1370" r:id="rId2403" display="https://pan.baidu.com/s/1YLJ-w-WbUnbcHPsL5ZrNHA?pwd=4zrn"/>
+    <hyperlink ref="C1370" r:id="rId2404" display="https://pan.quark.cn/s/810c6979223b"/>
+    <hyperlink ref="C1371" r:id="rId2405" display="https://pan.quark.cn/s/459e01204457"/>
+    <hyperlink ref="B1371" r:id="rId2406" display="https://pan.baidu.com/s/1f2ii4_4DLL3ed81wrUQyHA?pwd=1ncu"/>
+    <hyperlink ref="B1372" r:id="rId2407" display="https://pan.baidu.com/s/1Q3xTDoc1rFPclDR6d0LCaA?pwd=h4ew"/>
+    <hyperlink ref="C1373" r:id="rId2408" display="https://pan.quark.cn/s/d3252a1a3995"/>
+    <hyperlink ref="B1373" r:id="rId2409" display="https://pan.baidu.com/s/1Kt1VVwPL-01ZzhniEKq4kw?pwd=pe6m"/>
+    <hyperlink ref="C1374" r:id="rId2410" display="https://pan.quark.cn/s/fe7f8a49383e"/>
+    <hyperlink ref="B1374" r:id="rId2411" display="https://pan.baidu.com/s/13z5Fc8E5gev-vyJ6r-X6Gg?pwd=swef"/>
+    <hyperlink ref="B1375" r:id="rId2412" display="https://pan.baidu.com/s/1cNmVNk1a7knS-Gj0wfwu1Q?pwd=xak1"/>
+    <hyperlink ref="C1375" r:id="rId2413" display="https://pan.quark.cn/s/1589772a02b1"/>
+    <hyperlink ref="B1376" r:id="rId2414" display="https://pan.baidu.com/s/1FHKrkQ2H-mhX-6xWGq7AAA?pwd=qn6g"/>
+    <hyperlink ref="C1376" r:id="rId2415" display="https://pan.quark.cn/s/9933c6ddeb06"/>
+    <hyperlink ref="B1377" r:id="rId2416" display="https://pan.baidu.com/s/1aS3YGPdkGFy8eyDjY0nctw?pwd=jycy"/>
+    <hyperlink ref="C1377" r:id="rId2417" display="https://pan.quark.cn/s/5ff081b89162"/>
+    <hyperlink ref="B1378" r:id="rId2418" display="https://pan.baidu.com/s/1ZKgCAa73Hb5H_vmSKWeNzw?pwd=dfje"/>
+    <hyperlink ref="C1378" r:id="rId2419" display="https://pan.quark.cn/s/cdcdda41852b"/>
+    <hyperlink ref="C1379" r:id="rId2420" display="https://pan.quark.cn/s/4cfe8d2045cb"/>
+    <hyperlink ref="B1379" r:id="rId2421" display="https://pan.baidu.com/s/1md-KEIJTrPIXa1WHjZyv_Q?pwd=k7m6"/>
+    <hyperlink ref="C1380" r:id="rId2422" display="https://pan.quark.cn/s/fddf5ade1a8e"/>
+    <hyperlink ref="C1381" r:id="rId2423" display="https://pan.quark.cn/s/353233104c73"/>
+    <hyperlink ref="B1381" r:id="rId2424" display="https://pan.baidu.com/s/1xzy-gd-VTlzd0dmPPlMxqA?pwd=ncf9"/>
+    <hyperlink ref="C1382" r:id="rId2425" display="https://pan.quark.cn/s/630410f7ab3d"/>
+    <hyperlink ref="B1382" r:id="rId2426" display="https://pan.baidu.com/s/1siSs2mbWPcCgzAOHmNAlFQ?pwd=7qju"/>
+    <hyperlink ref="C1383" r:id="rId2427" display="https://pan.quark.cn/s/af25b23b2c30"/>
+    <hyperlink ref="B1383" r:id="rId2428" display="https://pan.baidu.com/s/1OyvYU52-IYs4fg4NyLA8Vw?pwd=wy53"/>
+    <hyperlink ref="B1384" r:id="rId2429" display="https://pan.baidu.com/s/11eRGEhSBZar5-jSevNBH8g?pwd=b6rt"/>
+    <hyperlink ref="C1384" r:id="rId2430" display="https://pan.quark.cn/s/9769c1fa3f22"/>
+    <hyperlink ref="C1385" r:id="rId2431" display="https://pan.quark.cn/s/9b25ff4a07b3"/>
+    <hyperlink ref="B1385" r:id="rId2432" display="https://pan.baidu.com/s/1UCROf0gHxTFfY5Rfc1CedA?pwd=x4zx"/>
+    <hyperlink ref="C1386" r:id="rId2433" display="https://pan.quark.cn/s/c9ec47028ba6"/>
+    <hyperlink ref="B1386" r:id="rId2434" display="https://pan.baidu.com/s/1J0XiE0wpL0pktz9T4KwkOw?pwd=ngy2"/>
+    <hyperlink ref="C1387" r:id="rId2435" display="https://pan.quark.cn/s/828eb24dcd09"/>
+    <hyperlink ref="B1387" r:id="rId2436" display="https://pan.baidu.com/s/1zh2lYgt3Jgd-g0oF_t8U3A?pwd=w34g"/>
+    <hyperlink ref="C1388" r:id="rId2437" display="https://pan.quark.cn/s/a6f6769e5038"/>
+    <hyperlink ref="B1388" r:id="rId2438" display="https://pan.baidu.com/s/151TQV3XH_r72wijZTVNzAA?pwd=grtt"/>
+    <hyperlink ref="C1389" r:id="rId2439" display="https://pan.quark.cn/s/874762681872"/>
+    <hyperlink ref="B1389" r:id="rId2440" display="https://pan.baidu.com/s/1aRAlEomu82-Q9UisEaqoHg?pwd=meky"/>
+    <hyperlink ref="C1390" r:id="rId2441" display="https://pan.quark.cn/s/0a0c69827ddc"/>
+    <hyperlink ref="B1390" r:id="rId2442" display="https://pan.baidu.com/s/16GZbEY8wuH-d-NHJsodizA?pwd=2nca"/>
+    <hyperlink ref="C1391" r:id="rId2443" display="https://pan.quark.cn/s/8859ce2f2c59"/>
+    <hyperlink ref="B1391" r:id="rId2444" display="https://pan.baidu.com/s/1W-j-o80GuLoNS7xe58EU3Q?pwd=fn26"/>
+    <hyperlink ref="C1392" r:id="rId2445" display="https://pan.quark.cn/s/1cc189094e5f"/>
+    <hyperlink ref="C1393" r:id="rId2446" display="https://pan.quark.cn/s/497d7e3c776e"/>
+    <hyperlink ref="C1394" r:id="rId2447" display="https://pan.quark.cn/s/94759665dc48"/>
+    <hyperlink ref="C1395" r:id="rId2448" display="https://pan.quark.cn/s/30c7fe35f87e"/>
+    <hyperlink ref="C1396" r:id="rId2449" display="https://pan.quark.cn/s/b2df189827a7"/>
+    <hyperlink ref="B1395" r:id="rId2450" display="https://pan.baidu.com/s/1k4XuLEQyoae64gxDcixfLQ?pwd=i98p"/>
+    <hyperlink ref="B1393" r:id="rId2451" display="https://pan.baidu.com/s/1bPatgOaA6dFYAiIKd6a-Og?pwd=wzui"/>
+    <hyperlink ref="B1394" r:id="rId2452" display="https://pan.baidu.com/s/16vaKnlCuVvJ0ejYonsm6Zw?pwd=e36c"/>
+    <hyperlink ref="B1392" r:id="rId2453" display="https://pan.baidu.com/s/1hNVX3n1-4M2IfxWzKIWRHg?pwd=h5rq"/>
+    <hyperlink ref="B1396" r:id="rId2454" display="https://pan.baidu.com/s/1WtI8720lF5Rh7tbQ1tDn4A?pwd=hpug"/>
+    <hyperlink ref="B825" r:id="rId2455" display="https://pan.baidu.com/s/1xuqZsKeEvP8NwYmhTlsP_w?pwd=utfb"/>
+    <hyperlink ref="C825" r:id="rId2456" display="https://pan.quark.cn/s/c2eab62c05e8"/>
+    <hyperlink ref="C1397" r:id="rId2457" display="https://pan.quark.cn/s/cc55d12088e5"/>
+    <hyperlink ref="B1397" r:id="rId2458" display="https://pan.baidu.com/s/1RTmm3TthOyJRBBN6hePPhQ?pwd=1mae"/>
+    <hyperlink ref="C1398" r:id="rId2459" display="https://pan.quark.cn/s/313a7efa86d1"/>
+    <hyperlink ref="B1398" r:id="rId2460" display="https://pan.baidu.com/s/1xhG2LZrlYCdATtjiuIoIlw?pwd=4664"/>
+    <hyperlink ref="C1399" r:id="rId2461" display="https://pan.quark.cn/s/1eddc543d981"/>
+    <hyperlink ref="B1399" r:id="rId2462" display="https://pan.baidu.com/s/1tTI2XQg_vg2akdE3p_TOuQ?pwd=jh7c"/>
+    <hyperlink ref="C1400" r:id="rId2463" display="https://pan.quark.cn/s/c3f4bc25e40a"/>
+    <hyperlink ref="B1400" r:id="rId2464" display="https://pan.baidu.com/s/12-cC109ej_-ovNtCtZZuYA?pwd=am6t"/>
+    <hyperlink ref="C1401" r:id="rId2465" display="https://pan.quark.cn/s/3d824428f8c7"/>
+    <hyperlink ref="B1401" r:id="rId2466" display="https://pan.baidu.com/s/16w-1sdkilGELKYVT7ILNWg?pwd=8i4r"/>
+    <hyperlink ref="C1402" r:id="rId2467" display="https://pan.quark.cn/s/e3e5b09af83a"/>
+    <hyperlink ref="B1402" r:id="rId2468" display="https://pan.baidu.com/s/1IZBwp2ZGlcbiOcjrNOtDaw?pwd=dtk3"/>
+    <hyperlink ref="C1403" r:id="rId2469" display="https://pan.quark.cn/s/80cc0a57152a"/>
+    <hyperlink ref="B1403" r:id="rId2470" display="https://pan.baidu.com/s/1ViArhOGoZG6mwztfT-ruOQ?pwd=1a6w"/>
+    <hyperlink ref="C1404" r:id="rId2471" display="https://pan.quark.cn/s/64eb3244d143"/>
+    <hyperlink ref="B1404" r:id="rId2472" display="https://pan.baidu.com/s/1hR4UM0dgvx1CdTF_ZViVCQ?pwd=ay2c"/>
+    <hyperlink ref="C1405" r:id="rId2473" display="https://pan.quark.cn/s/068c449faecb"/>
+    <hyperlink ref="C1406" r:id="rId2474" display="https://pan.quark.cn/s/4a3d01a4ef26"/>
+    <hyperlink ref="C1407" r:id="rId2475" display="https://pan.quark.cn/s/01d92be63b62"/>
+    <hyperlink ref="B1407" r:id="rId2476" display="https://pan.baidu.com/s/1POQHNnIJeVZHZ_QmG8oh9w?pwd=ufn5"/>
+    <hyperlink ref="B1406" r:id="rId2477" display="https://pan.baidu.com/s/12YR6uxTqXm-gU1oonZmGZw?pwd=hdca"/>
+    <hyperlink ref="B1405" r:id="rId2478" display="https://pan.baidu.com/s/1vvIcTVa2OQ2OSD9XQQPAKQ?pwd=26nx"/>
+    <hyperlink ref="C1408" r:id="rId2479" display="https://pan.quark.cn/s/dcdc3a502d89"/>
+    <hyperlink ref="B1408" r:id="rId2480" display="https://pan.baidu.com/s/1Zyy3YyZqBsb7YVRdnyoVFQ?pwd=sgqb"/>
+    <hyperlink ref="C1409" r:id="rId2481" display="https://pan.quark.cn/s/5fc81f73b0c2"/>
+    <hyperlink ref="B1409" r:id="rId2482" display="https://pan.baidu.com/s/1Up3bh3PNUhT15vG1hDkh8g?pwd=h1cd"/>
+    <hyperlink ref="C1410" r:id="rId2483" display="https://pan.quark.cn/s/e9f829d188aa"/>
+    <hyperlink ref="B1410" r:id="rId2484" display="https://pan.baidu.com/s/1Xx0KgloOtI2YlPOkaHp41g?pwd=5eij"/>
+    <hyperlink ref="C1411" r:id="rId2485" display="https://pan.quark.cn/s/79fc40dad12a"/>
+    <hyperlink ref="B1411" r:id="rId2486" display="https://pan.baidu.com/s/1m3y6iYNdl2rAa8Ij1rb_Fw?pwd=ageg"/>
+    <hyperlink ref="B1412" r:id="rId2487" display="https://pan.baidu.com/s/1nuLf85dgYA1A3Ja8bCyYEg?pwd=f7uq"/>
+    <hyperlink ref="C1412" r:id="rId2488" display="https://pan.quark.cn/s/cd6033d458f2"/>
+    <hyperlink ref="C1413" r:id="rId2489" display="https://pan.quark.cn/s/b85c2eeede44"/>
+    <hyperlink ref="B1413" r:id="rId2490" display="https://pan.baidu.com/s/1zviE8WD9oVc6YSdw6eJ_-w?pwd=dgcu"/>
+    <hyperlink ref="B1414" r:id="rId2491" display="https://pan.baidu.com/s/16cq3_-p57fVV68eFGq43RQ?pwd=786q"/>
+    <hyperlink ref="C1414" r:id="rId2492" display="https://pan.quark.cn/s/39c17026ed43"/>
+    <hyperlink ref="C1415" r:id="rId2493" display="https://pan.quark.cn/s/89a366d64d4f"/>
+    <hyperlink ref="B1415" r:id="rId2494" display="https://pan.baidu.com/s/1_lJhZs7QXS5VBvsnAv9fNQ?pwd=63ex"/>
+    <hyperlink ref="C29" r:id="rId2495" display="https://pan.quark.cn/s/9a69d0cefea3"/>
+    <hyperlink ref="B29" r:id="rId2496" display="https://pan.baidu.com/s/1TwaE-hj19DRjEQBQzoT8TA?pwd=g1b6"/>
+    <hyperlink ref="C1416" r:id="rId2497" display="https://pan.quark.cn/s/13e0cbf22a28"/>
+    <hyperlink ref="B1416" r:id="rId2498" display="https://pan.baidu.com/s/1Be4V1q8bZkknA7CYlUBQ4w?pwd=bviy"/>
+    <hyperlink ref="B1417" r:id="rId2499" display="https://pan.baidu.com/s/1GiJvRKXnozFTBLzRXpO2Pg?pwd=eb8k"/>
+    <hyperlink ref="C1417" r:id="rId2500" display="https://pan.quark.cn/s/3a604db3980c"/>
+    <hyperlink ref="C1418" r:id="rId2501" display="https://pan.quark.cn/s/36e7ef099d69"/>
+    <hyperlink ref="B1418" r:id="rId2502" display="https://pan.baidu.com/s/1YfF57mXdEaepu4pXZSpnBA?pwd=gyr5"/>
+    <hyperlink ref="B1419" r:id="rId2503" display="https://pan.baidu.com/s/1ysIXAYfVDVLG47McCMWL5g?pwd=9ren"/>
+    <hyperlink ref="C1419" r:id="rId2504" display="https://pan.quark.cn/s/6a9a374a3a93"/>
+    <hyperlink ref="C1420" r:id="rId2505" display="https://pan.quark.cn/s/780120158d9b"/>
+    <hyperlink ref="C1421" r:id="rId2506" display="https://pan.quark.cn/s/35dc92af8d16"/>
+    <hyperlink ref="B1421" r:id="rId2507" display="https://pan.baidu.com/s/1fWmHZKSjaVszAc8O3aX2HA?pwd=9h7s"/>
+    <hyperlink ref="C1422" r:id="rId2508" display="https://pan.quark.cn/s/4b6e3878abc8"/>
+    <hyperlink ref="B1422" r:id="rId2509" display="https://pan.baidu.com/s/1NscS74YzgPcuuUxQpETyYw?pwd=aq8p"/>
+    <hyperlink ref="C1423" r:id="rId2510" display="https://pan.quark.cn/s/d3cb71200258"/>
+    <hyperlink ref="B1423" r:id="rId2511" display="https://pan.baidu.com/s/1GbMkKCiQrgcs5TTvjS0eGQ?pwd=x3jc"/>
+    <hyperlink ref="C1424" r:id="rId2512" display="https://pan.quark.cn/s/bb8630416643"/>
+    <hyperlink ref="B1424" r:id="rId2513" display="https://pan.baidu.com/s/1DdrFVdKJOxusp479mHSj1w?pwd=gaks"/>
+    <hyperlink ref="C1425" r:id="rId2514" display="https://pan.quark.cn/s/67aec2bc1694"/>
+    <hyperlink ref="B1425" r:id="rId2515" display="https://pan.baidu.com/s/1h7oxMNIPqxk36QsWQFwBGw?pwd=izu1"/>
+    <hyperlink ref="C1426" r:id="rId2516" display="https://pan.quark.cn/s/7e8c4ab75f9c"/>
+    <hyperlink ref="B1426" r:id="rId2517" display="https://pan.baidu.com/s/1ELUGT1jDcyIO7ELB72AEZw?pwd=jqrp"/>
+    <hyperlink ref="B1427" r:id="rId2518" display="https://pan.baidu.com/s/18POynfy-KAt4QC0FLFlZ1g?pwd=gpid"/>
+    <hyperlink ref="C1427" r:id="rId2519" display="https://pan.quark.cn/s/b63d69263923"/>
+    <hyperlink ref="B30" r:id="rId2520" display="https://pan.baidu.com/s/1oYkGm6bcJ-OOlBPVeXyvZw?pwd=4isa"/>
+    <hyperlink ref="C30" r:id="rId2521" display="https://pan.quark.cn/s/ad5e2b9cb7e1"/>
+    <hyperlink ref="C1428" r:id="rId2522" display="https://pan.quark.cn/s/680e88bb4d47"/>
+    <hyperlink ref="B1428" r:id="rId2523" display="https://pan.baidu.com/s/15Py4BZShtqPf5OydDtE65A?pwd=6k71"/>
+    <hyperlink ref="B1429" r:id="rId2524" display="https://pan.baidu.com/s/1RJnE_fKSRefN5RE3Nm7Gzw?pwd=atv8"/>
+    <hyperlink ref="C1429" r:id="rId2525" display="https://pan.quark.cn/s/61dc56b1051f"/>
+    <hyperlink ref="C1430" r:id="rId2526" display="https://pan.quark.cn/s/12d01ae551a8"/>
+    <hyperlink ref="B1430" r:id="rId2527" display="https://pan.baidu.com/s/1vZFEFwOa5fKfdbWs9uYA9g?pwd=w6gk"/>
+    <hyperlink ref="C1431" r:id="rId2528" display="https://pan.quark.cn/s/91f1601105d0"/>
+    <hyperlink ref="C1432" r:id="rId2529" display="https://pan.quark.cn/s/f965838b95f3"/>
+    <hyperlink ref="B1432" r:id="rId2530" display="https://pan.baidu.com/s/1D08h52DQ-gLYa2v-p6HUWw?pwd=h2ps"/>
+    <hyperlink ref="B1431" r:id="rId2531" display="https://pan.baidu.com/s/1qaoEI62OW_rMZHDsu9xXhw?pwd=pvr4"/>
+    <hyperlink ref="C1433" r:id="rId2532" display="https://pan.quark.cn/s/e6a401bd4f13"/>
+    <hyperlink ref="B1433" r:id="rId2533" display="https://pan.baidu.com/s/1SxZFMEBR0xU9m8RtJlYLGQ?pwd=sq5m"/>
+    <hyperlink ref="C1434" r:id="rId2534" display="https://pan.quark.cn/s/a0b99ceb18a5"/>
+    <hyperlink ref="B1434" r:id="rId2535" display="https://pan.baidu.com/s/1_zlMbkyr-2PvZTEePDa1VQ?pwd=qt6h"/>
+    <hyperlink ref="B1435" r:id="rId2536" display="https://pan.baidu.com/s/1qC_jWGYfw1xsYYdgLWq1mQ?pwd=52q4"/>
+    <hyperlink ref="B1436" r:id="rId2537" display="https://pan.baidu.com/s/1WSK0ItRaP0B1Du0BMBG0ag?pwd=2isq"/>
+    <hyperlink ref="C1436" r:id="rId2538" display="https://pan.quark.cn/s/ca17d248dcb8"/>
+    <hyperlink ref="C1437" r:id="rId2539" display="https://pan.quark.cn/s/50a8ef64fcbe"/>
+    <hyperlink ref="C1438" r:id="rId2540" display="https://pan.quark.cn/s/cdbead7c3a18"/>
+    <hyperlink ref="C1439" r:id="rId2541" display="https://pan.quark.cn/s/9fd2960a50e1"/>
+    <hyperlink ref="B1437" r:id="rId2542" display="https://pan.baidu.com/s/17-twiG3KCCSF_PW6HkyZxQ?pwd=v6ck"/>
+    <hyperlink ref="B1438" r:id="rId2543" display="https://pan.baidu.com/s/11e94dpfshkDTG17mza_HgQ?pwd=2ima"/>
+    <hyperlink ref="B1439" r:id="rId2544" display="https://pan.baidu.com/s/1e6GL0cRHpRy61l0vMdOy1g?pwd=u3j2"/>
+    <hyperlink ref="B1440" r:id="rId2545" display="https://pan.baidu.com/s/1iA0_SIysgiH5AT1zXIs7hw?pwd=usei"/>
+    <hyperlink ref="C1440" r:id="rId2546" display="https://pan.quark.cn/s/87cfed0d34b6"/>
+    <hyperlink ref="B1441" r:id="rId2547" display="https://pan.baidu.com/s/1IK3yWnbxsRosZ4h6PHnGOQ?pwd=5xxj"/>
+    <hyperlink ref="C1441" r:id="rId2548" display="https://pan.quark.cn/s/c223c5539369"/>
+    <hyperlink ref="B1442" r:id="rId2549" display="https://pan.baidu.com/s/1VS4-Opyw8WQjQhUvfPmn1w?pwd=8fib"/>
+    <hyperlink ref="C1442" r:id="rId2550" display="https://pan.quark.cn/s/dd0984d67f23"/>
+    <hyperlink ref="B1443" r:id="rId2551" display="https://pan.baidu.com/s/11VHDqjj2Mh9xQRLO-QiHQQ?pwd=7f46"/>
+    <hyperlink ref="C1443" r:id="rId2552" display="https://pan.quark.cn/s/0bfb125ec122"/>
+    <hyperlink ref="C1444" r:id="rId2553" display="https://pan.quark.cn/s/5c21b51161bf"/>
+    <hyperlink ref="B1444" r:id="rId2554" display="https://pan.baidu.com/s/1zZK3-5RpZIB_MSaJgsH1Vg?pwd=hb45"/>
+    <hyperlink ref="C1445" r:id="rId2555" display="https://pan.quark.cn/s/4de1b767ce9f"/>
+    <hyperlink ref="B1445" r:id="rId2556" display="https://pan.baidu.com/s/1PZynG7tTt_iC_w5LQQAEsA?pwd=6x3w"/>
+    <hyperlink ref="C1446" r:id="rId2557" display="https://pan.quark.cn/s/ee763d6324e7"/>
+    <hyperlink ref="B1446" r:id="rId2558" display="https://pan.baidu.com/s/1X9UrBaKl2xLJnJBV2UioYA?pwd=gp67"/>
+    <hyperlink ref="C1447" r:id="rId2559" display="https://pan.quark.cn/s/a812d29641aa"/>
+    <hyperlink ref="B1447" r:id="rId2560" display="https://pan.baidu.com/s/1rYisJTNPefthKG0FM0BNsg?pwd=3y9h"/>
+    <hyperlink ref="C1448" r:id="rId2561" display="https://pan.quark.cn/s/faeeda11fe18"/>
+    <hyperlink ref="B1449" r:id="rId2562" display="https://pan.baidu.com/s/1V4U0Ayy1I01Sfziq0E9qUg?pwd=hk73"/>
+    <hyperlink ref="C1451" r:id="rId2563" display="https://pan.quark.cn/s/67969a3e66dc"/>
+    <hyperlink ref="B1451" r:id="rId2564" display="https://pan.baidu.com/s/1XtNnydmbQUvDBzAf5-Dg7Q?pwd=9a5s"/>
+    <hyperlink ref="B1452" r:id="rId2565" display="https://pan.baidu.com/s/13haxspuUPcuLq7r3SvBqcQ?pwd=uh2g"/>
+    <hyperlink ref="C1452" r:id="rId2566" display="https://pan.quark.cn/s/c598da9a5ed8"/>
+    <hyperlink ref="B1454" r:id="rId2567" display="https://pan.baidu.com/s/1bI18e9MBjfdb-b3mEMYTeg?pwd=uk6a"/>
+    <hyperlink ref="C1454" r:id="rId2568" display="https://pan.quark.cn/s/dcf70703a188"/>
+    <hyperlink ref="C1455" r:id="rId2569" display="https://pan.quark.cn/s/3187e4c97600"/>
+    <hyperlink ref="B1455" r:id="rId2570" display="https://pan.baidu.com/s/1K17ta6nB50B4rrhcpfX0Kw?pwd=6fxf"/>
+    <hyperlink ref="C1456" r:id="rId2571" display="https://pan.quark.cn/s/53c6c85dad30"/>
+    <hyperlink ref="C1453" r:id="rId2572" display="https://pan.quark.cn/s/920ebbebdba6"/>
+    <hyperlink ref="B1457" r:id="rId2573" display="https://pan.baidu.com/s/1B1HQwMqKAKd5mBx-1eRCQg?pwd=h5at"/>
+    <hyperlink ref="B1458" r:id="rId2574" display="https://pan.baidu.com/s/1c6hRVg7dhi0DNgQJibynyw?pwd=izt6"/>
+    <hyperlink ref="C1458" r:id="rId2575" display="https://pan.quark.cn/s/c6dc78408bec"/>
+    <hyperlink ref="B1459" r:id="rId2576" display="https://pan.baidu.com/s/1FO6AaeJ3x-qX1rYQReYndA?pwd=21xc"/>
+    <hyperlink ref="C1459" r:id="rId2577" display="https://pan.quark.cn/s/9dbb8c544a0d"/>
+    <hyperlink ref="B1460" r:id="rId2578" display="https://pan.baidu.com/s/1McBkUntyA3XCYSHj5OoK_A?pwd=xvwh"/>
+    <hyperlink ref="C1460" r:id="rId2579" display="https://pan.quark.cn/s/8f166a14acd7"/>
+    <hyperlink ref="B1461" r:id="rId2580" display="https://pan.baidu.com/s/1eJVp6niPLaaV-rxHct_htg?pwd=fdni"/>
+    <hyperlink ref="B1462" r:id="rId2581" display="https://pan.baidu.com/s/1vtq_wzaa0x2wRWIu4BZ8GQ?pwd=tny7"/>
+    <hyperlink ref="C1461" r:id="rId2582" display="https://pan.quark.cn/s/1ad866e94594"/>
+    <hyperlink ref="C1462" r:id="rId2583" display="https://pan.quark.cn/s/562c3202b851"/>
+    <hyperlink ref="C11" r:id="rId2584" display="https://pan.quark.cn/s/4be5812ba9c3"/>
+    <hyperlink ref="B11" r:id="rId2585" display="https://pan.baidu.com/s/1ovfQk6-yNs7AILTkTFtEwA?pwd=mjpw"/>
+    <hyperlink ref="B1463" r:id="rId2586" display="https://pan.baidu.com/s/1Keg4-dhseGHGhhNfyUIZbg?pwd=5dxx"/>
+    <hyperlink ref="B1464" r:id="rId2587" display="https://pan.baidu.com/s/1DHMYPGda9X5Cm3tlbWE2rw?pwd=6h8k"/>
+    <hyperlink ref="C1465" r:id="rId2588" display="https://pan.quark.cn/s/c421ad12e9db"/>
+    <hyperlink ref="B1465" r:id="rId2589" display="https://pan.baidu.com/s/1bbpVsMo0GcuJGboiP-P8fw?pwd=fu5t"/>
+    <hyperlink ref="B1466" r:id="rId2590" display="https://pan.baidu.com/s/1DSrCULzmD7eP5nqYgzahxA?pwd=ijkd"/>
+    <hyperlink ref="C1466" r:id="rId2591" display="https://pan.quark.cn/s/3148dbd57640"/>
+    <hyperlink ref="B1467" r:id="rId2592" display="https://pan.baidu.com/s/11QxdwVg84buYPM0_bNfOmA?pwd=2kmk"/>
+    <hyperlink ref="C1467" r:id="rId2593" display="https://pan.quark.cn/s/c563292d5b12"/>
+    <hyperlink ref="C1468" r:id="rId2594" display="https://pan.quark.cn/s/418631f01d6e"/>
+    <hyperlink ref="B1468" r:id="rId2595" display="https://pan.baidu.com/s/1DdAMs6gYo0XHiLlqasTYPg?pwd=ftuw"/>
+    <hyperlink ref="C1469" r:id="rId2596" display="https://pan.quark.cn/s/0007835e6b09"/>
+    <hyperlink ref="B1469" r:id="rId2597" display="https://pan.baidu.com/s/1oyrV9MskYwrWb2ruqgEQkQ?pwd=v57n"/>
+    <hyperlink ref="C12" r:id="rId2598" display="https://pan.quark.cn/s/8a7ae709771b"/>
+    <hyperlink ref="C13" r:id="rId2599" display="https://pan.quark.cn/s/248839245be9"/>
+    <hyperlink ref="B13" r:id="rId2600" display="https://pan.baidu.com/s/1BjtK-8Fid34_fAGP8_w2Sg?pwd=6vgf"/>
+    <hyperlink ref="B12" r:id="rId2601" display="https://pan.baidu.com/s/1BBHwhnQxrCc5Wz9nAzXaGQ?pwd=watr"/>
+    <hyperlink ref="B1470" r:id="rId2602" display="https://pan.baidu.com/s/14vx8L7v2R-G94tOvDS7CCg?pwd=fwry"/>
+    <hyperlink ref="C1470" r:id="rId2603" display="https://pan.quark.cn/s/5fa47c284c54"/>
+    <hyperlink ref="C1471" r:id="rId2604" display="https://pan.quark.cn/s/83c93b6cedfe"/>
+    <hyperlink ref="B1471" r:id="rId2605" display="https://pan.baidu.com/s/16RjwKbyESXGlBhoIT7eIcg?pwd=xg78"/>
+    <hyperlink ref="C1472" r:id="rId2606" display="https://pan.quark.cn/s/af077937891e"/>
+    <hyperlink ref="B1472" r:id="rId2607" display="https://pan.baidu.com/s/1q-yKASbdHlDPU6nIAz8Gyw?pwd=x4f9"/>
+    <hyperlink ref="C1449" r:id="rId2608" display="https://pan.quark.cn/s/f29e4ab666a1"/>
+    <hyperlink ref="C1450" r:id="rId2609" display="https://pan.quark.cn/s/76cc6b605e07"/>
+    <hyperlink ref="C1473" r:id="rId2610" display="https://pan.quark.cn/s/7e4d6407ed42"/>
+    <hyperlink ref="B1473" r:id="rId2611" display="https://pan.baidu.com/s/15HLTpTjX2qbm7ZfzQw-ARg?pwd=6d8d"/>
+    <hyperlink ref="C1474" r:id="rId2612" display="https://pan.quark.cn/s/93a06f78c8d8"/>
+    <hyperlink ref="B1474" r:id="rId2613" display="https://pan.baidu.com/s/1RpkjdHuOKag39q5Lvj8SLw?pwd=ab6d"/>
+    <hyperlink ref="B1475" r:id="rId2614" display="https://pan.baidu.com/s/1cnDyVGbRadA8GrN4170t5g?pwd=2e38"/>
+    <hyperlink ref="C1475" r:id="rId2615" display="https://pan.quark.cn/s/dd18135cc8c6"/>
+    <hyperlink ref="B1476" r:id="rId2616" display="https://pan.baidu.com/s/1g3i38dJYw8A7hGIMk2odlQ?pwd=i9bh"/>
+    <hyperlink ref="C1476" r:id="rId2617" display="https://pan.quark.cn/s/8dfe5a22c16d"/>
+    <hyperlink ref="B1477" r:id="rId2618" display="https://pan.baidu.com/s/1sIIMQbJtGtZhXRJ3hQecIA?pwd=h326"/>
+    <hyperlink ref="C1477" r:id="rId2619" display="https://pan.quark.cn/s/5d00c83bf0ad"/>
+    <hyperlink ref="C1478" r:id="rId2620" display="https://pan.quark.cn/s/15c37d585aab"/>
+    <hyperlink ref="C1479" r:id="rId2621" display="https://pan.quark.cn/s/2001ee80af6f"/>
+    <hyperlink ref="C1480" r:id="rId2622" display="https://pan.quark.cn/s/67ba1399f032"/>
+    <hyperlink ref="C1481" r:id="rId2623" display="https://pan.quark.cn/s/b07570e9ab5e"/>
+    <hyperlink ref="B1478" r:id="rId2624" display="https://pan.baidu.com/s/1rRuS6dGOIJL4AHvNCd9rwA?pwd=fdmf"/>
+    <hyperlink ref="B1479" r:id="rId2625" display="https://pan.baidu.com/s/1na7RpQ2Dx6N3NWp5Ic5Y1w?pwd=v9dt"/>
+    <hyperlink ref="B1481" r:id="rId2626" display="https://pan.baidu.com/s/1egsJhjRhuWZA4Du5lVV7Vw?pwd=k9jd"/>
+    <hyperlink ref="C1482" r:id="rId2627" display="https://pan.quark.cn/s/efea95b5ecdd"/>
+    <hyperlink ref="B1482" r:id="rId2628" display="https://pan.baidu.com/s/1N5zwljRLRCtcD7AHcyHWvg?pwd=5euf"/>
+    <hyperlink ref="C1483" r:id="rId2629" display="https://pan.quark.cn/s/bd9377906f38"/>
+    <hyperlink ref="B1483" r:id="rId2630" display="https://pan.baidu.com/s/1ZTENvS1nUZ_kwtSiG60qKQ?pwd=t4dp"/>
+    <hyperlink ref="C1484" r:id="rId2631" display="https://pan.quark.cn/s/2a391c6c6c0d"/>
+    <hyperlink ref="B1484" r:id="rId2632" display="https://pan.baidu.com/s/1nZwqbaHu-GYV3YjuxL5ftQ?pwd=x52b"/>
+    <hyperlink ref="C1485" r:id="rId2633" display="https://pan.quark.cn/s/d144203b4f04"/>
+    <hyperlink ref="B1485" r:id="rId2634" display="https://pan.baidu.com/s/14Auy0LyAt1Sq5TBngfDCFg?pwd=bxc2"/>
+    <hyperlink ref="C1486" r:id="rId2635" display="https://pan.quark.cn/s/31ca72ce41fe"/>
+    <hyperlink ref="B1486" r:id="rId2636" display="https://pan.baidu.com/s/1_bkSnQDD5-ba-fZOego-6w?pwd=3ia9"/>
+    <hyperlink ref="C1487" r:id="rId2637" display="https://pan.quark.cn/s/710477fd515d"/>
+    <hyperlink ref="B1487" r:id="rId2638" display="https://pan.baidu.com/s/1CiqmReg9IwL5b-iAUwsiIQ?pwd=zeuz"/>
+    <hyperlink ref="C1488" r:id="rId2639" display="https://pan.quark.cn/s/536efaa24f14"/>
+    <hyperlink ref="B1488" r:id="rId2640" display="https://pan.baidu.com/s/16-MrteTp527wWosw5Q0yyQ?pwd=dkr2"/>
+    <hyperlink ref="C1489" r:id="rId2641" display="https://pan.quark.cn/s/cb4005978ee4"/>
+    <hyperlink ref="B1489" r:id="rId2642" display="https://pan.baidu.com/s/1COSJVhrEstlfksG7iGDaWg?pwd=uyy5"/>
+    <hyperlink ref="C1490" r:id="rId2643" display="https://pan.quark.cn/s/a41b2ea61493"/>
+    <hyperlink ref="B1490" r:id="rId2644" display="https://pan.baidu.com/s/1W6USOwx_yIokSP6li0LNAQ?pwd=5q3b"/>
+    <hyperlink ref="C1491" r:id="rId2645" display="https://pan.quark.cn/s/ab79035a6ba2"/>
+    <hyperlink ref="B1491" r:id="rId2646" display="https://pan.baidu.com/s/1BzD9f80ma69k5taOkBfCLg?pwd=2zah"/>
+    <hyperlink ref="C1492" r:id="rId2647" display="https://pan.quark.cn/s/09ba225e5693"/>
+    <hyperlink ref="B1492" r:id="rId2648" display="https://pan.baidu.com/s/1E98JmVzgKJSNNrmEXTSQ1Q?pwd=ifhx"/>
+    <hyperlink ref="C1493" r:id="rId2649" display="https://pan.quark.cn/s/80d2b2eefa48"/>
+    <hyperlink ref="C1494" r:id="rId2650" display="https://pan.quark.cn/s/7007065ac9e4"/>
+    <hyperlink ref="B1494" r:id="rId2651" display="https://pan.baidu.com/s/1YHOTgRAoD8E7097vg6vxyA?pwd=3s2t"/>
+    <hyperlink ref="C1495" r:id="rId2652" display="https://pan.quark.cn/s/60313c8f4783"/>
+    <hyperlink ref="B1495" r:id="rId2653" display="https://pan.baidu.com/s/1uIzwAE7wXvRqEt7TDVvo6Q?pwd=rzgq"/>
+    <hyperlink ref="C1496" r:id="rId2654" display="https://pan.quark.cn/s/2addbb34b3e0"/>
+    <hyperlink ref="B1496" r:id="rId2655" display="https://pan.baidu.com/s/1BT2fXH_pex0yL0DL-yUMqA?pwd=nwfd"/>
+    <hyperlink ref="C1497" r:id="rId2656" display="https://pan.quark.cn/s/8cbd26108e4a"/>
+    <hyperlink ref="B1497" r:id="rId2657" display="https://pan.baidu.com/s/1DH-pDGQtecLcoxMoY_ha7w?pwd=k38t"/>
+    <hyperlink ref="C1498" r:id="rId2658" display="https://pan.quark.cn/s/f12f6a440074"/>
+    <hyperlink ref="B1498" r:id="rId2659" display="https://pan.baidu.com/s/1faWu03bbvtOH9TtWtW1HRw?pwd=2s8i"/>
+    <hyperlink ref="C1499" r:id="rId2660" display="https://pan.quark.cn/s/bfb19020113d"/>
+    <hyperlink ref="B1499" r:id="rId2661" display="https://pan.baidu.com/s/1YVP8i5T87clqpC8N5TyRkQ?pwd=k5jd"/>
+    <hyperlink ref="C1500" r:id="rId2662" display="https://pan.quark.cn/s/7f9ed6a3c373"/>
+    <hyperlink ref="C1501" r:id="rId2663" display="https://pan.quark.cn/s/ce5524759492"/>
+    <hyperlink ref="B1501" r:id="rId2664" display="https://pan.baidu.com/s/1-Lt2A_zppwxKBTyQshmlGg?pwd=ybq9"/>
+    <hyperlink ref="B1500" r:id="rId2665" display="https://pan.baidu.com/s/1a8VkK2kWc7fQqKhnWrCoTw?pwd=3wex"/>
+    <hyperlink ref="B1493" r:id="rId2666" display="https://pan.baidu.com/s/1rdt55RkghPL_agzdsmmx_g?pwd=9cu9"/>
+    <hyperlink ref="C1502" r:id="rId2667" display="https://pan.quark.cn/s/acd5f90a35d8"/>
+    <hyperlink ref="B1502" r:id="rId2668" display="https://pan.baidu.com/s/1O9_SSeTgTBmv_BlVYLTfjg?pwd=qpri"/>
+    <hyperlink ref="B1504" r:id="rId2669" display="https://pan.baidu.com/s/1lnHtXNKQT8nctwrA3qPYNg?pwd=ntaf"/>
+    <hyperlink ref="B1505" r:id="rId2670" display="https://pan.baidu.com/s/1PJWyyu1eAeAz82zGWF6iow?pwd=pgir"/>
+    <hyperlink ref="B1506" r:id="rId2671" display="https://pan.baidu.com/s/1dvQC-LJOhVKHy5BKGepALA?pwd=mpr6"/>
+    <hyperlink ref="B1503" r:id="rId2672" display="https://pan.baidu.com/s/1PWmTvdGdMQvFNIiN6M8fdQ?pwd=dms1"/>
+    <hyperlink ref="C1507" r:id="rId2673" display="https://pan.quark.cn/s/9a341729ef72"/>
+    <hyperlink ref="B1507" r:id="rId2674" display="https://pan.baidu.com/s/12WqvIQUMaIJ-VFt_rwNdEg?pwd=dgtr"/>
+    <hyperlink ref="B1508" r:id="rId2675" display="https://pan.baidu.com/s/1MHc6sK3LSFGT-ZVMW82_lA?pwd=dwrk"/>
+    <hyperlink ref="B1509" r:id="rId2676" display="https://pan.baidu.com/s/1YY30r2JD_fMfReZU5menbQ?pwd=c7ei"/>
+    <hyperlink ref="B1510" r:id="rId2677" display="https://pan.baidu.com/s/1G8MN3-9keW7K0w2Y_mW28w?pwd=b29s"/>
+    <hyperlink ref="C1510" r:id="rId2678" display="https://pan.quark.cn/s/2ed9aaf64b54"/>
+    <hyperlink ref="C1267" r:id="rId2679" display="https://pan.quark.cn/s/5e4535ac29d3"/>
+    <hyperlink ref="C1259" r:id="rId2680" display="https://pan.quark.cn/s/2a09690f5676"/>
+    <hyperlink ref="C1264" r:id="rId2681" display="https://pan.quark.cn/s/62f26f524dd0"/>
+    <hyperlink ref="C1260" r:id="rId2682" display="https://pan.quark.cn/s/c344c1bce908"/>
+    <hyperlink ref="C1261" r:id="rId2683" display="https://pan.quark.cn/s/ecbdc488a927"/>
+    <hyperlink ref="C1265" r:id="rId2684" display="https://pan.quark.cn/s/59dc2c159920"/>
+    <hyperlink ref="C1262" r:id="rId2685" display="https://pan.quark.cn/s/fb5dfb648f45"/>
+    <hyperlink ref="C1263" r:id="rId2686" display="https://pan.quark.cn/s/b1c04154222e"/>
+    <hyperlink ref="C1276" r:id="rId2687" display="https://pan.quark.cn/s/ed5e5064c5b1"/>
+    <hyperlink ref="C1273" r:id="rId2688" display="https://pan.quark.cn/s/fe51c06a6ca6"/>
+    <hyperlink ref="C1271" r:id="rId2689" display="https://pan.quark.cn/s/02677ca5365f"/>
+    <hyperlink ref="C1272" r:id="rId2690" display="https://pan.quark.cn/s/17958224e93b"/>
+    <hyperlink ref="C1269" r:id="rId2691" display="https://pan.quark.cn/s/6493e78e52fc"/>
+    <hyperlink ref="C1268" r:id="rId2692" display="https://pan.quark.cn/s/b1aa52a0f46b"/>
+    <hyperlink ref="C1277" r:id="rId2693" display="https://pan.quark.cn/s/d0c3fd1f1291"/>
+    <hyperlink ref="C1278" r:id="rId2694" display="https://pan.quark.cn/s/17c16a808730"/>
+    <hyperlink ref="C1256" r:id="rId2695" display="https://pan.quark.cn/s/e618858f02ba"/>
+    <hyperlink ref="C1274" r:id="rId2696" display="https://pan.quark.cn/s/2f7cec7e9caf"/>
+    <hyperlink ref="C1258" r:id="rId2697" display="https://pan.quark.cn/s/650592a44ebc"/>
+    <hyperlink ref="C1284" r:id="rId2698" display="https://pan.quark.cn/s/af0f5f2d99ab"/>
+    <hyperlink ref="C1281" r:id="rId2699" display="https://pan.quark.cn/s/7b5aabc3ae14"/>
+    <hyperlink ref="C1280" r:id="rId2700" display="https://pan.quark.cn/s/fa0172b394d3"/>
+    <hyperlink ref="C1282" r:id="rId2701" display="https://pan.quark.cn/s/5a2ca0c025f2"/>
+    <hyperlink ref="C1291" r:id="rId2702" display="https://pan.quark.cn/s/75f1b78489d9"/>
+    <hyperlink ref="C1283" r:id="rId2703" display="https://pan.quark.cn/s/4b7232664fef"/>
+    <hyperlink ref="C1288" r:id="rId2704" display="https://pan.quark.cn/s/9cf1be020e13"/>
+    <hyperlink ref="C1285" r:id="rId2705" display="https://pan.quark.cn/s/9b15ca869940"/>
+    <hyperlink ref="C1286" r:id="rId2706" display="https://pan.quark.cn/s/70e6743399c8"/>
+    <hyperlink ref="C1289" r:id="rId2707" display="https://pan.quark.cn/s/37228f6dc4ef"/>
+    <hyperlink ref="C1290" r:id="rId2708" display="https://pan.quark.cn/s/2e2258ad2a80"/>
+    <hyperlink ref="C1292" r:id="rId2709" display="https://pan.quark.cn/s/fc695863fa93"/>
+    <hyperlink ref="C1297" r:id="rId2710" display="https://pan.quark.cn/s/edfadcf554cc"/>
+    <hyperlink ref="C1298" r:id="rId2711" display="https://pan.quark.cn/s/afddf3936274"/>
+    <hyperlink ref="C1300" r:id="rId2712" display="https://pan.quark.cn/s/da7bda74044f"/>
+    <hyperlink ref="C1296" r:id="rId2713" display="https://pan.quark.cn/s/76a19cb588ef"/>
+    <hyperlink ref="C1295" r:id="rId2714" display="https://pan.quark.cn/s/05c150229d63"/>
+    <hyperlink ref="C1299" r:id="rId2715" display="https://pan.quark.cn/s/de62c5e9ba91"/>
+    <hyperlink ref="C582" r:id="rId2716" display="https://pan.quark.cn/s/67fa9b0c8529"/>
+    <hyperlink ref="C1294" r:id="rId2717" display="https://pan.quark.cn/s/130b85670c5d"/>
+    <hyperlink ref="C583" r:id="rId2718" display="https://pan.quark.cn/s/aa948219f715"/>
+    <hyperlink ref="C584" r:id="rId2719" display="https://pan.quark.cn/s/1e908d1e719d"/>
+    <hyperlink ref="C585" r:id="rId2720" display="https://pan.quark.cn/s/96705a287933"/>
+    <hyperlink ref="C586" r:id="rId2721" display="https://pan.quark.cn/s/6e6c01030298"/>
+    <hyperlink ref="C1301" r:id="rId2722" display="https://pan.quark.cn/s/c0a31c4b4553"/>
+    <hyperlink ref="C1304" r:id="rId2723" display="https://pan.quark.cn/s/9897391638ef"/>
+    <hyperlink ref="C1302" r:id="rId2724" display="https://pan.quark.cn/s/f80145065dc9"/>
+    <hyperlink ref="C1303" r:id="rId2725" display="https://pan.quark.cn/s/27f29a68f328"/>
+    <hyperlink ref="C1509" r:id="rId2726" display="https://pan.quark.cn/s/8a4116b02f76"/>
+    <hyperlink ref="C1508" r:id="rId2727" display="https://pan.quark.cn/s/e6a4e9e5a588"/>
+    <hyperlink ref="C1503" r:id="rId2728" display="https://pan.quark.cn/s/c55e07182862"/>
+    <hyperlink ref="C1504" r:id="rId2729" display="https://pan.quark.cn/s/3f83abf8b0f2"/>
+    <hyperlink ref="C1505" r:id="rId2730" display="https://pan.quark.cn/s/0f62d4952978"/>
+    <hyperlink ref="C1506" r:id="rId2731" display="https://pan.quark.cn/s/670a8ac56324"/>
+    <hyperlink ref="C1511" r:id="rId2732" display="https://pan.quark.cn/s/895a1e558648"/>
+    <hyperlink ref="B1511" r:id="rId2733" display="https://pan.baidu.com/s/1r6cZDvjKQ4qwQz-t14W_ew?pwd=jgys"/>
+    <hyperlink ref="C1513" r:id="rId2734" display="https://pan.quark.cn/s/3b4b0dab4d3c"/>
+    <hyperlink ref="B1513" r:id="rId2735" display="https://pan.baidu.com/s/1AMczz5NByXFni0fyMmHQWw?pwd=akmj"/>
+    <hyperlink ref="C1514" r:id="rId2736" display="https://pan.quark.cn/s/25fb12ac9ffd"/>
+    <hyperlink ref="C1515" r:id="rId2737" display="https://pan.quark.cn/s/19f1ddfc9fd3"/>
+    <hyperlink ref="B1514" r:id="rId2738" display="https://pan.baidu.com/s/1OxL38f_ulDnAZs7eMFVW0w?pwd=1u4d"/>
+    <hyperlink ref="B1515" r:id="rId2739" display="https://pan.baidu.com/s/1c-DD5OuHnM3JiiXKRFlnrw?pwd=m8yg"/>
+    <hyperlink ref="C1516" r:id="rId2740" display="https://pan.quark.cn/s/df761d4e4cb6"/>
+    <hyperlink ref="B1516" r:id="rId2741" display="https://pan.baidu.com/s/1fGFmcwNLUT1Q98iYq7dGkg?pwd=kaqh"/>
+    <hyperlink ref="B1517" r:id="rId2742" display="https://pan.baidu.com/s/14LLj0IZYYSil6lDHsdUpVA?pwd=kexk"/>
+    <hyperlink ref="B1518" r:id="rId2743" display="https://pan.baidu.com/s/1UlTkHbP0u1w0T6rzGLokWg?pwd=1p3m"/>
+    <hyperlink ref="B1519" r:id="rId2744" display="https://pan.baidu.com/s/1mYnB1FvNL2OxSdZakK4_QQ?pwd=u7dy"/>
+    <hyperlink ref="B1520" r:id="rId2745" display="https://pan.baidu.com/s/1Wg3AfnmYyNhlEwOe6em9yQ?pwd=rxut"/>
+    <hyperlink ref="B1521" r:id="rId2746" display="https://pan.baidu.com/s/1di5vjxfx2CvUJkY5YhDgFg?pwd=cgtr"/>
+    <hyperlink ref="B1522" r:id="rId2747" display="https://pan.baidu.com/s/1voOWer6N1Df56uPi5rYcqw?pwd=2ywv"/>
+    <hyperlink ref="B1523" r:id="rId2748" display="https://pan.baidu.com/s/1flOD0FFWjs1iS69H5mZGXA?pwd=4yhv"/>
+    <hyperlink ref="B1524" r:id="rId2749" display="https://pan.baidu.com/s/1xgyvD59FftAeg8V3b-mkjg?pwd=r33g"/>
+    <hyperlink ref="B1525" r:id="rId2750" display="https://pan.baidu.com/s/1Ch3qvepWdmlBSixEH6-4qw?pwd=c93u"/>
+    <hyperlink ref="B1526" r:id="rId2751" display="https://pan.baidu.com/s/1WtXZISd5nLxX-Wx3pmRQpg?pwd=r8gy"/>
+    <hyperlink ref="B1527" r:id="rId2752" display="https://pan.baidu.com/s/1nYNKqjhlyyznKJKOcRu-aQ?pwd=fnth"/>
+    <hyperlink ref="B1528" r:id="rId2753" display="https://pan.baidu.com/s/1D35vRGSvzLP2Hl_GgsfyDA?pwd=ayjc"/>
+    <hyperlink ref="B1529" r:id="rId2754" display="https://pan.baidu.com/s/1zGeTSmgKszuQgeqZQXon7g?pwd=9pqy"/>
+    <hyperlink ref="B1530" r:id="rId2755" display="https://pan.baidu.com/s/10mpIgYtWXi5ivV_gA5C-1g?pwd=48jw"/>
+    <hyperlink ref="B1531" r:id="rId2756" display="https://pan.baidu.com/s/11pllIwOPU7pQvfISSSEXDA?pwd=s7ea"/>
+    <hyperlink ref="B1532" r:id="rId2757" display="https://pan.baidu.com/s/1HBtKXqSNE7xVQw-GKcPnDA?pwd=fw8j"/>
+    <hyperlink ref="B1533" r:id="rId2758" display="https://pan.baidu.com/s/1GxXD8aLIXWAeqFIh7Sligg?pwd=rv3a"/>
+    <hyperlink ref="B1534" r:id="rId2759" display="https://pan.baidu.com/s/18wA4Wai0BKi_Qxx_a_MVfQ?pwd=4fji"/>
+    <hyperlink ref="B1535" r:id="rId2760" display="https://pan.baidu.com/s/1Rkcvy6ycbsYz6XxFRrnjuA?pwd=iebp"/>
+    <hyperlink ref="B1536" r:id="rId2761" display="https://pan.baidu.com/s/1mPx_9iWuH6C5lxVuUtJAcg?pwd=7sp9"/>
+    <hyperlink ref="B1537" r:id="rId2762" display="https://pan.baidu.com/s/1lanaG4Ew6J5_IiaZR8g6rQ?pwd=688y"/>
+    <hyperlink ref="B1538" r:id="rId2763" display="https://pan.baidu.com/s/18f0QAjIRv37We5Y46EN6PA?pwd=8sq4"/>
+    <hyperlink ref="B1539" r:id="rId2764" display="https://pan.baidu.com/s/1YxTu75RNAOQwN2duu3Xu7w?pwd=jw94"/>
+    <hyperlink ref="B1540" r:id="rId2765" display="https://pan.baidu.com/s/1SCW825nCPuufwIzH9YzeqA?pwd=sygs"/>
+    <hyperlink ref="B1541" r:id="rId2766" display="https://pan.baidu.com/s/1mrPlH8k8ziHIuaT_Ef7sWQ?pwd=5hu6"/>
+    <hyperlink ref="B1542" r:id="rId2767" display="https://pan.baidu.com/s/11f2E_BZoj6DeAd5-1F9a0w?pwd=ghej"/>
+    <hyperlink ref="C1543" r:id="rId2768" display="https://pan.quark.cn/s/4696b1d3c392"/>
+    <hyperlink ref="B1543" r:id="rId2769" display="https://pan.baidu.com/s/1UiUdUYNIXnDz0hyBRBf2Rg?pwd=5qx7"/>
+    <hyperlink ref="B1544" r:id="rId2770" display="https://pan.baidu.com/s/1oLV_OlxIdsBGSZ4tzs9dzQ?pwd=1sb7"/>
+    <hyperlink ref="C1544" r:id="rId2771" display="https://pan.quark.cn/s/f5003bad33a2"/>
+    <hyperlink ref="B1545" r:id="rId2772" display="https://pan.baidu.com/s/1GiRJ6bTOS0aXNSd91MESIA?pwd=anjg"/>
+    <hyperlink ref="C1545" r:id="rId2773" display="https://pan.quark.cn/s/2d5e3dd62017"/>
+    <hyperlink ref="B1546" r:id="rId2774" display="https://pan.baidu.com/s/1oezhjiV9iQYLviIkrTyHJw?pwd=48gx"/>
+    <hyperlink ref="B1547" r:id="rId2775" display="https://pan.baidu.com/s/1pQURsIPo_8yWHiG7HJAq5Q?pwd=g8aw"/>
+    <hyperlink ref="B1548" r:id="rId2776" display="https://pan.baidu.com/s/1M7mCSfznq1yqQCIW03u8Xw?pwd=uusn"/>
+    <hyperlink ref="B1549" r:id="rId2777" display="https://pan.baidu.com/s/1XNTFFbG8R0mPqGI18l7poQ?pwd=njr8"/>
+    <hyperlink ref="B1550" r:id="rId2778" display="https://pan.baidu.com/s/1Tov_XSr7t-72xfv1U3Z6VQ?pwd=i55s"/>
+    <hyperlink ref="B1551" r:id="rId2779" display="https://pan.baidu.com/s/1HF15Vzjyz53PGk3Fo5Dftg?pwd=bgvn"/>
+    <hyperlink ref="B1552" r:id="rId2780" display="https://pan.baidu.com/s/1eVgtMKny7v2u7jfTeIkQww?pwd=uj31"/>
+    <hyperlink ref="B1553" r:id="rId2781" display="https://pan.baidu.com/s/1LPSFKQsNWoPwdcwID2Yoxw?pwd=93ig"/>
+    <hyperlink ref="B1554" r:id="rId2782" display="https://pan.baidu.com/s/1mCOqYlIB-cUm0tLe0XAEdw?pwd=qgru"/>
+    <hyperlink ref="B1555" r:id="rId2783" display="https://pan.baidu.com/s/1-e6PTCqqopM27yGwg5zwsg?pwd=xmzg"/>
+    <hyperlink ref="B1556" r:id="rId2784" display="https://pan.baidu.com/s/1i_KCkLM8-F-y43esQqjolA?pwd=uc72"/>
+    <hyperlink ref="B1557" r:id="rId2785" display="https://pan.baidu.com/s/1o2Q9J981mKnEYVo2aNsWag?pwd=r82w"/>
+    <hyperlink ref="B1558" r:id="rId2786" display="https://pan.baidu.com/s/1tEuP-VLg7wiaoF_NY3cwmg?pwd=h3ht"/>
+    <hyperlink ref="B1559" r:id="rId2787" display="https://pan.baidu.com/s/1XgFqbaJXmOkEUMpcGg5cFw?pwd=b2cz"/>
+    <hyperlink ref="B1560" r:id="rId2788" display="https://pan.baidu.com/s/1iqueX6Zpkl4PWqwRdq_Snw?pwd=aeby"/>
+    <hyperlink ref="B1561" r:id="rId2789" display="https://pan.baidu.com/s/1KrWLriR1-_iZFeUBaMNUaw?pwd=2nw5"/>
+    <hyperlink ref="B1562" r:id="rId2790" display="https://pan.baidu.com/s/1YSKjsaeMG0RNdzhJlCjLxg?pwd=iff4"/>
+    <hyperlink ref="B1563" r:id="rId2791" display="https://pan.baidu.com/s/1_cIDLeWoMAxW2Xa9ibUrHA?pwd=kt3c"/>
+    <hyperlink ref="B1564" r:id="rId2792" display="https://pan.baidu.com/s/1DWo1ma0GGMr5L4M2-5H6Ig?pwd=zn8k"/>
+    <hyperlink ref="B1565" r:id="rId2793" display="https://pan.baidu.com/s/1ZLVSdhAJoVzTlcrfCy0ARQ?pwd=hhm3"/>
+    <hyperlink ref="B1566" r:id="rId2794" display="https://pan.baidu.com/s/1p2hI0AMYFZLq1nuLPhS6Ew?pwd=k2be"/>
+    <hyperlink ref="B1567" r:id="rId2795" display="https://pan.baidu.com/s/118dx1ZWNzoucGqwfXjUUOg?pwd=uzbm"/>
+    <hyperlink ref="B1568" r:id="rId2796" display="https://pan.baidu.com/s/1MzTCqiprqdoddsf6kNXLmw?pwd=nz95"/>
+    <hyperlink ref="B1569" r:id="rId2797" display="https://pan.baidu.com/s/1UQBjEfwdsUGiMcUXe1OWFg?pwd=2pk4"/>
+    <hyperlink ref="B1570" r:id="rId2798" display="https://pan.baidu.com/s/1EvVhqfWHCXz7Alo89r19Bw?pwd=6bpu"/>
+    <hyperlink ref="B1571" r:id="rId2799" display="https://pan.baidu.com/s/1OU4AUAu2gmrLSqnDGTZz2g?pwd=tvf5"/>
+    <hyperlink ref="B1572" r:id="rId2800" display="https://pan.baidu.com/s/14sjjnzF9PZ65KqUpBCkaeQ?pwd=drxv"/>
+    <hyperlink ref="B1573" r:id="rId2801" display="https://pan.baidu.com/s/1j8w9DJZ8NVswjIDhagp9zw?pwd=mhde"/>
+    <hyperlink ref="B1574" r:id="rId2802" display="https://pan.baidu.com/s/1iG72gGjOmHGVL8GdvOQD-w?pwd=jdfp"/>
+    <hyperlink ref="B1575" r:id="rId2803" display="https://pan.baidu.com/s/1Lz6ORD1QmDmOQtHgx8KSAw?pwd=c6tr"/>
+    <hyperlink ref="C1517" r:id="rId2804" display="https://pan.quark.cn/s/ddfe514c01b4"/>
+    <hyperlink ref="C1518" r:id="rId2805" display="https://pan.quark.cn/s/35dd113cc531"/>
+    <hyperlink ref="C1519" r:id="rId2806" display="https://pan.quark.cn/s/ccb7dcc3f6b3"/>
+    <hyperlink ref="C1522" r:id="rId2807" display="https://pan.quark.cn/s/7ea391f0ac18"/>
+    <hyperlink ref="C1520" r:id="rId2808" display="https://pan.quark.cn/s/2f08e019a006"/>
+    <hyperlink ref="C1521" r:id="rId2809" display="https://pan.quark.cn/s/3a9436a08b1d"/>
+    <hyperlink ref="C1576" r:id="rId2810" display="https://pan.quark.cn/s/902a5af3f41c"/>
+    <hyperlink ref="B1576" r:id="rId2811" display="https://pan.baidu.com/s/1Zfk6PLBsUi_uR42Dn0uNuA?pwd=shxa"/>
+    <hyperlink ref="C1577" r:id="rId2812" display="https://pan.quark.cn/s/282b0849c465"/>
+    <hyperlink ref="B1577" r:id="rId2813" display="https://pan.baidu.com/s/1kIabBpa0PwF6QglBgDPdkg?pwd=7e4h"/>
+    <hyperlink ref="C1568" r:id="rId2814" display="https://pan.quark.cn/s/1dfa106e272f"/>
+    <hyperlink ref="C1569" r:id="rId2815" display="https://pan.quark.cn/s/1bbe329f69ec"/>
+    <hyperlink ref="C1565" r:id="rId2816" display="https://pan.quark.cn/s/bae620151465"/>
+    <hyperlink ref="C1567" r:id="rId2817" display="https://pan.quark.cn/s/f1f67f61d76f"/>
+    <hyperlink ref="C1570" r:id="rId2818" display="https://pan.quark.cn/s/3899ba11c731"/>
+    <hyperlink ref="C1566" r:id="rId2819" display="https://pan.quark.cn/s/13f304283a38"/>
+    <hyperlink ref="C1571" r:id="rId2820" display="https://pan.quark.cn/s/21fecc86364d"/>
+    <hyperlink ref="C1525" r:id="rId2821" display="https://pan.quark.cn/s/ab879f72ceab"/>
+    <hyperlink ref="C1527" r:id="rId2822" display="https://pan.quark.cn/s/e0cc9765c85e"/>
+    <hyperlink ref="C1528" r:id="rId2823" display="https://pan.quark.cn/s/060847781ad5"/>
+    <hyperlink ref="C1529" r:id="rId2824" display="https://pan.quark.cn/s/484eb2a874a4"/>
+    <hyperlink ref="C1530" r:id="rId2825" display="https://pan.quark.cn/s/9bfff304ba6c"/>
+    <hyperlink ref="C1532" r:id="rId2826" display="https://pan.quark.cn/s/42bdc3cff310"/>
+    <hyperlink ref="C1531" r:id="rId2827" display="https://pan.quark.cn/s/0603e7479295"/>
+    <hyperlink ref="C1534" r:id="rId2828" display="https://pan.quark.cn/s/f0c6fa8a1104"/>
+    <hyperlink ref="C1535" r:id="rId2829" display="https://pan.quark.cn/s/d7fa56219f20"/>
+    <hyperlink ref="C1537" r:id="rId2830" display="https://pan.quark.cn/s/f68c7e9f4d9a"/>
+    <hyperlink ref="C1538" r:id="rId2831" display="https://pan.quark.cn/s/c4a32f7e6986"/>
+    <hyperlink ref="C1540" r:id="rId2832" display="https://pan.quark.cn/s/76770eecb215"/>
+    <hyperlink ref="C1541" r:id="rId2833" display="https://pan.quark.cn/s/a3c865ce8182"/>
+    <hyperlink ref="C1542" r:id="rId2834" display="https://pan.quark.cn/s/156f50bcb188"/>
+    <hyperlink ref="C1546" r:id="rId2835" display="https://pan.quark.cn/s/d976490535d2"/>
+    <hyperlink ref="C1547" r:id="rId2836" display="https://pan.quark.cn/s/eeb66d806d14"/>
+    <hyperlink ref="C1548" r:id="rId2837" display="https://pan.quark.cn/s/1d128ae0bbf6"/>
+    <hyperlink ref="C1549" r:id="rId2838" display="https://pan.quark.cn/s/16637dbb64b2"/>
+    <hyperlink ref="C1550" r:id="rId2839" display="https://pan.quark.cn/s/13e4918677a8"/>
+    <hyperlink ref="C1551" r:id="rId2840" display="https://pan.quark.cn/s/7d8f59d18891"/>
+    <hyperlink ref="C1552" r:id="rId2841" display="https://pan.quark.cn/s/fa3ad3ac82c0"/>
+    <hyperlink ref="C1553" r:id="rId2842" display="https://pan.quark.cn/s/406197146420"/>
+    <hyperlink ref="C1554" r:id="rId2843" display="https://pan.quark.cn/s/d13946be3e2d"/>
+    <hyperlink ref="C1557" r:id="rId2844" display="https://pan.quark.cn/s/5d65dc98a750"/>
+    <hyperlink ref="C1555" r:id="rId2845" display="https://pan.quark.cn/s/79eb9b7a674e"/>
+    <hyperlink ref="C1558" r:id="rId2846" display="https://pan.quark.cn/s/7bac0532f720"/>
+    <hyperlink ref="C1559" r:id="rId2847" display="https://pan.quark.cn/s/eb2ead28d45d"/>
+    <hyperlink ref="C1560" r:id="rId2848" display="https://pan.quark.cn/s/da8f92d4937b"/>
+    <hyperlink ref="C1561" r:id="rId2849" display="https://pan.quark.cn/s/f6bc022e0d61"/>
+    <hyperlink ref="C1562" r:id="rId2850" display="https://pan.quark.cn/s/67363a7d1c2d"/>
+    <hyperlink ref="C1563" r:id="rId2851" display="https://pan.quark.cn/s/21d54398729a"/>
+    <hyperlink ref="C1564" r:id="rId2852" display="https://pan.quark.cn/s/1ef60583d57f"/>
+    <hyperlink ref="C1572" r:id="rId2853" display="https://pan.quark.cn/s/b9e762280fb3"/>
+    <hyperlink ref="C1573" r:id="rId2854" display="https://pan.quark.cn/s/4d496bb4248c"/>
+    <hyperlink ref="C1574" r:id="rId2855" display="https://pan.quark.cn/s/db855f3f613f"/>
+    <hyperlink ref="C1575" r:id="rId2856" display="https://pan.quark.cn/s/d0826dd1b377"/>
+    <hyperlink ref="C1578" r:id="rId2857" display="https://pan.quark.cn/s/a3e2f0225b53"/>
+    <hyperlink ref="B1578" r:id="rId2858" display="https://pan.baidu.com/s/1YpAoCnpkQvtzgYhUyRUXvQ?pwd=kc3b"/>
+    <hyperlink ref="B1579" r:id="rId2859" display="https://pan.baidu.com/s/1kiisczUid2KkoNDfVFh5WQ?pwd=4d9y"/>
+    <hyperlink ref="B1580" r:id="rId2860" display="https://pan.baidu.com/s/19la7HD6_XHpg0dEZMqHgKw?pwd=r4pk"/>
+    <hyperlink ref="C1580" r:id="rId2861" display="https://pan.quark.cn/s/a0dfb38d9b54"/>
+    <hyperlink ref="C1581" r:id="rId2862" display="https://pan.quark.cn/s/0a8647b1bf2b"/>
+    <hyperlink ref="B1581" r:id="rId2863" display="https://pan.baidu.com/s/1HxNDMdBbVXnK-ePFll4d9Q?pwd=4k84"/>
+    <hyperlink ref="B1582" r:id="rId2864" display="https://pan.baidu.com/s/14P7KSslm469pt4cGuePusw?pwd=isfe"/>
+    <hyperlink ref="C1582" r:id="rId2865" display="https://pan.quark.cn/s/f78dfa2198bb"/>
+    <hyperlink ref="B1583" r:id="rId2866" display="https://pan.baidu.com/s/1gng30JpGBGUF7OSUmZiZUg?pwd=ia8d"/>
+    <hyperlink ref="C1583" r:id="rId2867" display="https://pan.quark.cn/s/1238fdb3399a"/>
+    <hyperlink ref="B1584" r:id="rId2868" display="https://pan.baidu.com/s/1i9aueWMTqsznatbIiwTaeg?pwd=evqu"/>
+    <hyperlink ref="C1584" r:id="rId2869" display="https://pan.quark.cn/s/4ad1877c73bd"/>
+    <hyperlink ref="B1585" r:id="rId2870" display="https://pan.baidu.com/s/1fJ8OJRIS8TD3RoFqSuzoSA?pwd=raa9"/>
+    <hyperlink ref="C1585" r:id="rId2871" display="https://pan.quark.cn/s/34ccf73a7526"/>
+    <hyperlink ref="B1586" r:id="rId2872" display="https://pan.baidu.com/s/19b_HAJ7w-y-02sXwg3Ub9g?pwd=fxhf"/>
+    <hyperlink ref="C1586" r:id="rId2873" display="https://pan.quark.cn/s/f6bf1d32d90a"/>
+    <hyperlink ref="C1587" r:id="rId2874" display="https://pan.quark.cn/s/6edbe1a7c850"/>
+    <hyperlink ref="B1587" r:id="rId2875" display="https://pan.baidu.com/s/1l8SAoUslvU8wQ_NryNdTtg?pwd=wwa9"/>
+    <hyperlink ref="B1588" r:id="rId2876" display="https://pan.baidu.com/s/1S11NP1oYdOG2pa3UGWBEtQ?pwd=byp2"/>
+    <hyperlink ref="C1588" r:id="rId2877" display="https://pan.quark.cn/s/406a86077c15"/>
+    <hyperlink ref="B1589" r:id="rId2878" display="https://pan.baidu.com/s/1KxN_ZGm4BtC0beicoO3w8Q?pwd=p6h9"/>
+    <hyperlink ref="C1589" r:id="rId2879" display="https://pan.quark.cn/s/fc973d4aaee4"/>
+    <hyperlink ref="B1590" r:id="rId2880" display="https://pan.baidu.com/s/1FtaIsdBpjG_46cG55yqOwg?pwd=hsg2"/>
+    <hyperlink ref="C1590" r:id="rId2881" display="https://pan.quark.cn/s/3ee8f2397790"/>
+    <hyperlink ref="C1591" r:id="rId2882" display="https://pan.quark.cn/s/f4a35184e648"/>
+    <hyperlink ref="B1592" r:id="rId2883" display="https://pan.baidu.com/s/1mdKjOXYK_n3Q57iSiUvWTQ?pwd=n1wk"/>
+    <hyperlink ref="B1593" r:id="rId2884" display="https://pan.baidu.com/s/1ypP8265ESXVf_drgbPuO_A?pwd=cxnf"/>
+    <hyperlink ref="B1594" r:id="rId2885" display="https://pan.baidu.com/s/1hoG_CYSbtaqpXmWCF9i5jQ?pwd=1vrc"/>
+    <hyperlink ref="C1594" r:id="rId2886" display="https://pan.quark.cn/s/248a1a1695ba"/>
+    <hyperlink ref="B1595" r:id="rId2887" display="https://pan.baidu.com/s/1PlK-qIs43rGruPei8RIZGg?pwd=pdme"/>
+    <hyperlink ref="B1596" r:id="rId2888" display="https://pan.baidu.com/s/1DaNlsJcz9padJyKETMYqkw?pwd=jy4k"/>
+    <hyperlink ref="B1597" r:id="rId2889" display="https://pan.baidu.com/s/1ZYLM2MnlUTg1exFLs71CWA?pwd=sp35"/>
+    <hyperlink ref="C1598" r:id="rId2890" display="https://pan.quark.cn/s/19ce96adfd5a"/>
+    <hyperlink ref="C1599" r:id="rId2891" display="https://pan.quark.cn/s/8705ca195fe7"/>
+    <hyperlink ref="B1599" r:id="rId2892" display="https://pan.baidu.com/s/1cdv_kSY1xUtEj_VkGJYJQg?pwd=7tes"/>
+    <hyperlink ref="C1600" r:id="rId2893" display="https://pan.quark.cn/s/a9481f58da02"/>
+    <hyperlink ref="B1600" r:id="rId2894" display="https://pan.baidu.com/s/1-4qn0QoAfS4Wxmosl0a9Tw?pwd=kdyi"/>
+    <hyperlink ref="C1601" r:id="rId2895" display="https://pan.quark.cn/s/c8e7cd75184d"/>
+    <hyperlink ref="B1601" r:id="rId2896" display="https://pan.baidu.com/s/1I2GEFDAk9YZYG0wFgFa9gw?pwd=7n9q"/>
+    <hyperlink ref="C1602" r:id="rId2897" display="https://pan.quark.cn/s/8c3056fb0545"/>
+    <hyperlink ref="B1602" r:id="rId2898" display="https://pan.baidu.com/s/1Ln6JzSvvCCTAES4RZDkK1w?pwd=jhb5"/>
+    <hyperlink ref="B1603" r:id="rId2899" display="https://pan.baidu.com/s/19zxBb4XMT9IEQDmAv64ejw?pwd=wfjb"/>
+    <hyperlink ref="B1604" r:id="rId2900" display="https://pan.baidu.com/s/15N3PAas9GObyPXR3ZjTzzA?pwd=6bg2"/>
+    <hyperlink ref="C1603" r:id="rId2901" display="https://pan.quark.cn/s/49ef1f6b60a1"/>
+    <hyperlink ref="C1604" r:id="rId2902" display="https://pan.quark.cn/s/ca5b1c9bf2ee"/>
+    <hyperlink ref="B1605" r:id="rId2903" display="https://pan.baidu.com/s/1PaqhJby9JIE4b4O39sv5Tw?pwd=xwct"/>
+    <hyperlink ref="C1606" r:id="rId2904" display="https://pan.quark.cn/s/b4808bde3725"/>
+    <hyperlink ref="C1607" r:id="rId2905" display="https://pan.quark.cn/s/115a4a0c6786"/>
+    <hyperlink ref="C1608" r:id="rId2906" display="https://pan.quark.cn/s/a27fa222111a"/>
+    <hyperlink ref="B1606" r:id="rId2907" display="https://pan.baidu.com/s/1MfeiWczF-yAzu3kVJ87i9g?pwd=h47w"/>
+    <hyperlink ref="B1607" r:id="rId2908" display="https://pan.baidu.com/s/1IKYqoVZz5BTq05i98ZmWVw?pwd=sew2"/>
+    <hyperlink ref="C1609" r:id="rId2909" display="https://pan.quark.cn/s/5a2e6968b36c"/>
+    <hyperlink ref="C497" r:id="rId2910" display="https://pan.quark.cn/s/216f0b70cf07"/>
+    <hyperlink ref="B497" r:id="rId2911" display="https://pan.baidu.com/s/1Jgt05NdHLrYbm0-MwMXZcw?pwd=vj25"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -34858,7 +35578,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D1573"/>
+  <dimension ref="A1:D1605"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection/>
@@ -34884,7 +35604,7 @@
         <v>6</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>4434</v>
+        <v>4534</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:4">
@@ -51833,7 +52553,7 @@
     </row>
     <row r="1414" customHeight="1" spans="1:4">
       <c r="A1414" s="5" t="s">
-        <v>4435</v>
+        <v>4535</v>
       </c>
       <c r="B1414" s="4" t="s">
         <v>3987</v>
@@ -53459,40 +54179,40 @@
         <v>4376</v>
       </c>
       <c r="C1549" s="4" t="s">
-        <v>278</v>
+        <v>4377</v>
       </c>
       <c r="D1549" s="4"/>
     </row>
     <row r="1550" customHeight="1" spans="1:4">
       <c r="A1550" s="4" t="s">
-        <v>4377</v>
+        <v>4378</v>
       </c>
       <c r="B1550" s="4" t="s">
-        <v>4378</v>
+        <v>4379</v>
       </c>
       <c r="C1550" s="4" t="s">
-        <v>278</v>
+        <v>4380</v>
       </c>
       <c r="D1550" s="4"/>
     </row>
     <row r="1551" customHeight="1" spans="1:4">
       <c r="A1551" s="4" t="s">
-        <v>4379</v>
+        <v>4381</v>
       </c>
       <c r="B1551" s="4" t="s">
-        <v>4380</v>
+        <v>4382</v>
       </c>
       <c r="C1551" s="4" t="s">
-        <v>278</v>
+        <v>4383</v>
       </c>
       <c r="D1551" s="4"/>
     </row>
     <row r="1552" customHeight="1" spans="1:4">
       <c r="A1552" s="4" t="s">
-        <v>4381</v>
+        <v>4384</v>
       </c>
       <c r="B1552" s="4" t="s">
-        <v>4382</v>
+        <v>4385</v>
       </c>
       <c r="C1552" s="4" t="s">
         <v>278</v>
@@ -53501,255 +54221,639 @@
     </row>
     <row r="1553" customHeight="1" spans="1:4">
       <c r="A1553" s="4" t="s">
-        <v>4383</v>
+        <v>4386</v>
       </c>
       <c r="B1553" s="4" t="s">
-        <v>4384</v>
+        <v>4387</v>
       </c>
       <c r="C1553" s="4" t="s">
-        <v>278</v>
+        <v>4388</v>
       </c>
       <c r="D1553" s="4"/>
     </row>
     <row r="1554" customHeight="1" spans="1:4">
       <c r="A1554" s="4" t="s">
-        <v>4385</v>
+        <v>4389</v>
       </c>
       <c r="B1554" s="4" t="s">
-        <v>4386</v>
+        <v>4390</v>
       </c>
       <c r="C1554" s="4" t="s">
-        <v>278</v>
+        <v>4391</v>
       </c>
       <c r="D1554" s="4"/>
     </row>
     <row r="1555" customHeight="1" spans="1:4">
       <c r="A1555" s="4" t="s">
-        <v>4387</v>
+        <v>4392</v>
       </c>
       <c r="B1555" s="4" t="s">
-        <v>4388</v>
+        <v>4393</v>
       </c>
       <c r="C1555" s="4" t="s">
-        <v>278</v>
+        <v>4394</v>
       </c>
       <c r="D1555" s="4"/>
     </row>
     <row r="1556" customHeight="1" spans="1:4">
       <c r="A1556" s="4" t="s">
-        <v>4389</v>
+        <v>4395</v>
       </c>
       <c r="B1556" s="4" t="s">
-        <v>4390</v>
+        <v>4396</v>
       </c>
       <c r="C1556" s="4" t="s">
-        <v>278</v>
+        <v>4397</v>
       </c>
       <c r="D1556" s="4"/>
     </row>
     <row r="1557" customHeight="1" spans="1:4">
       <c r="A1557" s="4" t="s">
-        <v>4391</v>
+        <v>4398</v>
       </c>
       <c r="B1557" s="4" t="s">
-        <v>4392</v>
+        <v>4399</v>
       </c>
       <c r="C1557" s="4" t="s">
-        <v>278</v>
+        <v>4400</v>
       </c>
       <c r="D1557" s="4"/>
     </row>
     <row r="1558" customHeight="1" spans="1:4">
       <c r="A1558" s="4" t="s">
-        <v>4393</v>
+        <v>4401</v>
       </c>
       <c r="B1558" s="4" t="s">
-        <v>4394</v>
+        <v>4402</v>
       </c>
       <c r="C1558" s="4" t="s">
-        <v>278</v>
+        <v>4403</v>
       </c>
       <c r="D1558" s="4"/>
     </row>
     <row r="1559" customHeight="1" spans="1:4">
       <c r="A1559" s="4" t="s">
-        <v>4395</v>
+        <v>4404</v>
       </c>
       <c r="B1559" s="4" t="s">
-        <v>4396</v>
+        <v>4405</v>
       </c>
       <c r="C1559" s="4" t="s">
-        <v>278</v>
+        <v>4406</v>
       </c>
       <c r="D1559" s="4"/>
     </row>
     <row r="1560" customHeight="1" spans="1:4">
       <c r="A1560" s="4" t="s">
-        <v>4397</v>
+        <v>4407</v>
       </c>
       <c r="B1560" s="4" t="s">
-        <v>4398</v>
+        <v>4408</v>
       </c>
       <c r="C1560" s="4" t="s">
-        <v>278</v>
+        <v>4409</v>
       </c>
       <c r="D1560" s="4"/>
     </row>
     <row r="1561" customHeight="1" spans="1:4">
       <c r="A1561" s="4" t="s">
-        <v>4399</v>
+        <v>4410</v>
       </c>
       <c r="B1561" s="4" t="s">
-        <v>4400</v>
+        <v>4411</v>
       </c>
       <c r="C1561" s="4" t="s">
-        <v>4401</v>
+        <v>4412</v>
       </c>
       <c r="D1561" s="4"/>
     </row>
     <row r="1562" customHeight="1" spans="1:4">
       <c r="A1562" s="4" t="s">
-        <v>4402</v>
+        <v>4413</v>
       </c>
       <c r="B1562" s="4" t="s">
-        <v>4403</v>
+        <v>4414</v>
       </c>
       <c r="C1562" s="4" t="s">
-        <v>4404</v>
+        <v>4415</v>
       </c>
       <c r="D1562" s="4"/>
     </row>
     <row r="1563" customHeight="1" spans="1:4">
       <c r="A1563" s="4" t="s">
-        <v>4405</v>
+        <v>4416</v>
       </c>
       <c r="B1563" s="4" t="s">
-        <v>4406</v>
+        <v>4417</v>
       </c>
       <c r="C1563" s="4" t="s">
-        <v>4407</v>
+        <v>4418</v>
       </c>
       <c r="D1563" s="4"/>
     </row>
     <row r="1564" customHeight="1" spans="1:4">
       <c r="A1564" s="4" t="s">
-        <v>4408</v>
+        <v>4419</v>
       </c>
       <c r="B1564" s="4" t="s">
-        <v>4409</v>
+        <v>4420</v>
       </c>
       <c r="C1564" s="4" t="s">
-        <v>4410</v>
+        <v>4421</v>
       </c>
       <c r="D1564" s="4"/>
     </row>
     <row r="1565" customHeight="1" spans="1:4">
       <c r="A1565" s="4" t="s">
-        <v>4411</v>
+        <v>4422</v>
       </c>
       <c r="B1565" s="4" t="s">
-        <v>4412</v>
+        <v>4423</v>
       </c>
       <c r="C1565" s="4" t="s">
-        <v>4413</v>
+        <v>4424</v>
       </c>
       <c r="D1565" s="4"/>
     </row>
     <row r="1566" customHeight="1" spans="1:4">
       <c r="A1566" s="4" t="s">
-        <v>4414</v>
+        <v>4425</v>
       </c>
       <c r="B1566" s="4" t="s">
-        <v>4415</v>
+        <v>4426</v>
       </c>
       <c r="C1566" s="4" t="s">
-        <v>4416</v>
+        <v>4427</v>
       </c>
       <c r="D1566" s="4"/>
     </row>
     <row r="1567" customHeight="1" spans="1:4">
       <c r="A1567" s="4" t="s">
-        <v>4417</v>
+        <v>4428</v>
       </c>
       <c r="B1567" s="4" t="s">
-        <v>4418</v>
+        <v>4429</v>
       </c>
       <c r="C1567" s="4" t="s">
-        <v>4419</v>
+        <v>4430</v>
       </c>
       <c r="D1567" s="4"/>
     </row>
     <row r="1568" customHeight="1" spans="1:4">
       <c r="A1568" s="4" t="s">
-        <v>4420</v>
+        <v>4431</v>
       </c>
       <c r="B1568" s="4" t="s">
-        <v>4421</v>
+        <v>4432</v>
       </c>
       <c r="C1568" s="4" t="s">
-        <v>278</v>
+        <v>4433</v>
       </c>
       <c r="D1568" s="4"/>
     </row>
     <row r="1569" customHeight="1" spans="1:4">
       <c r="A1569" s="4" t="s">
-        <v>4422</v>
+        <v>4434</v>
       </c>
       <c r="B1569" s="4" t="s">
-        <v>4423</v>
+        <v>4435</v>
       </c>
       <c r="C1569" s="4" t="s">
-        <v>278</v>
+        <v>4436</v>
       </c>
       <c r="D1569" s="4"/>
     </row>
     <row r="1570" customHeight="1" spans="1:4">
       <c r="A1570" s="4" t="s">
-        <v>4424</v>
+        <v>4437</v>
       </c>
       <c r="B1570" s="4" t="s">
-        <v>4425</v>
+        <v>4438</v>
       </c>
       <c r="C1570" s="4" t="s">
-        <v>278</v>
+        <v>4439</v>
       </c>
       <c r="D1570" s="4"/>
     </row>
     <row r="1571" customHeight="1" spans="1:4">
       <c r="A1571" s="4" t="s">
-        <v>4426</v>
+        <v>4440</v>
       </c>
       <c r="B1571" s="4" t="s">
-        <v>4427</v>
+        <v>4441</v>
       </c>
       <c r="C1571" s="4" t="s">
-        <v>278</v>
+        <v>4442</v>
       </c>
       <c r="D1571" s="4"/>
     </row>
     <row r="1572" customHeight="1" spans="1:4">
       <c r="A1572" s="4" t="s">
-        <v>4428</v>
+        <v>4443</v>
       </c>
       <c r="B1572" s="4" t="s">
-        <v>4429</v>
+        <v>4444</v>
       </c>
       <c r="C1572" s="4" t="s">
-        <v>4430</v>
+        <v>4445</v>
       </c>
       <c r="D1572" s="4"/>
     </row>
     <row r="1573" customHeight="1" spans="1:4">
       <c r="A1573" s="4" t="s">
-        <v>4431</v>
+        <v>4446</v>
       </c>
       <c r="B1573" s="4" t="s">
-        <v>4432</v>
+        <v>4447</v>
       </c>
       <c r="C1573" s="4" t="s">
-        <v>4433</v>
+        <v>4448</v>
       </c>
       <c r="D1573" s="4"/>
+    </row>
+    <row r="1574" customHeight="1" spans="1:4">
+      <c r="A1574" s="4" t="s">
+        <v>4449</v>
+      </c>
+      <c r="B1574" s="4" t="s">
+        <v>4450</v>
+      </c>
+      <c r="C1574" s="4" t="s">
+        <v>4451</v>
+      </c>
+      <c r="D1574" s="4"/>
+    </row>
+    <row r="1575" customHeight="1" spans="1:4">
+      <c r="A1575" s="4" t="s">
+        <v>4452</v>
+      </c>
+      <c r="B1575" s="4" t="s">
+        <v>4453</v>
+      </c>
+      <c r="C1575" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="D1575" s="4"/>
+    </row>
+    <row r="1576" customHeight="1" spans="1:4">
+      <c r="A1576" s="4" t="s">
+        <v>4454</v>
+      </c>
+      <c r="B1576" s="4" t="s">
+        <v>4455</v>
+      </c>
+      <c r="C1576" s="4" t="s">
+        <v>4456</v>
+      </c>
+      <c r="D1576" s="4"/>
+    </row>
+    <row r="1577" customHeight="1" spans="1:4">
+      <c r="A1577" s="4" t="s">
+        <v>4457</v>
+      </c>
+      <c r="B1577" s="4" t="s">
+        <v>4458</v>
+      </c>
+      <c r="C1577" s="4" t="s">
+        <v>4459</v>
+      </c>
+      <c r="D1577" s="4"/>
+    </row>
+    <row r="1578" customHeight="1" spans="1:4">
+      <c r="A1578" s="4" t="s">
+        <v>4460</v>
+      </c>
+      <c r="B1578" s="4" t="s">
+        <v>4461</v>
+      </c>
+      <c r="C1578" s="4" t="s">
+        <v>4462</v>
+      </c>
+      <c r="D1578" s="4"/>
+    </row>
+    <row r="1579" customHeight="1" spans="1:4">
+      <c r="A1579" s="4" t="s">
+        <v>4463</v>
+      </c>
+      <c r="B1579" s="4" t="s">
+        <v>4464</v>
+      </c>
+      <c r="C1579" s="4" t="s">
+        <v>4465</v>
+      </c>
+      <c r="D1579" s="4"/>
+    </row>
+    <row r="1580" customHeight="1" spans="1:4">
+      <c r="A1580" s="4" t="s">
+        <v>4466</v>
+      </c>
+      <c r="B1580" s="4" t="s">
+        <v>4467</v>
+      </c>
+      <c r="C1580" s="4" t="s">
+        <v>4468</v>
+      </c>
+      <c r="D1580" s="4"/>
+    </row>
+    <row r="1581" customHeight="1" spans="1:4">
+      <c r="A1581" s="4" t="s">
+        <v>4469</v>
+      </c>
+      <c r="B1581" s="4" t="s">
+        <v>4470</v>
+      </c>
+      <c r="C1581" s="4" t="s">
+        <v>4471</v>
+      </c>
+      <c r="D1581" s="4"/>
+    </row>
+    <row r="1582" customHeight="1" spans="1:4">
+      <c r="A1582" s="4" t="s">
+        <v>4472</v>
+      </c>
+      <c r="B1582" s="4" t="s">
+        <v>4473</v>
+      </c>
+      <c r="C1582" s="4" t="s">
+        <v>4474</v>
+      </c>
+      <c r="D1582" s="4"/>
+    </row>
+    <row r="1583" customHeight="1" spans="1:4">
+      <c r="A1583" s="4" t="s">
+        <v>4475</v>
+      </c>
+      <c r="B1583" s="4" t="s">
+        <v>4476</v>
+      </c>
+      <c r="C1583" s="4" t="s">
+        <v>4477</v>
+      </c>
+      <c r="D1583" s="4"/>
+    </row>
+    <row r="1584" customHeight="1" spans="1:4">
+      <c r="A1584" s="4" t="s">
+        <v>4478</v>
+      </c>
+      <c r="B1584" s="4" t="s">
+        <v>4479</v>
+      </c>
+      <c r="C1584" s="4" t="s">
+        <v>4480</v>
+      </c>
+      <c r="D1584" s="4"/>
+    </row>
+    <row r="1585" customHeight="1" spans="1:4">
+      <c r="A1585" s="4" t="s">
+        <v>4481</v>
+      </c>
+      <c r="B1585" s="4" t="s">
+        <v>4482</v>
+      </c>
+      <c r="C1585" s="4" t="s">
+        <v>4483</v>
+      </c>
+      <c r="D1585" s="4"/>
+    </row>
+    <row r="1586" customHeight="1" spans="1:4">
+      <c r="A1586" s="4" t="s">
+        <v>4484</v>
+      </c>
+      <c r="B1586" s="4" t="s">
+        <v>4485</v>
+      </c>
+      <c r="C1586" s="4" t="s">
+        <v>4486</v>
+      </c>
+      <c r="D1586" s="4"/>
+    </row>
+    <row r="1587" customHeight="1" spans="1:4">
+      <c r="A1587" s="4" t="s">
+        <v>4487</v>
+      </c>
+      <c r="B1587" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="C1587" s="4" t="s">
+        <v>4488</v>
+      </c>
+      <c r="D1587" s="4"/>
+    </row>
+    <row r="1588" customHeight="1" spans="1:4">
+      <c r="A1588" s="4" t="s">
+        <v>4489</v>
+      </c>
+      <c r="B1588" s="4" t="s">
+        <v>4490</v>
+      </c>
+      <c r="C1588" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="D1588" s="4"/>
+    </row>
+    <row r="1589" customHeight="1" spans="1:4">
+      <c r="A1589" s="4" t="s">
+        <v>4491</v>
+      </c>
+      <c r="B1589" s="4" t="s">
+        <v>4492</v>
+      </c>
+      <c r="C1589" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="D1589" s="4"/>
+    </row>
+    <row r="1590" customHeight="1" spans="1:4">
+      <c r="A1590" s="4" t="s">
+        <v>4493</v>
+      </c>
+      <c r="B1590" s="4" t="s">
+        <v>4494</v>
+      </c>
+      <c r="C1590" s="4" t="s">
+        <v>4495</v>
+      </c>
+      <c r="D1590" s="4"/>
+    </row>
+    <row r="1591" customHeight="1" spans="1:4">
+      <c r="A1591" s="4" t="s">
+        <v>4496</v>
+      </c>
+      <c r="B1591" s="4" t="s">
+        <v>4497</v>
+      </c>
+      <c r="C1591" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="D1591" s="4"/>
+    </row>
+    <row r="1592" customHeight="1" spans="1:4">
+      <c r="A1592" s="4" t="s">
+        <v>4498</v>
+      </c>
+      <c r="B1592" s="4" t="s">
+        <v>4499</v>
+      </c>
+      <c r="C1592" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="D1592" s="4"/>
+    </row>
+    <row r="1593" customHeight="1" spans="1:4">
+      <c r="A1593" s="4" t="s">
+        <v>4500</v>
+      </c>
+      <c r="B1593" s="4" t="s">
+        <v>4501</v>
+      </c>
+      <c r="C1593" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="D1593" s="4"/>
+    </row>
+    <row r="1594" customHeight="1" spans="1:4">
+      <c r="A1594" s="4" t="s">
+        <v>4502</v>
+      </c>
+      <c r="B1594" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="C1594" s="4" t="s">
+        <v>4503</v>
+      </c>
+      <c r="D1594" s="4"/>
+    </row>
+    <row r="1595" customHeight="1" spans="1:4">
+      <c r="A1595" s="4" t="s">
+        <v>4504</v>
+      </c>
+      <c r="B1595" s="4" t="s">
+        <v>4505</v>
+      </c>
+      <c r="C1595" s="4" t="s">
+        <v>4506</v>
+      </c>
+      <c r="D1595" s="4"/>
+    </row>
+    <row r="1596" customHeight="1" spans="1:4">
+      <c r="A1596" s="4" t="s">
+        <v>4507</v>
+      </c>
+      <c r="B1596" s="4" t="s">
+        <v>4508</v>
+      </c>
+      <c r="C1596" s="4" t="s">
+        <v>4509</v>
+      </c>
+      <c r="D1596" s="4"/>
+    </row>
+    <row r="1597" customHeight="1" spans="1:4">
+      <c r="A1597" s="4" t="s">
+        <v>4510</v>
+      </c>
+      <c r="B1597" s="4" t="s">
+        <v>4511</v>
+      </c>
+      <c r="C1597" s="4" t="s">
+        <v>4512</v>
+      </c>
+      <c r="D1597" s="4"/>
+    </row>
+    <row r="1598" customHeight="1" spans="1:4">
+      <c r="A1598" s="4" t="s">
+        <v>4513</v>
+      </c>
+      <c r="B1598" s="4" t="s">
+        <v>4514</v>
+      </c>
+      <c r="C1598" s="4" t="s">
+        <v>4515</v>
+      </c>
+      <c r="D1598" s="4"/>
+    </row>
+    <row r="1599" customHeight="1" spans="1:4">
+      <c r="A1599" s="4" t="s">
+        <v>4516</v>
+      </c>
+      <c r="B1599" s="4" t="s">
+        <v>4517</v>
+      </c>
+      <c r="C1599" s="4" t="s">
+        <v>4518</v>
+      </c>
+      <c r="D1599" s="4"/>
+    </row>
+    <row r="1600" customHeight="1" spans="1:4">
+      <c r="A1600" s="4" t="s">
+        <v>4519</v>
+      </c>
+      <c r="B1600" s="4" t="s">
+        <v>4520</v>
+      </c>
+      <c r="C1600" s="4" t="s">
+        <v>4521</v>
+      </c>
+      <c r="D1600" s="4"/>
+    </row>
+    <row r="1601" customHeight="1" spans="1:4">
+      <c r="A1601" s="4" t="s">
+        <v>4522</v>
+      </c>
+      <c r="B1601" s="4" t="s">
+        <v>4523</v>
+      </c>
+      <c r="C1601" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="D1601" s="4"/>
+    </row>
+    <row r="1602" customHeight="1" spans="1:4">
+      <c r="A1602" s="4" t="s">
+        <v>4524</v>
+      </c>
+      <c r="B1602" s="4" t="s">
+        <v>4525</v>
+      </c>
+      <c r="C1602" s="4" t="s">
+        <v>4526</v>
+      </c>
+      <c r="D1602" s="4"/>
+    </row>
+    <row r="1603" customHeight="1" spans="1:4">
+      <c r="A1603" s="4" t="s">
+        <v>4527</v>
+      </c>
+      <c r="B1603" s="4" t="s">
+        <v>4528</v>
+      </c>
+      <c r="C1603" s="4" t="s">
+        <v>4529</v>
+      </c>
+      <c r="D1603" s="4"/>
+    </row>
+    <row r="1604" customHeight="1" spans="1:4">
+      <c r="A1604" s="4" t="s">
+        <v>4530</v>
+      </c>
+      <c r="B1604" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="C1604" s="4" t="s">
+        <v>4531</v>
+      </c>
+      <c r="D1604" s="4"/>
+    </row>
+    <row r="1605" customHeight="1" spans="1:4">
+      <c r="A1605" s="4" t="s">
+        <v>4532</v>
+      </c>
+      <c r="B1605" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="C1605" s="4" t="s">
+        <v>4533</v>
+      </c>
+      <c r="D1605" s="4"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertColumns="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>

--- a/影视剧.xlsx
+++ b/影视剧.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9635" uniqueCount="4536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9881" uniqueCount="4652">
   <si>
     <t>注意：不要相信视频或者文件内的广告和二维码！谨防诈骗！谨防诈骗！谨防诈骗！</t>
   </si>
@@ -7337,7 +7337,7 @@
     <t>https://pan.quark.cn/s/18000176b065</t>
   </si>
   <si>
-    <t>流氓读书会-2025</t>
+    <t>学习小组/流氓读书会（2025）韩国</t>
   </si>
   <si>
     <t>https://pan.baidu.com/s/1csLBO-cUL1BtYy5tDQQ6Yw?pwd=dieu</t>
@@ -13650,6 +13650,354 @@
   </si>
   <si>
     <t>https://pan.quark.cn/s/5a2e6968b36c</t>
+  </si>
+  <si>
+    <t>火（2025）印度</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/138bVURiHaRldwg3p9NynYw?pwd=isn6</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/ebfbb123dec0</t>
+  </si>
+  <si>
+    <t>惩罚循环（2024）日本</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1WpvqeyJD84y2HIuMclFzuA?pwd=ms4f</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/2d12e7222f67</t>
+  </si>
+  <si>
+    <t>珍奇之物（2024）法国</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/13WeBe1ecDisNmfEctA15XA?pwd=1p28</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/6ec65ba23615</t>
+  </si>
+  <si>
+    <t>当我准备好了（2025）美国</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1htTBJqURB-FvydS9LZnllQ?pwd=gbu2</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/3e3c29ae6abc</t>
+  </si>
+  <si>
+    <t>黑白之间是彩色世界（2023）尼日利亚</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1K3srpw5efwbR-rElzU5gtA?pwd=hp6z</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/21685fafbfa5</t>
+  </si>
+  <si>
+    <t>扭曲（2025）美国</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1KFpdOcoCzV8a86QI-V8z7Q?pwd=mdtg</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/e13ba73c7765</t>
+  </si>
+  <si>
+    <t>听妈妈的话（2024）日本</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1YnlvZB-HdDPY40BvZNY52g?pwd=d4ey</t>
+  </si>
+  <si>
+    <t>夜·店（2009）中国大陆</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1zb9-yQ1uJzxcCQdCtJmYRA?pwd=cukh</t>
+  </si>
+  <si>
+    <t>搞定岳父大人（2014）印度</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1ZRy6O_DqK2N1HRU0H8zqTA?pwd=mif5</t>
+  </si>
+  <si>
+    <t>搞定岳父大人（2012）中国大陆</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1LS5llyXmG7wyM0JEeXJKHQ?pwd=7scs</t>
+  </si>
+  <si>
+    <t>拜见岳父大人（2000）美国</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1rGlHxVXh02xBWg3fwI2knA?pwd=dbgm</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/12a800d5a25a</t>
+  </si>
+  <si>
+    <t>拜见岳父大人（2004）美国</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1OZt_4uWuPBi79jNCuso5uA?pwd=uxtb</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/2de0d890a712</t>
+  </si>
+  <si>
+    <t>拜见岳父大人（2010）美国</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1EYOf123PHD0H84NlsGKBjA?pwd=bewn</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/9f5297521ac5</t>
+  </si>
+  <si>
+    <t>首尔夜女郎/首尔沙龙（2023）韩国</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1lS91uqImStY6pBZciLh2jg?pwd=xt5r</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/be9c6912802f</t>
+  </si>
+  <si>
+    <t>夜之女王（2013）韩国</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/19EUFEGd0xrQ0vRkCAHl--w?pwd=mhd9</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/e01f74270537</t>
+  </si>
+  <si>
+    <t>照明商店（2024）韩国</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1foFSBbtC5HfCK3c6QJf8xQ?pwd=actd</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/388f29b4833b</t>
+  </si>
+  <si>
+    <t>北平无战事（2014）中国大陆</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1JdZzS5isYEVSczKTh-f1Pw?pwd=7ai9</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/16ba1c0549cb</t>
+  </si>
+  <si>
+    <t>东周列国：春秋篇（1996）中国大陆</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1iIvBuygVIVdYq9DoIf7iEQ?pwd=v677</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/f575e240070d</t>
+  </si>
+  <si>
+    <t>东周列国：战国篇（1997）中国大陆</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1lcOoQf_CNWrkgaEugufeZA?pwd=6pvf</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/333d6c9d92f0</t>
+  </si>
+  <si>
+    <t>贞观之治（2006）中国大陆</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1IzbXLtbG0vF8X_b3wRvFmQ?pwd=su1w</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/f2022b49a41d</t>
+  </si>
+  <si>
+    <t>疯狂原始人（2013）美国</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1fUcKOYQKqyNp8TvIvfbyUw?pwd=pi64</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/483fc79ff090</t>
+  </si>
+  <si>
+    <t>疯狂原始人2（2020）美国</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1y6cb3zJhRjzqGXPcx1sjBQ?pwd=93am</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/c8ec4a5e6eba</t>
+  </si>
+  <si>
+    <t>瓦尔哈拉连环谋杀（2019）冰岛</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1j9r42ecioyHmwHvAqs23Fg?pwd=ag6e</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/3ce6695311cd</t>
+  </si>
+  <si>
+    <t>心之全蚀（1995）英国/法国/比利时</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1sgc3l1Fzbj9gWVzdhb_5kA?pwd=985x</t>
+  </si>
+  <si>
+    <t>香火（2003）中国大陆</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1oZ6ucELnRa-5W35qXqKi8Q?pwd=6jgq</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/d1044f7d1ec0</t>
+  </si>
+  <si>
+    <t>达·芬奇密码（2006）美国/马耳他/法国/英国</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/14WQGlY4BzJGatfUzSxm1vg?pwd=xq3s</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/8570f107d300</t>
+  </si>
+  <si>
+    <t>但丁密码（2016）美国/匈牙利</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1esVKd6NWHgauHfCkkaNHfw?pwd=i4cm</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/4c9054ab01b2</t>
+  </si>
+  <si>
+    <t>大时代（1992）中国香港</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1oWxq0nqzgD5QM2EuMUoN0g?pwd=wej3</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/54db6f730bf7</t>
+  </si>
+  <si>
+    <t>蚊子海岸 1-2季 美国</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1LYSd_4pT8mNy8Si0OmVRvQ?pwd=vsvi</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/89911b1f8410</t>
+  </si>
+  <si>
+    <t>意外空间（2014）墨西哥</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1pYhiIMYj8cSVZu6Ft83yjg?pwd=gbhv</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/07e91d86839b</t>
+  </si>
+  <si>
+    <t>我在伊朗长大（2007）法国/美国</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1I_M-J9tjPT7XJpnrS1-9Dg?pwd=irbb</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/89ab90e4a9e4</t>
+  </si>
+  <si>
+    <t>登陆之日（2011）韩国</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1cNDONpn5BSB_-SbQzwdPJA?pwd=578n</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/4e56263db4a6</t>
+  </si>
+  <si>
+    <t>修行（2021）中国台湾</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1Tz7G34n4_6XNHG1Gkq_I4Q?pwd=3nrq</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/eb10548d6001</t>
+  </si>
+  <si>
+    <t>热带鱼（1995）中国台湾</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1shvXjSoNeOYHnyLOKppLkA?pwd=npjx</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/5ed7429620fb</t>
+  </si>
+  <si>
+    <t>缉魔（2019）中国台湾</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/66e5f950660b</t>
+  </si>
+  <si>
+    <t>极乐空间（2013）美国</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1G9rcdsOcOkn22wLaBieyUw?pwd=gwkw</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/68382e1e6b9f</t>
+  </si>
+  <si>
+    <t>中间人先生 1-3季 澳大利亚</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1lZJcqZRYXeAOFg2DtTc_8Q?pwd=2trg</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/fa7165694214</t>
+  </si>
+  <si>
+    <t>冰血暴 1-4季 美国</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1OkWDaNGh_zZ0BAD9eeuH3g?pwd=hjgq</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/5aaaae1bf50c</t>
+  </si>
+  <si>
+    <t>冰血暴 第5季 美国</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/678e24cd4e2e</t>
+  </si>
+  <si>
+    <t>冰血暴（1996）美国</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1slOswDk9EblXGkzL8ZO8RQ?pwd=wuz5</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/52a48c1a78ed</t>
+  </si>
+  <si>
+    <t>无痛凯恩（2025）美国</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1nLWjdBd74TM9NnRiTmEYwQ?pwd=b5tr</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/a840fbbb0356</t>
   </si>
   <si>
     <t>文本</t>
@@ -14678,7 +15026,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="影视剧_3" displayName="影视剧_3" ref="A1:D1605" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="影视剧_3" displayName="影视剧_3" ref="A1:D1646" totalsRowShown="0">
   <tableColumns count="4">
     <tableColumn id="1" name="环太平洋 1-2部 美国"/>
     <tableColumn id="2" name="https://pan.baidu.com/s/1uY8kk83FrhdvCbY9w_borg?pwd=aasg"/>
@@ -14947,9 +15295,9 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D1609"/>
+  <dimension ref="A1:D1650"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="30" zoomScaleNormal="30" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:C1048576"/>
     </sheetView>
   </sheetViews>
@@ -20407,10 +20755,10 @@
       <c r="A497" s="11" t="s">
         <v>1425</v>
       </c>
-      <c r="B497" s="16" t="s">
+      <c r="B497" s="12" t="s">
         <v>1426</v>
       </c>
-      <c r="C497" s="16" t="s">
+      <c r="C497" s="12" t="s">
         <v>1427</v>
       </c>
     </row>
@@ -32595,7 +32943,7 @@
       <c r="A1605" s="11" t="s">
         <v>4522</v>
       </c>
-      <c r="B1605" s="16" t="s">
+      <c r="B1605" s="12" t="s">
         <v>4523</v>
       </c>
       <c r="C1605" s="11" t="s">
@@ -32606,10 +32954,10 @@
       <c r="A1606" s="11" t="s">
         <v>4524</v>
       </c>
-      <c r="B1606" s="16" t="s">
+      <c r="B1606" s="12" t="s">
         <v>4525</v>
       </c>
-      <c r="C1606" s="16" t="s">
+      <c r="C1606" s="12" t="s">
         <v>4526</v>
       </c>
     </row>
@@ -32617,10 +32965,10 @@
       <c r="A1607" s="11" t="s">
         <v>4527</v>
       </c>
-      <c r="B1607" s="16" t="s">
+      <c r="B1607" s="12" t="s">
         <v>4528</v>
       </c>
-      <c r="C1607" s="16" t="s">
+      <c r="C1607" s="12" t="s">
         <v>4529</v>
       </c>
     </row>
@@ -32631,7 +32979,7 @@
       <c r="B1608" s="11" t="s">
         <v>278</v>
       </c>
-      <c r="C1608" s="16" t="s">
+      <c r="C1608" s="12" t="s">
         <v>4531</v>
       </c>
     </row>
@@ -32642,8 +32990,459 @@
       <c r="B1609" s="11" t="s">
         <v>278</v>
       </c>
-      <c r="C1609" s="16" t="s">
+      <c r="C1609" s="12" t="s">
         <v>4533</v>
+      </c>
+    </row>
+    <row r="1610" spans="1:3">
+      <c r="A1610" s="11" t="s">
+        <v>4534</v>
+      </c>
+      <c r="B1610" s="12" t="s">
+        <v>4535</v>
+      </c>
+      <c r="C1610" s="12" t="s">
+        <v>4536</v>
+      </c>
+    </row>
+    <row r="1611" spans="1:3">
+      <c r="A1611" s="11" t="s">
+        <v>4537</v>
+      </c>
+      <c r="B1611" s="12" t="s">
+        <v>4538</v>
+      </c>
+      <c r="C1611" s="12" t="s">
+        <v>4539</v>
+      </c>
+    </row>
+    <row r="1612" spans="1:3">
+      <c r="A1612" s="11" t="s">
+        <v>4540</v>
+      </c>
+      <c r="B1612" s="12" t="s">
+        <v>4541</v>
+      </c>
+      <c r="C1612" s="12" t="s">
+        <v>4542</v>
+      </c>
+    </row>
+    <row r="1613" spans="1:3">
+      <c r="A1613" s="11" t="s">
+        <v>4543</v>
+      </c>
+      <c r="B1613" s="12" t="s">
+        <v>4544</v>
+      </c>
+      <c r="C1613" s="12" t="s">
+        <v>4545</v>
+      </c>
+    </row>
+    <row r="1614" spans="1:3">
+      <c r="A1614" s="11" t="s">
+        <v>4546</v>
+      </c>
+      <c r="B1614" s="12" t="s">
+        <v>4547</v>
+      </c>
+      <c r="C1614" s="12" t="s">
+        <v>4548</v>
+      </c>
+    </row>
+    <row r="1615" spans="1:3">
+      <c r="A1615" s="11" t="s">
+        <v>4549</v>
+      </c>
+      <c r="B1615" s="12" t="s">
+        <v>4550</v>
+      </c>
+      <c r="C1615" s="12" t="s">
+        <v>4551</v>
+      </c>
+    </row>
+    <row r="1616" spans="1:3">
+      <c r="A1616" s="11" t="s">
+        <v>4552</v>
+      </c>
+      <c r="B1616" s="12" t="s">
+        <v>4553</v>
+      </c>
+      <c r="C1616" s="11" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="1617" spans="1:3">
+      <c r="A1617" s="11" t="s">
+        <v>4554</v>
+      </c>
+      <c r="B1617" s="12" t="s">
+        <v>4555</v>
+      </c>
+      <c r="C1617" s="11" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="1618" spans="1:3">
+      <c r="A1618" s="11" t="s">
+        <v>4556</v>
+      </c>
+      <c r="B1618" s="12" t="s">
+        <v>4557</v>
+      </c>
+      <c r="C1618" s="11" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="1619" spans="1:3">
+      <c r="A1619" s="11" t="s">
+        <v>4558</v>
+      </c>
+      <c r="B1619" s="12" t="s">
+        <v>4559</v>
+      </c>
+      <c r="C1619" s="11" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="1620" spans="1:3">
+      <c r="A1620" s="11" t="s">
+        <v>4560</v>
+      </c>
+      <c r="B1620" s="12" t="s">
+        <v>4561</v>
+      </c>
+      <c r="C1620" s="12" t="s">
+        <v>4562</v>
+      </c>
+    </row>
+    <row r="1621" spans="1:3">
+      <c r="A1621" s="11" t="s">
+        <v>4563</v>
+      </c>
+      <c r="B1621" s="12" t="s">
+        <v>4564</v>
+      </c>
+      <c r="C1621" s="12" t="s">
+        <v>4565</v>
+      </c>
+    </row>
+    <row r="1622" spans="1:3">
+      <c r="A1622" s="11" t="s">
+        <v>4566</v>
+      </c>
+      <c r="B1622" s="12" t="s">
+        <v>4567</v>
+      </c>
+      <c r="C1622" s="12" t="s">
+        <v>4568</v>
+      </c>
+    </row>
+    <row r="1623" spans="1:3">
+      <c r="A1623" s="11" t="s">
+        <v>4569</v>
+      </c>
+      <c r="B1623" s="12" t="s">
+        <v>4570</v>
+      </c>
+      <c r="C1623" s="12" t="s">
+        <v>4571</v>
+      </c>
+    </row>
+    <row r="1624" spans="1:3">
+      <c r="A1624" s="11" t="s">
+        <v>4572</v>
+      </c>
+      <c r="B1624" s="12" t="s">
+        <v>4573</v>
+      </c>
+      <c r="C1624" s="12" t="s">
+        <v>4574</v>
+      </c>
+    </row>
+    <row r="1625" spans="1:3">
+      <c r="A1625" s="11" t="s">
+        <v>4575</v>
+      </c>
+      <c r="B1625" s="12" t="s">
+        <v>4576</v>
+      </c>
+      <c r="C1625" s="12" t="s">
+        <v>4577</v>
+      </c>
+    </row>
+    <row r="1626" spans="1:3">
+      <c r="A1626" s="11" t="s">
+        <v>4578</v>
+      </c>
+      <c r="B1626" s="12" t="s">
+        <v>4579</v>
+      </c>
+      <c r="C1626" s="12" t="s">
+        <v>4580</v>
+      </c>
+    </row>
+    <row r="1627" spans="1:3">
+      <c r="A1627" s="11" t="s">
+        <v>4581</v>
+      </c>
+      <c r="B1627" s="12" t="s">
+        <v>4582</v>
+      </c>
+      <c r="C1627" s="12" t="s">
+        <v>4583</v>
+      </c>
+    </row>
+    <row r="1628" spans="1:3">
+      <c r="A1628" s="11" t="s">
+        <v>4584</v>
+      </c>
+      <c r="B1628" s="12" t="s">
+        <v>4585</v>
+      </c>
+      <c r="C1628" s="12" t="s">
+        <v>4586</v>
+      </c>
+    </row>
+    <row r="1629" spans="1:3">
+      <c r="A1629" s="11" t="s">
+        <v>4587</v>
+      </c>
+      <c r="B1629" s="12" t="s">
+        <v>4588</v>
+      </c>
+      <c r="C1629" s="12" t="s">
+        <v>4589</v>
+      </c>
+    </row>
+    <row r="1630" spans="1:3">
+      <c r="A1630" s="11" t="s">
+        <v>4590</v>
+      </c>
+      <c r="B1630" s="12" t="s">
+        <v>4591</v>
+      </c>
+      <c r="C1630" s="12" t="s">
+        <v>4592</v>
+      </c>
+    </row>
+    <row r="1631" spans="1:3">
+      <c r="A1631" s="11" t="s">
+        <v>4593</v>
+      </c>
+      <c r="B1631" s="12" t="s">
+        <v>4594</v>
+      </c>
+      <c r="C1631" s="12" t="s">
+        <v>4595</v>
+      </c>
+    </row>
+    <row r="1632" spans="1:3">
+      <c r="A1632" s="11" t="s">
+        <v>4596</v>
+      </c>
+      <c r="B1632" s="12" t="s">
+        <v>4597</v>
+      </c>
+      <c r="C1632" s="12" t="s">
+        <v>4598</v>
+      </c>
+    </row>
+    <row r="1633" spans="1:3">
+      <c r="A1633" s="11" t="s">
+        <v>4599</v>
+      </c>
+      <c r="B1633" s="12" t="s">
+        <v>4600</v>
+      </c>
+      <c r="C1633" s="11" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="1634" spans="1:3">
+      <c r="A1634" s="11" t="s">
+        <v>4601</v>
+      </c>
+      <c r="B1634" s="12" t="s">
+        <v>4602</v>
+      </c>
+      <c r="C1634" s="12" t="s">
+        <v>4603</v>
+      </c>
+    </row>
+    <row r="1635" spans="1:3">
+      <c r="A1635" s="11" t="s">
+        <v>4604</v>
+      </c>
+      <c r="B1635" s="12" t="s">
+        <v>4605</v>
+      </c>
+      <c r="C1635" s="12" t="s">
+        <v>4606</v>
+      </c>
+    </row>
+    <row r="1636" spans="1:3">
+      <c r="A1636" s="11" t="s">
+        <v>4607</v>
+      </c>
+      <c r="B1636" s="12" t="s">
+        <v>4608</v>
+      </c>
+      <c r="C1636" s="12" t="s">
+        <v>4609</v>
+      </c>
+    </row>
+    <row r="1637" spans="1:3">
+      <c r="A1637" s="11" t="s">
+        <v>4610</v>
+      </c>
+      <c r="B1637" s="12" t="s">
+        <v>4611</v>
+      </c>
+      <c r="C1637" s="12" t="s">
+        <v>4612</v>
+      </c>
+    </row>
+    <row r="1638" spans="1:3">
+      <c r="A1638" s="11" t="s">
+        <v>4613</v>
+      </c>
+      <c r="B1638" s="12" t="s">
+        <v>4614</v>
+      </c>
+      <c r="C1638" s="12" t="s">
+        <v>4615</v>
+      </c>
+    </row>
+    <row r="1639" spans="1:3">
+      <c r="A1639" s="11" t="s">
+        <v>4616</v>
+      </c>
+      <c r="B1639" s="12" t="s">
+        <v>4617</v>
+      </c>
+      <c r="C1639" s="12" t="s">
+        <v>4618</v>
+      </c>
+    </row>
+    <row r="1640" spans="1:3">
+      <c r="A1640" s="11" t="s">
+        <v>4619</v>
+      </c>
+      <c r="B1640" s="12" t="s">
+        <v>4620</v>
+      </c>
+      <c r="C1640" s="12" t="s">
+        <v>4621</v>
+      </c>
+    </row>
+    <row r="1641" spans="1:3">
+      <c r="A1641" s="11" t="s">
+        <v>4622</v>
+      </c>
+      <c r="B1641" s="12" t="s">
+        <v>4623</v>
+      </c>
+      <c r="C1641" s="12" t="s">
+        <v>4624</v>
+      </c>
+    </row>
+    <row r="1642" spans="1:3">
+      <c r="A1642" s="11" t="s">
+        <v>4625</v>
+      </c>
+      <c r="B1642" s="12" t="s">
+        <v>4626</v>
+      </c>
+      <c r="C1642" s="12" t="s">
+        <v>4627</v>
+      </c>
+    </row>
+    <row r="1643" spans="1:3">
+      <c r="A1643" s="11" t="s">
+        <v>4628</v>
+      </c>
+      <c r="B1643" s="12" t="s">
+        <v>4629</v>
+      </c>
+      <c r="C1643" s="12" t="s">
+        <v>4630</v>
+      </c>
+    </row>
+    <row r="1644" spans="1:3">
+      <c r="A1644" s="11" t="s">
+        <v>4631</v>
+      </c>
+      <c r="B1644" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="C1644" s="12" t="s">
+        <v>4632</v>
+      </c>
+    </row>
+    <row r="1645" spans="1:3">
+      <c r="A1645" s="11" t="s">
+        <v>4633</v>
+      </c>
+      <c r="B1645" s="12" t="s">
+        <v>4634</v>
+      </c>
+      <c r="C1645" s="12" t="s">
+        <v>4635</v>
+      </c>
+    </row>
+    <row r="1646" spans="1:3">
+      <c r="A1646" s="11" t="s">
+        <v>4636</v>
+      </c>
+      <c r="B1646" s="16" t="s">
+        <v>4637</v>
+      </c>
+      <c r="C1646" s="16" t="s">
+        <v>4638</v>
+      </c>
+    </row>
+    <row r="1647" spans="1:3">
+      <c r="A1647" s="11" t="s">
+        <v>4639</v>
+      </c>
+      <c r="B1647" s="16" t="s">
+        <v>4640</v>
+      </c>
+      <c r="C1647" s="16" t="s">
+        <v>4641</v>
+      </c>
+    </row>
+    <row r="1648" spans="1:3">
+      <c r="A1648" s="11" t="s">
+        <v>4642</v>
+      </c>
+      <c r="B1648" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="C1648" s="16" t="s">
+        <v>4643</v>
+      </c>
+    </row>
+    <row r="1649" spans="1:3">
+      <c r="A1649" s="11" t="s">
+        <v>4644</v>
+      </c>
+      <c r="B1649" s="16" t="s">
+        <v>4645</v>
+      </c>
+      <c r="C1649" s="16" t="s">
+        <v>4646</v>
+      </c>
+    </row>
+    <row r="1650" spans="1:3">
+      <c r="A1650" s="11" t="s">
+        <v>4647</v>
+      </c>
+      <c r="B1650" s="16" t="s">
+        <v>4648</v>
+      </c>
+      <c r="C1650" s="16" t="s">
+        <v>4649</v>
       </c>
     </row>
   </sheetData>
@@ -35569,6 +36368,81 @@
     <hyperlink ref="C1609" r:id="rId2909" display="https://pan.quark.cn/s/5a2e6968b36c"/>
     <hyperlink ref="C497" r:id="rId2910" display="https://pan.quark.cn/s/216f0b70cf07"/>
     <hyperlink ref="B497" r:id="rId2911" display="https://pan.baidu.com/s/1Jgt05NdHLrYbm0-MwMXZcw?pwd=vj25"/>
+    <hyperlink ref="B1610" r:id="rId2912" display="https://pan.baidu.com/s/138bVURiHaRldwg3p9NynYw?pwd=isn6"/>
+    <hyperlink ref="C1610" r:id="rId2913" display="https://pan.quark.cn/s/ebfbb123dec0"/>
+    <hyperlink ref="B1611" r:id="rId2914" display="https://pan.baidu.com/s/1WpvqeyJD84y2HIuMclFzuA?pwd=ms4f"/>
+    <hyperlink ref="C1611" r:id="rId2915" display="https://pan.quark.cn/s/2d12e7222f67"/>
+    <hyperlink ref="B1612" r:id="rId2916" display="https://pan.baidu.com/s/13WeBe1ecDisNmfEctA15XA?pwd=1p28"/>
+    <hyperlink ref="C1612" r:id="rId2917" display="https://pan.quark.cn/s/6ec65ba23615"/>
+    <hyperlink ref="B1613" r:id="rId2918" display="https://pan.baidu.com/s/1htTBJqURB-FvydS9LZnllQ?pwd=gbu2"/>
+    <hyperlink ref="C1613" r:id="rId2919" display="https://pan.quark.cn/s/3e3c29ae6abc"/>
+    <hyperlink ref="C1614" r:id="rId2920" display="https://pan.quark.cn/s/21685fafbfa5"/>
+    <hyperlink ref="B1614" r:id="rId2921" display="https://pan.baidu.com/s/1K3srpw5efwbR-rElzU5gtA?pwd=hp6z"/>
+    <hyperlink ref="C1615" r:id="rId2922" display="https://pan.quark.cn/s/e13ba73c7765"/>
+    <hyperlink ref="B1615" r:id="rId2923" display="https://pan.baidu.com/s/1KFpdOcoCzV8a86QI-V8z7Q?pwd=mdtg"/>
+    <hyperlink ref="B1616" r:id="rId2924" display="https://pan.baidu.com/s/1YnlvZB-HdDPY40BvZNY52g?pwd=d4ey"/>
+    <hyperlink ref="B1617" r:id="rId2925" display="https://pan.baidu.com/s/1zb9-yQ1uJzxcCQdCtJmYRA?pwd=cukh"/>
+    <hyperlink ref="B1618" r:id="rId2926" display="https://pan.baidu.com/s/1ZRy6O_DqK2N1HRU0H8zqTA?pwd=mif5"/>
+    <hyperlink ref="B1619" r:id="rId2927" display="https://pan.baidu.com/s/1LS5llyXmG7wyM0JEeXJKHQ?pwd=7scs"/>
+    <hyperlink ref="C1620" r:id="rId2928" display="https://pan.quark.cn/s/12a800d5a25a"/>
+    <hyperlink ref="B1620" r:id="rId2929" display="https://pan.baidu.com/s/1rGlHxVXh02xBWg3fwI2knA?pwd=dbgm"/>
+    <hyperlink ref="B1621" r:id="rId2930" display="https://pan.baidu.com/s/1OZt_4uWuPBi79jNCuso5uA?pwd=uxtb"/>
+    <hyperlink ref="B1622" r:id="rId2931" display="https://pan.baidu.com/s/1EYOf123PHD0H84NlsGKBjA?pwd=bewn"/>
+    <hyperlink ref="C1621" r:id="rId2932" display="https://pan.quark.cn/s/2de0d890a712"/>
+    <hyperlink ref="C1622" r:id="rId2933" display="https://pan.quark.cn/s/9f5297521ac5"/>
+    <hyperlink ref="B1623" r:id="rId2934" display="https://pan.baidu.com/s/1lS91uqImStY6pBZciLh2jg?pwd=xt5r"/>
+    <hyperlink ref="C1623" r:id="rId2935" display="https://pan.quark.cn/s/be9c6912802f"/>
+    <hyperlink ref="B1624" r:id="rId2936" display="https://pan.baidu.com/s/19EUFEGd0xrQ0vRkCAHl--w?pwd=mhd9"/>
+    <hyperlink ref="C1624" r:id="rId2937" display="https://pan.quark.cn/s/e01f74270537"/>
+    <hyperlink ref="B1625" r:id="rId2938" display="https://pan.baidu.com/s/1foFSBbtC5HfCK3c6QJf8xQ?pwd=actd"/>
+    <hyperlink ref="C1625" r:id="rId2939" display="https://pan.quark.cn/s/388f29b4833b"/>
+    <hyperlink ref="C1626" r:id="rId2940" display="https://pan.quark.cn/s/16ba1c0549cb"/>
+    <hyperlink ref="B1626" r:id="rId2941" display="https://pan.baidu.com/s/1JdZzS5isYEVSczKTh-f1Pw?pwd=7ai9"/>
+    <hyperlink ref="C1627" r:id="rId2942" display="https://pan.quark.cn/s/f575e240070d"/>
+    <hyperlink ref="C1628" r:id="rId2943" display="https://pan.quark.cn/s/333d6c9d92f0"/>
+    <hyperlink ref="B1627" r:id="rId2944" display="https://pan.baidu.com/s/1iIvBuygVIVdYq9DoIf7iEQ?pwd=v677"/>
+    <hyperlink ref="B1628" r:id="rId2945" display="https://pan.baidu.com/s/1lcOoQf_CNWrkgaEugufeZA?pwd=6pvf"/>
+    <hyperlink ref="C1629" r:id="rId2946" display="https://pan.quark.cn/s/f2022b49a41d"/>
+    <hyperlink ref="B1629" r:id="rId2947" display="https://pan.baidu.com/s/1IzbXLtbG0vF8X_b3wRvFmQ?pwd=su1w"/>
+    <hyperlink ref="C1630" r:id="rId2948" display="https://pan.quark.cn/s/483fc79ff090"/>
+    <hyperlink ref="C1631" r:id="rId2949" display="https://pan.quark.cn/s/c8ec4a5e6eba"/>
+    <hyperlink ref="B1631" r:id="rId2950" display="https://pan.baidu.com/s/1y6cb3zJhRjzqGXPcx1sjBQ?pwd=93am"/>
+    <hyperlink ref="B1630" r:id="rId2951" display="https://pan.baidu.com/s/1fUcKOYQKqyNp8TvIvfbyUw?pwd=pi64"/>
+    <hyperlink ref="C1632" r:id="rId2952" display="https://pan.quark.cn/s/3ce6695311cd"/>
+    <hyperlink ref="B1632" r:id="rId2953" display="https://pan.baidu.com/s/1j9r42ecioyHmwHvAqs23Fg?pwd=ag6e"/>
+    <hyperlink ref="B1633" r:id="rId2954" display="https://pan.baidu.com/s/1sgc3l1Fzbj9gWVzdhb_5kA?pwd=985x"/>
+    <hyperlink ref="C1634" r:id="rId2955" display="https://pan.quark.cn/s/d1044f7d1ec0"/>
+    <hyperlink ref="B1634" r:id="rId2956" display="https://pan.baidu.com/s/1oZ6ucELnRa-5W35qXqKi8Q?pwd=6jgq"/>
+    <hyperlink ref="C1635" r:id="rId2957" display="https://pan.quark.cn/s/8570f107d300"/>
+    <hyperlink ref="B1635" r:id="rId2958" display="https://pan.baidu.com/s/14WQGlY4BzJGatfUzSxm1vg?pwd=xq3s"/>
+    <hyperlink ref="C1636" r:id="rId2959" display="https://pan.quark.cn/s/4c9054ab01b2"/>
+    <hyperlink ref="B1636" r:id="rId2960" display="https://pan.baidu.com/s/1esVKd6NWHgauHfCkkaNHfw?pwd=i4cm"/>
+    <hyperlink ref="C1637" r:id="rId2961" display="https://pan.quark.cn/s/54db6f730bf7"/>
+    <hyperlink ref="B1637" r:id="rId2962" display="https://pan.baidu.com/s/1oWxq0nqzgD5QM2EuMUoN0g?pwd=wej3"/>
+    <hyperlink ref="B1638" r:id="rId2963" display="https://pan.baidu.com/s/1LYSd_4pT8mNy8Si0OmVRvQ?pwd=vsvi"/>
+    <hyperlink ref="C1638" r:id="rId2964" display="https://pan.quark.cn/s/89911b1f8410"/>
+    <hyperlink ref="B1639" r:id="rId2965" display="https://pan.baidu.com/s/1pYhiIMYj8cSVZu6Ft83yjg?pwd=gbhv"/>
+    <hyperlink ref="C1639" r:id="rId2966" display="https://pan.quark.cn/s/07e91d86839b"/>
+    <hyperlink ref="B1640" r:id="rId2967" display="https://pan.baidu.com/s/1I_M-J9tjPT7XJpnrS1-9Dg?pwd=irbb"/>
+    <hyperlink ref="C1640" r:id="rId2968" display="https://pan.quark.cn/s/89ab90e4a9e4"/>
+    <hyperlink ref="C1641" r:id="rId2969" display="https://pan.quark.cn/s/4e56263db4a6"/>
+    <hyperlink ref="B1641" r:id="rId2970" display="https://pan.baidu.com/s/1cNDONpn5BSB_-SbQzwdPJA?pwd=578n"/>
+    <hyperlink ref="B1642" r:id="rId2971" display="https://pan.baidu.com/s/1Tz7G34n4_6XNHG1Gkq_I4Q?pwd=3nrq"/>
+    <hyperlink ref="C1642" r:id="rId2972" display="https://pan.quark.cn/s/eb10548d6001"/>
+    <hyperlink ref="B1643" r:id="rId2973" display="https://pan.baidu.com/s/1shvXjSoNeOYHnyLOKppLkA?pwd=npjx"/>
+    <hyperlink ref="C1643" r:id="rId2974" display="https://pan.quark.cn/s/5ed7429620fb"/>
+    <hyperlink ref="C1644" r:id="rId2975" display="https://pan.quark.cn/s/66e5f950660b"/>
+    <hyperlink ref="B1645" r:id="rId2976" display="https://pan.baidu.com/s/1G9rcdsOcOkn22wLaBieyUw?pwd=gwkw"/>
+    <hyperlink ref="C1645" r:id="rId2977" display="https://pan.quark.cn/s/68382e1e6b9f"/>
+    <hyperlink ref="B1646" r:id="rId2978" display="https://pan.baidu.com/s/1lZJcqZRYXeAOFg2DtTc_8Q?pwd=2trg"/>
+    <hyperlink ref="C1646" r:id="rId2979" display="https://pan.quark.cn/s/fa7165694214"/>
+    <hyperlink ref="B1647" r:id="rId2980" display="https://pan.baidu.com/s/1OkWDaNGh_zZ0BAD9eeuH3g?pwd=hjgq"/>
+    <hyperlink ref="C1647" r:id="rId2981" display="https://pan.quark.cn/s/5aaaae1bf50c"/>
+    <hyperlink ref="C1648" r:id="rId2982" display="https://pan.quark.cn/s/678e24cd4e2e"/>
+    <hyperlink ref="C1649" r:id="rId2983" display="https://pan.quark.cn/s/52a48c1a78ed"/>
+    <hyperlink ref="B1649" r:id="rId2984" display="https://pan.baidu.com/s/1slOswDk9EblXGkzL8ZO8RQ?pwd=wuz5"/>
+    <hyperlink ref="C1650" r:id="rId2985" display="https://pan.quark.cn/s/a840fbbb0356"/>
+    <hyperlink ref="B1650" r:id="rId2986" display="https://pan.baidu.com/s/1nLWjdBd74TM9NnRiTmEYwQ?pwd=b5tr"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -35578,7 +36452,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D1605"/>
+  <dimension ref="A1:D1646"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection/>
@@ -35604,7 +36478,7 @@
         <v>6</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>4534</v>
+        <v>4650</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:4">
@@ -52553,7 +53427,7 @@
     </row>
     <row r="1414" customHeight="1" spans="1:4">
       <c r="A1414" s="5" t="s">
-        <v>4535</v>
+        <v>4651</v>
       </c>
       <c r="B1414" s="4" t="s">
         <v>3987</v>
@@ -54854,6 +55728,498 @@
         <v>4533</v>
       </c>
       <c r="D1605" s="4"/>
+    </row>
+    <row r="1606" customHeight="1" spans="1:4">
+      <c r="A1606" s="4" t="s">
+        <v>4534</v>
+      </c>
+      <c r="B1606" s="4" t="s">
+        <v>4535</v>
+      </c>
+      <c r="C1606" s="4" t="s">
+        <v>4536</v>
+      </c>
+      <c r="D1606" s="4"/>
+    </row>
+    <row r="1607" customHeight="1" spans="1:4">
+      <c r="A1607" s="4" t="s">
+        <v>4537</v>
+      </c>
+      <c r="B1607" s="4" t="s">
+        <v>4538</v>
+      </c>
+      <c r="C1607" s="4" t="s">
+        <v>4539</v>
+      </c>
+      <c r="D1607" s="4"/>
+    </row>
+    <row r="1608" customHeight="1" spans="1:4">
+      <c r="A1608" s="4" t="s">
+        <v>4540</v>
+      </c>
+      <c r="B1608" s="4" t="s">
+        <v>4541</v>
+      </c>
+      <c r="C1608" s="4" t="s">
+        <v>4542</v>
+      </c>
+      <c r="D1608" s="4"/>
+    </row>
+    <row r="1609" customHeight="1" spans="1:4">
+      <c r="A1609" s="4" t="s">
+        <v>4543</v>
+      </c>
+      <c r="B1609" s="4" t="s">
+        <v>4544</v>
+      </c>
+      <c r="C1609" s="4" t="s">
+        <v>4545</v>
+      </c>
+      <c r="D1609" s="4"/>
+    </row>
+    <row r="1610" customHeight="1" spans="1:4">
+      <c r="A1610" s="4" t="s">
+        <v>4546</v>
+      </c>
+      <c r="B1610" s="4" t="s">
+        <v>4547</v>
+      </c>
+      <c r="C1610" s="4" t="s">
+        <v>4548</v>
+      </c>
+      <c r="D1610" s="4"/>
+    </row>
+    <row r="1611" customHeight="1" spans="1:4">
+      <c r="A1611" s="4" t="s">
+        <v>4549</v>
+      </c>
+      <c r="B1611" s="4" t="s">
+        <v>4550</v>
+      </c>
+      <c r="C1611" s="4" t="s">
+        <v>4551</v>
+      </c>
+      <c r="D1611" s="4"/>
+    </row>
+    <row r="1612" customHeight="1" spans="1:4">
+      <c r="A1612" s="4" t="s">
+        <v>4552</v>
+      </c>
+      <c r="B1612" s="4" t="s">
+        <v>4553</v>
+      </c>
+      <c r="C1612" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="D1612" s="4"/>
+    </row>
+    <row r="1613" customHeight="1" spans="1:4">
+      <c r="A1613" s="4" t="s">
+        <v>4554</v>
+      </c>
+      <c r="B1613" s="4" t="s">
+        <v>4555</v>
+      </c>
+      <c r="C1613" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="D1613" s="4"/>
+    </row>
+    <row r="1614" customHeight="1" spans="1:4">
+      <c r="A1614" s="4" t="s">
+        <v>4556</v>
+      </c>
+      <c r="B1614" s="4" t="s">
+        <v>4557</v>
+      </c>
+      <c r="C1614" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="D1614" s="4"/>
+    </row>
+    <row r="1615" customHeight="1" spans="1:4">
+      <c r="A1615" s="4" t="s">
+        <v>4558</v>
+      </c>
+      <c r="B1615" s="4" t="s">
+        <v>4559</v>
+      </c>
+      <c r="C1615" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="D1615" s="4"/>
+    </row>
+    <row r="1616" customHeight="1" spans="1:4">
+      <c r="A1616" s="4" t="s">
+        <v>4560</v>
+      </c>
+      <c r="B1616" s="4" t="s">
+        <v>4561</v>
+      </c>
+      <c r="C1616" s="4" t="s">
+        <v>4562</v>
+      </c>
+      <c r="D1616" s="4"/>
+    </row>
+    <row r="1617" customHeight="1" spans="1:4">
+      <c r="A1617" s="4" t="s">
+        <v>4563</v>
+      </c>
+      <c r="B1617" s="4" t="s">
+        <v>4564</v>
+      </c>
+      <c r="C1617" s="4" t="s">
+        <v>4565</v>
+      </c>
+      <c r="D1617" s="4"/>
+    </row>
+    <row r="1618" customHeight="1" spans="1:4">
+      <c r="A1618" s="4" t="s">
+        <v>4566</v>
+      </c>
+      <c r="B1618" s="4" t="s">
+        <v>4567</v>
+      </c>
+      <c r="C1618" s="4" t="s">
+        <v>4568</v>
+      </c>
+      <c r="D1618" s="4"/>
+    </row>
+    <row r="1619" customHeight="1" spans="1:4">
+      <c r="A1619" s="4" t="s">
+        <v>4569</v>
+      </c>
+      <c r="B1619" s="4" t="s">
+        <v>4570</v>
+      </c>
+      <c r="C1619" s="4" t="s">
+        <v>4571</v>
+      </c>
+      <c r="D1619" s="4"/>
+    </row>
+    <row r="1620" customHeight="1" spans="1:4">
+      <c r="A1620" s="4" t="s">
+        <v>4572</v>
+      </c>
+      <c r="B1620" s="4" t="s">
+        <v>4573</v>
+      </c>
+      <c r="C1620" s="4" t="s">
+        <v>4574</v>
+      </c>
+      <c r="D1620" s="4"/>
+    </row>
+    <row r="1621" customHeight="1" spans="1:4">
+      <c r="A1621" s="4" t="s">
+        <v>4575</v>
+      </c>
+      <c r="B1621" s="4" t="s">
+        <v>4576</v>
+      </c>
+      <c r="C1621" s="4" t="s">
+        <v>4577</v>
+      </c>
+      <c r="D1621" s="4"/>
+    </row>
+    <row r="1622" customHeight="1" spans="1:4">
+      <c r="A1622" s="4" t="s">
+        <v>4578</v>
+      </c>
+      <c r="B1622" s="4" t="s">
+        <v>4579</v>
+      </c>
+      <c r="C1622" s="4" t="s">
+        <v>4580</v>
+      </c>
+      <c r="D1622" s="4"/>
+    </row>
+    <row r="1623" customHeight="1" spans="1:4">
+      <c r="A1623" s="4" t="s">
+        <v>4581</v>
+      </c>
+      <c r="B1623" s="4" t="s">
+        <v>4582</v>
+      </c>
+      <c r="C1623" s="4" t="s">
+        <v>4583</v>
+      </c>
+      <c r="D1623" s="4"/>
+    </row>
+    <row r="1624" customHeight="1" spans="1:4">
+      <c r="A1624" s="4" t="s">
+        <v>4584</v>
+      </c>
+      <c r="B1624" s="4" t="s">
+        <v>4585</v>
+      </c>
+      <c r="C1624" s="4" t="s">
+        <v>4586</v>
+      </c>
+      <c r="D1624" s="4"/>
+    </row>
+    <row r="1625" customHeight="1" spans="1:4">
+      <c r="A1625" s="4" t="s">
+        <v>4587</v>
+      </c>
+      <c r="B1625" s="4" t="s">
+        <v>4588</v>
+      </c>
+      <c r="C1625" s="4" t="s">
+        <v>4589</v>
+      </c>
+      <c r="D1625" s="4"/>
+    </row>
+    <row r="1626" customHeight="1" spans="1:4">
+      <c r="A1626" s="4" t="s">
+        <v>4590</v>
+      </c>
+      <c r="B1626" s="4" t="s">
+        <v>4591</v>
+      </c>
+      <c r="C1626" s="4" t="s">
+        <v>4592</v>
+      </c>
+      <c r="D1626" s="4"/>
+    </row>
+    <row r="1627" customHeight="1" spans="1:4">
+      <c r="A1627" s="4" t="s">
+        <v>4593</v>
+      </c>
+      <c r="B1627" s="4" t="s">
+        <v>4594</v>
+      </c>
+      <c r="C1627" s="4" t="s">
+        <v>4595</v>
+      </c>
+      <c r="D1627" s="4"/>
+    </row>
+    <row r="1628" customHeight="1" spans="1:4">
+      <c r="A1628" s="4" t="s">
+        <v>4596</v>
+      </c>
+      <c r="B1628" s="4" t="s">
+        <v>4597</v>
+      </c>
+      <c r="C1628" s="4" t="s">
+        <v>4598</v>
+      </c>
+      <c r="D1628" s="4"/>
+    </row>
+    <row r="1629" customHeight="1" spans="1:4">
+      <c r="A1629" s="4" t="s">
+        <v>4599</v>
+      </c>
+      <c r="B1629" s="4" t="s">
+        <v>4600</v>
+      </c>
+      <c r="C1629" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="D1629" s="4"/>
+    </row>
+    <row r="1630" customHeight="1" spans="1:4">
+      <c r="A1630" s="4" t="s">
+        <v>4601</v>
+      </c>
+      <c r="B1630" s="4" t="s">
+        <v>4602</v>
+      </c>
+      <c r="C1630" s="4" t="s">
+        <v>4603</v>
+      </c>
+      <c r="D1630" s="4"/>
+    </row>
+    <row r="1631" customHeight="1" spans="1:4">
+      <c r="A1631" s="4" t="s">
+        <v>4604</v>
+      </c>
+      <c r="B1631" s="4" t="s">
+        <v>4605</v>
+      </c>
+      <c r="C1631" s="4" t="s">
+        <v>4606</v>
+      </c>
+      <c r="D1631" s="4"/>
+    </row>
+    <row r="1632" customHeight="1" spans="1:4">
+      <c r="A1632" s="4" t="s">
+        <v>4607</v>
+      </c>
+      <c r="B1632" s="4" t="s">
+        <v>4608</v>
+      </c>
+      <c r="C1632" s="4" t="s">
+        <v>4609</v>
+      </c>
+      <c r="D1632" s="4"/>
+    </row>
+    <row r="1633" customHeight="1" spans="1:4">
+      <c r="A1633" s="4" t="s">
+        <v>4610</v>
+      </c>
+      <c r="B1633" s="4" t="s">
+        <v>4611</v>
+      </c>
+      <c r="C1633" s="4" t="s">
+        <v>4612</v>
+      </c>
+      <c r="D1633" s="4"/>
+    </row>
+    <row r="1634" customHeight="1" spans="1:4">
+      <c r="A1634" s="4" t="s">
+        <v>4613</v>
+      </c>
+      <c r="B1634" s="4" t="s">
+        <v>4614</v>
+      </c>
+      <c r="C1634" s="4" t="s">
+        <v>4615</v>
+      </c>
+      <c r="D1634" s="4"/>
+    </row>
+    <row r="1635" customHeight="1" spans="1:4">
+      <c r="A1635" s="4" t="s">
+        <v>4616</v>
+      </c>
+      <c r="B1635" s="4" t="s">
+        <v>4617</v>
+      </c>
+      <c r="C1635" s="4" t="s">
+        <v>4618</v>
+      </c>
+      <c r="D1635" s="4"/>
+    </row>
+    <row r="1636" customHeight="1" spans="1:4">
+      <c r="A1636" s="4" t="s">
+        <v>4619</v>
+      </c>
+      <c r="B1636" s="4" t="s">
+        <v>4620</v>
+      </c>
+      <c r="C1636" s="4" t="s">
+        <v>4621</v>
+      </c>
+      <c r="D1636" s="4"/>
+    </row>
+    <row r="1637" customHeight="1" spans="1:4">
+      <c r="A1637" s="4" t="s">
+        <v>4622</v>
+      </c>
+      <c r="B1637" s="4" t="s">
+        <v>4623</v>
+      </c>
+      <c r="C1637" s="4" t="s">
+        <v>4624</v>
+      </c>
+      <c r="D1637" s="4"/>
+    </row>
+    <row r="1638" customHeight="1" spans="1:4">
+      <c r="A1638" s="4" t="s">
+        <v>4625</v>
+      </c>
+      <c r="B1638" s="4" t="s">
+        <v>4626</v>
+      </c>
+      <c r="C1638" s="4" t="s">
+        <v>4627</v>
+      </c>
+      <c r="D1638" s="4"/>
+    </row>
+    <row r="1639" customHeight="1" spans="1:4">
+      <c r="A1639" s="4" t="s">
+        <v>4628</v>
+      </c>
+      <c r="B1639" s="4" t="s">
+        <v>4629</v>
+      </c>
+      <c r="C1639" s="4" t="s">
+        <v>4630</v>
+      </c>
+      <c r="D1639" s="4"/>
+    </row>
+    <row r="1640" customHeight="1" spans="1:4">
+      <c r="A1640" s="4" t="s">
+        <v>4631</v>
+      </c>
+      <c r="B1640" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="C1640" s="4" t="s">
+        <v>4632</v>
+      </c>
+      <c r="D1640" s="4"/>
+    </row>
+    <row r="1641" customHeight="1" spans="1:4">
+      <c r="A1641" s="4" t="s">
+        <v>4633</v>
+      </c>
+      <c r="B1641" s="4" t="s">
+        <v>4634</v>
+      </c>
+      <c r="C1641" s="4" t="s">
+        <v>4635</v>
+      </c>
+      <c r="D1641" s="4"/>
+    </row>
+    <row r="1642" customHeight="1" spans="1:4">
+      <c r="A1642" s="4" t="s">
+        <v>4636</v>
+      </c>
+      <c r="B1642" s="4" t="s">
+        <v>4637</v>
+      </c>
+      <c r="C1642" s="4" t="s">
+        <v>4638</v>
+      </c>
+      <c r="D1642" s="4"/>
+    </row>
+    <row r="1643" customHeight="1" spans="1:4">
+      <c r="A1643" s="4" t="s">
+        <v>4639</v>
+      </c>
+      <c r="B1643" s="4" t="s">
+        <v>4640</v>
+      </c>
+      <c r="C1643" s="4" t="s">
+        <v>4641</v>
+      </c>
+      <c r="D1643" s="4"/>
+    </row>
+    <row r="1644" customHeight="1" spans="1:4">
+      <c r="A1644" s="4" t="s">
+        <v>4642</v>
+      </c>
+      <c r="B1644" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="C1644" s="4" t="s">
+        <v>4643</v>
+      </c>
+      <c r="D1644" s="4"/>
+    </row>
+    <row r="1645" customHeight="1" spans="1:4">
+      <c r="A1645" s="4" t="s">
+        <v>4644</v>
+      </c>
+      <c r="B1645" s="4" t="s">
+        <v>4645</v>
+      </c>
+      <c r="C1645" s="4" t="s">
+        <v>4646</v>
+      </c>
+      <c r="D1645" s="4"/>
+    </row>
+    <row r="1646" customHeight="1" spans="1:4">
+      <c r="A1646" s="4" t="s">
+        <v>4647</v>
+      </c>
+      <c r="B1646" s="4" t="s">
+        <v>4648</v>
+      </c>
+      <c r="C1646" s="4" t="s">
+        <v>4649</v>
+      </c>
+      <c r="D1646" s="4"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertColumns="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
